--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="254">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -571,6 +571,12 @@
     <t>['5', '32']</t>
   </si>
   <si>
+    <t>['7']</t>
+  </si>
+  <si>
+    <t>['22', '59', '66']</t>
+  </si>
+  <si>
     <t>['17']</t>
   </si>
   <si>
@@ -667,9 +673,6 @@
     <t>['30', '89']</t>
   </si>
   <si>
-    <t>['7']</t>
-  </si>
-  <si>
     <t>['21', '35', '43', '51', '59', '87']</t>
   </si>
   <si>
@@ -764,6 +767,15 @@
   </si>
   <si>
     <t>['59']</t>
+  </si>
+  <si>
+    <t>['3', '31', '68']</t>
+  </si>
+  <si>
+    <t>['4', '24']</t>
+  </si>
+  <si>
+    <t>['5', '11', '86']</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK138"/>
+  <dimension ref="A1:BK142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1456,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT2">
         <v>1.13</v>
@@ -1560,7 +1572,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1838,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT4">
         <v>0.57</v>
@@ -1942,7 +1954,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2032,7 +2044,7 @@
         <v>2.63</v>
       </c>
       <c r="AT5">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2133,7 +2145,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2324,7 +2336,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2793,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT9">
         <v>0.71</v>
@@ -2897,7 +2909,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -2987,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="AT10">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3279,7 +3291,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3470,7 +3482,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3661,7 +3673,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3939,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT15">
         <v>0.71</v>
@@ -4133,7 +4145,7 @@
         <v>1.33</v>
       </c>
       <c r="AT16">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4324,7 +4336,7 @@
         <v>2.57</v>
       </c>
       <c r="AT17">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4425,7 +4437,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4616,7 +4628,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -4998,7 +5010,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5189,7 +5201,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5380,7 +5392,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5658,10 +5670,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT24">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU24">
         <v>1.07</v>
@@ -5953,7 +5965,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6043,7 +6055,7 @@
         <v>1.29</v>
       </c>
       <c r="AT26">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU26">
         <v>1.37</v>
@@ -6526,7 +6538,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6613,7 +6625,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT29">
         <v>2</v>
@@ -7189,7 +7201,7 @@
         <v>1.57</v>
       </c>
       <c r="AT32">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU32">
         <v>1.92</v>
@@ -7377,7 +7389,7 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT33">
         <v>1.57</v>
@@ -7863,7 +7875,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8054,7 +8066,7 @@
         <v>96</v>
       </c>
       <c r="P37" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -8436,7 +8448,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8523,7 +8535,7 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT39">
         <v>0.17</v>
@@ -8627,7 +8639,7 @@
         <v>98</v>
       </c>
       <c r="P40" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -8717,7 +8729,7 @@
         <v>0.86</v>
       </c>
       <c r="AT40">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU40">
         <v>1.56</v>
@@ -9009,7 +9021,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9099,7 +9111,7 @@
         <v>2.57</v>
       </c>
       <c r="AT42">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU42">
         <v>2.1</v>
@@ -9200,7 +9212,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9391,7 +9403,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9669,10 +9681,10 @@
         <v>1.5</v>
       </c>
       <c r="AS45">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT45">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU45">
         <v>2.15</v>
@@ -9773,7 +9785,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10537,7 +10549,7 @@
         <v>96</v>
       </c>
       <c r="P50" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10624,7 +10636,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT50">
         <v>1.13</v>
@@ -11110,7 +11122,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11197,7 +11209,7 @@
         <v>2</v>
       </c>
       <c r="AS53">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT53">
         <v>1.57</v>
@@ -11301,7 +11313,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11388,10 +11400,10 @@
         <v>1.5</v>
       </c>
       <c r="AS54">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT54">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU54">
         <v>1.67</v>
@@ -12256,7 +12268,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12447,7 +12459,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -12728,7 +12740,7 @@
         <v>1.5</v>
       </c>
       <c r="AT61">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU61">
         <v>1.63</v>
@@ -13211,7 +13223,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13593,7 +13605,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13871,7 +13883,7 @@
         <v>2.33</v>
       </c>
       <c r="AS67">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT67">
         <v>2</v>
@@ -13975,7 +13987,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -14253,7 +14265,7 @@
         <v>3</v>
       </c>
       <c r="AS69">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT69">
         <v>2.43</v>
@@ -14447,7 +14459,7 @@
         <v>1</v>
       </c>
       <c r="AT70">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU70">
         <v>1.87</v>
@@ -14548,7 +14560,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14638,7 +14650,7 @@
         <v>1.86</v>
       </c>
       <c r="AT71">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU71">
         <v>1.95</v>
@@ -14826,7 +14838,7 @@
         <v>0.67</v>
       </c>
       <c r="AS72">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT72">
         <v>1.14</v>
@@ -14930,7 +14942,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15020,7 +15032,7 @@
         <v>1.43</v>
       </c>
       <c r="AT73">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU73">
         <v>1.09</v>
@@ -15121,7 +15133,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="Q74">
         <v>10</v>
@@ -15312,7 +15324,7 @@
         <v>96</v>
       </c>
       <c r="P75" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15590,7 +15602,7 @@
         <v>0.33</v>
       </c>
       <c r="AS76">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT76">
         <v>0.17</v>
@@ -15694,7 +15706,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15885,7 +15897,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -15975,7 +15987,7 @@
         <v>1.33</v>
       </c>
       <c r="AT78">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU78">
         <v>1.22</v>
@@ -16267,7 +16279,7 @@
         <v>96</v>
       </c>
       <c r="P80" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16458,7 +16470,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16649,7 +16661,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -16840,7 +16852,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17121,7 +17133,7 @@
         <v>2.63</v>
       </c>
       <c r="AT84">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU84">
         <v>1.8</v>
@@ -17222,7 +17234,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17309,10 +17321,10 @@
         <v>1</v>
       </c>
       <c r="AS85">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT85">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU85">
         <v>1.59</v>
@@ -17413,7 +17425,7 @@
         <v>89</v>
       </c>
       <c r="P86" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17795,7 +17807,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -18073,7 +18085,7 @@
         <v>0.5</v>
       </c>
       <c r="AS89">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT89">
         <v>0.43</v>
@@ -18941,7 +18953,7 @@
         <v>156</v>
       </c>
       <c r="P94" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19132,7 +19144,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19323,7 +19335,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19601,7 +19613,7 @@
         <v>0.25</v>
       </c>
       <c r="AS97">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT97">
         <v>0.17</v>
@@ -19795,7 +19807,7 @@
         <v>1.5</v>
       </c>
       <c r="AT98">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU98">
         <v>1.69</v>
@@ -19896,7 +19908,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q99">
         <v>10</v>
@@ -19986,7 +19998,7 @@
         <v>1.33</v>
       </c>
       <c r="AT99">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU99">
         <v>1.21</v>
@@ -20365,7 +20377,7 @@
         <v>0.75</v>
       </c>
       <c r="AS101">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT101">
         <v>0.71</v>
@@ -20469,7 +20481,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q102">
         <v>1</v>
@@ -20559,7 +20571,7 @@
         <v>1.71</v>
       </c>
       <c r="AT102">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU102">
         <v>1.61</v>
@@ -20750,7 +20762,7 @@
         <v>1</v>
       </c>
       <c r="AT103">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU103">
         <v>1.66</v>
@@ -21129,7 +21141,7 @@
         <v>0.2</v>
       </c>
       <c r="AS105">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT105">
         <v>0.57</v>
@@ -21233,7 +21245,7 @@
         <v>106</v>
       </c>
       <c r="P106" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21424,7 +21436,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21806,7 +21818,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -21997,7 +22009,7 @@
         <v>96</v>
       </c>
       <c r="P110" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22084,7 +22096,7 @@
         <v>0.4</v>
       </c>
       <c r="AS110">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT110">
         <v>1.14</v>
@@ -22379,7 +22391,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22469,7 +22481,7 @@
         <v>0.86</v>
       </c>
       <c r="AT112">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU112">
         <v>1.55</v>
@@ -22570,7 +22582,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q113">
         <v>1</v>
@@ -22657,7 +22669,7 @@
         <v>0.6</v>
       </c>
       <c r="AS113">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT113">
         <v>0.57</v>
@@ -22761,7 +22773,7 @@
         <v>96</v>
       </c>
       <c r="P114" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q114">
         <v>15</v>
@@ -22848,7 +22860,7 @@
         <v>1.6</v>
       </c>
       <c r="AS114">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT114">
         <v>1.57</v>
@@ -22952,7 +22964,7 @@
         <v>168</v>
       </c>
       <c r="P115" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -23039,7 +23051,7 @@
         <v>0.2</v>
       </c>
       <c r="AS115">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT115">
         <v>0.17</v>
@@ -23143,7 +23155,7 @@
         <v>96</v>
       </c>
       <c r="P116" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23525,7 +23537,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -23716,7 +23728,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -24098,7 +24110,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q121">
         <v>8</v>
@@ -24188,7 +24200,7 @@
         <v>2</v>
       </c>
       <c r="AT121">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU121">
         <v>2.28</v>
@@ -24480,7 +24492,7 @@
         <v>174</v>
       </c>
       <c r="P123" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24671,7 +24683,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -24862,7 +24874,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -24949,7 +24961,7 @@
         <v>0.83</v>
       </c>
       <c r="AS125">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT125">
         <v>1.14</v>
@@ -25053,7 +25065,7 @@
         <v>176</v>
       </c>
       <c r="P126" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q126">
         <v>6</v>
@@ -25143,7 +25155,7 @@
         <v>2.57</v>
       </c>
       <c r="AT126">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU126">
         <v>1.78</v>
@@ -25244,7 +25256,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25334,7 +25346,7 @@
         <v>1.5</v>
       </c>
       <c r="AT127">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU127">
         <v>1.68</v>
@@ -25435,7 +25447,7 @@
         <v>178</v>
       </c>
       <c r="P128" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q128">
         <v>10</v>
@@ -25626,7 +25638,7 @@
         <v>96</v>
       </c>
       <c r="P129" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25817,7 +25829,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -26199,7 +26211,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q132">
         <v>13</v>
@@ -27154,7 +27166,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q137">
         <v>10</v>
@@ -27487,6 +27499,770 @@
       </c>
       <c r="BK138">
         <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:63">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>2604116</v>
+      </c>
+      <c r="C139" t="s">
+        <v>63</v>
+      </c>
+      <c r="D139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="2">
+        <v>44864.375</v>
+      </c>
+      <c r="F139">
+        <v>14</v>
+      </c>
+      <c r="G139" t="s">
+        <v>72</v>
+      </c>
+      <c r="H139" t="s">
+        <v>66</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>1</v>
+      </c>
+      <c r="O139" t="s">
+        <v>148</v>
+      </c>
+      <c r="P139" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q139">
+        <v>12</v>
+      </c>
+      <c r="R139">
+        <v>3</v>
+      </c>
+      <c r="S139">
+        <v>15</v>
+      </c>
+      <c r="T139">
+        <v>2.5</v>
+      </c>
+      <c r="U139">
+        <v>2.1</v>
+      </c>
+      <c r="V139">
+        <v>4.1</v>
+      </c>
+      <c r="W139">
+        <v>1.36</v>
+      </c>
+      <c r="X139">
+        <v>2.85</v>
+      </c>
+      <c r="Y139">
+        <v>2.55</v>
+      </c>
+      <c r="Z139">
+        <v>1.44</v>
+      </c>
+      <c r="AA139">
+        <v>6.25</v>
+      </c>
+      <c r="AB139">
+        <v>1.1</v>
+      </c>
+      <c r="AC139">
+        <v>1.85</v>
+      </c>
+      <c r="AD139">
+        <v>3.5</v>
+      </c>
+      <c r="AE139">
+        <v>3.8</v>
+      </c>
+      <c r="AF139">
+        <v>1.05</v>
+      </c>
+      <c r="AG139">
+        <v>9</v>
+      </c>
+      <c r="AH139">
+        <v>1.29</v>
+      </c>
+      <c r="AI139">
+        <v>3.5</v>
+      </c>
+      <c r="AJ139">
+        <v>1.74</v>
+      </c>
+      <c r="AK139">
+        <v>2.02</v>
+      </c>
+      <c r="AL139">
+        <v>1.66</v>
+      </c>
+      <c r="AM139">
+        <v>2.05</v>
+      </c>
+      <c r="AN139">
+        <v>1.25</v>
+      </c>
+      <c r="AO139">
+        <v>1.3</v>
+      </c>
+      <c r="AP139">
+        <v>1.82</v>
+      </c>
+      <c r="AQ139">
+        <v>2</v>
+      </c>
+      <c r="AR139">
+        <v>1.17</v>
+      </c>
+      <c r="AS139">
+        <v>2.13</v>
+      </c>
+      <c r="AT139">
+        <v>1</v>
+      </c>
+      <c r="AU139">
+        <v>1.92</v>
+      </c>
+      <c r="AV139">
+        <v>1.24</v>
+      </c>
+      <c r="AW139">
+        <v>3.16</v>
+      </c>
+      <c r="AX139">
+        <v>1.64</v>
+      </c>
+      <c r="AY139">
+        <v>8.1</v>
+      </c>
+      <c r="AZ139">
+        <v>2.78</v>
+      </c>
+      <c r="BA139">
+        <v>1.27</v>
+      </c>
+      <c r="BB139">
+        <v>1.5</v>
+      </c>
+      <c r="BC139">
+        <v>1.85</v>
+      </c>
+      <c r="BD139">
+        <v>2.45</v>
+      </c>
+      <c r="BE139">
+        <v>3.4</v>
+      </c>
+      <c r="BF139">
+        <v>11</v>
+      </c>
+      <c r="BG139">
+        <v>2</v>
+      </c>
+      <c r="BH139">
+        <v>8</v>
+      </c>
+      <c r="BI139">
+        <v>2</v>
+      </c>
+      <c r="BJ139">
+        <v>19</v>
+      </c>
+      <c r="BK139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:63">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>2604111</v>
+      </c>
+      <c r="C140" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E140" s="2">
+        <v>44864.41666666666</v>
+      </c>
+      <c r="F140">
+        <v>14</v>
+      </c>
+      <c r="G140" t="s">
+        <v>67</v>
+      </c>
+      <c r="H140" t="s">
+        <v>79</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>2</v>
+      </c>
+      <c r="K140">
+        <v>3</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>3</v>
+      </c>
+      <c r="N140">
+        <v>4</v>
+      </c>
+      <c r="O140" t="s">
+        <v>185</v>
+      </c>
+      <c r="P140" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q140">
+        <v>4</v>
+      </c>
+      <c r="R140">
+        <v>3</v>
+      </c>
+      <c r="S140">
+        <v>7</v>
+      </c>
+      <c r="T140">
+        <v>2.3</v>
+      </c>
+      <c r="U140">
+        <v>2.15</v>
+      </c>
+      <c r="V140">
+        <v>4.5</v>
+      </c>
+      <c r="W140">
+        <v>1.37</v>
+      </c>
+      <c r="X140">
+        <v>2.8</v>
+      </c>
+      <c r="Y140">
+        <v>2.65</v>
+      </c>
+      <c r="Z140">
+        <v>1.42</v>
+      </c>
+      <c r="AA140">
+        <v>6.75</v>
+      </c>
+      <c r="AB140">
+        <v>1.09</v>
+      </c>
+      <c r="AC140">
+        <v>1.72</v>
+      </c>
+      <c r="AD140">
+        <v>3.65</v>
+      </c>
+      <c r="AE140">
+        <v>4.3</v>
+      </c>
+      <c r="AF140">
+        <v>1.05</v>
+      </c>
+      <c r="AG140">
+        <v>9</v>
+      </c>
+      <c r="AH140">
+        <v>1.3</v>
+      </c>
+      <c r="AI140">
+        <v>3.4</v>
+      </c>
+      <c r="AJ140">
+        <v>1.84</v>
+      </c>
+      <c r="AK140">
+        <v>1.91</v>
+      </c>
+      <c r="AL140">
+        <v>1.78</v>
+      </c>
+      <c r="AM140">
+        <v>1.9</v>
+      </c>
+      <c r="AN140">
+        <v>1.2</v>
+      </c>
+      <c r="AO140">
+        <v>1.27</v>
+      </c>
+      <c r="AP140">
+        <v>2</v>
+      </c>
+      <c r="AQ140">
+        <v>1.83</v>
+      </c>
+      <c r="AR140">
+        <v>1</v>
+      </c>
+      <c r="AS140">
+        <v>1.57</v>
+      </c>
+      <c r="AT140">
+        <v>1.25</v>
+      </c>
+      <c r="AU140">
+        <v>1.51</v>
+      </c>
+      <c r="AV140">
+        <v>1.55</v>
+      </c>
+      <c r="AW140">
+        <v>3.06</v>
+      </c>
+      <c r="AX140">
+        <v>1.57</v>
+      </c>
+      <c r="AY140">
+        <v>8</v>
+      </c>
+      <c r="AZ140">
+        <v>3.02</v>
+      </c>
+      <c r="BA140">
+        <v>1.29</v>
+      </c>
+      <c r="BB140">
+        <v>1.53</v>
+      </c>
+      <c r="BC140">
+        <v>2</v>
+      </c>
+      <c r="BD140">
+        <v>2.55</v>
+      </c>
+      <c r="BE140">
+        <v>3.5</v>
+      </c>
+      <c r="BF140">
+        <v>3</v>
+      </c>
+      <c r="BG140">
+        <v>6</v>
+      </c>
+      <c r="BH140">
+        <v>3</v>
+      </c>
+      <c r="BI140">
+        <v>5</v>
+      </c>
+      <c r="BJ140">
+        <v>6</v>
+      </c>
+      <c r="BK140">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:63">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>2604109</v>
+      </c>
+      <c r="C141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="2">
+        <v>44865.625</v>
+      </c>
+      <c r="F141">
+        <v>14</v>
+      </c>
+      <c r="G141" t="s">
+        <v>65</v>
+      </c>
+      <c r="H141" t="s">
+        <v>77</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>2</v>
+      </c>
+      <c r="K141">
+        <v>3</v>
+      </c>
+      <c r="L141">
+        <v>3</v>
+      </c>
+      <c r="M141">
+        <v>2</v>
+      </c>
+      <c r="N141">
+        <v>5</v>
+      </c>
+      <c r="O141" t="s">
+        <v>186</v>
+      </c>
+      <c r="P141" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q141">
+        <v>5</v>
+      </c>
+      <c r="R141">
+        <v>8</v>
+      </c>
+      <c r="S141">
+        <v>13</v>
+      </c>
+      <c r="T141">
+        <v>2.1</v>
+      </c>
+      <c r="U141">
+        <v>2.38</v>
+      </c>
+      <c r="V141">
+        <v>5.5</v>
+      </c>
+      <c r="W141">
+        <v>1.33</v>
+      </c>
+      <c r="X141">
+        <v>3.25</v>
+      </c>
+      <c r="Y141">
+        <v>2.63</v>
+      </c>
+      <c r="Z141">
+        <v>1.44</v>
+      </c>
+      <c r="AA141">
+        <v>6.5</v>
+      </c>
+      <c r="AB141">
+        <v>1.11</v>
+      </c>
+      <c r="AC141">
+        <v>1.62</v>
+      </c>
+      <c r="AD141">
+        <v>3.75</v>
+      </c>
+      <c r="AE141">
+        <v>5</v>
+      </c>
+      <c r="AF141">
+        <v>1.04</v>
+      </c>
+      <c r="AG141">
+        <v>10</v>
+      </c>
+      <c r="AH141">
+        <v>1.22</v>
+      </c>
+      <c r="AI141">
+        <v>4</v>
+      </c>
+      <c r="AJ141">
+        <v>1.64</v>
+      </c>
+      <c r="AK141">
+        <v>2.2</v>
+      </c>
+      <c r="AL141">
+        <v>1.83</v>
+      </c>
+      <c r="AM141">
+        <v>1.83</v>
+      </c>
+      <c r="AN141">
+        <v>1.15</v>
+      </c>
+      <c r="AO141">
+        <v>1.23</v>
+      </c>
+      <c r="AP141">
+        <v>2.3</v>
+      </c>
+      <c r="AQ141">
+        <v>1.67</v>
+      </c>
+      <c r="AR141">
+        <v>0.33</v>
+      </c>
+      <c r="AS141">
+        <v>1.86</v>
+      </c>
+      <c r="AT141">
+        <v>0.29</v>
+      </c>
+      <c r="AU141">
+        <v>2</v>
+      </c>
+      <c r="AV141">
+        <v>1.16</v>
+      </c>
+      <c r="AW141">
+        <v>3.16</v>
+      </c>
+      <c r="AX141">
+        <v>1.4</v>
+      </c>
+      <c r="AY141">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ141">
+        <v>3.7</v>
+      </c>
+      <c r="BA141">
+        <v>1.16</v>
+      </c>
+      <c r="BB141">
+        <v>1.27</v>
+      </c>
+      <c r="BC141">
+        <v>1.49</v>
+      </c>
+      <c r="BD141">
+        <v>1.85</v>
+      </c>
+      <c r="BE141">
+        <v>2.32</v>
+      </c>
+      <c r="BF141">
+        <v>6</v>
+      </c>
+      <c r="BG141">
+        <v>5</v>
+      </c>
+      <c r="BH141">
+        <v>10</v>
+      </c>
+      <c r="BI141">
+        <v>6</v>
+      </c>
+      <c r="BJ141">
+        <v>16</v>
+      </c>
+      <c r="BK141">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:63">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>2604123</v>
+      </c>
+      <c r="C142" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="2">
+        <v>44869.625</v>
+      </c>
+      <c r="F142">
+        <v>15</v>
+      </c>
+      <c r="G142" t="s">
+        <v>78</v>
+      </c>
+      <c r="H142" t="s">
+        <v>74</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>2</v>
+      </c>
+      <c r="K142">
+        <v>2</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>3</v>
+      </c>
+      <c r="N142">
+        <v>3</v>
+      </c>
+      <c r="O142" t="s">
+        <v>96</v>
+      </c>
+      <c r="P142" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q142">
+        <v>10</v>
+      </c>
+      <c r="R142">
+        <v>4</v>
+      </c>
+      <c r="S142">
+        <v>14</v>
+      </c>
+      <c r="T142">
+        <v>3.6</v>
+      </c>
+      <c r="U142">
+        <v>2.15</v>
+      </c>
+      <c r="V142">
+        <v>2.6</v>
+      </c>
+      <c r="W142">
+        <v>1.32</v>
+      </c>
+      <c r="X142">
+        <v>3.1</v>
+      </c>
+      <c r="Y142">
+        <v>2.4</v>
+      </c>
+      <c r="Z142">
+        <v>1.5</v>
+      </c>
+      <c r="AA142">
+        <v>5.75</v>
+      </c>
+      <c r="AB142">
+        <v>1.12</v>
+      </c>
+      <c r="AC142">
+        <v>3.32</v>
+      </c>
+      <c r="AD142">
+        <v>3.84</v>
+      </c>
+      <c r="AE142">
+        <v>1.98</v>
+      </c>
+      <c r="AF142">
+        <v>1.04</v>
+      </c>
+      <c r="AG142">
+        <v>11</v>
+      </c>
+      <c r="AH142">
+        <v>1.22</v>
+      </c>
+      <c r="AI142">
+        <v>4</v>
+      </c>
+      <c r="AJ142">
+        <v>1.59</v>
+      </c>
+      <c r="AK142">
+        <v>2.13</v>
+      </c>
+      <c r="AL142">
+        <v>1.57</v>
+      </c>
+      <c r="AM142">
+        <v>2.25</v>
+      </c>
+      <c r="AN142">
+        <v>1.72</v>
+      </c>
+      <c r="AO142">
+        <v>1.28</v>
+      </c>
+      <c r="AP142">
+        <v>1.31</v>
+      </c>
+      <c r="AQ142">
+        <v>1.14</v>
+      </c>
+      <c r="AR142">
+        <v>1.43</v>
+      </c>
+      <c r="AS142">
+        <v>1</v>
+      </c>
+      <c r="AT142">
+        <v>1.63</v>
+      </c>
+      <c r="AU142">
+        <v>1.54</v>
+      </c>
+      <c r="AV142">
+        <v>1.85</v>
+      </c>
+      <c r="AW142">
+        <v>3.39</v>
+      </c>
+      <c r="AX142">
+        <v>3.34</v>
+      </c>
+      <c r="AY142">
+        <v>8.5</v>
+      </c>
+      <c r="AZ142">
+        <v>1.48</v>
+      </c>
+      <c r="BA142">
+        <v>1.18</v>
+      </c>
+      <c r="BB142">
+        <v>1.34</v>
+      </c>
+      <c r="BC142">
+        <v>1.61</v>
+      </c>
+      <c r="BD142">
+        <v>2.02</v>
+      </c>
+      <c r="BE142">
+        <v>2.7</v>
+      </c>
+      <c r="BF142">
+        <v>8</v>
+      </c>
+      <c r="BG142">
+        <v>5</v>
+      </c>
+      <c r="BH142">
+        <v>9</v>
+      </c>
+      <c r="BI142">
+        <v>8</v>
+      </c>
+      <c r="BJ142">
+        <v>17</v>
+      </c>
+      <c r="BK142">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="278">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -577,6 +577,51 @@
     <t>['22', '59', '66']</t>
   </si>
   <si>
+    <t>['34', '78']</t>
+  </si>
+  <si>
+    <t>['38', '45+2', '48']</t>
+  </si>
+  <si>
+    <t>['13', '20', '69']</t>
+  </si>
+  <si>
+    <t>['73', '76', '90+1']</t>
+  </si>
+  <si>
+    <t>['22', '59', '67']</t>
+  </si>
+  <si>
+    <t>['8', '19', '45+1', '53']</t>
+  </si>
+  <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
+    <t>['61', '74']</t>
+  </si>
+  <si>
+    <t>['77', '90']</t>
+  </si>
+  <si>
+    <t>['8', '25', '31']</t>
+  </si>
+  <si>
+    <t>['5', '64']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['23', '31', '74']</t>
+  </si>
+  <si>
+    <t>['68', '69']</t>
+  </si>
+  <si>
     <t>['17']</t>
   </si>
   <si>
@@ -643,9 +688,6 @@
     <t>['84', '88']</t>
   </si>
   <si>
-    <t>['83']</t>
-  </si>
-  <si>
     <t>['35', '65', '68']</t>
   </si>
   <si>
@@ -662,9 +704,6 @@
   </si>
   <si>
     <t>['6', '19', '46']</t>
-  </si>
-  <si>
-    <t>['79']</t>
   </si>
   <si>
     <t>['33', '89']</t>
@@ -776,6 +815,39 @@
   </si>
   <si>
     <t>['5', '11', '86']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
+    <t>['33', '45', '50', '72', '89']</t>
+  </si>
+  <si>
+    <t>['30', '43', '63']</t>
+  </si>
+  <si>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>['84', '87']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['27', '50']</t>
+  </si>
+  <si>
+    <t>['74', '76']</t>
+  </si>
+  <si>
+    <t>['42', '51', '68']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['87']</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK142"/>
+  <dimension ref="A1:BK171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1468,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT2">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1572,7 +1644,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1659,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT3">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1850,10 +1922,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT4">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1954,7 +2026,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2041,10 +2113,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT5">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2145,7 +2217,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2232,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT6">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2336,7 +2408,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2423,10 +2495,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT7">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2614,10 +2686,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT8">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2805,10 +2877,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT9">
-        <v>0.71</v>
+        <v>0.89</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2909,7 +2981,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -2996,10 +3068,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT10">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3187,10 +3259,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT11">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3291,7 +3363,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3378,10 +3450,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AT12">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3482,7 +3554,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3569,10 +3641,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT13">
-        <v>1.67</v>
+        <v>1.38</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3673,7 +3745,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3760,10 +3832,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="AT14">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3951,10 +4023,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT15">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4142,10 +4214,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT16">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4333,10 +4405,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.57</v>
+        <v>2.11</v>
       </c>
       <c r="AT17">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4437,7 +4509,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4524,10 +4596,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>2.14</v>
+        <v>2.33</v>
       </c>
       <c r="AT18">
-        <v>1.57</v>
+        <v>1.89</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4628,7 +4700,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -4715,10 +4787,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.43</v>
+        <v>1.11</v>
       </c>
       <c r="AT19">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4906,10 +4978,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT20">
-        <v>0.43</v>
+        <v>0.67</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5010,7 +5082,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5097,10 +5169,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT21">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5201,7 +5273,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5288,10 +5360,10 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT22">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AU22">
         <v>2.04</v>
@@ -5392,7 +5464,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5479,10 +5551,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT23">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU23">
         <v>1.75</v>
@@ -5670,10 +5742,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT24">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU24">
         <v>1.07</v>
@@ -5861,10 +5933,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>2.57</v>
+        <v>2.11</v>
       </c>
       <c r="AT25">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU25">
         <v>2.24</v>
@@ -5965,7 +6037,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6052,10 +6124,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT26">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU26">
         <v>1.37</v>
@@ -6243,10 +6315,10 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT27">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU27">
         <v>1.77</v>
@@ -6434,10 +6506,10 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT28">
-        <v>0.71</v>
+        <v>0.89</v>
       </c>
       <c r="AU28">
         <v>1.92</v>
@@ -6538,7 +6610,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6625,10 +6697,10 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT29">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU29">
         <v>2.16</v>
@@ -6816,10 +6888,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT30">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU30">
         <v>1.98</v>
@@ -7007,10 +7079,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT31">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU31">
         <v>2.32</v>
@@ -7198,10 +7270,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="AT32">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU32">
         <v>1.92</v>
@@ -7389,10 +7461,10 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT33">
-        <v>1.57</v>
+        <v>1.89</v>
       </c>
       <c r="AU33">
         <v>1.75</v>
@@ -7580,10 +7652,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>2.14</v>
+        <v>2.33</v>
       </c>
       <c r="AT34">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU34">
         <v>1.97</v>
@@ -7771,10 +7843,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>1.43</v>
+        <v>1.11</v>
       </c>
       <c r="AT35">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AU35">
         <v>1.05</v>
@@ -7875,7 +7947,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7962,10 +8034,10 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT36">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU36">
         <v>1.04</v>
@@ -8066,7 +8138,7 @@
         <v>96</v>
       </c>
       <c r="P37" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -8153,10 +8225,10 @@
         <v>3</v>
       </c>
       <c r="AS37">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT37">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU37">
         <v>1.73</v>
@@ -8344,10 +8416,10 @@
         <v>1</v>
       </c>
       <c r="AS38">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT38">
-        <v>0.43</v>
+        <v>0.67</v>
       </c>
       <c r="AU38">
         <v>1.37</v>
@@ -8448,7 +8520,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8535,10 +8607,10 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT39">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="AU39">
         <v>1.41</v>
@@ -8639,7 +8711,7 @@
         <v>98</v>
       </c>
       <c r="P40" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -8726,10 +8798,10 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT40">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU40">
         <v>1.56</v>
@@ -8917,10 +8989,10 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AT41">
-        <v>1.67</v>
+        <v>1.38</v>
       </c>
       <c r="AU41">
         <v>1.34</v>
@@ -9021,7 +9093,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9108,10 +9180,10 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>2.57</v>
+        <v>2.11</v>
       </c>
       <c r="AT42">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU42">
         <v>2.1</v>
@@ -9212,7 +9284,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9299,10 +9371,10 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT43">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AU43">
         <v>2.18</v>
@@ -9403,7 +9475,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9490,10 +9562,10 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT44">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU44">
         <v>1.59</v>
@@ -9681,10 +9753,10 @@
         <v>1.5</v>
       </c>
       <c r="AS45">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT45">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU45">
         <v>2.15</v>
@@ -9785,7 +9857,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -9872,10 +9944,10 @@
         <v>0.5</v>
       </c>
       <c r="AS46">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT46">
-        <v>0.43</v>
+        <v>0.67</v>
       </c>
       <c r="AU46">
         <v>2.05</v>
@@ -10063,10 +10135,10 @@
         <v>0.5</v>
       </c>
       <c r="AS47">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT47">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU47">
         <v>1.65</v>
@@ -10254,10 +10326,10 @@
         <v>0.5</v>
       </c>
       <c r="AS48">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT48">
-        <v>0.71</v>
+        <v>0.89</v>
       </c>
       <c r="AU48">
         <v>2.06</v>
@@ -10445,10 +10517,10 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT49">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU49">
         <v>1.55</v>
@@ -10549,7 +10621,7 @@
         <v>96</v>
       </c>
       <c r="P50" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10636,10 +10708,10 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT50">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU50">
         <v>1.78</v>
@@ -10827,10 +10899,10 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT51">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU51">
         <v>1.95</v>
@@ -11018,10 +11090,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="AT52">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU52">
         <v>1.75</v>
@@ -11122,7 +11194,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11209,10 +11281,10 @@
         <v>2</v>
       </c>
       <c r="AS53">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT53">
-        <v>1.57</v>
+        <v>1.89</v>
       </c>
       <c r="AU53">
         <v>1.92</v>
@@ -11313,7 +11385,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11400,10 +11472,10 @@
         <v>1.5</v>
       </c>
       <c r="AS54">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT54">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU54">
         <v>1.67</v>
@@ -11591,10 +11663,10 @@
         <v>0.5</v>
       </c>
       <c r="AS55">
-        <v>2.14</v>
+        <v>2.33</v>
       </c>
       <c r="AT55">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="AU55">
         <v>2.13</v>
@@ -11782,10 +11854,10 @@
         <v>3</v>
       </c>
       <c r="AS56">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT56">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU56">
         <v>1.26</v>
@@ -11973,10 +12045,10 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT57">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU57">
         <v>1.42</v>
@@ -12164,10 +12236,10 @@
         <v>0.5</v>
       </c>
       <c r="AS58">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT58">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AU58">
         <v>1.22</v>
@@ -12268,7 +12340,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12355,10 +12427,10 @@
         <v>1.5</v>
       </c>
       <c r="AS59">
-        <v>1.43</v>
+        <v>1.11</v>
       </c>
       <c r="AT59">
-        <v>1.67</v>
+        <v>1.38</v>
       </c>
       <c r="AU59">
         <v>0.99</v>
@@ -12459,7 +12531,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -12546,10 +12618,10 @@
         <v>1.5</v>
       </c>
       <c r="AS60">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT60">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU60">
         <v>1.69</v>
@@ -12737,10 +12809,10 @@
         <v>0</v>
       </c>
       <c r="AS61">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AT61">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU61">
         <v>1.63</v>
@@ -12928,10 +13000,10 @@
         <v>0.67</v>
       </c>
       <c r="AS62">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT62">
-        <v>0.71</v>
+        <v>0.89</v>
       </c>
       <c r="AU62">
         <v>1.51</v>
@@ -13119,10 +13191,10 @@
         <v>2</v>
       </c>
       <c r="AS63">
-        <v>2.57</v>
+        <v>2.11</v>
       </c>
       <c r="AT63">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU63">
         <v>1.93</v>
@@ -13223,7 +13295,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13310,10 +13382,10 @@
         <v>0.67</v>
       </c>
       <c r="AS64">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT64">
-        <v>0.43</v>
+        <v>0.67</v>
       </c>
       <c r="AU64">
         <v>1.5</v>
@@ -13501,10 +13573,10 @@
         <v>0.33</v>
       </c>
       <c r="AS65">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT65">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU65">
         <v>2.45</v>
@@ -13605,7 +13677,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13692,10 +13764,10 @@
         <v>0</v>
       </c>
       <c r="AS66">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="AT66">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU66">
         <v>1.48</v>
@@ -13883,10 +13955,10 @@
         <v>2.33</v>
       </c>
       <c r="AS67">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT67">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU67">
         <v>2.2</v>
@@ -13987,7 +14059,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -14074,10 +14146,10 @@
         <v>0</v>
       </c>
       <c r="AS68">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT68">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU68">
         <v>1.65</v>
@@ -14265,10 +14337,10 @@
         <v>3</v>
       </c>
       <c r="AS69">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT69">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AU69">
         <v>1.59</v>
@@ -14456,10 +14528,10 @@
         <v>1</v>
       </c>
       <c r="AS70">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT70">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU70">
         <v>1.87</v>
@@ -14560,7 +14632,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14647,10 +14719,10 @@
         <v>2</v>
       </c>
       <c r="AS71">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT71">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU71">
         <v>1.95</v>
@@ -14838,10 +14910,10 @@
         <v>0.67</v>
       </c>
       <c r="AS72">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT72">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AU72">
         <v>1.91</v>
@@ -14942,7 +15014,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15029,10 +15101,10 @@
         <v>0.33</v>
       </c>
       <c r="AS73">
-        <v>1.43</v>
+        <v>1.11</v>
       </c>
       <c r="AT73">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU73">
         <v>1.09</v>
@@ -15220,10 +15292,10 @@
         <v>2</v>
       </c>
       <c r="AS74">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT74">
-        <v>1.67</v>
+        <v>1.38</v>
       </c>
       <c r="AU74">
         <v>2.15</v>
@@ -15324,7 +15396,7 @@
         <v>96</v>
       </c>
       <c r="P75" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15411,10 +15483,10 @@
         <v>1.67</v>
       </c>
       <c r="AS75">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT75">
-        <v>1.57</v>
+        <v>1.89</v>
       </c>
       <c r="AU75">
         <v>1.21</v>
@@ -15602,10 +15674,10 @@
         <v>0.33</v>
       </c>
       <c r="AS76">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT76">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="AU76">
         <v>1.58</v>
@@ -15706,7 +15778,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15793,10 +15865,10 @@
         <v>2.33</v>
       </c>
       <c r="AS77">
-        <v>2.14</v>
+        <v>2.33</v>
       </c>
       <c r="AT77">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU77">
         <v>2.1</v>
@@ -15897,7 +15969,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -15984,10 +16056,10 @@
         <v>0</v>
       </c>
       <c r="AS78">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT78">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU78">
         <v>1.22</v>
@@ -16175,10 +16247,10 @@
         <v>2</v>
       </c>
       <c r="AS79">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AT79">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU79">
         <v>1.76</v>
@@ -16279,7 +16351,7 @@
         <v>96</v>
       </c>
       <c r="P80" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16366,10 +16438,10 @@
         <v>0</v>
       </c>
       <c r="AS80">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT80">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU80">
         <v>1.61</v>
@@ -16470,7 +16542,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16557,10 +16629,10 @@
         <v>0.67</v>
       </c>
       <c r="AS81">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT81">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU81">
         <v>1.51</v>
@@ -16661,7 +16733,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -16748,10 +16820,10 @@
         <v>0.5</v>
       </c>
       <c r="AS82">
-        <v>2.57</v>
+        <v>2.11</v>
       </c>
       <c r="AT82">
-        <v>0.71</v>
+        <v>0.89</v>
       </c>
       <c r="AU82">
         <v>1.9</v>
@@ -16852,7 +16924,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -16939,10 +17011,10 @@
         <v>0</v>
       </c>
       <c r="AS83">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT83">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU83">
         <v>1.69</v>
@@ -17130,10 +17202,10 @@
         <v>1.75</v>
       </c>
       <c r="AS84">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT84">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU84">
         <v>1.8</v>
@@ -17234,7 +17306,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17321,10 +17393,10 @@
         <v>1</v>
       </c>
       <c r="AS85">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT85">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU85">
         <v>1.59</v>
@@ -17425,7 +17497,7 @@
         <v>89</v>
       </c>
       <c r="P86" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17512,10 +17584,10 @@
         <v>2.5</v>
       </c>
       <c r="AS86">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="AT86">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AU86">
         <v>1.57</v>
@@ -17703,10 +17775,10 @@
         <v>1.75</v>
       </c>
       <c r="AS87">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT87">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU87">
         <v>2.16</v>
@@ -17807,7 +17879,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -17894,10 +17966,10 @@
         <v>0.25</v>
       </c>
       <c r="AS88">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT88">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU88">
         <v>1.9</v>
@@ -18085,10 +18157,10 @@
         <v>0.5</v>
       </c>
       <c r="AS89">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT89">
-        <v>0.43</v>
+        <v>0.67</v>
       </c>
       <c r="AU89">
         <v>2.25</v>
@@ -18276,10 +18348,10 @@
         <v>1.5</v>
       </c>
       <c r="AS90">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT90">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU90">
         <v>1.66</v>
@@ -18467,10 +18539,10 @@
         <v>2</v>
       </c>
       <c r="AS91">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT91">
-        <v>1.57</v>
+        <v>1.89</v>
       </c>
       <c r="AU91">
         <v>1.55</v>
@@ -18658,10 +18730,10 @@
         <v>0.75</v>
       </c>
       <c r="AS92">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT92">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU92">
         <v>1.56</v>
@@ -18849,10 +18921,10 @@
         <v>1.75</v>
       </c>
       <c r="AS93">
-        <v>1.43</v>
+        <v>1.11</v>
       </c>
       <c r="AT93">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU93">
         <v>1.31</v>
@@ -19040,10 +19112,10 @@
         <v>2.25</v>
       </c>
       <c r="AS94">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT94">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU94">
         <v>1.23</v>
@@ -19144,7 +19216,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19231,10 +19303,10 @@
         <v>1.5</v>
       </c>
       <c r="AS95">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT95">
-        <v>1.67</v>
+        <v>1.38</v>
       </c>
       <c r="AU95">
         <v>1.8</v>
@@ -19335,7 +19407,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19422,10 +19494,10 @@
         <v>0</v>
       </c>
       <c r="AS96">
-        <v>2.14</v>
+        <v>2.33</v>
       </c>
       <c r="AT96">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU96">
         <v>1.97</v>
@@ -19613,10 +19685,10 @@
         <v>0.25</v>
       </c>
       <c r="AS97">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT97">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="AU97">
         <v>1.78</v>
@@ -19804,10 +19876,10 @@
         <v>0.25</v>
       </c>
       <c r="AS98">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AT98">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU98">
         <v>1.69</v>
@@ -19908,7 +19980,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="Q99">
         <v>10</v>
@@ -19995,10 +20067,10 @@
         <v>1</v>
       </c>
       <c r="AS99">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT99">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU99">
         <v>1.21</v>
@@ -20186,10 +20258,10 @@
         <v>0.5</v>
       </c>
       <c r="AS100">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT100">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AU100">
         <v>2.2</v>
@@ -20377,10 +20449,10 @@
         <v>0.75</v>
       </c>
       <c r="AS101">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT101">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU101">
         <v>1.49</v>
@@ -20481,7 +20553,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="Q102">
         <v>1</v>
@@ -20568,10 +20640,10 @@
         <v>1</v>
       </c>
       <c r="AS102">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT102">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU102">
         <v>1.61</v>
@@ -20759,10 +20831,10 @@
         <v>1.4</v>
       </c>
       <c r="AS103">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT103">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU103">
         <v>1.66</v>
@@ -20950,10 +21022,10 @@
         <v>1.2</v>
       </c>
       <c r="AS104">
-        <v>2.14</v>
+        <v>2.33</v>
       </c>
       <c r="AT104">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU104">
         <v>1.9</v>
@@ -21141,10 +21213,10 @@
         <v>0.2</v>
       </c>
       <c r="AS105">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT105">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU105">
         <v>1.59</v>
@@ -21245,7 +21317,7 @@
         <v>106</v>
       </c>
       <c r="P106" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21332,10 +21404,10 @@
         <v>1.6</v>
       </c>
       <c r="AS106">
-        <v>2.57</v>
+        <v>2.11</v>
       </c>
       <c r="AT106">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU106">
         <v>1.81</v>
@@ -21436,7 +21508,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21523,10 +21595,10 @@
         <v>0.4</v>
       </c>
       <c r="AS107">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT107">
-        <v>0.71</v>
+        <v>0.89</v>
       </c>
       <c r="AU107">
         <v>1.65</v>
@@ -21714,10 +21786,10 @@
         <v>1.6</v>
       </c>
       <c r="AS108">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT108">
-        <v>1.57</v>
+        <v>1.89</v>
       </c>
       <c r="AU108">
         <v>1.73</v>
@@ -21818,7 +21890,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -21905,10 +21977,10 @@
         <v>0.6</v>
       </c>
       <c r="AS109">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT109">
-        <v>0.43</v>
+        <v>0.67</v>
       </c>
       <c r="AU109">
         <v>2.07</v>
@@ -22009,7 +22081,7 @@
         <v>96</v>
       </c>
       <c r="P110" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22096,10 +22168,10 @@
         <v>0.4</v>
       </c>
       <c r="AS110">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT110">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AU110">
         <v>2.11</v>
@@ -22287,10 +22359,10 @@
         <v>0.8</v>
       </c>
       <c r="AS111">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="AT111">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU111">
         <v>1.54</v>
@@ -22391,7 +22463,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22478,10 +22550,10 @@
         <v>0.2</v>
       </c>
       <c r="AS112">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT112">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU112">
         <v>1.55</v>
@@ -22582,7 +22654,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="Q113">
         <v>1</v>
@@ -22669,10 +22741,10 @@
         <v>0.6</v>
       </c>
       <c r="AS113">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT113">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU113">
         <v>1.51</v>
@@ -22773,7 +22845,7 @@
         <v>96</v>
       </c>
       <c r="P114" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="Q114">
         <v>15</v>
@@ -22860,10 +22932,10 @@
         <v>1.6</v>
       </c>
       <c r="AS114">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT114">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU114">
         <v>1.95</v>
@@ -22964,7 +23036,7 @@
         <v>168</v>
       </c>
       <c r="P115" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -23051,10 +23123,10 @@
         <v>0.2</v>
       </c>
       <c r="AS115">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT115">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="AU115">
         <v>1.96</v>
@@ -23155,7 +23227,7 @@
         <v>96</v>
       </c>
       <c r="P116" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23242,10 +23314,10 @@
         <v>2.6</v>
       </c>
       <c r="AS116">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT116">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AU116">
         <v>1.25</v>
@@ -23433,10 +23505,10 @@
         <v>2</v>
       </c>
       <c r="AS117">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT117">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU117">
         <v>1.51</v>
@@ -23537,7 +23609,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -23624,10 +23696,10 @@
         <v>0.8</v>
       </c>
       <c r="AS118">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT118">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU118">
         <v>1.77</v>
@@ -23728,7 +23800,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -23815,10 +23887,10 @@
         <v>0.6</v>
       </c>
       <c r="AS119">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT119">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU119">
         <v>1.3</v>
@@ -24006,10 +24078,10 @@
         <v>1</v>
       </c>
       <c r="AS120">
-        <v>1.43</v>
+        <v>1.11</v>
       </c>
       <c r="AT120">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU120">
         <v>1.34</v>
@@ -24110,7 +24182,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="Q121">
         <v>8</v>
@@ -24197,10 +24269,10 @@
         <v>1.4</v>
       </c>
       <c r="AS121">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT121">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU121">
         <v>2.28</v>
@@ -24388,10 +24460,10 @@
         <v>1.4</v>
       </c>
       <c r="AS122">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT122">
-        <v>1.67</v>
+        <v>1.38</v>
       </c>
       <c r="AU122">
         <v>1.53</v>
@@ -24492,7 +24564,7 @@
         <v>174</v>
       </c>
       <c r="P123" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24579,10 +24651,10 @@
         <v>0.83</v>
       </c>
       <c r="AS123">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT123">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AU123">
         <v>1.65</v>
@@ -24683,7 +24755,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -24770,10 +24842,10 @@
         <v>1.33</v>
       </c>
       <c r="AS124">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT124">
-        <v>1.57</v>
+        <v>1.89</v>
       </c>
       <c r="AU124">
         <v>1.96</v>
@@ -24874,7 +24946,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -24961,10 +25033,10 @@
         <v>0.83</v>
       </c>
       <c r="AS125">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT125">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU125">
         <v>1.53</v>
@@ -25065,7 +25137,7 @@
         <v>176</v>
       </c>
       <c r="P126" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="Q126">
         <v>6</v>
@@ -25152,10 +25224,10 @@
         <v>1.67</v>
       </c>
       <c r="AS126">
-        <v>2.57</v>
+        <v>2.11</v>
       </c>
       <c r="AT126">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU126">
         <v>1.78</v>
@@ -25256,7 +25328,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25343,10 +25415,10 @@
         <v>1</v>
       </c>
       <c r="AS127">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AT127">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU127">
         <v>1.68</v>
@@ -25447,7 +25519,7 @@
         <v>178</v>
       </c>
       <c r="P128" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="Q128">
         <v>10</v>
@@ -25534,10 +25606,10 @@
         <v>0.5</v>
       </c>
       <c r="AS128">
-        <v>2.14</v>
+        <v>2.33</v>
       </c>
       <c r="AT128">
-        <v>0.43</v>
+        <v>0.67</v>
       </c>
       <c r="AU128">
         <v>1.89</v>
@@ -25638,7 +25710,7 @@
         <v>96</v>
       </c>
       <c r="P129" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25725,10 +25797,10 @@
         <v>1.83</v>
       </c>
       <c r="AS129">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT129">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU129">
         <v>1.64</v>
@@ -25829,7 +25901,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -25916,10 +25988,10 @@
         <v>0.83</v>
       </c>
       <c r="AS130">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT130">
-        <v>0.71</v>
+        <v>0.89</v>
       </c>
       <c r="AU130">
         <v>1.6</v>
@@ -26107,10 +26179,10 @@
         <v>0.67</v>
       </c>
       <c r="AS131">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="AT131">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU131">
         <v>1.47</v>
@@ -26211,7 +26283,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="Q132">
         <v>13</v>
@@ -26298,10 +26370,10 @@
         <v>0.86</v>
       </c>
       <c r="AS132">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT132">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU132">
         <v>2.35</v>
@@ -26489,10 +26561,10 @@
         <v>1</v>
       </c>
       <c r="AS133">
-        <v>1.43</v>
+        <v>1.11</v>
       </c>
       <c r="AT133">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU133">
         <v>1.46</v>
@@ -26680,10 +26752,10 @@
         <v>0.5</v>
       </c>
       <c r="AS134">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT134">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU134">
         <v>1.69</v>
@@ -26871,10 +26943,10 @@
         <v>0.67</v>
       </c>
       <c r="AS135">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT135">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU135">
         <v>1.5</v>
@@ -27062,10 +27134,10 @@
         <v>1.83</v>
       </c>
       <c r="AS136">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT136">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU136">
         <v>1.35</v>
@@ -27166,7 +27238,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="Q137">
         <v>10</v>
@@ -27253,10 +27325,10 @@
         <v>2.67</v>
       </c>
       <c r="AS137">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT137">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AU137">
         <v>1.66</v>
@@ -27444,10 +27516,10 @@
         <v>1.83</v>
       </c>
       <c r="AS138">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT138">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU138">
         <v>1.69</v>
@@ -27635,10 +27707,10 @@
         <v>1.17</v>
       </c>
       <c r="AS139">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT139">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU139">
         <v>1.92</v>
@@ -27739,7 +27811,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -27826,10 +27898,10 @@
         <v>1</v>
       </c>
       <c r="AS140">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT140">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU140">
         <v>1.51</v>
@@ -27930,7 +28002,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28017,10 +28089,10 @@
         <v>0.33</v>
       </c>
       <c r="AS141">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT141">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU141">
         <v>2</v>
@@ -28121,7 +28193,7 @@
         <v>96</v>
       </c>
       <c r="P142" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="Q142">
         <v>10</v>
@@ -28208,10 +28280,10 @@
         <v>1.43</v>
       </c>
       <c r="AS142">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT142">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU142">
         <v>1.54</v>
@@ -28263,6 +28335,5545 @@
       </c>
       <c r="BK142">
         <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:63">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>2604127</v>
+      </c>
+      <c r="C143" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" t="s">
+        <v>64</v>
+      </c>
+      <c r="E143" s="2">
+        <v>44870.41666666666</v>
+      </c>
+      <c r="F143">
+        <v>15</v>
+      </c>
+      <c r="G143" t="s">
+        <v>84</v>
+      </c>
+      <c r="H143" t="s">
+        <v>67</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>2</v>
+      </c>
+      <c r="L143">
+        <v>2</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>3</v>
+      </c>
+      <c r="O143" t="s">
+        <v>187</v>
+      </c>
+      <c r="P143" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q143">
+        <v>4</v>
+      </c>
+      <c r="R143">
+        <v>2</v>
+      </c>
+      <c r="S143">
+        <v>6</v>
+      </c>
+      <c r="T143">
+        <v>3.4</v>
+      </c>
+      <c r="U143">
+        <v>2.15</v>
+      </c>
+      <c r="V143">
+        <v>2.7</v>
+      </c>
+      <c r="W143">
+        <v>1.32</v>
+      </c>
+      <c r="X143">
+        <v>3.1</v>
+      </c>
+      <c r="Y143">
+        <v>2.4</v>
+      </c>
+      <c r="Z143">
+        <v>1.49</v>
+      </c>
+      <c r="AA143">
+        <v>5.75</v>
+      </c>
+      <c r="AB143">
+        <v>1.12</v>
+      </c>
+      <c r="AC143">
+        <v>2.7</v>
+      </c>
+      <c r="AD143">
+        <v>3.35</v>
+      </c>
+      <c r="AE143">
+        <v>2.3</v>
+      </c>
+      <c r="AF143">
+        <v>1.04</v>
+      </c>
+      <c r="AG143">
+        <v>10</v>
+      </c>
+      <c r="AH143">
+        <v>1.22</v>
+      </c>
+      <c r="AI143">
+        <v>4</v>
+      </c>
+      <c r="AJ143">
+        <v>1.62</v>
+      </c>
+      <c r="AK143">
+        <v>2.15</v>
+      </c>
+      <c r="AL143">
+        <v>1.57</v>
+      </c>
+      <c r="AM143">
+        <v>2.25</v>
+      </c>
+      <c r="AN143">
+        <v>1.63</v>
+      </c>
+      <c r="AO143">
+        <v>1.29</v>
+      </c>
+      <c r="AP143">
+        <v>1.36</v>
+      </c>
+      <c r="AQ143">
+        <v>1.71</v>
+      </c>
+      <c r="AR143">
+        <v>2</v>
+      </c>
+      <c r="AS143">
+        <v>1.78</v>
+      </c>
+      <c r="AT143">
+        <v>1.89</v>
+      </c>
+      <c r="AU143">
+        <v>1.64</v>
+      </c>
+      <c r="AV143">
+        <v>1.68</v>
+      </c>
+      <c r="AW143">
+        <v>3.32</v>
+      </c>
+      <c r="AX143">
+        <v>2.21</v>
+      </c>
+      <c r="AY143">
+        <v>6.95</v>
+      </c>
+      <c r="AZ143">
+        <v>2.01</v>
+      </c>
+      <c r="BA143">
+        <v>1.22</v>
+      </c>
+      <c r="BB143">
+        <v>1.42</v>
+      </c>
+      <c r="BC143">
+        <v>1.74</v>
+      </c>
+      <c r="BD143">
+        <v>2.23</v>
+      </c>
+      <c r="BE143">
+        <v>3</v>
+      </c>
+      <c r="BF143">
+        <v>5</v>
+      </c>
+      <c r="BG143">
+        <v>9</v>
+      </c>
+      <c r="BH143">
+        <v>6</v>
+      </c>
+      <c r="BI143">
+        <v>6</v>
+      </c>
+      <c r="BJ143">
+        <v>11</v>
+      </c>
+      <c r="BK143">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:63">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>2604125</v>
+      </c>
+      <c r="C144" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="2">
+        <v>44870.41666666666</v>
+      </c>
+      <c r="F144">
+        <v>15</v>
+      </c>
+      <c r="G144" t="s">
+        <v>70</v>
+      </c>
+      <c r="H144" t="s">
+        <v>72</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
+        <v>2</v>
+      </c>
+      <c r="O144" t="s">
+        <v>142</v>
+      </c>
+      <c r="P144" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q144">
+        <v>4</v>
+      </c>
+      <c r="R144">
+        <v>1</v>
+      </c>
+      <c r="S144">
+        <v>5</v>
+      </c>
+      <c r="T144">
+        <v>2.63</v>
+      </c>
+      <c r="U144">
+        <v>2.2</v>
+      </c>
+      <c r="V144">
+        <v>4</v>
+      </c>
+      <c r="W144">
+        <v>1.36</v>
+      </c>
+      <c r="X144">
+        <v>3</v>
+      </c>
+      <c r="Y144">
+        <v>2.75</v>
+      </c>
+      <c r="Z144">
+        <v>1.4</v>
+      </c>
+      <c r="AA144">
+        <v>7</v>
+      </c>
+      <c r="AB144">
+        <v>1.1</v>
+      </c>
+      <c r="AC144">
+        <v>2</v>
+      </c>
+      <c r="AD144">
+        <v>3.35</v>
+      </c>
+      <c r="AE144">
+        <v>3.35</v>
+      </c>
+      <c r="AF144">
+        <v>1.05</v>
+      </c>
+      <c r="AG144">
+        <v>9</v>
+      </c>
+      <c r="AH144">
+        <v>1.28</v>
+      </c>
+      <c r="AI144">
+        <v>3.5</v>
+      </c>
+      <c r="AJ144">
+        <v>1.95</v>
+      </c>
+      <c r="AK144">
+        <v>1.9</v>
+      </c>
+      <c r="AL144">
+        <v>1.73</v>
+      </c>
+      <c r="AM144">
+        <v>2</v>
+      </c>
+      <c r="AN144">
+        <v>1.25</v>
+      </c>
+      <c r="AO144">
+        <v>1.25</v>
+      </c>
+      <c r="AP144">
+        <v>1.8</v>
+      </c>
+      <c r="AQ144">
+        <v>1.43</v>
+      </c>
+      <c r="AR144">
+        <v>1.67</v>
+      </c>
+      <c r="AS144">
+        <v>1.33</v>
+      </c>
+      <c r="AT144">
+        <v>1.38</v>
+      </c>
+      <c r="AU144">
+        <v>1.84</v>
+      </c>
+      <c r="AV144">
+        <v>1.23</v>
+      </c>
+      <c r="AW144">
+        <v>3.07</v>
+      </c>
+      <c r="AX144">
+        <v>1.56</v>
+      </c>
+      <c r="AY144">
+        <v>8.4</v>
+      </c>
+      <c r="AZ144">
+        <v>3</v>
+      </c>
+      <c r="BA144">
+        <v>1.25</v>
+      </c>
+      <c r="BB144">
+        <v>1.47</v>
+      </c>
+      <c r="BC144">
+        <v>1.83</v>
+      </c>
+      <c r="BD144">
+        <v>2.38</v>
+      </c>
+      <c r="BE144">
+        <v>3.25</v>
+      </c>
+      <c r="BF144">
+        <v>5</v>
+      </c>
+      <c r="BG144">
+        <v>3</v>
+      </c>
+      <c r="BH144">
+        <v>2</v>
+      </c>
+      <c r="BI144">
+        <v>3</v>
+      </c>
+      <c r="BJ144">
+        <v>7</v>
+      </c>
+      <c r="BK144">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:63">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>2604124</v>
+      </c>
+      <c r="C145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E145" s="2">
+        <v>44870.41666666666</v>
+      </c>
+      <c r="F145">
+        <v>15</v>
+      </c>
+      <c r="G145" t="s">
+        <v>77</v>
+      </c>
+      <c r="H145" t="s">
+        <v>68</v>
+      </c>
+      <c r="I145">
+        <v>2</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <v>3</v>
+      </c>
+      <c r="L145">
+        <v>3</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>4</v>
+      </c>
+      <c r="O145" t="s">
+        <v>188</v>
+      </c>
+      <c r="P145" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q145">
+        <v>9</v>
+      </c>
+      <c r="R145">
+        <v>4</v>
+      </c>
+      <c r="S145">
+        <v>13</v>
+      </c>
+      <c r="T145">
+        <v>3.6</v>
+      </c>
+      <c r="U145">
+        <v>2.2</v>
+      </c>
+      <c r="V145">
+        <v>2.88</v>
+      </c>
+      <c r="W145">
+        <v>1.36</v>
+      </c>
+      <c r="X145">
+        <v>3</v>
+      </c>
+      <c r="Y145">
+        <v>2.75</v>
+      </c>
+      <c r="Z145">
+        <v>1.4</v>
+      </c>
+      <c r="AA145">
+        <v>7</v>
+      </c>
+      <c r="AB145">
+        <v>1.1</v>
+      </c>
+      <c r="AC145">
+        <v>2.7</v>
+      </c>
+      <c r="AD145">
+        <v>3.4</v>
+      </c>
+      <c r="AE145">
+        <v>2.3</v>
+      </c>
+      <c r="AF145">
+        <v>1.05</v>
+      </c>
+      <c r="AG145">
+        <v>9</v>
+      </c>
+      <c r="AH145">
+        <v>1.28</v>
+      </c>
+      <c r="AI145">
+        <v>3.5</v>
+      </c>
+      <c r="AJ145">
+        <v>1.8</v>
+      </c>
+      <c r="AK145">
+        <v>2.05</v>
+      </c>
+      <c r="AL145">
+        <v>1.67</v>
+      </c>
+      <c r="AM145">
+        <v>2.1</v>
+      </c>
+      <c r="AN145">
+        <v>1.6</v>
+      </c>
+      <c r="AO145">
+        <v>1.3</v>
+      </c>
+      <c r="AP145">
+        <v>1.37</v>
+      </c>
+      <c r="AQ145">
+        <v>1.57</v>
+      </c>
+      <c r="AR145">
+        <v>0.17</v>
+      </c>
+      <c r="AS145">
+        <v>1.56</v>
+      </c>
+      <c r="AT145">
+        <v>0.25</v>
+      </c>
+      <c r="AU145">
+        <v>1.59</v>
+      </c>
+      <c r="AV145">
+        <v>1.41</v>
+      </c>
+      <c r="AW145">
+        <v>3</v>
+      </c>
+      <c r="AX145">
+        <v>2.36</v>
+      </c>
+      <c r="AY145">
+        <v>7.3</v>
+      </c>
+      <c r="AZ145">
+        <v>1.88</v>
+      </c>
+      <c r="BA145">
+        <v>1.18</v>
+      </c>
+      <c r="BB145">
+        <v>1.34</v>
+      </c>
+      <c r="BC145">
+        <v>1.61</v>
+      </c>
+      <c r="BD145">
+        <v>2.02</v>
+      </c>
+      <c r="BE145">
+        <v>2.7</v>
+      </c>
+      <c r="BF145">
+        <v>5</v>
+      </c>
+      <c r="BG145">
+        <v>3</v>
+      </c>
+      <c r="BH145">
+        <v>8</v>
+      </c>
+      <c r="BI145">
+        <v>5</v>
+      </c>
+      <c r="BJ145">
+        <v>13</v>
+      </c>
+      <c r="BK145">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:63">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>2604121</v>
+      </c>
+      <c r="C146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="2">
+        <v>44870.41666666666</v>
+      </c>
+      <c r="F146">
+        <v>15</v>
+      </c>
+      <c r="G146" t="s">
+        <v>81</v>
+      </c>
+      <c r="H146" t="s">
+        <v>82</v>
+      </c>
+      <c r="I146">
+        <v>2</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>3</v>
+      </c>
+      <c r="L146">
+        <v>3</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>4</v>
+      </c>
+      <c r="O146" t="s">
+        <v>189</v>
+      </c>
+      <c r="P146" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q146">
+        <v>10</v>
+      </c>
+      <c r="R146">
+        <v>0</v>
+      </c>
+      <c r="S146">
+        <v>10</v>
+      </c>
+      <c r="T146">
+        <v>2.05</v>
+      </c>
+      <c r="U146">
+        <v>2.4</v>
+      </c>
+      <c r="V146">
+        <v>5.5</v>
+      </c>
+      <c r="W146">
+        <v>1.3</v>
+      </c>
+      <c r="X146">
+        <v>3.4</v>
+      </c>
+      <c r="Y146">
+        <v>2.5</v>
+      </c>
+      <c r="Z146">
+        <v>1.5</v>
+      </c>
+      <c r="AA146">
+        <v>6</v>
+      </c>
+      <c r="AB146">
+        <v>1.13</v>
+      </c>
+      <c r="AC146">
+        <v>1.57</v>
+      </c>
+      <c r="AD146">
+        <v>4</v>
+      </c>
+      <c r="AE146">
+        <v>4.6</v>
+      </c>
+      <c r="AF146">
+        <v>1.03</v>
+      </c>
+      <c r="AG146">
+        <v>11</v>
+      </c>
+      <c r="AH146">
+        <v>1.18</v>
+      </c>
+      <c r="AI146">
+        <v>4.5</v>
+      </c>
+      <c r="AJ146">
+        <v>1.6</v>
+      </c>
+      <c r="AK146">
+        <v>2.2</v>
+      </c>
+      <c r="AL146">
+        <v>1.73</v>
+      </c>
+      <c r="AM146">
+        <v>2</v>
+      </c>
+      <c r="AN146">
+        <v>1.13</v>
+      </c>
+      <c r="AO146">
+        <v>1.21</v>
+      </c>
+      <c r="AP146">
+        <v>2.45</v>
+      </c>
+      <c r="AQ146">
+        <v>2.14</v>
+      </c>
+      <c r="AR146">
+        <v>1.14</v>
+      </c>
+      <c r="AS146">
+        <v>2.33</v>
+      </c>
+      <c r="AT146">
+        <v>1</v>
+      </c>
+      <c r="AU146">
+        <v>2.01</v>
+      </c>
+      <c r="AV146">
+        <v>1.3</v>
+      </c>
+      <c r="AW146">
+        <v>3.31</v>
+      </c>
+      <c r="AX146">
+        <v>1.36</v>
+      </c>
+      <c r="AY146">
+        <v>9</v>
+      </c>
+      <c r="AZ146">
+        <v>4.05</v>
+      </c>
+      <c r="BA146">
+        <v>1.25</v>
+      </c>
+      <c r="BB146">
+        <v>1.47</v>
+      </c>
+      <c r="BC146">
+        <v>1.8</v>
+      </c>
+      <c r="BD146">
+        <v>2.38</v>
+      </c>
+      <c r="BE146">
+        <v>3.25</v>
+      </c>
+      <c r="BF146">
+        <v>10</v>
+      </c>
+      <c r="BG146">
+        <v>4</v>
+      </c>
+      <c r="BH146">
+        <v>15</v>
+      </c>
+      <c r="BI146">
+        <v>5</v>
+      </c>
+      <c r="BJ146">
+        <v>25</v>
+      </c>
+      <c r="BK146">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:63">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>2604119</v>
+      </c>
+      <c r="C147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="2">
+        <v>44870.41666666666</v>
+      </c>
+      <c r="F147">
+        <v>15</v>
+      </c>
+      <c r="G147" t="s">
+        <v>75</v>
+      </c>
+      <c r="H147" t="s">
+        <v>76</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>2</v>
+      </c>
+      <c r="O147" t="s">
+        <v>160</v>
+      </c>
+      <c r="P147" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q147">
+        <v>5</v>
+      </c>
+      <c r="R147">
+        <v>5</v>
+      </c>
+      <c r="S147">
+        <v>10</v>
+      </c>
+      <c r="T147">
+        <v>2.3</v>
+      </c>
+      <c r="U147">
+        <v>2.38</v>
+      </c>
+      <c r="V147">
+        <v>4.5</v>
+      </c>
+      <c r="W147">
+        <v>1.33</v>
+      </c>
+      <c r="X147">
+        <v>3.25</v>
+      </c>
+      <c r="Y147">
+        <v>2.5</v>
+      </c>
+      <c r="Z147">
+        <v>1.5</v>
+      </c>
+      <c r="AA147">
+        <v>6.5</v>
+      </c>
+      <c r="AB147">
+        <v>1.11</v>
+      </c>
+      <c r="AC147">
+        <v>1.75</v>
+      </c>
+      <c r="AD147">
+        <v>3.7</v>
+      </c>
+      <c r="AE147">
+        <v>3.9</v>
+      </c>
+      <c r="AF147">
+        <v>1.04</v>
+      </c>
+      <c r="AG147">
+        <v>10</v>
+      </c>
+      <c r="AH147">
+        <v>1.22</v>
+      </c>
+      <c r="AI147">
+        <v>4</v>
+      </c>
+      <c r="AJ147">
+        <v>1.6</v>
+      </c>
+      <c r="AK147">
+        <v>2.2</v>
+      </c>
+      <c r="AL147">
+        <v>1.67</v>
+      </c>
+      <c r="AM147">
+        <v>2.1</v>
+      </c>
+      <c r="AN147">
+        <v>1.2</v>
+      </c>
+      <c r="AO147">
+        <v>1.26</v>
+      </c>
+      <c r="AP147">
+        <v>2</v>
+      </c>
+      <c r="AQ147">
+        <v>1.5</v>
+      </c>
+      <c r="AR147">
+        <v>0.57</v>
+      </c>
+      <c r="AS147">
+        <v>1.25</v>
+      </c>
+      <c r="AT147">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU147">
+        <v>1.66</v>
+      </c>
+      <c r="AV147">
+        <v>1.35</v>
+      </c>
+      <c r="AW147">
+        <v>3.01</v>
+      </c>
+      <c r="AX147">
+        <v>1.53</v>
+      </c>
+      <c r="AY147">
+        <v>8.5</v>
+      </c>
+      <c r="AZ147">
+        <v>3.1</v>
+      </c>
+      <c r="BA147">
+        <v>1.2</v>
+      </c>
+      <c r="BB147">
+        <v>1.38</v>
+      </c>
+      <c r="BC147">
+        <v>1.67</v>
+      </c>
+      <c r="BD147">
+        <v>2.12</v>
+      </c>
+      <c r="BE147">
+        <v>2.85</v>
+      </c>
+      <c r="BF147">
+        <v>5</v>
+      </c>
+      <c r="BG147">
+        <v>4</v>
+      </c>
+      <c r="BH147">
+        <v>5</v>
+      </c>
+      <c r="BI147">
+        <v>4</v>
+      </c>
+      <c r="BJ147">
+        <v>10</v>
+      </c>
+      <c r="BK147">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:63">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>2604122</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
+        <v>64</v>
+      </c>
+      <c r="E148" s="2">
+        <v>44870.41666666666</v>
+      </c>
+      <c r="F148">
+        <v>15</v>
+      </c>
+      <c r="G148" t="s">
+        <v>79</v>
+      </c>
+      <c r="H148" t="s">
+        <v>83</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>3</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>3</v>
+      </c>
+      <c r="O148" t="s">
+        <v>190</v>
+      </c>
+      <c r="P148" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q148">
+        <v>5</v>
+      </c>
+      <c r="R148">
+        <v>2</v>
+      </c>
+      <c r="S148">
+        <v>7</v>
+      </c>
+      <c r="T148">
+        <v>2.88</v>
+      </c>
+      <c r="U148">
+        <v>2.2</v>
+      </c>
+      <c r="V148">
+        <v>3.5</v>
+      </c>
+      <c r="W148">
+        <v>1.36</v>
+      </c>
+      <c r="X148">
+        <v>3</v>
+      </c>
+      <c r="Y148">
+        <v>2.75</v>
+      </c>
+      <c r="Z148">
+        <v>1.4</v>
+      </c>
+      <c r="AA148">
+        <v>7</v>
+      </c>
+      <c r="AB148">
+        <v>1.1</v>
+      </c>
+      <c r="AC148">
+        <v>2.05</v>
+      </c>
+      <c r="AD148">
+        <v>3.35</v>
+      </c>
+      <c r="AE148">
+        <v>3.2</v>
+      </c>
+      <c r="AF148">
+        <v>1.05</v>
+      </c>
+      <c r="AG148">
+        <v>9</v>
+      </c>
+      <c r="AH148">
+        <v>1.28</v>
+      </c>
+      <c r="AI148">
+        <v>3.5</v>
+      </c>
+      <c r="AJ148">
+        <v>1.95</v>
+      </c>
+      <c r="AK148">
+        <v>1.9</v>
+      </c>
+      <c r="AL148">
+        <v>1.67</v>
+      </c>
+      <c r="AM148">
+        <v>2.1</v>
+      </c>
+      <c r="AN148">
+        <v>1.39</v>
+      </c>
+      <c r="AO148">
+        <v>1.31</v>
+      </c>
+      <c r="AP148">
+        <v>1.55</v>
+      </c>
+      <c r="AQ148">
+        <v>1.33</v>
+      </c>
+      <c r="AR148">
+        <v>0.71</v>
+      </c>
+      <c r="AS148">
+        <v>1.75</v>
+      </c>
+      <c r="AT148">
+        <v>0.89</v>
+      </c>
+      <c r="AU148">
+        <v>1.23</v>
+      </c>
+      <c r="AV148">
+        <v>1.73</v>
+      </c>
+      <c r="AW148">
+        <v>2.96</v>
+      </c>
+      <c r="AX148">
+        <v>1.95</v>
+      </c>
+      <c r="AY148">
+        <v>6.95</v>
+      </c>
+      <c r="AZ148">
+        <v>2.29</v>
+      </c>
+      <c r="BA148">
+        <v>1.27</v>
+      </c>
+      <c r="BB148">
+        <v>1.5</v>
+      </c>
+      <c r="BC148">
+        <v>1.9</v>
+      </c>
+      <c r="BD148">
+        <v>2.45</v>
+      </c>
+      <c r="BE148">
+        <v>3.4</v>
+      </c>
+      <c r="BF148">
+        <v>8</v>
+      </c>
+      <c r="BG148">
+        <v>3</v>
+      </c>
+      <c r="BH148">
+        <v>2</v>
+      </c>
+      <c r="BI148">
+        <v>1</v>
+      </c>
+      <c r="BJ148">
+        <v>10</v>
+      </c>
+      <c r="BK148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:63">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>2604118</v>
+      </c>
+      <c r="C149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="2">
+        <v>44871.375</v>
+      </c>
+      <c r="F149">
+        <v>15</v>
+      </c>
+      <c r="G149" t="s">
+        <v>66</v>
+      </c>
+      <c r="H149" t="s">
+        <v>69</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>2</v>
+      </c>
+      <c r="K149">
+        <v>3</v>
+      </c>
+      <c r="L149">
+        <v>3</v>
+      </c>
+      <c r="M149">
+        <v>5</v>
+      </c>
+      <c r="N149">
+        <v>8</v>
+      </c>
+      <c r="O149" t="s">
+        <v>191</v>
+      </c>
+      <c r="P149" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q149">
+        <v>9</v>
+      </c>
+      <c r="R149">
+        <v>6</v>
+      </c>
+      <c r="S149">
+        <v>15</v>
+      </c>
+      <c r="T149">
+        <v>3.5</v>
+      </c>
+      <c r="U149">
+        <v>2.15</v>
+      </c>
+      <c r="V149">
+        <v>2.65</v>
+      </c>
+      <c r="W149">
+        <v>1.33</v>
+      </c>
+      <c r="X149">
+        <v>3</v>
+      </c>
+      <c r="Y149">
+        <v>2.45</v>
+      </c>
+      <c r="Z149">
+        <v>1.49</v>
+      </c>
+      <c r="AA149">
+        <v>5.75</v>
+      </c>
+      <c r="AB149">
+        <v>1.11</v>
+      </c>
+      <c r="AC149">
+        <v>2.3</v>
+      </c>
+      <c r="AD149">
+        <v>3.24</v>
+      </c>
+      <c r="AE149">
+        <v>2.69</v>
+      </c>
+      <c r="AF149">
+        <v>1.02</v>
+      </c>
+      <c r="AG149">
+        <v>12</v>
+      </c>
+      <c r="AH149">
+        <v>1.2</v>
+      </c>
+      <c r="AI149">
+        <v>4.3</v>
+      </c>
+      <c r="AJ149">
+        <v>1.65</v>
+      </c>
+      <c r="AK149">
+        <v>2.1</v>
+      </c>
+      <c r="AL149">
+        <v>1.57</v>
+      </c>
+      <c r="AM149">
+        <v>2.2</v>
+      </c>
+      <c r="AN149">
+        <v>1.66</v>
+      </c>
+      <c r="AO149">
+        <v>1.29</v>
+      </c>
+      <c r="AP149">
+        <v>1.34</v>
+      </c>
+      <c r="AQ149">
+        <v>1.14</v>
+      </c>
+      <c r="AR149">
+        <v>1.14</v>
+      </c>
+      <c r="AS149">
+        <v>1</v>
+      </c>
+      <c r="AT149">
+        <v>1.33</v>
+      </c>
+      <c r="AU149">
+        <v>1.62</v>
+      </c>
+      <c r="AV149">
+        <v>1.63</v>
+      </c>
+      <c r="AW149">
+        <v>3.25</v>
+      </c>
+      <c r="AX149">
+        <v>2.35</v>
+      </c>
+      <c r="AY149">
+        <v>7.1</v>
+      </c>
+      <c r="AZ149">
+        <v>1.9</v>
+      </c>
+      <c r="BA149">
+        <v>1.2</v>
+      </c>
+      <c r="BB149">
+        <v>1.41</v>
+      </c>
+      <c r="BC149">
+        <v>1.78</v>
+      </c>
+      <c r="BD149">
+        <v>2.2</v>
+      </c>
+      <c r="BE149">
+        <v>2.88</v>
+      </c>
+      <c r="BF149">
+        <v>5</v>
+      </c>
+      <c r="BG149">
+        <v>10</v>
+      </c>
+      <c r="BH149">
+        <v>8</v>
+      </c>
+      <c r="BI149">
+        <v>9</v>
+      </c>
+      <c r="BJ149">
+        <v>13</v>
+      </c>
+      <c r="BK149">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150" spans="1:63">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>2604126</v>
+      </c>
+      <c r="C150" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" t="s">
+        <v>64</v>
+      </c>
+      <c r="E150" s="2">
+        <v>44871.41666666666</v>
+      </c>
+      <c r="F150">
+        <v>15</v>
+      </c>
+      <c r="G150" t="s">
+        <v>73</v>
+      </c>
+      <c r="H150" t="s">
+        <v>65</v>
+      </c>
+      <c r="I150">
+        <v>3</v>
+      </c>
+      <c r="J150">
+        <v>2</v>
+      </c>
+      <c r="K150">
+        <v>5</v>
+      </c>
+      <c r="L150">
+        <v>4</v>
+      </c>
+      <c r="M150">
+        <v>3</v>
+      </c>
+      <c r="N150">
+        <v>7</v>
+      </c>
+      <c r="O150" t="s">
+        <v>192</v>
+      </c>
+      <c r="P150" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q150">
+        <v>3</v>
+      </c>
+      <c r="R150">
+        <v>7</v>
+      </c>
+      <c r="S150">
+        <v>10</v>
+      </c>
+      <c r="T150">
+        <v>3.3</v>
+      </c>
+      <c r="U150">
+        <v>2.1</v>
+      </c>
+      <c r="V150">
+        <v>2.85</v>
+      </c>
+      <c r="W150">
+        <v>1.35</v>
+      </c>
+      <c r="X150">
+        <v>2.9</v>
+      </c>
+      <c r="Y150">
+        <v>2.55</v>
+      </c>
+      <c r="Z150">
+        <v>1.44</v>
+      </c>
+      <c r="AA150">
+        <v>6.25</v>
+      </c>
+      <c r="AB150">
+        <v>1.1</v>
+      </c>
+      <c r="AC150">
+        <v>2.74</v>
+      </c>
+      <c r="AD150">
+        <v>3.19</v>
+      </c>
+      <c r="AE150">
+        <v>2.29</v>
+      </c>
+      <c r="AF150">
+        <v>1.03</v>
+      </c>
+      <c r="AG150">
+        <v>11</v>
+      </c>
+      <c r="AH150">
+        <v>1.22</v>
+      </c>
+      <c r="AI150">
+        <v>4</v>
+      </c>
+      <c r="AJ150">
+        <v>1.75</v>
+      </c>
+      <c r="AK150">
+        <v>1.95</v>
+      </c>
+      <c r="AL150">
+        <v>1.65</v>
+      </c>
+      <c r="AM150">
+        <v>2.1</v>
+      </c>
+      <c r="AN150">
+        <v>1.57</v>
+      </c>
+      <c r="AO150">
+        <v>1.3</v>
+      </c>
+      <c r="AP150">
+        <v>1.39</v>
+      </c>
+      <c r="AQ150">
+        <v>1</v>
+      </c>
+      <c r="AR150">
+        <v>0.43</v>
+      </c>
+      <c r="AS150">
+        <v>1.25</v>
+      </c>
+      <c r="AT150">
+        <v>0.67</v>
+      </c>
+      <c r="AU150">
+        <v>1.45</v>
+      </c>
+      <c r="AV150">
+        <v>1.4</v>
+      </c>
+      <c r="AW150">
+        <v>2.85</v>
+      </c>
+      <c r="AX150">
+        <v>2.2</v>
+      </c>
+      <c r="AY150">
+        <v>7.2</v>
+      </c>
+      <c r="AZ150">
+        <v>2</v>
+      </c>
+      <c r="BA150">
+        <v>1.18</v>
+      </c>
+      <c r="BB150">
+        <v>1.3</v>
+      </c>
+      <c r="BC150">
+        <v>1.61</v>
+      </c>
+      <c r="BD150">
+        <v>1.96</v>
+      </c>
+      <c r="BE150">
+        <v>2.41</v>
+      </c>
+      <c r="BF150">
+        <v>6</v>
+      </c>
+      <c r="BG150">
+        <v>6</v>
+      </c>
+      <c r="BH150">
+        <v>3</v>
+      </c>
+      <c r="BI150">
+        <v>11</v>
+      </c>
+      <c r="BJ150">
+        <v>9</v>
+      </c>
+      <c r="BK150">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:63">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>2604120</v>
+      </c>
+      <c r="C151" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E151" s="2">
+        <v>44871.45833333334</v>
+      </c>
+      <c r="F151">
+        <v>15</v>
+      </c>
+      <c r="G151" t="s">
+        <v>80</v>
+      </c>
+      <c r="H151" t="s">
+        <v>71</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>1</v>
+      </c>
+      <c r="O151" t="s">
+        <v>96</v>
+      </c>
+      <c r="P151" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q151">
+        <v>8</v>
+      </c>
+      <c r="R151">
+        <v>2</v>
+      </c>
+      <c r="S151">
+        <v>10</v>
+      </c>
+      <c r="T151">
+        <v>2.6</v>
+      </c>
+      <c r="U151">
+        <v>2.1</v>
+      </c>
+      <c r="V151">
+        <v>3.7</v>
+      </c>
+      <c r="W151">
+        <v>1.35</v>
+      </c>
+      <c r="X151">
+        <v>2.95</v>
+      </c>
+      <c r="Y151">
+        <v>2.5</v>
+      </c>
+      <c r="Z151">
+        <v>1.46</v>
+      </c>
+      <c r="AA151">
+        <v>6</v>
+      </c>
+      <c r="AB151">
+        <v>1.1</v>
+      </c>
+      <c r="AC151">
+        <v>1.95</v>
+      </c>
+      <c r="AD151">
+        <v>3.25</v>
+      </c>
+      <c r="AE151">
+        <v>3.4</v>
+      </c>
+      <c r="AF151">
+        <v>1.03</v>
+      </c>
+      <c r="AG151">
+        <v>11</v>
+      </c>
+      <c r="AH151">
+        <v>1.22</v>
+      </c>
+      <c r="AI151">
+        <v>4</v>
+      </c>
+      <c r="AJ151">
+        <v>1.7</v>
+      </c>
+      <c r="AK151">
+        <v>2</v>
+      </c>
+      <c r="AL151">
+        <v>1.63</v>
+      </c>
+      <c r="AM151">
+        <v>2.1</v>
+      </c>
+      <c r="AN151">
+        <v>1.3</v>
+      </c>
+      <c r="AO151">
+        <v>1.3</v>
+      </c>
+      <c r="AP151">
+        <v>1.71</v>
+      </c>
+      <c r="AQ151">
+        <v>2.57</v>
+      </c>
+      <c r="AR151">
+        <v>1.57</v>
+      </c>
+      <c r="AS151">
+        <v>2.11</v>
+      </c>
+      <c r="AT151">
+        <v>1.89</v>
+      </c>
+      <c r="AU151">
+        <v>1.8</v>
+      </c>
+      <c r="AV151">
+        <v>1.43</v>
+      </c>
+      <c r="AW151">
+        <v>3.23</v>
+      </c>
+      <c r="AX151">
+        <v>1.59</v>
+      </c>
+      <c r="AY151">
+        <v>8.6</v>
+      </c>
+      <c r="AZ151">
+        <v>2.88</v>
+      </c>
+      <c r="BA151">
+        <v>1.17</v>
+      </c>
+      <c r="BB151">
+        <v>1.31</v>
+      </c>
+      <c r="BC151">
+        <v>1.61</v>
+      </c>
+      <c r="BD151">
+        <v>1.96</v>
+      </c>
+      <c r="BE151">
+        <v>2.41</v>
+      </c>
+      <c r="BF151">
+        <v>9</v>
+      </c>
+      <c r="BG151">
+        <v>5</v>
+      </c>
+      <c r="BH151">
+        <v>7</v>
+      </c>
+      <c r="BI151">
+        <v>3</v>
+      </c>
+      <c r="BJ151">
+        <v>16</v>
+      </c>
+      <c r="BK151">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:63">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>2604134</v>
+      </c>
+      <c r="C152" t="s">
+        <v>63</v>
+      </c>
+      <c r="D152" t="s">
+        <v>64</v>
+      </c>
+      <c r="E152" s="2">
+        <v>44873.625</v>
+      </c>
+      <c r="F152">
+        <v>16</v>
+      </c>
+      <c r="G152" t="s">
+        <v>82</v>
+      </c>
+      <c r="H152" t="s">
+        <v>79</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>2</v>
+      </c>
+      <c r="N152">
+        <v>2</v>
+      </c>
+      <c r="O152" t="s">
+        <v>96</v>
+      </c>
+      <c r="P152" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q152">
+        <v>3</v>
+      </c>
+      <c r="R152">
+        <v>7</v>
+      </c>
+      <c r="S152">
+        <v>10</v>
+      </c>
+      <c r="T152">
+        <v>2.93</v>
+      </c>
+      <c r="U152">
+        <v>2.18</v>
+      </c>
+      <c r="V152">
+        <v>3.5</v>
+      </c>
+      <c r="W152">
+        <v>1.36</v>
+      </c>
+      <c r="X152">
+        <v>2.99</v>
+      </c>
+      <c r="Y152">
+        <v>2.66</v>
+      </c>
+      <c r="Z152">
+        <v>1.44</v>
+      </c>
+      <c r="AA152">
+        <v>6.55</v>
+      </c>
+      <c r="AB152">
+        <v>1.09</v>
+      </c>
+      <c r="AC152">
+        <v>2.56</v>
+      </c>
+      <c r="AD152">
+        <v>3.24</v>
+      </c>
+      <c r="AE152">
+        <v>2.77</v>
+      </c>
+      <c r="AF152">
+        <v>1.05</v>
+      </c>
+      <c r="AG152">
+        <v>9</v>
+      </c>
+      <c r="AH152">
+        <v>1.29</v>
+      </c>
+      <c r="AI152">
+        <v>3.5</v>
+      </c>
+      <c r="AJ152">
+        <v>1.84</v>
+      </c>
+      <c r="AK152">
+        <v>1.86</v>
+      </c>
+      <c r="AL152">
+        <v>1.67</v>
+      </c>
+      <c r="AM152">
+        <v>2.15</v>
+      </c>
+      <c r="AN152">
+        <v>1.4</v>
+      </c>
+      <c r="AO152">
+        <v>1.28</v>
+      </c>
+      <c r="AP152">
+        <v>1.56</v>
+      </c>
+      <c r="AQ152">
+        <v>1.43</v>
+      </c>
+      <c r="AR152">
+        <v>1.25</v>
+      </c>
+      <c r="AS152">
+        <v>1.11</v>
+      </c>
+      <c r="AT152">
+        <v>1.44</v>
+      </c>
+      <c r="AU152">
+        <v>1.49</v>
+      </c>
+      <c r="AV152">
+        <v>1.56</v>
+      </c>
+      <c r="AW152">
+        <v>3.05</v>
+      </c>
+      <c r="AX152">
+        <v>2.01</v>
+      </c>
+      <c r="AY152">
+        <v>6.95</v>
+      </c>
+      <c r="AZ152">
+        <v>2.21</v>
+      </c>
+      <c r="BA152">
+        <v>1.29</v>
+      </c>
+      <c r="BB152">
+        <v>1.53</v>
+      </c>
+      <c r="BC152">
+        <v>2</v>
+      </c>
+      <c r="BD152">
+        <v>2.55</v>
+      </c>
+      <c r="BE152">
+        <v>3.5</v>
+      </c>
+      <c r="BF152">
+        <v>2</v>
+      </c>
+      <c r="BG152">
+        <v>6</v>
+      </c>
+      <c r="BH152">
+        <v>3</v>
+      </c>
+      <c r="BI152">
+        <v>6</v>
+      </c>
+      <c r="BJ152">
+        <v>5</v>
+      </c>
+      <c r="BK152">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:63">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>2604131</v>
+      </c>
+      <c r="C153" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" t="s">
+        <v>64</v>
+      </c>
+      <c r="E153" s="2">
+        <v>44873.625</v>
+      </c>
+      <c r="F153">
+        <v>16</v>
+      </c>
+      <c r="G153" t="s">
+        <v>67</v>
+      </c>
+      <c r="H153" t="s">
+        <v>77</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>1</v>
+      </c>
+      <c r="O153" t="s">
+        <v>193</v>
+      </c>
+      <c r="P153" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q153">
+        <v>6</v>
+      </c>
+      <c r="R153">
+        <v>4</v>
+      </c>
+      <c r="S153">
+        <v>10</v>
+      </c>
+      <c r="T153">
+        <v>2.15</v>
+      </c>
+      <c r="U153">
+        <v>2.35</v>
+      </c>
+      <c r="V153">
+        <v>5.1</v>
+      </c>
+      <c r="W153">
+        <v>1.32</v>
+      </c>
+      <c r="X153">
+        <v>3.2</v>
+      </c>
+      <c r="Y153">
+        <v>2.48</v>
+      </c>
+      <c r="Z153">
+        <v>1.5</v>
+      </c>
+      <c r="AA153">
+        <v>5.85</v>
+      </c>
+      <c r="AB153">
+        <v>1.11</v>
+      </c>
+      <c r="AC153">
+        <v>1.59</v>
+      </c>
+      <c r="AD153">
+        <v>4.46</v>
+      </c>
+      <c r="AE153">
+        <v>5.4</v>
+      </c>
+      <c r="AF153">
+        <v>1.04</v>
+      </c>
+      <c r="AG153">
+        <v>10</v>
+      </c>
+      <c r="AH153">
+        <v>1.22</v>
+      </c>
+      <c r="AI153">
+        <v>4</v>
+      </c>
+      <c r="AJ153">
+        <v>1.65</v>
+      </c>
+      <c r="AK153">
+        <v>2.12</v>
+      </c>
+      <c r="AL153">
+        <v>1.72</v>
+      </c>
+      <c r="AM153">
+        <v>2.07</v>
+      </c>
+      <c r="AN153">
+        <v>1.15</v>
+      </c>
+      <c r="AO153">
+        <v>1.22</v>
+      </c>
+      <c r="AP153">
+        <v>2.26</v>
+      </c>
+      <c r="AQ153">
+        <v>1.57</v>
+      </c>
+      <c r="AR153">
+        <v>0.29</v>
+      </c>
+      <c r="AS153">
+        <v>1.75</v>
+      </c>
+      <c r="AT153">
+        <v>0.25</v>
+      </c>
+      <c r="AU153">
+        <v>1.45</v>
+      </c>
+      <c r="AV153">
+        <v>1.22</v>
+      </c>
+      <c r="AW153">
+        <v>2.67</v>
+      </c>
+      <c r="AX153">
+        <v>1.47</v>
+      </c>
+      <c r="AY153">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ153">
+        <v>3.35</v>
+      </c>
+      <c r="BA153">
+        <v>1.2</v>
+      </c>
+      <c r="BB153">
+        <v>1.38</v>
+      </c>
+      <c r="BC153">
+        <v>1.67</v>
+      </c>
+      <c r="BD153">
+        <v>2.12</v>
+      </c>
+      <c r="BE153">
+        <v>2.85</v>
+      </c>
+      <c r="BF153">
+        <v>9</v>
+      </c>
+      <c r="BG153">
+        <v>2</v>
+      </c>
+      <c r="BH153">
+        <v>8</v>
+      </c>
+      <c r="BI153">
+        <v>4</v>
+      </c>
+      <c r="BJ153">
+        <v>17</v>
+      </c>
+      <c r="BK153">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:63">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>2604137</v>
+      </c>
+      <c r="C154" t="s">
+        <v>63</v>
+      </c>
+      <c r="D154" t="s">
+        <v>64</v>
+      </c>
+      <c r="E154" s="2">
+        <v>44873.625</v>
+      </c>
+      <c r="F154">
+        <v>16</v>
+      </c>
+      <c r="G154" t="s">
+        <v>76</v>
+      </c>
+      <c r="H154" t="s">
+        <v>81</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="O154" t="s">
+        <v>96</v>
+      </c>
+      <c r="P154" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q154">
+        <v>3</v>
+      </c>
+      <c r="R154">
+        <v>9</v>
+      </c>
+      <c r="S154">
+        <v>12</v>
+      </c>
+      <c r="T154">
+        <v>4.72</v>
+      </c>
+      <c r="U154">
+        <v>2.48</v>
+      </c>
+      <c r="V154">
+        <v>2.13</v>
+      </c>
+      <c r="W154">
+        <v>1.26</v>
+      </c>
+      <c r="X154">
+        <v>3.62</v>
+      </c>
+      <c r="Y154">
+        <v>2.22</v>
+      </c>
+      <c r="Z154">
+        <v>1.62</v>
+      </c>
+      <c r="AA154">
+        <v>4.9</v>
+      </c>
+      <c r="AB154">
+        <v>1.16</v>
+      </c>
+      <c r="AC154">
+        <v>5.19</v>
+      </c>
+      <c r="AD154">
+        <v>4.27</v>
+      </c>
+      <c r="AE154">
+        <v>1.56</v>
+      </c>
+      <c r="AF154">
+        <v>1.02</v>
+      </c>
+      <c r="AG154">
+        <v>12</v>
+      </c>
+      <c r="AH154">
+        <v>1.15</v>
+      </c>
+      <c r="AI154">
+        <v>4.75</v>
+      </c>
+      <c r="AJ154">
+        <v>1.4</v>
+      </c>
+      <c r="AK154">
+        <v>2.75</v>
+      </c>
+      <c r="AL154">
+        <v>1.52</v>
+      </c>
+      <c r="AM154">
+        <v>2.35</v>
+      </c>
+      <c r="AN154">
+        <v>2.23</v>
+      </c>
+      <c r="AO154">
+        <v>1.2</v>
+      </c>
+      <c r="AP154">
+        <v>1.17</v>
+      </c>
+      <c r="AQ154">
+        <v>1.14</v>
+      </c>
+      <c r="AR154">
+        <v>2.43</v>
+      </c>
+      <c r="AS154">
+        <v>1</v>
+      </c>
+      <c r="AT154">
+        <v>2.5</v>
+      </c>
+      <c r="AU154">
+        <v>1.35</v>
+      </c>
+      <c r="AV154">
+        <v>1.75</v>
+      </c>
+      <c r="AW154">
+        <v>3.1</v>
+      </c>
+      <c r="AX154">
+        <v>3.68</v>
+      </c>
+      <c r="AY154">
+        <v>8.9</v>
+      </c>
+      <c r="AZ154">
+        <v>1.41</v>
+      </c>
+      <c r="BA154">
+        <v>1.2</v>
+      </c>
+      <c r="BB154">
+        <v>1.38</v>
+      </c>
+      <c r="BC154">
+        <v>1.67</v>
+      </c>
+      <c r="BD154">
+        <v>2.12</v>
+      </c>
+      <c r="BE154">
+        <v>2.85</v>
+      </c>
+      <c r="BF154">
+        <v>2</v>
+      </c>
+      <c r="BG154">
+        <v>6</v>
+      </c>
+      <c r="BH154">
+        <v>1</v>
+      </c>
+      <c r="BI154">
+        <v>8</v>
+      </c>
+      <c r="BJ154">
+        <v>3</v>
+      </c>
+      <c r="BK154">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:63">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>2604128</v>
+      </c>
+      <c r="C155" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" t="s">
+        <v>64</v>
+      </c>
+      <c r="E155" s="2">
+        <v>44873.625</v>
+      </c>
+      <c r="F155">
+        <v>16</v>
+      </c>
+      <c r="G155" t="s">
+        <v>74</v>
+      </c>
+      <c r="H155" t="s">
+        <v>70</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>1</v>
+      </c>
+      <c r="O155" t="s">
+        <v>194</v>
+      </c>
+      <c r="P155" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q155">
+        <v>7</v>
+      </c>
+      <c r="R155">
+        <v>6</v>
+      </c>
+      <c r="S155">
+        <v>13</v>
+      </c>
+      <c r="T155">
+        <v>2.67</v>
+      </c>
+      <c r="U155">
+        <v>2.24</v>
+      </c>
+      <c r="V155">
+        <v>3.78</v>
+      </c>
+      <c r="W155">
+        <v>1.33</v>
+      </c>
+      <c r="X155">
+        <v>3.13</v>
+      </c>
+      <c r="Y155">
+        <v>2.57</v>
+      </c>
+      <c r="Z155">
+        <v>1.47</v>
+      </c>
+      <c r="AA155">
+        <v>6.15</v>
+      </c>
+      <c r="AB155">
+        <v>1.1</v>
+      </c>
+      <c r="AC155">
+        <v>2</v>
+      </c>
+      <c r="AD155">
+        <v>3.87</v>
+      </c>
+      <c r="AE155">
+        <v>3.64</v>
+      </c>
+      <c r="AF155">
+        <v>1.04</v>
+      </c>
+      <c r="AG155">
+        <v>10</v>
+      </c>
+      <c r="AH155">
+        <v>1.25</v>
+      </c>
+      <c r="AI155">
+        <v>3.75</v>
+      </c>
+      <c r="AJ155">
+        <v>1.73</v>
+      </c>
+      <c r="AK155">
+        <v>2</v>
+      </c>
+      <c r="AL155">
+        <v>1.63</v>
+      </c>
+      <c r="AM155">
+        <v>2.22</v>
+      </c>
+      <c r="AN155">
+        <v>1.33</v>
+      </c>
+      <c r="AO155">
+        <v>1.27</v>
+      </c>
+      <c r="AP155">
+        <v>1.68</v>
+      </c>
+      <c r="AQ155">
+        <v>2</v>
+      </c>
+      <c r="AR155">
+        <v>1.57</v>
+      </c>
+      <c r="AS155">
+        <v>2.13</v>
+      </c>
+      <c r="AT155">
+        <v>1.38</v>
+      </c>
+      <c r="AU155">
+        <v>2.19</v>
+      </c>
+      <c r="AV155">
+        <v>1.24</v>
+      </c>
+      <c r="AW155">
+        <v>3.43</v>
+      </c>
+      <c r="AX155">
+        <v>1.66</v>
+      </c>
+      <c r="AY155">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ155">
+        <v>2.71</v>
+      </c>
+      <c r="BA155">
+        <v>1.2</v>
+      </c>
+      <c r="BB155">
+        <v>1.38</v>
+      </c>
+      <c r="BC155">
+        <v>1.67</v>
+      </c>
+      <c r="BD155">
+        <v>2.12</v>
+      </c>
+      <c r="BE155">
+        <v>2.85</v>
+      </c>
+      <c r="BF155">
+        <v>6</v>
+      </c>
+      <c r="BG155">
+        <v>2</v>
+      </c>
+      <c r="BH155">
+        <v>4</v>
+      </c>
+      <c r="BI155">
+        <v>5</v>
+      </c>
+      <c r="BJ155">
+        <v>10</v>
+      </c>
+      <c r="BK155">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:63">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>2604130</v>
+      </c>
+      <c r="C156" t="s">
+        <v>63</v>
+      </c>
+      <c r="D156" t="s">
+        <v>64</v>
+      </c>
+      <c r="E156" s="2">
+        <v>44873.625</v>
+      </c>
+      <c r="F156">
+        <v>16</v>
+      </c>
+      <c r="G156" t="s">
+        <v>83</v>
+      </c>
+      <c r="H156" t="s">
+        <v>75</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>2</v>
+      </c>
+      <c r="N156">
+        <v>2</v>
+      </c>
+      <c r="O156" t="s">
+        <v>96</v>
+      </c>
+      <c r="P156" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q156">
+        <v>12</v>
+      </c>
+      <c r="R156">
+        <v>2</v>
+      </c>
+      <c r="S156">
+        <v>14</v>
+      </c>
+      <c r="T156">
+        <v>2.96</v>
+      </c>
+      <c r="U156">
+        <v>2.19</v>
+      </c>
+      <c r="V156">
+        <v>3.44</v>
+      </c>
+      <c r="W156">
+        <v>1.35</v>
+      </c>
+      <c r="X156">
+        <v>3.04</v>
+      </c>
+      <c r="Y156">
+        <v>2.65</v>
+      </c>
+      <c r="Z156">
+        <v>1.45</v>
+      </c>
+      <c r="AA156">
+        <v>6.45</v>
+      </c>
+      <c r="AB156">
+        <v>1.09</v>
+      </c>
+      <c r="AC156">
+        <v>2.24</v>
+      </c>
+      <c r="AD156">
+        <v>3.42</v>
+      </c>
+      <c r="AE156">
+        <v>3.39</v>
+      </c>
+      <c r="AF156">
+        <v>1.05</v>
+      </c>
+      <c r="AG156">
+        <v>9</v>
+      </c>
+      <c r="AH156">
+        <v>1.29</v>
+      </c>
+      <c r="AI156">
+        <v>3.5</v>
+      </c>
+      <c r="AJ156">
+        <v>1.73</v>
+      </c>
+      <c r="AK156">
+        <v>1.99</v>
+      </c>
+      <c r="AL156">
+        <v>1.65</v>
+      </c>
+      <c r="AM156">
+        <v>2.18</v>
+      </c>
+      <c r="AN156">
+        <v>1.42</v>
+      </c>
+      <c r="AO156">
+        <v>1.28</v>
+      </c>
+      <c r="AP156">
+        <v>1.54</v>
+      </c>
+      <c r="AQ156">
+        <v>0.86</v>
+      </c>
+      <c r="AR156">
+        <v>1.13</v>
+      </c>
+      <c r="AS156">
+        <v>0.75</v>
+      </c>
+      <c r="AT156">
+        <v>1.33</v>
+      </c>
+      <c r="AU156">
+        <v>1.71</v>
+      </c>
+      <c r="AV156">
+        <v>1.34</v>
+      </c>
+      <c r="AW156">
+        <v>3.05</v>
+      </c>
+      <c r="AX156">
+        <v>1.64</v>
+      </c>
+      <c r="AY156">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ156">
+        <v>2.76</v>
+      </c>
+      <c r="BA156">
+        <v>1.22</v>
+      </c>
+      <c r="BB156">
+        <v>1.42</v>
+      </c>
+      <c r="BC156">
+        <v>1.74</v>
+      </c>
+      <c r="BD156">
+        <v>2.23</v>
+      </c>
+      <c r="BE156">
+        <v>3</v>
+      </c>
+      <c r="BF156">
+        <v>6</v>
+      </c>
+      <c r="BG156">
+        <v>7</v>
+      </c>
+      <c r="BH156">
+        <v>8</v>
+      </c>
+      <c r="BI156">
+        <v>7</v>
+      </c>
+      <c r="BJ156">
+        <v>14</v>
+      </c>
+      <c r="BK156">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:63">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>2604129</v>
+      </c>
+      <c r="C157" t="s">
+        <v>63</v>
+      </c>
+      <c r="D157" t="s">
+        <v>64</v>
+      </c>
+      <c r="E157" s="2">
+        <v>44874.625</v>
+      </c>
+      <c r="F157">
+        <v>16</v>
+      </c>
+      <c r="G157" t="s">
+        <v>65</v>
+      </c>
+      <c r="H157" t="s">
+        <v>84</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <v>2</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>3</v>
+      </c>
+      <c r="O157" t="s">
+        <v>195</v>
+      </c>
+      <c r="P157" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q157">
+        <v>2</v>
+      </c>
+      <c r="R157">
+        <v>3</v>
+      </c>
+      <c r="S157">
+        <v>5</v>
+      </c>
+      <c r="T157">
+        <v>2.42</v>
+      </c>
+      <c r="U157">
+        <v>2.26</v>
+      </c>
+      <c r="V157">
+        <v>4.38</v>
+      </c>
+      <c r="W157">
+        <v>1.32</v>
+      </c>
+      <c r="X157">
+        <v>3.1</v>
+      </c>
+      <c r="Y157">
+        <v>2.4</v>
+      </c>
+      <c r="Z157">
+        <v>1.49</v>
+      </c>
+      <c r="AA157">
+        <v>5.75</v>
+      </c>
+      <c r="AB157">
+        <v>1.12</v>
+      </c>
+      <c r="AC157">
+        <v>1.86</v>
+      </c>
+      <c r="AD157">
+        <v>3.55</v>
+      </c>
+      <c r="AE157">
+        <v>3.35</v>
+      </c>
+      <c r="AF157">
+        <v>1.04</v>
+      </c>
+      <c r="AG157">
+        <v>11.5</v>
+      </c>
+      <c r="AH157">
+        <v>1.21</v>
+      </c>
+      <c r="AI157">
+        <v>4</v>
+      </c>
+      <c r="AJ157">
+        <v>1.66</v>
+      </c>
+      <c r="AK157">
+        <v>2.05</v>
+      </c>
+      <c r="AL157">
+        <v>1.66</v>
+      </c>
+      <c r="AM157">
+        <v>2.16</v>
+      </c>
+      <c r="AN157">
+        <v>1.25</v>
+      </c>
+      <c r="AO157">
+        <v>1.25</v>
+      </c>
+      <c r="AP157">
+        <v>1.89</v>
+      </c>
+      <c r="AQ157">
+        <v>1.86</v>
+      </c>
+      <c r="AR157">
+        <v>0.86</v>
+      </c>
+      <c r="AS157">
+        <v>2</v>
+      </c>
+      <c r="AT157">
+        <v>0.75</v>
+      </c>
+      <c r="AU157">
+        <v>2.02</v>
+      </c>
+      <c r="AV157">
+        <v>1.4</v>
+      </c>
+      <c r="AW157">
+        <v>3.42</v>
+      </c>
+      <c r="AX157">
+        <v>1.4</v>
+      </c>
+      <c r="AY157">
+        <v>8.9</v>
+      </c>
+      <c r="AZ157">
+        <v>3.75</v>
+      </c>
+      <c r="BA157">
+        <v>1.19</v>
+      </c>
+      <c r="BB157">
+        <v>1.29</v>
+      </c>
+      <c r="BC157">
+        <v>1.5</v>
+      </c>
+      <c r="BD157">
+        <v>1.9</v>
+      </c>
+      <c r="BE157">
+        <v>2.43</v>
+      </c>
+      <c r="BF157">
+        <v>3</v>
+      </c>
+      <c r="BG157">
+        <v>2</v>
+      </c>
+      <c r="BH157">
+        <v>2</v>
+      </c>
+      <c r="BI157">
+        <v>2</v>
+      </c>
+      <c r="BJ157">
+        <v>5</v>
+      </c>
+      <c r="BK157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:63">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>2604132</v>
+      </c>
+      <c r="C158" t="s">
+        <v>63</v>
+      </c>
+      <c r="D158" t="s">
+        <v>64</v>
+      </c>
+      <c r="E158" s="2">
+        <v>44874.625</v>
+      </c>
+      <c r="F158">
+        <v>16</v>
+      </c>
+      <c r="G158" t="s">
+        <v>68</v>
+      </c>
+      <c r="H158" t="s">
+        <v>73</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>2</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+      <c r="N158">
+        <v>3</v>
+      </c>
+      <c r="O158" t="s">
+        <v>196</v>
+      </c>
+      <c r="P158" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q158">
+        <v>8</v>
+      </c>
+      <c r="R158">
+        <v>2</v>
+      </c>
+      <c r="S158">
+        <v>10</v>
+      </c>
+      <c r="T158">
+        <v>2.25</v>
+      </c>
+      <c r="U158">
+        <v>2.2</v>
+      </c>
+      <c r="V158">
+        <v>4.4</v>
+      </c>
+      <c r="W158">
+        <v>1.36</v>
+      </c>
+      <c r="X158">
+        <v>3</v>
+      </c>
+      <c r="Y158">
+        <v>2.62</v>
+      </c>
+      <c r="Z158">
+        <v>1.44</v>
+      </c>
+      <c r="AA158">
+        <v>6</v>
+      </c>
+      <c r="AB158">
+        <v>1.11</v>
+      </c>
+      <c r="AC158">
+        <v>1.82</v>
+      </c>
+      <c r="AD158">
+        <v>3.45</v>
+      </c>
+      <c r="AE158">
+        <v>3.55</v>
+      </c>
+      <c r="AF158">
+        <v>1.05</v>
+      </c>
+      <c r="AG158">
+        <v>9</v>
+      </c>
+      <c r="AH158">
+        <v>1.29</v>
+      </c>
+      <c r="AI158">
+        <v>3.5</v>
+      </c>
+      <c r="AJ158">
+        <v>1.86</v>
+      </c>
+      <c r="AK158">
+        <v>1.94</v>
+      </c>
+      <c r="AL158">
+        <v>1.8</v>
+      </c>
+      <c r="AM158">
+        <v>1.91</v>
+      </c>
+      <c r="AN158">
+        <v>1.18</v>
+      </c>
+      <c r="AO158">
+        <v>1.25</v>
+      </c>
+      <c r="AP158">
+        <v>2.05</v>
+      </c>
+      <c r="AQ158">
+        <v>2.63</v>
+      </c>
+      <c r="AR158">
+        <v>0.71</v>
+      </c>
+      <c r="AS158">
+        <v>2.67</v>
+      </c>
+      <c r="AT158">
+        <v>0.67</v>
+      </c>
+      <c r="AU158">
+        <v>1.66</v>
+      </c>
+      <c r="AV158">
+        <v>1.53</v>
+      </c>
+      <c r="AW158">
+        <v>3.19</v>
+      </c>
+      <c r="AX158">
+        <v>1.49</v>
+      </c>
+      <c r="AY158">
+        <v>8.4</v>
+      </c>
+      <c r="AZ158">
+        <v>3.3</v>
+      </c>
+      <c r="BA158">
+        <v>1.19</v>
+      </c>
+      <c r="BB158">
+        <v>1.29</v>
+      </c>
+      <c r="BC158">
+        <v>1.5</v>
+      </c>
+      <c r="BD158">
+        <v>1.95</v>
+      </c>
+      <c r="BE158">
+        <v>2.43</v>
+      </c>
+      <c r="BF158">
+        <v>8</v>
+      </c>
+      <c r="BG158">
+        <v>3</v>
+      </c>
+      <c r="BH158">
+        <v>10</v>
+      </c>
+      <c r="BI158">
+        <v>6</v>
+      </c>
+      <c r="BJ158">
+        <v>18</v>
+      </c>
+      <c r="BK158">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:63">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>2604133</v>
+      </c>
+      <c r="C159" t="s">
+        <v>63</v>
+      </c>
+      <c r="D159" t="s">
+        <v>64</v>
+      </c>
+      <c r="E159" s="2">
+        <v>44874.625</v>
+      </c>
+      <c r="F159">
+        <v>16</v>
+      </c>
+      <c r="G159" t="s">
+        <v>69</v>
+      </c>
+      <c r="H159" t="s">
+        <v>78</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+      <c r="O159" t="s">
+        <v>96</v>
+      </c>
+      <c r="P159" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q159">
+        <v>1</v>
+      </c>
+      <c r="R159">
+        <v>4</v>
+      </c>
+      <c r="S159">
+        <v>5</v>
+      </c>
+      <c r="T159">
+        <v>2.25</v>
+      </c>
+      <c r="U159">
+        <v>2.3</v>
+      </c>
+      <c r="V159">
+        <v>4.4</v>
+      </c>
+      <c r="W159">
+        <v>1.33</v>
+      </c>
+      <c r="X159">
+        <v>3</v>
+      </c>
+      <c r="Y159">
+        <v>2.45</v>
+      </c>
+      <c r="Z159">
+        <v>1.49</v>
+      </c>
+      <c r="AA159">
+        <v>5.75</v>
+      </c>
+      <c r="AB159">
+        <v>1.11</v>
+      </c>
+      <c r="AC159">
+        <v>2.1</v>
+      </c>
+      <c r="AD159">
+        <v>3.5</v>
+      </c>
+      <c r="AE159">
+        <v>3.2</v>
+      </c>
+      <c r="AF159">
+        <v>1.04</v>
+      </c>
+      <c r="AG159">
+        <v>11</v>
+      </c>
+      <c r="AH159">
+        <v>1.22</v>
+      </c>
+      <c r="AI159">
+        <v>3.9</v>
+      </c>
+      <c r="AJ159">
+        <v>1.65</v>
+      </c>
+      <c r="AK159">
+        <v>2.1</v>
+      </c>
+      <c r="AL159">
+        <v>1.71</v>
+      </c>
+      <c r="AM159">
+        <v>2.14</v>
+      </c>
+      <c r="AN159">
+        <v>1.2</v>
+      </c>
+      <c r="AO159">
+        <v>1.2</v>
+      </c>
+      <c r="AP159">
+        <v>1.72</v>
+      </c>
+      <c r="AQ159">
+        <v>1.29</v>
+      </c>
+      <c r="AR159">
+        <v>0.57</v>
+      </c>
+      <c r="AS159">
+        <v>1.25</v>
+      </c>
+      <c r="AT159">
+        <v>0.63</v>
+      </c>
+      <c r="AU159">
+        <v>1.53</v>
+      </c>
+      <c r="AV159">
+        <v>1.29</v>
+      </c>
+      <c r="AW159">
+        <v>2.82</v>
+      </c>
+      <c r="AX159">
+        <v>1.6</v>
+      </c>
+      <c r="AY159">
+        <v>8.1</v>
+      </c>
+      <c r="AZ159">
+        <v>2.9</v>
+      </c>
+      <c r="BA159">
+        <v>1.22</v>
+      </c>
+      <c r="BB159">
+        <v>1.42</v>
+      </c>
+      <c r="BC159">
+        <v>1.74</v>
+      </c>
+      <c r="BD159">
+        <v>2.23</v>
+      </c>
+      <c r="BE159">
+        <v>3</v>
+      </c>
+      <c r="BF159">
+        <v>4</v>
+      </c>
+      <c r="BG159">
+        <v>5</v>
+      </c>
+      <c r="BH159">
+        <v>4</v>
+      </c>
+      <c r="BI159">
+        <v>1</v>
+      </c>
+      <c r="BJ159">
+        <v>8</v>
+      </c>
+      <c r="BK159">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:63">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>2604135</v>
+      </c>
+      <c r="C160" t="s">
+        <v>63</v>
+      </c>
+      <c r="D160" t="s">
+        <v>64</v>
+      </c>
+      <c r="E160" s="2">
+        <v>44874.625</v>
+      </c>
+      <c r="F160">
+        <v>16</v>
+      </c>
+      <c r="G160" t="s">
+        <v>71</v>
+      </c>
+      <c r="H160" t="s">
+        <v>66</v>
+      </c>
+      <c r="I160">
+        <v>3</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>3</v>
+      </c>
+      <c r="L160">
+        <v>3</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160">
+        <v>4</v>
+      </c>
+      <c r="O160" t="s">
+        <v>197</v>
+      </c>
+      <c r="P160" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q160">
+        <v>9</v>
+      </c>
+      <c r="R160">
+        <v>5</v>
+      </c>
+      <c r="S160">
+        <v>14</v>
+      </c>
+      <c r="T160">
+        <v>2.1</v>
+      </c>
+      <c r="U160">
+        <v>2.38</v>
+      </c>
+      <c r="V160">
+        <v>4.5</v>
+      </c>
+      <c r="W160">
+        <v>1.33</v>
+      </c>
+      <c r="X160">
+        <v>3.25</v>
+      </c>
+      <c r="Y160">
+        <v>2.38</v>
+      </c>
+      <c r="Z160">
+        <v>1.53</v>
+      </c>
+      <c r="AA160">
+        <v>5.5</v>
+      </c>
+      <c r="AB160">
+        <v>1.12</v>
+      </c>
+      <c r="AC160">
+        <v>1.55</v>
+      </c>
+      <c r="AD160">
+        <v>3.95</v>
+      </c>
+      <c r="AE160">
+        <v>4.5</v>
+      </c>
+      <c r="AF160">
+        <v>1.04</v>
+      </c>
+      <c r="AG160">
+        <v>10</v>
+      </c>
+      <c r="AH160">
+        <v>1.25</v>
+      </c>
+      <c r="AI160">
+        <v>3.75</v>
+      </c>
+      <c r="AJ160">
+        <v>1.74</v>
+      </c>
+      <c r="AK160">
+        <v>2.1</v>
+      </c>
+      <c r="AL160">
+        <v>1.73</v>
+      </c>
+      <c r="AM160">
+        <v>2</v>
+      </c>
+      <c r="AN160">
+        <v>1.15</v>
+      </c>
+      <c r="AO160">
+        <v>1.25</v>
+      </c>
+      <c r="AP160">
+        <v>2.15</v>
+      </c>
+      <c r="AQ160">
+        <v>1.86</v>
+      </c>
+      <c r="AR160">
+        <v>1</v>
+      </c>
+      <c r="AS160">
+        <v>2</v>
+      </c>
+      <c r="AT160">
+        <v>0.88</v>
+      </c>
+      <c r="AU160">
+        <v>1.72</v>
+      </c>
+      <c r="AV160">
+        <v>1.17</v>
+      </c>
+      <c r="AW160">
+        <v>2.89</v>
+      </c>
+      <c r="AX160">
+        <v>1.33</v>
+      </c>
+      <c r="AY160">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ160">
+        <v>4.25</v>
+      </c>
+      <c r="BA160">
+        <v>1.25</v>
+      </c>
+      <c r="BB160">
+        <v>1.47</v>
+      </c>
+      <c r="BC160">
+        <v>1.8</v>
+      </c>
+      <c r="BD160">
+        <v>2.38</v>
+      </c>
+      <c r="BE160">
+        <v>3.25</v>
+      </c>
+      <c r="BF160">
+        <v>8</v>
+      </c>
+      <c r="BG160">
+        <v>2</v>
+      </c>
+      <c r="BH160">
+        <v>11</v>
+      </c>
+      <c r="BI160">
+        <v>5</v>
+      </c>
+      <c r="BJ160">
+        <v>19</v>
+      </c>
+      <c r="BK160">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:63">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>2604136</v>
+      </c>
+      <c r="C161" t="s">
+        <v>63</v>
+      </c>
+      <c r="D161" t="s">
+        <v>64</v>
+      </c>
+      <c r="E161" s="2">
+        <v>44874.625</v>
+      </c>
+      <c r="F161">
+        <v>16</v>
+      </c>
+      <c r="G161" t="s">
+        <v>72</v>
+      </c>
+      <c r="H161" t="s">
+        <v>80</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>2</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>2</v>
+      </c>
+      <c r="O161" t="s">
+        <v>198</v>
+      </c>
+      <c r="P161" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q161">
+        <v>6</v>
+      </c>
+      <c r="R161">
+        <v>4</v>
+      </c>
+      <c r="S161">
+        <v>10</v>
+      </c>
+      <c r="T161">
+        <v>3.4</v>
+      </c>
+      <c r="U161">
+        <v>2.22</v>
+      </c>
+      <c r="V161">
+        <v>2.93</v>
+      </c>
+      <c r="W161">
+        <v>1.36</v>
+      </c>
+      <c r="X161">
+        <v>2.87</v>
+      </c>
+      <c r="Y161">
+        <v>2.6</v>
+      </c>
+      <c r="Z161">
+        <v>1.43</v>
+      </c>
+      <c r="AA161">
+        <v>6.5</v>
+      </c>
+      <c r="AB161">
+        <v>1.09</v>
+      </c>
+      <c r="AC161">
+        <v>2.58</v>
+      </c>
+      <c r="AD161">
+        <v>3.45</v>
+      </c>
+      <c r="AE161">
+        <v>2.26</v>
+      </c>
+      <c r="AF161">
+        <v>1.05</v>
+      </c>
+      <c r="AG161">
+        <v>9.75</v>
+      </c>
+      <c r="AH161">
+        <v>1.26</v>
+      </c>
+      <c r="AI161">
+        <v>3.5</v>
+      </c>
+      <c r="AJ161">
+        <v>1.77</v>
+      </c>
+      <c r="AK161">
+        <v>1.93</v>
+      </c>
+      <c r="AL161">
+        <v>1.62</v>
+      </c>
+      <c r="AM161">
+        <v>2.24</v>
+      </c>
+      <c r="AN161">
+        <v>1.55</v>
+      </c>
+      <c r="AO161">
+        <v>1.28</v>
+      </c>
+      <c r="AP161">
+        <v>1.42</v>
+      </c>
+      <c r="AQ161">
+        <v>2.13</v>
+      </c>
+      <c r="AR161">
+        <v>1.57</v>
+      </c>
+      <c r="AS161">
+        <v>2.22</v>
+      </c>
+      <c r="AT161">
+        <v>1.38</v>
+      </c>
+      <c r="AU161">
+        <v>2.04</v>
+      </c>
+      <c r="AV161">
+        <v>1.5</v>
+      </c>
+      <c r="AW161">
+        <v>3.54</v>
+      </c>
+      <c r="AX161">
+        <v>2.18</v>
+      </c>
+      <c r="AY161">
+        <v>7.7</v>
+      </c>
+      <c r="AZ161">
+        <v>1.98</v>
+      </c>
+      <c r="BA161">
+        <v>1.21</v>
+      </c>
+      <c r="BB161">
+        <v>1.3</v>
+      </c>
+      <c r="BC161">
+        <v>1.55</v>
+      </c>
+      <c r="BD161">
+        <v>2</v>
+      </c>
+      <c r="BE161">
+        <v>2.5</v>
+      </c>
+      <c r="BF161">
+        <v>7</v>
+      </c>
+      <c r="BG161">
+        <v>6</v>
+      </c>
+      <c r="BH161">
+        <v>10</v>
+      </c>
+      <c r="BI161">
+        <v>8</v>
+      </c>
+      <c r="BJ161">
+        <v>17</v>
+      </c>
+      <c r="BK161">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:63">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>2604142</v>
+      </c>
+      <c r="C162" t="s">
+        <v>63</v>
+      </c>
+      <c r="D162" t="s">
+        <v>64</v>
+      </c>
+      <c r="E162" s="2">
+        <v>44876.625</v>
+      </c>
+      <c r="F162">
+        <v>17</v>
+      </c>
+      <c r="G162" t="s">
+        <v>82</v>
+      </c>
+      <c r="H162" t="s">
+        <v>83</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+      <c r="N162">
+        <v>1</v>
+      </c>
+      <c r="O162" t="s">
+        <v>96</v>
+      </c>
+      <c r="P162" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q162">
+        <v>7</v>
+      </c>
+      <c r="R162">
+        <v>2</v>
+      </c>
+      <c r="S162">
+        <v>9</v>
+      </c>
+      <c r="T162">
+        <v>3</v>
+      </c>
+      <c r="U162">
+        <v>2.2</v>
+      </c>
+      <c r="V162">
+        <v>3.4</v>
+      </c>
+      <c r="W162">
+        <v>1.36</v>
+      </c>
+      <c r="X162">
+        <v>3</v>
+      </c>
+      <c r="Y162">
+        <v>2.75</v>
+      </c>
+      <c r="Z162">
+        <v>1.4</v>
+      </c>
+      <c r="AA162">
+        <v>7</v>
+      </c>
+      <c r="AB162">
+        <v>1.1</v>
+      </c>
+      <c r="AC162">
+        <v>2.29</v>
+      </c>
+      <c r="AD162">
+        <v>3.25</v>
+      </c>
+      <c r="AE162">
+        <v>2.67</v>
+      </c>
+      <c r="AF162">
+        <v>1.06</v>
+      </c>
+      <c r="AG162">
+        <v>8.5</v>
+      </c>
+      <c r="AH162">
+        <v>1.27</v>
+      </c>
+      <c r="AI162">
+        <v>3.6</v>
+      </c>
+      <c r="AJ162">
+        <v>1.81</v>
+      </c>
+      <c r="AK162">
+        <v>1.9</v>
+      </c>
+      <c r="AL162">
+        <v>1.67</v>
+      </c>
+      <c r="AM162">
+        <v>2.1</v>
+      </c>
+      <c r="AN162">
+        <v>1.4</v>
+      </c>
+      <c r="AO162">
+        <v>1.29</v>
+      </c>
+      <c r="AP162">
+        <v>1.55</v>
+      </c>
+      <c r="AQ162">
+        <v>1.25</v>
+      </c>
+      <c r="AR162">
+        <v>0.63</v>
+      </c>
+      <c r="AS162">
+        <v>1.11</v>
+      </c>
+      <c r="AT162">
+        <v>0.89</v>
+      </c>
+      <c r="AU162">
+        <v>1.4</v>
+      </c>
+      <c r="AV162">
+        <v>1.62</v>
+      </c>
+      <c r="AW162">
+        <v>3.02</v>
+      </c>
+      <c r="AX162">
+        <v>2.07</v>
+      </c>
+      <c r="AY162">
+        <v>7.6</v>
+      </c>
+      <c r="AZ162">
+        <v>2.09</v>
+      </c>
+      <c r="BA162">
+        <v>1.22</v>
+      </c>
+      <c r="BB162">
+        <v>1.43</v>
+      </c>
+      <c r="BC162">
+        <v>1.8</v>
+      </c>
+      <c r="BD162">
+        <v>2.3</v>
+      </c>
+      <c r="BE162">
+        <v>3.2</v>
+      </c>
+      <c r="BF162">
+        <v>7</v>
+      </c>
+      <c r="BG162">
+        <v>6</v>
+      </c>
+      <c r="BH162">
+        <v>6</v>
+      </c>
+      <c r="BI162">
+        <v>5</v>
+      </c>
+      <c r="BJ162">
+        <v>13</v>
+      </c>
+      <c r="BK162">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:63">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>2604147</v>
+      </c>
+      <c r="C163" t="s">
+        <v>63</v>
+      </c>
+      <c r="D163" t="s">
+        <v>64</v>
+      </c>
+      <c r="E163" s="2">
+        <v>44877.41666666666</v>
+      </c>
+      <c r="F163">
+        <v>17</v>
+      </c>
+      <c r="G163" t="s">
+        <v>84</v>
+      </c>
+      <c r="H163" t="s">
+        <v>74</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+      <c r="N163">
+        <v>2</v>
+      </c>
+      <c r="O163" t="s">
+        <v>199</v>
+      </c>
+      <c r="P163" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q163">
+        <v>6</v>
+      </c>
+      <c r="R163">
+        <v>3</v>
+      </c>
+      <c r="S163">
+        <v>9</v>
+      </c>
+      <c r="T163">
+        <v>3.3</v>
+      </c>
+      <c r="U163">
+        <v>2.1</v>
+      </c>
+      <c r="V163">
+        <v>2.85</v>
+      </c>
+      <c r="W163">
+        <v>1.35</v>
+      </c>
+      <c r="X163">
+        <v>2.95</v>
+      </c>
+      <c r="Y163">
+        <v>2.55</v>
+      </c>
+      <c r="Z163">
+        <v>1.44</v>
+      </c>
+      <c r="AA163">
+        <v>6.25</v>
+      </c>
+      <c r="AB163">
+        <v>1.1</v>
+      </c>
+      <c r="AC163">
+        <v>2.86</v>
+      </c>
+      <c r="AD163">
+        <v>3.48</v>
+      </c>
+      <c r="AE163">
+        <v>2.34</v>
+      </c>
+      <c r="AF163">
+        <v>1.05</v>
+      </c>
+      <c r="AG163">
+        <v>10</v>
+      </c>
+      <c r="AH163">
+        <v>1.24</v>
+      </c>
+      <c r="AI163">
+        <v>3.7</v>
+      </c>
+      <c r="AJ163">
+        <v>1.83</v>
+      </c>
+      <c r="AK163">
+        <v>1.97</v>
+      </c>
+      <c r="AL163">
+        <v>1.62</v>
+      </c>
+      <c r="AM163">
+        <v>2.24</v>
+      </c>
+      <c r="AN163">
+        <v>1.57</v>
+      </c>
+      <c r="AO163">
+        <v>1.3</v>
+      </c>
+      <c r="AP163">
+        <v>1.4</v>
+      </c>
+      <c r="AQ163">
+        <v>1.88</v>
+      </c>
+      <c r="AR163">
+        <v>1.63</v>
+      </c>
+      <c r="AS163">
+        <v>1.78</v>
+      </c>
+      <c r="AT163">
+        <v>1.56</v>
+      </c>
+      <c r="AU163">
+        <v>1.63</v>
+      </c>
+      <c r="AV163">
+        <v>1.81</v>
+      </c>
+      <c r="AW163">
+        <v>3.44</v>
+      </c>
+      <c r="AX163">
+        <v>2.59</v>
+      </c>
+      <c r="AY163">
+        <v>7.9</v>
+      </c>
+      <c r="AZ163">
+        <v>1.72</v>
+      </c>
+      <c r="BA163">
+        <v>1.22</v>
+      </c>
+      <c r="BB163">
+        <v>1.26</v>
+      </c>
+      <c r="BC163">
+        <v>1.47</v>
+      </c>
+      <c r="BD163">
+        <v>1.95</v>
+      </c>
+      <c r="BE163">
+        <v>2.35</v>
+      </c>
+      <c r="BF163">
+        <v>4</v>
+      </c>
+      <c r="BG163">
+        <v>7</v>
+      </c>
+      <c r="BH163">
+        <v>7</v>
+      </c>
+      <c r="BI163">
+        <v>3</v>
+      </c>
+      <c r="BJ163">
+        <v>11</v>
+      </c>
+      <c r="BK163">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:63">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>2604145</v>
+      </c>
+      <c r="C164" t="s">
+        <v>63</v>
+      </c>
+      <c r="D164" t="s">
+        <v>64</v>
+      </c>
+      <c r="E164" s="2">
+        <v>44877.41666666666</v>
+      </c>
+      <c r="F164">
+        <v>17</v>
+      </c>
+      <c r="G164" t="s">
+        <v>77</v>
+      </c>
+      <c r="H164" t="s">
+        <v>71</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>2</v>
+      </c>
+      <c r="N164">
+        <v>3</v>
+      </c>
+      <c r="O164" t="s">
+        <v>151</v>
+      </c>
+      <c r="P164" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q164">
+        <v>6</v>
+      </c>
+      <c r="R164">
+        <v>2</v>
+      </c>
+      <c r="S164">
+        <v>8</v>
+      </c>
+      <c r="T164">
+        <v>3.88</v>
+      </c>
+      <c r="U164">
+        <v>2.2</v>
+      </c>
+      <c r="V164">
+        <v>2.67</v>
+      </c>
+      <c r="W164">
+        <v>1.36</v>
+      </c>
+      <c r="X164">
+        <v>2.87</v>
+      </c>
+      <c r="Y164">
+        <v>2.55</v>
+      </c>
+      <c r="Z164">
+        <v>1.44</v>
+      </c>
+      <c r="AA164">
+        <v>7</v>
+      </c>
+      <c r="AB164">
+        <v>1.1</v>
+      </c>
+      <c r="AC164">
+        <v>3.24</v>
+      </c>
+      <c r="AD164">
+        <v>3.54</v>
+      </c>
+      <c r="AE164">
+        <v>2.11</v>
+      </c>
+      <c r="AF164">
+        <v>1.05</v>
+      </c>
+      <c r="AG164">
+        <v>9.5</v>
+      </c>
+      <c r="AH164">
+        <v>1.26</v>
+      </c>
+      <c r="AI164">
+        <v>3.5</v>
+      </c>
+      <c r="AJ164">
+        <v>1.82</v>
+      </c>
+      <c r="AK164">
+        <v>1.99</v>
+      </c>
+      <c r="AL164">
+        <v>1.65</v>
+      </c>
+      <c r="AM164">
+        <v>2.1</v>
+      </c>
+      <c r="AN164">
+        <v>1.63</v>
+      </c>
+      <c r="AO164">
+        <v>1.31</v>
+      </c>
+      <c r="AP164">
+        <v>1.34</v>
+      </c>
+      <c r="AQ164">
+        <v>1.75</v>
+      </c>
+      <c r="AR164">
+        <v>1.75</v>
+      </c>
+      <c r="AS164">
+        <v>1.56</v>
+      </c>
+      <c r="AT164">
+        <v>1.89</v>
+      </c>
+      <c r="AU164">
+        <v>1.6</v>
+      </c>
+      <c r="AV164">
+        <v>1.41</v>
+      </c>
+      <c r="AW164">
+        <v>3.01</v>
+      </c>
+      <c r="AX164">
+        <v>2.34</v>
+      </c>
+      <c r="AY164">
+        <v>7.8</v>
+      </c>
+      <c r="AZ164">
+        <v>1.86</v>
+      </c>
+      <c r="BA164">
+        <v>1.19</v>
+      </c>
+      <c r="BB164">
+        <v>1.27</v>
+      </c>
+      <c r="BC164">
+        <v>1.5</v>
+      </c>
+      <c r="BD164">
+        <v>2</v>
+      </c>
+      <c r="BE164">
+        <v>2.45</v>
+      </c>
+      <c r="BF164">
+        <v>3</v>
+      </c>
+      <c r="BG164">
+        <v>6</v>
+      </c>
+      <c r="BH164">
+        <v>3</v>
+      </c>
+      <c r="BI164">
+        <v>7</v>
+      </c>
+      <c r="BJ164">
+        <v>6</v>
+      </c>
+      <c r="BK164">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:63">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>2604144</v>
+      </c>
+      <c r="C165" t="s">
+        <v>63</v>
+      </c>
+      <c r="D165" t="s">
+        <v>64</v>
+      </c>
+      <c r="E165" s="2">
+        <v>44877.41666666666</v>
+      </c>
+      <c r="F165">
+        <v>17</v>
+      </c>
+      <c r="G165" t="s">
+        <v>78</v>
+      </c>
+      <c r="H165" t="s">
+        <v>65</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>3</v>
+      </c>
+      <c r="N165">
+        <v>3</v>
+      </c>
+      <c r="O165" t="s">
+        <v>96</v>
+      </c>
+      <c r="P165" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q165">
+        <v>7</v>
+      </c>
+      <c r="R165">
+        <v>4</v>
+      </c>
+      <c r="S165">
+        <v>11</v>
+      </c>
+      <c r="T165">
+        <v>3.5</v>
+      </c>
+      <c r="U165">
+        <v>2.2</v>
+      </c>
+      <c r="V165">
+        <v>3</v>
+      </c>
+      <c r="W165">
+        <v>1.4</v>
+      </c>
+      <c r="X165">
+        <v>2.75</v>
+      </c>
+      <c r="Y165">
+        <v>2.75</v>
+      </c>
+      <c r="Z165">
+        <v>1.4</v>
+      </c>
+      <c r="AA165">
+        <v>8</v>
+      </c>
+      <c r="AB165">
+        <v>1.08</v>
+      </c>
+      <c r="AC165">
+        <v>2.87</v>
+      </c>
+      <c r="AD165">
+        <v>3.42</v>
+      </c>
+      <c r="AE165">
+        <v>2.36</v>
+      </c>
+      <c r="AF165">
+        <v>1.05</v>
+      </c>
+      <c r="AG165">
+        <v>9</v>
+      </c>
+      <c r="AH165">
+        <v>1.27</v>
+      </c>
+      <c r="AI165">
+        <v>3.4</v>
+      </c>
+      <c r="AJ165">
+        <v>1.9</v>
+      </c>
+      <c r="AK165">
+        <v>1.9</v>
+      </c>
+      <c r="AL165">
+        <v>1.73</v>
+      </c>
+      <c r="AM165">
+        <v>2</v>
+      </c>
+      <c r="AN165">
+        <v>1.57</v>
+      </c>
+      <c r="AO165">
+        <v>1.32</v>
+      </c>
+      <c r="AP165">
+        <v>1.36</v>
+      </c>
+      <c r="AQ165">
+        <v>1</v>
+      </c>
+      <c r="AR165">
+        <v>0.38</v>
+      </c>
+      <c r="AS165">
+        <v>0.89</v>
+      </c>
+      <c r="AT165">
+        <v>0.67</v>
+      </c>
+      <c r="AU165">
+        <v>1.64</v>
+      </c>
+      <c r="AV165">
+        <v>1.49</v>
+      </c>
+      <c r="AW165">
+        <v>3.13</v>
+      </c>
+      <c r="AX165">
+        <v>2.36</v>
+      </c>
+      <c r="AY165">
+        <v>7.9</v>
+      </c>
+      <c r="AZ165">
+        <v>1.84</v>
+      </c>
+      <c r="BA165">
+        <v>1.25</v>
+      </c>
+      <c r="BB165">
+        <v>1.27</v>
+      </c>
+      <c r="BC165">
+        <v>1.5</v>
+      </c>
+      <c r="BD165">
+        <v>2</v>
+      </c>
+      <c r="BE165">
+        <v>2.45</v>
+      </c>
+      <c r="BF165">
+        <v>5</v>
+      </c>
+      <c r="BG165">
+        <v>8</v>
+      </c>
+      <c r="BH165">
+        <v>7</v>
+      </c>
+      <c r="BI165">
+        <v>12</v>
+      </c>
+      <c r="BJ165">
+        <v>12</v>
+      </c>
+      <c r="BK165">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:63">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>2604146</v>
+      </c>
+      <c r="C166" t="s">
+        <v>63</v>
+      </c>
+      <c r="D166" t="s">
+        <v>64</v>
+      </c>
+      <c r="E166" s="2">
+        <v>44877.41666666666</v>
+      </c>
+      <c r="F166">
+        <v>17</v>
+      </c>
+      <c r="G166" t="s">
+        <v>70</v>
+      </c>
+      <c r="H166" t="s">
+        <v>73</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+      <c r="O166" t="s">
+        <v>96</v>
+      </c>
+      <c r="P166" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q166">
+        <v>12</v>
+      </c>
+      <c r="R166">
+        <v>3</v>
+      </c>
+      <c r="S166">
+        <v>15</v>
+      </c>
+      <c r="T166">
+        <v>2.3</v>
+      </c>
+      <c r="U166">
+        <v>2.2</v>
+      </c>
+      <c r="V166">
+        <v>5.1</v>
+      </c>
+      <c r="W166">
+        <v>1.38</v>
+      </c>
+      <c r="X166">
+        <v>2.9</v>
+      </c>
+      <c r="Y166">
+        <v>2.77</v>
+      </c>
+      <c r="Z166">
+        <v>1.41</v>
+      </c>
+      <c r="AA166">
+        <v>6.85</v>
+      </c>
+      <c r="AB166">
+        <v>1.08</v>
+      </c>
+      <c r="AC166">
+        <v>1.75</v>
+      </c>
+      <c r="AD166">
+        <v>3.74</v>
+      </c>
+      <c r="AE166">
+        <v>4.44</v>
+      </c>
+      <c r="AF166">
+        <v>1.05</v>
+      </c>
+      <c r="AG166">
+        <v>9</v>
+      </c>
+      <c r="AH166">
+        <v>1.29</v>
+      </c>
+      <c r="AI166">
+        <v>3.3</v>
+      </c>
+      <c r="AJ166">
+        <v>1.9</v>
+      </c>
+      <c r="AK166">
+        <v>1.9</v>
+      </c>
+      <c r="AL166">
+        <v>1.83</v>
+      </c>
+      <c r="AM166">
+        <v>1.85</v>
+      </c>
+      <c r="AN166">
+        <v>1.19</v>
+      </c>
+      <c r="AO166">
+        <v>1.27</v>
+      </c>
+      <c r="AP166">
+        <v>1.8</v>
+      </c>
+      <c r="AQ166">
+        <v>1.38</v>
+      </c>
+      <c r="AR166">
+        <v>0.63</v>
+      </c>
+      <c r="AS166">
+        <v>1.33</v>
+      </c>
+      <c r="AT166">
+        <v>0.67</v>
+      </c>
+      <c r="AU166">
+        <v>1.78</v>
+      </c>
+      <c r="AV166">
+        <v>1.51</v>
+      </c>
+      <c r="AW166">
+        <v>3.29</v>
+      </c>
+      <c r="AX166">
+        <v>1.36</v>
+      </c>
+      <c r="AY166">
+        <v>9</v>
+      </c>
+      <c r="AZ166">
+        <v>4.05</v>
+      </c>
+      <c r="BA166">
+        <v>1.22</v>
+      </c>
+      <c r="BB166">
+        <v>1.31</v>
+      </c>
+      <c r="BC166">
+        <v>1.55</v>
+      </c>
+      <c r="BD166">
+        <v>1.95</v>
+      </c>
+      <c r="BE166">
+        <v>2.6</v>
+      </c>
+      <c r="BF166">
+        <v>5</v>
+      </c>
+      <c r="BG166">
+        <v>2</v>
+      </c>
+      <c r="BH166">
+        <v>8</v>
+      </c>
+      <c r="BI166">
+        <v>7</v>
+      </c>
+      <c r="BJ166">
+        <v>13</v>
+      </c>
+      <c r="BK166">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:63">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>2604139</v>
+      </c>
+      <c r="C167" t="s">
+        <v>63</v>
+      </c>
+      <c r="D167" t="s">
+        <v>64</v>
+      </c>
+      <c r="E167" s="2">
+        <v>44877.41666666666</v>
+      </c>
+      <c r="F167">
+        <v>17</v>
+      </c>
+      <c r="G167" t="s">
+        <v>75</v>
+      </c>
+      <c r="H167" t="s">
+        <v>67</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>1</v>
+      </c>
+      <c r="O167" t="s">
+        <v>96</v>
+      </c>
+      <c r="P167" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q167">
+        <v>9</v>
+      </c>
+      <c r="R167">
+        <v>5</v>
+      </c>
+      <c r="S167">
+        <v>14</v>
+      </c>
+      <c r="T167">
+        <v>3.4</v>
+      </c>
+      <c r="U167">
+        <v>2.05</v>
+      </c>
+      <c r="V167">
+        <v>2.9</v>
+      </c>
+      <c r="W167">
+        <v>1.38</v>
+      </c>
+      <c r="X167">
+        <v>2.75</v>
+      </c>
+      <c r="Y167">
+        <v>2.7</v>
+      </c>
+      <c r="Z167">
+        <v>1.4</v>
+      </c>
+      <c r="AA167">
+        <v>7</v>
+      </c>
+      <c r="AB167">
+        <v>1.08</v>
+      </c>
+      <c r="AC167">
+        <v>2.86</v>
+      </c>
+      <c r="AD167">
+        <v>3.38</v>
+      </c>
+      <c r="AE167">
+        <v>2.38</v>
+      </c>
+      <c r="AF167">
+        <v>1.06</v>
+      </c>
+      <c r="AG167">
+        <v>9</v>
+      </c>
+      <c r="AH167">
+        <v>1.29</v>
+      </c>
+      <c r="AI167">
+        <v>3.3</v>
+      </c>
+      <c r="AJ167">
+        <v>1.94</v>
+      </c>
+      <c r="AK167">
+        <v>1.86</v>
+      </c>
+      <c r="AL167">
+        <v>1.71</v>
+      </c>
+      <c r="AM167">
+        <v>1.98</v>
+      </c>
+      <c r="AN167">
+        <v>1.55</v>
+      </c>
+      <c r="AO167">
+        <v>1.31</v>
+      </c>
+      <c r="AP167">
+        <v>1.39</v>
+      </c>
+      <c r="AQ167">
+        <v>1.43</v>
+      </c>
+      <c r="AR167">
+        <v>1.75</v>
+      </c>
+      <c r="AS167">
+        <v>1.25</v>
+      </c>
+      <c r="AT167">
+        <v>1.89</v>
+      </c>
+      <c r="AU167">
+        <v>1.64</v>
+      </c>
+      <c r="AV167">
+        <v>1.72</v>
+      </c>
+      <c r="AW167">
+        <v>3.36</v>
+      </c>
+      <c r="AX167">
+        <v>2.19</v>
+      </c>
+      <c r="AY167">
+        <v>7.6</v>
+      </c>
+      <c r="AZ167">
+        <v>1.98</v>
+      </c>
+      <c r="BA167">
+        <v>1.22</v>
+      </c>
+      <c r="BB167">
+        <v>1.43</v>
+      </c>
+      <c r="BC167">
+        <v>1.83</v>
+      </c>
+      <c r="BD167">
+        <v>2.3</v>
+      </c>
+      <c r="BE167">
+        <v>3.2</v>
+      </c>
+      <c r="BF167">
+        <v>5</v>
+      </c>
+      <c r="BG167">
+        <v>3</v>
+      </c>
+      <c r="BH167">
+        <v>4</v>
+      </c>
+      <c r="BI167">
+        <v>5</v>
+      </c>
+      <c r="BJ167">
+        <v>9</v>
+      </c>
+      <c r="BK167">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:63">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>2604141</v>
+      </c>
+      <c r="C168" t="s">
+        <v>63</v>
+      </c>
+      <c r="D168" t="s">
+        <v>64</v>
+      </c>
+      <c r="E168" s="2">
+        <v>44877.41666666666</v>
+      </c>
+      <c r="F168">
+        <v>17</v>
+      </c>
+      <c r="G168" t="s">
+        <v>81</v>
+      </c>
+      <c r="H168" t="s">
+        <v>72</v>
+      </c>
+      <c r="I168">
+        <v>2</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>2</v>
+      </c>
+      <c r="L168">
+        <v>3</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>3</v>
+      </c>
+      <c r="O168" t="s">
+        <v>200</v>
+      </c>
+      <c r="P168" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q168">
+        <v>4</v>
+      </c>
+      <c r="R168">
+        <v>2</v>
+      </c>
+      <c r="S168">
+        <v>6</v>
+      </c>
+      <c r="T168">
+        <v>2.4</v>
+      </c>
+      <c r="U168">
+        <v>2.1</v>
+      </c>
+      <c r="V168">
+        <v>4.33</v>
+      </c>
+      <c r="W168">
+        <v>1.38</v>
+      </c>
+      <c r="X168">
+        <v>2.8</v>
+      </c>
+      <c r="Y168">
+        <v>2.7</v>
+      </c>
+      <c r="Z168">
+        <v>1.41</v>
+      </c>
+      <c r="AA168">
+        <v>6.75</v>
+      </c>
+      <c r="AB168">
+        <v>1.09</v>
+      </c>
+      <c r="AC168">
+        <v>1.84</v>
+      </c>
+      <c r="AD168">
+        <v>3.64</v>
+      </c>
+      <c r="AE168">
+        <v>4.06</v>
+      </c>
+      <c r="AF168">
+        <v>1.06</v>
+      </c>
+      <c r="AG168">
+        <v>9</v>
+      </c>
+      <c r="AH168">
+        <v>1.29</v>
+      </c>
+      <c r="AI168">
+        <v>3.3</v>
+      </c>
+      <c r="AJ168">
+        <v>1.9</v>
+      </c>
+      <c r="AK168">
+        <v>1.9</v>
+      </c>
+      <c r="AL168">
+        <v>1.8</v>
+      </c>
+      <c r="AM168">
+        <v>1.88</v>
+      </c>
+      <c r="AN168">
+        <v>1.22</v>
+      </c>
+      <c r="AO168">
+        <v>1.28</v>
+      </c>
+      <c r="AP168">
+        <v>1.9</v>
+      </c>
+      <c r="AQ168">
+        <v>2.25</v>
+      </c>
+      <c r="AR168">
+        <v>1.57</v>
+      </c>
+      <c r="AS168">
+        <v>2.33</v>
+      </c>
+      <c r="AT168">
+        <v>1.38</v>
+      </c>
+      <c r="AU168">
+        <v>2.12</v>
+      </c>
+      <c r="AV168">
+        <v>1.19</v>
+      </c>
+      <c r="AW168">
+        <v>3.31</v>
+      </c>
+      <c r="AX168">
+        <v>1.29</v>
+      </c>
+      <c r="AY168">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ168">
+        <v>4.65</v>
+      </c>
+      <c r="BA168">
+        <v>1.18</v>
+      </c>
+      <c r="BB168">
+        <v>1.35</v>
+      </c>
+      <c r="BC168">
+        <v>1.63</v>
+      </c>
+      <c r="BD168">
+        <v>2.1</v>
+      </c>
+      <c r="BE168">
+        <v>2.8</v>
+      </c>
+      <c r="BF168">
+        <v>6</v>
+      </c>
+      <c r="BG168">
+        <v>4</v>
+      </c>
+      <c r="BH168">
+        <v>3</v>
+      </c>
+      <c r="BI168">
+        <v>4</v>
+      </c>
+      <c r="BJ168">
+        <v>9</v>
+      </c>
+      <c r="BK168">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:63">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>2604138</v>
+      </c>
+      <c r="C169" t="s">
+        <v>63</v>
+      </c>
+      <c r="D169" t="s">
+        <v>64</v>
+      </c>
+      <c r="E169" s="2">
+        <v>44878.375</v>
+      </c>
+      <c r="F169">
+        <v>17</v>
+      </c>
+      <c r="G169" t="s">
+        <v>66</v>
+      </c>
+      <c r="H169" t="s">
+        <v>68</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169">
+        <v>2</v>
+      </c>
+      <c r="O169" t="s">
+        <v>164</v>
+      </c>
+      <c r="P169" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q169">
+        <v>5</v>
+      </c>
+      <c r="R169">
+        <v>5</v>
+      </c>
+      <c r="S169">
+        <v>10</v>
+      </c>
+      <c r="T169">
+        <v>3.88</v>
+      </c>
+      <c r="U169">
+        <v>2.23</v>
+      </c>
+      <c r="V169">
+        <v>2.63</v>
+      </c>
+      <c r="W169">
+        <v>1.34</v>
+      </c>
+      <c r="X169">
+        <v>3.1</v>
+      </c>
+      <c r="Y169">
+        <v>2.6</v>
+      </c>
+      <c r="Z169">
+        <v>1.46</v>
+      </c>
+      <c r="AA169">
+        <v>6.3</v>
+      </c>
+      <c r="AB169">
+        <v>1.1</v>
+      </c>
+      <c r="AC169">
+        <v>3.05</v>
+      </c>
+      <c r="AD169">
+        <v>3.45</v>
+      </c>
+      <c r="AE169">
+        <v>2.09</v>
+      </c>
+      <c r="AF169">
+        <v>1.05</v>
+      </c>
+      <c r="AG169">
+        <v>9.75</v>
+      </c>
+      <c r="AH169">
+        <v>1.24</v>
+      </c>
+      <c r="AI169">
+        <v>3.7</v>
+      </c>
+      <c r="AJ169">
+        <v>1.7</v>
+      </c>
+      <c r="AK169">
+        <v>1.95</v>
+      </c>
+      <c r="AL169">
+        <v>1.65</v>
+      </c>
+      <c r="AM169">
+        <v>2.18</v>
+      </c>
+      <c r="AN169">
+        <v>1.71</v>
+      </c>
+      <c r="AO169">
+        <v>1.27</v>
+      </c>
+      <c r="AP169">
+        <v>1.32</v>
+      </c>
+      <c r="AQ169">
+        <v>1</v>
+      </c>
+      <c r="AR169">
+        <v>0.14</v>
+      </c>
+      <c r="AS169">
+        <v>1</v>
+      </c>
+      <c r="AT169">
+        <v>0.25</v>
+      </c>
+      <c r="AU169">
+        <v>1.63</v>
+      </c>
+      <c r="AV169">
+        <v>1.36</v>
+      </c>
+      <c r="AW169">
+        <v>2.99</v>
+      </c>
+      <c r="AX169">
+        <v>2.38</v>
+      </c>
+      <c r="AY169">
+        <v>7.7</v>
+      </c>
+      <c r="AZ169">
+        <v>1.84</v>
+      </c>
+      <c r="BA169">
+        <v>1.22</v>
+      </c>
+      <c r="BB169">
+        <v>1.43</v>
+      </c>
+      <c r="BC169">
+        <v>1.83</v>
+      </c>
+      <c r="BD169">
+        <v>2.3</v>
+      </c>
+      <c r="BE169">
+        <v>3.2</v>
+      </c>
+      <c r="BF169">
+        <v>3</v>
+      </c>
+      <c r="BG169">
+        <v>7</v>
+      </c>
+      <c r="BH169">
+        <v>4</v>
+      </c>
+      <c r="BI169">
+        <v>8</v>
+      </c>
+      <c r="BJ169">
+        <v>7</v>
+      </c>
+      <c r="BK169">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:63">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>2604143</v>
+      </c>
+      <c r="C170" t="s">
+        <v>63</v>
+      </c>
+      <c r="D170" t="s">
+        <v>64</v>
+      </c>
+      <c r="E170" s="2">
+        <v>44878.41666666666</v>
+      </c>
+      <c r="F170">
+        <v>17</v>
+      </c>
+      <c r="G170" t="s">
+        <v>79</v>
+      </c>
+      <c r="H170" t="s">
+        <v>76</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <v>2</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+      <c r="N170">
+        <v>3</v>
+      </c>
+      <c r="O170" t="s">
+        <v>201</v>
+      </c>
+      <c r="P170" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q170">
+        <v>6</v>
+      </c>
+      <c r="R170">
+        <v>3</v>
+      </c>
+      <c r="S170">
+        <v>9</v>
+      </c>
+      <c r="T170">
+        <v>2.27</v>
+      </c>
+      <c r="U170">
+        <v>2.27</v>
+      </c>
+      <c r="V170">
+        <v>4.88</v>
+      </c>
+      <c r="W170">
+        <v>1.35</v>
+      </c>
+      <c r="X170">
+        <v>3.04</v>
+      </c>
+      <c r="Y170">
+        <v>2.6</v>
+      </c>
+      <c r="Z170">
+        <v>1.46</v>
+      </c>
+      <c r="AA170">
+        <v>6.35</v>
+      </c>
+      <c r="AB170">
+        <v>1.1</v>
+      </c>
+      <c r="AC170">
+        <v>1.69</v>
+      </c>
+      <c r="AD170">
+        <v>3.6</v>
+      </c>
+      <c r="AE170">
+        <v>4.45</v>
+      </c>
+      <c r="AF170">
+        <v>1.04</v>
+      </c>
+      <c r="AG170">
+        <v>10</v>
+      </c>
+      <c r="AH170">
+        <v>1.25</v>
+      </c>
+      <c r="AI170">
+        <v>3.6</v>
+      </c>
+      <c r="AJ170">
+        <v>1.83</v>
+      </c>
+      <c r="AK170">
+        <v>1.81</v>
+      </c>
+      <c r="AL170">
+        <v>1.76</v>
+      </c>
+      <c r="AM170">
+        <v>2.01</v>
+      </c>
+      <c r="AN170">
+        <v>1.18</v>
+      </c>
+      <c r="AO170">
+        <v>1.24</v>
+      </c>
+      <c r="AP170">
+        <v>2.11</v>
+      </c>
+      <c r="AQ170">
+        <v>1.57</v>
+      </c>
+      <c r="AR170">
+        <v>0.63</v>
+      </c>
+      <c r="AS170">
+        <v>1.75</v>
+      </c>
+      <c r="AT170">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU170">
+        <v>1.29</v>
+      </c>
+      <c r="AV170">
+        <v>1.33</v>
+      </c>
+      <c r="AW170">
+        <v>2.62</v>
+      </c>
+      <c r="AX170">
+        <v>1.35</v>
+      </c>
+      <c r="AY170">
+        <v>8.9</v>
+      </c>
+      <c r="AZ170">
+        <v>4.15</v>
+      </c>
+      <c r="BA170">
+        <v>1.24</v>
+      </c>
+      <c r="BB170">
+        <v>1.46</v>
+      </c>
+      <c r="BC170">
+        <v>1.9</v>
+      </c>
+      <c r="BD170">
+        <v>2.4</v>
+      </c>
+      <c r="BE170">
+        <v>3.3</v>
+      </c>
+      <c r="BF170">
+        <v>5</v>
+      </c>
+      <c r="BG170">
+        <v>4</v>
+      </c>
+      <c r="BH170">
+        <v>11</v>
+      </c>
+      <c r="BI170">
+        <v>7</v>
+      </c>
+      <c r="BJ170">
+        <v>16</v>
+      </c>
+      <c r="BK170">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:63">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>2604140</v>
+      </c>
+      <c r="C171" t="s">
+        <v>63</v>
+      </c>
+      <c r="D171" t="s">
+        <v>64</v>
+      </c>
+      <c r="E171" s="2">
+        <v>44879.625</v>
+      </c>
+      <c r="F171">
+        <v>17</v>
+      </c>
+      <c r="G171" t="s">
+        <v>80</v>
+      </c>
+      <c r="H171" t="s">
+        <v>69</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+      <c r="N171">
+        <v>2</v>
+      </c>
+      <c r="O171" t="s">
+        <v>105</v>
+      </c>
+      <c r="P171" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q171">
+        <v>8</v>
+      </c>
+      <c r="R171">
+        <v>2</v>
+      </c>
+      <c r="S171">
+        <v>10</v>
+      </c>
+      <c r="T171">
+        <v>2.4</v>
+      </c>
+      <c r="U171">
+        <v>2.1</v>
+      </c>
+      <c r="V171">
+        <v>4.2</v>
+      </c>
+      <c r="W171">
+        <v>1.37</v>
+      </c>
+      <c r="X171">
+        <v>2.85</v>
+      </c>
+      <c r="Y171">
+        <v>2.6</v>
+      </c>
+      <c r="Z171">
+        <v>1.43</v>
+      </c>
+      <c r="AA171">
+        <v>6.5</v>
+      </c>
+      <c r="AB171">
+        <v>1.1</v>
+      </c>
+      <c r="AC171">
+        <v>1.91</v>
+      </c>
+      <c r="AD171">
+        <v>3.5</v>
+      </c>
+      <c r="AE171">
+        <v>3.6</v>
+      </c>
+      <c r="AF171">
+        <v>1.05</v>
+      </c>
+      <c r="AG171">
+        <v>9.5</v>
+      </c>
+      <c r="AH171">
+        <v>1.25</v>
+      </c>
+      <c r="AI171">
+        <v>3.5</v>
+      </c>
+      <c r="AJ171">
+        <v>1.77</v>
+      </c>
+      <c r="AK171">
+        <v>1.98</v>
+      </c>
+      <c r="AL171">
+        <v>1.71</v>
+      </c>
+      <c r="AM171">
+        <v>2.08</v>
+      </c>
+      <c r="AN171">
+        <v>1.21</v>
+      </c>
+      <c r="AO171">
+        <v>1.25</v>
+      </c>
+      <c r="AP171">
+        <v>1.99</v>
+      </c>
+      <c r="AQ171">
+        <v>2.25</v>
+      </c>
+      <c r="AR171">
+        <v>1.38</v>
+      </c>
+      <c r="AS171">
+        <v>2.11</v>
+      </c>
+      <c r="AT171">
+        <v>1.33</v>
+      </c>
+      <c r="AU171">
+        <v>1.86</v>
+      </c>
+      <c r="AV171">
+        <v>1.74</v>
+      </c>
+      <c r="AW171">
+        <v>3.6</v>
+      </c>
+      <c r="AX171">
+        <v>1.44</v>
+      </c>
+      <c r="AY171">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ171">
+        <v>3.5</v>
+      </c>
+      <c r="BA171">
+        <v>1.22</v>
+      </c>
+      <c r="BB171">
+        <v>1.33</v>
+      </c>
+      <c r="BC171">
+        <v>1.62</v>
+      </c>
+      <c r="BD171">
+        <v>2.05</v>
+      </c>
+      <c r="BE171">
+        <v>2.69</v>
+      </c>
+      <c r="BF171">
+        <v>3</v>
+      </c>
+      <c r="BG171">
+        <v>2</v>
+      </c>
+      <c r="BH171">
+        <v>12</v>
+      </c>
+      <c r="BI171">
+        <v>7</v>
+      </c>
+      <c r="BJ171">
+        <v>15</v>
+      </c>
+      <c r="BK171">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK171"/>
+  <dimension ref="A1:BK178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.33</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT9" t="n">
         <v>0.89</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT11" t="n">
         <v>1</v>
@@ -3948,7 +3948,7 @@
         <v>2.11</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AU22" t="n">
         <v>2.04</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU23" t="n">
         <v>1.75</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU24" t="n">
         <v>1.07</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU26" t="n">
         <v>1.37</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT27" t="n">
         <v>1</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT28" t="n">
         <v>0.89</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT29" t="n">
         <v>1.89</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT30" t="n">
         <v>0.5600000000000001</v>
@@ -6790,7 +6790,7 @@
         <v>1.33</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU31" t="n">
         <v>2.32</v>
@@ -6993,7 +6993,7 @@
         <v>1.56</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU32" t="n">
         <v>1.92</v>
@@ -8008,7 +8008,7 @@
         <v>1.78</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU37" t="n">
         <v>1.73</v>
@@ -9023,7 +9023,7 @@
         <v>2.11</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU42" t="n">
         <v>2.1</v>
@@ -9226,7 +9226,7 @@
         <v>1.33</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AU43" t="n">
         <v>2.18</v>
@@ -9426,7 +9426,7 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT44" t="n">
         <v>1.89</v>
@@ -9629,10 +9629,10 @@
         <v>1.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU45" t="n">
         <v>2.15</v>
@@ -9832,7 +9832,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT46" t="n">
         <v>0.67</v>
@@ -10035,7 +10035,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT47" t="n">
         <v>1</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT48" t="n">
         <v>0.89</v>
@@ -10444,7 +10444,7 @@
         <v>1</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU49" t="n">
         <v>1.55</v>
@@ -10647,7 +10647,7 @@
         <v>0.89</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU50" t="n">
         <v>1.78</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT51" t="n">
         <v>0.5600000000000001</v>
@@ -11253,7 +11253,7 @@
         <v>2</v>
       </c>
       <c r="AS53" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT53" t="n">
         <v>1.89</v>
@@ -11865,7 +11865,7 @@
         <v>1.75</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU56" t="n">
         <v>1.26</v>
@@ -12880,7 +12880,7 @@
         <v>1.25</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU61" t="n">
         <v>1.63</v>
@@ -13080,7 +13080,7 @@
         <v>0.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT62" t="n">
         <v>0.89</v>
@@ -13286,7 +13286,7 @@
         <v>2.11</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU63" t="n">
         <v>1.93</v>
@@ -13895,7 +13895,7 @@
         <v>1.56</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU66" t="n">
         <v>1.48</v>
@@ -14095,7 +14095,7 @@
         <v>2.33</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT67" t="n">
         <v>1.89</v>
@@ -14298,7 +14298,7 @@
         <v>0</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT68" t="n">
         <v>0.5600000000000001</v>
@@ -14504,7 +14504,7 @@
         <v>0.89</v>
       </c>
       <c r="AT69" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AU69" t="n">
         <v>1.59</v>
@@ -14704,10 +14704,10 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU70" t="n">
         <v>1.87</v>
@@ -14907,7 +14907,7 @@
         <v>2</v>
       </c>
       <c r="AS71" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT71" t="n">
         <v>1.56</v>
@@ -15110,7 +15110,7 @@
         <v>0.67</v>
       </c>
       <c r="AS72" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT72" t="n">
         <v>1.33</v>
@@ -15316,7 +15316,7 @@
         <v>1.11</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU73" t="n">
         <v>1.09</v>
@@ -15516,7 +15516,7 @@
         <v>2</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT74" t="n">
         <v>1.38</v>
@@ -16128,7 +16128,7 @@
         <v>2.33</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU77" t="n">
         <v>2.1</v>
@@ -16331,7 +16331,7 @@
         <v>1.75</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU78" t="n">
         <v>1.22</v>
@@ -17546,7 +17546,7 @@
         <v>1.75</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT84" t="n">
         <v>1.56</v>
@@ -17752,7 +17752,7 @@
         <v>0.89</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU85" t="n">
         <v>1.59</v>
@@ -17955,7 +17955,7 @@
         <v>1.56</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AU86" t="n">
         <v>1.57</v>
@@ -18358,7 +18358,7 @@
         <v>0.25</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT88" t="n">
         <v>1</v>
@@ -18561,7 +18561,7 @@
         <v>0.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT89" t="n">
         <v>0.67</v>
@@ -18767,7 +18767,7 @@
         <v>1.78</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU90" t="n">
         <v>1.66</v>
@@ -18967,7 +18967,7 @@
         <v>2</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT91" t="n">
         <v>1.89</v>
@@ -19376,7 +19376,7 @@
         <v>1.11</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU93" t="n">
         <v>1.31</v>
@@ -19779,7 +19779,7 @@
         <v>1.5</v>
       </c>
       <c r="AS95" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT95" t="n">
         <v>1.38</v>
@@ -19985,7 +19985,7 @@
         <v>2.33</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU96" t="n">
         <v>1.97</v>
@@ -20185,7 +20185,7 @@
         <v>0.25</v>
       </c>
       <c r="AS97" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT97" t="n">
         <v>0.25</v>
@@ -20391,7 +20391,7 @@
         <v>1.25</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU98" t="n">
         <v>1.69</v>
@@ -20594,7 +20594,7 @@
         <v>1.75</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU99" t="n">
         <v>1.21</v>
@@ -20794,7 +20794,7 @@
         <v>0.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT100" t="n">
         <v>1.33</v>
@@ -21203,7 +21203,7 @@
         <v>1.78</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU102" t="n">
         <v>1.61</v>
@@ -21403,7 +21403,7 @@
         <v>1.4</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT103" t="n">
         <v>1.56</v>
@@ -21609,7 +21609,7 @@
         <v>2.33</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU104" t="n">
         <v>1.9</v>
@@ -22418,7 +22418,7 @@
         <v>1.6</v>
       </c>
       <c r="AS108" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT108" t="n">
         <v>1.89</v>
@@ -22824,7 +22824,7 @@
         <v>0.4</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT110" t="n">
         <v>1.33</v>
@@ -23233,7 +23233,7 @@
         <v>0.75</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU112" t="n">
         <v>1.55</v>
@@ -23636,10 +23636,10 @@
         <v>1.6</v>
       </c>
       <c r="AS114" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU114" t="n">
         <v>1.95</v>
@@ -23839,7 +23839,7 @@
         <v>0.2</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT115" t="n">
         <v>0.25</v>
@@ -24045,7 +24045,7 @@
         <v>1.75</v>
       </c>
       <c r="AT116" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AU116" t="n">
         <v>1.25</v>
@@ -24245,7 +24245,7 @@
         <v>2</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT117" t="n">
         <v>1.38</v>
@@ -24448,7 +24448,7 @@
         <v>0.8</v>
       </c>
       <c r="AS118" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT118" t="n">
         <v>0.67</v>
@@ -24654,7 +24654,7 @@
         <v>1</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU119" t="n">
         <v>1.3</v>
@@ -24857,7 +24857,7 @@
         <v>1.11</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU120" t="n">
         <v>1.34</v>
@@ -25057,10 +25057,10 @@
         <v>1.4</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU121" t="n">
         <v>2.28</v>
@@ -25260,7 +25260,7 @@
         <v>1.4</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT122" t="n">
         <v>1.38</v>
@@ -25463,7 +25463,7 @@
         <v>0.83</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT123" t="n">
         <v>1.33</v>
@@ -26278,7 +26278,7 @@
         <v>1.25</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU127" t="n">
         <v>1.68</v>
@@ -27290,10 +27290,10 @@
         <v>0.86</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU132" t="n">
         <v>2.35</v>
@@ -27496,7 +27496,7 @@
         <v>1.11</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU133" t="n">
         <v>1.46</v>
@@ -27696,7 +27696,7 @@
         <v>0.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT134" t="n">
         <v>0.63</v>
@@ -27899,7 +27899,7 @@
         <v>0.67</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT135" t="n">
         <v>0.67</v>
@@ -28105,7 +28105,7 @@
         <v>1</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU136" t="n">
         <v>1.35</v>
@@ -28308,7 +28308,7 @@
         <v>0.75</v>
       </c>
       <c r="AT137" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AU137" t="n">
         <v>1.66</v>
@@ -28508,7 +28508,7 @@
         <v>1.83</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT138" t="n">
         <v>1.38</v>
@@ -28711,10 +28711,10 @@
         <v>1.17</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU139" t="n">
         <v>1.92</v>
@@ -28917,7 +28917,7 @@
         <v>1.75</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU140" t="n">
         <v>1.51</v>
@@ -29117,10 +29117,10 @@
         <v>0.33</v>
       </c>
       <c r="AS141" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU141" t="n">
         <v>2</v>
@@ -30944,7 +30944,7 @@
         <v>0.43</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT150" t="n">
         <v>0.67</v>
@@ -31353,7 +31353,7 @@
         <v>1.11</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU152" t="n">
         <v>1.49</v>
@@ -31556,7 +31556,7 @@
         <v>1.75</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU153" t="n">
         <v>1.45</v>
@@ -31759,7 +31759,7 @@
         <v>1</v>
       </c>
       <c r="AT154" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AU154" t="n">
         <v>1.35</v>
@@ -31959,7 +31959,7 @@
         <v>1.57</v>
       </c>
       <c r="AS155" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT155" t="n">
         <v>1.38</v>
@@ -32165,7 +32165,7 @@
         <v>0.75</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU156" t="n">
         <v>1.71</v>
@@ -32365,10 +32365,10 @@
         <v>0.86</v>
       </c>
       <c r="AS157" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU157" t="n">
         <v>2.02</v>
@@ -32568,7 +32568,7 @@
         <v>0.71</v>
       </c>
       <c r="AS158" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT158" t="n">
         <v>0.67</v>
@@ -32771,7 +32771,7 @@
         <v>0.57</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT159" t="n">
         <v>0.63</v>
@@ -32974,10 +32974,10 @@
         <v>1</v>
       </c>
       <c r="AS160" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU160" t="n">
         <v>1.72</v>
@@ -33177,10 +33177,10 @@
         <v>1.57</v>
       </c>
       <c r="AS161" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU161" t="n">
         <v>2.04</v>
@@ -35262,6 +35262,1427 @@
       </c>
       <c r="BK171" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>2604154</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>44939.625</v>
+      </c>
+      <c r="F172" t="n">
+        <v>18</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Zwickau</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>VfB Oldenburg</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>12</v>
+      </c>
+      <c r="R172" t="n">
+        <v>0</v>
+      </c>
+      <c r="S172" t="n">
+        <v>12</v>
+      </c>
+      <c r="T172" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U172" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V172" t="n">
+        <v>4</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X172" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>2604156</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>44940.41666666666</v>
+      </c>
+      <c r="F173" t="n">
+        <v>18</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Freiburg II</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Verl</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="n">
+        <v>2</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R173" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S173" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T173" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U173" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V173" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X173" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>2604155</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>44940.41666666666</v>
+      </c>
+      <c r="F174" t="n">
+        <v>18</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Saarbrucken</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>MSV Duisburg</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>2</v>
+      </c>
+      <c r="K174" t="n">
+        <v>2</v>
+      </c>
+      <c r="L174" t="n">
+        <v>2</v>
+      </c>
+      <c r="M174" t="n">
+        <v>3</v>
+      </c>
+      <c r="N174" t="n">
+        <v>5</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>['87', '90']</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>['9', '22', '72']</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>17</v>
+      </c>
+      <c r="R174" t="n">
+        <v>4</v>
+      </c>
+      <c r="S174" t="n">
+        <v>21</v>
+      </c>
+      <c r="T174" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U174" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V174" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X174" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>2604152</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>44940.41666666666</v>
+      </c>
+      <c r="F175" t="n">
+        <v>18</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Rot-Weiss Essen</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Hallescher FC</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>2</v>
+      </c>
+      <c r="R175" t="n">
+        <v>2</v>
+      </c>
+      <c r="S175" t="n">
+        <v>4</v>
+      </c>
+      <c r="T175" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U175" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V175" t="n">
+        <v>4</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X175" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>2604149</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>44940.41666666666</v>
+      </c>
+      <c r="F176" t="n">
+        <v>18</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Osnabrück</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Viktoria Köln</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>2</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
+      <c r="K176" t="n">
+        <v>3</v>
+      </c>
+      <c r="L176" t="n">
+        <v>3</v>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="n">
+        <v>4</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>['6', '19', '89']</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R176" t="n">
+        <v>2</v>
+      </c>
+      <c r="S176" t="n">
+        <v>2</v>
+      </c>
+      <c r="T176" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U176" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V176" t="n">
+        <v>4</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X176" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>2604148</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>44940.41666666666</v>
+      </c>
+      <c r="F177" t="n">
+        <v>18</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Wehen Wiesbaden</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Elversberg</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N177" t="n">
+        <v>1</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>3</v>
+      </c>
+      <c r="R177" t="n">
+        <v>7</v>
+      </c>
+      <c r="S177" t="n">
+        <v>10</v>
+      </c>
+      <c r="T177" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U177" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V177" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X177" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>2604151</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>44940.41666666666</v>
+      </c>
+      <c r="F178" t="n">
+        <v>18</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Waldhof Mannheim</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>1860 München</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1</v>
+      </c>
+      <c r="K178" t="n">
+        <v>2</v>
+      </c>
+      <c r="L178" t="n">
+        <v>3</v>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="n">
+        <v>4</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>['28', '57', '90+4']</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>5</v>
+      </c>
+      <c r="R178" t="n">
+        <v>2</v>
+      </c>
+      <c r="S178" t="n">
+        <v>7</v>
+      </c>
+      <c r="T178" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U178" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V178" t="n">
+        <v>3</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X178" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -35529,13 +35529,13 @@
         </is>
       </c>
       <c r="Q173" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R173" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S173" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T173" t="n">
         <v>2.75</v>
@@ -35652,22 +35652,22 @@
         <v>3.2</v>
       </c>
       <c r="BF173" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BG173" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH173" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BI173" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BJ173" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BK173" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174">
@@ -35855,22 +35855,22 @@
         <v>2.4</v>
       </c>
       <c r="BF174" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG174" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BH174" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="BI174" t="n">
         <v>3</v>
       </c>
       <c r="BJ174" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="BK174" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175">
@@ -35935,13 +35935,13 @@
         </is>
       </c>
       <c r="Q175" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R175" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S175" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T175" t="n">
         <v>2.6</v>
@@ -36058,22 +36058,22 @@
         <v>2.63</v>
       </c>
       <c r="BF175" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG175" t="n">
         <v>0</v>
       </c>
       <c r="BH175" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BI175" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BJ175" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BK175" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176">
@@ -36138,13 +36138,13 @@
         </is>
       </c>
       <c r="Q176" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R176" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S176" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="T176" t="n">
         <v>2.5</v>
@@ -36261,22 +36261,22 @@
         <v>2.6</v>
       </c>
       <c r="BF176" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BG176" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI176" t="n">
         <v>4</v>
       </c>
-      <c r="BH176" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI176" t="n">
-        <v>1</v>
-      </c>
       <c r="BJ176" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="BK176" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177">
@@ -36464,22 +36464,22 @@
         <v>2.25</v>
       </c>
       <c r="BF177" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG177" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH177" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI177" t="n">
         <v>5</v>
       </c>
-      <c r="BI177" t="n">
-        <v>6</v>
-      </c>
       <c r="BJ177" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BK177" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178">
@@ -36547,10 +36547,10 @@
         <v>5</v>
       </c>
       <c r="R178" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S178" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T178" t="n">
         <v>3.5</v>
@@ -36667,22 +36667,22 @@
         <v>2.5</v>
       </c>
       <c r="BF178" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG178" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BH178" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BI178" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BJ178" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BK178" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK178"/>
+  <dimension ref="A1:BK180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT7" t="n">
         <v>1.22</v>
@@ -2730,7 +2730,7 @@
         <v>2.22</v>
       </c>
       <c r="AT11" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT13" t="n">
         <v>1.38</v>
@@ -5572,7 +5572,7 @@
         <v>2.11</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU25" t="n">
         <v>2.24</v>
@@ -5978,7 +5978,7 @@
         <v>1.78</v>
       </c>
       <c r="AT27" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU27" t="n">
         <v>1.77</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT31" t="n">
         <v>0.78</v>
@@ -8208,7 +8208,7 @@
         <v>1</v>
       </c>
       <c r="AS38" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT38" t="n">
         <v>0.67</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT43" t="n">
         <v>2.22</v>
@@ -10038,7 +10038,7 @@
         <v>2.7</v>
       </c>
       <c r="AT47" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU47" t="n">
         <v>1.65</v>
@@ -11053,7 +11053,7 @@
         <v>1.56</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU52" t="n">
         <v>1.75</v>
@@ -12268,7 +12268,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT58" t="n">
         <v>1.33</v>
@@ -13689,10 +13689,10 @@
         <v>0.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT65" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU65" t="n">
         <v>2.45</v>
@@ -15719,7 +15719,7 @@
         <v>1.67</v>
       </c>
       <c r="AS75" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT75" t="n">
         <v>1.89</v>
@@ -16940,7 +16940,7 @@
         <v>1.78</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU81" t="n">
         <v>1.51</v>
@@ -18155,7 +18155,7 @@
         <v>1.75</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT87" t="n">
         <v>1.89</v>
@@ -18361,7 +18361,7 @@
         <v>1.11</v>
       </c>
       <c r="AT88" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU88" t="n">
         <v>1.9</v>
@@ -19173,7 +19173,7 @@
         <v>0.75</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU92" t="n">
         <v>1.56</v>
@@ -19576,7 +19576,7 @@
         <v>2.25</v>
       </c>
       <c r="AS94" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT94" t="n">
         <v>1.38</v>
@@ -22621,7 +22621,7 @@
         <v>0.6</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT109" t="n">
         <v>0.67</v>
@@ -23030,7 +23030,7 @@
         <v>1.56</v>
       </c>
       <c r="AT111" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU111" t="n">
         <v>1.54</v>
@@ -23436,7 +23436,7 @@
         <v>1.75</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU113" t="n">
         <v>1.51</v>
@@ -24651,7 +24651,7 @@
         <v>0.6</v>
       </c>
       <c r="AS119" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT119" t="n">
         <v>0.78</v>
@@ -25666,7 +25666,7 @@
         <v>1.33</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT124" t="n">
         <v>1.89</v>
@@ -25872,7 +25872,7 @@
         <v>0.89</v>
       </c>
       <c r="AT125" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU125" t="n">
         <v>1.53</v>
@@ -27699,7 +27699,7 @@
         <v>1.78</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU134" t="n">
         <v>1.69</v>
@@ -28102,7 +28102,7 @@
         <v>1.83</v>
       </c>
       <c r="AS136" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT136" t="n">
         <v>1.22</v>
@@ -29726,7 +29726,7 @@
         <v>1.67</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT144" t="n">
         <v>1.38</v>
@@ -30135,7 +30135,7 @@
         <v>2.33</v>
       </c>
       <c r="AT146" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU146" t="n">
         <v>2.01</v>
@@ -31756,7 +31756,7 @@
         <v>2.43</v>
       </c>
       <c r="AS154" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT154" t="n">
         <v>2.22</v>
@@ -32774,7 +32774,7 @@
         <v>1.22</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU159" t="n">
         <v>1.53</v>
@@ -34192,7 +34192,7 @@
         <v>0.63</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT166" t="n">
         <v>0.67</v>
@@ -36683,6 +36683,412 @@
       </c>
       <c r="BK178" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>2604153</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>44941.375</v>
+      </c>
+      <c r="F179" t="n">
+        <v>18</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Dynamo Dresden</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Meppen</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="n">
+        <v>2</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>10</v>
+      </c>
+      <c r="R179" t="n">
+        <v>5</v>
+      </c>
+      <c r="S179" t="n">
+        <v>15</v>
+      </c>
+      <c r="T179" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U179" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V179" t="n">
+        <v>5</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X179" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>2604157</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>44941.41666666666</v>
+      </c>
+      <c r="F180" t="n">
+        <v>18</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Bayreuth</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund II</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>1</v>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="n">
+        <v>3</v>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="n">
+        <v>4</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>['50', '55', '90+5']</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>1</v>
+      </c>
+      <c r="R180" t="n">
+        <v>5</v>
+      </c>
+      <c r="S180" t="n">
+        <v>6</v>
+      </c>
+      <c r="T180" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U180" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V180" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X180" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK180"/>
+  <dimension ref="A1:BK181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT4" t="n">
         <v>0.5600000000000001</v>
@@ -2324,7 +2324,7 @@
         <v>2.1</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>2.7</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU28" t="n">
         <v>1.92</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT33" t="n">
         <v>1.89</v>
@@ -10241,7 +10241,7 @@
         <v>1.78</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU48" t="n">
         <v>2.06</v>
@@ -11456,7 +11456,7 @@
         <v>1.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT54" t="n">
         <v>1.56</v>
@@ -13083,7 +13083,7 @@
         <v>1.22</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU62" t="n">
         <v>1.51</v>
@@ -15922,7 +15922,7 @@
         <v>0.33</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT76" t="n">
         <v>0.25</v>
@@ -17143,7 +17143,7 @@
         <v>2.11</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU82" t="n">
         <v>1.9</v>
@@ -20997,7 +20997,7 @@
         <v>0.75</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT101" t="n">
         <v>0.67</v>
@@ -22218,7 +22218,7 @@
         <v>1</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU107" t="n">
         <v>1.65</v>
@@ -23433,7 +23433,7 @@
         <v>0.6</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT113" t="n">
         <v>0.67</v>
@@ -26887,7 +26887,7 @@
         <v>1.78</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU130" t="n">
         <v>1.6</v>
@@ -28914,7 +28914,7 @@
         <v>1</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT140" t="n">
         <v>1.3</v>
@@ -30541,7 +30541,7 @@
         <v>1.75</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU148" t="n">
         <v>1.23</v>
@@ -31553,7 +31553,7 @@
         <v>0.29</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT153" t="n">
         <v>0.33</v>
@@ -33383,7 +33383,7 @@
         <v>1.11</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU162" t="n">
         <v>1.4</v>
@@ -37089,6 +37089,209 @@
       </c>
       <c r="BK180" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2604150</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>44942.625</v>
+      </c>
+      <c r="F181" t="n">
+        <v>18</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Ingolstadt</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Erzgebirge Aue</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="n">
+        <v>1</v>
+      </c>
+      <c r="K181" t="n">
+        <v>2</v>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="n">
+        <v>2</v>
+      </c>
+      <c r="N181" t="n">
+        <v>3</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>['45+1', '67']</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
+        <v>13</v>
+      </c>
+      <c r="R181" t="n">
+        <v>4</v>
+      </c>
+      <c r="S181" t="n">
+        <v>17</v>
+      </c>
+      <c r="T181" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U181" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V181" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X181" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK181"/>
+  <dimension ref="A1:BK182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT16" t="n">
         <v>1.56</v>
@@ -4151,7 +4151,7 @@
         <v>2.33</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -7196,7 +7196,7 @@
         <v>1.56</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU33" t="n">
         <v>1.75</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT36" t="n">
         <v>1.38</v>
@@ -11256,7 +11256,7 @@
         <v>2.11</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU53" t="n">
         <v>1.92</v>
@@ -11862,7 +11862,7 @@
         <v>3</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT56" t="n">
         <v>1.22</v>
@@ -15722,7 +15722,7 @@
         <v>1.22</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU75" t="n">
         <v>1.21</v>
@@ -16328,7 +16328,7 @@
         <v>0</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT78" t="n">
         <v>0.33</v>
@@ -18970,7 +18970,7 @@
         <v>1.22</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU91" t="n">
         <v>1.55</v>
@@ -20591,7 +20591,7 @@
         <v>1</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT99" t="n">
         <v>1.11</v>
@@ -22421,7 +22421,7 @@
         <v>2.7</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU108" t="n">
         <v>1.73</v>
@@ -24042,7 +24042,7 @@
         <v>2.6</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT116" t="n">
         <v>2.22</v>
@@ -25669,7 +25669,7 @@
         <v>1.3</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU124" t="n">
         <v>1.96</v>
@@ -30538,7 +30538,7 @@
         <v>0.71</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT148" t="n">
         <v>1.1</v>
@@ -31150,7 +31150,7 @@
         <v>2.11</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU151" t="n">
         <v>1.8</v>
@@ -33789,7 +33789,7 @@
         <v>1.56</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU164" t="n">
         <v>1.6</v>
@@ -35004,7 +35004,7 @@
         <v>0.63</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT170" t="n">
         <v>0.5600000000000001</v>
@@ -37292,6 +37292,209 @@
       </c>
       <c r="BK181" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>2604164</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>44946.625</v>
+      </c>
+      <c r="F182" t="n">
+        <v>19</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Viktoria Köln</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Saarbrucken</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M182" t="n">
+        <v>2</v>
+      </c>
+      <c r="N182" t="n">
+        <v>2</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>['22', '54']</t>
+        </is>
+      </c>
+      <c r="Q182" t="n">
+        <v>3</v>
+      </c>
+      <c r="R182" t="n">
+        <v>6</v>
+      </c>
+      <c r="S182" t="n">
+        <v>9</v>
+      </c>
+      <c r="T182" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U182" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V182" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W182" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X182" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN182" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO182" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP182" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ182" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR182" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS182" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT182" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU182" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX182" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ182" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BA182" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB182" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC182" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD182" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE182" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF182" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG182" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH182" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI182" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ182" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK182"/>
+  <dimension ref="A1:BK189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT3" t="n">
         <v>0.67</v>
@@ -1309,7 +1309,7 @@
         <v>1.56</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.25</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.22</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT14" t="n">
         <v>1.56</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>1.38</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.56</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT17" t="n">
         <v>1.11</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT18" t="n">
         <v>2</v>
@@ -4354,7 +4354,7 @@
         <v>1.11</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT20" t="n">
         <v>0.67</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT21" t="n">
         <v>0.25</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT22" t="n">
         <v>2.22</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT25" t="n">
         <v>0.67</v>
@@ -6384,7 +6384,7 @@
         <v>2.11</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU29" t="n">
         <v>2.16</v>
@@ -6587,7 +6587,7 @@
         <v>2.22</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU30" t="n">
         <v>1.98</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT32" t="n">
         <v>1.11</v>
@@ -7396,10 +7396,10 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU34" t="n">
         <v>1.97</v>
@@ -7602,7 +7602,7 @@
         <v>1.11</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU35" t="n">
         <v>1.05</v>
@@ -7805,7 +7805,7 @@
         <v>1.56</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU36" t="n">
         <v>1.04</v>
@@ -8005,7 +8005,7 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT37" t="n">
         <v>1.22</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT39" t="n">
         <v>0.25</v>
@@ -8614,10 +8614,10 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU40" t="n">
         <v>1.56</v>
@@ -8820,7 +8820,7 @@
         <v>1.25</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU41" t="n">
         <v>1.34</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT42" t="n">
         <v>0.33</v>
@@ -9429,7 +9429,7 @@
         <v>1.22</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU44" t="n">
         <v>1.59</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT49" t="n">
         <v>0.78</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT50" t="n">
         <v>1.5</v>
@@ -10850,7 +10850,7 @@
         <v>1.11</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU51" t="n">
         <v>1.95</v>
@@ -11050,7 +11050,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT52" t="n">
         <v>0.67</v>
@@ -11459,7 +11459,7 @@
         <v>1.56</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU54" t="n">
         <v>1.67</v>
@@ -11659,7 +11659,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT55" t="n">
         <v>0.25</v>
@@ -12065,10 +12065,10 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU57" t="n">
         <v>1.42</v>
@@ -12271,7 +12271,7 @@
         <v>1.22</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU58" t="n">
         <v>1.22</v>
@@ -12474,7 +12474,7 @@
         <v>1.11</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU59" t="n">
         <v>0.99</v>
@@ -12674,10 +12674,10 @@
         <v>1.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU60" t="n">
         <v>1.69</v>
@@ -13283,7 +13283,7 @@
         <v>2</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT63" t="n">
         <v>1.5</v>
@@ -13486,7 +13486,7 @@
         <v>0.67</v>
       </c>
       <c r="AS64" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT64" t="n">
         <v>0.67</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT66" t="n">
         <v>0.78</v>
@@ -14098,7 +14098,7 @@
         <v>2.1</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU67" t="n">
         <v>2.2</v>
@@ -14301,7 +14301,7 @@
         <v>2.7</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU68" t="n">
         <v>1.65</v>
@@ -14501,7 +14501,7 @@
         <v>3</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT69" t="n">
         <v>2.22</v>
@@ -14910,7 +14910,7 @@
         <v>1.78</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU71" t="n">
         <v>1.95</v>
@@ -15113,7 +15113,7 @@
         <v>2.11</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU72" t="n">
         <v>1.91</v>
@@ -15519,7 +15519,7 @@
         <v>2.22</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU74" t="n">
         <v>2.15</v>
@@ -16125,7 +16125,7 @@
         <v>2.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT77" t="n">
         <v>1.22</v>
@@ -16534,7 +16534,7 @@
         <v>1.25</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU79" t="n">
         <v>1.76</v>
@@ -16734,10 +16734,10 @@
         <v>0</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU80" t="n">
         <v>1.61</v>
@@ -16937,7 +16937,7 @@
         <v>0.67</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT81" t="n">
         <v>0.67</v>
@@ -17140,7 +17140,7 @@
         <v>0.5</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT82" t="n">
         <v>1.1</v>
@@ -17343,10 +17343,10 @@
         <v>0</v>
       </c>
       <c r="AS83" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU83" t="n">
         <v>1.69</v>
@@ -17549,7 +17549,7 @@
         <v>2.7</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU84" t="n">
         <v>1.8</v>
@@ -17749,7 +17749,7 @@
         <v>1</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT85" t="n">
         <v>1.3</v>
@@ -17952,7 +17952,7 @@
         <v>2.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT86" t="n">
         <v>2.22</v>
@@ -18158,7 +18158,7 @@
         <v>1.3</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU87" t="n">
         <v>2.16</v>
@@ -18764,7 +18764,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT90" t="n">
         <v>1.5</v>
@@ -19170,7 +19170,7 @@
         <v>0.75</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT92" t="n">
         <v>0.67</v>
@@ -19579,7 +19579,7 @@
         <v>1.22</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU94" t="n">
         <v>1.23</v>
@@ -19782,7 +19782,7 @@
         <v>1.78</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU95" t="n">
         <v>1.8</v>
@@ -19982,7 +19982,7 @@
         <v>0</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT96" t="n">
         <v>0.78</v>
@@ -20797,7 +20797,7 @@
         <v>2.22</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU100" t="n">
         <v>2.2</v>
@@ -21000,7 +21000,7 @@
         <v>1.56</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU101" t="n">
         <v>1.49</v>
@@ -21200,7 +21200,7 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT102" t="n">
         <v>1.3</v>
@@ -21406,7 +21406,7 @@
         <v>1.11</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU103" t="n">
         <v>1.66</v>
@@ -21606,7 +21606,7 @@
         <v>1.2</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT104" t="n">
         <v>1.5</v>
@@ -21809,10 +21809,10 @@
         <v>0.2</v>
       </c>
       <c r="AS105" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU105" t="n">
         <v>1.59</v>
@@ -22012,10 +22012,10 @@
         <v>1.6</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU106" t="n">
         <v>1.81</v>
@@ -22215,7 +22215,7 @@
         <v>0.4</v>
       </c>
       <c r="AS107" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT107" t="n">
         <v>1.1</v>
@@ -22827,7 +22827,7 @@
         <v>2.1</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU110" t="n">
         <v>2.11</v>
@@ -23027,7 +23027,7 @@
         <v>0.8</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT111" t="n">
         <v>0.89</v>
@@ -23230,7 +23230,7 @@
         <v>0.2</v>
       </c>
       <c r="AS112" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT112" t="n">
         <v>0.33</v>
@@ -24248,7 +24248,7 @@
         <v>1.22</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU117" t="n">
         <v>1.51</v>
@@ -24451,7 +24451,7 @@
         <v>1.78</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU118" t="n">
         <v>1.77</v>
@@ -25263,7 +25263,7 @@
         <v>1.11</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU122" t="n">
         <v>1.53</v>
@@ -25466,7 +25466,7 @@
         <v>2.7</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU123" t="n">
         <v>1.65</v>
@@ -25869,7 +25869,7 @@
         <v>0.83</v>
       </c>
       <c r="AS125" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT125" t="n">
         <v>0.89</v>
@@ -26072,10 +26072,10 @@
         <v>1.67</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU126" t="n">
         <v>1.78</v>
@@ -26478,7 +26478,7 @@
         <v>0.5</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT128" t="n">
         <v>0.67</v>
@@ -26681,10 +26681,10 @@
         <v>1.83</v>
       </c>
       <c r="AS129" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU129" t="n">
         <v>1.64</v>
@@ -26884,7 +26884,7 @@
         <v>0.83</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT130" t="n">
         <v>1.1</v>
@@ -27087,10 +27087,10 @@
         <v>0.67</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU131" t="n">
         <v>1.47</v>
@@ -27902,7 +27902,7 @@
         <v>1.22</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU135" t="n">
         <v>1.5</v>
@@ -28305,7 +28305,7 @@
         <v>2.67</v>
       </c>
       <c r="AS137" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT137" t="n">
         <v>2.22</v>
@@ -28511,7 +28511,7 @@
         <v>2.7</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU138" t="n">
         <v>1.69</v>
@@ -29320,10 +29320,10 @@
         <v>1.43</v>
       </c>
       <c r="AS142" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU142" t="n">
         <v>1.54</v>
@@ -29382,7 +29382,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>2604127</v>
+        <v>2604119</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -29402,86 +29402,86 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Verl</t>
+          <t>MSV Duisburg</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Ingolstadt</t>
+          <t>Bayreuth</t>
         </is>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="n">
         <v>1</v>
       </c>
       <c r="K143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
       <c r="N143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>['34', '78']</t>
+          <t>['65']</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>['23']</t>
+          <t>['38']</t>
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R143" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S143" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T143" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="U143" t="n">
-        <v>2.15</v>
+        <v>2.38</v>
       </c>
       <c r="V143" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="W143" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X143" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Y143" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Z143" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AA143" t="n">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="AB143" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AC143" t="n">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="AD143" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="AE143" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="AF143" t="n">
         <v>1.04</v>
@@ -29496,88 +29496,88 @@
         <v>4</v>
       </c>
       <c r="AJ143" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AK143" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="AL143" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AM143" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AN143" t="n">
-        <v>1.63</v>
+        <v>1.2</v>
       </c>
       <c r="AO143" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.36</v>
+        <v>2</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR143" t="n">
-        <v>2</v>
+        <v>0.57</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.78</v>
+        <v>1.25</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.89</v>
+        <v>0.5</v>
       </c>
       <c r="AU143" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="AV143" t="n">
-        <v>1.68</v>
+        <v>1.35</v>
       </c>
       <c r="AW143" t="n">
-        <v>3.32</v>
+        <v>3.01</v>
       </c>
       <c r="AX143" t="n">
-        <v>2.21</v>
+        <v>1.53</v>
       </c>
       <c r="AY143" t="n">
-        <v>6.95</v>
+        <v>8.5</v>
       </c>
       <c r="AZ143" t="n">
-        <v>2.01</v>
+        <v>3.1</v>
       </c>
       <c r="BA143" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="BB143" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="BC143" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="BD143" t="n">
-        <v>2.23</v>
+        <v>2.12</v>
       </c>
       <c r="BE143" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="BF143" t="n">
         <v>5</v>
       </c>
       <c r="BG143" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BH143" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BI143" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BJ143" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BK143" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144">
@@ -29585,7 +29585,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>2604125</v>
+        <v>2604121</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -29605,104 +29605,104 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Dynamo Dresden</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Freiburg II</t>
+          <t>Borussia Dortmund II</t>
         </is>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K144" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L144" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
       <c r="N144" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>['69']</t>
+          <t>['13', '20', '69']</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
         <is>
-          <t>['72']</t>
+          <t>['32']</t>
         </is>
       </c>
       <c r="Q144" t="n">
+        <v>10</v>
+      </c>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
+      <c r="S144" t="n">
+        <v>10</v>
+      </c>
+      <c r="T144" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U144" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V144" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X144" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD144" t="n">
         <v>4</v>
       </c>
-      <c r="R144" t="n">
-        <v>1</v>
-      </c>
-      <c r="S144" t="n">
-        <v>5</v>
-      </c>
-      <c r="T144" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U144" t="n">
+      <c r="AE144" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK144" t="n">
         <v>2.2</v>
-      </c>
-      <c r="V144" t="n">
-        <v>4</v>
-      </c>
-      <c r="W144" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X144" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y144" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z144" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA144" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB144" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC144" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD144" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AE144" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AF144" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG144" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH144" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AI144" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AJ144" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AK144" t="n">
-        <v>1.9</v>
       </c>
       <c r="AL144" t="n">
         <v>1.73</v>
@@ -29711,43 +29711,43 @@
         <v>2</v>
       </c>
       <c r="AN144" t="n">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AO144" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.43</v>
+        <v>2.14</v>
       </c>
       <c r="AR144" t="n">
-        <v>1.67</v>
+        <v>1.14</v>
       </c>
       <c r="AS144" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AV144" t="n">
         <v>1.3</v>
       </c>
-      <c r="AT144" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AU144" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AV144" t="n">
-        <v>1.23</v>
-      </c>
       <c r="AW144" t="n">
-        <v>3.07</v>
+        <v>3.31</v>
       </c>
       <c r="AX144" t="n">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="AY144" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AZ144" t="n">
-        <v>3</v>
+        <v>4.05</v>
       </c>
       <c r="BA144" t="n">
         <v>1.25</v>
@@ -29756,7 +29756,7 @@
         <v>1.47</v>
       </c>
       <c r="BC144" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="BD144" t="n">
         <v>2.38</v>
@@ -29765,22 +29765,22 @@
         <v>3.25</v>
       </c>
       <c r="BF144" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI144" t="n">
         <v>5</v>
       </c>
-      <c r="BG144" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH144" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI144" t="n">
-        <v>3</v>
-      </c>
       <c r="BJ144" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="BK144" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145">
@@ -29788,7 +29788,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>2604124</v>
+        <v>2604122</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -29808,59 +29808,59 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Hallescher FC</t>
+          <t>Viktoria Köln</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Waldhof Mannheim</t>
+          <t>Erzgebirge Aue</t>
         </is>
       </c>
       <c r="I145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L145" t="n">
         <v>3</v>
       </c>
       <c r="M145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N145" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>['38', '45+2', '48']</t>
+          <t>['73', '76', '90+1']</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
         <is>
-          <t>['8']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R145" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S145" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="T145" t="n">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="U145" t="n">
         <v>2.2</v>
       </c>
       <c r="V145" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="W145" t="n">
         <v>1.36</v>
@@ -29881,13 +29881,13 @@
         <v>1.1</v>
       </c>
       <c r="AC145" t="n">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="AD145" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AE145" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="AF145" t="n">
         <v>1.05</v>
@@ -29902,10 +29902,10 @@
         <v>3.5</v>
       </c>
       <c r="AJ145" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AK145" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="AL145" t="n">
         <v>1.67</v>
@@ -29914,76 +29914,76 @@
         <v>2.1</v>
       </c>
       <c r="AN145" t="n">
-        <v>1.6</v>
+        <v>1.39</v>
       </c>
       <c r="AO145" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.37</v>
+        <v>1.55</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AR145" t="n">
-        <v>0.17</v>
+        <v>0.71</v>
       </c>
       <c r="AS145" t="n">
         <v>1.56</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.25</v>
+        <v>1.1</v>
       </c>
       <c r="AU145" t="n">
-        <v>1.59</v>
+        <v>1.23</v>
       </c>
       <c r="AV145" t="n">
-        <v>1.41</v>
+        <v>1.73</v>
       </c>
       <c r="AW145" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="AX145" t="n">
-        <v>2.36</v>
+        <v>1.95</v>
       </c>
       <c r="AY145" t="n">
-        <v>7.3</v>
+        <v>6.95</v>
       </c>
       <c r="AZ145" t="n">
-        <v>1.88</v>
+        <v>2.29</v>
       </c>
       <c r="BA145" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="BB145" t="n">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="BC145" t="n">
-        <v>1.61</v>
+        <v>1.9</v>
       </c>
       <c r="BD145" t="n">
-        <v>2.02</v>
+        <v>2.45</v>
       </c>
       <c r="BE145" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="BF145" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BG145" t="n">
         <v>3</v>
       </c>
       <c r="BH145" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BI145" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BJ145" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BK145" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146">
@@ -29991,7 +29991,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>2604121</v>
+        <v>2604124</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -30011,12 +30011,12 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Hallescher FC</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Borussia Dortmund II</t>
+          <t>Waldhof Mannheim</t>
         </is>
       </c>
       <c r="I146" t="n">
@@ -30039,154 +30039,154 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>['13', '20', '69']</t>
+          <t>['38', '45+2', '48']</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>['32']</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R146" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S146" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T146" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V146" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X146" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK146" t="n">
         <v>2.05</v>
       </c>
-      <c r="U146" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V146" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="W146" t="n">
+      <c r="AL146" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO146" t="n">
         <v>1.3</v>
       </c>
-      <c r="X146" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Y146" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z146" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA146" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB146" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AC146" t="n">
+      <c r="AP146" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AQ146" t="n">
         <v>1.57</v>
       </c>
-      <c r="AD146" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE146" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AF146" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG146" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH146" t="n">
+      <c r="AR146" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BA146" t="n">
         <v>1.18</v>
       </c>
-      <c r="AI146" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AJ146" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AK146" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AL146" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AM146" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN146" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AO146" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AP146" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AQ146" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AR146" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AS146" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AT146" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AU146" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AV146" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AW146" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="AX146" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AY146" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ146" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="BA146" t="n">
-        <v>1.25</v>
-      </c>
       <c r="BB146" t="n">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
       <c r="BC146" t="n">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="BD146" t="n">
-        <v>2.38</v>
+        <v>2.02</v>
       </c>
       <c r="BE146" t="n">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="BF146" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BG146" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH146" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="BI146" t="n">
         <v>5</v>
       </c>
       <c r="BJ146" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="BK146" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147">
@@ -30194,7 +30194,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>2604119</v>
+        <v>2604125</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -30214,22 +30214,22 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>MSV Duisburg</t>
+          <t>Dynamo Dresden</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Bayreuth</t>
+          <t>Freiburg II</t>
         </is>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L147" t="n">
         <v>1</v>
@@ -30242,154 +30242,154 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>['65']</t>
+          <t>['69']</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
         <is>
-          <t>['38']</t>
+          <t>['72']</t>
         </is>
       </c>
       <c r="Q147" t="n">
+        <v>4</v>
+      </c>
+      <c r="R147" t="n">
+        <v>1</v>
+      </c>
+      <c r="S147" t="n">
         <v>5</v>
       </c>
-      <c r="R147" t="n">
-        <v>5</v>
-      </c>
-      <c r="S147" t="n">
-        <v>10</v>
-      </c>
       <c r="T147" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="U147" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V147" t="n">
+        <v>4</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X147" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD147" t="n">
         <v>2.38</v>
       </c>
-      <c r="V147" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="W147" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X147" t="n">
+      <c r="BE147" t="n">
         <v>3.25</v>
-      </c>
-      <c r="Y147" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z147" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA147" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB147" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC147" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AD147" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AE147" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AF147" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG147" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH147" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AI147" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ147" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AK147" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AL147" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AM147" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AN147" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AO147" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AP147" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ147" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AR147" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AS147" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AT147" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AU147" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AV147" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AW147" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="AX147" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AY147" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ147" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="BA147" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="BB147" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="BC147" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="BD147" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="BE147" t="n">
-        <v>2.85</v>
       </c>
       <c r="BF147" t="n">
         <v>5</v>
       </c>
       <c r="BG147" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH147" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BI147" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ147" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BK147" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148">
@@ -30397,7 +30397,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>2604122</v>
+        <v>2604127</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -30417,182 +30417,182 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Viktoria Köln</t>
+          <t>Verl</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Erzgebirge Aue</t>
+          <t>Ingolstadt</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N148" t="n">
         <v>3</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>['73', '76', '90+1']</t>
+          <t>['34', '78']</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['23']</t>
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R148" t="n">
         <v>2</v>
       </c>
       <c r="S148" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T148" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="U148" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="V148" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="W148" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="X148" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Y148" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Z148" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="AA148" t="n">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="AB148" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="AC148" t="n">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="AD148" t="n">
         <v>3.35</v>
       </c>
       <c r="AE148" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="AF148" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG148" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH148" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AI148" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AJ148" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="AK148" t="n">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="AL148" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AM148" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AN148" t="n">
-        <v>1.39</v>
+        <v>1.63</v>
       </c>
       <c r="AO148" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.55</v>
+        <v>1.36</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="AR148" t="n">
-        <v>0.71</v>
+        <v>2</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="AU148" t="n">
-        <v>1.23</v>
+        <v>1.64</v>
       </c>
       <c r="AV148" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="AW148" t="n">
-        <v>2.96</v>
+        <v>3.32</v>
       </c>
       <c r="AX148" t="n">
-        <v>1.95</v>
+        <v>2.21</v>
       </c>
       <c r="AY148" t="n">
         <v>6.95</v>
       </c>
       <c r="AZ148" t="n">
-        <v>2.29</v>
+        <v>2.01</v>
       </c>
       <c r="BA148" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="BB148" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="BC148" t="n">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
       <c r="BD148" t="n">
-        <v>2.45</v>
+        <v>2.23</v>
       </c>
       <c r="BE148" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="BF148" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BG148" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BH148" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BI148" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BJ148" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BK148" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149">
@@ -30741,10 +30741,10 @@
         <v>1.14</v>
       </c>
       <c r="AS149" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU149" t="n">
         <v>1.62</v>
@@ -31147,7 +31147,7 @@
         <v>1.57</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT151" t="n">
         <v>2</v>
@@ -31209,7 +31209,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>2604134</v>
+        <v>2604128</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -31229,12 +31229,12 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Borussia Dortmund II</t>
+          <t>Wehen Wiesbaden</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Viktoria Köln</t>
+          <t>Dynamo Dresden</t>
         </is>
       </c>
       <c r="I152" t="n">
@@ -31247,164 +31247,164 @@
         <v>0</v>
       </c>
       <c r="L152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P152" t="inlineStr">
-        <is>
-          <t>['84', '87']</t>
-        </is>
-      </c>
       <c r="Q152" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R152" t="n">
+        <v>6</v>
+      </c>
+      <c r="S152" t="n">
+        <v>13</v>
+      </c>
+      <c r="T152" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U152" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V152" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X152" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK152" t="n">
         <v>7</v>
-      </c>
-      <c r="S152" t="n">
-        <v>10</v>
-      </c>
-      <c r="T152" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="U152" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V152" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="W152" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X152" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="Y152" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="Z152" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AA152" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="AB152" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AC152" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="AD152" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AE152" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AF152" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG152" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH152" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AI152" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AJ152" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AK152" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AL152" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AM152" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AN152" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AO152" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP152" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AQ152" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AR152" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AS152" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AT152" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AU152" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AV152" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AW152" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AX152" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AY152" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="AZ152" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="BA152" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="BB152" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="BC152" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD152" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="BE152" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BF152" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG152" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH152" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI152" t="n">
-        <v>6</v>
-      </c>
-      <c r="BJ152" t="n">
-        <v>5</v>
-      </c>
-      <c r="BK152" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="153">
@@ -31412,7 +31412,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>2604131</v>
+        <v>2604137</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -31432,149 +31432,149 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Ingolstadt</t>
+          <t>Bayreuth</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Hallescher FC</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N153" t="n">
         <v>1</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>['83']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P153" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['18']</t>
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R153" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S153" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T153" t="n">
-        <v>2.15</v>
+        <v>4.72</v>
       </c>
       <c r="U153" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V153" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X153" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AM153" t="n">
         <v>2.35</v>
       </c>
-      <c r="V153" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="W153" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="X153" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Y153" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Z153" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA153" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="AB153" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC153" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AD153" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="AE153" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AF153" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG153" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH153" t="n">
+      <c r="AN153" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AS153" t="n">
         <v>1.22</v>
       </c>
-      <c r="AI153" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ153" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AK153" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AL153" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AM153" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AN153" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AO153" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AP153" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="AQ153" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AR153" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AS153" t="n">
-        <v>1.56</v>
-      </c>
       <c r="AT153" t="n">
-        <v>0.33</v>
+        <v>2.22</v>
       </c>
       <c r="AU153" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="AV153" t="n">
-        <v>1.22</v>
+        <v>1.75</v>
       </c>
       <c r="AW153" t="n">
-        <v>2.67</v>
+        <v>3.1</v>
       </c>
       <c r="AX153" t="n">
-        <v>1.47</v>
+        <v>3.68</v>
       </c>
       <c r="AY153" t="n">
-        <v>8.699999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="AZ153" t="n">
-        <v>3.35</v>
+        <v>1.41</v>
       </c>
       <c r="BA153" t="n">
         <v>1.2</v>
@@ -31592,22 +31592,22 @@
         <v>2.85</v>
       </c>
       <c r="BF153" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BG153" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BH153" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI153" t="n">
         <v>8</v>
       </c>
-      <c r="BI153" t="n">
-        <v>4</v>
-      </c>
       <c r="BJ153" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="BK153" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154">
@@ -31615,7 +31615,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>2604137</v>
+        <v>2604130</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -31635,12 +31635,12 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Bayreuth</t>
+          <t>Erzgebirge Aue</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>MSV Duisburg</t>
         </is>
       </c>
       <c r="I154" t="n">
@@ -31656,10 +31656,10 @@
         <v>0</v>
       </c>
       <c r="M154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
@@ -31668,146 +31668,146 @@
       </c>
       <c r="P154" t="inlineStr">
         <is>
-          <t>['18']</t>
+          <t>['27', '50']</t>
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="R154" t="n">
+        <v>2</v>
+      </c>
+      <c r="S154" t="n">
+        <v>14</v>
+      </c>
+      <c r="T154" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="V154" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X154" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG154" t="n">
         <v>9</v>
       </c>
-      <c r="S154" t="n">
-        <v>12</v>
-      </c>
-      <c r="T154" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="U154" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="V154" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="W154" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="X154" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="Y154" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Z154" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AA154" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AB154" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AC154" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="AD154" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="AE154" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AF154" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG154" t="n">
-        <v>12</v>
-      </c>
       <c r="AH154" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AI154" t="n">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="AJ154" t="n">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="AK154" t="n">
-        <v>2.75</v>
+        <v>1.99</v>
       </c>
       <c r="AL154" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="AM154" t="n">
-        <v>2.35</v>
+        <v>2.18</v>
       </c>
       <c r="AN154" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD154" t="n">
         <v>2.23</v>
       </c>
-      <c r="AO154" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AP154" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AQ154" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AR154" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AS154" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AT154" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AU154" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AV154" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AW154" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AX154" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="AY154" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="AZ154" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="BA154" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="BB154" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="BC154" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="BD154" t="n">
-        <v>2.12</v>
-      </c>
       <c r="BE154" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="BF154" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG154" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH154" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BI154" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ154" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="BK154" t="n">
         <v>14</v>
@@ -31818,7 +31818,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>2604128</v>
+        <v>2604131</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -31838,12 +31838,12 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Wehen Wiesbaden</t>
+          <t>Ingolstadt</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Dynamo Dresden</t>
+          <t>Hallescher FC</t>
         </is>
       </c>
       <c r="I155" t="n">
@@ -31866,7 +31866,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>['79']</t>
+          <t>['83']</t>
         </is>
       </c>
       <c r="P155" t="inlineStr">
@@ -31875,49 +31875,49 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R155" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S155" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="T155" t="n">
-        <v>2.67</v>
+        <v>2.15</v>
       </c>
       <c r="U155" t="n">
-        <v>2.24</v>
+        <v>2.35</v>
       </c>
       <c r="V155" t="n">
-        <v>3.78</v>
+        <v>5.1</v>
       </c>
       <c r="W155" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X155" t="n">
-        <v>3.13</v>
+        <v>3.2</v>
       </c>
       <c r="Y155" t="n">
-        <v>2.57</v>
+        <v>2.48</v>
       </c>
       <c r="Z155" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AA155" t="n">
-        <v>6.15</v>
+        <v>5.85</v>
       </c>
       <c r="AB155" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AC155" t="n">
-        <v>2</v>
+        <v>1.59</v>
       </c>
       <c r="AD155" t="n">
-        <v>3.87</v>
+        <v>4.46</v>
       </c>
       <c r="AE155" t="n">
-        <v>3.64</v>
+        <v>5.4</v>
       </c>
       <c r="AF155" t="n">
         <v>1.04</v>
@@ -31926,61 +31926,61 @@
         <v>10</v>
       </c>
       <c r="AH155" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AI155" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AJ155" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="AK155" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="AL155" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="AM155" t="n">
-        <v>2.22</v>
+        <v>2.07</v>
       </c>
       <c r="AN155" t="n">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="AO155" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.68</v>
+        <v>2.26</v>
       </c>
       <c r="AQ155" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AR155" t="n">
-        <v>1.57</v>
+        <v>0.29</v>
       </c>
       <c r="AS155" t="n">
-        <v>2.22</v>
+        <v>1.56</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU155" t="n">
-        <v>2.19</v>
+        <v>1.45</v>
       </c>
       <c r="AV155" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AW155" t="n">
-        <v>3.43</v>
+        <v>2.67</v>
       </c>
       <c r="AX155" t="n">
-        <v>1.66</v>
+        <v>1.47</v>
       </c>
       <c r="AY155" t="n">
-        <v>8.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AZ155" t="n">
-        <v>2.71</v>
+        <v>3.35</v>
       </c>
       <c r="BA155" t="n">
         <v>1.2</v>
@@ -31998,22 +31998,22 @@
         <v>2.85</v>
       </c>
       <c r="BF155" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK155" t="n">
         <v>6</v>
-      </c>
-      <c r="BG155" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH155" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI155" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ155" t="n">
-        <v>10</v>
-      </c>
-      <c r="BK155" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="156">
@@ -32021,7 +32021,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>2604130</v>
+        <v>2604134</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -32041,22 +32041,22 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Erzgebirge Aue</t>
+          <t>Borussia Dortmund II</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>MSV Duisburg</t>
+          <t>Viktoria Köln</t>
         </is>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L156" t="n">
         <v>0</v>
@@ -32074,53 +32074,53 @@
       </c>
       <c r="P156" t="inlineStr">
         <is>
-          <t>['27', '50']</t>
+          <t>['84', '87']</t>
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R156" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S156" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T156" t="n">
-        <v>2.96</v>
+        <v>2.93</v>
       </c>
       <c r="U156" t="n">
-        <v>2.19</v>
+        <v>2.18</v>
       </c>
       <c r="V156" t="n">
-        <v>3.44</v>
+        <v>3.5</v>
       </c>
       <c r="W156" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X156" t="n">
-        <v>3.04</v>
+        <v>2.99</v>
       </c>
       <c r="Y156" t="n">
-        <v>2.65</v>
+        <v>2.66</v>
       </c>
       <c r="Z156" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AA156" t="n">
-        <v>6.45</v>
+        <v>6.55</v>
       </c>
       <c r="AB156" t="n">
         <v>1.09</v>
       </c>
       <c r="AC156" t="n">
-        <v>2.24</v>
+        <v>2.56</v>
       </c>
       <c r="AD156" t="n">
-        <v>3.42</v>
+        <v>3.24</v>
       </c>
       <c r="AE156" t="n">
-        <v>3.39</v>
+        <v>2.77</v>
       </c>
       <c r="AF156" t="n">
         <v>1.05</v>
@@ -32135,88 +32135,88 @@
         <v>3.5</v>
       </c>
       <c r="AJ156" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="AK156" t="n">
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="AL156" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="AM156" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="AN156" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AO156" t="n">
         <v>1.28</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="AQ156" t="n">
-        <v>0.86</v>
+        <v>1.43</v>
       </c>
       <c r="AR156" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AS156" t="n">
-        <v>0.75</v>
+        <v>1.11</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AU156" t="n">
-        <v>1.71</v>
+        <v>1.49</v>
       </c>
       <c r="AV156" t="n">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AW156" t="n">
         <v>3.05</v>
       </c>
       <c r="AX156" t="n">
-        <v>1.64</v>
+        <v>2.01</v>
       </c>
       <c r="AY156" t="n">
-        <v>8.199999999999999</v>
+        <v>6.95</v>
       </c>
       <c r="AZ156" t="n">
-        <v>2.76</v>
+        <v>2.21</v>
       </c>
       <c r="BA156" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="BB156" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="BC156" t="n">
-        <v>1.74</v>
+        <v>2</v>
       </c>
       <c r="BD156" t="n">
-        <v>2.23</v>
+        <v>2.55</v>
       </c>
       <c r="BE156" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="BF156" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG156" t="n">
         <v>6</v>
       </c>
-      <c r="BG156" t="n">
-        <v>7</v>
-      </c>
       <c r="BH156" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BI156" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BJ156" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="BK156" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157">
@@ -32224,7 +32224,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>2604129</v>
+        <v>2604135</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -32244,182 +32244,182 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Osnabrück</t>
+          <t>Saarbrucken</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Verl</t>
+          <t>VfB Oldenburg</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K157" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L157" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
       <c r="N157" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>['61', '74']</t>
+          <t>['8', '25', '31']</t>
         </is>
       </c>
       <c r="P157" t="inlineStr">
         <is>
-          <t>['41']</t>
+          <t>['75']</t>
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R157" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S157" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="T157" t="n">
-        <v>2.42</v>
+        <v>2.1</v>
       </c>
       <c r="U157" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="V157" t="n">
-        <v>4.38</v>
+        <v>4.5</v>
       </c>
       <c r="W157" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X157" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Y157" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Z157" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="AA157" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="AB157" t="n">
         <v>1.12</v>
       </c>
       <c r="AC157" t="n">
-        <v>1.86</v>
+        <v>1.55</v>
       </c>
       <c r="AD157" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="AE157" t="n">
-        <v>3.35</v>
+        <v>4.5</v>
       </c>
       <c r="AF157" t="n">
         <v>1.04</v>
       </c>
       <c r="AG157" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AH157" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AI157" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AJ157" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="AK157" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AL157" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="AM157" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="AN157" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AO157" t="n">
         <v>1.25</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.89</v>
+        <v>2.15</v>
       </c>
       <c r="AQ157" t="n">
         <v>1.86</v>
       </c>
       <c r="AR157" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.11</v>
+        <v>1.78</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.78</v>
+        <v>1.11</v>
       </c>
       <c r="AU157" t="n">
-        <v>2.02</v>
+        <v>1.72</v>
       </c>
       <c r="AV157" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AW157" t="n">
-        <v>3.42</v>
+        <v>2.89</v>
       </c>
       <c r="AX157" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AY157" t="n">
-        <v>8.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AZ157" t="n">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="BA157" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="BB157" t="n">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="BC157" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="BD157" t="n">
-        <v>1.9</v>
+        <v>2.38</v>
       </c>
       <c r="BE157" t="n">
-        <v>2.43</v>
+        <v>3.25</v>
       </c>
       <c r="BF157" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BG157" t="n">
         <v>2</v>
       </c>
       <c r="BH157" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="BI157" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BJ157" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="BK157" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158">
@@ -32427,7 +32427,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>2604132</v>
+        <v>2604136</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -32447,182 +32447,182 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Waldhof Mannheim</t>
+          <t>Freiburg II</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Zwickau</t>
+          <t>1860 München</t>
         </is>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="n">
         <v>0</v>
       </c>
       <c r="K158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L158" t="n">
         <v>2</v>
       </c>
       <c r="M158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>['77', '90']</t>
+          <t>['5', '64']</t>
         </is>
       </c>
       <c r="P158" t="inlineStr">
         <is>
-          <t>['79']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R158" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S158" t="n">
         <v>10</v>
       </c>
       <c r="T158" t="n">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="U158" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V158" t="n">
-        <v>4.4</v>
+        <v>2.93</v>
       </c>
       <c r="W158" t="n">
         <v>1.36</v>
       </c>
       <c r="X158" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="Y158" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Z158" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AA158" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB158" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="AC158" t="n">
-        <v>1.82</v>
+        <v>2.58</v>
       </c>
       <c r="AD158" t="n">
         <v>3.45</v>
       </c>
       <c r="AE158" t="n">
-        <v>3.55</v>
+        <v>2.26</v>
       </c>
       <c r="AF158" t="n">
         <v>1.05</v>
       </c>
       <c r="AG158" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AH158" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AI158" t="n">
         <v>3.5</v>
       </c>
       <c r="AJ158" t="n">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="AK158" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="AL158" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AM158" t="n">
-        <v>1.91</v>
+        <v>2.24</v>
       </c>
       <c r="AN158" t="n">
-        <v>1.18</v>
+        <v>1.55</v>
       </c>
       <c r="AO158" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AP158" t="n">
-        <v>2.05</v>
+        <v>1.42</v>
       </c>
       <c r="AQ158" t="n">
-        <v>2.63</v>
+        <v>2.13</v>
       </c>
       <c r="AR158" t="n">
-        <v>0.71</v>
+        <v>1.57</v>
       </c>
       <c r="AS158" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.67</v>
+        <v>1.22</v>
       </c>
       <c r="AU158" t="n">
-        <v>1.66</v>
+        <v>2.04</v>
       </c>
       <c r="AV158" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AW158" t="n">
-        <v>3.19</v>
+        <v>3.54</v>
       </c>
       <c r="AX158" t="n">
-        <v>1.49</v>
+        <v>2.18</v>
       </c>
       <c r="AY158" t="n">
-        <v>8.4</v>
+        <v>7.7</v>
       </c>
       <c r="AZ158" t="n">
-        <v>3.3</v>
+        <v>1.98</v>
       </c>
       <c r="BA158" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="BB158" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="BC158" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="BD158" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BE158" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="BF158" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG158" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH158" t="n">
         <v>10</v>
       </c>
       <c r="BI158" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ158" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BK158" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159">
@@ -32630,7 +32630,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>2604133</v>
+        <v>2604132</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -32650,12 +32650,12 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Rot-Weiss Essen</t>
+          <t>Waldhof Mannheim</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Meppen</t>
+          <t>Zwickau</t>
         </is>
       </c>
       <c r="I159" t="n">
@@ -32668,164 +32668,164 @@
         <v>0</v>
       </c>
       <c r="L159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N159" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['77', '90']</t>
         </is>
       </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['79']</t>
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R159" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S159" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T159" t="n">
         <v>2.25</v>
       </c>
       <c r="U159" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V159" t="n">
         <v>4.4</v>
       </c>
       <c r="W159" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X159" t="n">
         <v>3</v>
       </c>
       <c r="Y159" t="n">
-        <v>2.45</v>
+        <v>2.62</v>
       </c>
       <c r="Z159" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="AA159" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="AB159" t="n">
         <v>1.11</v>
       </c>
       <c r="AC159" t="n">
-        <v>2.1</v>
+        <v>1.82</v>
       </c>
       <c r="AD159" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI159" t="n">
         <v>3.5</v>
       </c>
-      <c r="AE159" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AF159" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG159" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH159" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AI159" t="n">
-        <v>3.9</v>
-      </c>
       <c r="AJ159" t="n">
-        <v>1.65</v>
+        <v>1.86</v>
       </c>
       <c r="AK159" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="AL159" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AM159" t="n">
-        <v>2.14</v>
+        <v>1.91</v>
       </c>
       <c r="AN159" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AO159" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.72</v>
+        <v>2.05</v>
       </c>
       <c r="AQ159" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB159" t="n">
         <v>1.29</v>
       </c>
-      <c r="AR159" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AS159" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AT159" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AU159" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AV159" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AW159" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AX159" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AY159" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="AZ159" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="BA159" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="BB159" t="n">
-        <v>1.42</v>
-      </c>
       <c r="BC159" t="n">
-        <v>1.74</v>
+        <v>1.5</v>
       </c>
       <c r="BD159" t="n">
-        <v>2.23</v>
+        <v>1.95</v>
       </c>
       <c r="BE159" t="n">
-        <v>3</v>
+        <v>2.43</v>
       </c>
       <c r="BF159" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BG159" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH159" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BI159" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BJ159" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="BK159" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160">
@@ -32833,7 +32833,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>2604135</v>
+        <v>2604129</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -32853,182 +32853,182 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Saarbrucken</t>
+          <t>Osnabrück</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>VfB Oldenburg</t>
+          <t>Verl</t>
         </is>
       </c>
       <c r="I160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K160" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
       <c r="N160" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>['8', '25', '31']</t>
+          <t>['61', '74']</t>
         </is>
       </c>
       <c r="P160" t="inlineStr">
         <is>
-          <t>['75']</t>
+          <t>['41']</t>
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R160" t="n">
+        <v>3</v>
+      </c>
+      <c r="S160" t="n">
         <v>5</v>
       </c>
-      <c r="S160" t="n">
-        <v>14</v>
-      </c>
       <c r="T160" t="n">
-        <v>2.1</v>
+        <v>2.42</v>
       </c>
       <c r="U160" t="n">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="V160" t="n">
-        <v>4.5</v>
+        <v>4.38</v>
       </c>
       <c r="W160" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X160" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Y160" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Z160" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="AA160" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="AB160" t="n">
         <v>1.12</v>
       </c>
       <c r="AC160" t="n">
-        <v>1.55</v>
+        <v>1.86</v>
       </c>
       <c r="AD160" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="AE160" t="n">
-        <v>4.5</v>
+        <v>3.35</v>
       </c>
       <c r="AF160" t="n">
         <v>1.04</v>
       </c>
       <c r="AG160" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AH160" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AN160" t="n">
         <v>1.25</v>
-      </c>
-      <c r="AI160" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AJ160" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AK160" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AL160" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AM160" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN160" t="n">
-        <v>1.15</v>
       </c>
       <c r="AO160" t="n">
         <v>1.25</v>
       </c>
       <c r="AP160" t="n">
-        <v>2.15</v>
+        <v>1.89</v>
       </c>
       <c r="AQ160" t="n">
         <v>1.86</v>
       </c>
       <c r="AR160" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.78</v>
+        <v>2.11</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.11</v>
+        <v>0.78</v>
       </c>
       <c r="AU160" t="n">
-        <v>1.72</v>
+        <v>2.02</v>
       </c>
       <c r="AV160" t="n">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="AW160" t="n">
-        <v>2.89</v>
+        <v>3.42</v>
       </c>
       <c r="AX160" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AY160" t="n">
-        <v>9.300000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="AZ160" t="n">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="BA160" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="BB160" t="n">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="BC160" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="BD160" t="n">
-        <v>2.38</v>
+        <v>1.9</v>
       </c>
       <c r="BE160" t="n">
-        <v>3.25</v>
+        <v>2.43</v>
       </c>
       <c r="BF160" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BG160" t="n">
         <v>2</v>
       </c>
       <c r="BH160" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="BI160" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ160" t="n">
         <v>5</v>
       </c>
-      <c r="BJ160" t="n">
-        <v>19</v>
-      </c>
       <c r="BK160" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161">
@@ -33036,7 +33036,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>2604136</v>
+        <v>2604133</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -33056,35 +33056,35 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Freiburg II</t>
+          <t>Rot-Weiss Essen</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>1860 München</t>
+          <t>Meppen</t>
         </is>
       </c>
       <c r="I161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="n">
         <v>0</v>
       </c>
       <c r="K161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M161" t="n">
         <v>0</v>
       </c>
       <c r="N161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>['5', '64']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P161" t="inlineStr">
@@ -33093,145 +33093,145 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R161" t="n">
         <v>4</v>
       </c>
       <c r="S161" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T161" t="n">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="U161" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="V161" t="n">
-        <v>2.93</v>
+        <v>4.4</v>
       </c>
       <c r="W161" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X161" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="Y161" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="Z161" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="AA161" t="n">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="AB161" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="AC161" t="n">
-        <v>2.58</v>
+        <v>2.1</v>
       </c>
       <c r="AD161" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AE161" t="n">
-        <v>2.26</v>
+        <v>3.2</v>
       </c>
       <c r="AF161" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG161" t="n">
-        <v>9.75</v>
+        <v>11</v>
       </c>
       <c r="AH161" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AI161" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="AJ161" t="n">
-        <v>1.77</v>
+        <v>1.65</v>
       </c>
       <c r="AK161" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="AL161" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AM161" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="AN161" t="n">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="AO161" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="AP161" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB161" t="n">
         <v>1.42</v>
       </c>
-      <c r="AQ161" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AR161" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AS161" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AT161" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AU161" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AV161" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AW161" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="AX161" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AY161" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AZ161" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="BA161" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="BB161" t="n">
-        <v>1.3</v>
-      </c>
       <c r="BC161" t="n">
-        <v>1.55</v>
+        <v>1.74</v>
       </c>
       <c r="BD161" t="n">
-        <v>2</v>
+        <v>2.23</v>
       </c>
       <c r="BE161" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="BF161" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG161" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK161" t="n">
         <v>6</v>
-      </c>
-      <c r="BH161" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI161" t="n">
-        <v>8</v>
-      </c>
-      <c r="BJ161" t="n">
-        <v>17</v>
-      </c>
-      <c r="BK161" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="162">
@@ -33442,7 +33442,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>2604147</v>
+        <v>2604146</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -33462,182 +33462,182 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Verl</t>
+          <t>Dynamo Dresden</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Wehen Wiesbaden</t>
+          <t>Zwickau</t>
         </is>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>['67']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P163" t="inlineStr">
         <is>
-          <t>['43']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q163" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="R163" t="n">
         <v>3</v>
       </c>
       <c r="S163" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="T163" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="U163" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V163" t="n">
-        <v>2.85</v>
+        <v>5.1</v>
       </c>
       <c r="W163" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="X163" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="Y163" t="n">
-        <v>2.55</v>
+        <v>2.77</v>
       </c>
       <c r="Z163" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AA163" t="n">
-        <v>6.25</v>
+        <v>6.85</v>
       </c>
       <c r="AB163" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AC163" t="n">
-        <v>2.86</v>
+        <v>1.75</v>
       </c>
       <c r="AD163" t="n">
-        <v>3.48</v>
+        <v>3.74</v>
       </c>
       <c r="AE163" t="n">
-        <v>2.34</v>
+        <v>4.44</v>
       </c>
       <c r="AF163" t="n">
         <v>1.05</v>
       </c>
       <c r="AG163" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH163" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AI163" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="AJ163" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL163" t="n">
         <v>1.83</v>
       </c>
-      <c r="AK163" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AL163" t="n">
-        <v>1.62</v>
-      </c>
       <c r="AM163" t="n">
-        <v>2.24</v>
+        <v>1.85</v>
       </c>
       <c r="AN163" t="n">
-        <v>1.57</v>
+        <v>1.19</v>
       </c>
       <c r="AO163" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS163" t="n">
         <v>1.3</v>
       </c>
-      <c r="AP163" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AQ163" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AR163" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AS163" t="n">
+      <c r="AT163" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU163" t="n">
         <v>1.78</v>
       </c>
-      <c r="AT163" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AU163" t="n">
-        <v>1.63</v>
-      </c>
       <c r="AV163" t="n">
-        <v>1.81</v>
+        <v>1.51</v>
       </c>
       <c r="AW163" t="n">
-        <v>3.44</v>
+        <v>3.29</v>
       </c>
       <c r="AX163" t="n">
-        <v>2.59</v>
+        <v>1.36</v>
       </c>
       <c r="AY163" t="n">
-        <v>7.9</v>
+        <v>9</v>
       </c>
       <c r="AZ163" t="n">
-        <v>1.72</v>
+        <v>4.05</v>
       </c>
       <c r="BA163" t="n">
         <v>1.22</v>
       </c>
       <c r="BB163" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="BC163" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="BD163" t="n">
         <v>1.95</v>
       </c>
       <c r="BE163" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="BF163" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG163" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI163" t="n">
         <v>7</v>
       </c>
-      <c r="BH163" t="n">
-        <v>7</v>
-      </c>
-      <c r="BI163" t="n">
-        <v>3</v>
-      </c>
       <c r="BJ163" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BK163" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164">
@@ -33786,7 +33786,7 @@
         <v>1.75</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT164" t="n">
         <v>2</v>
@@ -33989,7 +33989,7 @@
         <v>0.38</v>
       </c>
       <c r="AS165" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT165" t="n">
         <v>0.67</v>
@@ -34051,7 +34051,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>2604146</v>
+        <v>2604147</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -34071,182 +34071,182 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Dynamo Dresden</t>
+          <t>Verl</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Zwickau</t>
+          <t>Wehen Wiesbaden</t>
         </is>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['67']</t>
         </is>
       </c>
       <c r="P166" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['43']</t>
         </is>
       </c>
       <c r="Q166" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R166" t="n">
         <v>3</v>
       </c>
       <c r="S166" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="T166" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="U166" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V166" t="n">
-        <v>5.1</v>
+        <v>2.85</v>
       </c>
       <c r="W166" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="X166" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="Y166" t="n">
-        <v>2.77</v>
+        <v>2.55</v>
       </c>
       <c r="Z166" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="AA166" t="n">
-        <v>6.85</v>
+        <v>6.25</v>
       </c>
       <c r="AB166" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AC166" t="n">
-        <v>1.75</v>
+        <v>2.86</v>
       </c>
       <c r="AD166" t="n">
-        <v>3.74</v>
+        <v>3.48</v>
       </c>
       <c r="AE166" t="n">
-        <v>4.44</v>
+        <v>2.34</v>
       </c>
       <c r="AF166" t="n">
         <v>1.05</v>
       </c>
       <c r="AG166" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH166" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="AI166" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="AJ166" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="AK166" t="n">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="AL166" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="AM166" t="n">
-        <v>1.85</v>
+        <v>2.24</v>
       </c>
       <c r="AN166" t="n">
-        <v>1.19</v>
+        <v>1.57</v>
       </c>
       <c r="AO166" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.38</v>
+        <v>1.88</v>
       </c>
       <c r="AR166" t="n">
-        <v>0.63</v>
+        <v>1.63</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.67</v>
+        <v>1.7</v>
       </c>
       <c r="AU166" t="n">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AV166" t="n">
-        <v>1.51</v>
+        <v>1.81</v>
       </c>
       <c r="AW166" t="n">
-        <v>3.29</v>
+        <v>3.44</v>
       </c>
       <c r="AX166" t="n">
-        <v>1.36</v>
+        <v>2.59</v>
       </c>
       <c r="AY166" t="n">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="AZ166" t="n">
-        <v>4.05</v>
+        <v>1.72</v>
       </c>
       <c r="BA166" t="n">
         <v>1.22</v>
       </c>
       <c r="BB166" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="BC166" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="BD166" t="n">
         <v>1.95</v>
       </c>
       <c r="BE166" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="BF166" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG166" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BH166" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI166" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BJ166" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BK166" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167">
@@ -34398,7 +34398,7 @@
         <v>1.25</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU167" t="n">
         <v>1.64</v>
@@ -34598,10 +34598,10 @@
         <v>1.57</v>
       </c>
       <c r="AS168" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU168" t="n">
         <v>2.12</v>
@@ -34801,7 +34801,7 @@
         <v>0.14</v>
       </c>
       <c r="AS169" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT169" t="n">
         <v>0.25</v>
@@ -35007,7 +35007,7 @@
         <v>1.56</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU170" t="n">
         <v>1.29</v>
@@ -35207,10 +35207,10 @@
         <v>1.38</v>
       </c>
       <c r="AS171" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU171" t="n">
         <v>1.86</v>
@@ -36081,7 +36081,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>2604149</v>
+        <v>2604151</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -36101,22 +36101,22 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Osnabrück</t>
+          <t>Waldhof Mannheim</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Viktoria Köln</t>
+          <t>1860 München</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J176" t="n">
         <v>1</v>
       </c>
       <c r="K176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L176" t="n">
         <v>3</v>
@@ -36129,154 +36129,154 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>['6', '19', '89']</t>
+          <t>['28', '57', '90+4']</t>
         </is>
       </c>
       <c r="P176" t="inlineStr">
         <is>
-          <t>['37']</t>
+          <t>['7']</t>
         </is>
       </c>
       <c r="Q176" t="n">
+        <v>5</v>
+      </c>
+      <c r="R176" t="n">
         <v>4</v>
-      </c>
-      <c r="R176" t="n">
-        <v>5</v>
       </c>
       <c r="S176" t="n">
         <v>9</v>
       </c>
       <c r="T176" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U176" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V176" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W176" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X176" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Y176" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Z176" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AA176" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AB176" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AC176" t="n">
-        <v>1.89</v>
+        <v>2.65</v>
       </c>
       <c r="AD176" t="n">
-        <v>3.72</v>
+        <v>3.4</v>
       </c>
       <c r="AE176" t="n">
-        <v>3.68</v>
+        <v>2.45</v>
       </c>
       <c r="AF176" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AG176" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AH176" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AI176" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AJ176" t="n">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="AK176" t="n">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="AL176" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AM176" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AN176" t="n">
-        <v>1.28</v>
+        <v>1.6</v>
       </c>
       <c r="AO176" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AP176" t="n">
-        <v>1.8</v>
+        <v>1.37</v>
       </c>
       <c r="AQ176" t="n">
-        <v>2</v>
+        <v>2.67</v>
       </c>
       <c r="AR176" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AS176" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX176" t="n">
         <v>2.11</v>
       </c>
-      <c r="AT176" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AU176" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AV176" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AW176" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="AX176" t="n">
-        <v>1.6</v>
-      </c>
       <c r="AY176" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AZ176" t="n">
-        <v>2.91</v>
+        <v>2.04</v>
       </c>
       <c r="BA176" t="n">
         <v>1.18</v>
       </c>
       <c r="BB176" t="n">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="BC176" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="BD176" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="BE176" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="BF176" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BG176" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BH176" t="n">
         <v>6</v>
       </c>
       <c r="BI176" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BJ176" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BK176" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177">
@@ -36284,7 +36284,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>2604148</v>
+        <v>2604149</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -36304,182 +36304,182 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Wehen Wiesbaden</t>
+          <t>Osnabrück</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Viktoria Köln</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K177" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L177" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N177" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>['11']</t>
+          <t>['6', '19', '89']</t>
         </is>
       </c>
       <c r="P177" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['37']</t>
         </is>
       </c>
       <c r="Q177" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R177" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S177" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T177" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="U177" t="n">
         <v>2.3</v>
       </c>
       <c r="V177" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="W177" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X177" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AT177" t="n">
         <v>1.3</v>
       </c>
-      <c r="X177" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Y177" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z177" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA177" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB177" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AC177" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AD177" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="AE177" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="AF177" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG177" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH177" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI177" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AJ177" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AK177" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AL177" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AM177" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AN177" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AO177" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP177" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AQ177" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AR177" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AS177" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AT177" t="n">
-        <v>2.22</v>
-      </c>
       <c r="AU177" t="n">
-        <v>2.11</v>
+        <v>1.89</v>
       </c>
       <c r="AV177" t="n">
-        <v>1.78</v>
+        <v>1.57</v>
       </c>
       <c r="AW177" t="n">
-        <v>3.89</v>
+        <v>3.46</v>
       </c>
       <c r="AX177" t="n">
-        <v>1.99</v>
+        <v>1.6</v>
       </c>
       <c r="AY177" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AZ177" t="n">
-        <v>2.16</v>
+        <v>2.91</v>
       </c>
       <c r="BA177" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="BB177" t="n">
-        <v>1.26</v>
+        <v>1.43</v>
       </c>
       <c r="BC177" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="BD177" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="BE177" t="n">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="BF177" t="n">
         <v>8</v>
       </c>
       <c r="BG177" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI177" t="n">
         <v>4</v>
       </c>
-      <c r="BH177" t="n">
+      <c r="BJ177" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK177" t="n">
         <v>10</v>
-      </c>
-      <c r="BI177" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ177" t="n">
-        <v>18</v>
-      </c>
-      <c r="BK177" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="178">
@@ -36487,7 +36487,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>2604151</v>
+        <v>2604148</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -36507,182 +36507,182 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Waldhof Mannheim</t>
+          <t>Wehen Wiesbaden</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>1860 München</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I178" t="n">
         <v>1</v>
       </c>
       <c r="J178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L178" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N178" t="n">
+        <v>1</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>3</v>
+      </c>
+      <c r="R178" t="n">
+        <v>7</v>
+      </c>
+      <c r="S178" t="n">
+        <v>10</v>
+      </c>
+      <c r="T178" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U178" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V178" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X178" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG178" t="n">
         <v>4</v>
       </c>
-      <c r="O178" t="inlineStr">
-        <is>
-          <t>['28', '57', '90+4']</t>
-        </is>
-      </c>
-      <c r="P178" t="inlineStr">
-        <is>
-          <t>['7']</t>
-        </is>
-      </c>
-      <c r="Q178" t="n">
+      <c r="BH178" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI178" t="n">
         <v>5</v>
       </c>
-      <c r="R178" t="n">
-        <v>4</v>
-      </c>
-      <c r="S178" t="n">
+      <c r="BJ178" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK178" t="n">
         <v>9</v>
-      </c>
-      <c r="T178" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U178" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V178" t="n">
-        <v>3</v>
-      </c>
-      <c r="W178" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X178" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y178" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z178" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA178" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB178" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC178" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AD178" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AE178" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AF178" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AG178" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AH178" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AI178" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AJ178" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AK178" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AL178" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AM178" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN178" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AO178" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AP178" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AQ178" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AR178" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AS178" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AT178" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AU178" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AV178" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AW178" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="AX178" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AY178" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AZ178" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="BA178" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="BB178" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="BC178" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="BD178" t="n">
-        <v>2</v>
-      </c>
-      <c r="BE178" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BF178" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG178" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH178" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI178" t="n">
-        <v>6</v>
-      </c>
-      <c r="BJ178" t="n">
-        <v>11</v>
-      </c>
-      <c r="BK178" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="179">
@@ -37495,6 +37495,1427 @@
       </c>
       <c r="BK182" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>2604165</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>44947.41666666666</v>
+      </c>
+      <c r="F183" t="n">
+        <v>19</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Meppen</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Freiburg II</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>2</v>
+      </c>
+      <c r="K183" t="n">
+        <v>2</v>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="n">
+        <v>2</v>
+      </c>
+      <c r="N183" t="n">
+        <v>3</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>['10', '33']</t>
+        </is>
+      </c>
+      <c r="Q183" t="n">
+        <v>7</v>
+      </c>
+      <c r="R183" t="n">
+        <v>3</v>
+      </c>
+      <c r="S183" t="n">
+        <v>10</v>
+      </c>
+      <c r="T183" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U183" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V183" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W183" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X183" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN183" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO183" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP183" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ183" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR183" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS183" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT183" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU183" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW183" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX183" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY183" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ183" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BA183" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB183" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC183" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD183" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE183" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF183" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG183" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH183" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI183" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ183" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK183" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>2604162</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>44947.41666666666</v>
+      </c>
+      <c r="F184" t="n">
+        <v>19</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Elversberg</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Ingolstadt</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>3</v>
+      </c>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
+      <c r="K184" t="n">
+        <v>4</v>
+      </c>
+      <c r="L184" t="n">
+        <v>4</v>
+      </c>
+      <c r="M184" t="n">
+        <v>3</v>
+      </c>
+      <c r="N184" t="n">
+        <v>7</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>['17', '23', '25', '72']</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>['41', '52', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>3</v>
+      </c>
+      <c r="R184" t="n">
+        <v>8</v>
+      </c>
+      <c r="S184" t="n">
+        <v>11</v>
+      </c>
+      <c r="T184" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U184" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V184" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X184" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AX184" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ184" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF184" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG184" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH184" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ184" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>2604167</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>44947.41666666666</v>
+      </c>
+      <c r="F185" t="n">
+        <v>19</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Verl</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Rot-Weiss Essen</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="n">
+        <v>2</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
+        <v>5</v>
+      </c>
+      <c r="R185" t="n">
+        <v>4</v>
+      </c>
+      <c r="S185" t="n">
+        <v>9</v>
+      </c>
+      <c r="T185" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U185" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V185" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X185" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ185" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2604158</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>44947.41666666666</v>
+      </c>
+      <c r="F186" t="n">
+        <v>19</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Erzgebirge Aue</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Bayreuth</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>3</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>3</v>
+      </c>
+      <c r="L186" t="n">
+        <v>4</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N186" t="n">
+        <v>4</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>['23', '38', '45+3', '76']</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>3</v>
+      </c>
+      <c r="R186" t="n">
+        <v>5</v>
+      </c>
+      <c r="S186" t="n">
+        <v>8</v>
+      </c>
+      <c r="T186" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U186" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V186" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X186" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2604161</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>44947.41666666666</v>
+      </c>
+      <c r="F187" t="n">
+        <v>19</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>1860 München</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Zwickau</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>3</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>3</v>
+      </c>
+      <c r="L187" t="n">
+        <v>3</v>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="n">
+        <v>4</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>['1', '7', '42']</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>4</v>
+      </c>
+      <c r="R187" t="n">
+        <v>4</v>
+      </c>
+      <c r="S187" t="n">
+        <v>8</v>
+      </c>
+      <c r="T187" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U187" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V187" t="n">
+        <v>5</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X187" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2604159</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>44948.375</v>
+      </c>
+      <c r="F188" t="n">
+        <v>19</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>VfB Oldenburg</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Dynamo Dresden</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="n">
+        <v>3</v>
+      </c>
+      <c r="N188" t="n">
+        <v>4</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>['64', '71', '82']</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>4</v>
+      </c>
+      <c r="R188" t="n">
+        <v>5</v>
+      </c>
+      <c r="S188" t="n">
+        <v>9</v>
+      </c>
+      <c r="T188" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U188" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V188" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X188" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>2604166</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>44948.41666666666</v>
+      </c>
+      <c r="F189" t="n">
+        <v>19</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Hallescher FC</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Wehen Wiesbaden</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="n">
+        <v>2</v>
+      </c>
+      <c r="M189" t="n">
+        <v>3</v>
+      </c>
+      <c r="N189" t="n">
+        <v>5</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>['74', '82']</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>['30', '59', '68']</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>7</v>
+      </c>
+      <c r="R189" t="n">
+        <v>4</v>
+      </c>
+      <c r="S189" t="n">
+        <v>11</v>
+      </c>
+      <c r="T189" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U189" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V189" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X189" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK189"/>
+  <dimension ref="A1:BK191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT12" t="n">
         <v>1.3</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT19" t="n">
         <v>1.7</v>
@@ -4557,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1.7</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT35" t="n">
         <v>1.3</v>
@@ -8211,7 +8211,7 @@
         <v>1.22</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU38" t="n">
         <v>1.37</v>
@@ -8414,7 +8414,7 @@
         <v>0.8</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU39" t="n">
         <v>1.41</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT41" t="n">
         <v>1.56</v>
@@ -9835,7 +9835,7 @@
         <v>2.22</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU46" t="n">
         <v>2.05</v>
@@ -11662,7 +11662,7 @@
         <v>2.4</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU55" t="n">
         <v>2.13</v>
@@ -12471,7 +12471,7 @@
         <v>1.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT59" t="n">
         <v>1.56</v>
@@ -12877,7 +12877,7 @@
         <v>0</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT61" t="n">
         <v>1.11</v>
@@ -13489,7 +13489,7 @@
         <v>0.9</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU64" t="n">
         <v>1.5</v>
@@ -15313,7 +15313,7 @@
         <v>0.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT73" t="n">
         <v>1.11</v>
@@ -15925,7 +15925,7 @@
         <v>1.56</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU76" t="n">
         <v>1.58</v>
@@ -16531,7 +16531,7 @@
         <v>2</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT79" t="n">
         <v>1.56</v>
@@ -18564,7 +18564,7 @@
         <v>2.1</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU89" t="n">
         <v>2.25</v>
@@ -19373,7 +19373,7 @@
         <v>1.75</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT93" t="n">
         <v>1.22</v>
@@ -20188,7 +20188,7 @@
         <v>2.11</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU97" t="n">
         <v>1.78</v>
@@ -20388,7 +20388,7 @@
         <v>0.25</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT98" t="n">
         <v>0.33</v>
@@ -22624,7 +22624,7 @@
         <v>1.3</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU109" t="n">
         <v>2.07</v>
@@ -23842,7 +23842,7 @@
         <v>2.1</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU115" t="n">
         <v>1.96</v>
@@ -24854,7 +24854,7 @@
         <v>1</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT120" t="n">
         <v>1.5</v>
@@ -26275,7 +26275,7 @@
         <v>1</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT127" t="n">
         <v>1.3</v>
@@ -26481,7 +26481,7 @@
         <v>2.4</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU128" t="n">
         <v>1.89</v>
@@ -27493,7 +27493,7 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT133" t="n">
         <v>0.78</v>
@@ -29523,7 +29523,7 @@
         <v>0.57</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT143" t="n">
         <v>0.5</v>
@@ -30135,7 +30135,7 @@
         <v>1.4</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU146" t="n">
         <v>1.59</v>
@@ -30947,7 +30947,7 @@
         <v>1.11</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU150" t="n">
         <v>1.45</v>
@@ -32162,7 +32162,7 @@
         <v>1.25</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT156" t="n">
         <v>1.3</v>
@@ -33380,7 +33380,7 @@
         <v>0.63</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT162" t="n">
         <v>1.1</v>
@@ -33992,7 +33992,7 @@
         <v>0.8</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU165" t="n">
         <v>1.64</v>
@@ -34395,7 +34395,7 @@
         <v>1.75</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT167" t="n">
         <v>1.7</v>
@@ -34804,7 +34804,7 @@
         <v>0.9</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU169" t="n">
         <v>1.63</v>
@@ -38915,6 +38915,412 @@
         <v>18</v>
       </c>
       <c r="BK189" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>2604160</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>44949.625</v>
+      </c>
+      <c r="F190" t="n">
+        <v>19</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>MSV Duisburg</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Waldhof Mannheim</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
+      <c r="K190" t="n">
+        <v>2</v>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="n">
+        <v>3</v>
+      </c>
+      <c r="N190" t="n">
+        <v>4</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>['24', '47', '54']</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>6</v>
+      </c>
+      <c r="R190" t="n">
+        <v>3</v>
+      </c>
+      <c r="S190" t="n">
+        <v>9</v>
+      </c>
+      <c r="T190" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U190" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V190" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X190" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BF190" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG190" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH190" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ190" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>2604163</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>44950.625</v>
+      </c>
+      <c r="F191" t="n">
+        <v>19</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund II</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Osnabrück</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>2</v>
+      </c>
+      <c r="K191" t="n">
+        <v>3</v>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="n">
+        <v>2</v>
+      </c>
+      <c r="N191" t="n">
+        <v>3</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>['21', '34']</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>8</v>
+      </c>
+      <c r="R191" t="n">
+        <v>8</v>
+      </c>
+      <c r="S191" t="n">
+        <v>16</v>
+      </c>
+      <c r="T191" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U191" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V191" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X191" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK191" t="n">
         <v>10</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK191"/>
+  <dimension ref="A1:BK192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2933,7 +2933,7 @@
         <v>1.11</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT18" t="n">
         <v>2</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT34" t="n">
         <v>0.6</v>
@@ -7602,7 +7602,7 @@
         <v>1</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU35" t="n">
         <v>1.05</v>
@@ -11659,7 +11659,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT55" t="n">
         <v>0.5600000000000001</v>
@@ -12271,7 +12271,7 @@
         <v>1.22</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU58" t="n">
         <v>1.22</v>
@@ -15113,7 +15113,7 @@
         <v>2.11</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU72" t="n">
         <v>1.91</v>
@@ -16125,7 +16125,7 @@
         <v>2.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT77" t="n">
         <v>1.22</v>
@@ -19982,7 +19982,7 @@
         <v>0</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT96" t="n">
         <v>0.78</v>
@@ -20797,7 +20797,7 @@
         <v>2.22</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU100" t="n">
         <v>2.2</v>
@@ -21606,7 +21606,7 @@
         <v>1.2</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT104" t="n">
         <v>1.5</v>
@@ -22827,7 +22827,7 @@
         <v>2.1</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU110" t="n">
         <v>2.11</v>
@@ -25466,7 +25466,7 @@
         <v>2.7</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU123" t="n">
         <v>1.65</v>
@@ -26478,7 +26478,7 @@
         <v>0.5</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT128" t="n">
         <v>0.9</v>
@@ -29726,7 +29726,7 @@
         <v>1.14</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT144" t="n">
         <v>0.89</v>
@@ -30744,7 +30744,7 @@
         <v>0.9</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU149" t="n">
         <v>1.62</v>
@@ -34598,7 +34598,7 @@
         <v>1.57</v>
       </c>
       <c r="AS168" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT168" t="n">
         <v>1.56</v>
@@ -35210,7 +35210,7 @@
         <v>2.2</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU171" t="n">
         <v>1.86</v>
@@ -37846,7 +37846,7 @@
         <v>1.89</v>
       </c>
       <c r="AS184" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT184" t="n">
         <v>1.7</v>
@@ -38052,7 +38052,7 @@
         <v>1.7</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU185" t="n">
         <v>1.6</v>
@@ -39322,6 +39322,209 @@
       </c>
       <c r="BK191" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>2604171</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>44953.625</v>
+      </c>
+      <c r="F192" t="n">
+        <v>20</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Elversberg</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Rot-Weiss Essen</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" t="n">
+        <v>3</v>
+      </c>
+      <c r="M192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N192" t="n">
+        <v>3</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>['61', '70', '90']</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>4</v>
+      </c>
+      <c r="R192" t="n">
+        <v>0</v>
+      </c>
+      <c r="S192" t="n">
+        <v>4</v>
+      </c>
+      <c r="T192" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U192" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V192" t="n">
+        <v>5</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X192" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK192"/>
+  <dimension ref="A1:BK198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT12" t="n">
         <v>1.18</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT14" t="n">
         <v>1.56</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>2.2</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>2.45</v>
       </c>
       <c r="AT18" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT21" t="n">
         <v>0.5600000000000001</v>
@@ -6384,7 +6384,7 @@
         <v>2.11</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU29" t="n">
         <v>2.16</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU32" t="n">
         <v>1.92</v>
@@ -7196,7 +7196,7 @@
         <v>1.56</v>
       </c>
       <c r="AT33" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU33" t="n">
         <v>1.75</v>
@@ -7399,7 +7399,7 @@
         <v>2.45</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU34" t="n">
         <v>1.97</v>
@@ -8005,7 +8005,7 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT37" t="n">
         <v>1.22</v>
@@ -8208,10 +8208,10 @@
         <v>1</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU38" t="n">
         <v>1.37</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT39" t="n">
         <v>0.5600000000000001</v>
@@ -8817,10 +8817,10 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU41" t="n">
         <v>1.34</v>
@@ -9429,7 +9429,7 @@
         <v>1.22</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU44" t="n">
         <v>1.59</v>
@@ -9835,7 +9835,7 @@
         <v>2.22</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU46" t="n">
         <v>2.05</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT50" t="n">
         <v>1.5</v>
@@ -11050,7 +11050,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT52" t="n">
         <v>0.67</v>
@@ -11256,7 +11256,7 @@
         <v>2.11</v>
       </c>
       <c r="AT53" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU53" t="n">
         <v>1.92</v>
@@ -12065,10 +12065,10 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU57" t="n">
         <v>1.42</v>
@@ -12268,7 +12268,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT58" t="n">
         <v>1.18</v>
@@ -12474,7 +12474,7 @@
         <v>1</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU59" t="n">
         <v>0.99</v>
@@ -12877,10 +12877,10 @@
         <v>0</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU61" t="n">
         <v>1.63</v>
@@ -13489,7 +13489,7 @@
         <v>0.9</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU64" t="n">
         <v>1.5</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT66" t="n">
         <v>0.78</v>
@@ -14098,7 +14098,7 @@
         <v>2.1</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU67" t="n">
         <v>2.2</v>
@@ -14501,7 +14501,7 @@
         <v>3</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT69" t="n">
         <v>2.22</v>
@@ -15316,7 +15316,7 @@
         <v>1</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU73" t="n">
         <v>1.09</v>
@@ -15519,7 +15519,7 @@
         <v>2.22</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU74" t="n">
         <v>2.15</v>
@@ -15719,10 +15719,10 @@
         <v>1.67</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT75" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU75" t="n">
         <v>1.21</v>
@@ -16531,7 +16531,7 @@
         <v>2</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT79" t="n">
         <v>1.56</v>
@@ -16737,7 +16737,7 @@
         <v>1</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU80" t="n">
         <v>1.61</v>
@@ -16937,7 +16937,7 @@
         <v>0.67</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT81" t="n">
         <v>0.67</v>
@@ -17749,7 +17749,7 @@
         <v>1</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT85" t="n">
         <v>1.3</v>
@@ -17952,7 +17952,7 @@
         <v>2.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT86" t="n">
         <v>2.22</v>
@@ -18158,7 +18158,7 @@
         <v>1.3</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU87" t="n">
         <v>2.16</v>
@@ -18564,7 +18564,7 @@
         <v>2.1</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU89" t="n">
         <v>2.25</v>
@@ -18764,7 +18764,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT90" t="n">
         <v>1.5</v>
@@ -18970,7 +18970,7 @@
         <v>1.22</v>
       </c>
       <c r="AT91" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU91" t="n">
         <v>1.55</v>
@@ -19576,7 +19576,7 @@
         <v>2.25</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT94" t="n">
         <v>1.56</v>
@@ -19782,7 +19782,7 @@
         <v>1.78</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU95" t="n">
         <v>1.8</v>
@@ -20388,7 +20388,7 @@
         <v>0.25</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT98" t="n">
         <v>0.33</v>
@@ -20594,7 +20594,7 @@
         <v>1.56</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU99" t="n">
         <v>1.21</v>
@@ -21000,7 +21000,7 @@
         <v>1.56</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU101" t="n">
         <v>1.49</v>
@@ -21200,7 +21200,7 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT102" t="n">
         <v>1.3</v>
@@ -21809,7 +21809,7 @@
         <v>0.2</v>
       </c>
       <c r="AS105" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT105" t="n">
         <v>0.5</v>
@@ -22015,7 +22015,7 @@
         <v>2.2</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU106" t="n">
         <v>1.81</v>
@@ -22421,7 +22421,7 @@
         <v>2.7</v>
       </c>
       <c r="AT108" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU108" t="n">
         <v>1.73</v>
@@ -22624,7 +22624,7 @@
         <v>1.3</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU109" t="n">
         <v>2.07</v>
@@ -23027,7 +23027,7 @@
         <v>0.8</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT111" t="n">
         <v>0.89</v>
@@ -24451,7 +24451,7 @@
         <v>1.78</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU118" t="n">
         <v>1.77</v>
@@ -24651,7 +24651,7 @@
         <v>0.6</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT119" t="n">
         <v>0.78</v>
@@ -25060,7 +25060,7 @@
         <v>2.22</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU121" t="n">
         <v>2.28</v>
@@ -25263,7 +25263,7 @@
         <v>1.11</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU122" t="n">
         <v>1.53</v>
@@ -25669,7 +25669,7 @@
         <v>1.3</v>
       </c>
       <c r="AT124" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU124" t="n">
         <v>1.96</v>
@@ -25869,7 +25869,7 @@
         <v>0.83</v>
       </c>
       <c r="AS125" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT125" t="n">
         <v>0.89</v>
@@ -26275,7 +26275,7 @@
         <v>1</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT127" t="n">
         <v>1.3</v>
@@ -26481,7 +26481,7 @@
         <v>2.45</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU128" t="n">
         <v>1.89</v>
@@ -26684,7 +26684,7 @@
         <v>0.9</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU129" t="n">
         <v>1.64</v>
@@ -26884,7 +26884,7 @@
         <v>0.83</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT130" t="n">
         <v>1.1</v>
@@ -27087,7 +27087,7 @@
         <v>0.67</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT131" t="n">
         <v>0.5</v>
@@ -27902,7 +27902,7 @@
         <v>1.22</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU135" t="n">
         <v>1.5</v>
@@ -28102,7 +28102,7 @@
         <v>1.83</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT136" t="n">
         <v>1.22</v>
@@ -28714,7 +28714,7 @@
         <v>2.1</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU139" t="n">
         <v>1.92</v>
@@ -29320,7 +29320,7 @@
         <v>1.43</v>
       </c>
       <c r="AS142" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT142" t="n">
         <v>1.7</v>
@@ -29523,7 +29523,7 @@
         <v>0.57</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT143" t="n">
         <v>0.5</v>
@@ -30132,7 +30132,7 @@
         <v>0.17</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT146" t="n">
         <v>0.5600000000000001</v>
@@ -30338,7 +30338,7 @@
         <v>1.3</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU147" t="n">
         <v>1.84</v>
@@ -30538,10 +30538,10 @@
         <v>2</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU148" t="n">
         <v>1.64</v>
@@ -30947,7 +30947,7 @@
         <v>1.11</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU150" t="n">
         <v>1.45</v>
@@ -31150,7 +31150,7 @@
         <v>2.2</v>
       </c>
       <c r="AT151" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU151" t="n">
         <v>1.8</v>
@@ -31553,7 +31553,7 @@
         <v>2.43</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT153" t="n">
         <v>2.22</v>
@@ -32368,7 +32368,7 @@
         <v>1.78</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU157" t="n">
         <v>1.72</v>
@@ -32774,7 +32774,7 @@
         <v>2.7</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU159" t="n">
         <v>1.66</v>
@@ -33586,7 +33586,7 @@
         <v>1.3</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU163" t="n">
         <v>1.78</v>
@@ -33786,10 +33786,10 @@
         <v>1.75</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT164" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU164" t="n">
         <v>1.6</v>
@@ -33989,10 +33989,10 @@
         <v>0.38</v>
       </c>
       <c r="AS165" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU165" t="n">
         <v>1.64</v>
@@ -34192,7 +34192,7 @@
         <v>1.63</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT166" t="n">
         <v>1.7</v>
@@ -34395,10 +34395,10 @@
         <v>1.75</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU167" t="n">
         <v>1.64</v>
@@ -34601,7 +34601,7 @@
         <v>2.45</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU168" t="n">
         <v>2.12</v>
@@ -35413,7 +35413,7 @@
         <v>1.11</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU172" t="n">
         <v>1.44</v>
@@ -37034,7 +37034,7 @@
         <v>1</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT180" t="n">
         <v>0.89</v>
@@ -37443,7 +37443,7 @@
         <v>1.56</v>
       </c>
       <c r="AT182" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU182" t="n">
         <v>1.38</v>
@@ -37643,10 +37643,10 @@
         <v>1.38</v>
       </c>
       <c r="AS183" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU183" t="n">
         <v>1.63</v>
@@ -37849,7 +37849,7 @@
         <v>2.45</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU184" t="n">
         <v>2.05</v>
@@ -38049,7 +38049,7 @@
         <v>1.33</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT185" t="n">
         <v>1.18</v>
@@ -38458,7 +38458,7 @@
         <v>2.2</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU187" t="n">
         <v>1.85</v>
@@ -38861,7 +38861,7 @@
         <v>1.56</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT189" t="n">
         <v>1.7</v>
@@ -39064,7 +39064,7 @@
         <v>0.25</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT190" t="n">
         <v>0.5600000000000001</v>
@@ -39270,7 +39270,7 @@
         <v>1</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU191" t="n">
         <v>1.46</v>
@@ -39525,6 +39525,1224 @@
       </c>
       <c r="BK192" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>2604169</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>44954.41666666666</v>
+      </c>
+      <c r="F193" t="n">
+        <v>20</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>MSV Duisburg</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Osnabrück</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>2</v>
+      </c>
+      <c r="K193" t="n">
+        <v>2</v>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="n">
+        <v>2</v>
+      </c>
+      <c r="N193" t="n">
+        <v>3</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>['18', '36']</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>10</v>
+      </c>
+      <c r="R193" t="n">
+        <v>6</v>
+      </c>
+      <c r="S193" t="n">
+        <v>16</v>
+      </c>
+      <c r="T193" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U193" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V193" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X193" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>2604174</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>44954.41666666666</v>
+      </c>
+      <c r="F194" t="n">
+        <v>20</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Meppen</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>VfB Oldenburg</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
+      <c r="K194" t="n">
+        <v>2</v>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="n">
+        <v>2</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>9</v>
+      </c>
+      <c r="R194" t="n">
+        <v>5</v>
+      </c>
+      <c r="S194" t="n">
+        <v>14</v>
+      </c>
+      <c r="T194" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U194" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V194" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X194" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>2604175</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>44954.41666666666</v>
+      </c>
+      <c r="F195" t="n">
+        <v>20</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Hallescher FC</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Zwickau</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0</v>
+      </c>
+      <c r="M195" t="n">
+        <v>2</v>
+      </c>
+      <c r="N195" t="n">
+        <v>2</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>['18', '90']</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>9</v>
+      </c>
+      <c r="R195" t="n">
+        <v>3</v>
+      </c>
+      <c r="S195" t="n">
+        <v>12</v>
+      </c>
+      <c r="T195" t="n">
+        <v>3</v>
+      </c>
+      <c r="U195" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V195" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X195" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>2604176</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>44954.41666666666</v>
+      </c>
+      <c r="F196" t="n">
+        <v>20</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Verl</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Saarbrucken</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="n">
+        <v>2</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0</v>
+      </c>
+      <c r="N196" t="n">
+        <v>2</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>['20', '71']</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>4</v>
+      </c>
+      <c r="R196" t="n">
+        <v>9</v>
+      </c>
+      <c r="S196" t="n">
+        <v>13</v>
+      </c>
+      <c r="T196" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U196" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V196" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X196" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG196" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>2604177</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>44954.41666666666</v>
+      </c>
+      <c r="F197" t="n">
+        <v>20</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Bayreuth</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Ingolstadt</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>5</v>
+      </c>
+      <c r="R197" t="n">
+        <v>2</v>
+      </c>
+      <c r="S197" t="n">
+        <v>7</v>
+      </c>
+      <c r="T197" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U197" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V197" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X197" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>2604168</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>44954.41666666666</v>
+      </c>
+      <c r="F198" t="n">
+        <v>20</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Erzgebirge Aue</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Freiburg II</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>6</v>
+      </c>
+      <c r="R198" t="n">
+        <v>7</v>
+      </c>
+      <c r="S198" t="n">
+        <v>13</v>
+      </c>
+      <c r="T198" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U198" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V198" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X198" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK198"/>
+  <dimension ref="A1:BK200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT19" t="n">
         <v>1.55</v>
@@ -4760,7 +4760,7 @@
         <v>1.82</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT35" t="n">
         <v>1.18</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT36" t="n">
         <v>1.56</v>
@@ -8414,7 +8414,7 @@
         <v>0.82</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU39" t="n">
         <v>1.41</v>
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU40" t="n">
         <v>1.56</v>
@@ -11459,7 +11459,7 @@
         <v>1.56</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU54" t="n">
         <v>1.67</v>
@@ -11662,7 +11662,7 @@
         <v>2.45</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU55" t="n">
         <v>2.13</v>
@@ -11862,7 +11862,7 @@
         <v>3</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT56" t="n">
         <v>1.22</v>
@@ -12471,7 +12471,7 @@
         <v>1.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT59" t="n">
         <v>1.5</v>
@@ -14910,7 +14910,7 @@
         <v>1.78</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU71" t="n">
         <v>1.95</v>
@@ -15313,7 +15313,7 @@
         <v>0.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT73" t="n">
         <v>1.1</v>
@@ -15925,7 +15925,7 @@
         <v>1.56</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU76" t="n">
         <v>1.58</v>
@@ -16328,7 +16328,7 @@
         <v>0</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT78" t="n">
         <v>0.33</v>
@@ -17549,7 +17549,7 @@
         <v>2.7</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU84" t="n">
         <v>1.8</v>
@@ -19373,7 +19373,7 @@
         <v>1.75</v>
       </c>
       <c r="AS93" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT93" t="n">
         <v>1.22</v>
@@ -20188,7 +20188,7 @@
         <v>2.11</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU97" t="n">
         <v>1.78</v>
@@ -20591,7 +20591,7 @@
         <v>1</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT99" t="n">
         <v>1.1</v>
@@ -21406,7 +21406,7 @@
         <v>1.11</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU103" t="n">
         <v>1.66</v>
@@ -23842,7 +23842,7 @@
         <v>2.1</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU115" t="n">
         <v>1.96</v>
@@ -24042,7 +24042,7 @@
         <v>2.6</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT116" t="n">
         <v>2.22</v>
@@ -24854,7 +24854,7 @@
         <v>1</v>
       </c>
       <c r="AS120" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT120" t="n">
         <v>1.5</v>
@@ -26075,7 +26075,7 @@
         <v>2.2</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU126" t="n">
         <v>1.78</v>
@@ -27493,7 +27493,7 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT133" t="n">
         <v>0.78</v>
@@ -29323,7 +29323,7 @@
         <v>0.82</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU142" t="n">
         <v>1.54</v>
@@ -29929,7 +29929,7 @@
         <v>0.71</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT145" t="n">
         <v>1.1</v>
@@ -30135,7 +30135,7 @@
         <v>1.27</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU146" t="n">
         <v>1.59</v>
@@ -32162,7 +32162,7 @@
         <v>1.25</v>
       </c>
       <c r="AS156" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT156" t="n">
         <v>1.3</v>
@@ -33380,7 +33380,7 @@
         <v>0.63</v>
       </c>
       <c r="AS162" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT162" t="n">
         <v>1.1</v>
@@ -34195,7 +34195,7 @@
         <v>1.82</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU166" t="n">
         <v>1.63</v>
@@ -34804,7 +34804,7 @@
         <v>0.9</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU169" t="n">
         <v>1.63</v>
@@ -35004,7 +35004,7 @@
         <v>0.63</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT170" t="n">
         <v>0.5</v>
@@ -37440,7 +37440,7 @@
         <v>1.89</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT182" t="n">
         <v>1.82</v>
@@ -38864,7 +38864,7 @@
         <v>1.27</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU189" t="n">
         <v>1.54</v>
@@ -39067,7 +39067,7 @@
         <v>1</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU190" t="n">
         <v>1.64</v>
@@ -39267,7 +39267,7 @@
         <v>0.67</v>
       </c>
       <c r="AS191" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT191" t="n">
         <v>1.09</v>
@@ -40743,6 +40743,412 @@
       </c>
       <c r="BK198" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>2604173</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>44955.375</v>
+      </c>
+      <c r="F199" t="n">
+        <v>20</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Viktoria Köln</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Waldhof Mannheim</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>2</v>
+      </c>
+      <c r="K199" t="n">
+        <v>2</v>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="n">
+        <v>4</v>
+      </c>
+      <c r="N199" t="n">
+        <v>5</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>['5', '23', '61', '90']</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>7</v>
+      </c>
+      <c r="R199" t="n">
+        <v>5</v>
+      </c>
+      <c r="S199" t="n">
+        <v>12</v>
+      </c>
+      <c r="T199" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U199" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V199" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X199" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>2604172</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>44955.41666666666</v>
+      </c>
+      <c r="F200" t="n">
+        <v>20</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund II</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Wehen Wiesbaden</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0</v>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>2</v>
+      </c>
+      <c r="R200" t="n">
+        <v>7</v>
+      </c>
+      <c r="S200" t="n">
+        <v>9</v>
+      </c>
+      <c r="T200" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="U200" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V200" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X200" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK200"/>
+  <dimension ref="A1:BK201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3339,7 +3339,7 @@
         <v>1.27</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT17" t="n">
         <v>1.1</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT25" t="n">
         <v>0.67</v>
@@ -7805,7 +7805,7 @@
         <v>1.4</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU36" t="n">
         <v>1.04</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT42" t="n">
         <v>0.33</v>
@@ -12677,7 +12677,7 @@
         <v>1</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU60" t="n">
         <v>1.69</v>
@@ -13283,7 +13283,7 @@
         <v>2</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT63" t="n">
         <v>1.5</v>
@@ -16534,7 +16534,7 @@
         <v>1</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU79" t="n">
         <v>1.76</v>
@@ -17140,7 +17140,7 @@
         <v>0.5</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT82" t="n">
         <v>1.1</v>
@@ -19579,7 +19579,7 @@
         <v>1.4</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU94" t="n">
         <v>1.23</v>
@@ -22012,7 +22012,7 @@
         <v>1.6</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT106" t="n">
         <v>1.55</v>
@@ -24248,7 +24248,7 @@
         <v>1.22</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU117" t="n">
         <v>1.51</v>
@@ -26072,7 +26072,7 @@
         <v>1.67</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT126" t="n">
         <v>1.82</v>
@@ -28511,7 +28511,7 @@
         <v>2.7</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU138" t="n">
         <v>1.69</v>
@@ -31147,7 +31147,7 @@
         <v>1.57</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT151" t="n">
         <v>1.82</v>
@@ -31353,7 +31353,7 @@
         <v>2.22</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU152" t="n">
         <v>2.19</v>
@@ -35207,7 +35207,7 @@
         <v>1.38</v>
       </c>
       <c r="AS171" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT171" t="n">
         <v>1.18</v>
@@ -38455,7 +38455,7 @@
         <v>0.67</v>
       </c>
       <c r="AS187" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT187" t="n">
         <v>0.82</v>
@@ -38661,7 +38661,7 @@
         <v>0.9</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU188" t="n">
         <v>1.58</v>
@@ -41149,6 +41149,209 @@
       </c>
       <c r="BK200" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>2604170</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>44956.625</v>
+      </c>
+      <c r="F201" t="n">
+        <v>20</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>1860 München</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Dynamo Dresden</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="n">
+        <v>2</v>
+      </c>
+      <c r="N201" t="n">
+        <v>3</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>['56', '76']</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>9</v>
+      </c>
+      <c r="R201" t="n">
+        <v>3</v>
+      </c>
+      <c r="S201" t="n">
+        <v>12</v>
+      </c>
+      <c r="T201" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U201" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V201" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X201" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK201"/>
+  <dimension ref="A1:BK208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT2" t="n">
         <v>1.5</v>
@@ -1106,7 +1106,7 @@
         <v>0.9</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>2.7</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.22</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT7" t="n">
         <v>1.22</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT8" t="n">
         <v>0.78</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>0.9</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU22" t="n">
         <v>2.04</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT23" t="n">
         <v>1.5</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU24" t="n">
         <v>1.07</v>
@@ -5572,7 +5572,7 @@
         <v>2</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU25" t="n">
         <v>2.24</v>
@@ -5775,7 +5775,7 @@
         <v>1.22</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU26" t="n">
         <v>1.37</v>
@@ -5975,10 +5975,10 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU27" t="n">
         <v>1.77</v>
@@ -6181,7 +6181,7 @@
         <v>2.7</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU28" t="n">
         <v>1.92</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT29" t="n">
         <v>1.55</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU30" t="n">
         <v>1.98</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT31" t="n">
         <v>0.78</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT33" t="n">
         <v>1.82</v>
@@ -9023,7 +9023,7 @@
         <v>2</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU42" t="n">
         <v>2.1</v>
@@ -9223,10 +9223,10 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU43" t="n">
         <v>2.18</v>
@@ -9629,10 +9629,10 @@
         <v>1.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU45" t="n">
         <v>2.15</v>
@@ -9832,7 +9832,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT46" t="n">
         <v>1.09</v>
@@ -10038,7 +10038,7 @@
         <v>2.7</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU47" t="n">
         <v>1.65</v>
@@ -10238,10 +10238,10 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU48" t="n">
         <v>2.06</v>
@@ -10847,10 +10847,10 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU51" t="n">
         <v>1.95</v>
@@ -11053,7 +11053,7 @@
         <v>1.27</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU52" t="n">
         <v>1.75</v>
@@ -11253,7 +11253,7 @@
         <v>2</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT53" t="n">
         <v>1.82</v>
@@ -11456,7 +11456,7 @@
         <v>1.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT54" t="n">
         <v>1.82</v>
@@ -13083,7 +13083,7 @@
         <v>1.22</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU62" t="n">
         <v>1.51</v>
@@ -13689,10 +13689,10 @@
         <v>0.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU65" t="n">
         <v>2.45</v>
@@ -14095,7 +14095,7 @@
         <v>2.33</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT67" t="n">
         <v>1.55</v>
@@ -14301,7 +14301,7 @@
         <v>2.7</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU68" t="n">
         <v>1.65</v>
@@ -14504,7 +14504,7 @@
         <v>0.82</v>
       </c>
       <c r="AT69" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU69" t="n">
         <v>1.59</v>
@@ -14704,10 +14704,10 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU70" t="n">
         <v>1.87</v>
@@ -14907,7 +14907,7 @@
         <v>2</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT71" t="n">
         <v>1.82</v>
@@ -15110,7 +15110,7 @@
         <v>0.67</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT72" t="n">
         <v>1.18</v>
@@ -15516,7 +15516,7 @@
         <v>2</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT74" t="n">
         <v>1.5</v>
@@ -15922,7 +15922,7 @@
         <v>0.33</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT76" t="n">
         <v>0.8</v>
@@ -16331,7 +16331,7 @@
         <v>1.4</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU78" t="n">
         <v>1.22</v>
@@ -16940,7 +16940,7 @@
         <v>1.82</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU81" t="n">
         <v>1.51</v>
@@ -17143,7 +17143,7 @@
         <v>2</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU82" t="n">
         <v>1.9</v>
@@ -17346,7 +17346,7 @@
         <v>0.9</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU83" t="n">
         <v>1.69</v>
@@ -17752,7 +17752,7 @@
         <v>0.82</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU85" t="n">
         <v>1.59</v>
@@ -17955,7 +17955,7 @@
         <v>1.27</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU86" t="n">
         <v>1.57</v>
@@ -18155,7 +18155,7 @@
         <v>1.75</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT87" t="n">
         <v>1.55</v>
@@ -18358,10 +18358,10 @@
         <v>0.25</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU88" t="n">
         <v>1.9</v>
@@ -18561,7 +18561,7 @@
         <v>0.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT89" t="n">
         <v>1.09</v>
@@ -19173,7 +19173,7 @@
         <v>1</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU92" t="n">
         <v>1.56</v>
@@ -19779,7 +19779,7 @@
         <v>1.5</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT95" t="n">
         <v>1.5</v>
@@ -20185,7 +20185,7 @@
         <v>0.25</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT97" t="n">
         <v>0.8</v>
@@ -20391,7 +20391,7 @@
         <v>1</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU98" t="n">
         <v>1.69</v>
@@ -20794,7 +20794,7 @@
         <v>0.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT100" t="n">
         <v>1.18</v>
@@ -20997,7 +20997,7 @@
         <v>0.75</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT101" t="n">
         <v>0.82</v>
@@ -21203,7 +21203,7 @@
         <v>1.82</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU102" t="n">
         <v>1.61</v>
@@ -21403,7 +21403,7 @@
         <v>1.4</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT103" t="n">
         <v>1.82</v>
@@ -21812,7 +21812,7 @@
         <v>0.82</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU105" t="n">
         <v>1.59</v>
@@ -22218,7 +22218,7 @@
         <v>0.9</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU107" t="n">
         <v>1.65</v>
@@ -22621,7 +22621,7 @@
         <v>0.6</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT109" t="n">
         <v>1.09</v>
@@ -22824,7 +22824,7 @@
         <v>0.4</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT110" t="n">
         <v>1.18</v>
@@ -23030,7 +23030,7 @@
         <v>1.27</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU111" t="n">
         <v>1.54</v>
@@ -23233,7 +23233,7 @@
         <v>1</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU112" t="n">
         <v>1.55</v>
@@ -23433,10 +23433,10 @@
         <v>0.6</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU113" t="n">
         <v>1.51</v>
@@ -23636,7 +23636,7 @@
         <v>1.6</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT114" t="n">
         <v>1.22</v>
@@ -23839,7 +23839,7 @@
         <v>0.2</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT115" t="n">
         <v>0.8</v>
@@ -24045,7 +24045,7 @@
         <v>1.4</v>
       </c>
       <c r="AT116" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU116" t="n">
         <v>1.25</v>
@@ -24448,7 +24448,7 @@
         <v>0.8</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT118" t="n">
         <v>0.82</v>
@@ -25057,7 +25057,7 @@
         <v>1.4</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT121" t="n">
         <v>1.1</v>
@@ -25260,7 +25260,7 @@
         <v>1.4</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT122" t="n">
         <v>1.5</v>
@@ -25666,7 +25666,7 @@
         <v>1.33</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT124" t="n">
         <v>1.82</v>
@@ -25872,7 +25872,7 @@
         <v>0.82</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU125" t="n">
         <v>1.53</v>
@@ -26278,7 +26278,7 @@
         <v>1</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU127" t="n">
         <v>1.68</v>
@@ -26887,7 +26887,7 @@
         <v>1.82</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU130" t="n">
         <v>1.6</v>
@@ -27090,7 +27090,7 @@
         <v>1.27</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU131" t="n">
         <v>1.47</v>
@@ -27290,7 +27290,7 @@
         <v>0.86</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT132" t="n">
         <v>1.5</v>
@@ -27696,10 +27696,10 @@
         <v>0.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU134" t="n">
         <v>1.69</v>
@@ -28308,7 +28308,7 @@
         <v>1</v>
       </c>
       <c r="AT137" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU137" t="n">
         <v>1.66</v>
@@ -28711,7 +28711,7 @@
         <v>1.17</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT139" t="n">
         <v>1.1</v>
@@ -28914,10 +28914,10 @@
         <v>1</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU140" t="n">
         <v>1.51</v>
@@ -29117,10 +29117,10 @@
         <v>0.33</v>
       </c>
       <c r="AS141" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU141" t="n">
         <v>2</v>
@@ -29526,7 +29526,7 @@
         <v>1</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU143" t="n">
         <v>1.66</v>
@@ -29729,7 +29729,7 @@
         <v>2.45</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU144" t="n">
         <v>2.01</v>
@@ -29932,7 +29932,7 @@
         <v>1.4</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU145" t="n">
         <v>1.23</v>
@@ -30335,7 +30335,7 @@
         <v>1.67</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT147" t="n">
         <v>1.5</v>
@@ -30944,7 +30944,7 @@
         <v>0.43</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT150" t="n">
         <v>1.09</v>
@@ -31350,7 +31350,7 @@
         <v>1.57</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT152" t="n">
         <v>1.7</v>
@@ -31556,7 +31556,7 @@
         <v>1.4</v>
       </c>
       <c r="AT153" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU153" t="n">
         <v>1.35</v>
@@ -31959,10 +31959,10 @@
         <v>0.29</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU155" t="n">
         <v>1.45</v>
@@ -32165,7 +32165,7 @@
         <v>0.91</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU156" t="n">
         <v>1.49</v>
@@ -32365,7 +32365,7 @@
         <v>1</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT157" t="n">
         <v>1.1</v>
@@ -32568,7 +32568,7 @@
         <v>1.57</v>
       </c>
       <c r="AS158" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT158" t="n">
         <v>1.22</v>
@@ -32974,7 +32974,7 @@
         <v>0.86</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT160" t="n">
         <v>0.78</v>
@@ -33180,7 +33180,7 @@
         <v>1.22</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU161" t="n">
         <v>1.53</v>
@@ -33383,7 +33383,7 @@
         <v>0.91</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU162" t="n">
         <v>1.4</v>
@@ -33583,7 +33583,7 @@
         <v>0.63</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT163" t="n">
         <v>0.82</v>
@@ -35007,7 +35007,7 @@
         <v>1.4</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU170" t="n">
         <v>1.29</v>
@@ -35410,7 +35410,7 @@
         <v>0.88</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT172" t="n">
         <v>1.1</v>
@@ -35613,7 +35613,7 @@
         <v>0.75</v>
       </c>
       <c r="AS173" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT173" t="n">
         <v>0.78</v>
@@ -35816,7 +35816,7 @@
         <v>1.33</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT174" t="n">
         <v>1.5</v>
@@ -36022,7 +36022,7 @@
         <v>1.22</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU175" t="n">
         <v>1.51</v>
@@ -36425,10 +36425,10 @@
         <v>1.44</v>
       </c>
       <c r="AS177" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU177" t="n">
         <v>1.89</v>
@@ -36628,10 +36628,10 @@
         <v>2.5</v>
       </c>
       <c r="AS178" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT178" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU178" t="n">
         <v>2.11</v>
@@ -36831,10 +36831,10 @@
         <v>0.63</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU179" t="n">
         <v>1.76</v>
@@ -37037,7 +37037,7 @@
         <v>1.4</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU180" t="n">
         <v>1.3</v>
@@ -37237,10 +37237,10 @@
         <v>0.89</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU181" t="n">
         <v>1.56</v>
@@ -38255,7 +38255,7 @@
         <v>1</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU186" t="n">
         <v>1.73</v>
@@ -41352,6 +41352,1427 @@
       </c>
       <c r="BK201" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>2604187</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>44960.625</v>
+      </c>
+      <c r="F202" t="n">
+        <v>21</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Freiburg II</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Bayreuth</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>1</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="n">
+        <v>2</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N202" t="n">
+        <v>2</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['4', '90+5']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>4</v>
+      </c>
+      <c r="R202" t="n">
+        <v>6</v>
+      </c>
+      <c r="S202" t="n">
+        <v>10</v>
+      </c>
+      <c r="T202" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U202" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V202" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X202" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>2604185</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>44961.41666666666</v>
+      </c>
+      <c r="F203" t="n">
+        <v>21</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Zwickau</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Meppen</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="n">
+        <v>2</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>7</v>
+      </c>
+      <c r="R203" t="n">
+        <v>3</v>
+      </c>
+      <c r="S203" t="n">
+        <v>10</v>
+      </c>
+      <c r="T203" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U203" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V203" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X203" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>2604184</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>44961.41666666666</v>
+      </c>
+      <c r="F204" t="n">
+        <v>21</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Dynamo Dresden</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Hallescher FC</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>3</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>3</v>
+      </c>
+      <c r="L204" t="n">
+        <v>7</v>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="n">
+        <v>8</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>['9', '42', '45+1', '55', '57', '90', '90+2']</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>3</v>
+      </c>
+      <c r="R204" t="n">
+        <v>5</v>
+      </c>
+      <c r="S204" t="n">
+        <v>8</v>
+      </c>
+      <c r="T204" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U204" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V204" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X204" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>2604186</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>44961.41666666666</v>
+      </c>
+      <c r="F205" t="n">
+        <v>21</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Saarbrucken</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Elversberg</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>3</v>
+      </c>
+      <c r="K205" t="n">
+        <v>3</v>
+      </c>
+      <c r="L205" t="n">
+        <v>0</v>
+      </c>
+      <c r="M205" t="n">
+        <v>4</v>
+      </c>
+      <c r="N205" t="n">
+        <v>4</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>['32', '39', '45+4', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>4</v>
+      </c>
+      <c r="R205" t="n">
+        <v>4</v>
+      </c>
+      <c r="S205" t="n">
+        <v>8</v>
+      </c>
+      <c r="T205" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U205" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V205" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X205" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>2604179</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>44961.41666666666</v>
+      </c>
+      <c r="F206" t="n">
+        <v>21</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Osnabrück</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Erzgebirge Aue</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>1</v>
+      </c>
+      <c r="J206" t="n">
+        <v>1</v>
+      </c>
+      <c r="K206" t="n">
+        <v>2</v>
+      </c>
+      <c r="L206" t="n">
+        <v>3</v>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="n">
+        <v>4</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>['8', '57', '79']</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>5</v>
+      </c>
+      <c r="R206" t="n">
+        <v>5</v>
+      </c>
+      <c r="S206" t="n">
+        <v>10</v>
+      </c>
+      <c r="T206" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U206" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V206" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X206" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>2604181</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>44961.41666666666</v>
+      </c>
+      <c r="F207" t="n">
+        <v>21</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Ingolstadt</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund II</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>2</v>
+      </c>
+      <c r="K207" t="n">
+        <v>2</v>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="n">
+        <v>2</v>
+      </c>
+      <c r="N207" t="n">
+        <v>3</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>['40', '42']</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>2</v>
+      </c>
+      <c r="R207" t="n">
+        <v>5</v>
+      </c>
+      <c r="S207" t="n">
+        <v>7</v>
+      </c>
+      <c r="T207" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U207" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V207" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X207" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>2604178</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>44961.41666666666</v>
+      </c>
+      <c r="F208" t="n">
+        <v>21</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Wehen Wiesbaden</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Viktoria Köln</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="n">
+        <v>2</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>['46']</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>4</v>
+      </c>
+      <c r="R208" t="n">
+        <v>3</v>
+      </c>
+      <c r="S208" t="n">
+        <v>7</v>
+      </c>
+      <c r="T208" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U208" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V208" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X208" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK208"/>
+  <dimension ref="A1:BK210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.2</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT3" t="n">
         <v>0.7</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT6" t="n">
         <v>2.3</v>
@@ -1918,7 +1918,7 @@
         <v>1.45</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT22" t="n">
         <v>2.3</v>
@@ -5166,7 +5166,7 @@
         <v>1.1</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU23" t="n">
         <v>1.75</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT26" t="n">
         <v>1.27</v>
@@ -8008,7 +8008,7 @@
         <v>1.82</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU37" t="n">
         <v>1.73</v>
@@ -9426,7 +9426,7 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT44" t="n">
         <v>1.55</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT49" t="n">
         <v>0.78</v>
@@ -10647,7 +10647,7 @@
         <v>0.82</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU50" t="n">
         <v>1.78</v>
@@ -11865,7 +11865,7 @@
         <v>1.4</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU56" t="n">
         <v>1.26</v>
@@ -13080,7 +13080,7 @@
         <v>0.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT62" t="n">
         <v>1</v>
@@ -13286,7 +13286,7 @@
         <v>2</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU63" t="n">
         <v>1.93</v>
@@ -13486,7 +13486,7 @@
         <v>0.67</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT64" t="n">
         <v>1.09</v>
@@ -16128,7 +16128,7 @@
         <v>2.45</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU77" t="n">
         <v>2.1</v>
@@ -17343,7 +17343,7 @@
         <v>0</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT83" t="n">
         <v>0.45</v>
@@ -18767,7 +18767,7 @@
         <v>1.82</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU90" t="n">
         <v>1.66</v>
@@ -18967,7 +18967,7 @@
         <v>2</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT91" t="n">
         <v>1.82</v>
@@ -19376,7 +19376,7 @@
         <v>0.91</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU93" t="n">
         <v>1.31</v>
@@ -21609,7 +21609,7 @@
         <v>2.45</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU104" t="n">
         <v>1.9</v>
@@ -22215,7 +22215,7 @@
         <v>0.4</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT107" t="n">
         <v>1</v>
@@ -23639,7 +23639,7 @@
         <v>2.2</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU114" t="n">
         <v>1.95</v>
@@ -24245,7 +24245,7 @@
         <v>2</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT117" t="n">
         <v>1.7</v>
@@ -24857,7 +24857,7 @@
         <v>0.91</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU120" t="n">
         <v>1.34</v>
@@ -26681,7 +26681,7 @@
         <v>1.83</v>
       </c>
       <c r="AS129" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT129" t="n">
         <v>1.55</v>
@@ -27293,7 +27293,7 @@
         <v>2.1</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU132" t="n">
         <v>2.35</v>
@@ -27899,7 +27899,7 @@
         <v>0.67</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT135" t="n">
         <v>0.82</v>
@@ -28105,7 +28105,7 @@
         <v>1.4</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU136" t="n">
         <v>1.35</v>
@@ -30741,7 +30741,7 @@
         <v>1.14</v>
       </c>
       <c r="AS149" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT149" t="n">
         <v>1.18</v>
@@ -31759,7 +31759,7 @@
         <v>1</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU154" t="n">
         <v>1.71</v>
@@ -32571,7 +32571,7 @@
         <v>2.18</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU158" t="n">
         <v>2.04</v>
@@ -33177,7 +33177,7 @@
         <v>0.57</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT161" t="n">
         <v>0.7</v>
@@ -34801,7 +34801,7 @@
         <v>0.14</v>
       </c>
       <c r="AS169" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT169" t="n">
         <v>0.8</v>
@@ -35819,7 +35819,7 @@
         <v>1.6</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU174" t="n">
         <v>1.78</v>
@@ -36019,7 +36019,7 @@
         <v>0.25</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT175" t="n">
         <v>0.3</v>
@@ -36225,7 +36225,7 @@
         <v>2.7</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU176" t="n">
         <v>1.75</v>
@@ -38658,7 +38658,7 @@
         <v>1.38</v>
       </c>
       <c r="AS188" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT188" t="n">
         <v>1.7</v>
@@ -42773,6 +42773,412 @@
       </c>
       <c r="BK208" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>2604180</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>44962.375</v>
+      </c>
+      <c r="F209" t="n">
+        <v>21</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>VfB Oldenburg</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>1860 München</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L209" t="n">
+        <v>2</v>
+      </c>
+      <c r="M209" t="n">
+        <v>2</v>
+      </c>
+      <c r="N209" t="n">
+        <v>4</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>['90', '90+4']</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>['58', '83']</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>8</v>
+      </c>
+      <c r="R209" t="n">
+        <v>5</v>
+      </c>
+      <c r="S209" t="n">
+        <v>13</v>
+      </c>
+      <c r="T209" t="n">
+        <v>5</v>
+      </c>
+      <c r="U209" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V209" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X209" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG209" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH209" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ209" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>2604183</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>44962.41666666666</v>
+      </c>
+      <c r="F210" t="n">
+        <v>21</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Rot-Weiss Essen</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>MSV Duisburg</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="n">
+        <v>2</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>5</v>
+      </c>
+      <c r="R210" t="n">
+        <v>1</v>
+      </c>
+      <c r="S210" t="n">
+        <v>6</v>
+      </c>
+      <c r="T210" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U210" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V210" t="n">
+        <v>4</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X210" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF210" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ210" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK210" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK210"/>
+  <dimension ref="A1:BK211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AT5" t="n">
         <v>1.27</v>
@@ -2121,7 +2121,7 @@
         <v>1.6</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AT28" t="n">
         <v>1</v>
@@ -6790,7 +6790,7 @@
         <v>1.45</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU31" t="n">
         <v>2.32</v>
@@ -10035,7 +10035,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AT47" t="n">
         <v>1.1</v>
@@ -10444,7 +10444,7 @@
         <v>0.91</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU49" t="n">
         <v>1.55</v>
@@ -13895,7 +13895,7 @@
         <v>1.27</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU66" t="n">
         <v>1.48</v>
@@ -14298,7 +14298,7 @@
         <v>0</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AT68" t="n">
         <v>0.45</v>
@@ -17546,7 +17546,7 @@
         <v>1.75</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AT84" t="n">
         <v>1.82</v>
@@ -19985,7 +19985,7 @@
         <v>2.45</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU96" t="n">
         <v>1.97</v>
@@ -22418,7 +22418,7 @@
         <v>1.6</v>
       </c>
       <c r="AS108" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AT108" t="n">
         <v>1.82</v>
@@ -24654,7 +24654,7 @@
         <v>1.4</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU119" t="n">
         <v>1.3</v>
@@ -25463,7 +25463,7 @@
         <v>0.83</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AT123" t="n">
         <v>1.18</v>
@@ -27496,7 +27496,7 @@
         <v>0.91</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU133" t="n">
         <v>1.46</v>
@@ -28508,7 +28508,7 @@
         <v>1.83</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AT138" t="n">
         <v>1.7</v>
@@ -32771,7 +32771,7 @@
         <v>0.71</v>
       </c>
       <c r="AS159" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AT159" t="n">
         <v>0.82</v>
@@ -32977,7 +32977,7 @@
         <v>2.2</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU160" t="n">
         <v>2.02</v>
@@ -35616,7 +35616,7 @@
         <v>2.18</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU173" t="n">
         <v>2.04</v>
@@ -36222,7 +36222,7 @@
         <v>1.38</v>
       </c>
       <c r="AS176" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AT176" t="n">
         <v>1.2</v>
@@ -43179,6 +43179,209 @@
       </c>
       <c r="BK210" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>2604182</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>44963.625</v>
+      </c>
+      <c r="F211" t="n">
+        <v>21</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Waldhof Mannheim</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Verl</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" t="n">
+        <v>1</v>
+      </c>
+      <c r="K211" t="n">
+        <v>2</v>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="n">
+        <v>2</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q211" t="n">
+        <v>9</v>
+      </c>
+      <c r="R211" t="n">
+        <v>1</v>
+      </c>
+      <c r="S211" t="n">
+        <v>10</v>
+      </c>
+      <c r="T211" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U211" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V211" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X211" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA211" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC211" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD211" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE211" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BF211" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG211" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH211" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI211" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ211" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK211" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="316">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -685,6 +685,9 @@
     <t>['90', '90+4']</t>
   </si>
   <si>
+    <t>['20', '40']</t>
+  </si>
+  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -1320,7 +1323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK211"/>
+  <dimension ref="A1:BK212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2137,7 +2140,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2328,7 +2331,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2519,7 +2522,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -3092,7 +3095,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3474,7 +3477,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3665,7 +3668,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3856,7 +3859,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -4620,7 +4623,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4811,7 +4814,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -5089,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT20">
         <v>1.09</v>
@@ -5193,7 +5196,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5283,7 +5286,7 @@
         <v>1.82</v>
       </c>
       <c r="AT21">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5384,7 +5387,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5575,7 +5578,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -6148,7 +6151,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6721,7 +6724,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -8058,7 +8061,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8631,7 +8634,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8721,7 +8724,7 @@
         <v>0.82</v>
       </c>
       <c r="AT39">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU39">
         <v>1.41</v>
@@ -8822,7 +8825,7 @@
         <v>98</v>
       </c>
       <c r="P40" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -8909,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT40">
         <v>1.82</v>
@@ -9204,7 +9207,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9395,7 +9398,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9586,7 +9589,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10732,7 +10735,7 @@
         <v>96</v>
       </c>
       <c r="P50" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11305,7 +11308,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11496,7 +11499,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11777,7 +11780,7 @@
         <v>2.45</v>
       </c>
       <c r="AT55">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU55">
         <v>2.13</v>
@@ -12451,7 +12454,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12642,7 +12645,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -12729,7 +12732,7 @@
         <v>1.5</v>
       </c>
       <c r="AS60">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT60">
         <v>1.7</v>
@@ -13406,7 +13409,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14170,7 +14173,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -14743,7 +14746,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15125,7 +15128,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15507,7 +15510,7 @@
         <v>96</v>
       </c>
       <c r="P75" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15788,7 +15791,7 @@
         <v>1.4</v>
       </c>
       <c r="AT76">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU76">
         <v>1.58</v>
@@ -15889,7 +15892,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16080,7 +16083,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16462,7 +16465,7 @@
         <v>96</v>
       </c>
       <c r="P80" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16549,7 +16552,7 @@
         <v>0</v>
       </c>
       <c r="AS80">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT80">
         <v>0.82</v>
@@ -16653,7 +16656,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16844,7 +16847,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -17035,7 +17038,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17417,7 +17420,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17608,7 +17611,7 @@
         <v>89</v>
       </c>
       <c r="P86" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17990,7 +17993,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -18841,7 +18844,7 @@
         <v>0.75</v>
       </c>
       <c r="AS92">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT92">
         <v>0.7</v>
@@ -19327,7 +19330,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19518,7 +19521,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19799,7 +19802,7 @@
         <v>2.2</v>
       </c>
       <c r="AT97">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU97">
         <v>1.78</v>
@@ -20091,7 +20094,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q99">
         <v>10</v>
@@ -20664,7 +20667,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q102">
         <v>1</v>
@@ -21428,7 +21431,7 @@
         <v>106</v>
       </c>
       <c r="P106" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21619,7 +21622,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -22001,7 +22004,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -22192,7 +22195,7 @@
         <v>96</v>
       </c>
       <c r="P110" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22574,7 +22577,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22661,7 +22664,7 @@
         <v>0.2</v>
       </c>
       <c r="AS112">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT112">
         <v>0.3</v>
@@ -22765,7 +22768,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q113">
         <v>1</v>
@@ -22956,7 +22959,7 @@
         <v>96</v>
       </c>
       <c r="P114" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q114">
         <v>15</v>
@@ -23147,7 +23150,7 @@
         <v>168</v>
       </c>
       <c r="P115" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -23237,7 +23240,7 @@
         <v>2.18</v>
       </c>
       <c r="AT115">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU115">
         <v>1.96</v>
@@ -23338,7 +23341,7 @@
         <v>96</v>
       </c>
       <c r="P116" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23720,7 +23723,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -23911,7 +23914,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -24293,7 +24296,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q121">
         <v>8</v>
@@ -24675,7 +24678,7 @@
         <v>174</v>
       </c>
       <c r="P123" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24866,7 +24869,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25057,7 +25060,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25439,7 +25442,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25630,7 +25633,7 @@
         <v>178</v>
       </c>
       <c r="P128" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q128">
         <v>10</v>
@@ -25821,7 +25824,7 @@
         <v>96</v>
       </c>
       <c r="P129" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -26012,7 +26015,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -26394,7 +26397,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q132">
         <v>13</v>
@@ -27436,7 +27439,7 @@
         <v>2.67</v>
       </c>
       <c r="AS137">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT137">
         <v>2.3</v>
@@ -27922,7 +27925,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28113,7 +28116,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28304,7 +28307,7 @@
         <v>96</v>
       </c>
       <c r="P142" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q142">
         <v>10</v>
@@ -28495,7 +28498,7 @@
         <v>160</v>
       </c>
       <c r="P143" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -29158,7 +29161,7 @@
         <v>1.27</v>
       </c>
       <c r="AT146">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU146">
         <v>1.59</v>
@@ -29641,7 +29644,7 @@
         <v>191</v>
       </c>
       <c r="P149" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q149">
         <v>9</v>
@@ -29832,7 +29835,7 @@
         <v>192</v>
       </c>
       <c r="P150" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -30023,7 +30026,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q151">
         <v>8</v>
@@ -30405,7 +30408,7 @@
         <v>96</v>
       </c>
       <c r="P153" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q153">
         <v>3</v>
@@ -30596,7 +30599,7 @@
         <v>96</v>
       </c>
       <c r="P154" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q154">
         <v>12</v>
@@ -30683,7 +30686,7 @@
         <v>1.13</v>
       </c>
       <c r="AS154">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT154">
         <v>1.45</v>
@@ -30978,7 +30981,7 @@
         <v>96</v>
       </c>
       <c r="P156" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -32506,7 +32509,7 @@
         <v>151</v>
       </c>
       <c r="P164" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32697,7 +32700,7 @@
         <v>96</v>
       </c>
       <c r="P165" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -33079,7 +33082,7 @@
         <v>96</v>
       </c>
       <c r="P167" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q167">
         <v>9</v>
@@ -33461,7 +33464,7 @@
         <v>164</v>
       </c>
       <c r="P169" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33551,7 +33554,7 @@
         <v>0.91</v>
       </c>
       <c r="AT169">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU169">
         <v>1.63</v>
@@ -33843,7 +33846,7 @@
         <v>105</v>
       </c>
       <c r="P171" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q171">
         <v>8</v>
@@ -34034,7 +34037,7 @@
         <v>96</v>
       </c>
       <c r="P172" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q172">
         <v>12</v>
@@ -34225,7 +34228,7 @@
         <v>91</v>
       </c>
       <c r="P173" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -34416,7 +34419,7 @@
         <v>202</v>
       </c>
       <c r="P174" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q174">
         <v>17</v>
@@ -35371,7 +35374,7 @@
         <v>86</v>
       </c>
       <c r="P179" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q179">
         <v>10</v>
@@ -35753,7 +35756,7 @@
         <v>207</v>
       </c>
       <c r="P181" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q181">
         <v>13</v>
@@ -35944,7 +35947,7 @@
         <v>96</v>
       </c>
       <c r="P182" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -36135,7 +36138,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q183">
         <v>7</v>
@@ -36326,7 +36329,7 @@
         <v>209</v>
       </c>
       <c r="P184" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36795,7 +36798,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS186">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT186">
         <v>0.45</v>
@@ -37090,7 +37093,7 @@
         <v>213</v>
       </c>
       <c r="P188" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -37281,7 +37284,7 @@
         <v>214</v>
       </c>
       <c r="P189" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q189">
         <v>7</v>
@@ -37472,7 +37475,7 @@
         <v>119</v>
       </c>
       <c r="P190" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -37562,7 +37565,7 @@
         <v>1</v>
       </c>
       <c r="AT190">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU190">
         <v>1.64</v>
@@ -37663,7 +37666,7 @@
         <v>130</v>
       </c>
       <c r="P191" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q191">
         <v>8</v>
@@ -38045,7 +38048,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q193">
         <v>10</v>
@@ -38236,7 +38239,7 @@
         <v>205</v>
       </c>
       <c r="P194" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q194">
         <v>9</v>
@@ -38427,7 +38430,7 @@
         <v>96</v>
       </c>
       <c r="P195" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q195">
         <v>9</v>
@@ -39087,7 +39090,7 @@
         <v>1.56</v>
       </c>
       <c r="AS198">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT198">
         <v>1.5</v>
@@ -39191,7 +39194,7 @@
         <v>151</v>
       </c>
       <c r="P199" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q199">
         <v>7</v>
@@ -39281,7 +39284,7 @@
         <v>1.4</v>
       </c>
       <c r="AT199">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU199">
         <v>1.35</v>
@@ -39573,7 +39576,7 @@
         <v>87</v>
       </c>
       <c r="P201" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q201">
         <v>9</v>
@@ -40337,7 +40340,7 @@
         <v>96</v>
       </c>
       <c r="P205" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -40528,7 +40531,7 @@
         <v>220</v>
       </c>
       <c r="P206" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q206">
         <v>5</v>
@@ -40719,7 +40722,7 @@
         <v>221</v>
       </c>
       <c r="P207" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q207">
         <v>2</v>
@@ -41101,7 +41104,7 @@
         <v>222</v>
       </c>
       <c r="P209" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q209">
         <v>8</v>
@@ -41483,7 +41486,7 @@
         <v>119</v>
       </c>
       <c r="P211" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q211">
         <v>9</v>
@@ -41625,6 +41628,197 @@
       </c>
       <c r="BK211">
         <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:63">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>2604188</v>
+      </c>
+      <c r="C212" t="s">
+        <v>63</v>
+      </c>
+      <c r="D212" t="s">
+        <v>64</v>
+      </c>
+      <c r="E212" s="2">
+        <v>44967.625</v>
+      </c>
+      <c r="F212">
+        <v>22</v>
+      </c>
+      <c r="G212" t="s">
+        <v>83</v>
+      </c>
+      <c r="H212" t="s">
+        <v>68</v>
+      </c>
+      <c r="I212">
+        <v>2</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>2</v>
+      </c>
+      <c r="L212">
+        <v>2</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
+      </c>
+      <c r="N212">
+        <v>3</v>
+      </c>
+      <c r="O212" t="s">
+        <v>223</v>
+      </c>
+      <c r="P212" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q212">
+        <v>6</v>
+      </c>
+      <c r="R212">
+        <v>4</v>
+      </c>
+      <c r="S212">
+        <v>10</v>
+      </c>
+      <c r="T212">
+        <v>3</v>
+      </c>
+      <c r="U212">
+        <v>2.15</v>
+      </c>
+      <c r="V212">
+        <v>3.1</v>
+      </c>
+      <c r="W212">
+        <v>1.36</v>
+      </c>
+      <c r="X212">
+        <v>3</v>
+      </c>
+      <c r="Y212">
+        <v>2.62</v>
+      </c>
+      <c r="Z212">
+        <v>1.44</v>
+      </c>
+      <c r="AA212">
+        <v>6</v>
+      </c>
+      <c r="AB212">
+        <v>1.11</v>
+      </c>
+      <c r="AC212">
+        <v>2.65</v>
+      </c>
+      <c r="AD212">
+        <v>3.15</v>
+      </c>
+      <c r="AE212">
+        <v>2.45</v>
+      </c>
+      <c r="AF212">
+        <v>1.05</v>
+      </c>
+      <c r="AG212">
+        <v>9</v>
+      </c>
+      <c r="AH212">
+        <v>1.25</v>
+      </c>
+      <c r="AI212">
+        <v>3.75</v>
+      </c>
+      <c r="AJ212">
+        <v>1.69</v>
+      </c>
+      <c r="AK212">
+        <v>1.86</v>
+      </c>
+      <c r="AL212">
+        <v>1.67</v>
+      </c>
+      <c r="AM212">
+        <v>2.1</v>
+      </c>
+      <c r="AN212">
+        <v>1.45</v>
+      </c>
+      <c r="AO212">
+        <v>1.3</v>
+      </c>
+      <c r="AP212">
+        <v>1.5</v>
+      </c>
+      <c r="AQ212">
+        <v>1</v>
+      </c>
+      <c r="AR212">
+        <v>0.8</v>
+      </c>
+      <c r="AS212">
+        <v>1.18</v>
+      </c>
+      <c r="AT212">
+        <v>0.73</v>
+      </c>
+      <c r="AU212">
+        <v>1.63</v>
+      </c>
+      <c r="AV212">
+        <v>1.47</v>
+      </c>
+      <c r="AW212">
+        <v>3.1</v>
+      </c>
+      <c r="AX212">
+        <v>2.12</v>
+      </c>
+      <c r="AY212">
+        <v>8.1</v>
+      </c>
+      <c r="AZ212">
+        <v>1.96</v>
+      </c>
+      <c r="BA212">
+        <v>1.2</v>
+      </c>
+      <c r="BB212">
+        <v>1.48</v>
+      </c>
+      <c r="BC212">
+        <v>1.73</v>
+      </c>
+      <c r="BD212">
+        <v>2.1</v>
+      </c>
+      <c r="BE212">
+        <v>2.7</v>
+      </c>
+      <c r="BF212">
+        <v>8</v>
+      </c>
+      <c r="BG212">
+        <v>3</v>
+      </c>
+      <c r="BH212">
+        <v>5</v>
+      </c>
+      <c r="BI212">
+        <v>8</v>
+      </c>
+      <c r="BJ212">
+        <v>13</v>
+      </c>
+      <c r="BK212">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="328">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -688,6 +688,24 @@
     <t>['20', '40']</t>
   </si>
   <si>
+    <t>['19', '58']</t>
+  </si>
+  <si>
+    <t>['11', '68']</t>
+  </si>
+  <si>
+    <t>['24', '41', '49', '68']</t>
+  </si>
+  <si>
+    <t>['8', '17', '54']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['81', '90+10']</t>
+  </si>
+  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -962,6 +980,24 @@
   </si>
   <si>
     <t>['12']</t>
+  </si>
+  <si>
+    <t>['35', '54', '72']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['45+2', '84']</t>
+  </si>
+  <si>
+    <t>['28', '41', '89']</t>
+  </si>
+  <si>
+    <t>['2', '27', '45+3', '73']</t>
+  </si>
+  <si>
+    <t>['50', '53', '61']</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK212"/>
+  <dimension ref="A1:BK220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2036,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT4">
         <v>0.45</v>
@@ -2140,7 +2176,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2331,7 +2367,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2522,7 +2558,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2612,7 +2648,7 @@
         <v>1.45</v>
       </c>
       <c r="AT7">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -3095,7 +3131,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3477,7 +3513,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3564,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT12">
         <v>1.18</v>
@@ -3668,7 +3704,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3755,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT13">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3859,7 +3895,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3946,10 +3982,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT14">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4137,10 +4173,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT15">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4331,7 +4367,7 @@
         <v>1.4</v>
       </c>
       <c r="AT16">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4522,7 +4558,7 @@
         <v>2</v>
       </c>
       <c r="AT17">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4623,7 +4659,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4710,10 +4746,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT18">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4814,7 +4850,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -4901,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT19">
         <v>1.55</v>
@@ -5095,7 +5131,7 @@
         <v>1.18</v>
       </c>
       <c r="AT20">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5196,7 +5232,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5283,7 +5319,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT21">
         <v>0.73</v>
@@ -5387,7 +5423,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5578,7 +5614,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -6151,7 +6187,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6724,7 +6760,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7384,10 +7420,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT32">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU32">
         <v>1.92</v>
@@ -7575,10 +7611,10 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT33">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU33">
         <v>1.75</v>
@@ -7766,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT34">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU34">
         <v>1.97</v>
@@ -7957,7 +7993,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT35">
         <v>1.18</v>
@@ -8061,7 +8097,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8151,7 +8187,7 @@
         <v>1.4</v>
       </c>
       <c r="AT36">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU36">
         <v>1.04</v>
@@ -8339,10 +8375,10 @@
         <v>3</v>
       </c>
       <c r="AS37">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT37">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU37">
         <v>1.73</v>
@@ -8530,10 +8566,10 @@
         <v>1</v>
       </c>
       <c r="AS38">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT38">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU38">
         <v>1.37</v>
@@ -8634,7 +8670,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8721,7 +8757,7 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT39">
         <v>0.73</v>
@@ -8825,7 +8861,7 @@
         <v>98</v>
       </c>
       <c r="P40" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -8915,7 +8951,7 @@
         <v>1.18</v>
       </c>
       <c r="AT40">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU40">
         <v>1.56</v>
@@ -9103,10 +9139,10 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT41">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU41">
         <v>1.34</v>
@@ -9207,7 +9243,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9398,7 +9434,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9589,7 +9625,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10061,7 +10097,7 @@
         <v>2.1</v>
       </c>
       <c r="AT46">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU46">
         <v>2.05</v>
@@ -10735,7 +10771,7 @@
         <v>96</v>
       </c>
       <c r="P50" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10822,7 +10858,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT50">
         <v>1.45</v>
@@ -11204,7 +11240,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT52">
         <v>0.7</v>
@@ -11308,7 +11344,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11398,7 +11434,7 @@
         <v>2.2</v>
       </c>
       <c r="AT53">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU53">
         <v>1.92</v>
@@ -11499,7 +11535,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11586,10 +11622,10 @@
         <v>1.5</v>
       </c>
       <c r="AS54">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT54">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU54">
         <v>1.67</v>
@@ -11777,7 +11813,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT55">
         <v>0.73</v>
@@ -11971,7 +12007,7 @@
         <v>1.4</v>
       </c>
       <c r="AT56">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU56">
         <v>1.26</v>
@@ -12159,10 +12195,10 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT57">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU57">
         <v>1.42</v>
@@ -12350,7 +12386,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT58">
         <v>1.18</v>
@@ -12454,7 +12490,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12541,10 +12577,10 @@
         <v>1.5</v>
       </c>
       <c r="AS59">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT59">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU59">
         <v>0.99</v>
@@ -12645,7 +12681,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -12735,7 +12771,7 @@
         <v>1.18</v>
       </c>
       <c r="AT60">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU60">
         <v>1.69</v>
@@ -12923,10 +12959,10 @@
         <v>0</v>
       </c>
       <c r="AS61">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT61">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU61">
         <v>1.63</v>
@@ -13409,7 +13445,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13499,7 +13535,7 @@
         <v>0.91</v>
       </c>
       <c r="AT64">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU64">
         <v>1.5</v>
@@ -13878,7 +13914,7 @@
         <v>0</v>
       </c>
       <c r="AS66">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT66">
         <v>0.8</v>
@@ -14173,7 +14209,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -14451,7 +14487,7 @@
         <v>3</v>
       </c>
       <c r="AS69">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT69">
         <v>2.3</v>
@@ -14746,7 +14782,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14836,7 +14872,7 @@
         <v>1.6</v>
       </c>
       <c r="AT71">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU71">
         <v>1.95</v>
@@ -15128,7 +15164,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15215,10 +15251,10 @@
         <v>0.33</v>
       </c>
       <c r="AS73">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT73">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU73">
         <v>1.09</v>
@@ -15409,7 +15445,7 @@
         <v>2.1</v>
       </c>
       <c r="AT74">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU74">
         <v>2.15</v>
@@ -15510,7 +15546,7 @@
         <v>96</v>
       </c>
       <c r="P75" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15597,10 +15633,10 @@
         <v>1.67</v>
       </c>
       <c r="AS75">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT75">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU75">
         <v>1.21</v>
@@ -15788,7 +15824,7 @@
         <v>0.33</v>
       </c>
       <c r="AS76">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT76">
         <v>0.73</v>
@@ -15892,7 +15928,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15979,10 +16015,10 @@
         <v>2.33</v>
       </c>
       <c r="AS77">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT77">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU77">
         <v>2.1</v>
@@ -16083,7 +16119,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16361,10 +16397,10 @@
         <v>2</v>
       </c>
       <c r="AS79">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT79">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU79">
         <v>1.76</v>
@@ -16465,7 +16501,7 @@
         <v>96</v>
       </c>
       <c r="P80" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16555,7 +16591,7 @@
         <v>1.18</v>
       </c>
       <c r="AT80">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU80">
         <v>1.61</v>
@@ -16656,7 +16692,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16743,7 +16779,7 @@
         <v>0.67</v>
       </c>
       <c r="AS81">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT81">
         <v>0.7</v>
@@ -16847,7 +16883,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -17038,7 +17074,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17319,7 +17355,7 @@
         <v>2.55</v>
       </c>
       <c r="AT84">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU84">
         <v>1.8</v>
@@ -17420,7 +17456,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17507,7 +17543,7 @@
         <v>1</v>
       </c>
       <c r="AS85">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT85">
         <v>1.27</v>
@@ -17611,7 +17647,7 @@
         <v>89</v>
       </c>
       <c r="P86" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17698,7 +17734,7 @@
         <v>2.5</v>
       </c>
       <c r="AS86">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT86">
         <v>2.3</v>
@@ -17993,7 +18029,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -18274,7 +18310,7 @@
         <v>2.18</v>
       </c>
       <c r="AT89">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU89">
         <v>2.25</v>
@@ -18462,7 +18498,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT90">
         <v>1.45</v>
@@ -18656,7 +18692,7 @@
         <v>1.2</v>
       </c>
       <c r="AT91">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU91">
         <v>1.55</v>
@@ -19035,10 +19071,10 @@
         <v>1.75</v>
       </c>
       <c r="AS93">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT93">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU93">
         <v>1.31</v>
@@ -19226,10 +19262,10 @@
         <v>2.25</v>
       </c>
       <c r="AS94">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT94">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU94">
         <v>1.23</v>
@@ -19330,7 +19366,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19420,7 +19456,7 @@
         <v>1.6</v>
       </c>
       <c r="AT95">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU95">
         <v>1.8</v>
@@ -19521,7 +19557,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19608,7 +19644,7 @@
         <v>0</v>
       </c>
       <c r="AS96">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT96">
         <v>0.8</v>
@@ -19990,7 +20026,7 @@
         <v>0.25</v>
       </c>
       <c r="AS98">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT98">
         <v>0.3</v>
@@ -20094,7 +20130,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q99">
         <v>10</v>
@@ -20184,7 +20220,7 @@
         <v>1.4</v>
       </c>
       <c r="AT99">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU99">
         <v>1.21</v>
@@ -20563,10 +20599,10 @@
         <v>0.75</v>
       </c>
       <c r="AS101">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT101">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU101">
         <v>1.49</v>
@@ -20667,7 +20703,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q102">
         <v>1</v>
@@ -20754,7 +20790,7 @@
         <v>1</v>
       </c>
       <c r="AS102">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT102">
         <v>1.27</v>
@@ -20948,7 +20984,7 @@
         <v>1.1</v>
       </c>
       <c r="AT103">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU103">
         <v>1.66</v>
@@ -21136,7 +21172,7 @@
         <v>1.2</v>
       </c>
       <c r="AS104">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT104">
         <v>1.45</v>
@@ -21327,7 +21363,7 @@
         <v>0.2</v>
       </c>
       <c r="AS105">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT105">
         <v>0.45</v>
@@ -21431,7 +21467,7 @@
         <v>106</v>
       </c>
       <c r="P106" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21622,7 +21658,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21903,7 +21939,7 @@
         <v>2.55</v>
       </c>
       <c r="AT108">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU108">
         <v>1.73</v>
@@ -22004,7 +22040,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -22094,7 +22130,7 @@
         <v>1.45</v>
       </c>
       <c r="AT109">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU109">
         <v>2.07</v>
@@ -22195,7 +22231,7 @@
         <v>96</v>
       </c>
       <c r="P110" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22473,7 +22509,7 @@
         <v>0.8</v>
       </c>
       <c r="AS111">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT111">
         <v>1.1</v>
@@ -22577,7 +22613,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22768,7 +22804,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q113">
         <v>1</v>
@@ -22855,7 +22891,7 @@
         <v>0.6</v>
       </c>
       <c r="AS113">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT113">
         <v>0.7</v>
@@ -22959,7 +22995,7 @@
         <v>96</v>
       </c>
       <c r="P114" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q114">
         <v>15</v>
@@ -23049,7 +23085,7 @@
         <v>2.2</v>
       </c>
       <c r="AT114">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU114">
         <v>1.95</v>
@@ -23150,7 +23186,7 @@
         <v>168</v>
       </c>
       <c r="P115" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -23341,7 +23377,7 @@
         <v>96</v>
       </c>
       <c r="P116" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23622,7 +23658,7 @@
         <v>1.2</v>
       </c>
       <c r="AT117">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU117">
         <v>1.51</v>
@@ -23723,7 +23759,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -23813,7 +23849,7 @@
         <v>1.6</v>
       </c>
       <c r="AT118">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU118">
         <v>1.77</v>
@@ -23914,7 +23950,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -24001,7 +24037,7 @@
         <v>0.6</v>
       </c>
       <c r="AS119">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT119">
         <v>0.8</v>
@@ -24192,7 +24228,7 @@
         <v>1</v>
       </c>
       <c r="AS120">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT120">
         <v>1.45</v>
@@ -24296,7 +24332,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q121">
         <v>8</v>
@@ -24386,7 +24422,7 @@
         <v>2.1</v>
       </c>
       <c r="AT121">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU121">
         <v>2.28</v>
@@ -24577,7 +24613,7 @@
         <v>1.1</v>
       </c>
       <c r="AT122">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU122">
         <v>1.53</v>
@@ -24678,7 +24714,7 @@
         <v>174</v>
       </c>
       <c r="P123" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24869,7 +24905,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -24959,7 +24995,7 @@
         <v>1.45</v>
       </c>
       <c r="AT124">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU124">
         <v>1.96</v>
@@ -25060,7 +25096,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25147,7 +25183,7 @@
         <v>0.83</v>
       </c>
       <c r="AS125">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT125">
         <v>1.1</v>
@@ -25341,7 +25377,7 @@
         <v>2</v>
       </c>
       <c r="AT126">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU126">
         <v>1.78</v>
@@ -25442,7 +25478,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25529,7 +25565,7 @@
         <v>1</v>
       </c>
       <c r="AS127">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT127">
         <v>1.27</v>
@@ -25633,7 +25669,7 @@
         <v>178</v>
       </c>
       <c r="P128" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q128">
         <v>10</v>
@@ -25720,10 +25756,10 @@
         <v>0.5</v>
       </c>
       <c r="AS128">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT128">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU128">
         <v>1.89</v>
@@ -25824,7 +25860,7 @@
         <v>96</v>
       </c>
       <c r="P129" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -26015,7 +26051,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -26102,7 +26138,7 @@
         <v>0.83</v>
       </c>
       <c r="AS130">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT130">
         <v>1</v>
@@ -26293,7 +26329,7 @@
         <v>0.67</v>
       </c>
       <c r="AS131">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT131">
         <v>0.45</v>
@@ -26397,7 +26433,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q132">
         <v>13</v>
@@ -26675,7 +26711,7 @@
         <v>1</v>
       </c>
       <c r="AS133">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT133">
         <v>0.8</v>
@@ -27060,7 +27096,7 @@
         <v>1.2</v>
       </c>
       <c r="AT135">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU135">
         <v>1.5</v>
@@ -27248,10 +27284,10 @@
         <v>1.83</v>
       </c>
       <c r="AS136">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT136">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU136">
         <v>1.35</v>
@@ -27633,7 +27669,7 @@
         <v>2.55</v>
       </c>
       <c r="AT138">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU138">
         <v>1.69</v>
@@ -27824,7 +27860,7 @@
         <v>2.18</v>
       </c>
       <c r="AT139">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU139">
         <v>1.92</v>
@@ -27925,7 +27961,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28012,7 +28048,7 @@
         <v>1</v>
       </c>
       <c r="AS140">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT140">
         <v>1.27</v>
@@ -28116,7 +28152,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28307,7 +28343,7 @@
         <v>96</v>
       </c>
       <c r="P142" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q142">
         <v>10</v>
@@ -28394,10 +28430,10 @@
         <v>1.43</v>
       </c>
       <c r="AS142">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT142">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU142">
         <v>1.54</v>
@@ -28498,7 +28534,7 @@
         <v>160</v>
       </c>
       <c r="P143" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28585,7 +28621,7 @@
         <v>0.57</v>
       </c>
       <c r="AS143">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT143">
         <v>0.45</v>
@@ -28776,7 +28812,7 @@
         <v>1.14</v>
       </c>
       <c r="AS144">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT144">
         <v>1.1</v>
@@ -29158,7 +29194,7 @@
         <v>0.17</v>
       </c>
       <c r="AS146">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT146">
         <v>0.73</v>
@@ -29352,7 +29388,7 @@
         <v>1.45</v>
       </c>
       <c r="AT147">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU147">
         <v>1.84</v>
@@ -29540,7 +29576,7 @@
         <v>2</v>
       </c>
       <c r="AS148">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT148">
         <v>1.55</v>
@@ -29644,7 +29680,7 @@
         <v>191</v>
       </c>
       <c r="P149" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q149">
         <v>9</v>
@@ -29835,7 +29871,7 @@
         <v>192</v>
       </c>
       <c r="P150" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -29925,7 +29961,7 @@
         <v>1.1</v>
       </c>
       <c r="AT150">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU150">
         <v>1.45</v>
@@ -30026,7 +30062,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q151">
         <v>8</v>
@@ -30116,7 +30152,7 @@
         <v>2</v>
       </c>
       <c r="AT151">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU151">
         <v>1.8</v>
@@ -30307,7 +30343,7 @@
         <v>2.1</v>
       </c>
       <c r="AT152">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU152">
         <v>2.19</v>
@@ -30408,7 +30444,7 @@
         <v>96</v>
       </c>
       <c r="P153" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q153">
         <v>3</v>
@@ -30495,7 +30531,7 @@
         <v>2.43</v>
       </c>
       <c r="AS153">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT153">
         <v>2.3</v>
@@ -30599,7 +30635,7 @@
         <v>96</v>
       </c>
       <c r="P154" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q154">
         <v>12</v>
@@ -30877,7 +30913,7 @@
         <v>0.29</v>
       </c>
       <c r="AS155">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT155">
         <v>0.3</v>
@@ -30981,7 +31017,7 @@
         <v>96</v>
       </c>
       <c r="P156" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -31068,7 +31104,7 @@
         <v>1.25</v>
       </c>
       <c r="AS156">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT156">
         <v>1.27</v>
@@ -31262,7 +31298,7 @@
         <v>1.6</v>
       </c>
       <c r="AT157">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU157">
         <v>1.72</v>
@@ -31453,7 +31489,7 @@
         <v>2.18</v>
       </c>
       <c r="AT158">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU158">
         <v>2.04</v>
@@ -31644,7 +31680,7 @@
         <v>2.55</v>
       </c>
       <c r="AT159">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU159">
         <v>1.66</v>
@@ -32214,7 +32250,7 @@
         <v>0.63</v>
       </c>
       <c r="AS162">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT162">
         <v>1</v>
@@ -32408,7 +32444,7 @@
         <v>1.45</v>
       </c>
       <c r="AT163">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU163">
         <v>1.78</v>
@@ -32509,7 +32545,7 @@
         <v>151</v>
       </c>
       <c r="P164" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32596,10 +32632,10 @@
         <v>1.75</v>
       </c>
       <c r="AS164">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT164">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU164">
         <v>1.6</v>
@@ -32700,7 +32736,7 @@
         <v>96</v>
       </c>
       <c r="P165" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -32787,10 +32823,10 @@
         <v>0.38</v>
       </c>
       <c r="AS165">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT165">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU165">
         <v>1.64</v>
@@ -32978,10 +33014,10 @@
         <v>1.63</v>
       </c>
       <c r="AS166">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT166">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU166">
         <v>1.63</v>
@@ -33082,7 +33118,7 @@
         <v>96</v>
       </c>
       <c r="P167" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q167">
         <v>9</v>
@@ -33169,7 +33205,7 @@
         <v>1.75</v>
       </c>
       <c r="AS167">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT167">
         <v>1.55</v>
@@ -33360,10 +33396,10 @@
         <v>1.57</v>
       </c>
       <c r="AS168">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT168">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU168">
         <v>2.12</v>
@@ -33464,7 +33500,7 @@
         <v>164</v>
       </c>
       <c r="P169" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33846,7 +33882,7 @@
         <v>105</v>
       </c>
       <c r="P171" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q171">
         <v>8</v>
@@ -34037,7 +34073,7 @@
         <v>96</v>
       </c>
       <c r="P172" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q172">
         <v>12</v>
@@ -34127,7 +34163,7 @@
         <v>1.1</v>
       </c>
       <c r="AT172">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU172">
         <v>1.44</v>
@@ -34228,7 +34264,7 @@
         <v>91</v>
       </c>
       <c r="P173" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -34419,7 +34455,7 @@
         <v>202</v>
       </c>
       <c r="P174" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q174">
         <v>17</v>
@@ -34891,7 +34927,7 @@
         <v>2.55</v>
       </c>
       <c r="AT176">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU176">
         <v>1.75</v>
@@ -35374,7 +35410,7 @@
         <v>86</v>
       </c>
       <c r="P179" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q179">
         <v>10</v>
@@ -35652,7 +35688,7 @@
         <v>1</v>
       </c>
       <c r="AS180">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT180">
         <v>1.1</v>
@@ -35756,7 +35792,7 @@
         <v>207</v>
       </c>
       <c r="P181" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q181">
         <v>13</v>
@@ -35843,7 +35879,7 @@
         <v>0.89</v>
       </c>
       <c r="AS181">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT181">
         <v>1</v>
@@ -35947,7 +35983,7 @@
         <v>96</v>
       </c>
       <c r="P182" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -36037,7 +36073,7 @@
         <v>1.4</v>
       </c>
       <c r="AT182">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU182">
         <v>1.38</v>
@@ -36138,7 +36174,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q183">
         <v>7</v>
@@ -36225,10 +36261,10 @@
         <v>1.38</v>
       </c>
       <c r="AS183">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT183">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU183">
         <v>1.63</v>
@@ -36329,7 +36365,7 @@
         <v>209</v>
       </c>
       <c r="P184" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36416,7 +36452,7 @@
         <v>1.89</v>
       </c>
       <c r="AS184">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT184">
         <v>1.55</v>
@@ -36607,7 +36643,7 @@
         <v>1.33</v>
       </c>
       <c r="AS185">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT185">
         <v>1.18</v>
@@ -36992,7 +37028,7 @@
         <v>2</v>
       </c>
       <c r="AT187">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU187">
         <v>1.85</v>
@@ -37093,7 +37129,7 @@
         <v>213</v>
       </c>
       <c r="P188" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -37183,7 +37219,7 @@
         <v>0.91</v>
       </c>
       <c r="AT188">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU188">
         <v>1.58</v>
@@ -37284,7 +37320,7 @@
         <v>214</v>
       </c>
       <c r="P189" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q189">
         <v>7</v>
@@ -37371,10 +37407,10 @@
         <v>1.56</v>
       </c>
       <c r="AS189">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT189">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU189">
         <v>1.54</v>
@@ -37475,7 +37511,7 @@
         <v>119</v>
       </c>
       <c r="P190" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -37562,7 +37598,7 @@
         <v>0.25</v>
       </c>
       <c r="AS190">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT190">
         <v>0.73</v>
@@ -37666,7 +37702,7 @@
         <v>130</v>
       </c>
       <c r="P191" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q191">
         <v>8</v>
@@ -37753,10 +37789,10 @@
         <v>0.67</v>
       </c>
       <c r="AS191">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT191">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU191">
         <v>1.46</v>
@@ -37944,7 +37980,7 @@
         <v>1.3</v>
       </c>
       <c r="AS192">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT192">
         <v>1.18</v>
@@ -38048,7 +38084,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q193">
         <v>10</v>
@@ -38135,10 +38171,10 @@
         <v>0.9</v>
       </c>
       <c r="AS193">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT193">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU193">
         <v>1.57</v>
@@ -38239,7 +38275,7 @@
         <v>205</v>
       </c>
       <c r="P194" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q194">
         <v>9</v>
@@ -38326,10 +38362,10 @@
         <v>1.11</v>
       </c>
       <c r="AS194">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT194">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU194">
         <v>1.64</v>
@@ -38430,7 +38466,7 @@
         <v>96</v>
       </c>
       <c r="P195" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q195">
         <v>9</v>
@@ -38517,10 +38553,10 @@
         <v>0.6</v>
       </c>
       <c r="AS195">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT195">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU195">
         <v>1.63</v>
@@ -38708,10 +38744,10 @@
         <v>2</v>
       </c>
       <c r="AS196">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT196">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU196">
         <v>1.65</v>
@@ -38899,7 +38935,7 @@
         <v>1.7</v>
       </c>
       <c r="AS197">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT197">
         <v>1.55</v>
@@ -39093,7 +39129,7 @@
         <v>1.18</v>
       </c>
       <c r="AT198">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU198">
         <v>1.7</v>
@@ -39194,7 +39230,7 @@
         <v>151</v>
       </c>
       <c r="P199" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q199">
         <v>7</v>
@@ -39472,10 +39508,10 @@
         <v>1.7</v>
       </c>
       <c r="AS200">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT200">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU200">
         <v>1.47</v>
@@ -39576,7 +39612,7 @@
         <v>87</v>
       </c>
       <c r="P201" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q201">
         <v>9</v>
@@ -39666,7 +39702,7 @@
         <v>2</v>
       </c>
       <c r="AT201">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU201">
         <v>1.86</v>
@@ -40340,7 +40376,7 @@
         <v>96</v>
       </c>
       <c r="P205" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -40531,7 +40567,7 @@
         <v>220</v>
       </c>
       <c r="P206" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q206">
         <v>5</v>
@@ -40722,7 +40758,7 @@
         <v>221</v>
       </c>
       <c r="P207" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q207">
         <v>2</v>
@@ -40809,7 +40845,7 @@
         <v>0.89</v>
       </c>
       <c r="AS207">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT207">
         <v>1.1</v>
@@ -41104,7 +41140,7 @@
         <v>222</v>
       </c>
       <c r="P209" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q209">
         <v>8</v>
@@ -41194,7 +41230,7 @@
         <v>0.91</v>
       </c>
       <c r="AT209">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU209">
         <v>1.56</v>
@@ -41486,7 +41522,7 @@
         <v>119</v>
       </c>
       <c r="P211" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q211">
         <v>9</v>
@@ -41819,6 +41855,1534 @@
       </c>
       <c r="BK212">
         <v>11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:63">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>2604195</v>
+      </c>
+      <c r="C213" t="s">
+        <v>63</v>
+      </c>
+      <c r="D213" t="s">
+        <v>64</v>
+      </c>
+      <c r="E213" s="2">
+        <v>44968.41666666666</v>
+      </c>
+      <c r="F213">
+        <v>22</v>
+      </c>
+      <c r="G213" t="s">
+        <v>77</v>
+      </c>
+      <c r="H213" t="s">
+        <v>72</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213">
+        <v>1</v>
+      </c>
+      <c r="K213">
+        <v>2</v>
+      </c>
+      <c r="L213">
+        <v>1</v>
+      </c>
+      <c r="M213">
+        <v>3</v>
+      </c>
+      <c r="N213">
+        <v>4</v>
+      </c>
+      <c r="O213" t="s">
+        <v>147</v>
+      </c>
+      <c r="P213" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q213">
+        <v>6</v>
+      </c>
+      <c r="R213">
+        <v>8</v>
+      </c>
+      <c r="S213">
+        <v>14</v>
+      </c>
+      <c r="T213">
+        <v>3.5</v>
+      </c>
+      <c r="U213">
+        <v>2.1</v>
+      </c>
+      <c r="V213">
+        <v>2.8</v>
+      </c>
+      <c r="W213">
+        <v>1.38</v>
+      </c>
+      <c r="X213">
+        <v>2.8</v>
+      </c>
+      <c r="Y213">
+        <v>2.7</v>
+      </c>
+      <c r="Z213">
+        <v>1.4</v>
+      </c>
+      <c r="AA213">
+        <v>7</v>
+      </c>
+      <c r="AB213">
+        <v>1.08</v>
+      </c>
+      <c r="AC213">
+        <v>2.8</v>
+      </c>
+      <c r="AD213">
+        <v>3.3</v>
+      </c>
+      <c r="AE213">
+        <v>2.2</v>
+      </c>
+      <c r="AF213">
+        <v>1.06</v>
+      </c>
+      <c r="AG213">
+        <v>8</v>
+      </c>
+      <c r="AH213">
+        <v>1.3</v>
+      </c>
+      <c r="AI213">
+        <v>3.3</v>
+      </c>
+      <c r="AJ213">
+        <v>1.95</v>
+      </c>
+      <c r="AK213">
+        <v>1.8</v>
+      </c>
+      <c r="AL213">
+        <v>1.75</v>
+      </c>
+      <c r="AM213">
+        <v>1.95</v>
+      </c>
+      <c r="AN213">
+        <v>1.6</v>
+      </c>
+      <c r="AO213">
+        <v>1.25</v>
+      </c>
+      <c r="AP213">
+        <v>1.38</v>
+      </c>
+      <c r="AQ213">
+        <v>1.27</v>
+      </c>
+      <c r="AR213">
+        <v>1.5</v>
+      </c>
+      <c r="AS213">
+        <v>1.17</v>
+      </c>
+      <c r="AT213">
+        <v>1.64</v>
+      </c>
+      <c r="AU213">
+        <v>1.71</v>
+      </c>
+      <c r="AV213">
+        <v>1.26</v>
+      </c>
+      <c r="AW213">
+        <v>2.97</v>
+      </c>
+      <c r="AX213">
+        <v>1.99</v>
+      </c>
+      <c r="AY213">
+        <v>7.5</v>
+      </c>
+      <c r="AZ213">
+        <v>2.13</v>
+      </c>
+      <c r="BA213">
+        <v>1.2</v>
+      </c>
+      <c r="BB213">
+        <v>1.43</v>
+      </c>
+      <c r="BC213">
+        <v>1.7</v>
+      </c>
+      <c r="BD213">
+        <v>2.1</v>
+      </c>
+      <c r="BE213">
+        <v>2.63</v>
+      </c>
+      <c r="BF213">
+        <v>6</v>
+      </c>
+      <c r="BG213">
+        <v>7</v>
+      </c>
+      <c r="BH213">
+        <v>5</v>
+      </c>
+      <c r="BI213">
+        <v>4</v>
+      </c>
+      <c r="BJ213">
+        <v>11</v>
+      </c>
+      <c r="BK213">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" spans="1:63">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>2604194</v>
+      </c>
+      <c r="C214" t="s">
+        <v>63</v>
+      </c>
+      <c r="D214" t="s">
+        <v>64</v>
+      </c>
+      <c r="E214" s="2">
+        <v>44968.41666666666</v>
+      </c>
+      <c r="F214">
+        <v>22</v>
+      </c>
+      <c r="G214" t="s">
+        <v>78</v>
+      </c>
+      <c r="H214" t="s">
+        <v>80</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214">
+        <v>1</v>
+      </c>
+      <c r="K214">
+        <v>2</v>
+      </c>
+      <c r="L214">
+        <v>2</v>
+      </c>
+      <c r="M214">
+        <v>1</v>
+      </c>
+      <c r="N214">
+        <v>3</v>
+      </c>
+      <c r="O214" t="s">
+        <v>224</v>
+      </c>
+      <c r="P214" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q214">
+        <v>5</v>
+      </c>
+      <c r="R214">
+        <v>9</v>
+      </c>
+      <c r="S214">
+        <v>14</v>
+      </c>
+      <c r="T214">
+        <v>3.4</v>
+      </c>
+      <c r="U214">
+        <v>2.25</v>
+      </c>
+      <c r="V214">
+        <v>2.6</v>
+      </c>
+      <c r="W214">
+        <v>1.33</v>
+      </c>
+      <c r="X214">
+        <v>3.25</v>
+      </c>
+      <c r="Y214">
+        <v>2.38</v>
+      </c>
+      <c r="Z214">
+        <v>1.53</v>
+      </c>
+      <c r="AA214">
+        <v>5.5</v>
+      </c>
+      <c r="AB214">
+        <v>1.12</v>
+      </c>
+      <c r="AC214">
+        <v>3</v>
+      </c>
+      <c r="AD214">
+        <v>3.5</v>
+      </c>
+      <c r="AE214">
+        <v>2.05</v>
+      </c>
+      <c r="AF214">
+        <v>1.04</v>
+      </c>
+      <c r="AG214">
+        <v>10</v>
+      </c>
+      <c r="AH214">
+        <v>1.22</v>
+      </c>
+      <c r="AI214">
+        <v>4</v>
+      </c>
+      <c r="AJ214">
+        <v>1.7</v>
+      </c>
+      <c r="AK214">
+        <v>2.1</v>
+      </c>
+      <c r="AL214">
+        <v>1.6</v>
+      </c>
+      <c r="AM214">
+        <v>2.25</v>
+      </c>
+      <c r="AN214">
+        <v>1.67</v>
+      </c>
+      <c r="AO214">
+        <v>1.29</v>
+      </c>
+      <c r="AP214">
+        <v>1.33</v>
+      </c>
+      <c r="AQ214">
+        <v>0.82</v>
+      </c>
+      <c r="AR214">
+        <v>1.2</v>
+      </c>
+      <c r="AS214">
+        <v>1</v>
+      </c>
+      <c r="AT214">
+        <v>1.09</v>
+      </c>
+      <c r="AU214">
+        <v>1.67</v>
+      </c>
+      <c r="AV214">
+        <v>1.48</v>
+      </c>
+      <c r="AW214">
+        <v>3.15</v>
+      </c>
+      <c r="AX214">
+        <v>2.64</v>
+      </c>
+      <c r="AY214">
+        <v>7.8</v>
+      </c>
+      <c r="AZ214">
+        <v>1.67</v>
+      </c>
+      <c r="BA214">
+        <v>1.18</v>
+      </c>
+      <c r="BB214">
+        <v>1.31</v>
+      </c>
+      <c r="BC214">
+        <v>1.65</v>
+      </c>
+      <c r="BD214">
+        <v>2</v>
+      </c>
+      <c r="BE214">
+        <v>2.5</v>
+      </c>
+      <c r="BF214">
+        <v>5</v>
+      </c>
+      <c r="BG214">
+        <v>8</v>
+      </c>
+      <c r="BH214">
+        <v>8</v>
+      </c>
+      <c r="BI214">
+        <v>9</v>
+      </c>
+      <c r="BJ214">
+        <v>13</v>
+      </c>
+      <c r="BK214">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="215" spans="1:63">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>2604192</v>
+      </c>
+      <c r="C215" t="s">
+        <v>63</v>
+      </c>
+      <c r="D215" t="s">
+        <v>64</v>
+      </c>
+      <c r="E215" s="2">
+        <v>44968.41666666666</v>
+      </c>
+      <c r="F215">
+        <v>22</v>
+      </c>
+      <c r="G215" t="s">
+        <v>82</v>
+      </c>
+      <c r="H215" t="s">
+        <v>71</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215">
+        <v>1</v>
+      </c>
+      <c r="K215">
+        <v>2</v>
+      </c>
+      <c r="L215">
+        <v>1</v>
+      </c>
+      <c r="M215">
+        <v>2</v>
+      </c>
+      <c r="N215">
+        <v>3</v>
+      </c>
+      <c r="O215" t="s">
+        <v>89</v>
+      </c>
+      <c r="P215" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q215">
+        <v>6</v>
+      </c>
+      <c r="R215">
+        <v>4</v>
+      </c>
+      <c r="S215">
+        <v>10</v>
+      </c>
+      <c r="T215">
+        <v>3.6</v>
+      </c>
+      <c r="U215">
+        <v>2.15</v>
+      </c>
+      <c r="V215">
+        <v>2.75</v>
+      </c>
+      <c r="W215">
+        <v>1.39</v>
+      </c>
+      <c r="X215">
+        <v>2.8</v>
+      </c>
+      <c r="Y215">
+        <v>2.75</v>
+      </c>
+      <c r="Z215">
+        <v>1.4</v>
+      </c>
+      <c r="AA215">
+        <v>6.95</v>
+      </c>
+      <c r="AB215">
+        <v>1.07</v>
+      </c>
+      <c r="AC215">
+        <v>5.17</v>
+      </c>
+      <c r="AD215">
+        <v>2.34</v>
+      </c>
+      <c r="AE215">
+        <v>2.05</v>
+      </c>
+      <c r="AF215">
+        <v>1.05</v>
+      </c>
+      <c r="AG215">
+        <v>9</v>
+      </c>
+      <c r="AH215">
+        <v>1.28</v>
+      </c>
+      <c r="AI215">
+        <v>3.5</v>
+      </c>
+      <c r="AJ215">
+        <v>1.83</v>
+      </c>
+      <c r="AK215">
+        <v>1.9</v>
+      </c>
+      <c r="AL215">
+        <v>1.72</v>
+      </c>
+      <c r="AM215">
+        <v>2.05</v>
+      </c>
+      <c r="AN215">
+        <v>1.68</v>
+      </c>
+      <c r="AO215">
+        <v>1.25</v>
+      </c>
+      <c r="AP215">
+        <v>1.33</v>
+      </c>
+      <c r="AQ215">
+        <v>0.91</v>
+      </c>
+      <c r="AR215">
+        <v>1.82</v>
+      </c>
+      <c r="AS215">
+        <v>0.83</v>
+      </c>
+      <c r="AT215">
+        <v>1.92</v>
+      </c>
+      <c r="AU215">
+        <v>1.41</v>
+      </c>
+      <c r="AV215">
+        <v>1.55</v>
+      </c>
+      <c r="AW215">
+        <v>2.96</v>
+      </c>
+      <c r="AX215">
+        <v>2.26</v>
+      </c>
+      <c r="AY215">
+        <v>7.6</v>
+      </c>
+      <c r="AZ215">
+        <v>1.88</v>
+      </c>
+      <c r="BA215">
+        <v>1.18</v>
+      </c>
+      <c r="BB215">
+        <v>1.31</v>
+      </c>
+      <c r="BC215">
+        <v>1.65</v>
+      </c>
+      <c r="BD215">
+        <v>2</v>
+      </c>
+      <c r="BE215">
+        <v>2.5</v>
+      </c>
+      <c r="BF215">
+        <v>5</v>
+      </c>
+      <c r="BG215">
+        <v>7</v>
+      </c>
+      <c r="BH215">
+        <v>4</v>
+      </c>
+      <c r="BI215">
+        <v>7</v>
+      </c>
+      <c r="BJ215">
+        <v>9</v>
+      </c>
+      <c r="BK215">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="216" spans="1:63">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>2604196</v>
+      </c>
+      <c r="C216" t="s">
+        <v>63</v>
+      </c>
+      <c r="D216" t="s">
+        <v>64</v>
+      </c>
+      <c r="E216" s="2">
+        <v>44968.41666666666</v>
+      </c>
+      <c r="F216">
+        <v>22</v>
+      </c>
+      <c r="G216" t="s">
+        <v>84</v>
+      </c>
+      <c r="H216" t="s">
+        <v>70</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <v>2</v>
+      </c>
+      <c r="K216">
+        <v>3</v>
+      </c>
+      <c r="L216">
+        <v>2</v>
+      </c>
+      <c r="M216">
+        <v>3</v>
+      </c>
+      <c r="N216">
+        <v>5</v>
+      </c>
+      <c r="O216" t="s">
+        <v>225</v>
+      </c>
+      <c r="P216" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q216">
+        <v>5</v>
+      </c>
+      <c r="R216">
+        <v>3</v>
+      </c>
+      <c r="S216">
+        <v>8</v>
+      </c>
+      <c r="T216">
+        <v>3.2</v>
+      </c>
+      <c r="U216">
+        <v>2.15</v>
+      </c>
+      <c r="V216">
+        <v>2.88</v>
+      </c>
+      <c r="W216">
+        <v>1.36</v>
+      </c>
+      <c r="X216">
+        <v>3</v>
+      </c>
+      <c r="Y216">
+        <v>2.62</v>
+      </c>
+      <c r="Z216">
+        <v>1.44</v>
+      </c>
+      <c r="AA216">
+        <v>6</v>
+      </c>
+      <c r="AB216">
+        <v>1.11</v>
+      </c>
+      <c r="AC216">
+        <v>3.51</v>
+      </c>
+      <c r="AD216">
+        <v>2.52</v>
+      </c>
+      <c r="AE216">
+        <v>2.34</v>
+      </c>
+      <c r="AF216">
+        <v>1.06</v>
+      </c>
+      <c r="AG216">
+        <v>8</v>
+      </c>
+      <c r="AH216">
+        <v>1.29</v>
+      </c>
+      <c r="AI216">
+        <v>3.5</v>
+      </c>
+      <c r="AJ216">
+        <v>1.87</v>
+      </c>
+      <c r="AK216">
+        <v>1.87</v>
+      </c>
+      <c r="AL216">
+        <v>1.7</v>
+      </c>
+      <c r="AM216">
+        <v>2.05</v>
+      </c>
+      <c r="AN216">
+        <v>1.53</v>
+      </c>
+      <c r="AO216">
+        <v>1.3</v>
+      </c>
+      <c r="AP216">
+        <v>1.4</v>
+      </c>
+      <c r="AQ216">
+        <v>1.82</v>
+      </c>
+      <c r="AR216">
+        <v>1.7</v>
+      </c>
+      <c r="AS216">
+        <v>1.67</v>
+      </c>
+      <c r="AT216">
+        <v>1.82</v>
+      </c>
+      <c r="AU216">
+        <v>1.65</v>
+      </c>
+      <c r="AV216">
+        <v>1.26</v>
+      </c>
+      <c r="AW216">
+        <v>2.91</v>
+      </c>
+      <c r="AX216">
+        <v>2.2</v>
+      </c>
+      <c r="AY216">
+        <v>7.5</v>
+      </c>
+      <c r="AZ216">
+        <v>1.93</v>
+      </c>
+      <c r="BA216">
+        <v>1.24</v>
+      </c>
+      <c r="BB216">
+        <v>1.55</v>
+      </c>
+      <c r="BC216">
+        <v>1.88</v>
+      </c>
+      <c r="BD216">
+        <v>2.3</v>
+      </c>
+      <c r="BE216">
+        <v>3.3</v>
+      </c>
+      <c r="BF216">
+        <v>7</v>
+      </c>
+      <c r="BG216">
+        <v>9</v>
+      </c>
+      <c r="BH216">
+        <v>6</v>
+      </c>
+      <c r="BI216">
+        <v>9</v>
+      </c>
+      <c r="BJ216">
+        <v>13</v>
+      </c>
+      <c r="BK216">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="217" spans="1:63">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>2604189</v>
+      </c>
+      <c r="C217" t="s">
+        <v>63</v>
+      </c>
+      <c r="D217" t="s">
+        <v>64</v>
+      </c>
+      <c r="E217" s="2">
+        <v>44968.41666666666</v>
+      </c>
+      <c r="F217">
+        <v>22</v>
+      </c>
+      <c r="G217" t="s">
+        <v>75</v>
+      </c>
+      <c r="H217" t="s">
+        <v>73</v>
+      </c>
+      <c r="I217">
+        <v>2</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>2</v>
+      </c>
+      <c r="L217">
+        <v>4</v>
+      </c>
+      <c r="M217">
+        <v>0</v>
+      </c>
+      <c r="N217">
+        <v>4</v>
+      </c>
+      <c r="O217" t="s">
+        <v>226</v>
+      </c>
+      <c r="P217" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q217">
+        <v>2</v>
+      </c>
+      <c r="R217">
+        <v>7</v>
+      </c>
+      <c r="S217">
+        <v>9</v>
+      </c>
+      <c r="T217">
+        <v>2.6</v>
+      </c>
+      <c r="U217">
+        <v>2.15</v>
+      </c>
+      <c r="V217">
+        <v>3.6</v>
+      </c>
+      <c r="W217">
+        <v>1.36</v>
+      </c>
+      <c r="X217">
+        <v>3</v>
+      </c>
+      <c r="Y217">
+        <v>2.62</v>
+      </c>
+      <c r="Z217">
+        <v>1.44</v>
+      </c>
+      <c r="AA217">
+        <v>6</v>
+      </c>
+      <c r="AB217">
+        <v>1.11</v>
+      </c>
+      <c r="AC217">
+        <v>1.6</v>
+      </c>
+      <c r="AD217">
+        <v>5.08</v>
+      </c>
+      <c r="AE217">
+        <v>3.46</v>
+      </c>
+      <c r="AF217">
+        <v>1.06</v>
+      </c>
+      <c r="AG217">
+        <v>8</v>
+      </c>
+      <c r="AH217">
+        <v>1.29</v>
+      </c>
+      <c r="AI217">
+        <v>3.5</v>
+      </c>
+      <c r="AJ217">
+        <v>1.87</v>
+      </c>
+      <c r="AK217">
+        <v>1.87</v>
+      </c>
+      <c r="AL217">
+        <v>1.7</v>
+      </c>
+      <c r="AM217">
+        <v>2.05</v>
+      </c>
+      <c r="AN217">
+        <v>1.33</v>
+      </c>
+      <c r="AO217">
+        <v>1.3</v>
+      </c>
+      <c r="AP217">
+        <v>1.62</v>
+      </c>
+      <c r="AQ217">
+        <v>1</v>
+      </c>
+      <c r="AR217">
+        <v>0.82</v>
+      </c>
+      <c r="AS217">
+        <v>1.18</v>
+      </c>
+      <c r="AT217">
+        <v>0.75</v>
+      </c>
+      <c r="AU217">
+        <v>1.58</v>
+      </c>
+      <c r="AV217">
+        <v>1.4</v>
+      </c>
+      <c r="AW217">
+        <v>2.98</v>
+      </c>
+      <c r="AX217">
+        <v>1.84</v>
+      </c>
+      <c r="AY217">
+        <v>7.8</v>
+      </c>
+      <c r="AZ217">
+        <v>2.31</v>
+      </c>
+      <c r="BA217">
+        <v>1.16</v>
+      </c>
+      <c r="BB217">
+        <v>1.24</v>
+      </c>
+      <c r="BC217">
+        <v>1.5</v>
+      </c>
+      <c r="BD217">
+        <v>1.83</v>
+      </c>
+      <c r="BE217">
+        <v>2.25</v>
+      </c>
+      <c r="BF217">
+        <v>7</v>
+      </c>
+      <c r="BG217">
+        <v>4</v>
+      </c>
+      <c r="BH217">
+        <v>3</v>
+      </c>
+      <c r="BI217">
+        <v>6</v>
+      </c>
+      <c r="BJ217">
+        <v>10</v>
+      </c>
+      <c r="BK217">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:63">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>2604191</v>
+      </c>
+      <c r="C218" t="s">
+        <v>63</v>
+      </c>
+      <c r="D218" t="s">
+        <v>64</v>
+      </c>
+      <c r="E218" s="2">
+        <v>44968.41666666666</v>
+      </c>
+      <c r="F218">
+        <v>22</v>
+      </c>
+      <c r="G218" t="s">
+        <v>81</v>
+      </c>
+      <c r="H218" t="s">
+        <v>66</v>
+      </c>
+      <c r="I218">
+        <v>2</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>2</v>
+      </c>
+      <c r="L218">
+        <v>3</v>
+      </c>
+      <c r="M218">
+        <v>0</v>
+      </c>
+      <c r="N218">
+        <v>3</v>
+      </c>
+      <c r="O218" t="s">
+        <v>227</v>
+      </c>
+      <c r="P218" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q218">
+        <v>2</v>
+      </c>
+      <c r="R218">
+        <v>4</v>
+      </c>
+      <c r="S218">
+        <v>6</v>
+      </c>
+      <c r="T218">
+        <v>1.7</v>
+      </c>
+      <c r="U218">
+        <v>2.6</v>
+      </c>
+      <c r="V218">
+        <v>6.5</v>
+      </c>
+      <c r="W218">
+        <v>1.29</v>
+      </c>
+      <c r="X218">
+        <v>3.5</v>
+      </c>
+      <c r="Y218">
+        <v>2.1</v>
+      </c>
+      <c r="Z218">
+        <v>1.67</v>
+      </c>
+      <c r="AA218">
+        <v>4.5</v>
+      </c>
+      <c r="AB218">
+        <v>1.17</v>
+      </c>
+      <c r="AC218">
+        <v>1.16</v>
+      </c>
+      <c r="AD218">
+        <v>7.86</v>
+      </c>
+      <c r="AE218">
+        <v>7.97</v>
+      </c>
+      <c r="AF218">
+        <v>1.02</v>
+      </c>
+      <c r="AG218">
+        <v>12</v>
+      </c>
+      <c r="AH218">
+        <v>1.15</v>
+      </c>
+      <c r="AI218">
+        <v>4.75</v>
+      </c>
+      <c r="AJ218">
+        <v>1.47</v>
+      </c>
+      <c r="AK218">
+        <v>2.39</v>
+      </c>
+      <c r="AL218">
+        <v>1.73</v>
+      </c>
+      <c r="AM218">
+        <v>2</v>
+      </c>
+      <c r="AN218">
+        <v>1.05</v>
+      </c>
+      <c r="AO218">
+        <v>1.15</v>
+      </c>
+      <c r="AP218">
+        <v>3.2</v>
+      </c>
+      <c r="AQ218">
+        <v>2.45</v>
+      </c>
+      <c r="AR218">
+        <v>1.1</v>
+      </c>
+      <c r="AS218">
+        <v>2.5</v>
+      </c>
+      <c r="AT218">
+        <v>1</v>
+      </c>
+      <c r="AU218">
+        <v>2.01</v>
+      </c>
+      <c r="AV218">
+        <v>1.06</v>
+      </c>
+      <c r="AW218">
+        <v>3.07</v>
+      </c>
+      <c r="AX218">
+        <v>1.12</v>
+      </c>
+      <c r="AY218">
+        <v>12.25</v>
+      </c>
+      <c r="AZ218">
+        <v>7.7</v>
+      </c>
+      <c r="BA218">
+        <v>1.18</v>
+      </c>
+      <c r="BB218">
+        <v>1.43</v>
+      </c>
+      <c r="BC218">
+        <v>1.67</v>
+      </c>
+      <c r="BD218">
+        <v>2.05</v>
+      </c>
+      <c r="BE218">
+        <v>2.6</v>
+      </c>
+      <c r="BF218">
+        <v>4</v>
+      </c>
+      <c r="BG218">
+        <v>3</v>
+      </c>
+      <c r="BH218">
+        <v>6</v>
+      </c>
+      <c r="BI218">
+        <v>4</v>
+      </c>
+      <c r="BJ218">
+        <v>10</v>
+      </c>
+      <c r="BK218">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:63">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>2604190</v>
+      </c>
+      <c r="C219" t="s">
+        <v>63</v>
+      </c>
+      <c r="D219" t="s">
+        <v>64</v>
+      </c>
+      <c r="E219" s="2">
+        <v>44969.375</v>
+      </c>
+      <c r="F219">
+        <v>22</v>
+      </c>
+      <c r="G219" t="s">
+        <v>67</v>
+      </c>
+      <c r="H219" t="s">
+        <v>65</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219">
+        <v>3</v>
+      </c>
+      <c r="K219">
+        <v>4</v>
+      </c>
+      <c r="L219">
+        <v>1</v>
+      </c>
+      <c r="M219">
+        <v>4</v>
+      </c>
+      <c r="N219">
+        <v>5</v>
+      </c>
+      <c r="O219" t="s">
+        <v>228</v>
+      </c>
+      <c r="P219" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q219">
+        <v>9</v>
+      </c>
+      <c r="R219">
+        <v>8</v>
+      </c>
+      <c r="S219">
+        <v>17</v>
+      </c>
+      <c r="T219">
+        <v>3.2</v>
+      </c>
+      <c r="U219">
+        <v>2.2</v>
+      </c>
+      <c r="V219">
+        <v>3.2</v>
+      </c>
+      <c r="W219">
+        <v>1.36</v>
+      </c>
+      <c r="X219">
+        <v>3</v>
+      </c>
+      <c r="Y219">
+        <v>2.75</v>
+      </c>
+      <c r="Z219">
+        <v>1.4</v>
+      </c>
+      <c r="AA219">
+        <v>7</v>
+      </c>
+      <c r="AB219">
+        <v>1.1</v>
+      </c>
+      <c r="AC219">
+        <v>2.64</v>
+      </c>
+      <c r="AD219">
+        <v>3.4</v>
+      </c>
+      <c r="AE219">
+        <v>2.55</v>
+      </c>
+      <c r="AF219">
+        <v>1.05</v>
+      </c>
+      <c r="AG219">
+        <v>9</v>
+      </c>
+      <c r="AH219">
+        <v>1.25</v>
+      </c>
+      <c r="AI219">
+        <v>3.75</v>
+      </c>
+      <c r="AJ219">
+        <v>1.79</v>
+      </c>
+      <c r="AK219">
+        <v>1.96</v>
+      </c>
+      <c r="AL219">
+        <v>1.67</v>
+      </c>
+      <c r="AM219">
+        <v>2.1</v>
+      </c>
+      <c r="AN219">
+        <v>1.49</v>
+      </c>
+      <c r="AO219">
+        <v>1.3</v>
+      </c>
+      <c r="AP219">
+        <v>1.46</v>
+      </c>
+      <c r="AQ219">
+        <v>1.4</v>
+      </c>
+      <c r="AR219">
+        <v>1.09</v>
+      </c>
+      <c r="AS219">
+        <v>1.27</v>
+      </c>
+      <c r="AT219">
+        <v>1.25</v>
+      </c>
+      <c r="AU219">
+        <v>1.66</v>
+      </c>
+      <c r="AV219">
+        <v>1.61</v>
+      </c>
+      <c r="AW219">
+        <v>3.27</v>
+      </c>
+      <c r="AX219">
+        <v>1.86</v>
+      </c>
+      <c r="AY219">
+        <v>7.6</v>
+      </c>
+      <c r="AZ219">
+        <v>2.29</v>
+      </c>
+      <c r="BA219">
+        <v>1.18</v>
+      </c>
+      <c r="BB219">
+        <v>1.31</v>
+      </c>
+      <c r="BC219">
+        <v>1.65</v>
+      </c>
+      <c r="BD219">
+        <v>2</v>
+      </c>
+      <c r="BE219">
+        <v>2.5</v>
+      </c>
+      <c r="BF219">
+        <v>6</v>
+      </c>
+      <c r="BG219">
+        <v>7</v>
+      </c>
+      <c r="BH219">
+        <v>13</v>
+      </c>
+      <c r="BI219">
+        <v>5</v>
+      </c>
+      <c r="BJ219">
+        <v>19</v>
+      </c>
+      <c r="BK219">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="220" spans="1:63">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>2604197</v>
+      </c>
+      <c r="C220" t="s">
+        <v>63</v>
+      </c>
+      <c r="D220" t="s">
+        <v>64</v>
+      </c>
+      <c r="E220" s="2">
+        <v>44969.41666666666</v>
+      </c>
+      <c r="F220">
+        <v>22</v>
+      </c>
+      <c r="G220" t="s">
+        <v>76</v>
+      </c>
+      <c r="H220" t="s">
+        <v>74</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>2</v>
+      </c>
+      <c r="M220">
+        <v>3</v>
+      </c>
+      <c r="N220">
+        <v>5</v>
+      </c>
+      <c r="O220" t="s">
+        <v>229</v>
+      </c>
+      <c r="P220" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q220">
+        <v>6</v>
+      </c>
+      <c r="R220">
+        <v>5</v>
+      </c>
+      <c r="S220">
+        <v>11</v>
+      </c>
+      <c r="T220">
+        <v>5</v>
+      </c>
+      <c r="U220">
+        <v>2.4</v>
+      </c>
+      <c r="V220">
+        <v>2.2</v>
+      </c>
+      <c r="W220">
+        <v>1.3</v>
+      </c>
+      <c r="X220">
+        <v>3.4</v>
+      </c>
+      <c r="Y220">
+        <v>2.38</v>
+      </c>
+      <c r="Z220">
+        <v>1.53</v>
+      </c>
+      <c r="AA220">
+        <v>6</v>
+      </c>
+      <c r="AB220">
+        <v>1.13</v>
+      </c>
+      <c r="AC220">
+        <v>4.98</v>
+      </c>
+      <c r="AD220">
+        <v>4.05</v>
+      </c>
+      <c r="AE220">
+        <v>1.62</v>
+      </c>
+      <c r="AF220">
+        <v>1.03</v>
+      </c>
+      <c r="AG220">
+        <v>11</v>
+      </c>
+      <c r="AH220">
+        <v>1.18</v>
+      </c>
+      <c r="AI220">
+        <v>4.5</v>
+      </c>
+      <c r="AJ220">
+        <v>1.61</v>
+      </c>
+      <c r="AK220">
+        <v>2.23</v>
+      </c>
+      <c r="AL220">
+        <v>1.67</v>
+      </c>
+      <c r="AM220">
+        <v>2.1</v>
+      </c>
+      <c r="AN220">
+        <v>2.2</v>
+      </c>
+      <c r="AO220">
+        <v>1.24</v>
+      </c>
+      <c r="AP220">
+        <v>1.16</v>
+      </c>
+      <c r="AQ220">
+        <v>1.4</v>
+      </c>
+      <c r="AR220">
+        <v>1.82</v>
+      </c>
+      <c r="AS220">
+        <v>1.27</v>
+      </c>
+      <c r="AT220">
+        <v>1.92</v>
+      </c>
+      <c r="AU220">
+        <v>1.3</v>
+      </c>
+      <c r="AV220">
+        <v>1.76</v>
+      </c>
+      <c r="AW220">
+        <v>3.06</v>
+      </c>
+      <c r="AX220">
+        <v>3.7</v>
+      </c>
+      <c r="AY220">
+        <v>8.6</v>
+      </c>
+      <c r="AZ220">
+        <v>1.39</v>
+      </c>
+      <c r="BA220">
+        <v>1.2</v>
+      </c>
+      <c r="BB220">
+        <v>1.26</v>
+      </c>
+      <c r="BC220">
+        <v>1.55</v>
+      </c>
+      <c r="BD220">
+        <v>1.95</v>
+      </c>
+      <c r="BE220">
+        <v>2.25</v>
+      </c>
+      <c r="BF220">
+        <v>8</v>
+      </c>
+      <c r="BG220">
+        <v>8</v>
+      </c>
+      <c r="BH220">
+        <v>10</v>
+      </c>
+      <c r="BI220">
+        <v>10</v>
+      </c>
+      <c r="BJ220">
+        <v>18</v>
+      </c>
+      <c r="BK220">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="328">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1359,7 +1359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK220"/>
+  <dimension ref="A1:BK221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3603,7 +3603,7 @@
         <v>1.18</v>
       </c>
       <c r="AT12">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -4364,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT16">
         <v>1.92</v>
@@ -7996,7 +7996,7 @@
         <v>0.83</v>
       </c>
       <c r="AT35">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU35">
         <v>1.05</v>
@@ -8184,7 +8184,7 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT36">
         <v>1.82</v>
@@ -12004,7 +12004,7 @@
         <v>3</v>
       </c>
       <c r="AS56">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT56">
         <v>1.09</v>
@@ -12389,7 +12389,7 @@
         <v>1.27</v>
       </c>
       <c r="AT58">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU58">
         <v>1.22</v>
@@ -15063,7 +15063,7 @@
         <v>2.2</v>
       </c>
       <c r="AT72">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU72">
         <v>1.91</v>
@@ -16206,7 +16206,7 @@
         <v>0</v>
       </c>
       <c r="AS78">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT78">
         <v>0.3</v>
@@ -20217,7 +20217,7 @@
         <v>1</v>
       </c>
       <c r="AS99">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT99">
         <v>1</v>
@@ -20411,7 +20411,7 @@
         <v>2.1</v>
       </c>
       <c r="AT100">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU100">
         <v>2.2</v>
@@ -22321,7 +22321,7 @@
         <v>2.18</v>
       </c>
       <c r="AT110">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU110">
         <v>2.11</v>
@@ -23464,7 +23464,7 @@
         <v>2.6</v>
       </c>
       <c r="AS116">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT116">
         <v>2.3</v>
@@ -24804,7 +24804,7 @@
         <v>2.55</v>
       </c>
       <c r="AT123">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU123">
         <v>1.65</v>
@@ -29003,7 +29003,7 @@
         <v>0.71</v>
       </c>
       <c r="AS145">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT145">
         <v>1</v>
@@ -29770,7 +29770,7 @@
         <v>0.91</v>
       </c>
       <c r="AT149">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU149">
         <v>1.62</v>
@@ -33778,7 +33778,7 @@
         <v>0.63</v>
       </c>
       <c r="AS170">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT170">
         <v>0.45</v>
@@ -33972,7 +33972,7 @@
         <v>2</v>
       </c>
       <c r="AT171">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU171">
         <v>1.86</v>
@@ -36070,7 +36070,7 @@
         <v>1.89</v>
       </c>
       <c r="AS182">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT182">
         <v>1.92</v>
@@ -36646,7 +36646,7 @@
         <v>1.67</v>
       </c>
       <c r="AT185">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU185">
         <v>1.6</v>
@@ -37983,7 +37983,7 @@
         <v>2.5</v>
       </c>
       <c r="AT192">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU192">
         <v>2.04</v>
@@ -39317,7 +39317,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS199">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT199">
         <v>0.73</v>
@@ -43383,6 +43383,197 @@
       </c>
       <c r="BK220">
         <v>18</v>
+      </c>
+    </row>
+    <row r="221" spans="1:63">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>2604193</v>
+      </c>
+      <c r="C221" t="s">
+        <v>63</v>
+      </c>
+      <c r="D221" t="s">
+        <v>64</v>
+      </c>
+      <c r="E221" s="2">
+        <v>44970.625</v>
+      </c>
+      <c r="F221">
+        <v>22</v>
+      </c>
+      <c r="G221" t="s">
+        <v>79</v>
+      </c>
+      <c r="H221" t="s">
+        <v>69</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <v>1</v>
+      </c>
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <v>1</v>
+      </c>
+      <c r="O221" t="s">
+        <v>92</v>
+      </c>
+      <c r="P221" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q221">
+        <v>9</v>
+      </c>
+      <c r="R221">
+        <v>1</v>
+      </c>
+      <c r="S221">
+        <v>10</v>
+      </c>
+      <c r="T221">
+        <v>2.8</v>
+      </c>
+      <c r="U221">
+        <v>2.18</v>
+      </c>
+      <c r="V221">
+        <v>3.6</v>
+      </c>
+      <c r="W221">
+        <v>1.3</v>
+      </c>
+      <c r="X221">
+        <v>3.15</v>
+      </c>
+      <c r="Y221">
+        <v>2.65</v>
+      </c>
+      <c r="Z221">
+        <v>1.42</v>
+      </c>
+      <c r="AA221">
+        <v>6.45</v>
+      </c>
+      <c r="AB221">
+        <v>1.09</v>
+      </c>
+      <c r="AC221">
+        <v>2.22</v>
+      </c>
+      <c r="AD221">
+        <v>3.56</v>
+      </c>
+      <c r="AE221">
+        <v>3.03</v>
+      </c>
+      <c r="AF221">
+        <v>1.04</v>
+      </c>
+      <c r="AG221">
+        <v>12</v>
+      </c>
+      <c r="AH221">
+        <v>1.22</v>
+      </c>
+      <c r="AI221">
+        <v>4</v>
+      </c>
+      <c r="AJ221">
+        <v>1.74</v>
+      </c>
+      <c r="AK221">
+        <v>1.9</v>
+      </c>
+      <c r="AL221">
+        <v>1.6</v>
+      </c>
+      <c r="AM221">
+        <v>2.23</v>
+      </c>
+      <c r="AN221">
+        <v>1.33</v>
+      </c>
+      <c r="AO221">
+        <v>1.28</v>
+      </c>
+      <c r="AP221">
+        <v>1.62</v>
+      </c>
+      <c r="AQ221">
+        <v>1.4</v>
+      </c>
+      <c r="AR221">
+        <v>1.18</v>
+      </c>
+      <c r="AS221">
+        <v>1.55</v>
+      </c>
+      <c r="AT221">
+        <v>1.08</v>
+      </c>
+      <c r="AU221">
+        <v>1.35</v>
+      </c>
+      <c r="AV221">
+        <v>1.63</v>
+      </c>
+      <c r="AW221">
+        <v>2.98</v>
+      </c>
+      <c r="AX221">
+        <v>1.65</v>
+      </c>
+      <c r="AY221">
+        <v>7.6</v>
+      </c>
+      <c r="AZ221">
+        <v>2.72</v>
+      </c>
+      <c r="BA221">
+        <v>1.27</v>
+      </c>
+      <c r="BB221">
+        <v>1.6</v>
+      </c>
+      <c r="BC221">
+        <v>1.96</v>
+      </c>
+      <c r="BD221">
+        <v>2.43</v>
+      </c>
+      <c r="BE221">
+        <v>3.42</v>
+      </c>
+      <c r="BF221">
+        <v>5</v>
+      </c>
+      <c r="BG221">
+        <v>4</v>
+      </c>
+      <c r="BH221">
+        <v>8</v>
+      </c>
+      <c r="BI221">
+        <v>3</v>
+      </c>
+      <c r="BJ221">
+        <v>13</v>
+      </c>
+      <c r="BK221">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="329">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -706,6 +706,9 @@
     <t>['81', '90+10']</t>
   </si>
   <si>
+    <t>['74']</t>
+  </si>
+  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -755,9 +758,6 @@
   </si>
   <si>
     <t>['6', '38', '49', '57', '61']</t>
-  </si>
-  <si>
-    <t>['74']</t>
   </si>
   <si>
     <t>['4', '20', '60']</t>
@@ -998,6 +998,9 @@
   </si>
   <si>
     <t>['50', '53', '61']</t>
+  </si>
+  <si>
+    <t>['33', '65']</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK221"/>
+  <dimension ref="A1:BK222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2176,7 +2179,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2367,7 +2370,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2558,7 +2561,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -3030,7 +3033,7 @@
         <v>2.18</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3131,7 +3134,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3409,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT11">
         <v>1.1</v>
@@ -3513,7 +3516,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3704,7 +3707,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3895,7 +3898,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -4659,7 +4662,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4850,7 +4853,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -5232,7 +5235,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5423,7 +5426,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5614,7 +5617,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -6187,7 +6190,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6659,7 +6662,7 @@
         <v>2.55</v>
       </c>
       <c r="AT28">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU28">
         <v>1.92</v>
@@ -6760,7 +6763,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7038,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT30">
         <v>0.45</v>
@@ -8097,7 +8100,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8670,7 +8673,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8861,7 +8864,7 @@
         <v>98</v>
       </c>
       <c r="P40" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -9243,7 +9246,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -10094,7 +10097,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT46">
         <v>1.25</v>
@@ -10479,7 +10482,7 @@
         <v>1.6</v>
       </c>
       <c r="AT48">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU48">
         <v>2.06</v>
@@ -13153,7 +13156,7 @@
         <v>1.2</v>
       </c>
       <c r="AT62">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU62">
         <v>1.51</v>
@@ -14209,7 +14212,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -15442,7 +15445,7 @@
         <v>2</v>
       </c>
       <c r="AS74">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT74">
         <v>1.64</v>
@@ -16501,7 +16504,7 @@
         <v>96</v>
       </c>
       <c r="P80" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16973,7 +16976,7 @@
         <v>2</v>
       </c>
       <c r="AT82">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU82">
         <v>1.9</v>
@@ -20408,7 +20411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS100">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT100">
         <v>1.08</v>
@@ -21748,7 +21751,7 @@
         <v>0.91</v>
       </c>
       <c r="AT107">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU107">
         <v>1.65</v>
@@ -24419,7 +24422,7 @@
         <v>1.4</v>
       </c>
       <c r="AS121">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT121">
         <v>1</v>
@@ -26141,7 +26144,7 @@
         <v>1.67</v>
       </c>
       <c r="AT130">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU130">
         <v>1.6</v>
@@ -26520,7 +26523,7 @@
         <v>0.86</v>
       </c>
       <c r="AS132">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT132">
         <v>1.45</v>
@@ -29006,7 +29009,7 @@
         <v>1.55</v>
       </c>
       <c r="AT145">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU145">
         <v>1.23</v>
@@ -30340,7 +30343,7 @@
         <v>1.57</v>
       </c>
       <c r="AS152">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT152">
         <v>1.82</v>
@@ -32253,7 +32256,7 @@
         <v>0.83</v>
       </c>
       <c r="AT162">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU162">
         <v>1.4</v>
@@ -35306,7 +35309,7 @@
         <v>2.5</v>
       </c>
       <c r="AS178">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT178">
         <v>2.3</v>
@@ -35882,7 +35885,7 @@
         <v>1.27</v>
       </c>
       <c r="AT181">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU181">
         <v>1.56</v>
@@ -40657,7 +40660,7 @@
         <v>2.2</v>
       </c>
       <c r="AT206">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU206">
         <v>1.9</v>
@@ -41036,7 +41039,7 @@
         <v>1.3</v>
       </c>
       <c r="AS208">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT208">
         <v>1.27</v>
@@ -43574,6 +43577,197 @@
       </c>
       <c r="BK221">
         <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:63">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>2604198</v>
+      </c>
+      <c r="C222" t="s">
+        <v>63</v>
+      </c>
+      <c r="D222" t="s">
+        <v>64</v>
+      </c>
+      <c r="E222" s="2">
+        <v>44974.625</v>
+      </c>
+      <c r="F222">
+        <v>23</v>
+      </c>
+      <c r="G222" t="s">
+        <v>74</v>
+      </c>
+      <c r="H222" t="s">
+        <v>83</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>1</v>
+      </c>
+      <c r="K222">
+        <v>1</v>
+      </c>
+      <c r="L222">
+        <v>1</v>
+      </c>
+      <c r="M222">
+        <v>2</v>
+      </c>
+      <c r="N222">
+        <v>3</v>
+      </c>
+      <c r="O222" t="s">
+        <v>230</v>
+      </c>
+      <c r="P222" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q222">
+        <v>4</v>
+      </c>
+      <c r="R222">
+        <v>4</v>
+      </c>
+      <c r="S222">
+        <v>8</v>
+      </c>
+      <c r="T222">
+        <v>2.15</v>
+      </c>
+      <c r="U222">
+        <v>2.3</v>
+      </c>
+      <c r="V222">
+        <v>4.8</v>
+      </c>
+      <c r="W222">
+        <v>1.3</v>
+      </c>
+      <c r="X222">
+        <v>3.2</v>
+      </c>
+      <c r="Y222">
+        <v>2.5</v>
+      </c>
+      <c r="Z222">
+        <v>1.45</v>
+      </c>
+      <c r="AA222">
+        <v>5.5</v>
+      </c>
+      <c r="AB222">
+        <v>1.11</v>
+      </c>
+      <c r="AC222">
+        <v>1.6</v>
+      </c>
+      <c r="AD222">
+        <v>3.98</v>
+      </c>
+      <c r="AE222">
+        <v>5.15</v>
+      </c>
+      <c r="AF222">
+        <v>1.03</v>
+      </c>
+      <c r="AG222">
+        <v>11</v>
+      </c>
+      <c r="AH222">
+        <v>1.22</v>
+      </c>
+      <c r="AI222">
+        <v>4</v>
+      </c>
+      <c r="AJ222">
+        <v>1.75</v>
+      </c>
+      <c r="AK222">
+        <v>1.95</v>
+      </c>
+      <c r="AL222">
+        <v>1.65</v>
+      </c>
+      <c r="AM222">
+        <v>2.1</v>
+      </c>
+      <c r="AN222">
+        <v>1.13</v>
+      </c>
+      <c r="AO222">
+        <v>1.25</v>
+      </c>
+      <c r="AP222">
+        <v>2.25</v>
+      </c>
+      <c r="AQ222">
+        <v>2.1</v>
+      </c>
+      <c r="AR222">
+        <v>1</v>
+      </c>
+      <c r="AS222">
+        <v>1.91</v>
+      </c>
+      <c r="AT222">
+        <v>1.17</v>
+      </c>
+      <c r="AU222">
+        <v>2.04</v>
+      </c>
+      <c r="AV222">
+        <v>1.56</v>
+      </c>
+      <c r="AW222">
+        <v>3.6</v>
+      </c>
+      <c r="AX222">
+        <v>1.42</v>
+      </c>
+      <c r="AY222">
+        <v>9</v>
+      </c>
+      <c r="AZ222">
+        <v>3.44</v>
+      </c>
+      <c r="BA222">
+        <v>1.17</v>
+      </c>
+      <c r="BB222">
+        <v>1.28</v>
+      </c>
+      <c r="BC222">
+        <v>1.57</v>
+      </c>
+      <c r="BD222">
+        <v>1.91</v>
+      </c>
+      <c r="BE222">
+        <v>2.4</v>
+      </c>
+      <c r="BF222">
+        <v>6</v>
+      </c>
+      <c r="BG222">
+        <v>6</v>
+      </c>
+      <c r="BH222">
+        <v>8</v>
+      </c>
+      <c r="BI222">
+        <v>5</v>
+      </c>
+      <c r="BJ222">
+        <v>14</v>
+      </c>
+      <c r="BK222">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="339">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -709,6 +709,24 @@
     <t>['74']</t>
   </si>
   <si>
+    <t>['9', '49']</t>
+  </si>
+  <si>
+    <t>['9', '50']</t>
+  </si>
+  <si>
+    <t>['8', '9', '54']</t>
+  </si>
+  <si>
+    <t>['23', '31', '90+4']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['50', '86']</t>
+  </si>
+  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -985,9 +1003,6 @@
     <t>['35', '54', '72']</t>
   </si>
   <si>
-    <t>['45+2']</t>
-  </si>
-  <si>
     <t>['45+2', '84']</t>
   </si>
   <si>
@@ -1001,6 +1016,21 @@
   </si>
   <si>
     <t>['33', '65']</t>
+  </si>
+  <si>
+    <t>['76', '86', '90+3']</t>
+  </si>
+  <si>
+    <t>['1', '51', '68', '80']</t>
+  </si>
+  <si>
+    <t>['10']</t>
+  </si>
+  <si>
+    <t>['77', '90+6']</t>
+  </si>
+  <si>
+    <t>['51', '78', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK222"/>
+  <dimension ref="A1:BK231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1693,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT2">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1884,10 +1914,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT3">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2078,7 +2108,7 @@
         <v>1.27</v>
       </c>
       <c r="AT4">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2179,7 +2209,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2266,10 +2296,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT5">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2370,7 +2400,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2457,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT6">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2561,7 +2591,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2648,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT7">
         <v>1.09</v>
@@ -2839,10 +2869,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3030,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT9">
         <v>1.17</v>
@@ -3134,7 +3164,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3221,10 +3251,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT10">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3415,7 +3445,7 @@
         <v>1.91</v>
       </c>
       <c r="AT11">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3516,7 +3546,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3707,7 +3737,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3898,7 +3928,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -4558,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT17">
         <v>1</v>
@@ -4662,7 +4692,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4853,7 +4883,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -4943,7 +4973,7 @@
         <v>0.83</v>
       </c>
       <c r="AT19">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5235,7 +5265,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5426,7 +5456,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5513,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT22">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AU22">
         <v>2.04</v>
@@ -5617,7 +5647,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5704,10 +5734,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT23">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU23">
         <v>1.75</v>
@@ -5895,10 +5925,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT24">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU24">
         <v>1.07</v>
@@ -6086,10 +6116,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT25">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU25">
         <v>2.24</v>
@@ -6190,7 +6220,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6277,10 +6307,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT26">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU26">
         <v>1.37</v>
@@ -6468,10 +6498,10 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT27">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU27">
         <v>1.77</v>
@@ -6659,7 +6689,7 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT28">
         <v>1.17</v>
@@ -6763,7 +6793,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6850,10 +6880,10 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT29">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU29">
         <v>2.16</v>
@@ -7044,7 +7074,7 @@
         <v>1.91</v>
       </c>
       <c r="AT30">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU30">
         <v>1.98</v>
@@ -7232,10 +7262,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT31">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU31">
         <v>2.32</v>
@@ -8100,7 +8130,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8673,7 +8703,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8864,7 +8894,7 @@
         <v>98</v>
       </c>
       <c r="P40" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -9333,10 +9363,10 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT42">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU42">
         <v>2.1</v>
@@ -9437,7 +9467,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9524,10 +9554,10 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT43">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AU43">
         <v>2.18</v>
@@ -9628,7 +9658,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9715,10 +9745,10 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT44">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU44">
         <v>1.59</v>
@@ -9906,10 +9936,10 @@
         <v>1.5</v>
       </c>
       <c r="AS45">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT45">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU45">
         <v>2.15</v>
@@ -10288,10 +10318,10 @@
         <v>0.5</v>
       </c>
       <c r="AS47">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT47">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU47">
         <v>1.65</v>
@@ -10479,7 +10509,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT48">
         <v>1.17</v>
@@ -10670,10 +10700,10 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT49">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU49">
         <v>1.55</v>
@@ -10774,7 +10804,7 @@
         <v>96</v>
       </c>
       <c r="P50" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10864,7 +10894,7 @@
         <v>1</v>
       </c>
       <c r="AT50">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU50">
         <v>1.78</v>
@@ -11052,10 +11082,10 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT51">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU51">
         <v>1.95</v>
@@ -11246,7 +11276,7 @@
         <v>1.17</v>
       </c>
       <c r="AT52">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU52">
         <v>1.75</v>
@@ -11347,7 +11377,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11434,7 +11464,7 @@
         <v>2</v>
       </c>
       <c r="AS53">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT53">
         <v>1.92</v>
@@ -11538,7 +11568,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -12493,7 +12523,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12684,7 +12714,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -13153,7 +13183,7 @@
         <v>0.67</v>
       </c>
       <c r="AS62">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT62">
         <v>1.17</v>
@@ -13344,10 +13374,10 @@
         <v>2</v>
       </c>
       <c r="AS63">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT63">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU63">
         <v>1.93</v>
@@ -13448,7 +13478,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13535,7 +13565,7 @@
         <v>0.67</v>
       </c>
       <c r="AS64">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT64">
         <v>1.25</v>
@@ -13726,10 +13756,10 @@
         <v>0.33</v>
       </c>
       <c r="AS65">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT65">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU65">
         <v>2.45</v>
@@ -13920,7 +13950,7 @@
         <v>1.17</v>
       </c>
       <c r="AT66">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU66">
         <v>1.48</v>
@@ -14108,10 +14138,10 @@
         <v>2.33</v>
       </c>
       <c r="AS67">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT67">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU67">
         <v>2.2</v>
@@ -14212,7 +14242,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -14299,10 +14329,10 @@
         <v>0</v>
       </c>
       <c r="AS68">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT68">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU68">
         <v>1.65</v>
@@ -14493,7 +14523,7 @@
         <v>1</v>
       </c>
       <c r="AT69">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AU69">
         <v>1.59</v>
@@ -14681,10 +14711,10 @@
         <v>1</v>
       </c>
       <c r="AS70">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT70">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU70">
         <v>1.87</v>
@@ -14785,7 +14815,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14872,7 +14902,7 @@
         <v>2</v>
       </c>
       <c r="AS71">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT71">
         <v>1.92</v>
@@ -15063,7 +15093,7 @@
         <v>0.67</v>
       </c>
       <c r="AS72">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT72">
         <v>1.08</v>
@@ -15167,7 +15197,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15549,7 +15579,7 @@
         <v>96</v>
       </c>
       <c r="P75" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15931,7 +15961,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16122,7 +16152,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16212,7 +16242,7 @@
         <v>1.55</v>
       </c>
       <c r="AT78">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU78">
         <v>1.22</v>
@@ -16504,7 +16534,7 @@
         <v>96</v>
       </c>
       <c r="P80" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16695,7 +16725,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16785,7 +16815,7 @@
         <v>1.67</v>
       </c>
       <c r="AT81">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU81">
         <v>1.51</v>
@@ -16886,7 +16916,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -16973,7 +17003,7 @@
         <v>0.5</v>
       </c>
       <c r="AS82">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT82">
         <v>1.17</v>
@@ -17077,7 +17107,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17164,10 +17194,10 @@
         <v>0</v>
       </c>
       <c r="AS83">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT83">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU83">
         <v>1.69</v>
@@ -17355,7 +17385,7 @@
         <v>1.75</v>
       </c>
       <c r="AS84">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT84">
         <v>1.92</v>
@@ -17459,7 +17489,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17549,7 +17579,7 @@
         <v>1</v>
       </c>
       <c r="AT85">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU85">
         <v>1.59</v>
@@ -17650,7 +17680,7 @@
         <v>89</v>
       </c>
       <c r="P86" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17740,7 +17770,7 @@
         <v>1.17</v>
       </c>
       <c r="AT86">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AU86">
         <v>1.57</v>
@@ -17928,10 +17958,10 @@
         <v>1.75</v>
       </c>
       <c r="AS87">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT87">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU87">
         <v>2.16</v>
@@ -18032,7 +18062,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -18119,10 +18149,10 @@
         <v>0.25</v>
       </c>
       <c r="AS88">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT88">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU88">
         <v>1.9</v>
@@ -18310,7 +18340,7 @@
         <v>0.5</v>
       </c>
       <c r="AS89">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT89">
         <v>1.25</v>
@@ -18504,7 +18534,7 @@
         <v>1.67</v>
       </c>
       <c r="AT90">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU90">
         <v>1.66</v>
@@ -18692,7 +18722,7 @@
         <v>2</v>
       </c>
       <c r="AS91">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT91">
         <v>1.92</v>
@@ -18886,7 +18916,7 @@
         <v>1.18</v>
       </c>
       <c r="AT92">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU92">
         <v>1.56</v>
@@ -19369,7 +19399,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19456,7 +19486,7 @@
         <v>1.5</v>
       </c>
       <c r="AS95">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT95">
         <v>1.64</v>
@@ -19560,7 +19590,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19650,7 +19680,7 @@
         <v>2.5</v>
       </c>
       <c r="AT96">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU96">
         <v>1.97</v>
@@ -19838,7 +19868,7 @@
         <v>0.25</v>
       </c>
       <c r="AS97">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT97">
         <v>0.73</v>
@@ -20032,7 +20062,7 @@
         <v>1.18</v>
       </c>
       <c r="AT98">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU98">
         <v>1.69</v>
@@ -20133,7 +20163,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q99">
         <v>10</v>
@@ -20706,7 +20736,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q102">
         <v>1</v>
@@ -20796,7 +20826,7 @@
         <v>1.67</v>
       </c>
       <c r="AT102">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU102">
         <v>1.61</v>
@@ -20984,7 +21014,7 @@
         <v>1.4</v>
       </c>
       <c r="AS103">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT103">
         <v>1.92</v>
@@ -21178,7 +21208,7 @@
         <v>2.5</v>
       </c>
       <c r="AT104">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU104">
         <v>1.9</v>
@@ -21369,7 +21399,7 @@
         <v>1</v>
       </c>
       <c r="AT105">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU105">
         <v>1.59</v>
@@ -21470,7 +21500,7 @@
         <v>106</v>
       </c>
       <c r="P106" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21557,10 +21587,10 @@
         <v>1.6</v>
       </c>
       <c r="AS106">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT106">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU106">
         <v>1.81</v>
@@ -21661,7 +21691,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21748,7 +21778,7 @@
         <v>0.4</v>
       </c>
       <c r="AS107">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT107">
         <v>1.17</v>
@@ -21939,7 +21969,7 @@
         <v>1.6</v>
       </c>
       <c r="AS108">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT108">
         <v>1.92</v>
@@ -22043,7 +22073,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -22130,7 +22160,7 @@
         <v>0.6</v>
       </c>
       <c r="AS109">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT109">
         <v>1.25</v>
@@ -22234,7 +22264,7 @@
         <v>96</v>
       </c>
       <c r="P110" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22321,7 +22351,7 @@
         <v>0.4</v>
       </c>
       <c r="AS110">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT110">
         <v>1.08</v>
@@ -22515,7 +22545,7 @@
         <v>1.17</v>
       </c>
       <c r="AT111">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU111">
         <v>1.54</v>
@@ -22616,7 +22646,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22706,7 +22736,7 @@
         <v>1.18</v>
       </c>
       <c r="AT112">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU112">
         <v>1.55</v>
@@ -22807,7 +22837,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q113">
         <v>1</v>
@@ -22897,7 +22927,7 @@
         <v>1.27</v>
       </c>
       <c r="AT113">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU113">
         <v>1.51</v>
@@ -22998,7 +23028,7 @@
         <v>96</v>
       </c>
       <c r="P114" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q114">
         <v>15</v>
@@ -23085,7 +23115,7 @@
         <v>1.6</v>
       </c>
       <c r="AS114">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT114">
         <v>1.09</v>
@@ -23189,7 +23219,7 @@
         <v>168</v>
       </c>
       <c r="P115" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -23276,7 +23306,7 @@
         <v>0.2</v>
       </c>
       <c r="AS115">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT115">
         <v>0.73</v>
@@ -23380,7 +23410,7 @@
         <v>96</v>
       </c>
       <c r="P116" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23470,7 +23500,7 @@
         <v>1.55</v>
       </c>
       <c r="AT116">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AU116">
         <v>1.25</v>
@@ -23658,7 +23688,7 @@
         <v>2</v>
       </c>
       <c r="AS117">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT117">
         <v>1.82</v>
@@ -23762,7 +23792,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -23849,7 +23879,7 @@
         <v>0.8</v>
       </c>
       <c r="AS118">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT118">
         <v>0.75</v>
@@ -23953,7 +23983,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -24043,7 +24073,7 @@
         <v>1.27</v>
       </c>
       <c r="AT119">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU119">
         <v>1.3</v>
@@ -24234,7 +24264,7 @@
         <v>0.83</v>
       </c>
       <c r="AT120">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU120">
         <v>1.34</v>
@@ -24335,7 +24365,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q121">
         <v>8</v>
@@ -24613,7 +24643,7 @@
         <v>1.4</v>
       </c>
       <c r="AS122">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT122">
         <v>1.64</v>
@@ -24717,7 +24747,7 @@
         <v>174</v>
       </c>
       <c r="P123" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24804,7 +24834,7 @@
         <v>0.83</v>
       </c>
       <c r="AS123">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT123">
         <v>1.08</v>
@@ -24908,7 +24938,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -24995,7 +25025,7 @@
         <v>1.33</v>
       </c>
       <c r="AS124">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT124">
         <v>1.92</v>
@@ -25099,7 +25129,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25189,7 +25219,7 @@
         <v>1</v>
       </c>
       <c r="AT125">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU125">
         <v>1.53</v>
@@ -25377,7 +25407,7 @@
         <v>1.67</v>
       </c>
       <c r="AS126">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT126">
         <v>1.92</v>
@@ -25481,7 +25511,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25571,7 +25601,7 @@
         <v>1.18</v>
       </c>
       <c r="AT127">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU127">
         <v>1.68</v>
@@ -25672,7 +25702,7 @@
         <v>178</v>
       </c>
       <c r="P128" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q128">
         <v>10</v>
@@ -25863,7 +25893,7 @@
         <v>96</v>
       </c>
       <c r="P129" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25950,10 +25980,10 @@
         <v>1.83</v>
       </c>
       <c r="AS129">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT129">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU129">
         <v>1.64</v>
@@ -26054,7 +26084,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -26335,7 +26365,7 @@
         <v>1.17</v>
       </c>
       <c r="AT131">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU131">
         <v>1.47</v>
@@ -26436,7 +26466,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q132">
         <v>13</v>
@@ -26526,7 +26556,7 @@
         <v>1.91</v>
       </c>
       <c r="AT132">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU132">
         <v>2.35</v>
@@ -26717,7 +26747,7 @@
         <v>0.83</v>
       </c>
       <c r="AT133">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU133">
         <v>1.46</v>
@@ -26905,10 +26935,10 @@
         <v>0.5</v>
       </c>
       <c r="AS134">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT134">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU134">
         <v>1.69</v>
@@ -27096,7 +27126,7 @@
         <v>0.67</v>
       </c>
       <c r="AS135">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT135">
         <v>0.75</v>
@@ -27481,7 +27511,7 @@
         <v>1.18</v>
       </c>
       <c r="AT137">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AU137">
         <v>1.66</v>
@@ -27669,7 +27699,7 @@
         <v>1.83</v>
       </c>
       <c r="AS138">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT138">
         <v>1.82</v>
@@ -27860,7 +27890,7 @@
         <v>1.17</v>
       </c>
       <c r="AS139">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT139">
         <v>1</v>
@@ -27964,7 +27994,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28054,7 +28084,7 @@
         <v>1.27</v>
       </c>
       <c r="AT140">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU140">
         <v>1.51</v>
@@ -28155,7 +28185,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28242,10 +28272,10 @@
         <v>0.33</v>
       </c>
       <c r="AS141">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT141">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU141">
         <v>2</v>
@@ -28346,7 +28376,7 @@
         <v>96</v>
       </c>
       <c r="P142" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q142">
         <v>10</v>
@@ -28537,7 +28567,7 @@
         <v>160</v>
       </c>
       <c r="P143" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28627,7 +28657,7 @@
         <v>1.18</v>
       </c>
       <c r="AT143">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU143">
         <v>1.66</v>
@@ -28818,7 +28848,7 @@
         <v>2.5</v>
       </c>
       <c r="AT144">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU144">
         <v>2.01</v>
@@ -29388,7 +29418,7 @@
         <v>1.67</v>
       </c>
       <c r="AS147">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT147">
         <v>1.64</v>
@@ -29582,7 +29612,7 @@
         <v>1.67</v>
       </c>
       <c r="AT148">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU148">
         <v>1.64</v>
@@ -29683,7 +29713,7 @@
         <v>191</v>
       </c>
       <c r="P149" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q149">
         <v>9</v>
@@ -29770,7 +29800,7 @@
         <v>1.14</v>
       </c>
       <c r="AS149">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT149">
         <v>1.08</v>
@@ -29874,7 +29904,7 @@
         <v>192</v>
       </c>
       <c r="P150" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -29961,7 +29991,7 @@
         <v>0.43</v>
       </c>
       <c r="AS150">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT150">
         <v>1.25</v>
@@ -30065,7 +30095,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q151">
         <v>8</v>
@@ -30152,7 +30182,7 @@
         <v>1.57</v>
       </c>
       <c r="AS151">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT151">
         <v>1.92</v>
@@ -30447,7 +30477,7 @@
         <v>96</v>
       </c>
       <c r="P153" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q153">
         <v>3</v>
@@ -30537,7 +30567,7 @@
         <v>1.27</v>
       </c>
       <c r="AT153">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AU153">
         <v>1.35</v>
@@ -30638,7 +30668,7 @@
         <v>96</v>
       </c>
       <c r="P154" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q154">
         <v>12</v>
@@ -30728,7 +30758,7 @@
         <v>1.18</v>
       </c>
       <c r="AT154">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU154">
         <v>1.71</v>
@@ -30919,7 +30949,7 @@
         <v>1.27</v>
       </c>
       <c r="AT155">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU155">
         <v>1.45</v>
@@ -31020,7 +31050,7 @@
         <v>96</v>
       </c>
       <c r="P156" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -31110,7 +31140,7 @@
         <v>0.83</v>
       </c>
       <c r="AT156">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU156">
         <v>1.49</v>
@@ -31298,7 +31328,7 @@
         <v>1</v>
       </c>
       <c r="AS157">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT157">
         <v>1</v>
@@ -31489,7 +31519,7 @@
         <v>1.57</v>
       </c>
       <c r="AS158">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT158">
         <v>1.09</v>
@@ -31680,7 +31710,7 @@
         <v>0.71</v>
       </c>
       <c r="AS159">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT159">
         <v>0.75</v>
@@ -31871,10 +31901,10 @@
         <v>0.86</v>
       </c>
       <c r="AS160">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT160">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU160">
         <v>2.02</v>
@@ -32062,10 +32092,10 @@
         <v>0.57</v>
       </c>
       <c r="AS161">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT161">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU161">
         <v>1.53</v>
@@ -32444,7 +32474,7 @@
         <v>0.63</v>
       </c>
       <c r="AS163">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT163">
         <v>0.75</v>
@@ -32548,7 +32578,7 @@
         <v>151</v>
       </c>
       <c r="P164" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32739,7 +32769,7 @@
         <v>96</v>
       </c>
       <c r="P165" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -33121,7 +33151,7 @@
         <v>96</v>
       </c>
       <c r="P167" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q167">
         <v>9</v>
@@ -33211,7 +33241,7 @@
         <v>1.18</v>
       </c>
       <c r="AT167">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU167">
         <v>1.64</v>
@@ -33503,7 +33533,7 @@
         <v>164</v>
       </c>
       <c r="P169" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33590,7 +33620,7 @@
         <v>0.14</v>
       </c>
       <c r="AS169">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT169">
         <v>0.73</v>
@@ -33784,7 +33814,7 @@
         <v>1.55</v>
       </c>
       <c r="AT170">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU170">
         <v>1.29</v>
@@ -33885,7 +33915,7 @@
         <v>105</v>
       </c>
       <c r="P171" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q171">
         <v>8</v>
@@ -33972,7 +34002,7 @@
         <v>1.38</v>
       </c>
       <c r="AS171">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT171">
         <v>1.08</v>
@@ -34076,7 +34106,7 @@
         <v>96</v>
       </c>
       <c r="P172" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q172">
         <v>12</v>
@@ -34163,7 +34193,7 @@
         <v>0.88</v>
       </c>
       <c r="AS172">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT172">
         <v>1</v>
@@ -34267,7 +34297,7 @@
         <v>91</v>
       </c>
       <c r="P173" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -34354,10 +34384,10 @@
         <v>0.75</v>
       </c>
       <c r="AS173">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT173">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU173">
         <v>2.04</v>
@@ -34458,7 +34488,7 @@
         <v>202</v>
       </c>
       <c r="P174" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q174">
         <v>17</v>
@@ -34545,10 +34575,10 @@
         <v>1.33</v>
       </c>
       <c r="AS174">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT174">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU174">
         <v>1.78</v>
@@ -34736,10 +34766,10 @@
         <v>0.25</v>
       </c>
       <c r="AS175">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT175">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU175">
         <v>1.51</v>
@@ -34927,7 +34957,7 @@
         <v>1.38</v>
       </c>
       <c r="AS176">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT176">
         <v>1.09</v>
@@ -35118,10 +35148,10 @@
         <v>1.44</v>
       </c>
       <c r="AS177">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT177">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU177">
         <v>1.89</v>
@@ -35312,7 +35342,7 @@
         <v>1.91</v>
       </c>
       <c r="AT178">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AU178">
         <v>2.11</v>
@@ -35413,7 +35443,7 @@
         <v>86</v>
       </c>
       <c r="P179" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q179">
         <v>10</v>
@@ -35500,10 +35530,10 @@
         <v>0.63</v>
       </c>
       <c r="AS179">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT179">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU179">
         <v>1.76</v>
@@ -35694,7 +35724,7 @@
         <v>1.27</v>
       </c>
       <c r="AT180">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU180">
         <v>1.3</v>
@@ -35795,7 +35825,7 @@
         <v>207</v>
       </c>
       <c r="P181" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q181">
         <v>13</v>
@@ -35986,7 +36016,7 @@
         <v>96</v>
       </c>
       <c r="P182" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -36177,7 +36207,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q183">
         <v>7</v>
@@ -36368,7 +36398,7 @@
         <v>209</v>
       </c>
       <c r="P184" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36458,7 +36488,7 @@
         <v>2.5</v>
       </c>
       <c r="AT184">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU184">
         <v>2.05</v>
@@ -36840,7 +36870,7 @@
         <v>1.18</v>
       </c>
       <c r="AT186">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU186">
         <v>1.73</v>
@@ -37028,7 +37058,7 @@
         <v>0.67</v>
       </c>
       <c r="AS187">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT187">
         <v>0.75</v>
@@ -37132,7 +37162,7 @@
         <v>213</v>
       </c>
       <c r="P188" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -37219,7 +37249,7 @@
         <v>1.38</v>
       </c>
       <c r="AS188">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT188">
         <v>1.82</v>
@@ -37323,7 +37353,7 @@
         <v>214</v>
       </c>
       <c r="P189" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q189">
         <v>7</v>
@@ -37514,7 +37544,7 @@
         <v>119</v>
       </c>
       <c r="P190" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -37705,7 +37735,7 @@
         <v>130</v>
       </c>
       <c r="P191" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q191">
         <v>8</v>
@@ -38087,7 +38117,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q193">
         <v>10</v>
@@ -38278,7 +38308,7 @@
         <v>205</v>
       </c>
       <c r="P194" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q194">
         <v>9</v>
@@ -38469,7 +38499,7 @@
         <v>96</v>
       </c>
       <c r="P195" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q195">
         <v>9</v>
@@ -38941,7 +38971,7 @@
         <v>1.27</v>
       </c>
       <c r="AT197">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU197">
         <v>1.33</v>
@@ -39233,7 +39263,7 @@
         <v>151</v>
       </c>
       <c r="P199" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q199">
         <v>7</v>
@@ -39615,7 +39645,7 @@
         <v>87</v>
       </c>
       <c r="P201" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Q201">
         <v>9</v>
@@ -39702,7 +39732,7 @@
         <v>1.56</v>
       </c>
       <c r="AS201">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT201">
         <v>1.82</v>
@@ -39893,10 +39923,10 @@
         <v>0.5</v>
       </c>
       <c r="AS202">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT202">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU202">
         <v>1.98</v>
@@ -40084,10 +40114,10 @@
         <v>0.67</v>
       </c>
       <c r="AS203">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT203">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU203">
         <v>1.44</v>
@@ -40275,10 +40305,10 @@
         <v>0.33</v>
       </c>
       <c r="AS204">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT204">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU204">
         <v>1.76</v>
@@ -40379,7 +40409,7 @@
         <v>96</v>
       </c>
       <c r="P205" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -40466,10 +40496,10 @@
         <v>2.22</v>
       </c>
       <c r="AS205">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT205">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AU205">
         <v>1.9</v>
@@ -40570,7 +40600,7 @@
         <v>220</v>
       </c>
       <c r="P206" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="Q206">
         <v>5</v>
@@ -40657,7 +40687,7 @@
         <v>1.1</v>
       </c>
       <c r="AS206">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT206">
         <v>1.17</v>
@@ -40761,7 +40791,7 @@
         <v>221</v>
       </c>
       <c r="P207" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q207">
         <v>2</v>
@@ -40851,7 +40881,7 @@
         <v>1.27</v>
       </c>
       <c r="AT207">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU207">
         <v>1.6</v>
@@ -41042,7 +41072,7 @@
         <v>1.91</v>
       </c>
       <c r="AT208">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU208">
         <v>2.12</v>
@@ -41143,7 +41173,7 @@
         <v>222</v>
       </c>
       <c r="P209" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q209">
         <v>8</v>
@@ -41230,7 +41260,7 @@
         <v>1.22</v>
       </c>
       <c r="AS209">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT209">
         <v>1.09</v>
@@ -41421,10 +41451,10 @@
         <v>1.5</v>
       </c>
       <c r="AS210">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT210">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU210">
         <v>1.49</v>
@@ -41525,7 +41555,7 @@
         <v>119</v>
       </c>
       <c r="P211" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="Q211">
         <v>9</v>
@@ -41612,10 +41642,10 @@
         <v>0.78</v>
       </c>
       <c r="AS211">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT211">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU211">
         <v>1.73</v>
@@ -41907,7 +41937,7 @@
         <v>147</v>
       </c>
       <c r="P213" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="Q213">
         <v>6</v>
@@ -42098,7 +42128,7 @@
         <v>224</v>
       </c>
       <c r="P214" t="s">
-        <v>323</v>
+        <v>235</v>
       </c>
       <c r="Q214">
         <v>5</v>
@@ -42289,7 +42319,7 @@
         <v>89</v>
       </c>
       <c r="P215" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q215">
         <v>6</v>
@@ -42480,7 +42510,7 @@
         <v>225</v>
       </c>
       <c r="P216" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q216">
         <v>5</v>
@@ -43053,7 +43083,7 @@
         <v>228</v>
       </c>
       <c r="P219" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q219">
         <v>9</v>
@@ -43244,7 +43274,7 @@
         <v>229</v>
       </c>
       <c r="P220" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q220">
         <v>6</v>
@@ -43626,7 +43656,7 @@
         <v>230</v>
       </c>
       <c r="P222" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q222">
         <v>4</v>
@@ -43768,6 +43798,1725 @@
       </c>
       <c r="BK222">
         <v>11</v>
+      </c>
+    </row>
+    <row r="223" spans="1:63">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>2604207</v>
+      </c>
+      <c r="C223" t="s">
+        <v>63</v>
+      </c>
+      <c r="D223" t="s">
+        <v>64</v>
+      </c>
+      <c r="E223" s="2">
+        <v>44975.41666666666</v>
+      </c>
+      <c r="F223">
+        <v>23</v>
+      </c>
+      <c r="G223" t="s">
+        <v>72</v>
+      </c>
+      <c r="H223" t="s">
+        <v>75</v>
+      </c>
+      <c r="I223">
+        <v>1</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>1</v>
+      </c>
+      <c r="L223">
+        <v>2</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>2</v>
+      </c>
+      <c r="O223" t="s">
+        <v>231</v>
+      </c>
+      <c r="P223" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q223">
+        <v>4</v>
+      </c>
+      <c r="R223">
+        <v>2</v>
+      </c>
+      <c r="S223">
+        <v>6</v>
+      </c>
+      <c r="T223">
+        <v>2.35</v>
+      </c>
+      <c r="U223">
+        <v>2.2</v>
+      </c>
+      <c r="V223">
+        <v>4.4</v>
+      </c>
+      <c r="W223">
+        <v>1.35</v>
+      </c>
+      <c r="X223">
+        <v>2.9</v>
+      </c>
+      <c r="Y223">
+        <v>2.7</v>
+      </c>
+      <c r="Z223">
+        <v>1.4</v>
+      </c>
+      <c r="AA223">
+        <v>6</v>
+      </c>
+      <c r="AB223">
+        <v>1.1</v>
+      </c>
+      <c r="AC223">
+        <v>1.78</v>
+      </c>
+      <c r="AD223">
+        <v>3.6</v>
+      </c>
+      <c r="AE223">
+        <v>3.85</v>
+      </c>
+      <c r="AF223">
+        <v>1.04</v>
+      </c>
+      <c r="AG223">
+        <v>9.5</v>
+      </c>
+      <c r="AH223">
+        <v>1.27</v>
+      </c>
+      <c r="AI223">
+        <v>3.6</v>
+      </c>
+      <c r="AJ223">
+        <v>1.89</v>
+      </c>
+      <c r="AK223">
+        <v>1.86</v>
+      </c>
+      <c r="AL223">
+        <v>1.7</v>
+      </c>
+      <c r="AM223">
+        <v>2</v>
+      </c>
+      <c r="AN223">
+        <v>1.18</v>
+      </c>
+      <c r="AO223">
+        <v>1.3</v>
+      </c>
+      <c r="AP223">
+        <v>1.95</v>
+      </c>
+      <c r="AQ223">
+        <v>2.18</v>
+      </c>
+      <c r="AR223">
+        <v>1.45</v>
+      </c>
+      <c r="AS223">
+        <v>2.25</v>
+      </c>
+      <c r="AT223">
+        <v>1.33</v>
+      </c>
+      <c r="AU223">
+        <v>2</v>
+      </c>
+      <c r="AV223">
+        <v>1.42</v>
+      </c>
+      <c r="AW223">
+        <v>3.42</v>
+      </c>
+      <c r="AX223">
+        <v>1.53</v>
+      </c>
+      <c r="AY223">
+        <v>10.5</v>
+      </c>
+      <c r="AZ223">
+        <v>2.81</v>
+      </c>
+      <c r="BA223">
+        <v>1.18</v>
+      </c>
+      <c r="BB223">
+        <v>1.32</v>
+      </c>
+      <c r="BC223">
+        <v>1.65</v>
+      </c>
+      <c r="BD223">
+        <v>2</v>
+      </c>
+      <c r="BE223">
+        <v>2.5</v>
+      </c>
+      <c r="BF223">
+        <v>3</v>
+      </c>
+      <c r="BG223">
+        <v>4</v>
+      </c>
+      <c r="BH223">
+        <v>4</v>
+      </c>
+      <c r="BI223">
+        <v>2</v>
+      </c>
+      <c r="BJ223">
+        <v>7</v>
+      </c>
+      <c r="BK223">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:63">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>2604199</v>
+      </c>
+      <c r="C224" t="s">
+        <v>63</v>
+      </c>
+      <c r="D224" t="s">
+        <v>64</v>
+      </c>
+      <c r="E224" s="2">
+        <v>44975.41666666666</v>
+      </c>
+      <c r="F224">
+        <v>23</v>
+      </c>
+      <c r="G224" t="s">
+        <v>65</v>
+      </c>
+      <c r="H224" t="s">
+        <v>76</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>1</v>
+      </c>
+      <c r="L224">
+        <v>2</v>
+      </c>
+      <c r="M224">
+        <v>3</v>
+      </c>
+      <c r="N224">
+        <v>5</v>
+      </c>
+      <c r="O224" t="s">
+        <v>232</v>
+      </c>
+      <c r="P224" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q224">
+        <v>5</v>
+      </c>
+      <c r="R224">
+        <v>5</v>
+      </c>
+      <c r="S224">
+        <v>10</v>
+      </c>
+      <c r="T224">
+        <v>1.75</v>
+      </c>
+      <c r="U224">
+        <v>2.65</v>
+      </c>
+      <c r="V224">
+        <v>6.3</v>
+      </c>
+      <c r="W224">
+        <v>1.25</v>
+      </c>
+      <c r="X224">
+        <v>3.75</v>
+      </c>
+      <c r="Y224">
+        <v>2.15</v>
+      </c>
+      <c r="Z224">
+        <v>1.62</v>
+      </c>
+      <c r="AA224">
+        <v>4.5</v>
+      </c>
+      <c r="AB224">
+        <v>1.17</v>
+      </c>
+      <c r="AC224">
+        <v>1.37</v>
+      </c>
+      <c r="AD224">
+        <v>4.7</v>
+      </c>
+      <c r="AE224">
+        <v>6.4</v>
+      </c>
+      <c r="AF224">
+        <v>1.03</v>
+      </c>
+      <c r="AG224">
+        <v>11</v>
+      </c>
+      <c r="AH224">
+        <v>1.12</v>
+      </c>
+      <c r="AI224">
+        <v>5.7</v>
+      </c>
+      <c r="AJ224">
+        <v>1.49</v>
+      </c>
+      <c r="AK224">
+        <v>2.51</v>
+      </c>
+      <c r="AL224">
+        <v>1.65</v>
+      </c>
+      <c r="AM224">
+        <v>2.1</v>
+      </c>
+      <c r="AN224">
+        <v>1.05</v>
+      </c>
+      <c r="AO224">
+        <v>1.17</v>
+      </c>
+      <c r="AP224">
+        <v>3.1</v>
+      </c>
+      <c r="AQ224">
+        <v>2.2</v>
+      </c>
+      <c r="AR224">
+        <v>0.45</v>
+      </c>
+      <c r="AS224">
+        <v>2</v>
+      </c>
+      <c r="AT224">
+        <v>0.67</v>
+      </c>
+      <c r="AU224">
+        <v>1.87</v>
+      </c>
+      <c r="AV224">
+        <v>1.32</v>
+      </c>
+      <c r="AW224">
+        <v>3.19</v>
+      </c>
+      <c r="AX224">
+        <v>1.32</v>
+      </c>
+      <c r="AY224">
+        <v>13.75</v>
+      </c>
+      <c r="AZ224">
+        <v>3.64</v>
+      </c>
+      <c r="BA224">
+        <v>1.15</v>
+      </c>
+      <c r="BB224">
+        <v>1.22</v>
+      </c>
+      <c r="BC224">
+        <v>1.48</v>
+      </c>
+      <c r="BD224">
+        <v>1.73</v>
+      </c>
+      <c r="BE224">
+        <v>2.1</v>
+      </c>
+      <c r="BF224">
+        <v>6</v>
+      </c>
+      <c r="BG224">
+        <v>8</v>
+      </c>
+      <c r="BH224">
+        <v>8</v>
+      </c>
+      <c r="BI224">
+        <v>3</v>
+      </c>
+      <c r="BJ224">
+        <v>14</v>
+      </c>
+      <c r="BK224">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="1:63">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>2604206</v>
+      </c>
+      <c r="C225" t="s">
+        <v>63</v>
+      </c>
+      <c r="D225" t="s">
+        <v>64</v>
+      </c>
+      <c r="E225" s="2">
+        <v>44975.41666666666</v>
+      </c>
+      <c r="F225">
+        <v>23</v>
+      </c>
+      <c r="G225" t="s">
+        <v>71</v>
+      </c>
+      <c r="H225" t="s">
+        <v>67</v>
+      </c>
+      <c r="I225">
+        <v>2</v>
+      </c>
+      <c r="J225">
+        <v>1</v>
+      </c>
+      <c r="K225">
+        <v>3</v>
+      </c>
+      <c r="L225">
+        <v>3</v>
+      </c>
+      <c r="M225">
+        <v>4</v>
+      </c>
+      <c r="N225">
+        <v>7</v>
+      </c>
+      <c r="O225" t="s">
+        <v>233</v>
+      </c>
+      <c r="P225" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q225">
+        <v>6</v>
+      </c>
+      <c r="R225">
+        <v>6</v>
+      </c>
+      <c r="S225">
+        <v>12</v>
+      </c>
+      <c r="T225">
+        <v>2.7</v>
+      </c>
+      <c r="U225">
+        <v>2.15</v>
+      </c>
+      <c r="V225">
+        <v>3.7</v>
+      </c>
+      <c r="W225">
+        <v>1.3</v>
+      </c>
+      <c r="X225">
+        <v>3.2</v>
+      </c>
+      <c r="Y225">
+        <v>2.5</v>
+      </c>
+      <c r="Z225">
+        <v>1.45</v>
+      </c>
+      <c r="AA225">
+        <v>6</v>
+      </c>
+      <c r="AB225">
+        <v>1.11</v>
+      </c>
+      <c r="AC225">
+        <v>2.12</v>
+      </c>
+      <c r="AD225">
+        <v>3.2</v>
+      </c>
+      <c r="AE225">
+        <v>3.2</v>
+      </c>
+      <c r="AF225">
+        <v>1.03</v>
+      </c>
+      <c r="AG225">
+        <v>11</v>
+      </c>
+      <c r="AH225">
+        <v>1.22</v>
+      </c>
+      <c r="AI225">
+        <v>4</v>
+      </c>
+      <c r="AJ225">
+        <v>1.73</v>
+      </c>
+      <c r="AK225">
+        <v>2.05</v>
+      </c>
+      <c r="AL225">
+        <v>1.55</v>
+      </c>
+      <c r="AM225">
+        <v>2.25</v>
+      </c>
+      <c r="AN225">
+        <v>1.28</v>
+      </c>
+      <c r="AO225">
+        <v>1.32</v>
+      </c>
+      <c r="AP225">
+        <v>1.7</v>
+      </c>
+      <c r="AQ225">
+        <v>1.6</v>
+      </c>
+      <c r="AR225">
+        <v>1.55</v>
+      </c>
+      <c r="AS225">
+        <v>1.45</v>
+      </c>
+      <c r="AT225">
+        <v>1.67</v>
+      </c>
+      <c r="AU225">
+        <v>1.82</v>
+      </c>
+      <c r="AV225">
+        <v>1.69</v>
+      </c>
+      <c r="AW225">
+        <v>3.51</v>
+      </c>
+      <c r="AX225">
+        <v>1.66</v>
+      </c>
+      <c r="AY225">
+        <v>7.9</v>
+      </c>
+      <c r="AZ225">
+        <v>2.66</v>
+      </c>
+      <c r="BA225">
+        <v>1.18</v>
+      </c>
+      <c r="BB225">
+        <v>1.31</v>
+      </c>
+      <c r="BC225">
+        <v>1.65</v>
+      </c>
+      <c r="BD225">
+        <v>2</v>
+      </c>
+      <c r="BE225">
+        <v>2.5</v>
+      </c>
+      <c r="BF225">
+        <v>9</v>
+      </c>
+      <c r="BG225">
+        <v>7</v>
+      </c>
+      <c r="BH225">
+        <v>6</v>
+      </c>
+      <c r="BI225">
+        <v>4</v>
+      </c>
+      <c r="BJ225">
+        <v>15</v>
+      </c>
+      <c r="BK225">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226" spans="1:63">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>2604202</v>
+      </c>
+      <c r="C226" t="s">
+        <v>63</v>
+      </c>
+      <c r="D226" t="s">
+        <v>64</v>
+      </c>
+      <c r="E226" s="2">
+        <v>44975.41666666666</v>
+      </c>
+      <c r="F226">
+        <v>23</v>
+      </c>
+      <c r="G226" t="s">
+        <v>68</v>
+      </c>
+      <c r="H226" t="s">
+        <v>78</v>
+      </c>
+      <c r="I226">
+        <v>2</v>
+      </c>
+      <c r="J226">
+        <v>1</v>
+      </c>
+      <c r="K226">
+        <v>3</v>
+      </c>
+      <c r="L226">
+        <v>3</v>
+      </c>
+      <c r="M226">
+        <v>1</v>
+      </c>
+      <c r="N226">
+        <v>4</v>
+      </c>
+      <c r="O226" t="s">
+        <v>234</v>
+      </c>
+      <c r="P226" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q226">
+        <v>4</v>
+      </c>
+      <c r="R226">
+        <v>4</v>
+      </c>
+      <c r="S226">
+        <v>8</v>
+      </c>
+      <c r="T226">
+        <v>2.2</v>
+      </c>
+      <c r="U226">
+        <v>2.3</v>
+      </c>
+      <c r="V226">
+        <v>4.7</v>
+      </c>
+      <c r="W226">
+        <v>1.3</v>
+      </c>
+      <c r="X226">
+        <v>3.2</v>
+      </c>
+      <c r="Y226">
+        <v>2.5</v>
+      </c>
+      <c r="Z226">
+        <v>1.45</v>
+      </c>
+      <c r="AA226">
+        <v>6</v>
+      </c>
+      <c r="AB226">
+        <v>1.11</v>
+      </c>
+      <c r="AC226">
+        <v>1.7</v>
+      </c>
+      <c r="AD226">
+        <v>3.65</v>
+      </c>
+      <c r="AE226">
+        <v>4.3</v>
+      </c>
+      <c r="AF226">
+        <v>1.03</v>
+      </c>
+      <c r="AG226">
+        <v>11</v>
+      </c>
+      <c r="AH226">
+        <v>1.22</v>
+      </c>
+      <c r="AI226">
+        <v>4</v>
+      </c>
+      <c r="AJ226">
+        <v>1.71</v>
+      </c>
+      <c r="AK226">
+        <v>2.07</v>
+      </c>
+      <c r="AL226">
+        <v>1.65</v>
+      </c>
+      <c r="AM226">
+        <v>2.1</v>
+      </c>
+      <c r="AN226">
+        <v>1.15</v>
+      </c>
+      <c r="AO226">
+        <v>1.27</v>
+      </c>
+      <c r="AP226">
+        <v>2.15</v>
+      </c>
+      <c r="AQ226">
+        <v>2.55</v>
+      </c>
+      <c r="AR226">
+        <v>0.7</v>
+      </c>
+      <c r="AS226">
+        <v>2.58</v>
+      </c>
+      <c r="AT226">
+        <v>0.64</v>
+      </c>
+      <c r="AU226">
+        <v>1.8</v>
+      </c>
+      <c r="AV226">
+        <v>1.29</v>
+      </c>
+      <c r="AW226">
+        <v>3.09</v>
+      </c>
+      <c r="AX226">
+        <v>1.46</v>
+      </c>
+      <c r="AY226">
+        <v>10.75</v>
+      </c>
+      <c r="AZ226">
+        <v>3.05</v>
+      </c>
+      <c r="BA226">
+        <v>1.21</v>
+      </c>
+      <c r="BB226">
+        <v>1.48</v>
+      </c>
+      <c r="BC226">
+        <v>1.73</v>
+      </c>
+      <c r="BD226">
+        <v>2.1</v>
+      </c>
+      <c r="BE226">
+        <v>2.7</v>
+      </c>
+      <c r="BF226">
+        <v>8</v>
+      </c>
+      <c r="BG226">
+        <v>3</v>
+      </c>
+      <c r="BH226">
+        <v>5</v>
+      </c>
+      <c r="BI226">
+        <v>2</v>
+      </c>
+      <c r="BJ226">
+        <v>13</v>
+      </c>
+      <c r="BK226">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:63">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>2604205</v>
+      </c>
+      <c r="C227" t="s">
+        <v>63</v>
+      </c>
+      <c r="D227" t="s">
+        <v>64</v>
+      </c>
+      <c r="E227" s="2">
+        <v>44975.41666666666</v>
+      </c>
+      <c r="F227">
+        <v>23</v>
+      </c>
+      <c r="G227" t="s">
+        <v>73</v>
+      </c>
+      <c r="H227" t="s">
+        <v>81</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>2</v>
+      </c>
+      <c r="N227">
+        <v>2</v>
+      </c>
+      <c r="O227" t="s">
+        <v>96</v>
+      </c>
+      <c r="P227" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q227">
+        <v>5</v>
+      </c>
+      <c r="R227">
+        <v>8</v>
+      </c>
+      <c r="S227">
+        <v>13</v>
+      </c>
+      <c r="T227">
+        <v>5</v>
+      </c>
+      <c r="U227">
+        <v>2.4</v>
+      </c>
+      <c r="V227">
+        <v>2.05</v>
+      </c>
+      <c r="W227">
+        <v>1.3</v>
+      </c>
+      <c r="X227">
+        <v>3.2</v>
+      </c>
+      <c r="Y227">
+        <v>2.45</v>
+      </c>
+      <c r="Z227">
+        <v>1.47</v>
+      </c>
+      <c r="AA227">
+        <v>5.5</v>
+      </c>
+      <c r="AB227">
+        <v>1.12</v>
+      </c>
+      <c r="AC227">
+        <v>4.7</v>
+      </c>
+      <c r="AD227">
+        <v>3.65</v>
+      </c>
+      <c r="AE227">
+        <v>1.63</v>
+      </c>
+      <c r="AF227">
+        <v>1.02</v>
+      </c>
+      <c r="AG227">
+        <v>12</v>
+      </c>
+      <c r="AH227">
+        <v>1.2</v>
+      </c>
+      <c r="AI227">
+        <v>4.3</v>
+      </c>
+      <c r="AJ227">
+        <v>1.68</v>
+      </c>
+      <c r="AK227">
+        <v>2.1</v>
+      </c>
+      <c r="AL227">
+        <v>1.65</v>
+      </c>
+      <c r="AM227">
+        <v>2.1</v>
+      </c>
+      <c r="AN227">
+        <v>2.25</v>
+      </c>
+      <c r="AO227">
+        <v>1.27</v>
+      </c>
+      <c r="AP227">
+        <v>1.12</v>
+      </c>
+      <c r="AQ227">
+        <v>1.1</v>
+      </c>
+      <c r="AR227">
+        <v>2.3</v>
+      </c>
+      <c r="AS227">
+        <v>1</v>
+      </c>
+      <c r="AT227">
+        <v>2.36</v>
+      </c>
+      <c r="AU227">
+        <v>1.47</v>
+      </c>
+      <c r="AV227">
+        <v>1.73</v>
+      </c>
+      <c r="AW227">
+        <v>3.2</v>
+      </c>
+      <c r="AX227">
+        <v>2.6</v>
+      </c>
+      <c r="AY227">
+        <v>10.5</v>
+      </c>
+      <c r="AZ227">
+        <v>1.6</v>
+      </c>
+      <c r="BA227">
+        <v>1.19</v>
+      </c>
+      <c r="BB227">
+        <v>1.26</v>
+      </c>
+      <c r="BC227">
+        <v>1.55</v>
+      </c>
+      <c r="BD227">
+        <v>1.85</v>
+      </c>
+      <c r="BE227">
+        <v>2.25</v>
+      </c>
+      <c r="BF227">
+        <v>3</v>
+      </c>
+      <c r="BG227">
+        <v>7</v>
+      </c>
+      <c r="BH227">
+        <v>4</v>
+      </c>
+      <c r="BI227">
+        <v>1</v>
+      </c>
+      <c r="BJ227">
+        <v>7</v>
+      </c>
+      <c r="BK227">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:63">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>2604204</v>
+      </c>
+      <c r="C228" t="s">
+        <v>63</v>
+      </c>
+      <c r="D228" t="s">
+        <v>64</v>
+      </c>
+      <c r="E228" s="2">
+        <v>44975.41666666666</v>
+      </c>
+      <c r="F228">
+        <v>23</v>
+      </c>
+      <c r="G228" t="s">
+        <v>70</v>
+      </c>
+      <c r="H228" t="s">
+        <v>79</v>
+      </c>
+      <c r="I228">
+        <v>1</v>
+      </c>
+      <c r="J228">
+        <v>1</v>
+      </c>
+      <c r="K228">
+        <v>2</v>
+      </c>
+      <c r="L228">
+        <v>1</v>
+      </c>
+      <c r="M228">
+        <v>1</v>
+      </c>
+      <c r="N228">
+        <v>2</v>
+      </c>
+      <c r="O228" t="s">
+        <v>235</v>
+      </c>
+      <c r="P228" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q228">
+        <v>12</v>
+      </c>
+      <c r="R228">
+        <v>2</v>
+      </c>
+      <c r="S228">
+        <v>14</v>
+      </c>
+      <c r="T228">
+        <v>2.35</v>
+      </c>
+      <c r="U228">
+        <v>2.2</v>
+      </c>
+      <c r="V228">
+        <v>4.3</v>
+      </c>
+      <c r="W228">
+        <v>1.36</v>
+      </c>
+      <c r="X228">
+        <v>3</v>
+      </c>
+      <c r="Y228">
+        <v>2.5</v>
+      </c>
+      <c r="Z228">
+        <v>1.5</v>
+      </c>
+      <c r="AA228">
+        <v>6</v>
+      </c>
+      <c r="AB228">
+        <v>1.11</v>
+      </c>
+      <c r="AC228">
+        <v>1.82</v>
+      </c>
+      <c r="AD228">
+        <v>3.45</v>
+      </c>
+      <c r="AE228">
+        <v>3.8</v>
+      </c>
+      <c r="AF228">
+        <v>1.05</v>
+      </c>
+      <c r="AG228">
+        <v>9</v>
+      </c>
+      <c r="AH228">
+        <v>1.29</v>
+      </c>
+      <c r="AI228">
+        <v>3.5</v>
+      </c>
+      <c r="AJ228">
+        <v>1.79</v>
+      </c>
+      <c r="AK228">
+        <v>1.98</v>
+      </c>
+      <c r="AL228">
+        <v>1.73</v>
+      </c>
+      <c r="AM228">
+        <v>2</v>
+      </c>
+      <c r="AN228">
+        <v>1.22</v>
+      </c>
+      <c r="AO228">
+        <v>1.25</v>
+      </c>
+      <c r="AP228">
+        <v>1.88</v>
+      </c>
+      <c r="AQ228">
+        <v>1.45</v>
+      </c>
+      <c r="AR228">
+        <v>1.27</v>
+      </c>
+      <c r="AS228">
+        <v>1.42</v>
+      </c>
+      <c r="AT228">
+        <v>1.25</v>
+      </c>
+      <c r="AU228">
+        <v>1.76</v>
+      </c>
+      <c r="AV228">
+        <v>1.51</v>
+      </c>
+      <c r="AW228">
+        <v>3.27</v>
+      </c>
+      <c r="AX228">
+        <v>1.53</v>
+      </c>
+      <c r="AY228">
+        <v>10</v>
+      </c>
+      <c r="AZ228">
+        <v>2.84</v>
+      </c>
+      <c r="BA228">
+        <v>1.27</v>
+      </c>
+      <c r="BB228">
+        <v>1.57</v>
+      </c>
+      <c r="BC228">
+        <v>1.91</v>
+      </c>
+      <c r="BD228">
+        <v>2.4</v>
+      </c>
+      <c r="BE228">
+        <v>3.5</v>
+      </c>
+      <c r="BF228">
+        <v>7</v>
+      </c>
+      <c r="BG228">
+        <v>4</v>
+      </c>
+      <c r="BH228">
+        <v>9</v>
+      </c>
+      <c r="BI228">
+        <v>3</v>
+      </c>
+      <c r="BJ228">
+        <v>16</v>
+      </c>
+      <c r="BK228">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:63">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>2604201</v>
+      </c>
+      <c r="C229" t="s">
+        <v>63</v>
+      </c>
+      <c r="D229" t="s">
+        <v>64</v>
+      </c>
+      <c r="E229" s="2">
+        <v>44976.375</v>
+      </c>
+      <c r="F229">
+        <v>23</v>
+      </c>
+      <c r="G229" t="s">
+        <v>80</v>
+      </c>
+      <c r="H229" t="s">
+        <v>84</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>3</v>
+      </c>
+      <c r="N229">
+        <v>3</v>
+      </c>
+      <c r="O229" t="s">
+        <v>96</v>
+      </c>
+      <c r="P229" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q229">
+        <v>7</v>
+      </c>
+      <c r="R229">
+        <v>7</v>
+      </c>
+      <c r="S229">
+        <v>14</v>
+      </c>
+      <c r="T229">
+        <v>2.55</v>
+      </c>
+      <c r="U229">
+        <v>2.15</v>
+      </c>
+      <c r="V229">
+        <v>3.75</v>
+      </c>
+      <c r="W229">
+        <v>1.33</v>
+      </c>
+      <c r="X229">
+        <v>3</v>
+      </c>
+      <c r="Y229">
+        <v>2.45</v>
+      </c>
+      <c r="Z229">
+        <v>1.49</v>
+      </c>
+      <c r="AA229">
+        <v>5.75</v>
+      </c>
+      <c r="AB229">
+        <v>1.11</v>
+      </c>
+      <c r="AC229">
+        <v>1.88</v>
+      </c>
+      <c r="AD229">
+        <v>3.72</v>
+      </c>
+      <c r="AE229">
+        <v>3.7</v>
+      </c>
+      <c r="AF229">
+        <v>1.04</v>
+      </c>
+      <c r="AG229">
+        <v>10</v>
+      </c>
+      <c r="AH229">
+        <v>1.22</v>
+      </c>
+      <c r="AI229">
+        <v>4</v>
+      </c>
+      <c r="AJ229">
+        <v>1.61</v>
+      </c>
+      <c r="AK229">
+        <v>2.05</v>
+      </c>
+      <c r="AL229">
+        <v>1.6</v>
+      </c>
+      <c r="AM229">
+        <v>2.15</v>
+      </c>
+      <c r="AN229">
+        <v>1.29</v>
+      </c>
+      <c r="AO229">
+        <v>1.29</v>
+      </c>
+      <c r="AP229">
+        <v>1.75</v>
+      </c>
+      <c r="AQ229">
+        <v>2</v>
+      </c>
+      <c r="AR229">
+        <v>0.8</v>
+      </c>
+      <c r="AS229">
+        <v>1.83</v>
+      </c>
+      <c r="AT229">
+        <v>1</v>
+      </c>
+      <c r="AU229">
+        <v>1.9</v>
+      </c>
+      <c r="AV229">
+        <v>1.31</v>
+      </c>
+      <c r="AW229">
+        <v>3.21</v>
+      </c>
+      <c r="AX229">
+        <v>1.49</v>
+      </c>
+      <c r="AY229">
+        <v>10.5</v>
+      </c>
+      <c r="AZ229">
+        <v>2.95</v>
+      </c>
+      <c r="BA229">
+        <v>1.18</v>
+      </c>
+      <c r="BB229">
+        <v>1.31</v>
+      </c>
+      <c r="BC229">
+        <v>1.65</v>
+      </c>
+      <c r="BD229">
+        <v>2</v>
+      </c>
+      <c r="BE229">
+        <v>2.5</v>
+      </c>
+      <c r="BF229">
+        <v>6</v>
+      </c>
+      <c r="BG229">
+        <v>10</v>
+      </c>
+      <c r="BH229">
+        <v>6</v>
+      </c>
+      <c r="BI229">
+        <v>2</v>
+      </c>
+      <c r="BJ229">
+        <v>12</v>
+      </c>
+      <c r="BK229">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" spans="1:63">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>2604203</v>
+      </c>
+      <c r="C230" t="s">
+        <v>63</v>
+      </c>
+      <c r="D230" t="s">
+        <v>64</v>
+      </c>
+      <c r="E230" s="2">
+        <v>44976.41666666666</v>
+      </c>
+      <c r="F230">
+        <v>23</v>
+      </c>
+      <c r="G230" t="s">
+        <v>69</v>
+      </c>
+      <c r="H230" t="s">
+        <v>82</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>2</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>2</v>
+      </c>
+      <c r="O230" t="s">
+        <v>236</v>
+      </c>
+      <c r="P230" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q230">
+        <v>6</v>
+      </c>
+      <c r="R230">
+        <v>6</v>
+      </c>
+      <c r="S230">
+        <v>12</v>
+      </c>
+      <c r="T230">
+        <v>2.5</v>
+      </c>
+      <c r="U230">
+        <v>2.15</v>
+      </c>
+      <c r="V230">
+        <v>3.8</v>
+      </c>
+      <c r="W230">
+        <v>1.36</v>
+      </c>
+      <c r="X230">
+        <v>3</v>
+      </c>
+      <c r="Y230">
+        <v>2.5</v>
+      </c>
+      <c r="Z230">
+        <v>1.5</v>
+      </c>
+      <c r="AA230">
+        <v>6</v>
+      </c>
+      <c r="AB230">
+        <v>1.11</v>
+      </c>
+      <c r="AC230">
+        <v>1.91</v>
+      </c>
+      <c r="AD230">
+        <v>3.62</v>
+      </c>
+      <c r="AE230">
+        <v>3.68</v>
+      </c>
+      <c r="AF230">
+        <v>1.05</v>
+      </c>
+      <c r="AG230">
+        <v>9</v>
+      </c>
+      <c r="AH230">
+        <v>1.29</v>
+      </c>
+      <c r="AI230">
+        <v>3.5</v>
+      </c>
+      <c r="AJ230">
+        <v>1.75</v>
+      </c>
+      <c r="AK230">
+        <v>1.87</v>
+      </c>
+      <c r="AL230">
+        <v>1.73</v>
+      </c>
+      <c r="AM230">
+        <v>2</v>
+      </c>
+      <c r="AN230">
+        <v>1.3</v>
+      </c>
+      <c r="AO230">
+        <v>1.3</v>
+      </c>
+      <c r="AP230">
+        <v>1.67</v>
+      </c>
+      <c r="AQ230">
+        <v>1.2</v>
+      </c>
+      <c r="AR230">
+        <v>1.1</v>
+      </c>
+      <c r="AS230">
+        <v>1.36</v>
+      </c>
+      <c r="AT230">
+        <v>1</v>
+      </c>
+      <c r="AU230">
+        <v>1.51</v>
+      </c>
+      <c r="AV230">
+        <v>1.32</v>
+      </c>
+      <c r="AW230">
+        <v>2.83</v>
+      </c>
+      <c r="AX230">
+        <v>1.64</v>
+      </c>
+      <c r="AY230">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ230">
+        <v>2.54</v>
+      </c>
+      <c r="BA230">
+        <v>1.25</v>
+      </c>
+      <c r="BB230">
+        <v>1.55</v>
+      </c>
+      <c r="BC230">
+        <v>1.85</v>
+      </c>
+      <c r="BD230">
+        <v>2.3</v>
+      </c>
+      <c r="BE230">
+        <v>3.4</v>
+      </c>
+      <c r="BF230">
+        <v>6</v>
+      </c>
+      <c r="BG230">
+        <v>6</v>
+      </c>
+      <c r="BH230">
+        <v>5</v>
+      </c>
+      <c r="BI230">
+        <v>3</v>
+      </c>
+      <c r="BJ230">
+        <v>11</v>
+      </c>
+      <c r="BK230">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:63">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>2604200</v>
+      </c>
+      <c r="C231" t="s">
+        <v>63</v>
+      </c>
+      <c r="D231" t="s">
+        <v>64</v>
+      </c>
+      <c r="E231" s="2">
+        <v>44977.625</v>
+      </c>
+      <c r="F231">
+        <v>23</v>
+      </c>
+      <c r="G231" t="s">
+        <v>66</v>
+      </c>
+      <c r="H231" t="s">
+        <v>77</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>1</v>
+      </c>
+      <c r="N231">
+        <v>1</v>
+      </c>
+      <c r="O231" t="s">
+        <v>96</v>
+      </c>
+      <c r="P231" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q231">
+        <v>6</v>
+      </c>
+      <c r="R231">
+        <v>2</v>
+      </c>
+      <c r="S231">
+        <v>8</v>
+      </c>
+      <c r="T231">
+        <v>3.4</v>
+      </c>
+      <c r="U231">
+        <v>2.2</v>
+      </c>
+      <c r="V231">
+        <v>3</v>
+      </c>
+      <c r="W231">
+        <v>1.36</v>
+      </c>
+      <c r="X231">
+        <v>3</v>
+      </c>
+      <c r="Y231">
+        <v>2.75</v>
+      </c>
+      <c r="Z231">
+        <v>1.4</v>
+      </c>
+      <c r="AA231">
+        <v>7</v>
+      </c>
+      <c r="AB231">
+        <v>1.1</v>
+      </c>
+      <c r="AC231">
+        <v>2.7</v>
+      </c>
+      <c r="AD231">
+        <v>3.25</v>
+      </c>
+      <c r="AE231">
+        <v>2.35</v>
+      </c>
+      <c r="AF231">
+        <v>1.04</v>
+      </c>
+      <c r="AG231">
+        <v>12</v>
+      </c>
+      <c r="AH231">
+        <v>1.25</v>
+      </c>
+      <c r="AI231">
+        <v>3.75</v>
+      </c>
+      <c r="AJ231">
+        <v>1.74</v>
+      </c>
+      <c r="AK231">
+        <v>1.9</v>
+      </c>
+      <c r="AL231">
+        <v>1.67</v>
+      </c>
+      <c r="AM231">
+        <v>2.1</v>
+      </c>
+      <c r="AN231">
+        <v>1.53</v>
+      </c>
+      <c r="AO231">
+        <v>1.25</v>
+      </c>
+      <c r="AP231">
+        <v>1.44</v>
+      </c>
+      <c r="AQ231">
+        <v>0.91</v>
+      </c>
+      <c r="AR231">
+        <v>0.3</v>
+      </c>
+      <c r="AS231">
+        <v>0.83</v>
+      </c>
+      <c r="AT231">
+        <v>0.55</v>
+      </c>
+      <c r="AU231">
+        <v>1.54</v>
+      </c>
+      <c r="AV231">
+        <v>1.16</v>
+      </c>
+      <c r="AW231">
+        <v>2.7</v>
+      </c>
+      <c r="AX231">
+        <v>1.93</v>
+      </c>
+      <c r="AY231">
+        <v>7.5</v>
+      </c>
+      <c r="AZ231">
+        <v>2.2</v>
+      </c>
+      <c r="BA231">
+        <v>1.19</v>
+      </c>
+      <c r="BB231">
+        <v>1.31</v>
+      </c>
+      <c r="BC231">
+        <v>1.57</v>
+      </c>
+      <c r="BD231">
+        <v>1.98</v>
+      </c>
+      <c r="BE231">
+        <v>2.6</v>
+      </c>
+      <c r="BF231">
+        <v>4</v>
+      </c>
+      <c r="BG231">
+        <v>5</v>
+      </c>
+      <c r="BH231">
+        <v>9</v>
+      </c>
+      <c r="BI231">
+        <v>4</v>
+      </c>
+      <c r="BJ231">
+        <v>13</v>
+      </c>
+      <c r="BK231">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="339">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1392,7 +1392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK231"/>
+  <dimension ref="A1:BK232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2681,7 +2681,7 @@
         <v>1.42</v>
       </c>
       <c r="AT7">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT14">
         <v>1.82</v>
@@ -7453,7 +7453,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT32">
         <v>1</v>
@@ -8411,7 +8411,7 @@
         <v>1.67</v>
       </c>
       <c r="AT37">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU37">
         <v>1.73</v>
@@ -11273,7 +11273,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT52">
         <v>0.64</v>
@@ -12040,7 +12040,7 @@
         <v>1.55</v>
       </c>
       <c r="AT56">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU56">
         <v>1.26</v>
@@ -13947,7 +13947,7 @@
         <v>0</v>
       </c>
       <c r="AS66">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT66">
         <v>1</v>
@@ -16051,7 +16051,7 @@
         <v>2.5</v>
       </c>
       <c r="AT77">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU77">
         <v>2.1</v>
@@ -17767,7 +17767,7 @@
         <v>2.5</v>
       </c>
       <c r="AS86">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT86">
         <v>2.36</v>
@@ -19107,7 +19107,7 @@
         <v>0.83</v>
       </c>
       <c r="AT93">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU93">
         <v>1.31</v>
@@ -22542,7 +22542,7 @@
         <v>0.8</v>
       </c>
       <c r="AS111">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT111">
         <v>1</v>
@@ -23118,7 +23118,7 @@
         <v>2</v>
       </c>
       <c r="AT114">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU114">
         <v>1.95</v>
@@ -26362,7 +26362,7 @@
         <v>0.67</v>
       </c>
       <c r="AS131">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT131">
         <v>0.67</v>
@@ -27320,7 +27320,7 @@
         <v>1.27</v>
       </c>
       <c r="AT136">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU136">
         <v>1.35</v>
@@ -29227,7 +29227,7 @@
         <v>0.17</v>
       </c>
       <c r="AS146">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT146">
         <v>0.73</v>
@@ -31522,7 +31522,7 @@
         <v>2.25</v>
       </c>
       <c r="AT158">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU158">
         <v>2.04</v>
@@ -32665,7 +32665,7 @@
         <v>1.75</v>
       </c>
       <c r="AS164">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT164">
         <v>1.92</v>
@@ -34960,7 +34960,7 @@
         <v>2.58</v>
       </c>
       <c r="AT176">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU176">
         <v>1.75</v>
@@ -37440,7 +37440,7 @@
         <v>1.56</v>
       </c>
       <c r="AS189">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT189">
         <v>1.92</v>
@@ -38586,7 +38586,7 @@
         <v>0.6</v>
       </c>
       <c r="AS195">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT195">
         <v>0.75</v>
@@ -41263,7 +41263,7 @@
         <v>0.83</v>
       </c>
       <c r="AT209">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU209">
         <v>1.56</v>
@@ -42024,7 +42024,7 @@
         <v>1.5</v>
       </c>
       <c r="AS213">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT213">
         <v>1.64</v>
@@ -42218,7 +42218,7 @@
         <v>1</v>
       </c>
       <c r="AT214">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU214">
         <v>1.67</v>
@@ -45516,6 +45516,197 @@
         <v>13</v>
       </c>
       <c r="BK231">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:63">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>2604215</v>
+      </c>
+      <c r="C232" t="s">
+        <v>63</v>
+      </c>
+      <c r="D232" t="s">
+        <v>64</v>
+      </c>
+      <c r="E232" s="2">
+        <v>44981.625</v>
+      </c>
+      <c r="F232">
+        <v>24</v>
+      </c>
+      <c r="G232" t="s">
+        <v>77</v>
+      </c>
+      <c r="H232" t="s">
+        <v>80</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232" t="s">
+        <v>96</v>
+      </c>
+      <c r="P232" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q232">
+        <v>4</v>
+      </c>
+      <c r="R232">
+        <v>2</v>
+      </c>
+      <c r="S232">
+        <v>6</v>
+      </c>
+      <c r="T232">
+        <v>3.8</v>
+      </c>
+      <c r="U232">
+        <v>2.21</v>
+      </c>
+      <c r="V232">
+        <v>2.57</v>
+      </c>
+      <c r="W232">
+        <v>1.34</v>
+      </c>
+      <c r="X232">
+        <v>3.1</v>
+      </c>
+      <c r="Y232">
+        <v>2.57</v>
+      </c>
+      <c r="Z232">
+        <v>1.47</v>
+      </c>
+      <c r="AA232">
+        <v>6.25</v>
+      </c>
+      <c r="AB232">
+        <v>1.1</v>
+      </c>
+      <c r="AC232">
+        <v>2.71</v>
+      </c>
+      <c r="AD232">
+        <v>3.45</v>
+      </c>
+      <c r="AE232">
+        <v>2.16</v>
+      </c>
+      <c r="AF232">
+        <v>1</v>
+      </c>
+      <c r="AG232">
+        <v>10.25</v>
+      </c>
+      <c r="AH232">
+        <v>1.22</v>
+      </c>
+      <c r="AI232">
+        <v>3.72</v>
+      </c>
+      <c r="AJ232">
+        <v>1.75</v>
+      </c>
+      <c r="AK232">
+        <v>2</v>
+      </c>
+      <c r="AL232">
+        <v>1.63</v>
+      </c>
+      <c r="AM232">
+        <v>2.14</v>
+      </c>
+      <c r="AN232">
+        <v>1.71</v>
+      </c>
+      <c r="AO232">
+        <v>1.27</v>
+      </c>
+      <c r="AP232">
+        <v>1.3</v>
+      </c>
+      <c r="AQ232">
+        <v>1.17</v>
+      </c>
+      <c r="AR232">
+        <v>1.09</v>
+      </c>
+      <c r="AS232">
+        <v>1.15</v>
+      </c>
+      <c r="AT232">
+        <v>1.08</v>
+      </c>
+      <c r="AU232">
+        <v>1.7</v>
+      </c>
+      <c r="AV232">
+        <v>1.54</v>
+      </c>
+      <c r="AW232">
+        <v>3.24</v>
+      </c>
+      <c r="AX232">
+        <v>2.38</v>
+      </c>
+      <c r="AY232">
+        <v>7.8</v>
+      </c>
+      <c r="AZ232">
+        <v>1.8</v>
+      </c>
+      <c r="BA232">
+        <v>1.17</v>
+      </c>
+      <c r="BB232">
+        <v>1.26</v>
+      </c>
+      <c r="BC232">
+        <v>1.55</v>
+      </c>
+      <c r="BD232">
+        <v>1.85</v>
+      </c>
+      <c r="BE232">
+        <v>2.25</v>
+      </c>
+      <c r="BF232">
+        <v>5</v>
+      </c>
+      <c r="BG232">
+        <v>5</v>
+      </c>
+      <c r="BH232">
+        <v>3</v>
+      </c>
+      <c r="BI232">
+        <v>4</v>
+      </c>
+      <c r="BJ232">
+        <v>8</v>
+      </c>
+      <c r="BK232">
         <v>9</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="346">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -742,6 +742,9 @@
     <t>['6', '43', '83', '86']</t>
   </si>
   <si>
+    <t>['48', '79']</t>
+  </si>
+  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -1410,7 +1413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK238"/>
+  <dimension ref="A1:BK240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2227,7 +2230,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2418,7 +2421,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2609,7 +2612,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -3182,7 +3185,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3564,7 +3567,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3755,7 +3758,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3946,7 +3949,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -4036,7 +4039,7 @@
         <v>1.15</v>
       </c>
       <c r="AT14">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4710,7 +4713,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4797,10 +4800,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT18">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4901,7 +4904,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -5179,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT20">
         <v>1.25</v>
@@ -5283,7 +5286,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5474,7 +5477,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5665,7 +5668,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -6238,7 +6241,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6811,7 +6814,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7665,7 +7668,7 @@
         <v>1.25</v>
       </c>
       <c r="AT33">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU33">
         <v>1.75</v>
@@ -7853,7 +7856,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT34">
         <v>0.6899999999999999</v>
@@ -8148,7 +8151,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8238,7 +8241,7 @@
         <v>1.55</v>
       </c>
       <c r="AT36">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU36">
         <v>1.04</v>
@@ -8721,7 +8724,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8912,7 +8915,7 @@
         <v>98</v>
       </c>
       <c r="P40" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -8999,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT40">
         <v>1.77</v>
@@ -9485,7 +9488,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9676,7 +9679,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10822,7 +10825,7 @@
         <v>96</v>
       </c>
       <c r="P50" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11395,7 +11398,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11485,7 +11488,7 @@
         <v>2.08</v>
       </c>
       <c r="AT53">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU53">
         <v>1.92</v>
@@ -11586,7 +11589,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11864,7 +11867,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT55">
         <v>0.67</v>
@@ -12541,7 +12544,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12732,7 +12735,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -12819,10 +12822,10 @@
         <v>1.5</v>
       </c>
       <c r="AS60">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT60">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU60">
         <v>1.69</v>
@@ -13496,7 +13499,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14260,7 +14263,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -14833,7 +14836,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15215,7 +15218,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15597,7 +15600,7 @@
         <v>96</v>
       </c>
       <c r="P75" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15687,7 +15690,7 @@
         <v>1.42</v>
       </c>
       <c r="AT75">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU75">
         <v>1.21</v>
@@ -15979,7 +15982,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16066,7 +16069,7 @@
         <v>2.33</v>
       </c>
       <c r="AS77">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT77">
         <v>1.08</v>
@@ -16170,7 +16173,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16451,7 +16454,7 @@
         <v>1.17</v>
       </c>
       <c r="AT79">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU79">
         <v>1.76</v>
@@ -16552,7 +16555,7 @@
         <v>96</v>
       </c>
       <c r="P80" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16639,7 +16642,7 @@
         <v>0</v>
       </c>
       <c r="AS80">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT80">
         <v>0.6899999999999999</v>
@@ -16743,7 +16746,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16934,7 +16937,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -17125,7 +17128,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17507,7 +17510,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17698,7 +17701,7 @@
         <v>89</v>
       </c>
       <c r="P86" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -18080,7 +18083,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -18743,7 +18746,7 @@
         <v>1.36</v>
       </c>
       <c r="AT91">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU91">
         <v>1.55</v>
@@ -18931,7 +18934,7 @@
         <v>0.75</v>
       </c>
       <c r="AS92">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT92">
         <v>0.67</v>
@@ -19316,7 +19319,7 @@
         <v>1.42</v>
       </c>
       <c r="AT94">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU94">
         <v>1.23</v>
@@ -19417,7 +19420,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19608,7 +19611,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19695,7 +19698,7 @@
         <v>0</v>
       </c>
       <c r="AS96">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT96">
         <v>1</v>
@@ -20181,7 +20184,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q99">
         <v>10</v>
@@ -20754,7 +20757,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q102">
         <v>1</v>
@@ -21223,7 +21226,7 @@
         <v>1.2</v>
       </c>
       <c r="AS104">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT104">
         <v>1.33</v>
@@ -21518,7 +21521,7 @@
         <v>106</v>
       </c>
       <c r="P106" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21709,7 +21712,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21990,7 +21993,7 @@
         <v>2.58</v>
       </c>
       <c r="AT108">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU108">
         <v>1.73</v>
@@ -22091,7 +22094,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -22282,7 +22285,7 @@
         <v>96</v>
       </c>
       <c r="P110" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22664,7 +22667,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22751,7 +22754,7 @@
         <v>0.2</v>
       </c>
       <c r="AS112">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT112">
         <v>0.55</v>
@@ -22855,7 +22858,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q113">
         <v>1</v>
@@ -23046,7 +23049,7 @@
         <v>96</v>
       </c>
       <c r="P114" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q114">
         <v>15</v>
@@ -23237,7 +23240,7 @@
         <v>168</v>
       </c>
       <c r="P115" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -23428,7 +23431,7 @@
         <v>96</v>
       </c>
       <c r="P116" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23709,7 +23712,7 @@
         <v>1.36</v>
       </c>
       <c r="AT117">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU117">
         <v>1.51</v>
@@ -23810,7 +23813,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -24001,7 +24004,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -24383,7 +24386,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q121">
         <v>8</v>
@@ -24765,7 +24768,7 @@
         <v>174</v>
       </c>
       <c r="P123" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24956,7 +24959,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25046,7 +25049,7 @@
         <v>1.42</v>
       </c>
       <c r="AT124">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU124">
         <v>1.96</v>
@@ -25147,7 +25150,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25529,7 +25532,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25720,7 +25723,7 @@
         <v>178</v>
       </c>
       <c r="P128" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q128">
         <v>10</v>
@@ -25807,7 +25810,7 @@
         <v>0.5</v>
       </c>
       <c r="AS128">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT128">
         <v>1.25</v>
@@ -25911,7 +25914,7 @@
         <v>96</v>
       </c>
       <c r="P129" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -26102,7 +26105,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -26484,7 +26487,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q132">
         <v>13</v>
@@ -27526,7 +27529,7 @@
         <v>2.67</v>
       </c>
       <c r="AS137">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT137">
         <v>2.36</v>
@@ -27720,7 +27723,7 @@
         <v>2.58</v>
       </c>
       <c r="AT138">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU138">
         <v>1.69</v>
@@ -28012,7 +28015,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28203,7 +28206,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28394,7 +28397,7 @@
         <v>96</v>
       </c>
       <c r="P142" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q142">
         <v>10</v>
@@ -28585,7 +28588,7 @@
         <v>160</v>
       </c>
       <c r="P143" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28863,7 +28866,7 @@
         <v>1.14</v>
       </c>
       <c r="AS144">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT144">
         <v>1</v>
@@ -29731,7 +29734,7 @@
         <v>191</v>
       </c>
       <c r="P149" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q149">
         <v>9</v>
@@ -29922,7 +29925,7 @@
         <v>192</v>
       </c>
       <c r="P150" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -30113,7 +30116,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q151">
         <v>8</v>
@@ -30203,7 +30206,7 @@
         <v>1.83</v>
       </c>
       <c r="AT151">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU151">
         <v>1.8</v>
@@ -30394,7 +30397,7 @@
         <v>1.91</v>
       </c>
       <c r="AT152">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU152">
         <v>2.19</v>
@@ -30495,7 +30498,7 @@
         <v>96</v>
       </c>
       <c r="P153" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q153">
         <v>3</v>
@@ -30686,7 +30689,7 @@
         <v>96</v>
       </c>
       <c r="P154" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q154">
         <v>12</v>
@@ -30773,7 +30776,7 @@
         <v>1.13</v>
       </c>
       <c r="AS154">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT154">
         <v>1.33</v>
@@ -31068,7 +31071,7 @@
         <v>96</v>
       </c>
       <c r="P156" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -32596,7 +32599,7 @@
         <v>151</v>
       </c>
       <c r="P164" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32686,7 +32689,7 @@
         <v>1.15</v>
       </c>
       <c r="AT164">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU164">
         <v>1.6</v>
@@ -32787,7 +32790,7 @@
         <v>96</v>
       </c>
       <c r="P165" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -33169,7 +33172,7 @@
         <v>96</v>
       </c>
       <c r="P167" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q167">
         <v>9</v>
@@ -33447,7 +33450,7 @@
         <v>1.57</v>
       </c>
       <c r="AS168">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT168">
         <v>1.64</v>
@@ -33551,7 +33554,7 @@
         <v>164</v>
       </c>
       <c r="P169" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33933,7 +33936,7 @@
         <v>105</v>
       </c>
       <c r="P171" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q171">
         <v>8</v>
@@ -34124,7 +34127,7 @@
         <v>96</v>
       </c>
       <c r="P172" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q172">
         <v>12</v>
@@ -34315,7 +34318,7 @@
         <v>91</v>
       </c>
       <c r="P173" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -34506,7 +34509,7 @@
         <v>202</v>
       </c>
       <c r="P174" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q174">
         <v>17</v>
@@ -35461,7 +35464,7 @@
         <v>86</v>
       </c>
       <c r="P179" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q179">
         <v>10</v>
@@ -35843,7 +35846,7 @@
         <v>207</v>
       </c>
       <c r="P181" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q181">
         <v>13</v>
@@ -36034,7 +36037,7 @@
         <v>96</v>
       </c>
       <c r="P182" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -36124,7 +36127,7 @@
         <v>1.55</v>
       </c>
       <c r="AT182">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU182">
         <v>1.38</v>
@@ -36225,7 +36228,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q183">
         <v>7</v>
@@ -36416,7 +36419,7 @@
         <v>209</v>
       </c>
       <c r="P184" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36503,7 +36506,7 @@
         <v>1.89</v>
       </c>
       <c r="AS184">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT184">
         <v>1.67</v>
@@ -36885,7 +36888,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS186">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT186">
         <v>0.67</v>
@@ -37180,7 +37183,7 @@
         <v>213</v>
       </c>
       <c r="P188" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -37270,7 +37273,7 @@
         <v>0.83</v>
       </c>
       <c r="AT188">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU188">
         <v>1.58</v>
@@ -37371,7 +37374,7 @@
         <v>214</v>
       </c>
       <c r="P189" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q189">
         <v>7</v>
@@ -37562,7 +37565,7 @@
         <v>119</v>
       </c>
       <c r="P190" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -37753,7 +37756,7 @@
         <v>130</v>
       </c>
       <c r="P191" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q191">
         <v>8</v>
@@ -38031,7 +38034,7 @@
         <v>1.3</v>
       </c>
       <c r="AS192">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT192">
         <v>1.08</v>
@@ -38135,7 +38138,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q193">
         <v>10</v>
@@ -38326,7 +38329,7 @@
         <v>205</v>
       </c>
       <c r="P194" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q194">
         <v>9</v>
@@ -38517,7 +38520,7 @@
         <v>96</v>
       </c>
       <c r="P195" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q195">
         <v>9</v>
@@ -38798,7 +38801,7 @@
         <v>1.77</v>
       </c>
       <c r="AT196">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU196">
         <v>1.65</v>
@@ -39177,7 +39180,7 @@
         <v>1.56</v>
       </c>
       <c r="AS198">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT198">
         <v>1.64</v>
@@ -39281,7 +39284,7 @@
         <v>151</v>
       </c>
       <c r="P199" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q199">
         <v>7</v>
@@ -39663,7 +39666,7 @@
         <v>87</v>
       </c>
       <c r="P201" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q201">
         <v>9</v>
@@ -39753,7 +39756,7 @@
         <v>1.83</v>
       </c>
       <c r="AT201">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU201">
         <v>1.86</v>
@@ -40427,7 +40430,7 @@
         <v>96</v>
       </c>
       <c r="P205" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -40618,7 +40621,7 @@
         <v>220</v>
       </c>
       <c r="P206" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q206">
         <v>5</v>
@@ -40809,7 +40812,7 @@
         <v>221</v>
       </c>
       <c r="P207" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q207">
         <v>2</v>
@@ -41191,7 +41194,7 @@
         <v>222</v>
       </c>
       <c r="P209" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q209">
         <v>8</v>
@@ -41573,7 +41576,7 @@
         <v>119</v>
       </c>
       <c r="P211" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q211">
         <v>9</v>
@@ -41851,7 +41854,7 @@
         <v>0.8</v>
       </c>
       <c r="AS212">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT212">
         <v>0.67</v>
@@ -41955,7 +41958,7 @@
         <v>147</v>
       </c>
       <c r="P213" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q213">
         <v>6</v>
@@ -42337,7 +42340,7 @@
         <v>89</v>
       </c>
       <c r="P215" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q215">
         <v>6</v>
@@ -42427,7 +42430,7 @@
         <v>1</v>
       </c>
       <c r="AT215">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU215">
         <v>1.41</v>
@@ -42528,7 +42531,7 @@
         <v>225</v>
       </c>
       <c r="P216" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q216">
         <v>5</v>
@@ -42618,7 +42621,7 @@
         <v>1.77</v>
       </c>
       <c r="AT216">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU216">
         <v>1.65</v>
@@ -42997,7 +43000,7 @@
         <v>1.1</v>
       </c>
       <c r="AS218">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT218">
         <v>0.92</v>
@@ -43101,7 +43104,7 @@
         <v>228</v>
       </c>
       <c r="P219" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q219">
         <v>9</v>
@@ -43292,7 +43295,7 @@
         <v>229</v>
       </c>
       <c r="P220" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q220">
         <v>6</v>
@@ -43674,7 +43677,7 @@
         <v>230</v>
       </c>
       <c r="P222" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q222">
         <v>4</v>
@@ -44056,7 +44059,7 @@
         <v>232</v>
       </c>
       <c r="P224" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q224">
         <v>5</v>
@@ -44247,7 +44250,7 @@
         <v>233</v>
       </c>
       <c r="P225" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q225">
         <v>6</v>
@@ -44438,7 +44441,7 @@
         <v>234</v>
       </c>
       <c r="P226" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -44629,7 +44632,7 @@
         <v>96</v>
       </c>
       <c r="P227" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q227">
         <v>5</v>
@@ -44820,7 +44823,7 @@
         <v>235</v>
       </c>
       <c r="P228" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q228">
         <v>12</v>
@@ -45011,7 +45014,7 @@
         <v>96</v>
       </c>
       <c r="P229" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q229">
         <v>7</v>
@@ -45966,7 +45969,7 @@
         <v>238</v>
       </c>
       <c r="P234" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q234">
         <v>4</v>
@@ -46872,6 +46875,388 @@
       </c>
       <c r="BK238">
         <v>14</v>
+      </c>
+    </row>
+    <row r="239" spans="1:63">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>2604212</v>
+      </c>
+      <c r="C239" t="s">
+        <v>63</v>
+      </c>
+      <c r="D239" t="s">
+        <v>64</v>
+      </c>
+      <c r="E239" s="2">
+        <v>44983.375</v>
+      </c>
+      <c r="F239">
+        <v>24</v>
+      </c>
+      <c r="G239" t="s">
+        <v>81</v>
+      </c>
+      <c r="H239" t="s">
+        <v>70</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>1</v>
+      </c>
+      <c r="K239">
+        <v>1</v>
+      </c>
+      <c r="L239">
+        <v>1</v>
+      </c>
+      <c r="M239">
+        <v>1</v>
+      </c>
+      <c r="N239">
+        <v>2</v>
+      </c>
+      <c r="O239" t="s">
+        <v>151</v>
+      </c>
+      <c r="P239" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q239">
+        <v>4</v>
+      </c>
+      <c r="R239">
+        <v>4</v>
+      </c>
+      <c r="S239">
+        <v>8</v>
+      </c>
+      <c r="T239">
+        <v>2.71</v>
+      </c>
+      <c r="U239">
+        <v>2.36</v>
+      </c>
+      <c r="V239">
+        <v>3.9</v>
+      </c>
+      <c r="W239">
+        <v>1.29</v>
+      </c>
+      <c r="X239">
+        <v>3.25</v>
+      </c>
+      <c r="Y239">
+        <v>2.6</v>
+      </c>
+      <c r="Z239">
+        <v>1.44</v>
+      </c>
+      <c r="AA239">
+        <v>6</v>
+      </c>
+      <c r="AB239">
+        <v>1.11</v>
+      </c>
+      <c r="AC239">
+        <v>2.05</v>
+      </c>
+      <c r="AD239">
+        <v>3.3</v>
+      </c>
+      <c r="AE239">
+        <v>3.1</v>
+      </c>
+      <c r="AF239">
+        <v>1.03</v>
+      </c>
+      <c r="AG239">
+        <v>13</v>
+      </c>
+      <c r="AH239">
+        <v>1.21</v>
+      </c>
+      <c r="AI239">
+        <v>4.25</v>
+      </c>
+      <c r="AJ239">
+        <v>1.71</v>
+      </c>
+      <c r="AK239">
+        <v>2.07</v>
+      </c>
+      <c r="AL239">
+        <v>1.58</v>
+      </c>
+      <c r="AM239">
+        <v>2.28</v>
+      </c>
+      <c r="AN239">
+        <v>1.32</v>
+      </c>
+      <c r="AO239">
+        <v>1.3</v>
+      </c>
+      <c r="AP239">
+        <v>1.78</v>
+      </c>
+      <c r="AQ239">
+        <v>2.5</v>
+      </c>
+      <c r="AR239">
+        <v>1.82</v>
+      </c>
+      <c r="AS239">
+        <v>2.38</v>
+      </c>
+      <c r="AT239">
+        <v>1.75</v>
+      </c>
+      <c r="AU239">
+        <v>1.95</v>
+      </c>
+      <c r="AV239">
+        <v>1.35</v>
+      </c>
+      <c r="AW239">
+        <v>3.3</v>
+      </c>
+      <c r="AX239">
+        <v>1.62</v>
+      </c>
+      <c r="AY239">
+        <v>8.6</v>
+      </c>
+      <c r="AZ239">
+        <v>2.81</v>
+      </c>
+      <c r="BA239">
+        <v>1.23</v>
+      </c>
+      <c r="BB239">
+        <v>1.42</v>
+      </c>
+      <c r="BC239">
+        <v>1.76</v>
+      </c>
+      <c r="BD239">
+        <v>2.16</v>
+      </c>
+      <c r="BE239">
+        <v>3.05</v>
+      </c>
+      <c r="BF239">
+        <v>5</v>
+      </c>
+      <c r="BG239">
+        <v>6</v>
+      </c>
+      <c r="BH239">
+        <v>13</v>
+      </c>
+      <c r="BI239">
+        <v>11</v>
+      </c>
+      <c r="BJ239">
+        <v>18</v>
+      </c>
+      <c r="BK239">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="240" spans="1:63">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>2604209</v>
+      </c>
+      <c r="C240" t="s">
+        <v>63</v>
+      </c>
+      <c r="D240" t="s">
+        <v>64</v>
+      </c>
+      <c r="E240" s="2">
+        <v>44983.41666666666</v>
+      </c>
+      <c r="F240">
+        <v>24</v>
+      </c>
+      <c r="G240" t="s">
+        <v>83</v>
+      </c>
+      <c r="H240" t="s">
+        <v>71</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>1</v>
+      </c>
+      <c r="K240">
+        <v>1</v>
+      </c>
+      <c r="L240">
+        <v>2</v>
+      </c>
+      <c r="M240">
+        <v>1</v>
+      </c>
+      <c r="N240">
+        <v>3</v>
+      </c>
+      <c r="O240" t="s">
+        <v>242</v>
+      </c>
+      <c r="P240" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q240">
+        <v>4</v>
+      </c>
+      <c r="R240">
+        <v>5</v>
+      </c>
+      <c r="S240">
+        <v>9</v>
+      </c>
+      <c r="T240">
+        <v>3.2</v>
+      </c>
+      <c r="U240">
+        <v>2.15</v>
+      </c>
+      <c r="V240">
+        <v>3</v>
+      </c>
+      <c r="W240">
+        <v>1.32</v>
+      </c>
+      <c r="X240">
+        <v>3.05</v>
+      </c>
+      <c r="Y240">
+        <v>2.7</v>
+      </c>
+      <c r="Z240">
+        <v>1.4</v>
+      </c>
+      <c r="AA240">
+        <v>6.45</v>
+      </c>
+      <c r="AB240">
+        <v>1.09</v>
+      </c>
+      <c r="AC240">
+        <v>2.6</v>
+      </c>
+      <c r="AD240">
+        <v>3.2</v>
+      </c>
+      <c r="AE240">
+        <v>2.45</v>
+      </c>
+      <c r="AF240">
+        <v>1.04</v>
+      </c>
+      <c r="AG240">
+        <v>11.5</v>
+      </c>
+      <c r="AH240">
+        <v>1.24</v>
+      </c>
+      <c r="AI240">
+        <v>3.9</v>
+      </c>
+      <c r="AJ240">
+        <v>1.81</v>
+      </c>
+      <c r="AK240">
+        <v>1.95</v>
+      </c>
+      <c r="AL240">
+        <v>1.61</v>
+      </c>
+      <c r="AM240">
+        <v>2.2</v>
+      </c>
+      <c r="AN240">
+        <v>1.52</v>
+      </c>
+      <c r="AO240">
+        <v>1.25</v>
+      </c>
+      <c r="AP240">
+        <v>1.47</v>
+      </c>
+      <c r="AQ240">
+        <v>1.18</v>
+      </c>
+      <c r="AR240">
+        <v>1.92</v>
+      </c>
+      <c r="AS240">
+        <v>1.33</v>
+      </c>
+      <c r="AT240">
+        <v>1.77</v>
+      </c>
+      <c r="AU240">
+        <v>1.64</v>
+      </c>
+      <c r="AV240">
+        <v>1.57</v>
+      </c>
+      <c r="AW240">
+        <v>3.21</v>
+      </c>
+      <c r="AX240">
+        <v>2.05</v>
+      </c>
+      <c r="AY240">
+        <v>7.8</v>
+      </c>
+      <c r="AZ240">
+        <v>2.05</v>
+      </c>
+      <c r="BA240">
+        <v>1.17</v>
+      </c>
+      <c r="BB240">
+        <v>1.32</v>
+      </c>
+      <c r="BC240">
+        <v>1.61</v>
+      </c>
+      <c r="BD240">
+        <v>1.97</v>
+      </c>
+      <c r="BE240">
+        <v>2.43</v>
+      </c>
+      <c r="BF240">
+        <v>5</v>
+      </c>
+      <c r="BG240">
+        <v>7</v>
+      </c>
+      <c r="BH240">
+        <v>4</v>
+      </c>
+      <c r="BI240">
+        <v>8</v>
+      </c>
+      <c r="BJ240">
+        <v>9</v>
+      </c>
+      <c r="BK240">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="347">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1053,6 +1053,9 @@
   <si>
     <t>['34', '83', '85']</t>
   </si>
+  <si>
+    <t>['38', '60', '80']</t>
+  </si>
 </sst>
 </file>
 
@@ -1413,7 +1416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK240"/>
+  <dimension ref="A1:BK241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3848,7 +3851,7 @@
         <v>1.42</v>
       </c>
       <c r="AT13">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4418,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT16">
         <v>1.77</v>
@@ -8238,7 +8241,7 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT36">
         <v>1.75</v>
@@ -9196,7 +9199,7 @@
         <v>1.17</v>
       </c>
       <c r="AT41">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU41">
         <v>1.34</v>
@@ -12058,7 +12061,7 @@
         <v>3</v>
       </c>
       <c r="AS56">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT56">
         <v>1.08</v>
@@ -12634,7 +12637,7 @@
         <v>1</v>
       </c>
       <c r="AT59">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU59">
         <v>0.99</v>
@@ -15499,7 +15502,7 @@
         <v>1.91</v>
       </c>
       <c r="AT74">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU74">
         <v>2.15</v>
@@ -16260,7 +16263,7 @@
         <v>0</v>
       </c>
       <c r="AS78">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT78">
         <v>0.55</v>
@@ -19510,7 +19513,7 @@
         <v>1.45</v>
       </c>
       <c r="AT95">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU95">
         <v>1.8</v>
@@ -20271,7 +20274,7 @@
         <v>1</v>
       </c>
       <c r="AS99">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT99">
         <v>0.92</v>
@@ -23518,7 +23521,7 @@
         <v>2.6</v>
       </c>
       <c r="AS116">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT116">
         <v>2.36</v>
@@ -24667,7 +24670,7 @@
         <v>1</v>
       </c>
       <c r="AT122">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU122">
         <v>1.53</v>
@@ -29057,7 +29060,7 @@
         <v>0.71</v>
       </c>
       <c r="AS145">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT145">
         <v>1.17</v>
@@ -29442,7 +29445,7 @@
         <v>1.42</v>
       </c>
       <c r="AT147">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU147">
         <v>1.84</v>
@@ -33453,7 +33456,7 @@
         <v>2.38</v>
       </c>
       <c r="AT168">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU168">
         <v>2.12</v>
@@ -33832,7 +33835,7 @@
         <v>0.63</v>
       </c>
       <c r="AS170">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT170">
         <v>0.67</v>
@@ -36124,7 +36127,7 @@
         <v>1.89</v>
       </c>
       <c r="AS182">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT182">
         <v>1.77</v>
@@ -36318,7 +36321,7 @@
         <v>1</v>
       </c>
       <c r="AT183">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU183">
         <v>1.63</v>
@@ -39183,7 +39186,7 @@
         <v>1.33</v>
       </c>
       <c r="AT198">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU198">
         <v>1.7</v>
@@ -39371,7 +39374,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS199">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT199">
         <v>0.67</v>
@@ -42048,7 +42051,7 @@
         <v>1.15</v>
       </c>
       <c r="AT213">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU213">
         <v>1.71</v>
@@ -43573,7 +43576,7 @@
         <v>1.18</v>
       </c>
       <c r="AS221">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT221">
         <v>1.08</v>
@@ -47257,6 +47260,197 @@
       </c>
       <c r="BK240">
         <v>15</v>
+      </c>
+    </row>
+    <row r="241" spans="1:63">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>2604214</v>
+      </c>
+      <c r="C241" t="s">
+        <v>63</v>
+      </c>
+      <c r="D241" t="s">
+        <v>64</v>
+      </c>
+      <c r="E241" s="2">
+        <v>44984.625</v>
+      </c>
+      <c r="F241">
+        <v>24</v>
+      </c>
+      <c r="G241" t="s">
+        <v>79</v>
+      </c>
+      <c r="H241" t="s">
+        <v>72</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>1</v>
+      </c>
+      <c r="K241">
+        <v>1</v>
+      </c>
+      <c r="L241">
+        <v>0</v>
+      </c>
+      <c r="M241">
+        <v>3</v>
+      </c>
+      <c r="N241">
+        <v>3</v>
+      </c>
+      <c r="O241" t="s">
+        <v>96</v>
+      </c>
+      <c r="P241" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q241">
+        <v>2</v>
+      </c>
+      <c r="R241">
+        <v>6</v>
+      </c>
+      <c r="S241">
+        <v>8</v>
+      </c>
+      <c r="T241">
+        <v>2.95</v>
+      </c>
+      <c r="U241">
+        <v>2.1</v>
+      </c>
+      <c r="V241">
+        <v>3.4</v>
+      </c>
+      <c r="W241">
+        <v>1.4</v>
+      </c>
+      <c r="X241">
+        <v>2.82</v>
+      </c>
+      <c r="Y241">
+        <v>2.82</v>
+      </c>
+      <c r="Z241">
+        <v>1.4</v>
+      </c>
+      <c r="AA241">
+        <v>7.2</v>
+      </c>
+      <c r="AB241">
+        <v>1.08</v>
+      </c>
+      <c r="AC241">
+        <v>2.38</v>
+      </c>
+      <c r="AD241">
+        <v>3.1</v>
+      </c>
+      <c r="AE241">
+        <v>2.9</v>
+      </c>
+      <c r="AF241">
+        <v>1.02</v>
+      </c>
+      <c r="AG241">
+        <v>9</v>
+      </c>
+      <c r="AH241">
+        <v>1.28</v>
+      </c>
+      <c r="AI241">
+        <v>3.25</v>
+      </c>
+      <c r="AJ241">
+        <v>1.82</v>
+      </c>
+      <c r="AK241">
+        <v>1.88</v>
+      </c>
+      <c r="AL241">
+        <v>1.67</v>
+      </c>
+      <c r="AM241">
+        <v>2.1</v>
+      </c>
+      <c r="AN241">
+        <v>1.38</v>
+      </c>
+      <c r="AO241">
+        <v>1.29</v>
+      </c>
+      <c r="AP241">
+        <v>1.56</v>
+      </c>
+      <c r="AQ241">
+        <v>1.55</v>
+      </c>
+      <c r="AR241">
+        <v>1.64</v>
+      </c>
+      <c r="AS241">
+        <v>1.42</v>
+      </c>
+      <c r="AT241">
+        <v>1.75</v>
+      </c>
+      <c r="AU241">
+        <v>1.39</v>
+      </c>
+      <c r="AV241">
+        <v>1.3</v>
+      </c>
+      <c r="AW241">
+        <v>2.69</v>
+      </c>
+      <c r="AX241">
+        <v>1.87</v>
+      </c>
+      <c r="AY241">
+        <v>7.5</v>
+      </c>
+      <c r="AZ241">
+        <v>2.29</v>
+      </c>
+      <c r="BA241">
+        <v>1.24</v>
+      </c>
+      <c r="BB241">
+        <v>1.5</v>
+      </c>
+      <c r="BC241">
+        <v>1.81</v>
+      </c>
+      <c r="BD241">
+        <v>2.21</v>
+      </c>
+      <c r="BE241">
+        <v>3.15</v>
+      </c>
+      <c r="BF241">
+        <v>2</v>
+      </c>
+      <c r="BG241">
+        <v>8</v>
+      </c>
+      <c r="BH241">
+        <v>3</v>
+      </c>
+      <c r="BI241">
+        <v>6</v>
+      </c>
+      <c r="BJ241">
+        <v>5</v>
+      </c>
+      <c r="BK241">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="348">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -745,6 +745,9 @@
     <t>['48', '79']</t>
   </si>
   <si>
+    <t>['66']</t>
+  </si>
+  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -1416,7 +1419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK241"/>
+  <dimension ref="A1:BK242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2233,7 +2236,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2424,7 +2427,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2615,7 +2618,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -3084,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT9">
         <v>1.17</v>
@@ -3188,7 +3191,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3469,7 +3472,7 @@
         <v>1.91</v>
       </c>
       <c r="AT11">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3570,7 +3573,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3761,7 +3764,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3952,7 +3955,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -4716,7 +4719,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4907,7 +4910,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -5289,7 +5292,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5480,7 +5483,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5671,7 +5674,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5949,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT24">
         <v>0.55</v>
@@ -6244,7 +6247,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6525,7 +6528,7 @@
         <v>1.45</v>
       </c>
       <c r="AT27">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU27">
         <v>1.77</v>
@@ -6817,7 +6820,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -8154,7 +8157,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8727,7 +8730,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8918,7 +8921,7 @@
         <v>98</v>
       </c>
       <c r="P40" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -9491,7 +9494,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9682,7 +9685,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9960,7 +9963,7 @@
         <v>1.5</v>
       </c>
       <c r="AS45">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT45">
         <v>1.25</v>
@@ -10345,7 +10348,7 @@
         <v>2.58</v>
       </c>
       <c r="AT47">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU47">
         <v>1.65</v>
@@ -10828,7 +10831,7 @@
         <v>96</v>
       </c>
       <c r="P50" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11401,7 +11404,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11592,7 +11595,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -12547,7 +12550,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12738,7 +12741,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -13502,7 +13505,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13783,7 +13786,7 @@
         <v>1.42</v>
       </c>
       <c r="AT65">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU65">
         <v>2.45</v>
@@ -14162,7 +14165,7 @@
         <v>2.33</v>
       </c>
       <c r="AS67">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT67">
         <v>1.67</v>
@@ -14266,7 +14269,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -14839,7 +14842,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15221,7 +15224,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15603,7 +15606,7 @@
         <v>96</v>
       </c>
       <c r="P75" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15985,7 +15988,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16176,7 +16179,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16558,7 +16561,7 @@
         <v>96</v>
       </c>
       <c r="P80" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16749,7 +16752,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16940,7 +16943,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -17131,7 +17134,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17513,7 +17516,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17704,7 +17707,7 @@
         <v>89</v>
       </c>
       <c r="P86" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -18086,7 +18089,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -18176,7 +18179,7 @@
         <v>1</v>
       </c>
       <c r="AT88">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU88">
         <v>1.9</v>
@@ -18364,7 +18367,7 @@
         <v>0.5</v>
       </c>
       <c r="AS89">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT89">
         <v>1.25</v>
@@ -19423,7 +19426,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19614,7 +19617,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -20187,7 +20190,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q99">
         <v>10</v>
@@ -20760,7 +20763,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q102">
         <v>1</v>
@@ -21524,7 +21527,7 @@
         <v>106</v>
       </c>
       <c r="P106" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21715,7 +21718,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -22097,7 +22100,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -22288,7 +22291,7 @@
         <v>96</v>
       </c>
       <c r="P110" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22375,7 +22378,7 @@
         <v>0.4</v>
       </c>
       <c r="AS110">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT110">
         <v>1.08</v>
@@ -22569,7 +22572,7 @@
         <v>1.15</v>
       </c>
       <c r="AT111">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU111">
         <v>1.54</v>
@@ -22670,7 +22673,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22861,7 +22864,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q113">
         <v>1</v>
@@ -23052,7 +23055,7 @@
         <v>96</v>
       </c>
       <c r="P114" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q114">
         <v>15</v>
@@ -23243,7 +23246,7 @@
         <v>168</v>
       </c>
       <c r="P115" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -23330,7 +23333,7 @@
         <v>0.2</v>
       </c>
       <c r="AS115">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT115">
         <v>0.67</v>
@@ -23434,7 +23437,7 @@
         <v>96</v>
       </c>
       <c r="P116" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23816,7 +23819,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -24007,7 +24010,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -24389,7 +24392,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q121">
         <v>8</v>
@@ -24771,7 +24774,7 @@
         <v>174</v>
       </c>
       <c r="P123" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24962,7 +24965,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25153,7 +25156,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25243,7 +25246,7 @@
         <v>1</v>
       </c>
       <c r="AT125">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU125">
         <v>1.53</v>
@@ -25535,7 +25538,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25726,7 +25729,7 @@
         <v>178</v>
       </c>
       <c r="P128" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q128">
         <v>10</v>
@@ -25917,7 +25920,7 @@
         <v>96</v>
       </c>
       <c r="P129" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -26108,7 +26111,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -26490,7 +26493,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q132">
         <v>13</v>
@@ -27914,7 +27917,7 @@
         <v>1.17</v>
       </c>
       <c r="AS139">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT139">
         <v>0.92</v>
@@ -28018,7 +28021,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28209,7 +28212,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28400,7 +28403,7 @@
         <v>96</v>
       </c>
       <c r="P142" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q142">
         <v>10</v>
@@ -28591,7 +28594,7 @@
         <v>160</v>
       </c>
       <c r="P143" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28872,7 +28875,7 @@
         <v>2.38</v>
       </c>
       <c r="AT144">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU144">
         <v>2.01</v>
@@ -29737,7 +29740,7 @@
         <v>191</v>
       </c>
       <c r="P149" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q149">
         <v>9</v>
@@ -29928,7 +29931,7 @@
         <v>192</v>
       </c>
       <c r="P150" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -30119,7 +30122,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q151">
         <v>8</v>
@@ -30501,7 +30504,7 @@
         <v>96</v>
       </c>
       <c r="P153" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q153">
         <v>3</v>
@@ -30692,7 +30695,7 @@
         <v>96</v>
       </c>
       <c r="P154" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q154">
         <v>12</v>
@@ -31074,7 +31077,7 @@
         <v>96</v>
       </c>
       <c r="P156" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -31543,7 +31546,7 @@
         <v>1.57</v>
       </c>
       <c r="AS158">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT158">
         <v>1.08</v>
@@ -32602,7 +32605,7 @@
         <v>151</v>
       </c>
       <c r="P164" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32793,7 +32796,7 @@
         <v>96</v>
       </c>
       <c r="P165" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -33175,7 +33178,7 @@
         <v>96</v>
       </c>
       <c r="P167" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q167">
         <v>9</v>
@@ -33557,7 +33560,7 @@
         <v>164</v>
       </c>
       <c r="P169" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33939,7 +33942,7 @@
         <v>105</v>
       </c>
       <c r="P171" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q171">
         <v>8</v>
@@ -34130,7 +34133,7 @@
         <v>96</v>
       </c>
       <c r="P172" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q172">
         <v>12</v>
@@ -34321,7 +34324,7 @@
         <v>91</v>
       </c>
       <c r="P173" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -34408,7 +34411,7 @@
         <v>0.75</v>
       </c>
       <c r="AS173">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT173">
         <v>1</v>
@@ -34512,7 +34515,7 @@
         <v>202</v>
       </c>
       <c r="P174" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q174">
         <v>17</v>
@@ -35467,7 +35470,7 @@
         <v>86</v>
       </c>
       <c r="P179" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q179">
         <v>10</v>
@@ -35748,7 +35751,7 @@
         <v>1.42</v>
       </c>
       <c r="AT180">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU180">
         <v>1.3</v>
@@ -35849,7 +35852,7 @@
         <v>207</v>
       </c>
       <c r="P181" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q181">
         <v>13</v>
@@ -36040,7 +36043,7 @@
         <v>96</v>
       </c>
       <c r="P182" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -36231,7 +36234,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q183">
         <v>7</v>
@@ -36422,7 +36425,7 @@
         <v>209</v>
       </c>
       <c r="P184" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -37186,7 +37189,7 @@
         <v>213</v>
       </c>
       <c r="P188" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -37377,7 +37380,7 @@
         <v>214</v>
       </c>
       <c r="P189" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q189">
         <v>7</v>
@@ -37568,7 +37571,7 @@
         <v>119</v>
       </c>
       <c r="P190" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -37759,7 +37762,7 @@
         <v>130</v>
       </c>
       <c r="P191" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q191">
         <v>8</v>
@@ -38141,7 +38144,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q193">
         <v>10</v>
@@ -38332,7 +38335,7 @@
         <v>205</v>
       </c>
       <c r="P194" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q194">
         <v>9</v>
@@ -38523,7 +38526,7 @@
         <v>96</v>
       </c>
       <c r="P195" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q195">
         <v>9</v>
@@ -39287,7 +39290,7 @@
         <v>151</v>
       </c>
       <c r="P199" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q199">
         <v>7</v>
@@ -39669,7 +39672,7 @@
         <v>87</v>
       </c>
       <c r="P201" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q201">
         <v>9</v>
@@ -39947,7 +39950,7 @@
         <v>0.5</v>
       </c>
       <c r="AS202">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT202">
         <v>0.67</v>
@@ -40433,7 +40436,7 @@
         <v>96</v>
       </c>
       <c r="P205" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -40624,7 +40627,7 @@
         <v>220</v>
       </c>
       <c r="P206" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q206">
         <v>5</v>
@@ -40815,7 +40818,7 @@
         <v>221</v>
       </c>
       <c r="P207" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q207">
         <v>2</v>
@@ -40905,7 +40908,7 @@
         <v>1.25</v>
       </c>
       <c r="AT207">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU207">
         <v>1.6</v>
@@ -41197,7 +41200,7 @@
         <v>222</v>
       </c>
       <c r="P209" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q209">
         <v>8</v>
@@ -41579,7 +41582,7 @@
         <v>119</v>
       </c>
       <c r="P211" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q211">
         <v>9</v>
@@ -41961,7 +41964,7 @@
         <v>147</v>
       </c>
       <c r="P213" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q213">
         <v>6</v>
@@ -42343,7 +42346,7 @@
         <v>89</v>
       </c>
       <c r="P215" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q215">
         <v>6</v>
@@ -42534,7 +42537,7 @@
         <v>225</v>
       </c>
       <c r="P216" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q216">
         <v>5</v>
@@ -43107,7 +43110,7 @@
         <v>228</v>
       </c>
       <c r="P219" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q219">
         <v>9</v>
@@ -43298,7 +43301,7 @@
         <v>229</v>
       </c>
       <c r="P220" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q220">
         <v>6</v>
@@ -43680,7 +43683,7 @@
         <v>230</v>
       </c>
       <c r="P222" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q222">
         <v>4</v>
@@ -43958,7 +43961,7 @@
         <v>1.45</v>
       </c>
       <c r="AS223">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT223">
         <v>1.33</v>
@@ -44062,7 +44065,7 @@
         <v>232</v>
       </c>
       <c r="P224" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q224">
         <v>5</v>
@@ -44253,7 +44256,7 @@
         <v>233</v>
       </c>
       <c r="P225" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q225">
         <v>6</v>
@@ -44444,7 +44447,7 @@
         <v>234</v>
       </c>
       <c r="P226" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -44635,7 +44638,7 @@
         <v>96</v>
       </c>
       <c r="P227" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q227">
         <v>5</v>
@@ -44826,7 +44829,7 @@
         <v>235</v>
       </c>
       <c r="P228" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q228">
         <v>12</v>
@@ -45017,7 +45020,7 @@
         <v>96</v>
       </c>
       <c r="P229" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q229">
         <v>7</v>
@@ -45298,7 +45301,7 @@
         <v>1.36</v>
       </c>
       <c r="AT230">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU230">
         <v>1.51</v>
@@ -45972,7 +45975,7 @@
         <v>238</v>
       </c>
       <c r="P234" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q234">
         <v>4</v>
@@ -47309,7 +47312,7 @@
         <v>96</v>
       </c>
       <c r="P241" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q241">
         <v>2</v>
@@ -47451,6 +47454,197 @@
       </c>
       <c r="BK241">
         <v>14</v>
+      </c>
+    </row>
+    <row r="242" spans="1:63">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>2604227</v>
+      </c>
+      <c r="C242" t="s">
+        <v>63</v>
+      </c>
+      <c r="D242" t="s">
+        <v>64</v>
+      </c>
+      <c r="E242" s="2">
+        <v>44988.625</v>
+      </c>
+      <c r="F242">
+        <v>25</v>
+      </c>
+      <c r="G242" t="s">
+        <v>72</v>
+      </c>
+      <c r="H242" t="s">
+        <v>82</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+      <c r="L242">
+        <v>1</v>
+      </c>
+      <c r="M242">
+        <v>0</v>
+      </c>
+      <c r="N242">
+        <v>1</v>
+      </c>
+      <c r="O242" t="s">
+        <v>243</v>
+      </c>
+      <c r="P242" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q242">
+        <v>5</v>
+      </c>
+      <c r="R242">
+        <v>0</v>
+      </c>
+      <c r="S242">
+        <v>5</v>
+      </c>
+      <c r="T242">
+        <v>2.3</v>
+      </c>
+      <c r="U242">
+        <v>2.2</v>
+      </c>
+      <c r="V242">
+        <v>4.2</v>
+      </c>
+      <c r="W242">
+        <v>1.36</v>
+      </c>
+      <c r="X242">
+        <v>3</v>
+      </c>
+      <c r="Y242">
+        <v>2.5</v>
+      </c>
+      <c r="Z242">
+        <v>1.5</v>
+      </c>
+      <c r="AA242">
+        <v>6</v>
+      </c>
+      <c r="AB242">
+        <v>1.11</v>
+      </c>
+      <c r="AC242">
+        <v>1.85</v>
+      </c>
+      <c r="AD242">
+        <v>3.6</v>
+      </c>
+      <c r="AE242">
+        <v>4</v>
+      </c>
+      <c r="AF242">
+        <v>1.05</v>
+      </c>
+      <c r="AG242">
+        <v>9</v>
+      </c>
+      <c r="AH242">
+        <v>1.29</v>
+      </c>
+      <c r="AI242">
+        <v>3.5</v>
+      </c>
+      <c r="AJ242">
+        <v>1.83</v>
+      </c>
+      <c r="AK242">
+        <v>1.9</v>
+      </c>
+      <c r="AL242">
+        <v>1.73</v>
+      </c>
+      <c r="AM242">
+        <v>2</v>
+      </c>
+      <c r="AN242">
+        <v>1.22</v>
+      </c>
+      <c r="AO242">
+        <v>1.29</v>
+      </c>
+      <c r="AP242">
+        <v>1.85</v>
+      </c>
+      <c r="AQ242">
+        <v>2.25</v>
+      </c>
+      <c r="AR242">
+        <v>1</v>
+      </c>
+      <c r="AS242">
+        <v>2.31</v>
+      </c>
+      <c r="AT242">
+        <v>0.92</v>
+      </c>
+      <c r="AU242">
+        <v>1.93</v>
+      </c>
+      <c r="AV242">
+        <v>1.35</v>
+      </c>
+      <c r="AW242">
+        <v>3.28</v>
+      </c>
+      <c r="AX242">
+        <v>1.45</v>
+      </c>
+      <c r="AY242">
+        <v>7.6</v>
+      </c>
+      <c r="AZ242">
+        <v>3.58</v>
+      </c>
+      <c r="BA242">
+        <v>1.25</v>
+      </c>
+      <c r="BB242">
+        <v>1.5</v>
+      </c>
+      <c r="BC242">
+        <v>1.83</v>
+      </c>
+      <c r="BD242">
+        <v>2.25</v>
+      </c>
+      <c r="BE242">
+        <v>3.25</v>
+      </c>
+      <c r="BF242">
+        <v>5</v>
+      </c>
+      <c r="BG242">
+        <v>4</v>
+      </c>
+      <c r="BH242">
+        <v>11</v>
+      </c>
+      <c r="BI242">
+        <v>1</v>
+      </c>
+      <c r="BJ242">
+        <v>16</v>
+      </c>
+      <c r="BK242">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="356">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -748,6 +748,24 @@
     <t>['66']</t>
   </si>
   <si>
+    <t>['3', '43']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['57', '75']</t>
+  </si>
+  <si>
+    <t>['13', '20', '47', '84']</t>
+  </si>
+  <si>
+    <t>['61', '68']</t>
+  </si>
+  <si>
+    <t>['26', '88']</t>
+  </si>
+  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -854,9 +872,6 @@
   </si>
   <si>
     <t>['22', '62']</t>
-  </si>
-  <si>
-    <t>['61', '68']</t>
   </si>
   <si>
     <t>['56', '66']</t>
@@ -1058,6 +1073,15 @@
   </si>
   <si>
     <t>['38', '60', '80']</t>
+  </si>
+  <si>
+    <t>['65', '68']</t>
+  </si>
+  <si>
+    <t>['23', '59', '90+3']</t>
+  </si>
+  <si>
+    <t>['20', '23', '40']</t>
   </si>
 </sst>
 </file>
@@ -1419,7 +1443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK242"/>
+  <dimension ref="A1:BK250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1753,7 +1777,7 @@
         <v>2.08</v>
       </c>
       <c r="AT2">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1941,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT3">
         <v>0.67</v>
@@ -2135,7 +2159,7 @@
         <v>1.25</v>
       </c>
       <c r="AT4">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2236,7 +2260,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2326,7 +2350,7 @@
         <v>2.58</v>
       </c>
       <c r="AT5">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2427,7 +2451,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2514,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT6">
         <v>2.36</v>
@@ -2618,7 +2642,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2705,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT7">
         <v>1.08</v>
@@ -2896,10 +2920,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3090,7 +3114,7 @@
         <v>2.31</v>
       </c>
       <c r="AT9">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3191,7 +3215,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3278,10 +3302,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT10">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3469,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT11">
         <v>0.92</v>
@@ -3573,7 +3597,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3764,7 +3788,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3955,7 +3979,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -4233,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT15">
         <v>0.6899999999999999</v>
@@ -4615,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT17">
         <v>0.92</v>
@@ -4719,7 +4743,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4910,7 +4934,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -5000,7 +5024,7 @@
         <v>1</v>
       </c>
       <c r="AT19">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5191,7 +5215,7 @@
         <v>1.33</v>
       </c>
       <c r="AT20">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5292,7 +5316,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5483,7 +5507,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5570,7 +5594,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT22">
         <v>2.36</v>
@@ -5674,7 +5698,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5761,10 +5785,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT23">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU23">
         <v>1.75</v>
@@ -5955,7 +5979,7 @@
         <v>2.31</v>
       </c>
       <c r="AT24">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU24">
         <v>1.07</v>
@@ -6143,7 +6167,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT25">
         <v>0.67</v>
@@ -6247,7 +6271,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6334,10 +6358,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT26">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU26">
         <v>1.37</v>
@@ -6525,7 +6549,7 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT27">
         <v>0.92</v>
@@ -6719,7 +6743,7 @@
         <v>2.58</v>
       </c>
       <c r="AT28">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU28">
         <v>1.92</v>
@@ -6820,7 +6844,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6910,7 +6934,7 @@
         <v>2.08</v>
       </c>
       <c r="AT29">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU29">
         <v>2.16</v>
@@ -7098,10 +7122,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT30">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU30">
         <v>1.98</v>
@@ -7289,10 +7313,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT31">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU31">
         <v>2.32</v>
@@ -8157,7 +8181,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8629,7 +8653,7 @@
         <v>1.42</v>
       </c>
       <c r="AT38">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU38">
         <v>1.37</v>
@@ -8730,7 +8754,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8817,7 +8841,7 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT39">
         <v>0.67</v>
@@ -8921,7 +8945,7 @@
         <v>98</v>
       </c>
       <c r="P40" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -9390,10 +9414,10 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT42">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU42">
         <v>2.1</v>
@@ -9494,7 +9518,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9581,7 +9605,7 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT43">
         <v>2.36</v>
@@ -9685,7 +9709,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9772,10 +9796,10 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT44">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU44">
         <v>1.59</v>
@@ -9966,7 +9990,7 @@
         <v>2.31</v>
       </c>
       <c r="AT45">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU45">
         <v>2.15</v>
@@ -10154,10 +10178,10 @@
         <v>0.5</v>
       </c>
       <c r="AS46">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT46">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU46">
         <v>2.05</v>
@@ -10536,10 +10560,10 @@
         <v>0.5</v>
       </c>
       <c r="AS48">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT48">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU48">
         <v>2.06</v>
@@ -10727,10 +10751,10 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT49">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU49">
         <v>1.55</v>
@@ -10831,7 +10855,7 @@
         <v>96</v>
       </c>
       <c r="P50" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10918,10 +10942,10 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT50">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU50">
         <v>1.78</v>
@@ -11109,10 +11133,10 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT51">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU51">
         <v>1.95</v>
@@ -11404,7 +11428,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11595,7 +11619,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -12550,7 +12574,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12741,7 +12765,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -13210,10 +13234,10 @@
         <v>0.67</v>
       </c>
       <c r="AS62">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT62">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU62">
         <v>1.51</v>
@@ -13401,10 +13425,10 @@
         <v>2</v>
       </c>
       <c r="AS63">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT63">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU63">
         <v>1.93</v>
@@ -13505,7 +13529,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13592,10 +13616,10 @@
         <v>0.67</v>
       </c>
       <c r="AS64">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT64">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU64">
         <v>1.5</v>
@@ -13783,7 +13807,7 @@
         <v>0.33</v>
       </c>
       <c r="AS65">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT65">
         <v>0.92</v>
@@ -13977,7 +14001,7 @@
         <v>1.15</v>
       </c>
       <c r="AT66">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU66">
         <v>1.48</v>
@@ -14168,7 +14192,7 @@
         <v>2.31</v>
       </c>
       <c r="AT67">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU67">
         <v>2.2</v>
@@ -14269,7 +14293,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -14359,7 +14383,7 @@
         <v>2.58</v>
       </c>
       <c r="AT68">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU68">
         <v>1.65</v>
@@ -14547,7 +14571,7 @@
         <v>3</v>
       </c>
       <c r="AS69">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT69">
         <v>2.36</v>
@@ -14738,10 +14762,10 @@
         <v>1</v>
       </c>
       <c r="AS70">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT70">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU70">
         <v>1.87</v>
@@ -14842,7 +14866,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14929,7 +14953,7 @@
         <v>2</v>
       </c>
       <c r="AS71">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT71">
         <v>1.77</v>
@@ -15224,7 +15248,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15502,7 +15526,7 @@
         <v>2</v>
       </c>
       <c r="AS74">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT74">
         <v>1.75</v>
@@ -15606,7 +15630,7 @@
         <v>96</v>
       </c>
       <c r="P75" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15988,7 +16012,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16179,7 +16203,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16269,7 +16293,7 @@
         <v>1.42</v>
       </c>
       <c r="AT78">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU78">
         <v>1.22</v>
@@ -16561,7 +16585,7 @@
         <v>96</v>
       </c>
       <c r="P80" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16752,7 +16776,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16943,7 +16967,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -17030,10 +17054,10 @@
         <v>0.5</v>
       </c>
       <c r="AS82">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT82">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU82">
         <v>1.9</v>
@@ -17134,7 +17158,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17221,10 +17245,10 @@
         <v>0</v>
       </c>
       <c r="AS83">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT83">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU83">
         <v>1.69</v>
@@ -17516,7 +17540,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17603,10 +17627,10 @@
         <v>1</v>
       </c>
       <c r="AS85">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT85">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU85">
         <v>1.59</v>
@@ -17707,7 +17731,7 @@
         <v>89</v>
       </c>
       <c r="P86" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17985,10 +18009,10 @@
         <v>1.75</v>
       </c>
       <c r="AS87">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT87">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU87">
         <v>2.16</v>
@@ -18089,7 +18113,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -18176,7 +18200,7 @@
         <v>0.25</v>
       </c>
       <c r="AS88">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT88">
         <v>0.92</v>
@@ -18370,7 +18394,7 @@
         <v>2.31</v>
       </c>
       <c r="AT89">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU89">
         <v>2.25</v>
@@ -18561,7 +18585,7 @@
         <v>1.77</v>
       </c>
       <c r="AT90">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU90">
         <v>1.66</v>
@@ -18749,7 +18773,7 @@
         <v>2</v>
       </c>
       <c r="AS91">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT91">
         <v>1.77</v>
@@ -19426,7 +19450,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19513,7 +19537,7 @@
         <v>1.5</v>
       </c>
       <c r="AS95">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT95">
         <v>1.75</v>
@@ -19617,7 +19641,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19707,7 +19731,7 @@
         <v>2.38</v>
       </c>
       <c r="AT96">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU96">
         <v>1.97</v>
@@ -20089,7 +20113,7 @@
         <v>1.17</v>
       </c>
       <c r="AT98">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU98">
         <v>1.69</v>
@@ -20190,7 +20214,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q99">
         <v>10</v>
@@ -20468,7 +20492,7 @@
         <v>0.5</v>
       </c>
       <c r="AS100">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT100">
         <v>1.08</v>
@@ -20763,7 +20787,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q102">
         <v>1</v>
@@ -20853,7 +20877,7 @@
         <v>1.77</v>
       </c>
       <c r="AT102">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU102">
         <v>1.61</v>
@@ -21041,7 +21065,7 @@
         <v>1.4</v>
       </c>
       <c r="AS103">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT103">
         <v>1.77</v>
@@ -21235,7 +21259,7 @@
         <v>2.38</v>
       </c>
       <c r="AT104">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU104">
         <v>1.9</v>
@@ -21423,10 +21447,10 @@
         <v>0.2</v>
       </c>
       <c r="AS105">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT105">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU105">
         <v>1.59</v>
@@ -21527,7 +21551,7 @@
         <v>106</v>
       </c>
       <c r="P106" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21614,10 +21638,10 @@
         <v>1.6</v>
       </c>
       <c r="AS106">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT106">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU106">
         <v>1.81</v>
@@ -21718,7 +21742,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21805,10 +21829,10 @@
         <v>0.4</v>
       </c>
       <c r="AS107">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT107">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU107">
         <v>1.65</v>
@@ -22100,7 +22124,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -22187,10 +22211,10 @@
         <v>0.6</v>
       </c>
       <c r="AS109">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT109">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU109">
         <v>2.07</v>
@@ -22291,7 +22315,7 @@
         <v>96</v>
       </c>
       <c r="P110" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22673,7 +22697,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22763,7 +22787,7 @@
         <v>1.33</v>
       </c>
       <c r="AT112">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU112">
         <v>1.55</v>
@@ -22864,7 +22888,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q113">
         <v>1</v>
@@ -23055,7 +23079,7 @@
         <v>96</v>
       </c>
       <c r="P114" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q114">
         <v>15</v>
@@ -23246,7 +23270,7 @@
         <v>168</v>
       </c>
       <c r="P115" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -23437,7 +23461,7 @@
         <v>96</v>
       </c>
       <c r="P116" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23715,7 +23739,7 @@
         <v>2</v>
       </c>
       <c r="AS117">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT117">
         <v>1.75</v>
@@ -23819,7 +23843,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -23906,7 +23930,7 @@
         <v>0.8</v>
       </c>
       <c r="AS118">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT118">
         <v>0.6899999999999999</v>
@@ -24010,7 +24034,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -24100,7 +24124,7 @@
         <v>1.42</v>
       </c>
       <c r="AT119">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU119">
         <v>1.3</v>
@@ -24291,7 +24315,7 @@
         <v>1</v>
       </c>
       <c r="AT120">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU120">
         <v>1.34</v>
@@ -24392,7 +24416,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q121">
         <v>8</v>
@@ -24479,7 +24503,7 @@
         <v>1.4</v>
       </c>
       <c r="AS121">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT121">
         <v>0.92</v>
@@ -24670,7 +24694,7 @@
         <v>1.4</v>
       </c>
       <c r="AS122">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT122">
         <v>1.75</v>
@@ -24774,7 +24798,7 @@
         <v>174</v>
       </c>
       <c r="P123" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24965,7 +24989,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25052,7 +25076,7 @@
         <v>1.33</v>
       </c>
       <c r="AS124">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT124">
         <v>1.77</v>
@@ -25156,7 +25180,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25243,7 +25267,7 @@
         <v>0.83</v>
       </c>
       <c r="AS125">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT125">
         <v>0.92</v>
@@ -25434,7 +25458,7 @@
         <v>1.67</v>
       </c>
       <c r="AS126">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT126">
         <v>1.77</v>
@@ -25538,7 +25562,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25628,7 +25652,7 @@
         <v>1.17</v>
       </c>
       <c r="AT127">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU127">
         <v>1.68</v>
@@ -25729,7 +25753,7 @@
         <v>178</v>
       </c>
       <c r="P128" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q128">
         <v>10</v>
@@ -25819,7 +25843,7 @@
         <v>2.38</v>
       </c>
       <c r="AT128">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU128">
         <v>1.89</v>
@@ -25920,7 +25944,7 @@
         <v>96</v>
       </c>
       <c r="P129" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -26007,10 +26031,10 @@
         <v>1.83</v>
       </c>
       <c r="AS129">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT129">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU129">
         <v>1.64</v>
@@ -26111,7 +26135,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -26201,7 +26225,7 @@
         <v>1.77</v>
       </c>
       <c r="AT130">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU130">
         <v>1.6</v>
@@ -26392,7 +26416,7 @@
         <v>1.15</v>
       </c>
       <c r="AT131">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU131">
         <v>1.47</v>
@@ -26493,7 +26517,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q132">
         <v>13</v>
@@ -26580,10 +26604,10 @@
         <v>0.86</v>
       </c>
       <c r="AS132">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT132">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU132">
         <v>2.35</v>
@@ -26774,7 +26798,7 @@
         <v>1</v>
       </c>
       <c r="AT133">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU133">
         <v>1.46</v>
@@ -26962,7 +26986,7 @@
         <v>0.5</v>
       </c>
       <c r="AS134">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT134">
         <v>0.67</v>
@@ -27153,7 +27177,7 @@
         <v>0.67</v>
       </c>
       <c r="AS135">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT135">
         <v>0.6899999999999999</v>
@@ -28021,7 +28045,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28111,7 +28135,7 @@
         <v>1.25</v>
       </c>
       <c r="AT140">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU140">
         <v>1.51</v>
@@ -28212,7 +28236,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28302,7 +28326,7 @@
         <v>2.08</v>
       </c>
       <c r="AT141">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU141">
         <v>2</v>
@@ -28403,7 +28427,7 @@
         <v>96</v>
       </c>
       <c r="P142" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q142">
         <v>10</v>
@@ -28490,7 +28514,7 @@
         <v>1.43</v>
       </c>
       <c r="AS142">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT142">
         <v>1.77</v>
@@ -28594,7 +28618,7 @@
         <v>160</v>
       </c>
       <c r="P143" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28684,7 +28708,7 @@
         <v>1.17</v>
       </c>
       <c r="AT143">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU143">
         <v>1.66</v>
@@ -29066,7 +29090,7 @@
         <v>1.42</v>
       </c>
       <c r="AT145">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU145">
         <v>1.23</v>
@@ -29445,7 +29469,7 @@
         <v>1.67</v>
       </c>
       <c r="AS147">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT147">
         <v>1.75</v>
@@ -29639,7 +29663,7 @@
         <v>1.77</v>
       </c>
       <c r="AT148">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU148">
         <v>1.64</v>
@@ -29740,7 +29764,7 @@
         <v>191</v>
       </c>
       <c r="P149" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q149">
         <v>9</v>
@@ -29827,7 +29851,7 @@
         <v>1.14</v>
       </c>
       <c r="AS149">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT149">
         <v>1.08</v>
@@ -29931,7 +29955,7 @@
         <v>192</v>
       </c>
       <c r="P150" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -30018,10 +30042,10 @@
         <v>0.43</v>
       </c>
       <c r="AS150">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT150">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU150">
         <v>1.45</v>
@@ -30122,7 +30146,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q151">
         <v>8</v>
@@ -30209,7 +30233,7 @@
         <v>1.57</v>
       </c>
       <c r="AS151">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT151">
         <v>1.77</v>
@@ -30400,7 +30424,7 @@
         <v>1.57</v>
       </c>
       <c r="AS152">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT152">
         <v>1.75</v>
@@ -30504,7 +30528,7 @@
         <v>96</v>
       </c>
       <c r="P153" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q153">
         <v>3</v>
@@ -30695,7 +30719,7 @@
         <v>96</v>
       </c>
       <c r="P154" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q154">
         <v>12</v>
@@ -30785,7 +30809,7 @@
         <v>1.33</v>
       </c>
       <c r="AT154">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU154">
         <v>1.71</v>
@@ -30976,7 +31000,7 @@
         <v>1.25</v>
       </c>
       <c r="AT155">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU155">
         <v>1.45</v>
@@ -31077,7 +31101,7 @@
         <v>96</v>
       </c>
       <c r="P156" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -31167,7 +31191,7 @@
         <v>1</v>
       </c>
       <c r="AT156">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU156">
         <v>1.49</v>
@@ -31355,7 +31379,7 @@
         <v>1</v>
       </c>
       <c r="AS157">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT157">
         <v>0.92</v>
@@ -31931,7 +31955,7 @@
         <v>2.08</v>
       </c>
       <c r="AT160">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU160">
         <v>2.02</v>
@@ -32119,7 +32143,7 @@
         <v>0.57</v>
       </c>
       <c r="AS161">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT161">
         <v>0.67</v>
@@ -32313,7 +32337,7 @@
         <v>1</v>
       </c>
       <c r="AT162">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU162">
         <v>1.4</v>
@@ -32501,7 +32525,7 @@
         <v>0.63</v>
       </c>
       <c r="AS163">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT163">
         <v>0.6899999999999999</v>
@@ -32605,7 +32629,7 @@
         <v>151</v>
       </c>
       <c r="P164" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32796,7 +32820,7 @@
         <v>96</v>
       </c>
       <c r="P165" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -32883,10 +32907,10 @@
         <v>0.38</v>
       </c>
       <c r="AS165">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT165">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU165">
         <v>1.64</v>
@@ -33178,7 +33202,7 @@
         <v>96</v>
       </c>
       <c r="P167" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q167">
         <v>9</v>
@@ -33268,7 +33292,7 @@
         <v>1.17</v>
       </c>
       <c r="AT167">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU167">
         <v>1.64</v>
@@ -33560,7 +33584,7 @@
         <v>164</v>
       </c>
       <c r="P169" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33647,7 +33671,7 @@
         <v>0.14</v>
       </c>
       <c r="AS169">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT169">
         <v>0.67</v>
@@ -33841,7 +33865,7 @@
         <v>1.42</v>
       </c>
       <c r="AT170">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU170">
         <v>1.29</v>
@@ -33942,7 +33966,7 @@
         <v>105</v>
       </c>
       <c r="P171" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q171">
         <v>8</v>
@@ -34029,7 +34053,7 @@
         <v>1.38</v>
       </c>
       <c r="AS171">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT171">
         <v>1.08</v>
@@ -34133,7 +34157,7 @@
         <v>96</v>
       </c>
       <c r="P172" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q172">
         <v>12</v>
@@ -34220,7 +34244,7 @@
         <v>0.88</v>
       </c>
       <c r="AS172">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT172">
         <v>0.92</v>
@@ -34324,7 +34348,7 @@
         <v>91</v>
       </c>
       <c r="P173" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -34414,7 +34438,7 @@
         <v>2.31</v>
       </c>
       <c r="AT173">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU173">
         <v>2.04</v>
@@ -34515,7 +34539,7 @@
         <v>202</v>
       </c>
       <c r="P174" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q174">
         <v>17</v>
@@ -34602,10 +34626,10 @@
         <v>1.33</v>
       </c>
       <c r="AS174">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT174">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU174">
         <v>1.78</v>
@@ -34793,10 +34817,10 @@
         <v>0.25</v>
       </c>
       <c r="AS175">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT175">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU175">
         <v>1.51</v>
@@ -35178,7 +35202,7 @@
         <v>2.08</v>
       </c>
       <c r="AT177">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU177">
         <v>1.89</v>
@@ -35366,7 +35390,7 @@
         <v>2.5</v>
       </c>
       <c r="AS178">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT178">
         <v>2.36</v>
@@ -35470,7 +35494,7 @@
         <v>86</v>
       </c>
       <c r="P179" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q179">
         <v>10</v>
@@ -35557,7 +35581,7 @@
         <v>0.63</v>
       </c>
       <c r="AS179">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT179">
         <v>0.67</v>
@@ -35852,7 +35876,7 @@
         <v>207</v>
       </c>
       <c r="P181" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q181">
         <v>13</v>
@@ -35942,7 +35966,7 @@
         <v>1.25</v>
       </c>
       <c r="AT181">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU181">
         <v>1.56</v>
@@ -36043,7 +36067,7 @@
         <v>96</v>
       </c>
       <c r="P182" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -36234,7 +36258,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q183">
         <v>7</v>
@@ -36321,7 +36345,7 @@
         <v>1.38</v>
       </c>
       <c r="AS183">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT183">
         <v>1.75</v>
@@ -36425,7 +36449,7 @@
         <v>209</v>
       </c>
       <c r="P184" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36515,7 +36539,7 @@
         <v>2.38</v>
       </c>
       <c r="AT184">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU184">
         <v>2.05</v>
@@ -36897,7 +36921,7 @@
         <v>1.33</v>
       </c>
       <c r="AT186">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU186">
         <v>1.73</v>
@@ -37085,7 +37109,7 @@
         <v>0.67</v>
       </c>
       <c r="AS187">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT187">
         <v>0.6899999999999999</v>
@@ -37189,7 +37213,7 @@
         <v>213</v>
       </c>
       <c r="P188" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -37276,7 +37300,7 @@
         <v>1.38</v>
       </c>
       <c r="AS188">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT188">
         <v>1.75</v>
@@ -37380,7 +37404,7 @@
         <v>214</v>
       </c>
       <c r="P189" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q189">
         <v>7</v>
@@ -37571,7 +37595,7 @@
         <v>119</v>
       </c>
       <c r="P190" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -37762,7 +37786,7 @@
         <v>130</v>
       </c>
       <c r="P191" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q191">
         <v>8</v>
@@ -37852,7 +37876,7 @@
         <v>1</v>
       </c>
       <c r="AT191">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU191">
         <v>1.46</v>
@@ -38144,7 +38168,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q193">
         <v>10</v>
@@ -38234,7 +38258,7 @@
         <v>1.17</v>
       </c>
       <c r="AT193">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU193">
         <v>1.57</v>
@@ -38335,7 +38359,7 @@
         <v>205</v>
       </c>
       <c r="P194" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q194">
         <v>9</v>
@@ -38422,7 +38446,7 @@
         <v>1.11</v>
       </c>
       <c r="AS194">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT194">
         <v>0.92</v>
@@ -38526,7 +38550,7 @@
         <v>96</v>
       </c>
       <c r="P195" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q195">
         <v>9</v>
@@ -38998,7 +39022,7 @@
         <v>1.42</v>
       </c>
       <c r="AT197">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU197">
         <v>1.33</v>
@@ -39290,7 +39314,7 @@
         <v>151</v>
       </c>
       <c r="P199" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q199">
         <v>7</v>
@@ -39672,7 +39696,7 @@
         <v>87</v>
       </c>
       <c r="P201" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q201">
         <v>9</v>
@@ -39759,7 +39783,7 @@
         <v>1.56</v>
       </c>
       <c r="AS201">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT201">
         <v>1.75</v>
@@ -39953,7 +39977,7 @@
         <v>2.31</v>
       </c>
       <c r="AT202">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU202">
         <v>1.98</v>
@@ -40141,7 +40165,7 @@
         <v>0.67</v>
       </c>
       <c r="AS203">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT203">
         <v>0.67</v>
@@ -40332,10 +40356,10 @@
         <v>0.33</v>
       </c>
       <c r="AS204">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT204">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU204">
         <v>1.76</v>
@@ -40436,7 +40460,7 @@
         <v>96</v>
       </c>
       <c r="P205" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -40523,7 +40547,7 @@
         <v>2.22</v>
       </c>
       <c r="AS205">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT205">
         <v>2.36</v>
@@ -40627,7 +40651,7 @@
         <v>220</v>
       </c>
       <c r="P206" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q206">
         <v>5</v>
@@ -40717,7 +40741,7 @@
         <v>2.08</v>
       </c>
       <c r="AT206">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU206">
         <v>1.9</v>
@@ -40818,7 +40842,7 @@
         <v>221</v>
       </c>
       <c r="P207" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q207">
         <v>2</v>
@@ -41096,10 +41120,10 @@
         <v>1.3</v>
       </c>
       <c r="AS208">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT208">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU208">
         <v>2.12</v>
@@ -41200,7 +41224,7 @@
         <v>222</v>
       </c>
       <c r="P209" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q209">
         <v>8</v>
@@ -41287,7 +41311,7 @@
         <v>1.22</v>
       </c>
       <c r="AS209">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT209">
         <v>1.08</v>
@@ -41478,10 +41502,10 @@
         <v>1.5</v>
       </c>
       <c r="AS210">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT210">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU210">
         <v>1.49</v>
@@ -41582,7 +41606,7 @@
         <v>119</v>
       </c>
       <c r="P211" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q211">
         <v>9</v>
@@ -41672,7 +41696,7 @@
         <v>2.58</v>
       </c>
       <c r="AT211">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU211">
         <v>1.73</v>
@@ -41964,7 +41988,7 @@
         <v>147</v>
       </c>
       <c r="P213" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q213">
         <v>6</v>
@@ -42242,7 +42266,7 @@
         <v>1.2</v>
       </c>
       <c r="AS214">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT214">
         <v>1.08</v>
@@ -42346,7 +42370,7 @@
         <v>89</v>
       </c>
       <c r="P215" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q215">
         <v>6</v>
@@ -42537,7 +42561,7 @@
         <v>225</v>
       </c>
       <c r="P216" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q216">
         <v>5</v>
@@ -43110,7 +43134,7 @@
         <v>228</v>
       </c>
       <c r="P219" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q219">
         <v>9</v>
@@ -43200,7 +43224,7 @@
         <v>1.25</v>
       </c>
       <c r="AT219">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU219">
         <v>1.66</v>
@@ -43301,7 +43325,7 @@
         <v>229</v>
       </c>
       <c r="P220" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q220">
         <v>6</v>
@@ -43683,7 +43707,7 @@
         <v>230</v>
       </c>
       <c r="P222" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q222">
         <v>4</v>
@@ -43770,10 +43794,10 @@
         <v>1</v>
       </c>
       <c r="AS222">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT222">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU222">
         <v>2.04</v>
@@ -43964,7 +43988,7 @@
         <v>2.31</v>
       </c>
       <c r="AT223">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU223">
         <v>2</v>
@@ -44065,7 +44089,7 @@
         <v>232</v>
       </c>
       <c r="P224" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q224">
         <v>5</v>
@@ -44155,7 +44179,7 @@
         <v>2.08</v>
       </c>
       <c r="AT224">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU224">
         <v>1.87</v>
@@ -44256,7 +44280,7 @@
         <v>233</v>
       </c>
       <c r="P225" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q225">
         <v>6</v>
@@ -44343,10 +44367,10 @@
         <v>1.55</v>
       </c>
       <c r="AS225">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT225">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU225">
         <v>1.82</v>
@@ -44447,7 +44471,7 @@
         <v>234</v>
       </c>
       <c r="P226" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -44638,7 +44662,7 @@
         <v>96</v>
       </c>
       <c r="P227" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q227">
         <v>5</v>
@@ -44725,7 +44749,7 @@
         <v>2.3</v>
       </c>
       <c r="AS227">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT227">
         <v>2.36</v>
@@ -44829,7 +44853,7 @@
         <v>235</v>
       </c>
       <c r="P228" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q228">
         <v>12</v>
@@ -44916,10 +44940,10 @@
         <v>1.27</v>
       </c>
       <c r="AS228">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT228">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU228">
         <v>1.76</v>
@@ -45020,7 +45044,7 @@
         <v>96</v>
       </c>
       <c r="P229" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q229">
         <v>7</v>
@@ -45107,10 +45131,10 @@
         <v>0.8</v>
       </c>
       <c r="AS229">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT229">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU229">
         <v>1.9</v>
@@ -45298,7 +45322,7 @@
         <v>1.1</v>
       </c>
       <c r="AS230">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT230">
         <v>0.92</v>
@@ -45489,10 +45513,10 @@
         <v>0.3</v>
       </c>
       <c r="AS231">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT231">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU231">
         <v>1.54</v>
@@ -45975,7 +45999,7 @@
         <v>238</v>
       </c>
       <c r="P234" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q234">
         <v>4</v>
@@ -47312,7 +47336,7 @@
         <v>96</v>
       </c>
       <c r="P241" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q241">
         <v>2</v>
@@ -47645,6 +47669,1534 @@
       </c>
       <c r="BK242">
         <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:63">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>2604226</v>
+      </c>
+      <c r="C243" t="s">
+        <v>63</v>
+      </c>
+      <c r="D243" t="s">
+        <v>64</v>
+      </c>
+      <c r="E243" s="2">
+        <v>44989.41666666666</v>
+      </c>
+      <c r="F243">
+        <v>25</v>
+      </c>
+      <c r="G243" t="s">
+        <v>71</v>
+      </c>
+      <c r="H243" t="s">
+        <v>65</v>
+      </c>
+      <c r="I243">
+        <v>1</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>1</v>
+      </c>
+      <c r="L243">
+        <v>1</v>
+      </c>
+      <c r="M243">
+        <v>2</v>
+      </c>
+      <c r="N243">
+        <v>3</v>
+      </c>
+      <c r="O243" t="s">
+        <v>235</v>
+      </c>
+      <c r="P243" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q243">
+        <v>3</v>
+      </c>
+      <c r="R243">
+        <v>2</v>
+      </c>
+      <c r="S243">
+        <v>5</v>
+      </c>
+      <c r="T243">
+        <v>2.8</v>
+      </c>
+      <c r="U243">
+        <v>2.2</v>
+      </c>
+      <c r="V243">
+        <v>3.2</v>
+      </c>
+      <c r="W243">
+        <v>1.33</v>
+      </c>
+      <c r="X243">
+        <v>3.05</v>
+      </c>
+      <c r="Y243">
+        <v>2.5</v>
+      </c>
+      <c r="Z243">
+        <v>1.47</v>
+      </c>
+      <c r="AA243">
+        <v>5.95</v>
+      </c>
+      <c r="AB243">
+        <v>1.1</v>
+      </c>
+      <c r="AC243">
+        <v>2.3</v>
+      </c>
+      <c r="AD243">
+        <v>3.35</v>
+      </c>
+      <c r="AE243">
+        <v>2.7</v>
+      </c>
+      <c r="AF243">
+        <v>1.04</v>
+      </c>
+      <c r="AG243">
+        <v>10</v>
+      </c>
+      <c r="AH243">
+        <v>1.22</v>
+      </c>
+      <c r="AI243">
+        <v>4</v>
+      </c>
+      <c r="AJ243">
+        <v>1.59</v>
+      </c>
+      <c r="AK243">
+        <v>2.11</v>
+      </c>
+      <c r="AL243">
+        <v>1.58</v>
+      </c>
+      <c r="AM243">
+        <v>2.2</v>
+      </c>
+      <c r="AN243">
+        <v>1.4</v>
+      </c>
+      <c r="AO243">
+        <v>1.3</v>
+      </c>
+      <c r="AP243">
+        <v>1.57</v>
+      </c>
+      <c r="AQ243">
+        <v>1.45</v>
+      </c>
+      <c r="AR243">
+        <v>1.25</v>
+      </c>
+      <c r="AS243">
+        <v>1.33</v>
+      </c>
+      <c r="AT243">
+        <v>1.38</v>
+      </c>
+      <c r="AU243">
+        <v>1.85</v>
+      </c>
+      <c r="AV243">
+        <v>1.62</v>
+      </c>
+      <c r="AW243">
+        <v>3.47</v>
+      </c>
+      <c r="AX243">
+        <v>1.62</v>
+      </c>
+      <c r="AY243">
+        <v>8.5</v>
+      </c>
+      <c r="AZ243">
+        <v>2.73</v>
+      </c>
+      <c r="BA243">
+        <v>1.14</v>
+      </c>
+      <c r="BB243">
+        <v>1.21</v>
+      </c>
+      <c r="BC243">
+        <v>1.43</v>
+      </c>
+      <c r="BD243">
+        <v>1.67</v>
+      </c>
+      <c r="BE243">
+        <v>2.05</v>
+      </c>
+      <c r="BF243">
+        <v>8</v>
+      </c>
+      <c r="BG243">
+        <v>5</v>
+      </c>
+      <c r="BH243">
+        <v>7</v>
+      </c>
+      <c r="BI243">
+        <v>2</v>
+      </c>
+      <c r="BJ243">
+        <v>15</v>
+      </c>
+      <c r="BK243">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:63">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>2604225</v>
+      </c>
+      <c r="C244" t="s">
+        <v>63</v>
+      </c>
+      <c r="D244" t="s">
+        <v>64</v>
+      </c>
+      <c r="E244" s="2">
+        <v>44989.41666666666</v>
+      </c>
+      <c r="F244">
+        <v>25</v>
+      </c>
+      <c r="G244" t="s">
+        <v>73</v>
+      </c>
+      <c r="H244" t="s">
+        <v>84</v>
+      </c>
+      <c r="I244">
+        <v>2</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>2</v>
+      </c>
+      <c r="L244">
+        <v>2</v>
+      </c>
+      <c r="M244">
+        <v>1</v>
+      </c>
+      <c r="N244">
+        <v>3</v>
+      </c>
+      <c r="O244" t="s">
+        <v>244</v>
+      </c>
+      <c r="P244" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q244">
+        <v>4</v>
+      </c>
+      <c r="R244">
+        <v>11</v>
+      </c>
+      <c r="S244">
+        <v>15</v>
+      </c>
+      <c r="T244">
+        <v>3.2</v>
+      </c>
+      <c r="U244">
+        <v>2.15</v>
+      </c>
+      <c r="V244">
+        <v>3</v>
+      </c>
+      <c r="W244">
+        <v>1.36</v>
+      </c>
+      <c r="X244">
+        <v>3</v>
+      </c>
+      <c r="Y244">
+        <v>2.66</v>
+      </c>
+      <c r="Z244">
+        <v>1.45</v>
+      </c>
+      <c r="AA244">
+        <v>6.5</v>
+      </c>
+      <c r="AB244">
+        <v>1.09</v>
+      </c>
+      <c r="AC244">
+        <v>2.65</v>
+      </c>
+      <c r="AD244">
+        <v>3.2</v>
+      </c>
+      <c r="AE244">
+        <v>2.45</v>
+      </c>
+      <c r="AF244">
+        <v>1.05</v>
+      </c>
+      <c r="AG244">
+        <v>9</v>
+      </c>
+      <c r="AH244">
+        <v>1.25</v>
+      </c>
+      <c r="AI244">
+        <v>3.6</v>
+      </c>
+      <c r="AJ244">
+        <v>1.76</v>
+      </c>
+      <c r="AK244">
+        <v>1.88</v>
+      </c>
+      <c r="AL244">
+        <v>1.65</v>
+      </c>
+      <c r="AM244">
+        <v>2.15</v>
+      </c>
+      <c r="AN244">
+        <v>1.52</v>
+      </c>
+      <c r="AO244">
+        <v>1.25</v>
+      </c>
+      <c r="AP244">
+        <v>1.45</v>
+      </c>
+      <c r="AQ244">
+        <v>1</v>
+      </c>
+      <c r="AR244">
+        <v>1</v>
+      </c>
+      <c r="AS244">
+        <v>1.17</v>
+      </c>
+      <c r="AT244">
+        <v>0.92</v>
+      </c>
+      <c r="AU244">
+        <v>1.45</v>
+      </c>
+      <c r="AV244">
+        <v>1.36</v>
+      </c>
+      <c r="AW244">
+        <v>2.81</v>
+      </c>
+      <c r="AX244">
+        <v>2</v>
+      </c>
+      <c r="AY244">
+        <v>7.7</v>
+      </c>
+      <c r="AZ244">
+        <v>2.07</v>
+      </c>
+      <c r="BA244">
+        <v>1.18</v>
+      </c>
+      <c r="BB244">
+        <v>1.34</v>
+      </c>
+      <c r="BC244">
+        <v>1.65</v>
+      </c>
+      <c r="BD244">
+        <v>2</v>
+      </c>
+      <c r="BE244">
+        <v>2.5</v>
+      </c>
+      <c r="BF244">
+        <v>4</v>
+      </c>
+      <c r="BG244">
+        <v>3</v>
+      </c>
+      <c r="BH244">
+        <v>1</v>
+      </c>
+      <c r="BI244">
+        <v>3</v>
+      </c>
+      <c r="BJ244">
+        <v>5</v>
+      </c>
+      <c r="BK244">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:63">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>2604224</v>
+      </c>
+      <c r="C245" t="s">
+        <v>63</v>
+      </c>
+      <c r="D245" t="s">
+        <v>64</v>
+      </c>
+      <c r="E245" s="2">
+        <v>44989.41666666666</v>
+      </c>
+      <c r="F245">
+        <v>25</v>
+      </c>
+      <c r="G245" t="s">
+        <v>70</v>
+      </c>
+      <c r="H245" t="s">
+        <v>83</v>
+      </c>
+      <c r="I245">
+        <v>1</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>1</v>
+      </c>
+      <c r="L245">
+        <v>1</v>
+      </c>
+      <c r="M245">
+        <v>0</v>
+      </c>
+      <c r="N245">
+        <v>1</v>
+      </c>
+      <c r="O245" t="s">
+        <v>245</v>
+      </c>
+      <c r="P245" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q245">
+        <v>2</v>
+      </c>
+      <c r="R245">
+        <v>8</v>
+      </c>
+      <c r="S245">
+        <v>10</v>
+      </c>
+      <c r="T245">
+        <v>2.31</v>
+      </c>
+      <c r="U245">
+        <v>2.18</v>
+      </c>
+      <c r="V245">
+        <v>4.7</v>
+      </c>
+      <c r="W245">
+        <v>1.37</v>
+      </c>
+      <c r="X245">
+        <v>2.95</v>
+      </c>
+      <c r="Y245">
+        <v>2.74</v>
+      </c>
+      <c r="Z245">
+        <v>1.42</v>
+      </c>
+      <c r="AA245">
+        <v>6.8</v>
+      </c>
+      <c r="AB245">
+        <v>1.09</v>
+      </c>
+      <c r="AC245">
+        <v>1.83</v>
+      </c>
+      <c r="AD245">
+        <v>3.45</v>
+      </c>
+      <c r="AE245">
+        <v>3.95</v>
+      </c>
+      <c r="AF245">
+        <v>1.01</v>
+      </c>
+      <c r="AG245">
+        <v>9.5</v>
+      </c>
+      <c r="AH245">
+        <v>1.26</v>
+      </c>
+      <c r="AI245">
+        <v>3.4</v>
+      </c>
+      <c r="AJ245">
+        <v>1.73</v>
+      </c>
+      <c r="AK245">
+        <v>1.91</v>
+      </c>
+      <c r="AL245">
+        <v>1.77</v>
+      </c>
+      <c r="AM245">
+        <v>1.94</v>
+      </c>
+      <c r="AN245">
+        <v>1.2</v>
+      </c>
+      <c r="AO245">
+        <v>1.25</v>
+      </c>
+      <c r="AP245">
+        <v>1.95</v>
+      </c>
+      <c r="AQ245">
+        <v>1.42</v>
+      </c>
+      <c r="AR245">
+        <v>1.17</v>
+      </c>
+      <c r="AS245">
+        <v>1.54</v>
+      </c>
+      <c r="AT245">
+        <v>1.08</v>
+      </c>
+      <c r="AU245">
+        <v>1.78</v>
+      </c>
+      <c r="AV245">
+        <v>1.56</v>
+      </c>
+      <c r="AW245">
+        <v>3.34</v>
+      </c>
+      <c r="AX245">
+        <v>1.41</v>
+      </c>
+      <c r="AY245">
+        <v>9</v>
+      </c>
+      <c r="AZ245">
+        <v>3.48</v>
+      </c>
+      <c r="BA245">
+        <v>1.22</v>
+      </c>
+      <c r="BB245">
+        <v>1.48</v>
+      </c>
+      <c r="BC245">
+        <v>1.73</v>
+      </c>
+      <c r="BD245">
+        <v>2.1</v>
+      </c>
+      <c r="BE245">
+        <v>2.7</v>
+      </c>
+      <c r="BF245">
+        <v>10</v>
+      </c>
+      <c r="BG245">
+        <v>9</v>
+      </c>
+      <c r="BH245">
+        <v>7</v>
+      </c>
+      <c r="BI245">
+        <v>9</v>
+      </c>
+      <c r="BJ245">
+        <v>17</v>
+      </c>
+      <c r="BK245">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="246" spans="1:63">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>2604223</v>
+      </c>
+      <c r="C246" t="s">
+        <v>63</v>
+      </c>
+      <c r="D246" t="s">
+        <v>64</v>
+      </c>
+      <c r="E246" s="2">
+        <v>44989.41666666666</v>
+      </c>
+      <c r="F246">
+        <v>25</v>
+      </c>
+      <c r="G246" t="s">
+        <v>78</v>
+      </c>
+      <c r="H246" t="s">
+        <v>77</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>1</v>
+      </c>
+      <c r="K246">
+        <v>1</v>
+      </c>
+      <c r="L246">
+        <v>2</v>
+      </c>
+      <c r="M246">
+        <v>3</v>
+      </c>
+      <c r="N246">
+        <v>5</v>
+      </c>
+      <c r="O246" t="s">
+        <v>246</v>
+      </c>
+      <c r="P246" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q246">
+        <v>2</v>
+      </c>
+      <c r="R246">
+        <v>10</v>
+      </c>
+      <c r="S246">
+        <v>12</v>
+      </c>
+      <c r="T246">
+        <v>2.9</v>
+      </c>
+      <c r="U246">
+        <v>2.15</v>
+      </c>
+      <c r="V246">
+        <v>3.4</v>
+      </c>
+      <c r="W246">
+        <v>1.32</v>
+      </c>
+      <c r="X246">
+        <v>3.1</v>
+      </c>
+      <c r="Y246">
+        <v>2.6</v>
+      </c>
+      <c r="Z246">
+        <v>1.42</v>
+      </c>
+      <c r="AA246">
+        <v>6.5</v>
+      </c>
+      <c r="AB246">
+        <v>1.1</v>
+      </c>
+      <c r="AC246">
+        <v>2.35</v>
+      </c>
+      <c r="AD246">
+        <v>3.3</v>
+      </c>
+      <c r="AE246">
+        <v>2.75</v>
+      </c>
+      <c r="AF246">
+        <v>1.04</v>
+      </c>
+      <c r="AG246">
+        <v>9.5</v>
+      </c>
+      <c r="AH246">
+        <v>1.25</v>
+      </c>
+      <c r="AI246">
+        <v>3.8</v>
+      </c>
+      <c r="AJ246">
+        <v>1.75</v>
+      </c>
+      <c r="AK246">
+        <v>1.89</v>
+      </c>
+      <c r="AL246">
+        <v>1.6</v>
+      </c>
+      <c r="AM246">
+        <v>2.2</v>
+      </c>
+      <c r="AN246">
+        <v>1.37</v>
+      </c>
+      <c r="AO246">
+        <v>1.33</v>
+      </c>
+      <c r="AP246">
+        <v>1.55</v>
+      </c>
+      <c r="AQ246">
+        <v>1</v>
+      </c>
+      <c r="AR246">
+        <v>0.55</v>
+      </c>
+      <c r="AS246">
+        <v>0.92</v>
+      </c>
+      <c r="AT246">
+        <v>0.75</v>
+      </c>
+      <c r="AU246">
+        <v>1.66</v>
+      </c>
+      <c r="AV246">
+        <v>1.18</v>
+      </c>
+      <c r="AW246">
+        <v>2.84</v>
+      </c>
+      <c r="AX246">
+        <v>1.77</v>
+      </c>
+      <c r="AY246">
+        <v>7.8</v>
+      </c>
+      <c r="AZ246">
+        <v>2.43</v>
+      </c>
+      <c r="BA246">
+        <v>1.18</v>
+      </c>
+      <c r="BB246">
+        <v>1.34</v>
+      </c>
+      <c r="BC246">
+        <v>1.65</v>
+      </c>
+      <c r="BD246">
+        <v>2</v>
+      </c>
+      <c r="BE246">
+        <v>2.5</v>
+      </c>
+      <c r="BF246">
+        <v>7</v>
+      </c>
+      <c r="BG246">
+        <v>10</v>
+      </c>
+      <c r="BH246">
+        <v>1</v>
+      </c>
+      <c r="BI246">
+        <v>13</v>
+      </c>
+      <c r="BJ246">
+        <v>8</v>
+      </c>
+      <c r="BK246">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="247" spans="1:63">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>2604220</v>
+      </c>
+      <c r="C247" t="s">
+        <v>63</v>
+      </c>
+      <c r="D247" t="s">
+        <v>64</v>
+      </c>
+      <c r="E247" s="2">
+        <v>44989.41666666666</v>
+      </c>
+      <c r="F247">
+        <v>25</v>
+      </c>
+      <c r="G247" t="s">
+        <v>80</v>
+      </c>
+      <c r="H247" t="s">
+        <v>79</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>1</v>
+      </c>
+      <c r="K247">
+        <v>1</v>
+      </c>
+      <c r="L247">
+        <v>0</v>
+      </c>
+      <c r="M247">
+        <v>1</v>
+      </c>
+      <c r="N247">
+        <v>1</v>
+      </c>
+      <c r="O247" t="s">
+        <v>96</v>
+      </c>
+      <c r="P247" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q247">
+        <v>6</v>
+      </c>
+      <c r="R247">
+        <v>3</v>
+      </c>
+      <c r="S247">
+        <v>9</v>
+      </c>
+      <c r="T247">
+        <v>2.5</v>
+      </c>
+      <c r="U247">
+        <v>2.25</v>
+      </c>
+      <c r="V247">
+        <v>3.8</v>
+      </c>
+      <c r="W247">
+        <v>1.36</v>
+      </c>
+      <c r="X247">
+        <v>2.9</v>
+      </c>
+      <c r="Y247">
+        <v>2.65</v>
+      </c>
+      <c r="Z247">
+        <v>1.42</v>
+      </c>
+      <c r="AA247">
+        <v>6.45</v>
+      </c>
+      <c r="AB247">
+        <v>1.09</v>
+      </c>
+      <c r="AC247">
+        <v>2</v>
+      </c>
+      <c r="AD247">
+        <v>3.5</v>
+      </c>
+      <c r="AE247">
+        <v>3.4</v>
+      </c>
+      <c r="AF247">
+        <v>1.05</v>
+      </c>
+      <c r="AG247">
+        <v>9</v>
+      </c>
+      <c r="AH247">
+        <v>1.25</v>
+      </c>
+      <c r="AI247">
+        <v>3.6</v>
+      </c>
+      <c r="AJ247">
+        <v>1.72</v>
+      </c>
+      <c r="AK247">
+        <v>1.92</v>
+      </c>
+      <c r="AL247">
+        <v>1.55</v>
+      </c>
+      <c r="AM247">
+        <v>2.25</v>
+      </c>
+      <c r="AN247">
+        <v>1.27</v>
+      </c>
+      <c r="AO247">
+        <v>1.3</v>
+      </c>
+      <c r="AP247">
+        <v>1.75</v>
+      </c>
+      <c r="AQ247">
+        <v>1.83</v>
+      </c>
+      <c r="AR247">
+        <v>1.25</v>
+      </c>
+      <c r="AS247">
+        <v>1.69</v>
+      </c>
+      <c r="AT247">
+        <v>1.38</v>
+      </c>
+      <c r="AU247">
+        <v>1.87</v>
+      </c>
+      <c r="AV247">
+        <v>1.47</v>
+      </c>
+      <c r="AW247">
+        <v>3.34</v>
+      </c>
+      <c r="AX247">
+        <v>1.51</v>
+      </c>
+      <c r="AY247">
+        <v>8.5</v>
+      </c>
+      <c r="AZ247">
+        <v>3.12</v>
+      </c>
+      <c r="BA247">
+        <v>1.2</v>
+      </c>
+      <c r="BB247">
+        <v>1.48</v>
+      </c>
+      <c r="BC247">
+        <v>1.73</v>
+      </c>
+      <c r="BD247">
+        <v>2.1</v>
+      </c>
+      <c r="BE247">
+        <v>2.7</v>
+      </c>
+      <c r="BF247">
+        <v>4</v>
+      </c>
+      <c r="BG247">
+        <v>2</v>
+      </c>
+      <c r="BH247">
+        <v>8</v>
+      </c>
+      <c r="BI247">
+        <v>2</v>
+      </c>
+      <c r="BJ247">
+        <v>12</v>
+      </c>
+      <c r="BK247">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:63">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>2604218</v>
+      </c>
+      <c r="C248" t="s">
+        <v>63</v>
+      </c>
+      <c r="D248" t="s">
+        <v>64</v>
+      </c>
+      <c r="E248" s="2">
+        <v>44989.41666666666</v>
+      </c>
+      <c r="F248">
+        <v>25</v>
+      </c>
+      <c r="G248" t="s">
+        <v>74</v>
+      </c>
+      <c r="H248" t="s">
+        <v>67</v>
+      </c>
+      <c r="I248">
+        <v>2</v>
+      </c>
+      <c r="J248">
+        <v>1</v>
+      </c>
+      <c r="K248">
+        <v>3</v>
+      </c>
+      <c r="L248">
+        <v>4</v>
+      </c>
+      <c r="M248">
+        <v>1</v>
+      </c>
+      <c r="N248">
+        <v>5</v>
+      </c>
+      <c r="O248" t="s">
+        <v>247</v>
+      </c>
+      <c r="P248" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q248">
+        <v>9</v>
+      </c>
+      <c r="R248">
+        <v>5</v>
+      </c>
+      <c r="S248">
+        <v>14</v>
+      </c>
+      <c r="T248">
+        <v>2.4</v>
+      </c>
+      <c r="U248">
+        <v>2.2</v>
+      </c>
+      <c r="V248">
+        <v>4</v>
+      </c>
+      <c r="W248">
+        <v>1.34</v>
+      </c>
+      <c r="X248">
+        <v>3</v>
+      </c>
+      <c r="Y248">
+        <v>2.55</v>
+      </c>
+      <c r="Z248">
+        <v>1.44</v>
+      </c>
+      <c r="AA248">
+        <v>6.25</v>
+      </c>
+      <c r="AB248">
+        <v>1.1</v>
+      </c>
+      <c r="AC248">
+        <v>1.9</v>
+      </c>
+      <c r="AD248">
+        <v>3.55</v>
+      </c>
+      <c r="AE248">
+        <v>3.7</v>
+      </c>
+      <c r="AF248">
+        <v>1.05</v>
+      </c>
+      <c r="AG248">
+        <v>9</v>
+      </c>
+      <c r="AH248">
+        <v>1.25</v>
+      </c>
+      <c r="AI248">
+        <v>3.75</v>
+      </c>
+      <c r="AJ248">
+        <v>1.7</v>
+      </c>
+      <c r="AK248">
+        <v>1.95</v>
+      </c>
+      <c r="AL248">
+        <v>1.68</v>
+      </c>
+      <c r="AM248">
+        <v>2.05</v>
+      </c>
+      <c r="AN248">
+        <v>1.26</v>
+      </c>
+      <c r="AO248">
+        <v>1.27</v>
+      </c>
+      <c r="AP248">
+        <v>1.85</v>
+      </c>
+      <c r="AQ248">
+        <v>1.91</v>
+      </c>
+      <c r="AR248">
+        <v>1.67</v>
+      </c>
+      <c r="AS248">
+        <v>2</v>
+      </c>
+      <c r="AT248">
+        <v>1.54</v>
+      </c>
+      <c r="AU248">
+        <v>2.04</v>
+      </c>
+      <c r="AV248">
+        <v>1.7</v>
+      </c>
+      <c r="AW248">
+        <v>3.74</v>
+      </c>
+      <c r="AX248">
+        <v>1.49</v>
+      </c>
+      <c r="AY248">
+        <v>8.5</v>
+      </c>
+      <c r="AZ248">
+        <v>3.2</v>
+      </c>
+      <c r="BA248">
+        <v>1.2</v>
+      </c>
+      <c r="BB248">
+        <v>1.43</v>
+      </c>
+      <c r="BC248">
+        <v>1.7</v>
+      </c>
+      <c r="BD248">
+        <v>2.1</v>
+      </c>
+      <c r="BE248">
+        <v>2.63</v>
+      </c>
+      <c r="BF248">
+        <v>10</v>
+      </c>
+      <c r="BG248">
+        <v>4</v>
+      </c>
+      <c r="BH248">
+        <v>5</v>
+      </c>
+      <c r="BI248">
+        <v>3</v>
+      </c>
+      <c r="BJ248">
+        <v>15</v>
+      </c>
+      <c r="BK248">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:63">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>2604222</v>
+      </c>
+      <c r="C249" t="s">
+        <v>63</v>
+      </c>
+      <c r="D249" t="s">
+        <v>64</v>
+      </c>
+      <c r="E249" s="2">
+        <v>44990.375</v>
+      </c>
+      <c r="F249">
+        <v>25</v>
+      </c>
+      <c r="G249" t="s">
+        <v>69</v>
+      </c>
+      <c r="H249" t="s">
+        <v>76</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>0</v>
+      </c>
+      <c r="L249">
+        <v>2</v>
+      </c>
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249">
+        <v>2</v>
+      </c>
+      <c r="O249" t="s">
+        <v>248</v>
+      </c>
+      <c r="P249" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q249">
+        <v>2</v>
+      </c>
+      <c r="R249">
+        <v>4</v>
+      </c>
+      <c r="S249">
+        <v>6</v>
+      </c>
+      <c r="T249">
+        <v>2.38</v>
+      </c>
+      <c r="U249">
+        <v>2.3</v>
+      </c>
+      <c r="V249">
+        <v>4.5</v>
+      </c>
+      <c r="W249">
+        <v>1.33</v>
+      </c>
+      <c r="X249">
+        <v>3.25</v>
+      </c>
+      <c r="Y249">
+        <v>2.63</v>
+      </c>
+      <c r="Z249">
+        <v>1.44</v>
+      </c>
+      <c r="AA249">
+        <v>6.5</v>
+      </c>
+      <c r="AB249">
+        <v>1.11</v>
+      </c>
+      <c r="AC249">
+        <v>1.61</v>
+      </c>
+      <c r="AD249">
+        <v>3.57</v>
+      </c>
+      <c r="AE249">
+        <v>4.71</v>
+      </c>
+      <c r="AF249">
+        <v>1.02</v>
+      </c>
+      <c r="AG249">
+        <v>12</v>
+      </c>
+      <c r="AH249">
+        <v>1.2</v>
+      </c>
+      <c r="AI249">
+        <v>4.3</v>
+      </c>
+      <c r="AJ249">
+        <v>1.65</v>
+      </c>
+      <c r="AK249">
+        <v>2.02</v>
+      </c>
+      <c r="AL249">
+        <v>1.67</v>
+      </c>
+      <c r="AM249">
+        <v>2.1</v>
+      </c>
+      <c r="AN249">
+        <v>1.22</v>
+      </c>
+      <c r="AO249">
+        <v>1.27</v>
+      </c>
+      <c r="AP249">
+        <v>1.95</v>
+      </c>
+      <c r="AQ249">
+        <v>1.36</v>
+      </c>
+      <c r="AR249">
+        <v>0.67</v>
+      </c>
+      <c r="AS249">
+        <v>1.5</v>
+      </c>
+      <c r="AT249">
+        <v>0.62</v>
+      </c>
+      <c r="AU249">
+        <v>1.5</v>
+      </c>
+      <c r="AV249">
+        <v>1.36</v>
+      </c>
+      <c r="AW249">
+        <v>2.86</v>
+      </c>
+      <c r="AX249">
+        <v>1.33</v>
+      </c>
+      <c r="AY249">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ249">
+        <v>4.15</v>
+      </c>
+      <c r="BA249">
+        <v>1.27</v>
+      </c>
+      <c r="BB249">
+        <v>1.55</v>
+      </c>
+      <c r="BC249">
+        <v>1.93</v>
+      </c>
+      <c r="BD249">
+        <v>2.3</v>
+      </c>
+      <c r="BE249">
+        <v>3.4</v>
+      </c>
+      <c r="BF249">
+        <v>6</v>
+      </c>
+      <c r="BG249">
+        <v>7</v>
+      </c>
+      <c r="BH249">
+        <v>7</v>
+      </c>
+      <c r="BI249">
+        <v>4</v>
+      </c>
+      <c r="BJ249">
+        <v>13</v>
+      </c>
+      <c r="BK249">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="250" spans="1:63">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>2604219</v>
+      </c>
+      <c r="C250" t="s">
+        <v>63</v>
+      </c>
+      <c r="D250" t="s">
+        <v>64</v>
+      </c>
+      <c r="E250" s="2">
+        <v>44990.41666666666</v>
+      </c>
+      <c r="F250">
+        <v>25</v>
+      </c>
+      <c r="G250" t="s">
+        <v>66</v>
+      </c>
+      <c r="H250" t="s">
+        <v>75</v>
+      </c>
+      <c r="I250">
+        <v>1</v>
+      </c>
+      <c r="J250">
+        <v>3</v>
+      </c>
+      <c r="K250">
+        <v>4</v>
+      </c>
+      <c r="L250">
+        <v>2</v>
+      </c>
+      <c r="M250">
+        <v>3</v>
+      </c>
+      <c r="N250">
+        <v>5</v>
+      </c>
+      <c r="O250" t="s">
+        <v>249</v>
+      </c>
+      <c r="P250" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q250">
+        <v>4</v>
+      </c>
+      <c r="R250">
+        <v>3</v>
+      </c>
+      <c r="S250">
+        <v>7</v>
+      </c>
+      <c r="T250">
+        <v>3.4</v>
+      </c>
+      <c r="U250">
+        <v>2.25</v>
+      </c>
+      <c r="V250">
+        <v>2.88</v>
+      </c>
+      <c r="W250">
+        <v>1.36</v>
+      </c>
+      <c r="X250">
+        <v>3</v>
+      </c>
+      <c r="Y250">
+        <v>2.63</v>
+      </c>
+      <c r="Z250">
+        <v>1.44</v>
+      </c>
+      <c r="AA250">
+        <v>7</v>
+      </c>
+      <c r="AB250">
+        <v>1.1</v>
+      </c>
+      <c r="AC250">
+        <v>2.38</v>
+      </c>
+      <c r="AD250">
+        <v>3.2</v>
+      </c>
+      <c r="AE250">
+        <v>2.62</v>
+      </c>
+      <c r="AF250">
+        <v>1.05</v>
+      </c>
+      <c r="AG250">
+        <v>9</v>
+      </c>
+      <c r="AH250">
+        <v>1.25</v>
+      </c>
+      <c r="AI250">
+        <v>3.75</v>
+      </c>
+      <c r="AJ250">
+        <v>1.69</v>
+      </c>
+      <c r="AK250">
+        <v>1.96</v>
+      </c>
+      <c r="AL250">
+        <v>1.62</v>
+      </c>
+      <c r="AM250">
+        <v>2.2</v>
+      </c>
+      <c r="AN250">
+        <v>1.57</v>
+      </c>
+      <c r="AO250">
+        <v>1.25</v>
+      </c>
+      <c r="AP250">
+        <v>1.42</v>
+      </c>
+      <c r="AQ250">
+        <v>0.83</v>
+      </c>
+      <c r="AR250">
+        <v>1.33</v>
+      </c>
+      <c r="AS250">
+        <v>0.77</v>
+      </c>
+      <c r="AT250">
+        <v>1.46</v>
+      </c>
+      <c r="AU250">
+        <v>1.58</v>
+      </c>
+      <c r="AV250">
+        <v>1.39</v>
+      </c>
+      <c r="AW250">
+        <v>2.97</v>
+      </c>
+      <c r="AX250">
+        <v>1.98</v>
+      </c>
+      <c r="AY250">
+        <v>7.6</v>
+      </c>
+      <c r="AZ250">
+        <v>2.13</v>
+      </c>
+      <c r="BA250">
+        <v>1.18</v>
+      </c>
+      <c r="BB250">
+        <v>1.34</v>
+      </c>
+      <c r="BC250">
+        <v>1.65</v>
+      </c>
+      <c r="BD250">
+        <v>2</v>
+      </c>
+      <c r="BE250">
+        <v>2.5</v>
+      </c>
+      <c r="BF250">
+        <v>4</v>
+      </c>
+      <c r="BG250">
+        <v>4</v>
+      </c>
+      <c r="BH250">
+        <v>3</v>
+      </c>
+      <c r="BI250">
+        <v>4</v>
+      </c>
+      <c r="BJ250">
+        <v>7</v>
+      </c>
+      <c r="BK250">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="357">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -766,6 +766,9 @@
     <t>['26', '88']</t>
   </si>
   <si>
+    <t>['71', '72']</t>
+  </si>
+  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -1443,7 +1446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK250"/>
+  <dimension ref="A1:BK251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2260,7 +2263,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2347,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT5">
         <v>1.38</v>
@@ -2451,7 +2454,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2541,7 +2544,7 @@
         <v>1.5</v>
       </c>
       <c r="AT6">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2642,7 +2645,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -3215,7 +3218,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3597,7 +3600,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3788,7 +3791,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3979,7 +3982,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -4743,7 +4746,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4934,7 +4937,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -5316,7 +5319,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5507,7 +5510,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5597,7 +5600,7 @@
         <v>0.77</v>
       </c>
       <c r="AT22">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AU22">
         <v>2.04</v>
@@ -5698,7 +5701,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -6271,7 +6274,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6740,7 +6743,7 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT28">
         <v>1.08</v>
@@ -6844,7 +6847,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -8181,7 +8184,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8754,7 +8757,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8945,7 +8948,7 @@
         <v>98</v>
       </c>
       <c r="P40" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -9518,7 +9521,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9608,7 +9611,7 @@
         <v>1.54</v>
       </c>
       <c r="AT43">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AU43">
         <v>2.18</v>
@@ -9709,7 +9712,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10369,7 +10372,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT47">
         <v>0.92</v>
@@ -10855,7 +10858,7 @@
         <v>96</v>
       </c>
       <c r="P50" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11428,7 +11431,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11619,7 +11622,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -12574,7 +12577,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12765,7 +12768,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -13529,7 +13532,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14293,7 +14296,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -14380,7 +14383,7 @@
         <v>0</v>
       </c>
       <c r="AS68">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT68">
         <v>0.62</v>
@@ -14574,7 +14577,7 @@
         <v>0.92</v>
       </c>
       <c r="AT69">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AU69">
         <v>1.59</v>
@@ -14866,7 +14869,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15248,7 +15251,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15630,7 +15633,7 @@
         <v>96</v>
       </c>
       <c r="P75" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16012,7 +16015,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16203,7 +16206,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16585,7 +16588,7 @@
         <v>96</v>
       </c>
       <c r="P80" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16776,7 +16779,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16967,7 +16970,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -17158,7 +17161,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17436,7 +17439,7 @@
         <v>1.75</v>
       </c>
       <c r="AS84">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT84">
         <v>1.77</v>
@@ -17540,7 +17543,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17731,7 +17734,7 @@
         <v>89</v>
       </c>
       <c r="P86" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17821,7 +17824,7 @@
         <v>1.15</v>
       </c>
       <c r="AT86">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AU86">
         <v>1.57</v>
@@ -18113,7 +18116,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -19450,7 +19453,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20214,7 +20217,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q99">
         <v>10</v>
@@ -20787,7 +20790,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q102">
         <v>1</v>
@@ -21551,7 +21554,7 @@
         <v>106</v>
       </c>
       <c r="P106" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21742,7 +21745,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -22020,7 +22023,7 @@
         <v>1.6</v>
       </c>
       <c r="AS108">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT108">
         <v>1.77</v>
@@ -22124,7 +22127,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -22315,7 +22318,7 @@
         <v>96</v>
       </c>
       <c r="P110" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22697,7 +22700,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22888,7 +22891,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q113">
         <v>1</v>
@@ -23079,7 +23082,7 @@
         <v>96</v>
       </c>
       <c r="P114" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q114">
         <v>15</v>
@@ -23270,7 +23273,7 @@
         <v>168</v>
       </c>
       <c r="P115" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -23461,7 +23464,7 @@
         <v>96</v>
       </c>
       <c r="P116" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23551,7 +23554,7 @@
         <v>1.42</v>
       </c>
       <c r="AT116">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AU116">
         <v>1.25</v>
@@ -23843,7 +23846,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -24034,7 +24037,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -24416,7 +24419,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q121">
         <v>8</v>
@@ -24798,7 +24801,7 @@
         <v>174</v>
       </c>
       <c r="P123" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24885,7 +24888,7 @@
         <v>0.83</v>
       </c>
       <c r="AS123">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT123">
         <v>1.08</v>
@@ -24989,7 +24992,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25180,7 +25183,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25562,7 +25565,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25753,7 +25756,7 @@
         <v>178</v>
       </c>
       <c r="P128" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q128">
         <v>10</v>
@@ -25944,7 +25947,7 @@
         <v>96</v>
       </c>
       <c r="P129" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -26135,7 +26138,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -26517,7 +26520,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q132">
         <v>13</v>
@@ -27562,7 +27565,7 @@
         <v>1.33</v>
       </c>
       <c r="AT137">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AU137">
         <v>1.66</v>
@@ -27750,7 +27753,7 @@
         <v>1.83</v>
       </c>
       <c r="AS138">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT138">
         <v>1.75</v>
@@ -28045,7 +28048,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28236,7 +28239,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28427,7 +28430,7 @@
         <v>96</v>
       </c>
       <c r="P142" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q142">
         <v>10</v>
@@ -28618,7 +28621,7 @@
         <v>160</v>
       </c>
       <c r="P143" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -29764,7 +29767,7 @@
         <v>191</v>
       </c>
       <c r="P149" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q149">
         <v>9</v>
@@ -29955,7 +29958,7 @@
         <v>192</v>
       </c>
       <c r="P150" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -30146,7 +30149,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q151">
         <v>8</v>
@@ -30528,7 +30531,7 @@
         <v>96</v>
       </c>
       <c r="P153" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q153">
         <v>3</v>
@@ -30618,7 +30621,7 @@
         <v>1.42</v>
       </c>
       <c r="AT153">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AU153">
         <v>1.35</v>
@@ -30719,7 +30722,7 @@
         <v>96</v>
       </c>
       <c r="P154" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q154">
         <v>12</v>
@@ -31101,7 +31104,7 @@
         <v>96</v>
       </c>
       <c r="P156" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -31761,7 +31764,7 @@
         <v>0.71</v>
       </c>
       <c r="AS159">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT159">
         <v>0.6899999999999999</v>
@@ -32629,7 +32632,7 @@
         <v>151</v>
       </c>
       <c r="P164" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32820,7 +32823,7 @@
         <v>96</v>
       </c>
       <c r="P165" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -33202,7 +33205,7 @@
         <v>96</v>
       </c>
       <c r="P167" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q167">
         <v>9</v>
@@ -33584,7 +33587,7 @@
         <v>164</v>
       </c>
       <c r="P169" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33966,7 +33969,7 @@
         <v>105</v>
       </c>
       <c r="P171" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q171">
         <v>8</v>
@@ -34157,7 +34160,7 @@
         <v>96</v>
       </c>
       <c r="P172" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q172">
         <v>12</v>
@@ -34348,7 +34351,7 @@
         <v>91</v>
       </c>
       <c r="P173" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -34539,7 +34542,7 @@
         <v>202</v>
       </c>
       <c r="P174" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q174">
         <v>17</v>
@@ -35008,7 +35011,7 @@
         <v>1.38</v>
       </c>
       <c r="AS176">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT176">
         <v>1.08</v>
@@ -35393,7 +35396,7 @@
         <v>2</v>
       </c>
       <c r="AT178">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AU178">
         <v>2.11</v>
@@ -35494,7 +35497,7 @@
         <v>86</v>
       </c>
       <c r="P179" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q179">
         <v>10</v>
@@ -35876,7 +35879,7 @@
         <v>207</v>
       </c>
       <c r="P181" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q181">
         <v>13</v>
@@ -36067,7 +36070,7 @@
         <v>96</v>
       </c>
       <c r="P182" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -36258,7 +36261,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q183">
         <v>7</v>
@@ -36449,7 +36452,7 @@
         <v>209</v>
       </c>
       <c r="P184" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -37213,7 +37216,7 @@
         <v>213</v>
       </c>
       <c r="P188" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -37404,7 +37407,7 @@
         <v>214</v>
       </c>
       <c r="P189" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q189">
         <v>7</v>
@@ -37595,7 +37598,7 @@
         <v>119</v>
       </c>
       <c r="P190" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -37786,7 +37789,7 @@
         <v>130</v>
       </c>
       <c r="P191" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q191">
         <v>8</v>
@@ -38168,7 +38171,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q193">
         <v>10</v>
@@ -38359,7 +38362,7 @@
         <v>205</v>
       </c>
       <c r="P194" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q194">
         <v>9</v>
@@ -38550,7 +38553,7 @@
         <v>96</v>
       </c>
       <c r="P195" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q195">
         <v>9</v>
@@ -39314,7 +39317,7 @@
         <v>151</v>
       </c>
       <c r="P199" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q199">
         <v>7</v>
@@ -39696,7 +39699,7 @@
         <v>87</v>
       </c>
       <c r="P201" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q201">
         <v>9</v>
@@ -40460,7 +40463,7 @@
         <v>96</v>
       </c>
       <c r="P205" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -40550,7 +40553,7 @@
         <v>1.33</v>
       </c>
       <c r="AT205">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AU205">
         <v>1.9</v>
@@ -40651,7 +40654,7 @@
         <v>220</v>
       </c>
       <c r="P206" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q206">
         <v>5</v>
@@ -40842,7 +40845,7 @@
         <v>221</v>
       </c>
       <c r="P207" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q207">
         <v>2</v>
@@ -41224,7 +41227,7 @@
         <v>222</v>
       </c>
       <c r="P209" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q209">
         <v>8</v>
@@ -41606,7 +41609,7 @@
         <v>119</v>
       </c>
       <c r="P211" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q211">
         <v>9</v>
@@ -41693,7 +41696,7 @@
         <v>0.78</v>
       </c>
       <c r="AS211">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT211">
         <v>0.92</v>
@@ -41988,7 +41991,7 @@
         <v>147</v>
       </c>
       <c r="P213" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q213">
         <v>6</v>
@@ -42370,7 +42373,7 @@
         <v>89</v>
       </c>
       <c r="P215" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q215">
         <v>6</v>
@@ -42561,7 +42564,7 @@
         <v>225</v>
       </c>
       <c r="P216" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q216">
         <v>5</v>
@@ -43134,7 +43137,7 @@
         <v>228</v>
       </c>
       <c r="P219" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q219">
         <v>9</v>
@@ -43325,7 +43328,7 @@
         <v>229</v>
       </c>
       <c r="P220" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q220">
         <v>6</v>
@@ -43707,7 +43710,7 @@
         <v>230</v>
       </c>
       <c r="P222" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q222">
         <v>4</v>
@@ -44089,7 +44092,7 @@
         <v>232</v>
       </c>
       <c r="P224" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q224">
         <v>5</v>
@@ -44280,7 +44283,7 @@
         <v>233</v>
       </c>
       <c r="P225" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q225">
         <v>6</v>
@@ -44471,7 +44474,7 @@
         <v>234</v>
       </c>
       <c r="P226" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -44558,7 +44561,7 @@
         <v>0.7</v>
       </c>
       <c r="AS226">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT226">
         <v>0.67</v>
@@ -44662,7 +44665,7 @@
         <v>96</v>
       </c>
       <c r="P227" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q227">
         <v>5</v>
@@ -44752,7 +44755,7 @@
         <v>1.17</v>
       </c>
       <c r="AT227">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AU227">
         <v>1.47</v>
@@ -44853,7 +44856,7 @@
         <v>235</v>
       </c>
       <c r="P228" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q228">
         <v>12</v>
@@ -45044,7 +45047,7 @@
         <v>96</v>
       </c>
       <c r="P229" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q229">
         <v>7</v>
@@ -45999,7 +46002,7 @@
         <v>238</v>
       </c>
       <c r="P234" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q234">
         <v>4</v>
@@ -47336,7 +47339,7 @@
         <v>96</v>
       </c>
       <c r="P241" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q241">
         <v>2</v>
@@ -47718,7 +47721,7 @@
         <v>235</v>
       </c>
       <c r="P243" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q243">
         <v>3</v>
@@ -48291,7 +48294,7 @@
         <v>246</v>
       </c>
       <c r="P246" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q246">
         <v>2</v>
@@ -49055,7 +49058,7 @@
         <v>249</v>
       </c>
       <c r="P250" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q250">
         <v>4</v>
@@ -49197,6 +49200,197 @@
       </c>
       <c r="BK250">
         <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:63">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>2604221</v>
+      </c>
+      <c r="C251" t="s">
+        <v>63</v>
+      </c>
+      <c r="D251" t="s">
+        <v>64</v>
+      </c>
+      <c r="E251" s="2">
+        <v>44991.625</v>
+      </c>
+      <c r="F251">
+        <v>25</v>
+      </c>
+      <c r="G251" t="s">
+        <v>68</v>
+      </c>
+      <c r="H251" t="s">
+        <v>81</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>1</v>
+      </c>
+      <c r="K251">
+        <v>1</v>
+      </c>
+      <c r="L251">
+        <v>2</v>
+      </c>
+      <c r="M251">
+        <v>1</v>
+      </c>
+      <c r="N251">
+        <v>3</v>
+      </c>
+      <c r="O251" t="s">
+        <v>250</v>
+      </c>
+      <c r="P251" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q251">
+        <v>5</v>
+      </c>
+      <c r="R251">
+        <v>1</v>
+      </c>
+      <c r="S251">
+        <v>6</v>
+      </c>
+      <c r="T251">
+        <v>3.5</v>
+      </c>
+      <c r="U251">
+        <v>2.25</v>
+      </c>
+      <c r="V251">
+        <v>2.65</v>
+      </c>
+      <c r="W251">
+        <v>1.31</v>
+      </c>
+      <c r="X251">
+        <v>3.28</v>
+      </c>
+      <c r="Y251">
+        <v>2.43</v>
+      </c>
+      <c r="Z251">
+        <v>1.52</v>
+      </c>
+      <c r="AA251">
+        <v>5.75</v>
+      </c>
+      <c r="AB251">
+        <v>1.12</v>
+      </c>
+      <c r="AC251">
+        <v>2.71</v>
+      </c>
+      <c r="AD251">
+        <v>3.45</v>
+      </c>
+      <c r="AE251">
+        <v>2.16</v>
+      </c>
+      <c r="AF251">
+        <v>1.02</v>
+      </c>
+      <c r="AG251">
+        <v>12</v>
+      </c>
+      <c r="AH251">
+        <v>1.18</v>
+      </c>
+      <c r="AI251">
+        <v>4.5</v>
+      </c>
+      <c r="AJ251">
+        <v>1.65</v>
+      </c>
+      <c r="AK251">
+        <v>2.12</v>
+      </c>
+      <c r="AL251">
+        <v>1.55</v>
+      </c>
+      <c r="AM251">
+        <v>2.35</v>
+      </c>
+      <c r="AN251">
+        <v>1.7</v>
+      </c>
+      <c r="AO251">
+        <v>1.22</v>
+      </c>
+      <c r="AP251">
+        <v>1.36</v>
+      </c>
+      <c r="AQ251">
+        <v>2.58</v>
+      </c>
+      <c r="AR251">
+        <v>2.36</v>
+      </c>
+      <c r="AS251">
+        <v>2.62</v>
+      </c>
+      <c r="AT251">
+        <v>2.17</v>
+      </c>
+      <c r="AU251">
+        <v>1.81</v>
+      </c>
+      <c r="AV251">
+        <v>1.74</v>
+      </c>
+      <c r="AW251">
+        <v>3.55</v>
+      </c>
+      <c r="AX251">
+        <v>2.15</v>
+      </c>
+      <c r="AY251">
+        <v>7.5</v>
+      </c>
+      <c r="AZ251">
+        <v>1.97</v>
+      </c>
+      <c r="BA251">
+        <v>1.19</v>
+      </c>
+      <c r="BB251">
+        <v>1.48</v>
+      </c>
+      <c r="BC251">
+        <v>1.73</v>
+      </c>
+      <c r="BD251">
+        <v>2.1</v>
+      </c>
+      <c r="BE251">
+        <v>2.7</v>
+      </c>
+      <c r="BF251">
+        <v>6</v>
+      </c>
+      <c r="BG251">
+        <v>6</v>
+      </c>
+      <c r="BH251">
+        <v>7</v>
+      </c>
+      <c r="BI251">
+        <v>5</v>
+      </c>
+      <c r="BJ251">
+        <v>13</v>
+      </c>
+      <c r="BK251">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="359">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -769,6 +769,9 @@
     <t>['71', '72']</t>
   </si>
   <si>
+    <t>['3', '23']</t>
+  </si>
+  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -1085,6 +1088,9 @@
   </si>
   <si>
     <t>['20', '23', '40']</t>
+  </si>
+  <si>
+    <t>['43', '54']</t>
   </si>
 </sst>
 </file>
@@ -1446,7 +1452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK251"/>
+  <dimension ref="A1:BK252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2263,7 +2269,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2454,7 +2460,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2645,7 +2651,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -3218,7 +3224,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3308,7 +3314,7 @@
         <v>1.17</v>
       </c>
       <c r="AT10">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3600,7 +3606,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3791,7 +3797,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3982,7 +3988,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -4746,7 +4752,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4937,7 +4943,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -5319,7 +5325,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5406,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT21">
         <v>0.67</v>
@@ -5510,7 +5516,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5701,7 +5707,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5982,7 +5988,7 @@
         <v>2.31</v>
       </c>
       <c r="AT24">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU24">
         <v>1.07</v>
@@ -6274,7 +6280,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6847,7 +6853,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -8184,7 +8190,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8462,7 +8468,7 @@
         <v>3</v>
       </c>
       <c r="AS37">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT37">
         <v>1.08</v>
@@ -8757,7 +8763,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8948,7 +8954,7 @@
         <v>98</v>
       </c>
       <c r="P40" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -9420,7 +9426,7 @@
         <v>1.69</v>
       </c>
       <c r="AT42">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU42">
         <v>2.1</v>
@@ -9521,7 +9527,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9712,7 +9718,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10858,7 +10864,7 @@
         <v>96</v>
       </c>
       <c r="P50" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11431,7 +11437,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11622,7 +11628,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -12282,7 +12288,7 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT57">
         <v>0.6899999999999999</v>
@@ -12577,7 +12583,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12768,7 +12774,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -13532,7 +13538,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14296,7 +14302,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -14869,7 +14875,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15251,7 +15257,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15633,7 +15639,7 @@
         <v>96</v>
       </c>
       <c r="P75" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16015,7 +16021,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16206,7 +16212,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16296,7 +16302,7 @@
         <v>1.42</v>
       </c>
       <c r="AT78">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU78">
         <v>1.22</v>
@@ -16588,7 +16594,7 @@
         <v>96</v>
       </c>
       <c r="P80" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16779,7 +16785,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16866,7 +16872,7 @@
         <v>0.67</v>
       </c>
       <c r="AS81">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT81">
         <v>0.67</v>
@@ -16970,7 +16976,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -17161,7 +17167,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17543,7 +17549,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17734,7 +17740,7 @@
         <v>89</v>
       </c>
       <c r="P86" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -18116,7 +18122,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -18585,7 +18591,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT90">
         <v>1.46</v>
@@ -19453,7 +19459,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20116,7 +20122,7 @@
         <v>1.17</v>
       </c>
       <c r="AT98">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU98">
         <v>1.69</v>
@@ -20217,7 +20223,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q99">
         <v>10</v>
@@ -20790,7 +20796,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q102">
         <v>1</v>
@@ -20877,7 +20883,7 @@
         <v>1</v>
       </c>
       <c r="AS102">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT102">
         <v>1.38</v>
@@ -21554,7 +21560,7 @@
         <v>106</v>
       </c>
       <c r="P106" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21745,7 +21751,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -22127,7 +22133,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -22318,7 +22324,7 @@
         <v>96</v>
       </c>
       <c r="P110" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22700,7 +22706,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22790,7 +22796,7 @@
         <v>1.33</v>
       </c>
       <c r="AT112">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU112">
         <v>1.55</v>
@@ -22891,7 +22897,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q113">
         <v>1</v>
@@ -23082,7 +23088,7 @@
         <v>96</v>
       </c>
       <c r="P114" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q114">
         <v>15</v>
@@ -23273,7 +23279,7 @@
         <v>168</v>
       </c>
       <c r="P115" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -23464,7 +23470,7 @@
         <v>96</v>
       </c>
       <c r="P116" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23846,7 +23852,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -24037,7 +24043,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -24419,7 +24425,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q121">
         <v>8</v>
@@ -24801,7 +24807,7 @@
         <v>174</v>
       </c>
       <c r="P123" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24992,7 +24998,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25183,7 +25189,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25565,7 +25571,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25756,7 +25762,7 @@
         <v>178</v>
       </c>
       <c r="P128" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q128">
         <v>10</v>
@@ -25947,7 +25953,7 @@
         <v>96</v>
       </c>
       <c r="P129" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -26138,7 +26144,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -26225,7 +26231,7 @@
         <v>0.83</v>
       </c>
       <c r="AS130">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT130">
         <v>1.08</v>
@@ -26520,7 +26526,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q132">
         <v>13</v>
@@ -28048,7 +28054,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28239,7 +28245,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28329,7 +28335,7 @@
         <v>2.08</v>
       </c>
       <c r="AT141">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU141">
         <v>2</v>
@@ -28430,7 +28436,7 @@
         <v>96</v>
       </c>
       <c r="P142" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q142">
         <v>10</v>
@@ -28621,7 +28627,7 @@
         <v>160</v>
       </c>
       <c r="P143" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -29663,7 +29669,7 @@
         <v>2</v>
       </c>
       <c r="AS148">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT148">
         <v>1.54</v>
@@ -29767,7 +29773,7 @@
         <v>191</v>
       </c>
       <c r="P149" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q149">
         <v>9</v>
@@ -29958,7 +29964,7 @@
         <v>192</v>
       </c>
       <c r="P150" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -30149,7 +30155,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q151">
         <v>8</v>
@@ -30531,7 +30537,7 @@
         <v>96</v>
       </c>
       <c r="P153" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q153">
         <v>3</v>
@@ -30722,7 +30728,7 @@
         <v>96</v>
       </c>
       <c r="P154" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q154">
         <v>12</v>
@@ -31003,7 +31009,7 @@
         <v>1.25</v>
       </c>
       <c r="AT155">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU155">
         <v>1.45</v>
@@ -31104,7 +31110,7 @@
         <v>96</v>
       </c>
       <c r="P156" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -32632,7 +32638,7 @@
         <v>151</v>
       </c>
       <c r="P164" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32823,7 +32829,7 @@
         <v>96</v>
       </c>
       <c r="P165" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -33101,7 +33107,7 @@
         <v>1.63</v>
       </c>
       <c r="AS166">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT166">
         <v>1.77</v>
@@ -33205,7 +33211,7 @@
         <v>96</v>
       </c>
       <c r="P167" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q167">
         <v>9</v>
@@ -33587,7 +33593,7 @@
         <v>164</v>
       </c>
       <c r="P169" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33969,7 +33975,7 @@
         <v>105</v>
       </c>
       <c r="P171" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q171">
         <v>8</v>
@@ -34160,7 +34166,7 @@
         <v>96</v>
       </c>
       <c r="P172" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q172">
         <v>12</v>
@@ -34351,7 +34357,7 @@
         <v>91</v>
       </c>
       <c r="P173" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -34542,7 +34548,7 @@
         <v>202</v>
       </c>
       <c r="P174" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q174">
         <v>17</v>
@@ -34823,7 +34829,7 @@
         <v>1.5</v>
       </c>
       <c r="AT175">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU175">
         <v>1.51</v>
@@ -35497,7 +35503,7 @@
         <v>86</v>
       </c>
       <c r="P179" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q179">
         <v>10</v>
@@ -35879,7 +35885,7 @@
         <v>207</v>
       </c>
       <c r="P181" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q181">
         <v>13</v>
@@ -36070,7 +36076,7 @@
         <v>96</v>
       </c>
       <c r="P182" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -36261,7 +36267,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q183">
         <v>7</v>
@@ -36452,7 +36458,7 @@
         <v>209</v>
       </c>
       <c r="P184" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36730,7 +36736,7 @@
         <v>1.33</v>
       </c>
       <c r="AS185">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT185">
         <v>1.08</v>
@@ -37216,7 +37222,7 @@
         <v>213</v>
       </c>
       <c r="P188" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -37407,7 +37413,7 @@
         <v>214</v>
       </c>
       <c r="P189" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q189">
         <v>7</v>
@@ -37598,7 +37604,7 @@
         <v>119</v>
       </c>
       <c r="P190" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -37789,7 +37795,7 @@
         <v>130</v>
       </c>
       <c r="P191" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q191">
         <v>8</v>
@@ -38171,7 +38177,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q193">
         <v>10</v>
@@ -38362,7 +38368,7 @@
         <v>205</v>
       </c>
       <c r="P194" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q194">
         <v>9</v>
@@ -38553,7 +38559,7 @@
         <v>96</v>
       </c>
       <c r="P195" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q195">
         <v>9</v>
@@ -38831,7 +38837,7 @@
         <v>2</v>
       </c>
       <c r="AS196">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT196">
         <v>1.77</v>
@@ -39317,7 +39323,7 @@
         <v>151</v>
       </c>
       <c r="P199" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q199">
         <v>7</v>
@@ -39699,7 +39705,7 @@
         <v>87</v>
       </c>
       <c r="P201" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q201">
         <v>9</v>
@@ -40362,7 +40368,7 @@
         <v>1.54</v>
       </c>
       <c r="AT204">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU204">
         <v>1.76</v>
@@ -40463,7 +40469,7 @@
         <v>96</v>
       </c>
       <c r="P205" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -40654,7 +40660,7 @@
         <v>220</v>
       </c>
       <c r="P206" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q206">
         <v>5</v>
@@ -40845,7 +40851,7 @@
         <v>221</v>
       </c>
       <c r="P207" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q207">
         <v>2</v>
@@ -41227,7 +41233,7 @@
         <v>222</v>
       </c>
       <c r="P209" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q209">
         <v>8</v>
@@ -41609,7 +41615,7 @@
         <v>119</v>
       </c>
       <c r="P211" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q211">
         <v>9</v>
@@ -41991,7 +41997,7 @@
         <v>147</v>
       </c>
       <c r="P213" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q213">
         <v>6</v>
@@ -42373,7 +42379,7 @@
         <v>89</v>
       </c>
       <c r="P215" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q215">
         <v>6</v>
@@ -42564,7 +42570,7 @@
         <v>225</v>
       </c>
       <c r="P216" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q216">
         <v>5</v>
@@ -42651,7 +42657,7 @@
         <v>1.7</v>
       </c>
       <c r="AS216">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT216">
         <v>1.75</v>
@@ -43137,7 +43143,7 @@
         <v>228</v>
       </c>
       <c r="P219" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q219">
         <v>9</v>
@@ -43328,7 +43334,7 @@
         <v>229</v>
       </c>
       <c r="P220" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q220">
         <v>6</v>
@@ -43710,7 +43716,7 @@
         <v>230</v>
       </c>
       <c r="P222" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q222">
         <v>4</v>
@@ -44092,7 +44098,7 @@
         <v>232</v>
       </c>
       <c r="P224" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q224">
         <v>5</v>
@@ -44283,7 +44289,7 @@
         <v>233</v>
       </c>
       <c r="P225" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q225">
         <v>6</v>
@@ -44474,7 +44480,7 @@
         <v>234</v>
       </c>
       <c r="P226" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -44665,7 +44671,7 @@
         <v>96</v>
       </c>
       <c r="P227" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q227">
         <v>5</v>
@@ -44856,7 +44862,7 @@
         <v>235</v>
       </c>
       <c r="P228" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q228">
         <v>12</v>
@@ -45047,7 +45053,7 @@
         <v>96</v>
       </c>
       <c r="P229" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q229">
         <v>7</v>
@@ -45519,7 +45525,7 @@
         <v>0.77</v>
       </c>
       <c r="AT231">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU231">
         <v>1.54</v>
@@ -45898,7 +45904,7 @@
         <v>1</v>
       </c>
       <c r="AS233">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT233">
         <v>0.92</v>
@@ -46002,7 +46008,7 @@
         <v>238</v>
       </c>
       <c r="P234" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q234">
         <v>4</v>
@@ -47339,7 +47345,7 @@
         <v>96</v>
       </c>
       <c r="P241" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q241">
         <v>2</v>
@@ -47721,7 +47727,7 @@
         <v>235</v>
       </c>
       <c r="P243" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q243">
         <v>3</v>
@@ -48294,7 +48300,7 @@
         <v>246</v>
       </c>
       <c r="P246" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q246">
         <v>2</v>
@@ -48384,7 +48390,7 @@
         <v>0.92</v>
       </c>
       <c r="AT246">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU246">
         <v>1.66</v>
@@ -49058,7 +49064,7 @@
         <v>249</v>
       </c>
       <c r="P250" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q250">
         <v>4</v>
@@ -49249,7 +49255,7 @@
         <v>250</v>
       </c>
       <c r="P251" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q251">
         <v>5</v>
@@ -49391,6 +49397,197 @@
       </c>
       <c r="BK251">
         <v>11</v>
+      </c>
+    </row>
+    <row r="252" spans="1:63">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>2604236</v>
+      </c>
+      <c r="C252" t="s">
+        <v>63</v>
+      </c>
+      <c r="D252" t="s">
+        <v>64</v>
+      </c>
+      <c r="E252" s="2">
+        <v>44995.625</v>
+      </c>
+      <c r="F252">
+        <v>26</v>
+      </c>
+      <c r="G252" t="s">
+        <v>84</v>
+      </c>
+      <c r="H252" t="s">
+        <v>77</v>
+      </c>
+      <c r="I252">
+        <v>2</v>
+      </c>
+      <c r="J252">
+        <v>1</v>
+      </c>
+      <c r="K252">
+        <v>3</v>
+      </c>
+      <c r="L252">
+        <v>2</v>
+      </c>
+      <c r="M252">
+        <v>2</v>
+      </c>
+      <c r="N252">
+        <v>4</v>
+      </c>
+      <c r="O252" t="s">
+        <v>251</v>
+      </c>
+      <c r="P252" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q252">
+        <v>2</v>
+      </c>
+      <c r="R252">
+        <v>4</v>
+      </c>
+      <c r="S252">
+        <v>6</v>
+      </c>
+      <c r="T252">
+        <v>2.5</v>
+      </c>
+      <c r="U252">
+        <v>2.2</v>
+      </c>
+      <c r="V252">
+        <v>3.7</v>
+      </c>
+      <c r="W252">
+        <v>1.36</v>
+      </c>
+      <c r="X252">
+        <v>3</v>
+      </c>
+      <c r="Y252">
+        <v>2.62</v>
+      </c>
+      <c r="Z252">
+        <v>1.44</v>
+      </c>
+      <c r="AA252">
+        <v>6</v>
+      </c>
+      <c r="AB252">
+        <v>1.11</v>
+      </c>
+      <c r="AC252">
+        <v>2.1</v>
+      </c>
+      <c r="AD252">
+        <v>3.4</v>
+      </c>
+      <c r="AE252">
+        <v>3.1</v>
+      </c>
+      <c r="AF252">
+        <v>1.05</v>
+      </c>
+      <c r="AG252">
+        <v>9</v>
+      </c>
+      <c r="AH252">
+        <v>1.29</v>
+      </c>
+      <c r="AI252">
+        <v>3.5</v>
+      </c>
+      <c r="AJ252">
+        <v>1.75</v>
+      </c>
+      <c r="AK252">
+        <v>2</v>
+      </c>
+      <c r="AL252">
+        <v>1.7</v>
+      </c>
+      <c r="AM252">
+        <v>2.05</v>
+      </c>
+      <c r="AN252">
+        <v>1.3</v>
+      </c>
+      <c r="AO252">
+        <v>1.29</v>
+      </c>
+      <c r="AP252">
+        <v>1.7</v>
+      </c>
+      <c r="AQ252">
+        <v>1.77</v>
+      </c>
+      <c r="AR252">
+        <v>0.75</v>
+      </c>
+      <c r="AS252">
+        <v>1.71</v>
+      </c>
+      <c r="AT252">
+        <v>0.77</v>
+      </c>
+      <c r="AU252">
+        <v>1.69</v>
+      </c>
+      <c r="AV252">
+        <v>1.31</v>
+      </c>
+      <c r="AW252">
+        <v>3</v>
+      </c>
+      <c r="AX252">
+        <v>1.7</v>
+      </c>
+      <c r="AY252">
+        <v>8.1</v>
+      </c>
+      <c r="AZ252">
+        <v>2.58</v>
+      </c>
+      <c r="BA252">
+        <v>1.19</v>
+      </c>
+      <c r="BB252">
+        <v>1.31</v>
+      </c>
+      <c r="BC252">
+        <v>1.65</v>
+      </c>
+      <c r="BD252">
+        <v>2</v>
+      </c>
+      <c r="BE252">
+        <v>2.5</v>
+      </c>
+      <c r="BF252">
+        <v>12</v>
+      </c>
+      <c r="BG252">
+        <v>8</v>
+      </c>
+      <c r="BH252">
+        <v>3</v>
+      </c>
+      <c r="BI252">
+        <v>10</v>
+      </c>
+      <c r="BJ252">
+        <v>15</v>
+      </c>
+      <c r="BK252">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="367">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -772,6 +772,18 @@
     <t>['3', '23']</t>
   </si>
   <si>
+    <t>['43', '52']</t>
+  </si>
+  <si>
+    <t>['22', '30']</t>
+  </si>
+  <si>
+    <t>['77', '81']</t>
+  </si>
+  <si>
+    <t>['12', '43']</t>
+  </si>
+  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -1091,6 +1103,18 @@
   </si>
   <si>
     <t>['43', '54']</t>
+  </si>
+  <si>
+    <t>['10', '38', '90+2']</t>
+  </si>
+  <si>
+    <t>['61', '72']</t>
+  </si>
+  <si>
+    <t>['14', '25']</t>
+  </si>
+  <si>
+    <t>['44']</t>
   </si>
 </sst>
 </file>
@@ -1452,7 +1476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK252"/>
+  <dimension ref="A1:BK258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1783,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT2">
         <v>1.46</v>
@@ -1977,7 +2001,7 @@
         <v>0.77</v>
       </c>
       <c r="AT3">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2269,7 +2293,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2460,7 +2484,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2651,7 +2675,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -3224,7 +3248,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3606,7 +3630,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3693,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT12">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3797,7 +3821,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3884,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT13">
         <v>1.75</v>
@@ -3988,7 +4012,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -4269,7 +4293,7 @@
         <v>0.92</v>
       </c>
       <c r="AT15">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4457,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT16">
         <v>1.77</v>
@@ -4651,7 +4675,7 @@
         <v>1.69</v>
       </c>
       <c r="AT17">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4752,7 +4776,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4839,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT18">
         <v>1.77</v>
@@ -4943,7 +4967,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -5221,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT20">
         <v>1.38</v>
@@ -5325,7 +5349,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5415,7 +5439,7 @@
         <v>1.71</v>
       </c>
       <c r="AT21">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5516,7 +5540,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5707,7 +5731,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -6179,7 +6203,7 @@
         <v>1.69</v>
       </c>
       <c r="AT25">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU25">
         <v>2.24</v>
@@ -6280,7 +6304,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6853,7 +6877,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6940,7 +6964,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT29">
         <v>1.54</v>
@@ -7516,7 +7540,7 @@
         <v>1.15</v>
       </c>
       <c r="AT32">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU32">
         <v>1.92</v>
@@ -7895,10 +7919,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT34">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU34">
         <v>1.97</v>
@@ -8089,7 +8113,7 @@
         <v>1</v>
       </c>
       <c r="AT35">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU35">
         <v>1.05</v>
@@ -8190,7 +8214,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8277,7 +8301,7 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT36">
         <v>1.75</v>
@@ -8659,7 +8683,7 @@
         <v>1</v>
       </c>
       <c r="AS38">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT38">
         <v>1.38</v>
@@ -8763,7 +8787,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8853,7 +8877,7 @@
         <v>0.92</v>
       </c>
       <c r="AT39">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU39">
         <v>1.41</v>
@@ -8954,7 +8978,7 @@
         <v>98</v>
       </c>
       <c r="P40" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -9041,7 +9065,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT40">
         <v>1.77</v>
@@ -9232,7 +9256,7 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT41">
         <v>1.75</v>
@@ -9527,7 +9551,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9718,7 +9742,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10864,7 +10888,7 @@
         <v>96</v>
       </c>
       <c r="P50" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11336,7 +11360,7 @@
         <v>1.15</v>
       </c>
       <c r="AT52">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU52">
         <v>1.75</v>
@@ -11437,7 +11461,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11524,7 +11548,7 @@
         <v>2</v>
       </c>
       <c r="AS53">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT53">
         <v>1.77</v>
@@ -11628,7 +11652,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11906,10 +11930,10 @@
         <v>0.5</v>
       </c>
       <c r="AS55">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT55">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU55">
         <v>2.13</v>
@@ -12097,7 +12121,7 @@
         <v>3</v>
       </c>
       <c r="AS56">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT56">
         <v>1.08</v>
@@ -12291,7 +12315,7 @@
         <v>1.71</v>
       </c>
       <c r="AT57">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU57">
         <v>1.42</v>
@@ -12479,10 +12503,10 @@
         <v>0.5</v>
       </c>
       <c r="AS58">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT58">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU58">
         <v>1.22</v>
@@ -12583,7 +12607,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12774,7 +12798,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -12861,7 +12885,7 @@
         <v>1.5</v>
       </c>
       <c r="AS60">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT60">
         <v>1.75</v>
@@ -13052,10 +13076,10 @@
         <v>0</v>
       </c>
       <c r="AS61">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT61">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU61">
         <v>1.63</v>
@@ -13538,7 +13562,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14302,7 +14326,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -14875,7 +14899,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15153,10 +15177,10 @@
         <v>0.67</v>
       </c>
       <c r="AS72">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT72">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU72">
         <v>1.91</v>
@@ -15257,7 +15281,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15347,7 +15371,7 @@
         <v>1</v>
       </c>
       <c r="AT73">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU73">
         <v>1.09</v>
@@ -15639,7 +15663,7 @@
         <v>96</v>
       </c>
       <c r="P75" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15726,7 +15750,7 @@
         <v>1.67</v>
       </c>
       <c r="AS75">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT75">
         <v>1.77</v>
@@ -15920,7 +15944,7 @@
         <v>1.25</v>
       </c>
       <c r="AT76">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU76">
         <v>1.58</v>
@@ -16021,7 +16045,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16108,7 +16132,7 @@
         <v>2.33</v>
       </c>
       <c r="AS77">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT77">
         <v>1.08</v>
@@ -16212,7 +16236,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16299,7 +16323,7 @@
         <v>0</v>
       </c>
       <c r="AS78">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT78">
         <v>0.77</v>
@@ -16490,7 +16514,7 @@
         <v>2</v>
       </c>
       <c r="AS79">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT79">
         <v>1.75</v>
@@ -16594,7 +16618,7 @@
         <v>96</v>
       </c>
       <c r="P80" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16681,10 +16705,10 @@
         <v>0</v>
       </c>
       <c r="AS80">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT80">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU80">
         <v>1.61</v>
@@ -16785,7 +16809,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16875,7 +16899,7 @@
         <v>1.71</v>
       </c>
       <c r="AT81">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU81">
         <v>1.51</v>
@@ -16976,7 +17000,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -17167,7 +17191,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17549,7 +17573,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17740,7 +17764,7 @@
         <v>89</v>
       </c>
       <c r="P86" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -18122,7 +18146,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -18973,10 +18997,10 @@
         <v>0.75</v>
       </c>
       <c r="AS92">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT92">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU92">
         <v>1.56</v>
@@ -19355,7 +19379,7 @@
         <v>2.25</v>
       </c>
       <c r="AS94">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT94">
         <v>1.75</v>
@@ -19459,7 +19483,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19737,7 +19761,7 @@
         <v>0</v>
       </c>
       <c r="AS96">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT96">
         <v>0.92</v>
@@ -19928,10 +19952,10 @@
         <v>0.25</v>
       </c>
       <c r="AS97">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT97">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU97">
         <v>1.78</v>
@@ -20119,7 +20143,7 @@
         <v>0.25</v>
       </c>
       <c r="AS98">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT98">
         <v>0.77</v>
@@ -20223,7 +20247,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q99">
         <v>10</v>
@@ -20310,10 +20334,10 @@
         <v>1</v>
       </c>
       <c r="AS99">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT99">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU99">
         <v>1.21</v>
@@ -20504,7 +20528,7 @@
         <v>2</v>
       </c>
       <c r="AT100">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU100">
         <v>2.2</v>
@@ -20695,7 +20719,7 @@
         <v>1.25</v>
       </c>
       <c r="AT101">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU101">
         <v>1.49</v>
@@ -20796,7 +20820,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q102">
         <v>1</v>
@@ -21265,7 +21289,7 @@
         <v>1.2</v>
       </c>
       <c r="AS104">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT104">
         <v>1.46</v>
@@ -21560,7 +21584,7 @@
         <v>106</v>
       </c>
       <c r="P106" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21751,7 +21775,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -22133,7 +22157,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -22324,7 +22348,7 @@
         <v>96</v>
       </c>
       <c r="P110" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22414,7 +22438,7 @@
         <v>2.31</v>
       </c>
       <c r="AT110">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU110">
         <v>2.11</v>
@@ -22706,7 +22730,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22793,7 +22817,7 @@
         <v>0.2</v>
       </c>
       <c r="AS112">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT112">
         <v>0.77</v>
@@ -22897,7 +22921,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q113">
         <v>1</v>
@@ -22987,7 +23011,7 @@
         <v>1.25</v>
       </c>
       <c r="AT113">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU113">
         <v>1.51</v>
@@ -23088,7 +23112,7 @@
         <v>96</v>
       </c>
       <c r="P114" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q114">
         <v>15</v>
@@ -23175,7 +23199,7 @@
         <v>1.6</v>
       </c>
       <c r="AS114">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT114">
         <v>1.08</v>
@@ -23279,7 +23303,7 @@
         <v>168</v>
       </c>
       <c r="P115" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -23369,7 +23393,7 @@
         <v>2.31</v>
       </c>
       <c r="AT115">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU115">
         <v>1.96</v>
@@ -23470,7 +23494,7 @@
         <v>96</v>
       </c>
       <c r="P116" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23557,7 +23581,7 @@
         <v>2.6</v>
       </c>
       <c r="AS116">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT116">
         <v>2.17</v>
@@ -23852,7 +23876,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -23942,7 +23966,7 @@
         <v>1.33</v>
       </c>
       <c r="AT118">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU118">
         <v>1.77</v>
@@ -24043,7 +24067,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -24130,7 +24154,7 @@
         <v>0.6</v>
       </c>
       <c r="AS119">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT119">
         <v>0.92</v>
@@ -24425,7 +24449,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q121">
         <v>8</v>
@@ -24515,7 +24539,7 @@
         <v>2</v>
       </c>
       <c r="AT121">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU121">
         <v>2.28</v>
@@ -24807,7 +24831,7 @@
         <v>174</v>
       </c>
       <c r="P123" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24897,7 +24921,7 @@
         <v>2.62</v>
       </c>
       <c r="AT123">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU123">
         <v>1.65</v>
@@ -24998,7 +25022,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25189,7 +25213,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25571,7 +25595,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25658,7 +25682,7 @@
         <v>1</v>
       </c>
       <c r="AS127">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT127">
         <v>1.38</v>
@@ -25762,7 +25786,7 @@
         <v>178</v>
       </c>
       <c r="P128" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q128">
         <v>10</v>
@@ -25849,7 +25873,7 @@
         <v>0.5</v>
       </c>
       <c r="AS128">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT128">
         <v>1.38</v>
@@ -25953,7 +25977,7 @@
         <v>96</v>
       </c>
       <c r="P129" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -26144,7 +26168,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -26526,7 +26550,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q132">
         <v>13</v>
@@ -26998,7 +27022,7 @@
         <v>1.33</v>
       </c>
       <c r="AT134">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU134">
         <v>1.69</v>
@@ -27189,7 +27213,7 @@
         <v>1.5</v>
       </c>
       <c r="AT135">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU135">
         <v>1.5</v>
@@ -27377,7 +27401,7 @@
         <v>1.83</v>
       </c>
       <c r="AS136">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT136">
         <v>1.08</v>
@@ -27568,7 +27592,7 @@
         <v>2.67</v>
       </c>
       <c r="AS137">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT137">
         <v>2.17</v>
@@ -27953,7 +27977,7 @@
         <v>2.31</v>
       </c>
       <c r="AT139">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU139">
         <v>1.92</v>
@@ -28054,7 +28078,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28245,7 +28269,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28332,7 +28356,7 @@
         <v>0.33</v>
       </c>
       <c r="AS141">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT141">
         <v>0.77</v>
@@ -28436,7 +28460,7 @@
         <v>96</v>
       </c>
       <c r="P142" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q142">
         <v>10</v>
@@ -28627,7 +28651,7 @@
         <v>160</v>
       </c>
       <c r="P143" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28714,7 +28738,7 @@
         <v>0.57</v>
       </c>
       <c r="AS143">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT143">
         <v>0.62</v>
@@ -28905,7 +28929,7 @@
         <v>1.14</v>
       </c>
       <c r="AS144">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT144">
         <v>0.92</v>
@@ -29096,7 +29120,7 @@
         <v>0.71</v>
       </c>
       <c r="AS145">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT145">
         <v>1.08</v>
@@ -29290,7 +29314,7 @@
         <v>1.15</v>
       </c>
       <c r="AT146">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU146">
         <v>1.59</v>
@@ -29773,7 +29797,7 @@
         <v>191</v>
       </c>
       <c r="P149" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q149">
         <v>9</v>
@@ -29863,7 +29887,7 @@
         <v>0.77</v>
       </c>
       <c r="AT149">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU149">
         <v>1.62</v>
@@ -29964,7 +29988,7 @@
         <v>192</v>
       </c>
       <c r="P150" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -30155,7 +30179,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q151">
         <v>8</v>
@@ -30537,7 +30561,7 @@
         <v>96</v>
       </c>
       <c r="P153" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q153">
         <v>3</v>
@@ -30624,7 +30648,7 @@
         <v>2.43</v>
       </c>
       <c r="AS153">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT153">
         <v>2.17</v>
@@ -30728,7 +30752,7 @@
         <v>96</v>
       </c>
       <c r="P154" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q154">
         <v>12</v>
@@ -30815,7 +30839,7 @@
         <v>1.13</v>
       </c>
       <c r="AS154">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT154">
         <v>1.46</v>
@@ -31110,7 +31134,7 @@
         <v>96</v>
       </c>
       <c r="P156" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -31391,7 +31415,7 @@
         <v>1.33</v>
       </c>
       <c r="AT157">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU157">
         <v>1.72</v>
@@ -31773,7 +31797,7 @@
         <v>2.62</v>
       </c>
       <c r="AT159">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU159">
         <v>1.66</v>
@@ -31961,7 +31985,7 @@
         <v>0.86</v>
       </c>
       <c r="AS160">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT160">
         <v>0.92</v>
@@ -32155,7 +32179,7 @@
         <v>1.5</v>
       </c>
       <c r="AT161">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU161">
         <v>1.53</v>
@@ -32537,7 +32561,7 @@
         <v>1.54</v>
       </c>
       <c r="AT163">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU163">
         <v>1.78</v>
@@ -32638,7 +32662,7 @@
         <v>151</v>
       </c>
       <c r="P164" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32829,7 +32853,7 @@
         <v>96</v>
       </c>
       <c r="P165" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -33211,7 +33235,7 @@
         <v>96</v>
       </c>
       <c r="P167" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q167">
         <v>9</v>
@@ -33298,7 +33322,7 @@
         <v>1.75</v>
       </c>
       <c r="AS167">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT167">
         <v>1.54</v>
@@ -33489,7 +33513,7 @@
         <v>1.57</v>
       </c>
       <c r="AS168">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT168">
         <v>1.75</v>
@@ -33593,7 +33617,7 @@
         <v>164</v>
       </c>
       <c r="P169" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33683,7 +33707,7 @@
         <v>0.77</v>
       </c>
       <c r="AT169">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU169">
         <v>1.63</v>
@@ -33871,7 +33895,7 @@
         <v>0.63</v>
       </c>
       <c r="AS170">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT170">
         <v>0.62</v>
@@ -33975,7 +33999,7 @@
         <v>105</v>
       </c>
       <c r="P171" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q171">
         <v>8</v>
@@ -34065,7 +34089,7 @@
         <v>1.69</v>
       </c>
       <c r="AT171">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU171">
         <v>1.86</v>
@@ -34166,7 +34190,7 @@
         <v>96</v>
       </c>
       <c r="P172" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q172">
         <v>12</v>
@@ -34256,7 +34280,7 @@
         <v>1.17</v>
       </c>
       <c r="AT172">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU172">
         <v>1.44</v>
@@ -34357,7 +34381,7 @@
         <v>91</v>
       </c>
       <c r="P173" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -34548,7 +34572,7 @@
         <v>202</v>
       </c>
       <c r="P174" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q174">
         <v>17</v>
@@ -35208,7 +35232,7 @@
         <v>1.44</v>
       </c>
       <c r="AS177">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT177">
         <v>1.38</v>
@@ -35503,7 +35527,7 @@
         <v>86</v>
       </c>
       <c r="P179" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q179">
         <v>10</v>
@@ -35593,7 +35617,7 @@
         <v>1.54</v>
       </c>
       <c r="AT179">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU179">
         <v>1.76</v>
@@ -35781,7 +35805,7 @@
         <v>1</v>
       </c>
       <c r="AS180">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT180">
         <v>0.92</v>
@@ -35885,7 +35909,7 @@
         <v>207</v>
       </c>
       <c r="P181" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q181">
         <v>13</v>
@@ -36076,7 +36100,7 @@
         <v>96</v>
       </c>
       <c r="P182" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -36163,7 +36187,7 @@
         <v>1.89</v>
       </c>
       <c r="AS182">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT182">
         <v>1.77</v>
@@ -36267,7 +36291,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q183">
         <v>7</v>
@@ -36458,7 +36482,7 @@
         <v>209</v>
       </c>
       <c r="P184" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36545,7 +36569,7 @@
         <v>1.89</v>
       </c>
       <c r="AS184">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT184">
         <v>1.54</v>
@@ -36739,7 +36763,7 @@
         <v>1.71</v>
       </c>
       <c r="AT185">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU185">
         <v>1.6</v>
@@ -36927,7 +36951,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS186">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT186">
         <v>0.62</v>
@@ -37121,7 +37145,7 @@
         <v>1.69</v>
       </c>
       <c r="AT187">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU187">
         <v>1.85</v>
@@ -37222,7 +37246,7 @@
         <v>213</v>
       </c>
       <c r="P188" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -37413,7 +37437,7 @@
         <v>214</v>
       </c>
       <c r="P189" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q189">
         <v>7</v>
@@ -37604,7 +37628,7 @@
         <v>119</v>
       </c>
       <c r="P190" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -37691,10 +37715,10 @@
         <v>0.25</v>
       </c>
       <c r="AS190">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT190">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU190">
         <v>1.64</v>
@@ -37795,7 +37819,7 @@
         <v>130</v>
       </c>
       <c r="P191" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q191">
         <v>8</v>
@@ -38073,10 +38097,10 @@
         <v>1.3</v>
       </c>
       <c r="AS192">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT192">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU192">
         <v>2.04</v>
@@ -38177,7 +38201,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q193">
         <v>10</v>
@@ -38264,7 +38288,7 @@
         <v>0.9</v>
       </c>
       <c r="AS193">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT193">
         <v>1.38</v>
@@ -38368,7 +38392,7 @@
         <v>205</v>
       </c>
       <c r="P194" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q194">
         <v>9</v>
@@ -38458,7 +38482,7 @@
         <v>0.92</v>
       </c>
       <c r="AT194">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU194">
         <v>1.64</v>
@@ -38559,7 +38583,7 @@
         <v>96</v>
       </c>
       <c r="P195" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q195">
         <v>9</v>
@@ -38649,7 +38673,7 @@
         <v>1.15</v>
       </c>
       <c r="AT195">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU195">
         <v>1.63</v>
@@ -39028,7 +39052,7 @@
         <v>1.7</v>
       </c>
       <c r="AS197">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT197">
         <v>1.54</v>
@@ -39219,7 +39243,7 @@
         <v>1.56</v>
       </c>
       <c r="AS198">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT198">
         <v>1.75</v>
@@ -39323,7 +39347,7 @@
         <v>151</v>
       </c>
       <c r="P199" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q199">
         <v>7</v>
@@ -39410,10 +39434,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS199">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT199">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU199">
         <v>1.35</v>
@@ -39705,7 +39729,7 @@
         <v>87</v>
       </c>
       <c r="P201" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q201">
         <v>9</v>
@@ -40177,7 +40201,7 @@
         <v>1.17</v>
       </c>
       <c r="AT203">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU203">
         <v>1.44</v>
@@ -40469,7 +40493,7 @@
         <v>96</v>
       </c>
       <c r="P205" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -40660,7 +40684,7 @@
         <v>220</v>
       </c>
       <c r="P206" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q206">
         <v>5</v>
@@ -40747,7 +40771,7 @@
         <v>1.1</v>
       </c>
       <c r="AS206">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT206">
         <v>1.08</v>
@@ -40851,7 +40875,7 @@
         <v>221</v>
       </c>
       <c r="P207" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q207">
         <v>2</v>
@@ -41233,7 +41257,7 @@
         <v>222</v>
       </c>
       <c r="P209" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q209">
         <v>8</v>
@@ -41615,7 +41639,7 @@
         <v>119</v>
       </c>
       <c r="P211" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q211">
         <v>9</v>
@@ -41893,10 +41917,10 @@
         <v>0.8</v>
       </c>
       <c r="AS212">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT212">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU212">
         <v>1.63</v>
@@ -41997,7 +42021,7 @@
         <v>147</v>
       </c>
       <c r="P213" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q213">
         <v>6</v>
@@ -42379,7 +42403,7 @@
         <v>89</v>
       </c>
       <c r="P215" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q215">
         <v>6</v>
@@ -42570,7 +42594,7 @@
         <v>225</v>
       </c>
       <c r="P216" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q216">
         <v>5</v>
@@ -42848,10 +42872,10 @@
         <v>0.82</v>
       </c>
       <c r="AS217">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT217">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU217">
         <v>1.58</v>
@@ -43039,10 +43063,10 @@
         <v>1.1</v>
       </c>
       <c r="AS218">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT218">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU218">
         <v>2.01</v>
@@ -43143,7 +43167,7 @@
         <v>228</v>
       </c>
       <c r="P219" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q219">
         <v>9</v>
@@ -43334,7 +43358,7 @@
         <v>229</v>
       </c>
       <c r="P220" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q220">
         <v>6</v>
@@ -43421,7 +43445,7 @@
         <v>1.82</v>
       </c>
       <c r="AS220">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT220">
         <v>1.77</v>
@@ -43612,10 +43636,10 @@
         <v>1.18</v>
       </c>
       <c r="AS221">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT221">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU221">
         <v>1.35</v>
@@ -43716,7 +43740,7 @@
         <v>230</v>
       </c>
       <c r="P222" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q222">
         <v>4</v>
@@ -44098,7 +44122,7 @@
         <v>232</v>
       </c>
       <c r="P224" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q224">
         <v>5</v>
@@ -44185,7 +44209,7 @@
         <v>0.45</v>
       </c>
       <c r="AS224">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT224">
         <v>0.62</v>
@@ -44289,7 +44313,7 @@
         <v>233</v>
       </c>
       <c r="P225" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q225">
         <v>6</v>
@@ -44480,7 +44504,7 @@
         <v>234</v>
       </c>
       <c r="P226" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -44570,7 +44594,7 @@
         <v>2.62</v>
       </c>
       <c r="AT226">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU226">
         <v>1.8</v>
@@ -44671,7 +44695,7 @@
         <v>96</v>
       </c>
       <c r="P227" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q227">
         <v>5</v>
@@ -44862,7 +44886,7 @@
         <v>235</v>
       </c>
       <c r="P228" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q228">
         <v>12</v>
@@ -45053,7 +45077,7 @@
         <v>96</v>
       </c>
       <c r="P229" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q229">
         <v>7</v>
@@ -45907,7 +45931,7 @@
         <v>1.71</v>
       </c>
       <c r="AT233">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU233">
         <v>1.66</v>
@@ -46008,7 +46032,7 @@
         <v>238</v>
       </c>
       <c r="P234" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q234">
         <v>4</v>
@@ -46095,10 +46119,10 @@
         <v>0.75</v>
       </c>
       <c r="AS234">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT234">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU234">
         <v>1.38</v>
@@ -46289,7 +46313,7 @@
         <v>1</v>
       </c>
       <c r="AT235">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU235">
         <v>1.39</v>
@@ -46480,7 +46504,7 @@
         <v>1.25</v>
       </c>
       <c r="AT236">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU236">
         <v>1.7</v>
@@ -46668,10 +46692,10 @@
         <v>0.64</v>
       </c>
       <c r="AS237">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT237">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU237">
         <v>1.56</v>
@@ -46859,7 +46883,7 @@
         <v>1.92</v>
       </c>
       <c r="AS238">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT238">
         <v>1.77</v>
@@ -47050,7 +47074,7 @@
         <v>1.82</v>
       </c>
       <c r="AS239">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT239">
         <v>1.75</v>
@@ -47241,7 +47265,7 @@
         <v>1.92</v>
       </c>
       <c r="AS240">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT240">
         <v>1.77</v>
@@ -47345,7 +47369,7 @@
         <v>96</v>
       </c>
       <c r="P241" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q241">
         <v>2</v>
@@ -47432,7 +47456,7 @@
         <v>1.64</v>
       </c>
       <c r="AS241">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT241">
         <v>1.75</v>
@@ -47727,7 +47751,7 @@
         <v>235</v>
       </c>
       <c r="P243" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q243">
         <v>3</v>
@@ -48300,7 +48324,7 @@
         <v>246</v>
       </c>
       <c r="P246" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q246">
         <v>2</v>
@@ -49064,7 +49088,7 @@
         <v>249</v>
       </c>
       <c r="P250" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q250">
         <v>4</v>
@@ -49255,7 +49279,7 @@
         <v>250</v>
       </c>
       <c r="P251" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q251">
         <v>5</v>
@@ -49446,7 +49470,7 @@
         <v>251</v>
       </c>
       <c r="P252" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q252">
         <v>2</v>
@@ -49588,6 +49612,1152 @@
       </c>
       <c r="BK252">
         <v>18</v>
+      </c>
+    </row>
+    <row r="253" spans="1:63">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>2604237</v>
+      </c>
+      <c r="C253" t="s">
+        <v>63</v>
+      </c>
+      <c r="D253" t="s">
+        <v>64</v>
+      </c>
+      <c r="E253" s="2">
+        <v>44996.41666666666</v>
+      </c>
+      <c r="F253">
+        <v>26</v>
+      </c>
+      <c r="G253" t="s">
+        <v>76</v>
+      </c>
+      <c r="H253" t="s">
+        <v>68</v>
+      </c>
+      <c r="I253">
+        <v>1</v>
+      </c>
+      <c r="J253">
+        <v>2</v>
+      </c>
+      <c r="K253">
+        <v>3</v>
+      </c>
+      <c r="L253">
+        <v>1</v>
+      </c>
+      <c r="M253">
+        <v>3</v>
+      </c>
+      <c r="N253">
+        <v>4</v>
+      </c>
+      <c r="O253" t="s">
+        <v>235</v>
+      </c>
+      <c r="P253" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q253">
+        <v>-1</v>
+      </c>
+      <c r="R253">
+        <v>-1</v>
+      </c>
+      <c r="S253">
+        <v>-1</v>
+      </c>
+      <c r="T253">
+        <v>4.33</v>
+      </c>
+      <c r="U253">
+        <v>2.26</v>
+      </c>
+      <c r="V253">
+        <v>2.32</v>
+      </c>
+      <c r="W253">
+        <v>1.33</v>
+      </c>
+      <c r="X253">
+        <v>3.15</v>
+      </c>
+      <c r="Y253">
+        <v>2.52</v>
+      </c>
+      <c r="Z253">
+        <v>1.49</v>
+      </c>
+      <c r="AA253">
+        <v>6</v>
+      </c>
+      <c r="AB253">
+        <v>1.11</v>
+      </c>
+      <c r="AC253">
+        <v>3.5</v>
+      </c>
+      <c r="AD253">
+        <v>3.5</v>
+      </c>
+      <c r="AE253">
+        <v>1.95</v>
+      </c>
+      <c r="AF253">
+        <v>1</v>
+      </c>
+      <c r="AG253">
+        <v>11</v>
+      </c>
+      <c r="AH253">
+        <v>1.2</v>
+      </c>
+      <c r="AI253">
+        <v>3.94</v>
+      </c>
+      <c r="AJ253">
+        <v>1.75</v>
+      </c>
+      <c r="AK253">
+        <v>1.95</v>
+      </c>
+      <c r="AL253">
+        <v>1.64</v>
+      </c>
+      <c r="AM253">
+        <v>2.12</v>
+      </c>
+      <c r="AN253">
+        <v>1.92</v>
+      </c>
+      <c r="AO253">
+        <v>1.24</v>
+      </c>
+      <c r="AP253">
+        <v>1.23</v>
+      </c>
+      <c r="AQ253">
+        <v>1.42</v>
+      </c>
+      <c r="AR253">
+        <v>0.67</v>
+      </c>
+      <c r="AS253">
+        <v>1.31</v>
+      </c>
+      <c r="AT253">
+        <v>0.85</v>
+      </c>
+      <c r="AU253">
+        <v>1.46</v>
+      </c>
+      <c r="AV253">
+        <v>1.5</v>
+      </c>
+      <c r="AW253">
+        <v>2.96</v>
+      </c>
+      <c r="AX253">
+        <v>2.75</v>
+      </c>
+      <c r="AY253">
+        <v>7.8</v>
+      </c>
+      <c r="AZ253">
+        <v>1.63</v>
+      </c>
+      <c r="BA253">
+        <v>1.2</v>
+      </c>
+      <c r="BB253">
+        <v>1.48</v>
+      </c>
+      <c r="BC253">
+        <v>1.73</v>
+      </c>
+      <c r="BD253">
+        <v>2.1</v>
+      </c>
+      <c r="BE253">
+        <v>2.7</v>
+      </c>
+      <c r="BF253">
+        <v>-1</v>
+      </c>
+      <c r="BG253">
+        <v>-1</v>
+      </c>
+      <c r="BH253">
+        <v>-1</v>
+      </c>
+      <c r="BI253">
+        <v>-1</v>
+      </c>
+      <c r="BJ253">
+        <v>-1</v>
+      </c>
+      <c r="BK253">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:63">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>2604229</v>
+      </c>
+      <c r="C254" t="s">
+        <v>63</v>
+      </c>
+      <c r="D254" t="s">
+        <v>64</v>
+      </c>
+      <c r="E254" s="2">
+        <v>44996.41666666666</v>
+      </c>
+      <c r="F254">
+        <v>26</v>
+      </c>
+      <c r="G254" t="s">
+        <v>65</v>
+      </c>
+      <c r="H254" t="s">
+        <v>66</v>
+      </c>
+      <c r="I254">
+        <v>1</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254">
+        <v>1</v>
+      </c>
+      <c r="L254">
+        <v>2</v>
+      </c>
+      <c r="M254">
+        <v>0</v>
+      </c>
+      <c r="N254">
+        <v>2</v>
+      </c>
+      <c r="O254" t="s">
+        <v>252</v>
+      </c>
+      <c r="P254" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q254">
+        <v>8</v>
+      </c>
+      <c r="R254">
+        <v>2</v>
+      </c>
+      <c r="S254">
+        <v>10</v>
+      </c>
+      <c r="T254">
+        <v>2</v>
+      </c>
+      <c r="U254">
+        <v>2.45</v>
+      </c>
+      <c r="V254">
+        <v>5</v>
+      </c>
+      <c r="W254">
+        <v>1.27</v>
+      </c>
+      <c r="X254">
+        <v>3.45</v>
+      </c>
+      <c r="Y254">
+        <v>2.29</v>
+      </c>
+      <c r="Z254">
+        <v>1.56</v>
+      </c>
+      <c r="AA254">
+        <v>4.95</v>
+      </c>
+      <c r="AB254">
+        <v>1.14</v>
+      </c>
+      <c r="AC254">
+        <v>1.53</v>
+      </c>
+      <c r="AD254">
+        <v>4.3</v>
+      </c>
+      <c r="AE254">
+        <v>5.25</v>
+      </c>
+      <c r="AF254">
+        <v>1.01</v>
+      </c>
+      <c r="AG254">
+        <v>13</v>
+      </c>
+      <c r="AH254">
+        <v>1.15</v>
+      </c>
+      <c r="AI254">
+        <v>5</v>
+      </c>
+      <c r="AJ254">
+        <v>1.53</v>
+      </c>
+      <c r="AK254">
+        <v>2.35</v>
+      </c>
+      <c r="AL254">
+        <v>1.62</v>
+      </c>
+      <c r="AM254">
+        <v>2.16</v>
+      </c>
+      <c r="AN254">
+        <v>1.1</v>
+      </c>
+      <c r="AO254">
+        <v>1.15</v>
+      </c>
+      <c r="AP254">
+        <v>2.5</v>
+      </c>
+      <c r="AQ254">
+        <v>2.08</v>
+      </c>
+      <c r="AR254">
+        <v>0.92</v>
+      </c>
+      <c r="AS254">
+        <v>2.15</v>
+      </c>
+      <c r="AT254">
+        <v>0.85</v>
+      </c>
+      <c r="AU254">
+        <v>1.88</v>
+      </c>
+      <c r="AV254">
+        <v>1.11</v>
+      </c>
+      <c r="AW254">
+        <v>2.99</v>
+      </c>
+      <c r="AX254">
+        <v>1.25</v>
+      </c>
+      <c r="AY254">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ254">
+        <v>4.9</v>
+      </c>
+      <c r="BA254">
+        <v>1.15</v>
+      </c>
+      <c r="BB254">
+        <v>1.26</v>
+      </c>
+      <c r="BC254">
+        <v>1.55</v>
+      </c>
+      <c r="BD254">
+        <v>1.85</v>
+      </c>
+      <c r="BE254">
+        <v>2.25</v>
+      </c>
+      <c r="BF254">
+        <v>3</v>
+      </c>
+      <c r="BG254">
+        <v>4</v>
+      </c>
+      <c r="BH254">
+        <v>5</v>
+      </c>
+      <c r="BI254">
+        <v>6</v>
+      </c>
+      <c r="BJ254">
+        <v>8</v>
+      </c>
+      <c r="BK254">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:63">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>2604230</v>
+      </c>
+      <c r="C255" t="s">
+        <v>63</v>
+      </c>
+      <c r="D255" t="s">
+        <v>64</v>
+      </c>
+      <c r="E255" s="2">
+        <v>44996.41666666666</v>
+      </c>
+      <c r="F255">
+        <v>26</v>
+      </c>
+      <c r="G255" t="s">
+        <v>83</v>
+      </c>
+      <c r="H255" t="s">
+        <v>69</v>
+      </c>
+      <c r="I255">
+        <v>2</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>2</v>
+      </c>
+      <c r="L255">
+        <v>2</v>
+      </c>
+      <c r="M255">
+        <v>1</v>
+      </c>
+      <c r="N255">
+        <v>3</v>
+      </c>
+      <c r="O255" t="s">
+        <v>253</v>
+      </c>
+      <c r="P255" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q255">
+        <v>5</v>
+      </c>
+      <c r="R255">
+        <v>7</v>
+      </c>
+      <c r="S255">
+        <v>12</v>
+      </c>
+      <c r="T255">
+        <v>2.85</v>
+      </c>
+      <c r="U255">
+        <v>2.1</v>
+      </c>
+      <c r="V255">
+        <v>3.5</v>
+      </c>
+      <c r="W255">
+        <v>1.4</v>
+      </c>
+      <c r="X255">
+        <v>2.75</v>
+      </c>
+      <c r="Y255">
+        <v>2.75</v>
+      </c>
+      <c r="Z255">
+        <v>1.4</v>
+      </c>
+      <c r="AA255">
+        <v>6.95</v>
+      </c>
+      <c r="AB255">
+        <v>1.07</v>
+      </c>
+      <c r="AC255">
+        <v>2.3</v>
+      </c>
+      <c r="AD255">
+        <v>3.15</v>
+      </c>
+      <c r="AE255">
+        <v>2.9</v>
+      </c>
+      <c r="AF255">
+        <v>1.06</v>
+      </c>
+      <c r="AG255">
+        <v>8</v>
+      </c>
+      <c r="AH255">
+        <v>1.28</v>
+      </c>
+      <c r="AI255">
+        <v>3.5</v>
+      </c>
+      <c r="AJ255">
+        <v>1.85</v>
+      </c>
+      <c r="AK255">
+        <v>1.85</v>
+      </c>
+      <c r="AL255">
+        <v>1.7</v>
+      </c>
+      <c r="AM255">
+        <v>2.1</v>
+      </c>
+      <c r="AN255">
+        <v>1.36</v>
+      </c>
+      <c r="AO255">
+        <v>1.25</v>
+      </c>
+      <c r="AP255">
+        <v>1.62</v>
+      </c>
+      <c r="AQ255">
+        <v>1.33</v>
+      </c>
+      <c r="AR255">
+        <v>1.08</v>
+      </c>
+      <c r="AS255">
+        <v>1.46</v>
+      </c>
+      <c r="AT255">
+        <v>1</v>
+      </c>
+      <c r="AU255">
+        <v>1.62</v>
+      </c>
+      <c r="AV255">
+        <v>1.54</v>
+      </c>
+      <c r="AW255">
+        <v>3.16</v>
+      </c>
+      <c r="AX255">
+        <v>1.63</v>
+      </c>
+      <c r="AY255">
+        <v>7.6</v>
+      </c>
+      <c r="AZ255">
+        <v>2.77</v>
+      </c>
+      <c r="BA255">
+        <v>1.22</v>
+      </c>
+      <c r="BB255">
+        <v>1.5</v>
+      </c>
+      <c r="BC255">
+        <v>1.8</v>
+      </c>
+      <c r="BD255">
+        <v>2.25</v>
+      </c>
+      <c r="BE255">
+        <v>3.2</v>
+      </c>
+      <c r="BF255">
+        <v>7</v>
+      </c>
+      <c r="BG255">
+        <v>10</v>
+      </c>
+      <c r="BH255">
+        <v>4</v>
+      </c>
+      <c r="BI255">
+        <v>4</v>
+      </c>
+      <c r="BJ255">
+        <v>11</v>
+      </c>
+      <c r="BK255">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="256" spans="1:63">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>2604231</v>
+      </c>
+      <c r="C256" t="s">
+        <v>63</v>
+      </c>
+      <c r="D256" t="s">
+        <v>64</v>
+      </c>
+      <c r="E256" s="2">
+        <v>44996.41666666666</v>
+      </c>
+      <c r="F256">
+        <v>26</v>
+      </c>
+      <c r="G256" t="s">
+        <v>75</v>
+      </c>
+      <c r="H256" t="s">
+        <v>80</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>0</v>
+      </c>
+      <c r="L256">
+        <v>2</v>
+      </c>
+      <c r="M256">
+        <v>2</v>
+      </c>
+      <c r="N256">
+        <v>4</v>
+      </c>
+      <c r="O256" t="s">
+        <v>254</v>
+      </c>
+      <c r="P256" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q256">
+        <v>4</v>
+      </c>
+      <c r="R256">
+        <v>7</v>
+      </c>
+      <c r="S256">
+        <v>11</v>
+      </c>
+      <c r="T256">
+        <v>3.3</v>
+      </c>
+      <c r="U256">
+        <v>2.1</v>
+      </c>
+      <c r="V256">
+        <v>3</v>
+      </c>
+      <c r="W256">
+        <v>1.39</v>
+      </c>
+      <c r="X256">
+        <v>2.8</v>
+      </c>
+      <c r="Y256">
+        <v>2.75</v>
+      </c>
+      <c r="Z256">
+        <v>1.4</v>
+      </c>
+      <c r="AA256">
+        <v>6.95</v>
+      </c>
+      <c r="AB256">
+        <v>1.07</v>
+      </c>
+      <c r="AC256">
+        <v>2.85</v>
+      </c>
+      <c r="AD256">
+        <v>3.2</v>
+      </c>
+      <c r="AE256">
+        <v>2.3</v>
+      </c>
+      <c r="AF256">
+        <v>1.05</v>
+      </c>
+      <c r="AG256">
+        <v>9</v>
+      </c>
+      <c r="AH256">
+        <v>1.28</v>
+      </c>
+      <c r="AI256">
+        <v>3.5</v>
+      </c>
+      <c r="AJ256">
+        <v>1.8</v>
+      </c>
+      <c r="AK256">
+        <v>1.9</v>
+      </c>
+      <c r="AL256">
+        <v>1.7</v>
+      </c>
+      <c r="AM256">
+        <v>2.1</v>
+      </c>
+      <c r="AN256">
+        <v>1.53</v>
+      </c>
+      <c r="AO256">
+        <v>1.25</v>
+      </c>
+      <c r="AP256">
+        <v>1.44</v>
+      </c>
+      <c r="AQ256">
+        <v>1.17</v>
+      </c>
+      <c r="AR256">
+        <v>1.08</v>
+      </c>
+      <c r="AS256">
+        <v>1.15</v>
+      </c>
+      <c r="AT256">
+        <v>1.08</v>
+      </c>
+      <c r="AU256">
+        <v>1.6</v>
+      </c>
+      <c r="AV256">
+        <v>1.53</v>
+      </c>
+      <c r="AW256">
+        <v>3.13</v>
+      </c>
+      <c r="AX256">
+        <v>2.18</v>
+      </c>
+      <c r="AY256">
+        <v>7.6</v>
+      </c>
+      <c r="AZ256">
+        <v>1.94</v>
+      </c>
+      <c r="BA256">
+        <v>1.15</v>
+      </c>
+      <c r="BB256">
+        <v>1.26</v>
+      </c>
+      <c r="BC256">
+        <v>1.55</v>
+      </c>
+      <c r="BD256">
+        <v>1.85</v>
+      </c>
+      <c r="BE256">
+        <v>2.25</v>
+      </c>
+      <c r="BF256">
+        <v>5</v>
+      </c>
+      <c r="BG256">
+        <v>5</v>
+      </c>
+      <c r="BH256">
+        <v>7</v>
+      </c>
+      <c r="BI256">
+        <v>3</v>
+      </c>
+      <c r="BJ256">
+        <v>12</v>
+      </c>
+      <c r="BK256">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:63">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>2604233</v>
+      </c>
+      <c r="C257" t="s">
+        <v>63</v>
+      </c>
+      <c r="D257" t="s">
+        <v>64</v>
+      </c>
+      <c r="E257" s="2">
+        <v>44996.41666666666</v>
+      </c>
+      <c r="F257">
+        <v>26</v>
+      </c>
+      <c r="G257" t="s">
+        <v>81</v>
+      </c>
+      <c r="H257" t="s">
+        <v>78</v>
+      </c>
+      <c r="I257">
+        <v>2</v>
+      </c>
+      <c r="J257">
+        <v>2</v>
+      </c>
+      <c r="K257">
+        <v>4</v>
+      </c>
+      <c r="L257">
+        <v>2</v>
+      </c>
+      <c r="M257">
+        <v>2</v>
+      </c>
+      <c r="N257">
+        <v>4</v>
+      </c>
+      <c r="O257" t="s">
+        <v>255</v>
+      </c>
+      <c r="P257" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q257">
+        <v>8</v>
+      </c>
+      <c r="R257">
+        <v>1</v>
+      </c>
+      <c r="S257">
+        <v>9</v>
+      </c>
+      <c r="T257">
+        <v>1.8</v>
+      </c>
+      <c r="U257">
+        <v>2.55</v>
+      </c>
+      <c r="V257">
+        <v>5.75</v>
+      </c>
+      <c r="W257">
+        <v>1.25</v>
+      </c>
+      <c r="X257">
+        <v>3.5</v>
+      </c>
+      <c r="Y257">
+        <v>2.15</v>
+      </c>
+      <c r="Z257">
+        <v>1.6</v>
+      </c>
+      <c r="AA257">
+        <v>4.8</v>
+      </c>
+      <c r="AB257">
+        <v>1.15</v>
+      </c>
+      <c r="AC257">
+        <v>1.4</v>
+      </c>
+      <c r="AD257">
+        <v>4.7</v>
+      </c>
+      <c r="AE257">
+        <v>6.75</v>
+      </c>
+      <c r="AF257">
+        <v>1.02</v>
+      </c>
+      <c r="AG257">
+        <v>12</v>
+      </c>
+      <c r="AH257">
+        <v>1.16</v>
+      </c>
+      <c r="AI257">
+        <v>4.75</v>
+      </c>
+      <c r="AJ257">
+        <v>1.6</v>
+      </c>
+      <c r="AK257">
+        <v>2.2</v>
+      </c>
+      <c r="AL257">
+        <v>1.75</v>
+      </c>
+      <c r="AM257">
+        <v>1.95</v>
+      </c>
+      <c r="AN257">
+        <v>1.1</v>
+      </c>
+      <c r="AO257">
+        <v>1.16</v>
+      </c>
+      <c r="AP257">
+        <v>2.95</v>
+      </c>
+      <c r="AQ257">
+        <v>2.38</v>
+      </c>
+      <c r="AR257">
+        <v>0.67</v>
+      </c>
+      <c r="AS257">
+        <v>2.29</v>
+      </c>
+      <c r="AT257">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU257">
+        <v>1.95</v>
+      </c>
+      <c r="AV257">
+        <v>1.25</v>
+      </c>
+      <c r="AW257">
+        <v>3.2</v>
+      </c>
+      <c r="AX257">
+        <v>1.16</v>
+      </c>
+      <c r="AY257">
+        <v>11.25</v>
+      </c>
+      <c r="AZ257">
+        <v>6.55</v>
+      </c>
+      <c r="BA257">
+        <v>1.2</v>
+      </c>
+      <c r="BB257">
+        <v>1.43</v>
+      </c>
+      <c r="BC257">
+        <v>1.7</v>
+      </c>
+      <c r="BD257">
+        <v>2.1</v>
+      </c>
+      <c r="BE257">
+        <v>2.63</v>
+      </c>
+      <c r="BF257">
+        <v>9</v>
+      </c>
+      <c r="BG257">
+        <v>2</v>
+      </c>
+      <c r="BH257">
+        <v>6</v>
+      </c>
+      <c r="BI257">
+        <v>3</v>
+      </c>
+      <c r="BJ257">
+        <v>15</v>
+      </c>
+      <c r="BK257">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:63">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>2604235</v>
+      </c>
+      <c r="C258" t="s">
+        <v>63</v>
+      </c>
+      <c r="D258" t="s">
+        <v>64</v>
+      </c>
+      <c r="E258" s="2">
+        <v>44996.41666666666</v>
+      </c>
+      <c r="F258">
+        <v>26</v>
+      </c>
+      <c r="G258" t="s">
+        <v>79</v>
+      </c>
+      <c r="H258" t="s">
+        <v>73</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>1</v>
+      </c>
+      <c r="K258">
+        <v>1</v>
+      </c>
+      <c r="L258">
+        <v>1</v>
+      </c>
+      <c r="M258">
+        <v>1</v>
+      </c>
+      <c r="N258">
+        <v>2</v>
+      </c>
+      <c r="O258" t="s">
+        <v>91</v>
+      </c>
+      <c r="P258" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q258">
+        <v>6</v>
+      </c>
+      <c r="R258">
+        <v>3</v>
+      </c>
+      <c r="S258">
+        <v>9</v>
+      </c>
+      <c r="T258">
+        <v>2.55</v>
+      </c>
+      <c r="U258">
+        <v>2.2</v>
+      </c>
+      <c r="V258">
+        <v>3.75</v>
+      </c>
+      <c r="W258">
+        <v>1.35</v>
+      </c>
+      <c r="X258">
+        <v>2.95</v>
+      </c>
+      <c r="Y258">
+        <v>2.65</v>
+      </c>
+      <c r="Z258">
+        <v>1.42</v>
+      </c>
+      <c r="AA258">
+        <v>6.45</v>
+      </c>
+      <c r="AB258">
+        <v>1.09</v>
+      </c>
+      <c r="AC258">
+        <v>2</v>
+      </c>
+      <c r="AD258">
+        <v>3.4</v>
+      </c>
+      <c r="AE258">
+        <v>3.4</v>
+      </c>
+      <c r="AF258">
+        <v>1.05</v>
+      </c>
+      <c r="AG258">
+        <v>9</v>
+      </c>
+      <c r="AH258">
+        <v>1.25</v>
+      </c>
+      <c r="AI258">
+        <v>3.6</v>
+      </c>
+      <c r="AJ258">
+        <v>1.8</v>
+      </c>
+      <c r="AK258">
+        <v>1.9</v>
+      </c>
+      <c r="AL258">
+        <v>1.7</v>
+      </c>
+      <c r="AM258">
+        <v>2.1</v>
+      </c>
+      <c r="AN258">
+        <v>1.28</v>
+      </c>
+      <c r="AO258">
+        <v>1.22</v>
+      </c>
+      <c r="AP258">
+        <v>1.8</v>
+      </c>
+      <c r="AQ258">
+        <v>1.42</v>
+      </c>
+      <c r="AR258">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS258">
+        <v>1.38</v>
+      </c>
+      <c r="AT258">
+        <v>0.71</v>
+      </c>
+      <c r="AU258">
+        <v>1.35</v>
+      </c>
+      <c r="AV258">
+        <v>1.47</v>
+      </c>
+      <c r="AW258">
+        <v>2.82</v>
+      </c>
+      <c r="AX258">
+        <v>1.59</v>
+      </c>
+      <c r="AY258">
+        <v>7.9</v>
+      </c>
+      <c r="AZ258">
+        <v>2.86</v>
+      </c>
+      <c r="BA258">
+        <v>1.18</v>
+      </c>
+      <c r="BB258">
+        <v>1.31</v>
+      </c>
+      <c r="BC258">
+        <v>1.65</v>
+      </c>
+      <c r="BD258">
+        <v>2</v>
+      </c>
+      <c r="BE258">
+        <v>2.5</v>
+      </c>
+      <c r="BF258">
+        <v>3</v>
+      </c>
+      <c r="BG258">
+        <v>3</v>
+      </c>
+      <c r="BH258">
+        <v>4</v>
+      </c>
+      <c r="BI258">
+        <v>3</v>
+      </c>
+      <c r="BJ258">
+        <v>7</v>
+      </c>
+      <c r="BK258">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="369">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1116,6 +1116,12 @@
   <si>
     <t>['44']</t>
   </si>
+  <si>
+    <t>['81', '86']</t>
+  </si>
+  <si>
+    <t>['6', '8', '17']</t>
+  </si>
 </sst>
 </file>
 
@@ -1476,7 +1482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK258"/>
+  <dimension ref="A1:BK261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2189,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT4">
         <v>0.62</v>
@@ -3526,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT11">
         <v>0.92</v>
@@ -3911,7 +3917,7 @@
         <v>1.31</v>
       </c>
       <c r="AT13">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4102,7 +4108,7 @@
         <v>1.15</v>
       </c>
       <c r="AT14">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4866,7 +4872,7 @@
         <v>2.29</v>
       </c>
       <c r="AT18">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -5054,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT19">
         <v>1.54</v>
@@ -7155,7 +7161,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT30">
         <v>0.62</v>
@@ -7728,10 +7734,10 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT33">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU33">
         <v>1.75</v>
@@ -8110,7 +8116,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT35">
         <v>1</v>
@@ -8304,7 +8310,7 @@
         <v>1.38</v>
       </c>
       <c r="AT36">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU36">
         <v>1.04</v>
@@ -9259,7 +9265,7 @@
         <v>1.15</v>
       </c>
       <c r="AT41">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU41">
         <v>1.34</v>
@@ -10211,7 +10217,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT46">
         <v>1.38</v>
@@ -11551,7 +11557,7 @@
         <v>2.15</v>
       </c>
       <c r="AT53">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU53">
         <v>1.92</v>
@@ -11739,7 +11745,7 @@
         <v>1.5</v>
       </c>
       <c r="AS54">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT54">
         <v>1.77</v>
@@ -12694,10 +12700,10 @@
         <v>1.5</v>
       </c>
       <c r="AS59">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT59">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU59">
         <v>0.99</v>
@@ -12888,7 +12894,7 @@
         <v>1.46</v>
       </c>
       <c r="AT60">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU60">
         <v>1.69</v>
@@ -15368,7 +15374,7 @@
         <v>0.33</v>
       </c>
       <c r="AS73">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT73">
         <v>0.85</v>
@@ -15559,10 +15565,10 @@
         <v>2</v>
       </c>
       <c r="AS74">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT74">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU74">
         <v>2.15</v>
@@ -15753,7 +15759,7 @@
         <v>1.31</v>
       </c>
       <c r="AT75">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU75">
         <v>1.21</v>
@@ -15941,7 +15947,7 @@
         <v>0.33</v>
       </c>
       <c r="AS76">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT76">
         <v>0.85</v>
@@ -16517,7 +16523,7 @@
         <v>1.15</v>
       </c>
       <c r="AT79">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU79">
         <v>1.76</v>
@@ -18809,7 +18815,7 @@
         <v>1.5</v>
       </c>
       <c r="AT91">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU91">
         <v>1.55</v>
@@ -19188,7 +19194,7 @@
         <v>1.75</v>
       </c>
       <c r="AS93">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT93">
         <v>1.08</v>
@@ -19382,7 +19388,7 @@
         <v>1.31</v>
       </c>
       <c r="AT94">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU94">
         <v>1.23</v>
@@ -19573,7 +19579,7 @@
         <v>1.33</v>
       </c>
       <c r="AT95">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU95">
         <v>1.8</v>
@@ -20525,7 +20531,7 @@
         <v>0.5</v>
       </c>
       <c r="AS100">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT100">
         <v>1</v>
@@ -20716,7 +20722,7 @@
         <v>0.75</v>
       </c>
       <c r="AS101">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT101">
         <v>0.71</v>
@@ -22056,7 +22062,7 @@
         <v>2.62</v>
       </c>
       <c r="AT108">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU108">
         <v>1.73</v>
@@ -23008,7 +23014,7 @@
         <v>0.6</v>
       </c>
       <c r="AS113">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT113">
         <v>0.6899999999999999</v>
@@ -23775,7 +23781,7 @@
         <v>1.5</v>
       </c>
       <c r="AT117">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU117">
         <v>1.51</v>
@@ -24345,7 +24351,7 @@
         <v>1</v>
       </c>
       <c r="AS120">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT120">
         <v>1.46</v>
@@ -24536,7 +24542,7 @@
         <v>1.4</v>
       </c>
       <c r="AS121">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT121">
         <v>0.85</v>
@@ -24730,7 +24736,7 @@
         <v>1.17</v>
       </c>
       <c r="AT122">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU122">
         <v>1.53</v>
@@ -25112,7 +25118,7 @@
         <v>1.54</v>
       </c>
       <c r="AT124">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU124">
         <v>1.96</v>
@@ -26637,7 +26643,7 @@
         <v>0.86</v>
       </c>
       <c r="AS132">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT132">
         <v>1.46</v>
@@ -26828,7 +26834,7 @@
         <v>1</v>
       </c>
       <c r="AS133">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT133">
         <v>0.92</v>
@@ -27786,7 +27792,7 @@
         <v>2.62</v>
       </c>
       <c r="AT138">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU138">
         <v>1.69</v>
@@ -28165,7 +28171,7 @@
         <v>1</v>
       </c>
       <c r="AS140">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT140">
         <v>1.38</v>
@@ -29505,7 +29511,7 @@
         <v>1.54</v>
       </c>
       <c r="AT147">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU147">
         <v>1.84</v>
@@ -30269,7 +30275,7 @@
         <v>1.69</v>
       </c>
       <c r="AT151">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU151">
         <v>1.8</v>
@@ -30457,10 +30463,10 @@
         <v>1.57</v>
       </c>
       <c r="AS152">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT152">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU152">
         <v>2.19</v>
@@ -31030,7 +31036,7 @@
         <v>0.29</v>
       </c>
       <c r="AS155">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT155">
         <v>0.77</v>
@@ -31221,7 +31227,7 @@
         <v>1.25</v>
       </c>
       <c r="AS156">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT156">
         <v>1.38</v>
@@ -32367,7 +32373,7 @@
         <v>0.63</v>
       </c>
       <c r="AS162">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT162">
         <v>1.08</v>
@@ -32752,7 +32758,7 @@
         <v>1.15</v>
       </c>
       <c r="AT164">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU164">
         <v>1.6</v>
@@ -33516,7 +33522,7 @@
         <v>2.29</v>
       </c>
       <c r="AT168">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU168">
         <v>2.12</v>
@@ -35423,7 +35429,7 @@
         <v>2.5</v>
       </c>
       <c r="AS178">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT178">
         <v>2.17</v>
@@ -35996,7 +36002,7 @@
         <v>0.89</v>
       </c>
       <c r="AS181">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT181">
         <v>1.08</v>
@@ -36190,7 +36196,7 @@
         <v>1.38</v>
       </c>
       <c r="AT182">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU182">
         <v>1.38</v>
@@ -36381,7 +36387,7 @@
         <v>0.92</v>
       </c>
       <c r="AT183">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU183">
         <v>1.63</v>
@@ -37336,7 +37342,7 @@
         <v>0.77</v>
       </c>
       <c r="AT188">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU188">
         <v>1.58</v>
@@ -37906,7 +37912,7 @@
         <v>0.67</v>
       </c>
       <c r="AS191">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT191">
         <v>1.38</v>
@@ -38864,7 +38870,7 @@
         <v>1.71</v>
       </c>
       <c r="AT196">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU196">
         <v>1.65</v>
@@ -39246,7 +39252,7 @@
         <v>1.46</v>
       </c>
       <c r="AT198">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU198">
         <v>1.7</v>
@@ -39625,7 +39631,7 @@
         <v>1.7</v>
       </c>
       <c r="AS200">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT200">
         <v>1.77</v>
@@ -39819,7 +39825,7 @@
         <v>1.69</v>
       </c>
       <c r="AT201">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU201">
         <v>1.86</v>
@@ -40962,7 +40968,7 @@
         <v>0.89</v>
       </c>
       <c r="AS207">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT207">
         <v>0.92</v>
@@ -41153,7 +41159,7 @@
         <v>1.3</v>
       </c>
       <c r="AS208">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT208">
         <v>1.38</v>
@@ -42111,7 +42117,7 @@
         <v>1.15</v>
       </c>
       <c r="AT213">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU213">
         <v>1.71</v>
@@ -42490,10 +42496,10 @@
         <v>1.82</v>
       </c>
       <c r="AS215">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT215">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU215">
         <v>1.41</v>
@@ -42684,7 +42690,7 @@
         <v>1.71</v>
       </c>
       <c r="AT216">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU216">
         <v>1.65</v>
@@ -43254,7 +43260,7 @@
         <v>1.09</v>
       </c>
       <c r="AS219">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT219">
         <v>1.38</v>
@@ -43827,7 +43833,7 @@
         <v>1</v>
       </c>
       <c r="AS222">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT222">
         <v>1.08</v>
@@ -46310,7 +46316,7 @@
         <v>0.73</v>
       </c>
       <c r="AS235">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT235">
         <v>0.85</v>
@@ -46501,7 +46507,7 @@
         <v>1.08</v>
       </c>
       <c r="AS236">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT236">
         <v>1</v>
@@ -47077,7 +47083,7 @@
         <v>2.29</v>
       </c>
       <c r="AT239">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU239">
         <v>1.95</v>
@@ -47268,7 +47274,7 @@
         <v>1.46</v>
       </c>
       <c r="AT240">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU240">
         <v>1.64</v>
@@ -47459,7 +47465,7 @@
         <v>1.38</v>
       </c>
       <c r="AT241">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU241">
         <v>1.39</v>
@@ -48793,7 +48799,7 @@
         <v>1.67</v>
       </c>
       <c r="AS248">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT248">
         <v>1.54</v>
@@ -49664,13 +49670,13 @@
         <v>363</v>
       </c>
       <c r="Q253">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R253">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S253">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T253">
         <v>4.33</v>
@@ -49787,22 +49793,22 @@
         <v>2.7</v>
       </c>
       <c r="BF253">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG253">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BH253">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI253">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BJ253">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BK253">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="254" spans="1:63">
@@ -49978,22 +49984,22 @@
         <v>2.25</v>
       </c>
       <c r="BF254">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG254">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH254">
         <v>5</v>
       </c>
       <c r="BI254">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ254">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BK254">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="255" spans="1:63">
@@ -50169,22 +50175,22 @@
         <v>3.2</v>
       </c>
       <c r="BF255">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BG255">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BH255">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI255">
         <v>4</v>
       </c>
       <c r="BJ255">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BK255">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="256" spans="1:63">
@@ -50360,19 +50366,19 @@
         <v>2.25</v>
       </c>
       <c r="BF256">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG256">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH256">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI256">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ256">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BK256">
         <v>8</v>
@@ -50551,22 +50557,22 @@
         <v>2.63</v>
       </c>
       <c r="BF257">
+        <v>12</v>
+      </c>
+      <c r="BG257">
+        <v>6</v>
+      </c>
+      <c r="BH257">
+        <v>4</v>
+      </c>
+      <c r="BI257">
+        <v>3</v>
+      </c>
+      <c r="BJ257">
+        <v>16</v>
+      </c>
+      <c r="BK257">
         <v>9</v>
-      </c>
-      <c r="BG257">
-        <v>2</v>
-      </c>
-      <c r="BH257">
-        <v>6</v>
-      </c>
-      <c r="BI257">
-        <v>3</v>
-      </c>
-      <c r="BJ257">
-        <v>15</v>
-      </c>
-      <c r="BK257">
-        <v>5</v>
       </c>
     </row>
     <row r="258" spans="1:63">
@@ -50742,22 +50748,595 @@
         <v>2.5</v>
       </c>
       <c r="BF258">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG258">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH258">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI258">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ258">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BK258">
         <v>6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:63">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>2604232</v>
+      </c>
+      <c r="C259" t="s">
+        <v>63</v>
+      </c>
+      <c r="D259" t="s">
+        <v>64</v>
+      </c>
+      <c r="E259" s="2">
+        <v>44997.375</v>
+      </c>
+      <c r="F259">
+        <v>26</v>
+      </c>
+      <c r="G259" t="s">
+        <v>67</v>
+      </c>
+      <c r="H259" t="s">
+        <v>72</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259">
+        <v>0</v>
+      </c>
+      <c r="L259">
+        <v>0</v>
+      </c>
+      <c r="M259">
+        <v>1</v>
+      </c>
+      <c r="N259">
+        <v>1</v>
+      </c>
+      <c r="O259" t="s">
+        <v>96</v>
+      </c>
+      <c r="P259" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q259">
+        <v>5</v>
+      </c>
+      <c r="R259">
+        <v>6</v>
+      </c>
+      <c r="S259">
+        <v>11</v>
+      </c>
+      <c r="T259">
+        <v>3.25</v>
+      </c>
+      <c r="U259">
+        <v>2.1</v>
+      </c>
+      <c r="V259">
+        <v>3.1</v>
+      </c>
+      <c r="W259">
+        <v>1.4</v>
+      </c>
+      <c r="X259">
+        <v>2.75</v>
+      </c>
+      <c r="Y259">
+        <v>2.8</v>
+      </c>
+      <c r="Z259">
+        <v>1.39</v>
+      </c>
+      <c r="AA259">
+        <v>6.95</v>
+      </c>
+      <c r="AB259">
+        <v>1.07</v>
+      </c>
+      <c r="AC259">
+        <v>2.48</v>
+      </c>
+      <c r="AD259">
+        <v>3.35</v>
+      </c>
+      <c r="AE259">
+        <v>2.39</v>
+      </c>
+      <c r="AF259">
+        <v>1.05</v>
+      </c>
+      <c r="AG259">
+        <v>9.25</v>
+      </c>
+      <c r="AH259">
+        <v>1.3</v>
+      </c>
+      <c r="AI259">
+        <v>3.3</v>
+      </c>
+      <c r="AJ259">
+        <v>1.92</v>
+      </c>
+      <c r="AK259">
+        <v>1.88</v>
+      </c>
+      <c r="AL259">
+        <v>1.72</v>
+      </c>
+      <c r="AM259">
+        <v>2.05</v>
+      </c>
+      <c r="AN259">
+        <v>1.5</v>
+      </c>
+      <c r="AO259">
+        <v>1.25</v>
+      </c>
+      <c r="AP259">
+        <v>1.45</v>
+      </c>
+      <c r="AQ259">
+        <v>1.25</v>
+      </c>
+      <c r="AR259">
+        <v>1.75</v>
+      </c>
+      <c r="AS259">
+        <v>1.15</v>
+      </c>
+      <c r="AT259">
+        <v>1.85</v>
+      </c>
+      <c r="AU259">
+        <v>1.7</v>
+      </c>
+      <c r="AV259">
+        <v>1.35</v>
+      </c>
+      <c r="AW259">
+        <v>3.05</v>
+      </c>
+      <c r="AX259">
+        <v>1.85</v>
+      </c>
+      <c r="AY259">
+        <v>7.4</v>
+      </c>
+      <c r="AZ259">
+        <v>2.33</v>
+      </c>
+      <c r="BA259">
+        <v>1.22</v>
+      </c>
+      <c r="BB259">
+        <v>1.5</v>
+      </c>
+      <c r="BC259">
+        <v>1.8</v>
+      </c>
+      <c r="BD259">
+        <v>2.25</v>
+      </c>
+      <c r="BE259">
+        <v>3.2</v>
+      </c>
+      <c r="BF259">
+        <v>4</v>
+      </c>
+      <c r="BG259">
+        <v>2</v>
+      </c>
+      <c r="BH259">
+        <v>3</v>
+      </c>
+      <c r="BI259">
+        <v>5</v>
+      </c>
+      <c r="BJ259">
+        <v>7</v>
+      </c>
+      <c r="BK259">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:63">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>2604228</v>
+      </c>
+      <c r="C260" t="s">
+        <v>63</v>
+      </c>
+      <c r="D260" t="s">
+        <v>64</v>
+      </c>
+      <c r="E260" s="2">
+        <v>44997.41666666666</v>
+      </c>
+      <c r="F260">
+        <v>26</v>
+      </c>
+      <c r="G260" t="s">
+        <v>74</v>
+      </c>
+      <c r="H260" t="s">
+        <v>71</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+      <c r="L260">
+        <v>0</v>
+      </c>
+      <c r="M260">
+        <v>2</v>
+      </c>
+      <c r="N260">
+        <v>2</v>
+      </c>
+      <c r="O260" t="s">
+        <v>96</v>
+      </c>
+      <c r="P260" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q260">
+        <v>5</v>
+      </c>
+      <c r="R260">
+        <v>5</v>
+      </c>
+      <c r="S260">
+        <v>10</v>
+      </c>
+      <c r="T260">
+        <v>2.48</v>
+      </c>
+      <c r="U260">
+        <v>2.15</v>
+      </c>
+      <c r="V260">
+        <v>4</v>
+      </c>
+      <c r="W260">
+        <v>1.33</v>
+      </c>
+      <c r="X260">
+        <v>3</v>
+      </c>
+      <c r="Y260">
+        <v>2.5</v>
+      </c>
+      <c r="Z260">
+        <v>1.48</v>
+      </c>
+      <c r="AA260">
+        <v>6</v>
+      </c>
+      <c r="AB260">
+        <v>1.1</v>
+      </c>
+      <c r="AC260">
+        <v>1.95</v>
+      </c>
+      <c r="AD260">
+        <v>3.45</v>
+      </c>
+      <c r="AE260">
+        <v>3.15</v>
+      </c>
+      <c r="AF260">
+        <v>1.04</v>
+      </c>
+      <c r="AG260">
+        <v>10.5</v>
+      </c>
+      <c r="AH260">
+        <v>1.25</v>
+      </c>
+      <c r="AI260">
+        <v>3.6</v>
+      </c>
+      <c r="AJ260">
+        <v>1.68</v>
+      </c>
+      <c r="AK260">
+        <v>2.12</v>
+      </c>
+      <c r="AL260">
+        <v>1.65</v>
+      </c>
+      <c r="AM260">
+        <v>2.1</v>
+      </c>
+      <c r="AN260">
+        <v>1.29</v>
+      </c>
+      <c r="AO260">
+        <v>1.29</v>
+      </c>
+      <c r="AP260">
+        <v>1.85</v>
+      </c>
+      <c r="AQ260">
+        <v>2</v>
+      </c>
+      <c r="AR260">
+        <v>1.77</v>
+      </c>
+      <c r="AS260">
+        <v>1.85</v>
+      </c>
+      <c r="AT260">
+        <v>1.86</v>
+      </c>
+      <c r="AU260">
+        <v>2.02</v>
+      </c>
+      <c r="AV260">
+        <v>1.61</v>
+      </c>
+      <c r="AW260">
+        <v>3.63</v>
+      </c>
+      <c r="AX260">
+        <v>1.44</v>
+      </c>
+      <c r="AY260">
+        <v>8.5</v>
+      </c>
+      <c r="AZ260">
+        <v>3.38</v>
+      </c>
+      <c r="BA260">
+        <v>1.15</v>
+      </c>
+      <c r="BB260">
+        <v>1.26</v>
+      </c>
+      <c r="BC260">
+        <v>1.55</v>
+      </c>
+      <c r="BD260">
+        <v>1.85</v>
+      </c>
+      <c r="BE260">
+        <v>2.25</v>
+      </c>
+      <c r="BF260">
+        <v>6</v>
+      </c>
+      <c r="BG260">
+        <v>7</v>
+      </c>
+      <c r="BH260">
+        <v>5</v>
+      </c>
+      <c r="BI260">
+        <v>3</v>
+      </c>
+      <c r="BJ260">
+        <v>11</v>
+      </c>
+      <c r="BK260">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:63">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>2604234</v>
+      </c>
+      <c r="C261" t="s">
+        <v>63</v>
+      </c>
+      <c r="D261" t="s">
+        <v>64</v>
+      </c>
+      <c r="E261" s="2">
+        <v>44997.45833333334</v>
+      </c>
+      <c r="F261">
+        <v>26</v>
+      </c>
+      <c r="G261" t="s">
+        <v>82</v>
+      </c>
+      <c r="H261" t="s">
+        <v>70</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <v>3</v>
+      </c>
+      <c r="K261">
+        <v>3</v>
+      </c>
+      <c r="L261">
+        <v>1</v>
+      </c>
+      <c r="M261">
+        <v>3</v>
+      </c>
+      <c r="N261">
+        <v>4</v>
+      </c>
+      <c r="O261" t="s">
+        <v>221</v>
+      </c>
+      <c r="P261" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q261">
+        <v>6</v>
+      </c>
+      <c r="R261">
+        <v>2</v>
+      </c>
+      <c r="S261">
+        <v>8</v>
+      </c>
+      <c r="T261">
+        <v>3.75</v>
+      </c>
+      <c r="U261">
+        <v>2.15</v>
+      </c>
+      <c r="V261">
+        <v>2.65</v>
+      </c>
+      <c r="W261">
+        <v>1.4</v>
+      </c>
+      <c r="X261">
+        <v>2.75</v>
+      </c>
+      <c r="Y261">
+        <v>2.8</v>
+      </c>
+      <c r="Z261">
+        <v>1.39</v>
+      </c>
+      <c r="AA261">
+        <v>6.95</v>
+      </c>
+      <c r="AB261">
+        <v>1.07</v>
+      </c>
+      <c r="AC261">
+        <v>3.1</v>
+      </c>
+      <c r="AD261">
+        <v>3.35</v>
+      </c>
+      <c r="AE261">
+        <v>2.01</v>
+      </c>
+      <c r="AF261">
+        <v>1.06</v>
+      </c>
+      <c r="AG261">
+        <v>9</v>
+      </c>
+      <c r="AH261">
+        <v>1.29</v>
+      </c>
+      <c r="AI261">
+        <v>3.25</v>
+      </c>
+      <c r="AJ261">
+        <v>1.92</v>
+      </c>
+      <c r="AK261">
+        <v>1.88</v>
+      </c>
+      <c r="AL261">
+        <v>1.77</v>
+      </c>
+      <c r="AM261">
+        <v>1.93</v>
+      </c>
+      <c r="AN261">
+        <v>1.73</v>
+      </c>
+      <c r="AO261">
+        <v>1.29</v>
+      </c>
+      <c r="AP261">
+        <v>1.29</v>
+      </c>
+      <c r="AQ261">
+        <v>1</v>
+      </c>
+      <c r="AR261">
+        <v>1.75</v>
+      </c>
+      <c r="AS261">
+        <v>0.93</v>
+      </c>
+      <c r="AT261">
+        <v>1.85</v>
+      </c>
+      <c r="AU261">
+        <v>1.41</v>
+      </c>
+      <c r="AV261">
+        <v>1.4</v>
+      </c>
+      <c r="AW261">
+        <v>2.81</v>
+      </c>
+      <c r="AX261">
+        <v>2.82</v>
+      </c>
+      <c r="AY261">
+        <v>7.7</v>
+      </c>
+      <c r="AZ261">
+        <v>1.61</v>
+      </c>
+      <c r="BA261">
+        <v>1.24</v>
+      </c>
+      <c r="BB261">
+        <v>1.55</v>
+      </c>
+      <c r="BC261">
+        <v>1.85</v>
+      </c>
+      <c r="BD261">
+        <v>2.3</v>
+      </c>
+      <c r="BE261">
+        <v>3.3</v>
+      </c>
+      <c r="BF261">
+        <v>6</v>
+      </c>
+      <c r="BG261">
+        <v>5</v>
+      </c>
+      <c r="BH261">
+        <v>21</v>
+      </c>
+      <c r="BI261">
+        <v>5</v>
+      </c>
+      <c r="BJ261">
+        <v>27</v>
+      </c>
+      <c r="BK261">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="374">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -784,6 +784,12 @@
     <t>['12', '43']</t>
   </si>
   <si>
+    <t>['49', '73']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -1121,6 +1127,15 @@
   </si>
   <si>
     <t>['6', '8', '17']</t>
+  </si>
+  <si>
+    <t>['69', '85']</t>
+  </si>
+  <si>
+    <t>['22', '33', '61']</t>
+  </si>
+  <si>
+    <t>['62', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -1482,7 +1497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK261"/>
+  <dimension ref="A1:BK266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2299,7 +2314,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2389,7 +2404,7 @@
         <v>2.62</v>
       </c>
       <c r="AT5">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2490,7 +2505,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2577,10 +2592,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT6">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2681,7 +2696,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2962,7 +2977,7 @@
         <v>1.33</v>
       </c>
       <c r="AT8">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3153,7 +3168,7 @@
         <v>2.31</v>
       </c>
       <c r="AT9">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3254,7 +3269,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3341,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT10">
         <v>0.77</v>
@@ -3636,7 +3651,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3827,7 +3842,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -4018,7 +4033,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -4105,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT14">
         <v>1.85</v>
@@ -4296,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT15">
         <v>0.71</v>
@@ -4678,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT17">
         <v>0.85</v>
@@ -4782,7 +4797,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4973,7 +4988,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -5254,7 +5269,7 @@
         <v>1.46</v>
       </c>
       <c r="AT20">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5355,7 +5370,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5546,7 +5561,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5636,7 +5651,7 @@
         <v>0.77</v>
       </c>
       <c r="AT22">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AU22">
         <v>2.04</v>
@@ -5737,7 +5752,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5824,7 +5839,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT23">
         <v>1.46</v>
@@ -6206,7 +6221,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT25">
         <v>0.6899999999999999</v>
@@ -6310,7 +6325,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6397,10 +6412,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT26">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU26">
         <v>1.37</v>
@@ -6782,7 +6797,7 @@
         <v>2.62</v>
       </c>
       <c r="AT28">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU28">
         <v>1.92</v>
@@ -6883,7 +6898,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7355,7 +7370,7 @@
         <v>1.54</v>
       </c>
       <c r="AT31">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU31">
         <v>2.32</v>
@@ -7543,7 +7558,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT32">
         <v>0.85</v>
@@ -8220,7 +8235,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8692,7 +8707,7 @@
         <v>1.31</v>
       </c>
       <c r="AT38">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU38">
         <v>1.37</v>
@@ -8793,7 +8808,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8880,7 +8895,7 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT39">
         <v>0.85</v>
@@ -8984,7 +8999,7 @@
         <v>98</v>
       </c>
       <c r="P40" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -9453,7 +9468,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT42">
         <v>0.77</v>
@@ -9557,7 +9572,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9647,7 +9662,7 @@
         <v>1.54</v>
       </c>
       <c r="AT43">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AU43">
         <v>2.18</v>
@@ -9748,7 +9763,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9835,7 +9850,7 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT44">
         <v>1.54</v>
@@ -10029,7 +10044,7 @@
         <v>2.31</v>
       </c>
       <c r="AT45">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU45">
         <v>2.15</v>
@@ -10220,7 +10235,7 @@
         <v>1.85</v>
       </c>
       <c r="AT46">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU46">
         <v>2.05</v>
@@ -10602,7 +10617,7 @@
         <v>1.33</v>
       </c>
       <c r="AT48">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU48">
         <v>2.06</v>
@@ -10793,7 +10808,7 @@
         <v>0.77</v>
       </c>
       <c r="AT49">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU49">
         <v>1.55</v>
@@ -10894,7 +10909,7 @@
         <v>96</v>
       </c>
       <c r="P50" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10981,7 +10996,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT50">
         <v>1.46</v>
@@ -11172,7 +11187,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT51">
         <v>0.62</v>
@@ -11363,7 +11378,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT52">
         <v>0.6899999999999999</v>
@@ -11467,7 +11482,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11658,7 +11673,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -12613,7 +12628,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12804,7 +12819,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -13273,10 +13288,10 @@
         <v>0.67</v>
       </c>
       <c r="AS62">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT62">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU62">
         <v>1.51</v>
@@ -13464,7 +13479,7 @@
         <v>2</v>
       </c>
       <c r="AS63">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT63">
         <v>1.46</v>
@@ -13568,7 +13583,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13658,7 +13673,7 @@
         <v>0.77</v>
       </c>
       <c r="AT64">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU64">
         <v>1.5</v>
@@ -14037,10 +14052,10 @@
         <v>0</v>
       </c>
       <c r="AS66">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT66">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU66">
         <v>1.48</v>
@@ -14332,7 +14347,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -14610,10 +14625,10 @@
         <v>3</v>
       </c>
       <c r="AS69">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT69">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AU69">
         <v>1.59</v>
@@ -14801,10 +14816,10 @@
         <v>1</v>
       </c>
       <c r="AS70">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT70">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU70">
         <v>1.87</v>
@@ -14905,7 +14920,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15287,7 +15302,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15669,7 +15684,7 @@
         <v>96</v>
       </c>
       <c r="P75" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16051,7 +16066,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16242,7 +16257,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16624,7 +16639,7 @@
         <v>96</v>
       </c>
       <c r="P80" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16815,7 +16830,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -17006,7 +17021,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -17093,10 +17108,10 @@
         <v>0.5</v>
       </c>
       <c r="AS82">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT82">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU82">
         <v>1.9</v>
@@ -17197,7 +17212,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17579,7 +17594,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17666,10 +17681,10 @@
         <v>1</v>
       </c>
       <c r="AS85">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT85">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU85">
         <v>1.59</v>
@@ -17770,7 +17785,7 @@
         <v>89</v>
       </c>
       <c r="P86" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17857,10 +17872,10 @@
         <v>2.5</v>
       </c>
       <c r="AS86">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT86">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AU86">
         <v>1.57</v>
@@ -18152,7 +18167,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -18239,7 +18254,7 @@
         <v>0.25</v>
       </c>
       <c r="AS88">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT88">
         <v>0.92</v>
@@ -18433,7 +18448,7 @@
         <v>2.31</v>
       </c>
       <c r="AT89">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU89">
         <v>2.25</v>
@@ -18812,7 +18827,7 @@
         <v>2</v>
       </c>
       <c r="AS91">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT91">
         <v>1.86</v>
@@ -19489,7 +19504,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19770,7 +19785,7 @@
         <v>2.29</v>
       </c>
       <c r="AT96">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU96">
         <v>1.97</v>
@@ -20253,7 +20268,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q99">
         <v>10</v>
@@ -20826,7 +20841,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q102">
         <v>1</v>
@@ -20916,7 +20931,7 @@
         <v>1.71</v>
       </c>
       <c r="AT102">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU102">
         <v>1.61</v>
@@ -21104,7 +21119,7 @@
         <v>1.4</v>
       </c>
       <c r="AS103">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT103">
         <v>1.77</v>
@@ -21486,7 +21501,7 @@
         <v>0.2</v>
       </c>
       <c r="AS105">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT105">
         <v>0.62</v>
@@ -21590,7 +21605,7 @@
         <v>106</v>
       </c>
       <c r="P106" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21677,7 +21692,7 @@
         <v>1.6</v>
       </c>
       <c r="AS106">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT106">
         <v>1.54</v>
@@ -21781,7 +21796,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21871,7 +21886,7 @@
         <v>0.77</v>
       </c>
       <c r="AT107">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU107">
         <v>1.65</v>
@@ -22163,7 +22178,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -22253,7 +22268,7 @@
         <v>1.54</v>
       </c>
       <c r="AT109">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU109">
         <v>2.07</v>
@@ -22354,7 +22369,7 @@
         <v>96</v>
       </c>
       <c r="P110" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22632,7 +22647,7 @@
         <v>0.8</v>
       </c>
       <c r="AS111">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT111">
         <v>0.92</v>
@@ -22736,7 +22751,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22927,7 +22942,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q113">
         <v>1</v>
@@ -23118,7 +23133,7 @@
         <v>96</v>
       </c>
       <c r="P114" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q114">
         <v>15</v>
@@ -23309,7 +23324,7 @@
         <v>168</v>
       </c>
       <c r="P115" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -23500,7 +23515,7 @@
         <v>96</v>
       </c>
       <c r="P116" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23590,7 +23605,7 @@
         <v>1.38</v>
       </c>
       <c r="AT116">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AU116">
         <v>1.25</v>
@@ -23778,7 +23793,7 @@
         <v>2</v>
       </c>
       <c r="AS117">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT117">
         <v>1.85</v>
@@ -23882,7 +23897,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -24073,7 +24088,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -24163,7 +24178,7 @@
         <v>1.31</v>
       </c>
       <c r="AT119">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU119">
         <v>1.3</v>
@@ -24455,7 +24470,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q121">
         <v>8</v>
@@ -24733,7 +24748,7 @@
         <v>1.4</v>
       </c>
       <c r="AS122">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT122">
         <v>1.85</v>
@@ -24837,7 +24852,7 @@
         <v>174</v>
       </c>
       <c r="P123" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -25028,7 +25043,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25219,7 +25234,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25306,7 +25321,7 @@
         <v>0.83</v>
       </c>
       <c r="AS125">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT125">
         <v>0.92</v>
@@ -25497,7 +25512,7 @@
         <v>1.67</v>
       </c>
       <c r="AS126">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT126">
         <v>1.77</v>
@@ -25601,7 +25616,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25691,7 +25706,7 @@
         <v>1.15</v>
       </c>
       <c r="AT127">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU127">
         <v>1.68</v>
@@ -25792,7 +25807,7 @@
         <v>178</v>
       </c>
       <c r="P128" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q128">
         <v>10</v>
@@ -25882,7 +25897,7 @@
         <v>2.29</v>
       </c>
       <c r="AT128">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU128">
         <v>1.89</v>
@@ -25983,7 +25998,7 @@
         <v>96</v>
       </c>
       <c r="P129" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -26174,7 +26189,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -26264,7 +26279,7 @@
         <v>1.71</v>
       </c>
       <c r="AT130">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU130">
         <v>1.6</v>
@@ -26452,7 +26467,7 @@
         <v>0.67</v>
       </c>
       <c r="AS131">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT131">
         <v>0.62</v>
@@ -26556,7 +26571,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q132">
         <v>13</v>
@@ -26837,7 +26852,7 @@
         <v>0.93</v>
       </c>
       <c r="AT133">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU133">
         <v>1.46</v>
@@ -27216,7 +27231,7 @@
         <v>0.67</v>
       </c>
       <c r="AS135">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT135">
         <v>0.71</v>
@@ -27601,7 +27616,7 @@
         <v>1.46</v>
       </c>
       <c r="AT137">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AU137">
         <v>1.66</v>
@@ -28084,7 +28099,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28174,7 +28189,7 @@
         <v>1.15</v>
       </c>
       <c r="AT140">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU140">
         <v>1.51</v>
@@ -28275,7 +28290,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28466,7 +28481,7 @@
         <v>96</v>
       </c>
       <c r="P142" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q142">
         <v>10</v>
@@ -28553,7 +28568,7 @@
         <v>1.43</v>
       </c>
       <c r="AS142">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT142">
         <v>1.77</v>
@@ -28657,7 +28672,7 @@
         <v>160</v>
       </c>
       <c r="P143" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -29129,7 +29144,7 @@
         <v>1.38</v>
       </c>
       <c r="AT145">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU145">
         <v>1.23</v>
@@ -29317,7 +29332,7 @@
         <v>0.17</v>
       </c>
       <c r="AS146">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT146">
         <v>0.85</v>
@@ -29803,7 +29818,7 @@
         <v>191</v>
       </c>
       <c r="P149" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q149">
         <v>9</v>
@@ -29994,7 +30009,7 @@
         <v>192</v>
       </c>
       <c r="P150" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -30081,10 +30096,10 @@
         <v>0.43</v>
       </c>
       <c r="AS150">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT150">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU150">
         <v>1.45</v>
@@ -30185,7 +30200,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q151">
         <v>8</v>
@@ -30272,7 +30287,7 @@
         <v>1.57</v>
       </c>
       <c r="AS151">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT151">
         <v>1.86</v>
@@ -30567,7 +30582,7 @@
         <v>96</v>
       </c>
       <c r="P153" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q153">
         <v>3</v>
@@ -30657,7 +30672,7 @@
         <v>1.31</v>
       </c>
       <c r="AT153">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AU153">
         <v>1.35</v>
@@ -30758,7 +30773,7 @@
         <v>96</v>
       </c>
       <c r="P154" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q154">
         <v>12</v>
@@ -31140,7 +31155,7 @@
         <v>96</v>
       </c>
       <c r="P156" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -31230,7 +31245,7 @@
         <v>0.93</v>
       </c>
       <c r="AT156">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU156">
         <v>1.49</v>
@@ -31994,7 +32009,7 @@
         <v>2.15</v>
       </c>
       <c r="AT160">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU160">
         <v>2.02</v>
@@ -32182,7 +32197,7 @@
         <v>0.57</v>
       </c>
       <c r="AS161">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT161">
         <v>0.6899999999999999</v>
@@ -32376,7 +32391,7 @@
         <v>0.93</v>
       </c>
       <c r="AT162">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU162">
         <v>1.4</v>
@@ -32668,7 +32683,7 @@
         <v>151</v>
       </c>
       <c r="P164" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32755,7 +32770,7 @@
         <v>1.75</v>
       </c>
       <c r="AS164">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT164">
         <v>1.86</v>
@@ -32859,7 +32874,7 @@
         <v>96</v>
       </c>
       <c r="P165" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -32946,10 +32961,10 @@
         <v>0.38</v>
       </c>
       <c r="AS165">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT165">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU165">
         <v>1.64</v>
@@ -33241,7 +33256,7 @@
         <v>96</v>
       </c>
       <c r="P167" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q167">
         <v>9</v>
@@ -33623,7 +33638,7 @@
         <v>164</v>
       </c>
       <c r="P169" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -34005,7 +34020,7 @@
         <v>105</v>
       </c>
       <c r="P171" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q171">
         <v>8</v>
@@ -34092,7 +34107,7 @@
         <v>1.38</v>
       </c>
       <c r="AS171">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT171">
         <v>1</v>
@@ -34196,7 +34211,7 @@
         <v>96</v>
       </c>
       <c r="P172" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q172">
         <v>12</v>
@@ -34283,7 +34298,7 @@
         <v>0.88</v>
       </c>
       <c r="AS172">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT172">
         <v>0.85</v>
@@ -34387,7 +34402,7 @@
         <v>91</v>
       </c>
       <c r="P173" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -34477,7 +34492,7 @@
         <v>2.31</v>
       </c>
       <c r="AT173">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU173">
         <v>2.04</v>
@@ -34578,7 +34593,7 @@
         <v>202</v>
       </c>
       <c r="P174" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q174">
         <v>17</v>
@@ -34856,7 +34871,7 @@
         <v>0.25</v>
       </c>
       <c r="AS175">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT175">
         <v>0.77</v>
@@ -35241,7 +35256,7 @@
         <v>2.15</v>
       </c>
       <c r="AT177">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU177">
         <v>1.89</v>
@@ -35432,7 +35447,7 @@
         <v>1.85</v>
       </c>
       <c r="AT178">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AU178">
         <v>2.11</v>
@@ -35533,7 +35548,7 @@
         <v>86</v>
       </c>
       <c r="P179" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q179">
         <v>10</v>
@@ -35915,7 +35930,7 @@
         <v>207</v>
       </c>
       <c r="P181" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q181">
         <v>13</v>
@@ -36005,7 +36020,7 @@
         <v>1.15</v>
       </c>
       <c r="AT181">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU181">
         <v>1.56</v>
@@ -36106,7 +36121,7 @@
         <v>96</v>
       </c>
       <c r="P182" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -36297,7 +36312,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q183">
         <v>7</v>
@@ -36384,7 +36399,7 @@
         <v>1.38</v>
       </c>
       <c r="AS183">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT183">
         <v>1.85</v>
@@ -36488,7 +36503,7 @@
         <v>209</v>
       </c>
       <c r="P184" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -37148,7 +37163,7 @@
         <v>0.67</v>
       </c>
       <c r="AS187">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT187">
         <v>0.71</v>
@@ -37252,7 +37267,7 @@
         <v>213</v>
       </c>
       <c r="P188" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -37443,7 +37458,7 @@
         <v>214</v>
       </c>
       <c r="P189" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q189">
         <v>7</v>
@@ -37530,7 +37545,7 @@
         <v>1.56</v>
       </c>
       <c r="AS189">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT189">
         <v>1.77</v>
@@ -37634,7 +37649,7 @@
         <v>119</v>
       </c>
       <c r="P190" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -37825,7 +37840,7 @@
         <v>130</v>
       </c>
       <c r="P191" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q191">
         <v>8</v>
@@ -37915,7 +37930,7 @@
         <v>0.93</v>
       </c>
       <c r="AT191">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU191">
         <v>1.46</v>
@@ -38207,7 +38222,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q193">
         <v>10</v>
@@ -38297,7 +38312,7 @@
         <v>1.15</v>
       </c>
       <c r="AT193">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU193">
         <v>1.57</v>
@@ -38398,7 +38413,7 @@
         <v>205</v>
       </c>
       <c r="P194" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q194">
         <v>9</v>
@@ -38485,7 +38500,7 @@
         <v>1.11</v>
       </c>
       <c r="AS194">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT194">
         <v>0.85</v>
@@ -38589,7 +38604,7 @@
         <v>96</v>
       </c>
       <c r="P195" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q195">
         <v>9</v>
@@ -38676,7 +38691,7 @@
         <v>0.6</v>
       </c>
       <c r="AS195">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT195">
         <v>0.71</v>
@@ -39353,7 +39368,7 @@
         <v>151</v>
       </c>
       <c r="P199" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q199">
         <v>7</v>
@@ -39735,7 +39750,7 @@
         <v>87</v>
       </c>
       <c r="P201" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q201">
         <v>9</v>
@@ -39822,7 +39837,7 @@
         <v>1.56</v>
       </c>
       <c r="AS201">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT201">
         <v>1.85</v>
@@ -40204,7 +40219,7 @@
         <v>0.67</v>
       </c>
       <c r="AS203">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT203">
         <v>0.6899999999999999</v>
@@ -40499,7 +40514,7 @@
         <v>96</v>
       </c>
       <c r="P205" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -40589,7 +40604,7 @@
         <v>1.33</v>
       </c>
       <c r="AT205">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AU205">
         <v>1.9</v>
@@ -40690,7 +40705,7 @@
         <v>220</v>
       </c>
       <c r="P206" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q206">
         <v>5</v>
@@ -40780,7 +40795,7 @@
         <v>2.15</v>
       </c>
       <c r="AT206">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU206">
         <v>1.9</v>
@@ -40881,7 +40896,7 @@
         <v>221</v>
       </c>
       <c r="P207" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q207">
         <v>2</v>
@@ -41162,7 +41177,7 @@
         <v>1.85</v>
       </c>
       <c r="AT208">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU208">
         <v>2.12</v>
@@ -41263,7 +41278,7 @@
         <v>222</v>
       </c>
       <c r="P209" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q209">
         <v>8</v>
@@ -41541,7 +41556,7 @@
         <v>1.5</v>
       </c>
       <c r="AS210">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT210">
         <v>1.46</v>
@@ -41645,7 +41660,7 @@
         <v>119</v>
       </c>
       <c r="P211" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q211">
         <v>9</v>
@@ -41735,7 +41750,7 @@
         <v>2.62</v>
       </c>
       <c r="AT211">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU211">
         <v>1.73</v>
@@ -42027,7 +42042,7 @@
         <v>147</v>
       </c>
       <c r="P213" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q213">
         <v>6</v>
@@ -42114,7 +42129,7 @@
         <v>1.5</v>
       </c>
       <c r="AS213">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT213">
         <v>1.85</v>
@@ -42305,7 +42320,7 @@
         <v>1.2</v>
       </c>
       <c r="AS214">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT214">
         <v>1.08</v>
@@ -42409,7 +42424,7 @@
         <v>89</v>
       </c>
       <c r="P215" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q215">
         <v>6</v>
@@ -42600,7 +42615,7 @@
         <v>225</v>
       </c>
       <c r="P216" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q216">
         <v>5</v>
@@ -43173,7 +43188,7 @@
         <v>228</v>
       </c>
       <c r="P219" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q219">
         <v>9</v>
@@ -43263,7 +43278,7 @@
         <v>1.15</v>
       </c>
       <c r="AT219">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU219">
         <v>1.66</v>
@@ -43364,7 +43379,7 @@
         <v>229</v>
       </c>
       <c r="P220" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q220">
         <v>6</v>
@@ -43746,7 +43761,7 @@
         <v>230</v>
       </c>
       <c r="P222" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q222">
         <v>4</v>
@@ -43836,7 +43851,7 @@
         <v>1.85</v>
       </c>
       <c r="AT222">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU222">
         <v>2.04</v>
@@ -44128,7 +44143,7 @@
         <v>232</v>
       </c>
       <c r="P224" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q224">
         <v>5</v>
@@ -44319,7 +44334,7 @@
         <v>233</v>
       </c>
       <c r="P225" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q225">
         <v>6</v>
@@ -44510,7 +44525,7 @@
         <v>234</v>
       </c>
       <c r="P226" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -44701,7 +44716,7 @@
         <v>96</v>
       </c>
       <c r="P227" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q227">
         <v>5</v>
@@ -44788,10 +44803,10 @@
         <v>2.3</v>
       </c>
       <c r="AS227">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT227">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AU227">
         <v>1.47</v>
@@ -44892,7 +44907,7 @@
         <v>235</v>
       </c>
       <c r="P228" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q228">
         <v>12</v>
@@ -44982,7 +44997,7 @@
         <v>1.54</v>
       </c>
       <c r="AT228">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU228">
         <v>1.76</v>
@@ -45083,7 +45098,7 @@
         <v>96</v>
       </c>
       <c r="P229" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q229">
         <v>7</v>
@@ -45170,10 +45185,10 @@
         <v>0.8</v>
       </c>
       <c r="AS229">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT229">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU229">
         <v>1.9</v>
@@ -45361,7 +45376,7 @@
         <v>1.1</v>
       </c>
       <c r="AS230">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT230">
         <v>0.92</v>
@@ -45743,7 +45758,7 @@
         <v>1.09</v>
       </c>
       <c r="AS232">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT232">
         <v>1.08</v>
@@ -46038,7 +46053,7 @@
         <v>238</v>
       </c>
       <c r="P234" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q234">
         <v>4</v>
@@ -47375,7 +47390,7 @@
         <v>96</v>
       </c>
       <c r="P241" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q241">
         <v>2</v>
@@ -47757,7 +47772,7 @@
         <v>235</v>
       </c>
       <c r="P243" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q243">
         <v>3</v>
@@ -47847,7 +47862,7 @@
         <v>1.33</v>
       </c>
       <c r="AT243">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU243">
         <v>1.85</v>
@@ -48035,10 +48050,10 @@
         <v>1</v>
       </c>
       <c r="AS244">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT244">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU244">
         <v>1.45</v>
@@ -48229,7 +48244,7 @@
         <v>1.54</v>
       </c>
       <c r="AT245">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU245">
         <v>1.78</v>
@@ -48330,7 +48345,7 @@
         <v>246</v>
       </c>
       <c r="P246" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q246">
         <v>2</v>
@@ -48417,7 +48432,7 @@
         <v>0.55</v>
       </c>
       <c r="AS246">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT246">
         <v>0.77</v>
@@ -48608,10 +48623,10 @@
         <v>1.25</v>
       </c>
       <c r="AS247">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT247">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU247">
         <v>1.87</v>
@@ -48990,7 +49005,7 @@
         <v>0.67</v>
       </c>
       <c r="AS249">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT249">
         <v>0.62</v>
@@ -49094,7 +49109,7 @@
         <v>249</v>
       </c>
       <c r="P250" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q250">
         <v>4</v>
@@ -49285,7 +49300,7 @@
         <v>250</v>
       </c>
       <c r="P251" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q251">
         <v>5</v>
@@ -49375,7 +49390,7 @@
         <v>2.62</v>
       </c>
       <c r="AT251">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AU251">
         <v>1.81</v>
@@ -49476,7 +49491,7 @@
         <v>251</v>
       </c>
       <c r="P252" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q252">
         <v>2</v>
@@ -49667,7 +49682,7 @@
         <v>235</v>
       </c>
       <c r="P253" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q253">
         <v>3</v>
@@ -50240,7 +50255,7 @@
         <v>254</v>
       </c>
       <c r="P256" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -50431,7 +50446,7 @@
         <v>255</v>
       </c>
       <c r="P257" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q257">
         <v>8</v>
@@ -50622,7 +50637,7 @@
         <v>91</v>
       </c>
       <c r="P258" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q258">
         <v>6</v>
@@ -51004,7 +51019,7 @@
         <v>96</v>
       </c>
       <c r="P260" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q260">
         <v>5</v>
@@ -51195,7 +51210,7 @@
         <v>221</v>
       </c>
       <c r="P261" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q261">
         <v>6</v>
@@ -51336,6 +51351,961 @@
         <v>27</v>
       </c>
       <c r="BK261">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" spans="1:63">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>2604243</v>
+      </c>
+      <c r="C262" t="s">
+        <v>63</v>
+      </c>
+      <c r="D262" t="s">
+        <v>64</v>
+      </c>
+      <c r="E262" s="2">
+        <v>44999.625</v>
+      </c>
+      <c r="F262">
+        <v>27</v>
+      </c>
+      <c r="G262" t="s">
+        <v>77</v>
+      </c>
+      <c r="H262" t="s">
+        <v>79</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+      <c r="L262">
+        <v>2</v>
+      </c>
+      <c r="M262">
+        <v>2</v>
+      </c>
+      <c r="N262">
+        <v>4</v>
+      </c>
+      <c r="O262" t="s">
+        <v>256</v>
+      </c>
+      <c r="P262" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q262">
+        <v>9</v>
+      </c>
+      <c r="R262">
+        <v>9</v>
+      </c>
+      <c r="S262">
+        <v>18</v>
+      </c>
+      <c r="T262">
+        <v>2.9</v>
+      </c>
+      <c r="U262">
+        <v>2.15</v>
+      </c>
+      <c r="V262">
+        <v>3.3</v>
+      </c>
+      <c r="W262">
+        <v>1.35</v>
+      </c>
+      <c r="X262">
+        <v>2.95</v>
+      </c>
+      <c r="Y262">
+        <v>2.65</v>
+      </c>
+      <c r="Z262">
+        <v>1.42</v>
+      </c>
+      <c r="AA262">
+        <v>6.45</v>
+      </c>
+      <c r="AB262">
+        <v>1.09</v>
+      </c>
+      <c r="AC262">
+        <v>2.38</v>
+      </c>
+      <c r="AD262">
+        <v>3.42</v>
+      </c>
+      <c r="AE262">
+        <v>2.77</v>
+      </c>
+      <c r="AF262">
+        <v>1.05</v>
+      </c>
+      <c r="AG262">
+        <v>9</v>
+      </c>
+      <c r="AH262">
+        <v>1.25</v>
+      </c>
+      <c r="AI262">
+        <v>3.6</v>
+      </c>
+      <c r="AJ262">
+        <v>1.83</v>
+      </c>
+      <c r="AK262">
+        <v>1.9</v>
+      </c>
+      <c r="AL262">
+        <v>1.66</v>
+      </c>
+      <c r="AM262">
+        <v>2.15</v>
+      </c>
+      <c r="AN262">
+        <v>1.36</v>
+      </c>
+      <c r="AO262">
+        <v>1.25</v>
+      </c>
+      <c r="AP262">
+        <v>1.57</v>
+      </c>
+      <c r="AQ262">
+        <v>1.15</v>
+      </c>
+      <c r="AR262">
+        <v>1.38</v>
+      </c>
+      <c r="AS262">
+        <v>1.14</v>
+      </c>
+      <c r="AT262">
+        <v>1.36</v>
+      </c>
+      <c r="AU262">
+        <v>1.67</v>
+      </c>
+      <c r="AV262">
+        <v>1.4</v>
+      </c>
+      <c r="AW262">
+        <v>3.07</v>
+      </c>
+      <c r="AX262">
+        <v>1.85</v>
+      </c>
+      <c r="AY262">
+        <v>8.1</v>
+      </c>
+      <c r="AZ262">
+        <v>2.35</v>
+      </c>
+      <c r="BA262">
+        <v>1.23</v>
+      </c>
+      <c r="BB262">
+        <v>1.5</v>
+      </c>
+      <c r="BC262">
+        <v>1.8</v>
+      </c>
+      <c r="BD262">
+        <v>2.25</v>
+      </c>
+      <c r="BE262">
+        <v>2.85</v>
+      </c>
+      <c r="BF262">
+        <v>8</v>
+      </c>
+      <c r="BG262">
+        <v>6</v>
+      </c>
+      <c r="BH262">
+        <v>10</v>
+      </c>
+      <c r="BI262">
+        <v>8</v>
+      </c>
+      <c r="BJ262">
+        <v>18</v>
+      </c>
+      <c r="BK262">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="263" spans="1:63">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>2604239</v>
+      </c>
+      <c r="C263" t="s">
+        <v>63</v>
+      </c>
+      <c r="D263" t="s">
+        <v>64</v>
+      </c>
+      <c r="E263" s="2">
+        <v>44999.625</v>
+      </c>
+      <c r="F263">
+        <v>27</v>
+      </c>
+      <c r="G263" t="s">
+        <v>80</v>
+      </c>
+      <c r="H263" t="s">
+        <v>81</v>
+      </c>
+      <c r="I263">
+        <v>1</v>
+      </c>
+      <c r="J263">
+        <v>1</v>
+      </c>
+      <c r="K263">
+        <v>2</v>
+      </c>
+      <c r="L263">
+        <v>1</v>
+      </c>
+      <c r="M263">
+        <v>1</v>
+      </c>
+      <c r="N263">
+        <v>2</v>
+      </c>
+      <c r="O263" t="s">
+        <v>257</v>
+      </c>
+      <c r="P263" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q263">
+        <v>3</v>
+      </c>
+      <c r="R263">
+        <v>15</v>
+      </c>
+      <c r="S263">
+        <v>18</v>
+      </c>
+      <c r="T263">
+        <v>3.3</v>
+      </c>
+      <c r="U263">
+        <v>2.2</v>
+      </c>
+      <c r="V263">
+        <v>2.8</v>
+      </c>
+      <c r="W263">
+        <v>1.32</v>
+      </c>
+      <c r="X263">
+        <v>3.15</v>
+      </c>
+      <c r="Y263">
+        <v>2.45</v>
+      </c>
+      <c r="Z263">
+        <v>1.49</v>
+      </c>
+      <c r="AA263">
+        <v>5.45</v>
+      </c>
+      <c r="AB263">
+        <v>1.12</v>
+      </c>
+      <c r="AC263">
+        <v>3.26</v>
+      </c>
+      <c r="AD263">
+        <v>3.62</v>
+      </c>
+      <c r="AE263">
+        <v>2.03</v>
+      </c>
+      <c r="AF263">
+        <v>1.04</v>
+      </c>
+      <c r="AG263">
+        <v>10</v>
+      </c>
+      <c r="AH263">
+        <v>1.22</v>
+      </c>
+      <c r="AI263">
+        <v>4</v>
+      </c>
+      <c r="AJ263">
+        <v>1.68</v>
+      </c>
+      <c r="AK263">
+        <v>2.1</v>
+      </c>
+      <c r="AL263">
+        <v>1.57</v>
+      </c>
+      <c r="AM263">
+        <v>2.3</v>
+      </c>
+      <c r="AN263">
+        <v>1.63</v>
+      </c>
+      <c r="AO263">
+        <v>1.22</v>
+      </c>
+      <c r="AP263">
+        <v>1.4</v>
+      </c>
+      <c r="AQ263">
+        <v>1.69</v>
+      </c>
+      <c r="AR263">
+        <v>2.17</v>
+      </c>
+      <c r="AS263">
+        <v>1.64</v>
+      </c>
+      <c r="AT263">
+        <v>2.08</v>
+      </c>
+      <c r="AU263">
+        <v>1.85</v>
+      </c>
+      <c r="AV263">
+        <v>1.73</v>
+      </c>
+      <c r="AW263">
+        <v>3.58</v>
+      </c>
+      <c r="AX263">
+        <v>2.06</v>
+      </c>
+      <c r="AY263">
+        <v>8.1</v>
+      </c>
+      <c r="AZ263">
+        <v>2.04</v>
+      </c>
+      <c r="BA263">
+        <v>1.21</v>
+      </c>
+      <c r="BB263">
+        <v>1.39</v>
+      </c>
+      <c r="BC263">
+        <v>1.57</v>
+      </c>
+      <c r="BD263">
+        <v>2</v>
+      </c>
+      <c r="BE263">
+        <v>2.4</v>
+      </c>
+      <c r="BF263">
+        <v>2</v>
+      </c>
+      <c r="BG263">
+        <v>2</v>
+      </c>
+      <c r="BH263">
+        <v>5</v>
+      </c>
+      <c r="BI263">
+        <v>8</v>
+      </c>
+      <c r="BJ263">
+        <v>7</v>
+      </c>
+      <c r="BK263">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264" spans="1:63">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>2604241</v>
+      </c>
+      <c r="C264" t="s">
+        <v>63</v>
+      </c>
+      <c r="D264" t="s">
+        <v>64</v>
+      </c>
+      <c r="E264" s="2">
+        <v>44999.625</v>
+      </c>
+      <c r="F264">
+        <v>27</v>
+      </c>
+      <c r="G264" t="s">
+        <v>69</v>
+      </c>
+      <c r="H264" t="s">
+        <v>65</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>1</v>
+      </c>
+      <c r="K264">
+        <v>1</v>
+      </c>
+      <c r="L264">
+        <v>1</v>
+      </c>
+      <c r="M264">
+        <v>1</v>
+      </c>
+      <c r="N264">
+        <v>2</v>
+      </c>
+      <c r="O264" t="s">
+        <v>160</v>
+      </c>
+      <c r="P264" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q264">
+        <v>9</v>
+      </c>
+      <c r="R264">
+        <v>4</v>
+      </c>
+      <c r="S264">
+        <v>13</v>
+      </c>
+      <c r="T264">
+        <v>3.3</v>
+      </c>
+      <c r="U264">
+        <v>2.1</v>
+      </c>
+      <c r="V264">
+        <v>3</v>
+      </c>
+      <c r="W264">
+        <v>1.37</v>
+      </c>
+      <c r="X264">
+        <v>2.85</v>
+      </c>
+      <c r="Y264">
+        <v>2.65</v>
+      </c>
+      <c r="Z264">
+        <v>1.42</v>
+      </c>
+      <c r="AA264">
+        <v>6.45</v>
+      </c>
+      <c r="AB264">
+        <v>1.09</v>
+      </c>
+      <c r="AC264">
+        <v>3.12</v>
+      </c>
+      <c r="AD264">
+        <v>3.58</v>
+      </c>
+      <c r="AE264">
+        <v>2.1</v>
+      </c>
+      <c r="AF264">
+        <v>1.05</v>
+      </c>
+      <c r="AG264">
+        <v>9</v>
+      </c>
+      <c r="AH264">
+        <v>1.25</v>
+      </c>
+      <c r="AI264">
+        <v>3.75</v>
+      </c>
+      <c r="AJ264">
+        <v>1.83</v>
+      </c>
+      <c r="AK264">
+        <v>1.9</v>
+      </c>
+      <c r="AL264">
+        <v>1.65</v>
+      </c>
+      <c r="AM264">
+        <v>2.15</v>
+      </c>
+      <c r="AN264">
+        <v>1.45</v>
+      </c>
+      <c r="AO264">
+        <v>1.25</v>
+      </c>
+      <c r="AP264">
+        <v>1.42</v>
+      </c>
+      <c r="AQ264">
+        <v>1.5</v>
+      </c>
+      <c r="AR264">
+        <v>1.38</v>
+      </c>
+      <c r="AS264">
+        <v>1.46</v>
+      </c>
+      <c r="AT264">
+        <v>1.36</v>
+      </c>
+      <c r="AU264">
+        <v>1.52</v>
+      </c>
+      <c r="AV264">
+        <v>1.59</v>
+      </c>
+      <c r="AW264">
+        <v>3.11</v>
+      </c>
+      <c r="AX264">
+        <v>2.05</v>
+      </c>
+      <c r="AY264">
+        <v>8.1</v>
+      </c>
+      <c r="AZ264">
+        <v>2.05</v>
+      </c>
+      <c r="BA264">
+        <v>1.23</v>
+      </c>
+      <c r="BB264">
+        <v>1.42</v>
+      </c>
+      <c r="BC264">
+        <v>1.65</v>
+      </c>
+      <c r="BD264">
+        <v>2</v>
+      </c>
+      <c r="BE264">
+        <v>2.5</v>
+      </c>
+      <c r="BF264">
+        <v>5</v>
+      </c>
+      <c r="BG264">
+        <v>4</v>
+      </c>
+      <c r="BH264">
+        <v>2</v>
+      </c>
+      <c r="BI264">
+        <v>1</v>
+      </c>
+      <c r="BJ264">
+        <v>7</v>
+      </c>
+      <c r="BK264">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:63">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>2604242</v>
+      </c>
+      <c r="C265" t="s">
+        <v>63</v>
+      </c>
+      <c r="D265" t="s">
+        <v>64</v>
+      </c>
+      <c r="E265" s="2">
+        <v>44999.625</v>
+      </c>
+      <c r="F265">
+        <v>27</v>
+      </c>
+      <c r="G265" t="s">
+        <v>78</v>
+      </c>
+      <c r="H265" t="s">
+        <v>84</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>2</v>
+      </c>
+      <c r="K265">
+        <v>2</v>
+      </c>
+      <c r="L265">
+        <v>1</v>
+      </c>
+      <c r="M265">
+        <v>3</v>
+      </c>
+      <c r="N265">
+        <v>4</v>
+      </c>
+      <c r="O265" t="s">
+        <v>107</v>
+      </c>
+      <c r="P265" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q265">
+        <v>3</v>
+      </c>
+      <c r="R265">
+        <v>5</v>
+      </c>
+      <c r="S265">
+        <v>8</v>
+      </c>
+      <c r="T265">
+        <v>3.25</v>
+      </c>
+      <c r="U265">
+        <v>2.15</v>
+      </c>
+      <c r="V265">
+        <v>3</v>
+      </c>
+      <c r="W265">
+        <v>1.37</v>
+      </c>
+      <c r="X265">
+        <v>2.85</v>
+      </c>
+      <c r="Y265">
+        <v>2.65</v>
+      </c>
+      <c r="Z265">
+        <v>1.42</v>
+      </c>
+      <c r="AA265">
+        <v>6.45</v>
+      </c>
+      <c r="AB265">
+        <v>1.09</v>
+      </c>
+      <c r="AC265">
+        <v>2.8</v>
+      </c>
+      <c r="AD265">
+        <v>3.55</v>
+      </c>
+      <c r="AE265">
+        <v>2.29</v>
+      </c>
+      <c r="AF265">
+        <v>1.05</v>
+      </c>
+      <c r="AG265">
+        <v>9</v>
+      </c>
+      <c r="AH265">
+        <v>1.25</v>
+      </c>
+      <c r="AI265">
+        <v>3.6</v>
+      </c>
+      <c r="AJ265">
+        <v>1.83</v>
+      </c>
+      <c r="AK265">
+        <v>1.9</v>
+      </c>
+      <c r="AL265">
+        <v>1.65</v>
+      </c>
+      <c r="AM265">
+        <v>2.15</v>
+      </c>
+      <c r="AN265">
+        <v>1.52</v>
+      </c>
+      <c r="AO265">
+        <v>1.25</v>
+      </c>
+      <c r="AP265">
+        <v>1.45</v>
+      </c>
+      <c r="AQ265">
+        <v>0.92</v>
+      </c>
+      <c r="AR265">
+        <v>0.92</v>
+      </c>
+      <c r="AS265">
+        <v>0.86</v>
+      </c>
+      <c r="AT265">
+        <v>1.08</v>
+      </c>
+      <c r="AU265">
+        <v>1.64</v>
+      </c>
+      <c r="AV265">
+        <v>1.32</v>
+      </c>
+      <c r="AW265">
+        <v>2.96</v>
+      </c>
+      <c r="AX265">
+        <v>2</v>
+      </c>
+      <c r="AY265">
+        <v>7.9</v>
+      </c>
+      <c r="AZ265">
+        <v>2.12</v>
+      </c>
+      <c r="BA265">
+        <v>1.18</v>
+      </c>
+      <c r="BB265">
+        <v>1.43</v>
+      </c>
+      <c r="BC265">
+        <v>1.67</v>
+      </c>
+      <c r="BD265">
+        <v>2.05</v>
+      </c>
+      <c r="BE265">
+        <v>2.6</v>
+      </c>
+      <c r="BF265">
+        <v>4</v>
+      </c>
+      <c r="BG265">
+        <v>6</v>
+      </c>
+      <c r="BH265">
+        <v>7</v>
+      </c>
+      <c r="BI265">
+        <v>9</v>
+      </c>
+      <c r="BJ265">
+        <v>11</v>
+      </c>
+      <c r="BK265">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="266" spans="1:63">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>2604245</v>
+      </c>
+      <c r="C266" t="s">
+        <v>63</v>
+      </c>
+      <c r="D266" t="s">
+        <v>64</v>
+      </c>
+      <c r="E266" s="2">
+        <v>44999.625</v>
+      </c>
+      <c r="F266">
+        <v>27</v>
+      </c>
+      <c r="G266" t="s">
+        <v>73</v>
+      </c>
+      <c r="H266" t="s">
+        <v>83</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266">
+        <v>0</v>
+      </c>
+      <c r="L266">
+        <v>0</v>
+      </c>
+      <c r="M266">
+        <v>2</v>
+      </c>
+      <c r="N266">
+        <v>2</v>
+      </c>
+      <c r="O266" t="s">
+        <v>96</v>
+      </c>
+      <c r="P266" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q266">
+        <v>4</v>
+      </c>
+      <c r="R266">
+        <v>2</v>
+      </c>
+      <c r="S266">
+        <v>6</v>
+      </c>
+      <c r="T266">
+        <v>3.2</v>
+      </c>
+      <c r="U266">
+        <v>2.1</v>
+      </c>
+      <c r="V266">
+        <v>3</v>
+      </c>
+      <c r="W266">
+        <v>1.36</v>
+      </c>
+      <c r="X266">
+        <v>3</v>
+      </c>
+      <c r="Y266">
+        <v>2.63</v>
+      </c>
+      <c r="Z266">
+        <v>1.45</v>
+      </c>
+      <c r="AA266">
+        <v>6.5</v>
+      </c>
+      <c r="AB266">
+        <v>1.1</v>
+      </c>
+      <c r="AC266">
+        <v>2.58</v>
+      </c>
+      <c r="AD266">
+        <v>3.38</v>
+      </c>
+      <c r="AE266">
+        <v>2.55</v>
+      </c>
+      <c r="AF266">
+        <v>1.06</v>
+      </c>
+      <c r="AG266">
+        <v>8</v>
+      </c>
+      <c r="AH266">
+        <v>1.3</v>
+      </c>
+      <c r="AI266">
+        <v>3.4</v>
+      </c>
+      <c r="AJ266">
+        <v>1.87</v>
+      </c>
+      <c r="AK266">
+        <v>1.87</v>
+      </c>
+      <c r="AL266">
+        <v>1.7</v>
+      </c>
+      <c r="AM266">
+        <v>2.1</v>
+      </c>
+      <c r="AN266">
+        <v>1.53</v>
+      </c>
+      <c r="AO266">
+        <v>1.3</v>
+      </c>
+      <c r="AP266">
+        <v>1.45</v>
+      </c>
+      <c r="AQ266">
+        <v>1.17</v>
+      </c>
+      <c r="AR266">
+        <v>1.08</v>
+      </c>
+      <c r="AS266">
+        <v>1.08</v>
+      </c>
+      <c r="AT266">
+        <v>1.21</v>
+      </c>
+      <c r="AU266">
+        <v>1.39</v>
+      </c>
+      <c r="AV266">
+        <v>1.61</v>
+      </c>
+      <c r="AW266">
+        <v>3</v>
+      </c>
+      <c r="AX266">
+        <v>2</v>
+      </c>
+      <c r="AY266">
+        <v>8.1</v>
+      </c>
+      <c r="AZ266">
+        <v>2.1</v>
+      </c>
+      <c r="BA266">
+        <v>1.18</v>
+      </c>
+      <c r="BB266">
+        <v>1.31</v>
+      </c>
+      <c r="BC266">
+        <v>1.51</v>
+      </c>
+      <c r="BD266">
+        <v>1.88</v>
+      </c>
+      <c r="BE266">
+        <v>2.5</v>
+      </c>
+      <c r="BF266">
+        <v>8</v>
+      </c>
+      <c r="BG266">
+        <v>4</v>
+      </c>
+      <c r="BH266">
+        <v>6</v>
+      </c>
+      <c r="BI266">
+        <v>6</v>
+      </c>
+      <c r="BJ266">
+        <v>14</v>
+      </c>
+      <c r="BK266">
         <v>10</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK271"/>
+  <dimension ref="A1:BK278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT2" t="n">
         <v>1.36</v>
@@ -1106,7 +1106,7 @@
         <v>0.93</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.64</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT11" t="n">
         <v>0.85</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT16" t="n">
         <v>1.64</v>
@@ -3948,7 +3948,7 @@
         <v>1.64</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT20" t="n">
         <v>1.36</v>
@@ -4760,7 +4760,7 @@
         <v>1.71</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>1.64</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU25" t="n">
         <v>2.24</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT27" t="n">
         <v>0.85</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT29" t="n">
         <v>1.43</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT30" t="n">
         <v>0.57</v>
@@ -6790,7 +6790,7 @@
         <v>1.64</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU31" t="n">
         <v>2.32</v>
@@ -6993,7 +6993,7 @@
         <v>1.14</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU32" t="n">
         <v>1.92</v>
@@ -7602,7 +7602,7 @@
         <v>0.93</v>
       </c>
       <c r="AT35" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU35" t="n">
         <v>1.05</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT36" t="n">
         <v>1.85</v>
@@ -8008,7 +8008,7 @@
         <v>1.71</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU37" t="n">
         <v>1.73</v>
@@ -8208,7 +8208,7 @@
         <v>1</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT38" t="n">
         <v>1.36</v>
@@ -8414,7 +8414,7 @@
         <v>0.86</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU39" t="n">
         <v>1.41</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT40" t="n">
         <v>1.64</v>
@@ -8817,10 +8817,10 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU41" t="n">
         <v>1.34</v>
@@ -9832,7 +9832,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT46" t="n">
         <v>1.36</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT48" t="n">
         <v>1.21</v>
@@ -10444,7 +10444,7 @@
         <v>0.93</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU49" t="n">
         <v>1.55</v>
@@ -11053,7 +11053,7 @@
         <v>1.14</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU52" t="n">
         <v>1.75</v>
@@ -11253,7 +11253,7 @@
         <v>2</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT53" t="n">
         <v>1.86</v>
@@ -11662,7 +11662,7 @@
         <v>2.29</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU55" t="n">
         <v>2.13</v>
@@ -11862,10 +11862,10 @@
         <v>3</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU56" t="n">
         <v>1.26</v>
@@ -12268,10 +12268,10 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT58" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU58" t="n">
         <v>1.22</v>
@@ -12474,7 +12474,7 @@
         <v>0.93</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU59" t="n">
         <v>0.99</v>
@@ -12674,7 +12674,7 @@
         <v>1.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT60" t="n">
         <v>1.85</v>
@@ -12877,10 +12877,10 @@
         <v>0</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU61" t="n">
         <v>1.63</v>
@@ -13895,7 +13895,7 @@
         <v>1.14</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU66" t="n">
         <v>1.48</v>
@@ -14907,7 +14907,7 @@
         <v>2</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT71" t="n">
         <v>1.64</v>
@@ -15110,10 +15110,10 @@
         <v>0.67</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT72" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU72" t="n">
         <v>1.91</v>
@@ -15316,7 +15316,7 @@
         <v>0.93</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU73" t="n">
         <v>1.09</v>
@@ -15516,10 +15516,10 @@
         <v>2</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU74" t="n">
         <v>2.15</v>
@@ -15719,7 +15719,7 @@
         <v>1.67</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT75" t="n">
         <v>1.86</v>
@@ -15925,7 +15925,7 @@
         <v>1.15</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU76" t="n">
         <v>1.58</v>
@@ -16128,7 +16128,7 @@
         <v>2.29</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU77" t="n">
         <v>2.1</v>
@@ -16328,7 +16328,7 @@
         <v>0</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT78" t="n">
         <v>0.77</v>
@@ -16531,7 +16531,7 @@
         <v>2</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT79" t="n">
         <v>1.85</v>
@@ -16734,7 +16734,7 @@
         <v>0</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT80" t="n">
         <v>0.71</v>
@@ -16940,7 +16940,7 @@
         <v>1.71</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU81" t="n">
         <v>1.51</v>
@@ -19170,10 +19170,10 @@
         <v>0.75</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU92" t="n">
         <v>1.56</v>
@@ -19376,7 +19376,7 @@
         <v>0.93</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU93" t="n">
         <v>1.31</v>
@@ -19576,7 +19576,7 @@
         <v>2.25</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT94" t="n">
         <v>1.85</v>
@@ -19779,10 +19779,10 @@
         <v>1.5</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU95" t="n">
         <v>1.8</v>
@@ -19985,7 +19985,7 @@
         <v>2.29</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU96" t="n">
         <v>1.97</v>
@@ -20185,10 +20185,10 @@
         <v>0.25</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU97" t="n">
         <v>1.78</v>
@@ -20388,7 +20388,7 @@
         <v>0.25</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT98" t="n">
         <v>0.77</v>
@@ -20591,10 +20591,10 @@
         <v>1</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU99" t="n">
         <v>1.21</v>
@@ -20794,10 +20794,10 @@
         <v>0.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT100" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU100" t="n">
         <v>2.2</v>
@@ -22827,7 +22827,7 @@
         <v>2.36</v>
       </c>
       <c r="AT110" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU110" t="n">
         <v>2.11</v>
@@ -23230,7 +23230,7 @@
         <v>0.2</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT112" t="n">
         <v>0.77</v>
@@ -23436,7 +23436,7 @@
         <v>1.15</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU113" t="n">
         <v>1.51</v>
@@ -23636,10 +23636,10 @@
         <v>1.6</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU114" t="n">
         <v>1.95</v>
@@ -23842,7 +23842,7 @@
         <v>2.36</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU115" t="n">
         <v>1.96</v>
@@ -24042,7 +24042,7 @@
         <v>2.6</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT116" t="n">
         <v>2.08</v>
@@ -24448,7 +24448,7 @@
         <v>0.8</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT118" t="n">
         <v>0.71</v>
@@ -24651,10 +24651,10 @@
         <v>0.6</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU119" t="n">
         <v>1.3</v>
@@ -25057,10 +25057,10 @@
         <v>1.4</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU121" t="n">
         <v>2.28</v>
@@ -25263,7 +25263,7 @@
         <v>1.08</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU122" t="n">
         <v>1.53</v>
@@ -25466,7 +25466,7 @@
         <v>2.64</v>
       </c>
       <c r="AT123" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU123" t="n">
         <v>1.65</v>
@@ -26275,7 +26275,7 @@
         <v>1</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT127" t="n">
         <v>1.36</v>
@@ -27290,7 +27290,7 @@
         <v>0.86</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT132" t="n">
         <v>1.36</v>
@@ -27496,7 +27496,7 @@
         <v>0.93</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU133" t="n">
         <v>1.46</v>
@@ -27696,10 +27696,10 @@
         <v>0.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU134" t="n">
         <v>1.69</v>
@@ -28102,10 +28102,10 @@
         <v>1.83</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU136" t="n">
         <v>1.35</v>
@@ -28305,7 +28305,7 @@
         <v>2.67</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT137" t="n">
         <v>2.08</v>
@@ -28714,7 +28714,7 @@
         <v>2.36</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU139" t="n">
         <v>1.92</v>
@@ -29117,7 +29117,7 @@
         <v>0.33</v>
       </c>
       <c r="AS141" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT141" t="n">
         <v>0.77</v>
@@ -29523,7 +29523,7 @@
         <v>0.57</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT143" t="n">
         <v>0.57</v>
@@ -29929,7 +29929,7 @@
         <v>0.71</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT145" t="n">
         <v>1.21</v>
@@ -30135,7 +30135,7 @@
         <v>1.14</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU146" t="n">
         <v>1.59</v>
@@ -30338,7 +30338,7 @@
         <v>1.64</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU147" t="n">
         <v>1.84</v>
@@ -30744,7 +30744,7 @@
         <v>0.93</v>
       </c>
       <c r="AT149" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU149" t="n">
         <v>1.62</v>
@@ -31350,7 +31350,7 @@
         <v>1.57</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT152" t="n">
         <v>1.85</v>
@@ -31553,7 +31553,7 @@
         <v>2.43</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT153" t="n">
         <v>2.08</v>
@@ -31756,7 +31756,7 @@
         <v>1.13</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT154" t="n">
         <v>1.36</v>
@@ -32365,10 +32365,10 @@
         <v>1</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU157" t="n">
         <v>1.72</v>
@@ -32571,7 +32571,7 @@
         <v>2.36</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU158" t="n">
         <v>2.04</v>
@@ -32974,10 +32974,10 @@
         <v>0.86</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU160" t="n">
         <v>2.02</v>
@@ -33180,7 +33180,7 @@
         <v>1.46</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU161" t="n">
         <v>1.53</v>
@@ -34395,7 +34395,7 @@
         <v>1.75</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT167" t="n">
         <v>1.43</v>
@@ -34601,7 +34601,7 @@
         <v>2.29</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU168" t="n">
         <v>2.12</v>
@@ -34804,7 +34804,7 @@
         <v>0.93</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU169" t="n">
         <v>1.63</v>
@@ -35004,7 +35004,7 @@
         <v>0.63</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT170" t="n">
         <v>0.57</v>
@@ -35210,7 +35210,7 @@
         <v>1.64</v>
       </c>
       <c r="AT171" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU171" t="n">
         <v>1.86</v>
@@ -35413,7 +35413,7 @@
         <v>1.08</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU172" t="n">
         <v>1.44</v>
@@ -35616,7 +35616,7 @@
         <v>2.36</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU173" t="n">
         <v>2.04</v>
@@ -35816,7 +35816,7 @@
         <v>1.33</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT174" t="n">
         <v>1.36</v>
@@ -36225,7 +36225,7 @@
         <v>2.64</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU176" t="n">
         <v>1.75</v>
@@ -36425,7 +36425,7 @@
         <v>1.44</v>
       </c>
       <c r="AS177" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT177" t="n">
         <v>1.36</v>
@@ -36628,7 +36628,7 @@
         <v>2.5</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT178" t="n">
         <v>2.08</v>
@@ -36834,7 +36834,7 @@
         <v>1.64</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU179" t="n">
         <v>1.76</v>
@@ -37034,7 +37034,7 @@
         <v>1</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT180" t="n">
         <v>0.85</v>
@@ -37440,7 +37440,7 @@
         <v>1.89</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT182" t="n">
         <v>1.86</v>
@@ -37646,7 +37646,7 @@
         <v>0.86</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU183" t="n">
         <v>1.63</v>
@@ -38052,7 +38052,7 @@
         <v>1.71</v>
       </c>
       <c r="AT185" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU185" t="n">
         <v>1.6</v>
@@ -38252,7 +38252,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT186" t="n">
         <v>0.57</v>
@@ -39064,10 +39064,10 @@
         <v>0.25</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU190" t="n">
         <v>1.64</v>
@@ -39473,7 +39473,7 @@
         <v>2.29</v>
       </c>
       <c r="AT192" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU192" t="n">
         <v>2.04</v>
@@ -39673,7 +39673,7 @@
         <v>0.9</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT193" t="n">
         <v>1.36</v>
@@ -39879,7 +39879,7 @@
         <v>0.86</v>
       </c>
       <c r="AT194" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU194" t="n">
         <v>1.64</v>
@@ -40485,7 +40485,7 @@
         <v>1.7</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT197" t="n">
         <v>1.43</v>
@@ -40688,10 +40688,10 @@
         <v>1.56</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU198" t="n">
         <v>1.7</v>
@@ -40891,10 +40891,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT199" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU199" t="n">
         <v>1.35</v>
@@ -41706,7 +41706,7 @@
         <v>1.08</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU203" t="n">
         <v>1.44</v>
@@ -42109,7 +42109,7 @@
         <v>2.22</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT205" t="n">
         <v>2.08</v>
@@ -42312,7 +42312,7 @@
         <v>1.1</v>
       </c>
       <c r="AS206" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT206" t="n">
         <v>1.21</v>
@@ -42718,7 +42718,7 @@
         <v>1.3</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT208" t="n">
         <v>1.36</v>
@@ -42924,7 +42924,7 @@
         <v>0.93</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU209" t="n">
         <v>1.56</v>
@@ -43330,7 +43330,7 @@
         <v>2.64</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU211" t="n">
         <v>1.73</v>
@@ -43530,10 +43530,10 @@
         <v>0.8</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU212" t="n">
         <v>1.63</v>
@@ -43736,7 +43736,7 @@
         <v>1.14</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU213" t="n">
         <v>1.71</v>
@@ -43939,7 +43939,7 @@
         <v>0.86</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU214" t="n">
         <v>1.67</v>
@@ -44545,7 +44545,7 @@
         <v>0.82</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT217" t="n">
         <v>0.71</v>
@@ -44751,7 +44751,7 @@
         <v>2.29</v>
       </c>
       <c r="AT218" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU218" t="n">
         <v>2.01</v>
@@ -45154,7 +45154,7 @@
         <v>1.82</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT220" t="n">
         <v>1.64</v>
@@ -45357,10 +45357,10 @@
         <v>1.18</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT221" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU221" t="n">
         <v>1.35</v>
@@ -45560,7 +45560,7 @@
         <v>1</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT222" t="n">
         <v>1.21</v>
@@ -45966,7 +45966,7 @@
         <v>0.45</v>
       </c>
       <c r="AS224" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT224" t="n">
         <v>0.57</v>
@@ -46169,7 +46169,7 @@
         <v>1.55</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT225" t="n">
         <v>1.43</v>
@@ -46375,7 +46375,7 @@
         <v>2.64</v>
       </c>
       <c r="AT226" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU226" t="n">
         <v>1.8</v>
@@ -46984,7 +46984,7 @@
         <v>1.64</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU229" t="n">
         <v>1.9</v>
@@ -47593,7 +47593,7 @@
         <v>1.14</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU232" t="n">
         <v>1.7</v>
@@ -47796,7 +47796,7 @@
         <v>1.71</v>
       </c>
       <c r="AT233" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU233" t="n">
         <v>1.66</v>
@@ -47996,7 +47996,7 @@
         <v>0.75</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT234" t="n">
         <v>0.71</v>
@@ -48202,7 +48202,7 @@
         <v>0.93</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU235" t="n">
         <v>1.39</v>
@@ -48405,7 +48405,7 @@
         <v>1.15</v>
       </c>
       <c r="AT236" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU236" t="n">
         <v>1.7</v>
@@ -48605,10 +48605,10 @@
         <v>0.64</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT237" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU237" t="n">
         <v>1.56</v>
@@ -48808,7 +48808,7 @@
         <v>1.92</v>
       </c>
       <c r="AS238" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT238" t="n">
         <v>1.64</v>
@@ -49214,7 +49214,7 @@
         <v>1.92</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT240" t="n">
         <v>1.86</v>
@@ -49417,10 +49417,10 @@
         <v>1.64</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT241" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU241" t="n">
         <v>1.39</v>
@@ -49823,7 +49823,7 @@
         <v>1.25</v>
       </c>
       <c r="AS243" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT243" t="n">
         <v>1.36</v>
@@ -50029,7 +50029,7 @@
         <v>1.08</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU244" t="n">
         <v>1.45</v>
@@ -50838,7 +50838,7 @@
         <v>1.67</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT248" t="n">
         <v>1.43</v>
@@ -51853,10 +51853,10 @@
         <v>0.67</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT253" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU253" t="n">
         <v>1.46</v>
@@ -52056,10 +52056,10 @@
         <v>0.92</v>
       </c>
       <c r="AS254" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT254" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU254" t="n">
         <v>1.88</v>
@@ -52259,10 +52259,10 @@
         <v>1.08</v>
       </c>
       <c r="AS255" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT255" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU255" t="n">
         <v>1.62</v>
@@ -52462,10 +52462,10 @@
         <v>1.08</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT256" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU256" t="n">
         <v>1.6</v>
@@ -52668,7 +52668,7 @@
         <v>2.29</v>
       </c>
       <c r="AT257" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU257" t="n">
         <v>1.95</v>
@@ -52868,7 +52868,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT258" t="n">
         <v>0.71</v>
@@ -53074,7 +53074,7 @@
         <v>1.15</v>
       </c>
       <c r="AT259" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU259" t="n">
         <v>1.7</v>
@@ -53274,7 +53274,7 @@
         <v>1.77</v>
       </c>
       <c r="AS260" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT260" t="n">
         <v>1.86</v>
@@ -54089,7 +54089,7 @@
         <v>0.86</v>
       </c>
       <c r="AT264" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU264" t="n">
         <v>1.64</v>
@@ -54898,7 +54898,7 @@
         <v>0.62</v>
       </c>
       <c r="AS268" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT268" t="n">
         <v>0.57</v>
@@ -55561,6 +55561,1427 @@
         <v>14</v>
       </c>
       <c r="BK271" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="n">
+        <v>2604255</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E272" s="2" t="n">
+        <v>45002.625</v>
+      </c>
+      <c r="F272" t="n">
+        <v>28</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Viktoria Köln</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Meppen</t>
+        </is>
+      </c>
+      <c r="I272" t="n">
+        <v>1</v>
+      </c>
+      <c r="J272" t="n">
+        <v>1</v>
+      </c>
+      <c r="K272" t="n">
+        <v>2</v>
+      </c>
+      <c r="L272" t="n">
+        <v>3</v>
+      </c>
+      <c r="M272" t="n">
+        <v>1</v>
+      </c>
+      <c r="N272" t="n">
+        <v>4</v>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>['44', '83', '90+1']</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="Q272" t="n">
+        <v>7</v>
+      </c>
+      <c r="R272" t="n">
+        <v>5</v>
+      </c>
+      <c r="S272" t="n">
+        <v>12</v>
+      </c>
+      <c r="T272" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U272" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V272" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W272" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X272" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Y272" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z272" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA272" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB272" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC272" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD272" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AE272" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF272" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG272" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH272" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI272" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AJ272" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK272" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL272" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM272" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN272" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO272" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP272" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ272" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR272" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS272" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT272" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU272" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV272" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW272" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX272" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY272" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ272" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BA272" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB272" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC272" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD272" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE272" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF272" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG272" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH272" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI272" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ272" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK272" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="n">
+        <v>2604249</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E273" s="2" t="n">
+        <v>45003.41666666666</v>
+      </c>
+      <c r="F273" t="n">
+        <v>28</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>Osnabrück</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Freiburg II</t>
+        </is>
+      </c>
+      <c r="I273" t="n">
+        <v>1</v>
+      </c>
+      <c r="J273" t="n">
+        <v>1</v>
+      </c>
+      <c r="K273" t="n">
+        <v>2</v>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="n">
+        <v>1</v>
+      </c>
+      <c r="N273" t="n">
+        <v>2</v>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="Q273" t="n">
+        <v>5</v>
+      </c>
+      <c r="R273" t="n">
+        <v>11</v>
+      </c>
+      <c r="S273" t="n">
+        <v>16</v>
+      </c>
+      <c r="T273" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U273" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V273" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W273" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X273" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y273" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z273" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA273" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB273" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC273" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD273" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE273" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF273" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG273" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH273" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI273" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ273" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK273" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL273" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM273" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN273" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO273" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP273" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ273" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AR273" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS273" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AT273" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AU273" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV273" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW273" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX273" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AY273" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ273" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA273" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB273" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC273" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD273" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE273" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF273" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG273" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH273" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI273" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ273" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK273" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="n">
+        <v>2604250</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E274" s="2" t="n">
+        <v>45003.41666666666</v>
+      </c>
+      <c r="F274" t="n">
+        <v>28</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>Erzgebirge Aue</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>1860 München</t>
+        </is>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="n">
+        <v>2</v>
+      </c>
+      <c r="K274" t="n">
+        <v>2</v>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="n">
+        <v>3</v>
+      </c>
+      <c r="N274" t="n">
+        <v>4</v>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>['16', '36', '59']</t>
+        </is>
+      </c>
+      <c r="Q274" t="n">
+        <v>7</v>
+      </c>
+      <c r="R274" t="n">
+        <v>5</v>
+      </c>
+      <c r="S274" t="n">
+        <v>12</v>
+      </c>
+      <c r="T274" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U274" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V274" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W274" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X274" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y274" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z274" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA274" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB274" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC274" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD274" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE274" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF274" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG274" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH274" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI274" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ274" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK274" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL274" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM274" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN274" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO274" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP274" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ274" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR274" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS274" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT274" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU274" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV274" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW274" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX274" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY274" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ274" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BA274" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB274" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC274" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD274" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE274" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF274" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG274" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH274" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI274" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ274" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK274" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="n">
+        <v>2604251</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E275" s="2" t="n">
+        <v>45003.41666666666</v>
+      </c>
+      <c r="F275" t="n">
+        <v>28</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>MSV Duisburg</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Verl</t>
+        </is>
+      </c>
+      <c r="I275" t="n">
+        <v>2</v>
+      </c>
+      <c r="J275" t="n">
+        <v>2</v>
+      </c>
+      <c r="K275" t="n">
+        <v>4</v>
+      </c>
+      <c r="L275" t="n">
+        <v>3</v>
+      </c>
+      <c r="M275" t="n">
+        <v>3</v>
+      </c>
+      <c r="N275" t="n">
+        <v>6</v>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>['12', '45+1', '85']</t>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>['27', '45+2', '50']</t>
+        </is>
+      </c>
+      <c r="Q275" t="n">
+        <v>6</v>
+      </c>
+      <c r="R275" t="n">
+        <v>10</v>
+      </c>
+      <c r="S275" t="n">
+        <v>16</v>
+      </c>
+      <c r="T275" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U275" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V275" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W275" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X275" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y275" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z275" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA275" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB275" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC275" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD275" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE275" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF275" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG275" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH275" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI275" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ275" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK275" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL275" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM275" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN275" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO275" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP275" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ275" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AR275" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS275" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT275" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU275" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV275" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW275" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX275" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AY275" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ275" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BA275" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB275" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC275" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD275" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE275" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF275" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG275" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH275" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI275" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ275" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK275" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="n">
+        <v>2604256</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E276" s="2" t="n">
+        <v>45003.41666666666</v>
+      </c>
+      <c r="F276" t="n">
+        <v>28</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Saarbrucken</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Rot-Weiss Essen</t>
+        </is>
+      </c>
+      <c r="I276" t="n">
+        <v>2</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" t="n">
+        <v>2</v>
+      </c>
+      <c r="L276" t="n">
+        <v>3</v>
+      </c>
+      <c r="M276" t="n">
+        <v>0</v>
+      </c>
+      <c r="N276" t="n">
+        <v>3</v>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>['2', '36', '58']</t>
+        </is>
+      </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q276" t="n">
+        <v>4</v>
+      </c>
+      <c r="R276" t="n">
+        <v>7</v>
+      </c>
+      <c r="S276" t="n">
+        <v>11</v>
+      </c>
+      <c r="T276" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U276" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V276" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W276" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X276" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y276" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z276" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA276" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB276" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC276" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD276" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE276" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AF276" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG276" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH276" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI276" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ276" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK276" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL276" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM276" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN276" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO276" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP276" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ276" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR276" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS276" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT276" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AU276" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AV276" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW276" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX276" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY276" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ276" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="BA276" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB276" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC276" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD276" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE276" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF276" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG276" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH276" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI276" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ276" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK276" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="n">
+        <v>2604257</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E277" s="2" t="n">
+        <v>45003.41666666666</v>
+      </c>
+      <c r="F277" t="n">
+        <v>28</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>Bayreuth</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>VfB Oldenburg</t>
+        </is>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="n">
+        <v>1</v>
+      </c>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="n">
+        <v>2</v>
+      </c>
+      <c r="N277" t="n">
+        <v>3</v>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>['38', '90']</t>
+        </is>
+      </c>
+      <c r="Q277" t="n">
+        <v>3</v>
+      </c>
+      <c r="R277" t="n">
+        <v>6</v>
+      </c>
+      <c r="S277" t="n">
+        <v>9</v>
+      </c>
+      <c r="T277" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U277" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V277" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W277" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X277" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y277" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z277" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA277" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB277" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC277" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD277" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE277" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF277" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG277" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH277" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI277" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ277" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK277" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL277" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM277" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN277" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO277" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP277" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ277" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR277" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AS277" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT277" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU277" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV277" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW277" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AX277" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AY277" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ277" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BA277" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB277" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC277" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD277" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE277" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF277" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG277" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH277" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI277" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ277" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK277" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" t="n">
+        <v>2604248</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E278" s="2" t="n">
+        <v>45003.41666666666</v>
+      </c>
+      <c r="F278" t="n">
+        <v>28</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>Wehen Wiesbaden</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Waldhof Mannheim</t>
+        </is>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0</v>
+      </c>
+      <c r="L278" t="n">
+        <v>3</v>
+      </c>
+      <c r="M278" t="n">
+        <v>0</v>
+      </c>
+      <c r="N278" t="n">
+        <v>3</v>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>['50', '68', '74']</t>
+        </is>
+      </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q278" t="n">
+        <v>9</v>
+      </c>
+      <c r="R278" t="n">
+        <v>5</v>
+      </c>
+      <c r="S278" t="n">
+        <v>14</v>
+      </c>
+      <c r="T278" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U278" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V278" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W278" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X278" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z278" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA278" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB278" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC278" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD278" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE278" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF278" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG278" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH278" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI278" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ278" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK278" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL278" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM278" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN278" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO278" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP278" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ278" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AR278" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AS278" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AT278" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AU278" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV278" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW278" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AX278" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY278" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ278" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA278" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB278" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC278" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD278" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE278" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF278" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG278" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH278" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI278" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ278" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK278" t="n">
         <v>8</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="402">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -823,7 +823,22 @@
     <t>['5', '61']</t>
   </si>
   <si>
+    <t>['10', '58']</t>
+  </si>
+  <si>
     <t>['73']</t>
+  </si>
+  <si>
+    <t>['8', '78', '87']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['89', '90+4']</t>
   </si>
   <si>
     <t>['7', '10', '23', '26', '82']</t>
@@ -890,9 +905,6 @@
   </si>
   <si>
     <t>['41', '61']</t>
-  </si>
-  <si>
-    <t>['85']</t>
   </si>
   <si>
     <t>['6', '19', '46']</t>
@@ -1028,9 +1040,6 @@
   </si>
   <si>
     <t>['58']</t>
-  </si>
-  <si>
-    <t>['87']</t>
   </si>
   <si>
     <t>['70']</t>
@@ -1187,6 +1196,30 @@
   </si>
   <si>
     <t>['10', '40', '58']</t>
+  </si>
+  <si>
+    <t>['17', '60']</t>
+  </si>
+  <si>
+    <t>['18', '35', '82']</t>
+  </si>
+  <si>
+    <t>['14', '90+4']</t>
+  </si>
+  <si>
+    <t>['22', '56']</t>
+  </si>
+  <si>
+    <t>['23', '43', '83']</t>
+  </si>
+  <si>
+    <t>['5', '65']</t>
+  </si>
+  <si>
+    <t>['37', '58']</t>
+  </si>
+  <si>
+    <t>['5', '15', '17', '79']</t>
   </si>
 </sst>
 </file>
@@ -1548,7 +1581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK281"/>
+  <dimension ref="A1:BK290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1882,7 +1915,7 @@
         <v>2.07</v>
       </c>
       <c r="AT2">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -2070,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT3">
         <v>0.64</v>
@@ -2264,7 +2297,7 @@
         <v>1.07</v>
       </c>
       <c r="AT4">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2365,7 +2398,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2452,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AT5">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2556,7 +2589,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2643,10 +2676,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT6">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2747,7 +2780,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2834,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT7">
         <v>1.21</v>
@@ -3219,7 +3252,7 @@
         <v>2.36</v>
       </c>
       <c r="AT9">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3320,7 +3353,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3407,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT10">
         <v>0.79</v>
@@ -3601,7 +3634,7 @@
         <v>1.93</v>
       </c>
       <c r="AT11">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3702,7 +3735,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3893,7 +3926,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -4084,7 +4117,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -4171,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT14">
         <v>1.93</v>
@@ -4362,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT15">
         <v>0.67</v>
@@ -4556,7 +4589,7 @@
         <v>1.5</v>
       </c>
       <c r="AT16">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4744,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT17">
         <v>1</v>
@@ -4848,7 +4881,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -5039,7 +5072,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -5129,7 +5162,7 @@
         <v>1.07</v>
       </c>
       <c r="AT19">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5320,7 +5353,7 @@
         <v>1.36</v>
       </c>
       <c r="AT20">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5421,7 +5454,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5508,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT21">
         <v>0.79</v>
@@ -5612,7 +5645,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5699,10 +5732,10 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT22">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AU22">
         <v>2.04</v>
@@ -5803,7 +5836,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5890,10 +5923,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT23">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU23">
         <v>1.75</v>
@@ -6272,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT25">
         <v>0.64</v>
@@ -6376,7 +6409,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6463,10 +6496,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT26">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU26">
         <v>1.37</v>
@@ -6657,7 +6690,7 @@
         <v>1.57</v>
       </c>
       <c r="AT27">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU27">
         <v>1.77</v>
@@ -6845,10 +6878,10 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AT28">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU28">
         <v>1.92</v>
@@ -6949,7 +6982,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7039,7 +7072,7 @@
         <v>2.07</v>
       </c>
       <c r="AT29">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU29">
         <v>2.16</v>
@@ -7230,7 +7263,7 @@
         <v>1.93</v>
       </c>
       <c r="AT30">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU30">
         <v>1.98</v>
@@ -7418,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT31">
         <v>1.07</v>
@@ -7609,7 +7642,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT32">
         <v>1</v>
@@ -8286,7 +8319,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8564,7 +8597,7 @@
         <v>3</v>
       </c>
       <c r="AS37">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT37">
         <v>1.21</v>
@@ -8758,7 +8791,7 @@
         <v>1.21</v>
       </c>
       <c r="AT38">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU38">
         <v>1.37</v>
@@ -8859,7 +8892,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8946,7 +8979,7 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT39">
         <v>0.79</v>
@@ -9050,7 +9083,7 @@
         <v>98</v>
       </c>
       <c r="P40" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -9140,7 +9173,7 @@
         <v>1.36</v>
       </c>
       <c r="AT40">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU40">
         <v>1.56</v>
@@ -9519,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT42">
         <v>0.79</v>
@@ -9623,7 +9656,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9710,10 +9743,10 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT43">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AU43">
         <v>2.18</v>
@@ -9814,7 +9847,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9901,10 +9934,10 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT44">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU44">
         <v>1.59</v>
@@ -10095,7 +10128,7 @@
         <v>2.36</v>
       </c>
       <c r="AT45">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU45">
         <v>2.15</v>
@@ -10286,7 +10319,7 @@
         <v>1.93</v>
       </c>
       <c r="AT46">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU46">
         <v>2.05</v>
@@ -10474,10 +10507,10 @@
         <v>0.5</v>
       </c>
       <c r="AS47">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AT47">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU47">
         <v>1.65</v>
@@ -10668,7 +10701,7 @@
         <v>1.57</v>
       </c>
       <c r="AT48">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU48">
         <v>2.06</v>
@@ -10856,7 +10889,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT49">
         <v>1.07</v>
@@ -10960,7 +10993,7 @@
         <v>96</v>
       </c>
       <c r="P50" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11047,10 +11080,10 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT50">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU50">
         <v>1.78</v>
@@ -11238,10 +11271,10 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT51">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU51">
         <v>1.95</v>
@@ -11429,7 +11462,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT52">
         <v>0.64</v>
@@ -11533,7 +11566,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11724,7 +11757,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11814,7 +11847,7 @@
         <v>1.07</v>
       </c>
       <c r="AT54">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU54">
         <v>1.67</v>
@@ -12384,7 +12417,7 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT57">
         <v>0.67</v>
@@ -12679,7 +12712,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12870,7 +12903,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -13339,10 +13372,10 @@
         <v>0.67</v>
       </c>
       <c r="AS62">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT62">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU62">
         <v>1.51</v>
@@ -13530,10 +13563,10 @@
         <v>2</v>
       </c>
       <c r="AS63">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT63">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU63">
         <v>1.93</v>
@@ -13634,7 +13667,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13721,10 +13754,10 @@
         <v>0.67</v>
       </c>
       <c r="AS64">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT64">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU64">
         <v>1.5</v>
@@ -13912,10 +13945,10 @@
         <v>0.33</v>
       </c>
       <c r="AS65">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT65">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU65">
         <v>2.45</v>
@@ -14103,7 +14136,7 @@
         <v>0</v>
       </c>
       <c r="AS66">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT66">
         <v>1.07</v>
@@ -14297,7 +14330,7 @@
         <v>2.36</v>
       </c>
       <c r="AT67">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU67">
         <v>2.2</v>
@@ -14398,7 +14431,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -14485,10 +14518,10 @@
         <v>0</v>
       </c>
       <c r="AS68">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AT68">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU68">
         <v>1.65</v>
@@ -14676,10 +14709,10 @@
         <v>3</v>
       </c>
       <c r="AS69">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT69">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AU69">
         <v>1.59</v>
@@ -14867,10 +14900,10 @@
         <v>1</v>
       </c>
       <c r="AS70">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT70">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU70">
         <v>1.87</v>
@@ -14971,7 +15004,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15061,7 +15094,7 @@
         <v>1.57</v>
       </c>
       <c r="AT71">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU71">
         <v>1.95</v>
@@ -15353,7 +15386,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15735,7 +15768,7 @@
         <v>96</v>
       </c>
       <c r="P75" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16117,7 +16150,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16308,7 +16341,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16690,7 +16723,7 @@
         <v>96</v>
       </c>
       <c r="P80" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16881,7 +16914,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16968,7 +17001,7 @@
         <v>0.67</v>
       </c>
       <c r="AS81">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT81">
         <v>0.64</v>
@@ -17072,7 +17105,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -17159,10 +17192,10 @@
         <v>0.5</v>
       </c>
       <c r="AS82">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT82">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU82">
         <v>1.9</v>
@@ -17263,7 +17296,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17350,10 +17383,10 @@
         <v>0</v>
       </c>
       <c r="AS83">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT83">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU83">
         <v>1.69</v>
@@ -17541,10 +17574,10 @@
         <v>1.75</v>
       </c>
       <c r="AS84">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AT84">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU84">
         <v>1.8</v>
@@ -17645,7 +17678,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17732,10 +17765,10 @@
         <v>1</v>
       </c>
       <c r="AS85">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT85">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU85">
         <v>1.59</v>
@@ -17836,7 +17869,7 @@
         <v>89</v>
       </c>
       <c r="P86" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17923,10 +17956,10 @@
         <v>2.5</v>
       </c>
       <c r="AS86">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT86">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AU86">
         <v>1.57</v>
@@ -18114,10 +18147,10 @@
         <v>1.75</v>
       </c>
       <c r="AS87">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT87">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU87">
         <v>2.16</v>
@@ -18218,7 +18251,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -18305,10 +18338,10 @@
         <v>0.25</v>
       </c>
       <c r="AS88">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT88">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU88">
         <v>1.9</v>
@@ -18499,7 +18532,7 @@
         <v>2.36</v>
       </c>
       <c r="AT89">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU89">
         <v>2.25</v>
@@ -18687,10 +18720,10 @@
         <v>1.5</v>
       </c>
       <c r="AS90">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT90">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU90">
         <v>1.66</v>
@@ -18878,7 +18911,7 @@
         <v>2</v>
       </c>
       <c r="AS91">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT91">
         <v>1.86</v>
@@ -19555,7 +19588,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20319,7 +20352,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q99">
         <v>10</v>
@@ -20892,7 +20925,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q102">
         <v>1</v>
@@ -20979,10 +21012,10 @@
         <v>1</v>
       </c>
       <c r="AS102">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT102">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU102">
         <v>1.61</v>
@@ -21170,10 +21203,10 @@
         <v>1.4</v>
       </c>
       <c r="AS103">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT103">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU103">
         <v>1.66</v>
@@ -21364,7 +21397,7 @@
         <v>2.2</v>
       </c>
       <c r="AT104">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU104">
         <v>1.9</v>
@@ -21552,10 +21585,10 @@
         <v>0.2</v>
       </c>
       <c r="AS105">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT105">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU105">
         <v>1.59</v>
@@ -21656,7 +21689,7 @@
         <v>106</v>
       </c>
       <c r="P106" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21743,10 +21776,10 @@
         <v>1.6</v>
       </c>
       <c r="AS106">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT106">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU106">
         <v>1.81</v>
@@ -21847,7 +21880,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21934,10 +21967,10 @@
         <v>0.4</v>
       </c>
       <c r="AS107">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT107">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU107">
         <v>1.65</v>
@@ -22125,7 +22158,7 @@
         <v>1.6</v>
       </c>
       <c r="AS108">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AT108">
         <v>1.86</v>
@@ -22229,7 +22262,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -22316,10 +22349,10 @@
         <v>0.6</v>
       </c>
       <c r="AS109">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT109">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU109">
         <v>2.07</v>
@@ -22420,7 +22453,7 @@
         <v>96</v>
       </c>
       <c r="P110" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22698,10 +22731,10 @@
         <v>0.8</v>
       </c>
       <c r="AS111">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT111">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU111">
         <v>1.54</v>
@@ -22802,7 +22835,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22993,7 +23026,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q113">
         <v>1</v>
@@ -23184,7 +23217,7 @@
         <v>96</v>
       </c>
       <c r="P114" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q114">
         <v>15</v>
@@ -23375,7 +23408,7 @@
         <v>168</v>
       </c>
       <c r="P115" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -23566,7 +23599,7 @@
         <v>96</v>
       </c>
       <c r="P116" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23656,7 +23689,7 @@
         <v>1.5</v>
       </c>
       <c r="AT116">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AU116">
         <v>1.25</v>
@@ -23844,7 +23877,7 @@
         <v>2</v>
       </c>
       <c r="AS117">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT117">
         <v>1.93</v>
@@ -23948,7 +23981,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -24139,7 +24172,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -24420,7 +24453,7 @@
         <v>1.07</v>
       </c>
       <c r="AT120">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU120">
         <v>1.34</v>
@@ -24521,7 +24554,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q121">
         <v>8</v>
@@ -24799,7 +24832,7 @@
         <v>1.4</v>
       </c>
       <c r="AS122">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT122">
         <v>1.79</v>
@@ -24903,7 +24936,7 @@
         <v>174</v>
       </c>
       <c r="P123" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24990,7 +25023,7 @@
         <v>0.83</v>
       </c>
       <c r="AS123">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AT123">
         <v>0.93</v>
@@ -25094,7 +25127,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25181,7 +25214,7 @@
         <v>1.33</v>
       </c>
       <c r="AS124">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT124">
         <v>1.86</v>
@@ -25285,7 +25318,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25372,10 +25405,10 @@
         <v>0.83</v>
       </c>
       <c r="AS125">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT125">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU125">
         <v>1.53</v>
@@ -25563,10 +25596,10 @@
         <v>1.67</v>
       </c>
       <c r="AS126">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT126">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU126">
         <v>1.78</v>
@@ -25667,7 +25700,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25757,7 +25790,7 @@
         <v>1.14</v>
       </c>
       <c r="AT127">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU127">
         <v>1.68</v>
@@ -25858,7 +25891,7 @@
         <v>178</v>
       </c>
       <c r="P128" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q128">
         <v>10</v>
@@ -25948,7 +25981,7 @@
         <v>2.2</v>
       </c>
       <c r="AT128">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU128">
         <v>1.89</v>
@@ -26049,7 +26082,7 @@
         <v>96</v>
       </c>
       <c r="P129" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -26136,10 +26169,10 @@
         <v>1.83</v>
       </c>
       <c r="AS129">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT129">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU129">
         <v>1.64</v>
@@ -26240,7 +26273,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -26327,10 +26360,10 @@
         <v>0.83</v>
       </c>
       <c r="AS130">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT130">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU130">
         <v>1.6</v>
@@ -26518,10 +26551,10 @@
         <v>0.67</v>
       </c>
       <c r="AS131">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT131">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU131">
         <v>1.47</v>
@@ -26622,7 +26655,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q132">
         <v>13</v>
@@ -26712,7 +26745,7 @@
         <v>1.93</v>
       </c>
       <c r="AT132">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU132">
         <v>2.35</v>
@@ -27282,7 +27315,7 @@
         <v>0.67</v>
       </c>
       <c r="AS135">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT135">
         <v>0.67</v>
@@ -27667,7 +27700,7 @@
         <v>1.36</v>
       </c>
       <c r="AT137">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AU137">
         <v>1.66</v>
@@ -27855,7 +27888,7 @@
         <v>1.83</v>
       </c>
       <c r="AS138">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AT138">
         <v>1.93</v>
@@ -28150,7 +28183,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28240,7 +28273,7 @@
         <v>1.07</v>
       </c>
       <c r="AT140">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU140">
         <v>1.51</v>
@@ -28341,7 +28374,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28532,7 +28565,7 @@
         <v>96</v>
       </c>
       <c r="P142" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q142">
         <v>10</v>
@@ -28619,10 +28652,10 @@
         <v>1.43</v>
       </c>
       <c r="AS142">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT142">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU142">
         <v>1.54</v>
@@ -28723,7 +28756,7 @@
         <v>160</v>
       </c>
       <c r="P143" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28813,7 +28846,7 @@
         <v>1.14</v>
       </c>
       <c r="AT143">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU143">
         <v>1.66</v>
@@ -29004,7 +29037,7 @@
         <v>2.2</v>
       </c>
       <c r="AT144">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU144">
         <v>2.01</v>
@@ -29195,7 +29228,7 @@
         <v>1.5</v>
       </c>
       <c r="AT145">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU145">
         <v>1.23</v>
@@ -29383,7 +29416,7 @@
         <v>0.17</v>
       </c>
       <c r="AS146">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT146">
         <v>0.79</v>
@@ -29574,7 +29607,7 @@
         <v>1.67</v>
       </c>
       <c r="AS147">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT147">
         <v>1.79</v>
@@ -29765,10 +29798,10 @@
         <v>2</v>
       </c>
       <c r="AS148">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT148">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU148">
         <v>1.64</v>
@@ -29869,7 +29902,7 @@
         <v>191</v>
       </c>
       <c r="P149" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q149">
         <v>9</v>
@@ -29956,7 +29989,7 @@
         <v>1.14</v>
       </c>
       <c r="AS149">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT149">
         <v>0.93</v>
@@ -30060,7 +30093,7 @@
         <v>192</v>
       </c>
       <c r="P150" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -30147,10 +30180,10 @@
         <v>0.43</v>
       </c>
       <c r="AS150">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT150">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU150">
         <v>1.45</v>
@@ -30251,7 +30284,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q151">
         <v>8</v>
@@ -30338,7 +30371,7 @@
         <v>1.57</v>
       </c>
       <c r="AS151">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT151">
         <v>1.86</v>
@@ -30633,7 +30666,7 @@
         <v>96</v>
       </c>
       <c r="P153" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q153">
         <v>3</v>
@@ -30723,7 +30756,7 @@
         <v>1.21</v>
       </c>
       <c r="AT153">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AU153">
         <v>1.35</v>
@@ -30824,7 +30857,7 @@
         <v>96</v>
       </c>
       <c r="P154" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q154">
         <v>12</v>
@@ -30914,7 +30947,7 @@
         <v>1.36</v>
       </c>
       <c r="AT154">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU154">
         <v>1.71</v>
@@ -31206,7 +31239,7 @@
         <v>96</v>
       </c>
       <c r="P156" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -31296,7 +31329,7 @@
         <v>1.07</v>
       </c>
       <c r="AT156">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU156">
         <v>1.49</v>
@@ -31866,7 +31899,7 @@
         <v>0.71</v>
       </c>
       <c r="AS159">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AT159">
         <v>0.67</v>
@@ -32248,7 +32281,7 @@
         <v>0.57</v>
       </c>
       <c r="AS161">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT161">
         <v>0.64</v>
@@ -32442,7 +32475,7 @@
         <v>1.07</v>
       </c>
       <c r="AT162">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU162">
         <v>1.4</v>
@@ -32630,7 +32663,7 @@
         <v>0.63</v>
       </c>
       <c r="AS163">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT163">
         <v>0.67</v>
@@ -32734,7 +32767,7 @@
         <v>151</v>
       </c>
       <c r="P164" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32821,7 +32854,7 @@
         <v>1.75</v>
       </c>
       <c r="AS164">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT164">
         <v>1.86</v>
@@ -32925,7 +32958,7 @@
         <v>96</v>
       </c>
       <c r="P165" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -33012,10 +33045,10 @@
         <v>0.38</v>
       </c>
       <c r="AS165">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT165">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU165">
         <v>1.64</v>
@@ -33203,10 +33236,10 @@
         <v>1.63</v>
       </c>
       <c r="AS166">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT166">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU166">
         <v>1.63</v>
@@ -33307,7 +33340,7 @@
         <v>96</v>
       </c>
       <c r="P167" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q167">
         <v>9</v>
@@ -33397,7 +33430,7 @@
         <v>1.14</v>
       </c>
       <c r="AT167">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU167">
         <v>1.64</v>
@@ -33689,7 +33722,7 @@
         <v>164</v>
       </c>
       <c r="P169" t="s">
-        <v>338</v>
+        <v>272</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33776,7 +33809,7 @@
         <v>0.14</v>
       </c>
       <c r="AS169">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT169">
         <v>0.79</v>
@@ -33970,7 +34003,7 @@
         <v>1.5</v>
       </c>
       <c r="AT170">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU170">
         <v>1.29</v>
@@ -34071,7 +34104,7 @@
         <v>105</v>
       </c>
       <c r="P171" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q171">
         <v>8</v>
@@ -34158,7 +34191,7 @@
         <v>1.38</v>
       </c>
       <c r="AS171">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT171">
         <v>0.93</v>
@@ -34262,7 +34295,7 @@
         <v>96</v>
       </c>
       <c r="P172" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q172">
         <v>12</v>
@@ -34349,7 +34382,7 @@
         <v>0.88</v>
       </c>
       <c r="AS172">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT172">
         <v>1</v>
@@ -34453,7 +34486,7 @@
         <v>91</v>
       </c>
       <c r="P173" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -34644,7 +34677,7 @@
         <v>202</v>
       </c>
       <c r="P174" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q174">
         <v>17</v>
@@ -34734,7 +34767,7 @@
         <v>1.57</v>
       </c>
       <c r="AT174">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU174">
         <v>1.78</v>
@@ -34922,7 +34955,7 @@
         <v>0.25</v>
       </c>
       <c r="AS175">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT175">
         <v>0.79</v>
@@ -35113,7 +35146,7 @@
         <v>1.38</v>
       </c>
       <c r="AS176">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AT176">
         <v>1.21</v>
@@ -35307,7 +35340,7 @@
         <v>2.07</v>
       </c>
       <c r="AT177">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU177">
         <v>1.89</v>
@@ -35498,7 +35531,7 @@
         <v>1.93</v>
       </c>
       <c r="AT178">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AU178">
         <v>2.11</v>
@@ -35599,7 +35632,7 @@
         <v>86</v>
       </c>
       <c r="P179" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q179">
         <v>10</v>
@@ -35686,7 +35719,7 @@
         <v>0.63</v>
       </c>
       <c r="AS179">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT179">
         <v>0.64</v>
@@ -35880,7 +35913,7 @@
         <v>1.21</v>
       </c>
       <c r="AT180">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU180">
         <v>1.3</v>
@@ -35981,7 +36014,7 @@
         <v>207</v>
       </c>
       <c r="P181" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q181">
         <v>13</v>
@@ -36071,7 +36104,7 @@
         <v>1.07</v>
       </c>
       <c r="AT181">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU181">
         <v>1.56</v>
@@ -36172,7 +36205,7 @@
         <v>96</v>
       </c>
       <c r="P182" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -36363,7 +36396,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q183">
         <v>7</v>
@@ -36450,7 +36483,7 @@
         <v>1.38</v>
       </c>
       <c r="AS183">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT183">
         <v>1.79</v>
@@ -36554,7 +36587,7 @@
         <v>209</v>
       </c>
       <c r="P184" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36644,7 +36677,7 @@
         <v>2.2</v>
       </c>
       <c r="AT184">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU184">
         <v>2.05</v>
@@ -36832,7 +36865,7 @@
         <v>1.33</v>
       </c>
       <c r="AS185">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT185">
         <v>0.93</v>
@@ -37026,7 +37059,7 @@
         <v>1.36</v>
       </c>
       <c r="AT186">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU186">
         <v>1.73</v>
@@ -37214,7 +37247,7 @@
         <v>0.67</v>
       </c>
       <c r="AS187">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT187">
         <v>0.67</v>
@@ -37318,7 +37351,7 @@
         <v>213</v>
       </c>
       <c r="P188" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -37405,7 +37438,7 @@
         <v>1.38</v>
       </c>
       <c r="AS188">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT188">
         <v>1.93</v>
@@ -37509,7 +37542,7 @@
         <v>214</v>
       </c>
       <c r="P189" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q189">
         <v>7</v>
@@ -37596,10 +37629,10 @@
         <v>1.56</v>
       </c>
       <c r="AS189">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT189">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU189">
         <v>1.54</v>
@@ -37700,7 +37733,7 @@
         <v>119</v>
       </c>
       <c r="P190" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -37891,7 +37924,7 @@
         <v>130</v>
       </c>
       <c r="P191" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q191">
         <v>8</v>
@@ -37981,7 +38014,7 @@
         <v>1.07</v>
       </c>
       <c r="AT191">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU191">
         <v>1.46</v>
@@ -38273,7 +38306,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q193">
         <v>10</v>
@@ -38363,7 +38396,7 @@
         <v>1.14</v>
       </c>
       <c r="AT193">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU193">
         <v>1.57</v>
@@ -38464,7 +38497,7 @@
         <v>205</v>
       </c>
       <c r="P194" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q194">
         <v>9</v>
@@ -38551,7 +38584,7 @@
         <v>1.11</v>
       </c>
       <c r="AS194">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT194">
         <v>1</v>
@@ -38655,7 +38688,7 @@
         <v>96</v>
       </c>
       <c r="P195" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q195">
         <v>9</v>
@@ -38742,7 +38775,7 @@
         <v>0.6</v>
       </c>
       <c r="AS195">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT195">
         <v>0.67</v>
@@ -38933,7 +38966,7 @@
         <v>2</v>
       </c>
       <c r="AS196">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT196">
         <v>1.86</v>
@@ -39127,7 +39160,7 @@
         <v>1.21</v>
       </c>
       <c r="AT197">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU197">
         <v>1.33</v>
@@ -39419,7 +39452,7 @@
         <v>151</v>
       </c>
       <c r="P199" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q199">
         <v>7</v>
@@ -39700,7 +39733,7 @@
         <v>1.07</v>
       </c>
       <c r="AT200">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU200">
         <v>1.47</v>
@@ -39801,7 +39834,7 @@
         <v>87</v>
       </c>
       <c r="P201" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q201">
         <v>9</v>
@@ -39888,7 +39921,7 @@
         <v>1.56</v>
       </c>
       <c r="AS201">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT201">
         <v>1.93</v>
@@ -40082,7 +40115,7 @@
         <v>2.36</v>
       </c>
       <c r="AT202">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU202">
         <v>1.98</v>
@@ -40270,7 +40303,7 @@
         <v>0.67</v>
       </c>
       <c r="AS203">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT203">
         <v>0.64</v>
@@ -40461,7 +40494,7 @@
         <v>0.33</v>
       </c>
       <c r="AS204">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT204">
         <v>0.79</v>
@@ -40565,7 +40598,7 @@
         <v>96</v>
       </c>
       <c r="P205" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -40655,7 +40688,7 @@
         <v>1.57</v>
       </c>
       <c r="AT205">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AU205">
         <v>1.9</v>
@@ -40756,7 +40789,7 @@
         <v>220</v>
       </c>
       <c r="P206" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q206">
         <v>5</v>
@@ -40846,7 +40879,7 @@
         <v>2.07</v>
       </c>
       <c r="AT206">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU206">
         <v>1.9</v>
@@ -40947,7 +40980,7 @@
         <v>221</v>
       </c>
       <c r="P207" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q207">
         <v>2</v>
@@ -41037,7 +41070,7 @@
         <v>1.07</v>
       </c>
       <c r="AT207">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU207">
         <v>1.6</v>
@@ -41228,7 +41261,7 @@
         <v>1.93</v>
       </c>
       <c r="AT208">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU208">
         <v>2.12</v>
@@ -41329,7 +41362,7 @@
         <v>222</v>
       </c>
       <c r="P209" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q209">
         <v>8</v>
@@ -41416,7 +41449,7 @@
         <v>1.22</v>
       </c>
       <c r="AS209">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT209">
         <v>1.21</v>
@@ -41607,10 +41640,10 @@
         <v>1.5</v>
       </c>
       <c r="AS210">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT210">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU210">
         <v>1.49</v>
@@ -41711,7 +41744,7 @@
         <v>119</v>
       </c>
       <c r="P211" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q211">
         <v>9</v>
@@ -41798,7 +41831,7 @@
         <v>0.78</v>
       </c>
       <c r="AS211">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AT211">
         <v>1.07</v>
@@ -42093,7 +42126,7 @@
         <v>147</v>
       </c>
       <c r="P213" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q213">
         <v>6</v>
@@ -42180,7 +42213,7 @@
         <v>1.5</v>
       </c>
       <c r="AS213">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT213">
         <v>1.79</v>
@@ -42371,7 +42404,7 @@
         <v>1.2</v>
       </c>
       <c r="AS214">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT214">
         <v>1.21</v>
@@ -42475,7 +42508,7 @@
         <v>89</v>
       </c>
       <c r="P215" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q215">
         <v>6</v>
@@ -42666,7 +42699,7 @@
         <v>225</v>
       </c>
       <c r="P216" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q216">
         <v>5</v>
@@ -42753,7 +42786,7 @@
         <v>1.7</v>
       </c>
       <c r="AS216">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT216">
         <v>1.93</v>
@@ -43239,7 +43272,7 @@
         <v>228</v>
       </c>
       <c r="P219" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q219">
         <v>9</v>
@@ -43329,7 +43362,7 @@
         <v>1.07</v>
       </c>
       <c r="AT219">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU219">
         <v>1.66</v>
@@ -43430,7 +43463,7 @@
         <v>229</v>
       </c>
       <c r="P220" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q220">
         <v>6</v>
@@ -43520,7 +43553,7 @@
         <v>1.21</v>
       </c>
       <c r="AT220">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU220">
         <v>1.3</v>
@@ -43812,7 +43845,7 @@
         <v>230</v>
       </c>
       <c r="P222" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q222">
         <v>4</v>
@@ -43902,7 +43935,7 @@
         <v>1.93</v>
       </c>
       <c r="AT222">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU222">
         <v>2.04</v>
@@ -44093,7 +44126,7 @@
         <v>2.36</v>
       </c>
       <c r="AT223">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU223">
         <v>2</v>
@@ -44194,7 +44227,7 @@
         <v>232</v>
       </c>
       <c r="P224" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q224">
         <v>5</v>
@@ -44284,7 +44317,7 @@
         <v>2.07</v>
       </c>
       <c r="AT224">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU224">
         <v>1.87</v>
@@ -44385,7 +44418,7 @@
         <v>233</v>
       </c>
       <c r="P225" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q225">
         <v>6</v>
@@ -44475,7 +44508,7 @@
         <v>1.57</v>
       </c>
       <c r="AT225">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU225">
         <v>1.82</v>
@@ -44576,7 +44609,7 @@
         <v>234</v>
       </c>
       <c r="P226" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -44663,7 +44696,7 @@
         <v>0.7</v>
       </c>
       <c r="AS226">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AT226">
         <v>0.64</v>
@@ -44767,7 +44800,7 @@
         <v>96</v>
       </c>
       <c r="P227" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q227">
         <v>5</v>
@@ -44854,10 +44887,10 @@
         <v>2.3</v>
       </c>
       <c r="AS227">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT227">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AU227">
         <v>1.47</v>
@@ -44958,7 +44991,7 @@
         <v>235</v>
       </c>
       <c r="P228" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q228">
         <v>12</v>
@@ -45045,10 +45078,10 @@
         <v>1.27</v>
       </c>
       <c r="AS228">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT228">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU228">
         <v>1.76</v>
@@ -45149,7 +45182,7 @@
         <v>96</v>
       </c>
       <c r="P229" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q229">
         <v>7</v>
@@ -45236,7 +45269,7 @@
         <v>0.8</v>
       </c>
       <c r="AS229">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT229">
         <v>1.07</v>
@@ -45427,10 +45460,10 @@
         <v>1.1</v>
       </c>
       <c r="AS230">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT230">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU230">
         <v>1.51</v>
@@ -45618,7 +45651,7 @@
         <v>0.3</v>
       </c>
       <c r="AS231">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT231">
         <v>0.79</v>
@@ -45809,7 +45842,7 @@
         <v>1.09</v>
       </c>
       <c r="AS232">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT232">
         <v>1.21</v>
@@ -46000,7 +46033,7 @@
         <v>1</v>
       </c>
       <c r="AS233">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT233">
         <v>1</v>
@@ -46104,7 +46137,7 @@
         <v>238</v>
       </c>
       <c r="P234" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q234">
         <v>4</v>
@@ -46958,7 +46991,7 @@
         <v>2.07</v>
       </c>
       <c r="AT238">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU238">
         <v>1.87</v>
@@ -47441,7 +47474,7 @@
         <v>96</v>
       </c>
       <c r="P241" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q241">
         <v>2</v>
@@ -47722,7 +47755,7 @@
         <v>2.36</v>
       </c>
       <c r="AT242">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU242">
         <v>1.93</v>
@@ -47823,7 +47856,7 @@
         <v>235</v>
       </c>
       <c r="P243" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q243">
         <v>3</v>
@@ -47913,7 +47946,7 @@
         <v>1.57</v>
       </c>
       <c r="AT243">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU243">
         <v>1.85</v>
@@ -48101,7 +48134,7 @@
         <v>1</v>
       </c>
       <c r="AS244">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT244">
         <v>1.07</v>
@@ -48292,10 +48325,10 @@
         <v>1.17</v>
       </c>
       <c r="AS245">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT245">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU245">
         <v>1.78</v>
@@ -48396,7 +48429,7 @@
         <v>246</v>
       </c>
       <c r="P246" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q246">
         <v>2</v>
@@ -48483,7 +48516,7 @@
         <v>0.55</v>
       </c>
       <c r="AS246">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT246">
         <v>0.79</v>
@@ -48674,10 +48707,10 @@
         <v>1.25</v>
       </c>
       <c r="AS247">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT247">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU247">
         <v>1.87</v>
@@ -48868,7 +48901,7 @@
         <v>1.93</v>
       </c>
       <c r="AT248">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU248">
         <v>2.04</v>
@@ -49056,10 +49089,10 @@
         <v>0.67</v>
       </c>
       <c r="AS249">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT249">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU249">
         <v>1.5</v>
@@ -49160,7 +49193,7 @@
         <v>249</v>
       </c>
       <c r="P250" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q250">
         <v>4</v>
@@ -49247,10 +49280,10 @@
         <v>1.33</v>
       </c>
       <c r="AS250">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT250">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU250">
         <v>1.58</v>
@@ -49351,7 +49384,7 @@
         <v>250</v>
       </c>
       <c r="P251" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q251">
         <v>5</v>
@@ -49438,10 +49471,10 @@
         <v>2.36</v>
       </c>
       <c r="AS251">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AT251">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AU251">
         <v>1.81</v>
@@ -49542,7 +49575,7 @@
         <v>251</v>
       </c>
       <c r="P252" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q252">
         <v>2</v>
@@ -49629,7 +49662,7 @@
         <v>0.75</v>
       </c>
       <c r="AS252">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT252">
         <v>0.79</v>
@@ -49733,7 +49766,7 @@
         <v>235</v>
       </c>
       <c r="P253" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q253">
         <v>3</v>
@@ -50306,7 +50339,7 @@
         <v>254</v>
       </c>
       <c r="P256" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -50497,7 +50530,7 @@
         <v>255</v>
       </c>
       <c r="P257" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q257">
         <v>8</v>
@@ -50688,7 +50721,7 @@
         <v>91</v>
       </c>
       <c r="P258" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q258">
         <v>6</v>
@@ -51070,7 +51103,7 @@
         <v>96</v>
       </c>
       <c r="P260" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q260">
         <v>5</v>
@@ -51261,7 +51294,7 @@
         <v>221</v>
       </c>
       <c r="P261" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q261">
         <v>6</v>
@@ -51452,7 +51485,7 @@
         <v>256</v>
       </c>
       <c r="P262" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q262">
         <v>9</v>
@@ -51539,10 +51572,10 @@
         <v>1.38</v>
       </c>
       <c r="AS262">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT262">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU262">
         <v>1.67</v>
@@ -51643,7 +51676,7 @@
         <v>257</v>
       </c>
       <c r="P263" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q263">
         <v>3</v>
@@ -51730,10 +51763,10 @@
         <v>2.17</v>
       </c>
       <c r="AS263">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT263">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AU263">
         <v>1.85</v>
@@ -51834,7 +51867,7 @@
         <v>107</v>
       </c>
       <c r="P264" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q264">
         <v>3</v>
@@ -51921,7 +51954,7 @@
         <v>0.92</v>
       </c>
       <c r="AS264">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT264">
         <v>1.07</v>
@@ -52025,7 +52058,7 @@
         <v>96</v>
       </c>
       <c r="P265" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q265">
         <v>4</v>
@@ -52112,10 +52145,10 @@
         <v>1.08</v>
       </c>
       <c r="AS265">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT265">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU265">
         <v>1.39</v>
@@ -52303,10 +52336,10 @@
         <v>1.38</v>
       </c>
       <c r="AS266">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT266">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AU266">
         <v>1.52</v>
@@ -52407,7 +52440,7 @@
         <v>258</v>
       </c>
       <c r="P267" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q267">
         <v>6</v>
@@ -52497,7 +52530,7 @@
         <v>2.36</v>
       </c>
       <c r="AT267">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU267">
         <v>1.95</v>
@@ -52688,7 +52721,7 @@
         <v>1.57</v>
       </c>
       <c r="AT268">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU268">
         <v>1.86</v>
@@ -52789,7 +52822,7 @@
         <v>260</v>
       </c>
       <c r="P269" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q269">
         <v>3</v>
@@ -52876,10 +52909,10 @@
         <v>0.92</v>
       </c>
       <c r="AS269">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT269">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU269">
         <v>1.56</v>
@@ -52980,7 +53013,7 @@
         <v>261</v>
       </c>
       <c r="P270" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q270">
         <v>7</v>
@@ -53067,10 +53100,10 @@
         <v>1.54</v>
       </c>
       <c r="AS270">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AT270">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU270">
         <v>1.82</v>
@@ -53258,10 +53291,10 @@
         <v>1.46</v>
       </c>
       <c r="AS271">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT271">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU271">
         <v>1.81</v>
@@ -53553,7 +53586,7 @@
         <v>171</v>
       </c>
       <c r="P273" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q273">
         <v>5</v>
@@ -53744,7 +53777,7 @@
         <v>86</v>
       </c>
       <c r="P274" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q274">
         <v>7</v>
@@ -53935,7 +53968,7 @@
         <v>264</v>
       </c>
       <c r="P275" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q275">
         <v>6</v>
@@ -54317,7 +54350,7 @@
         <v>92</v>
       </c>
       <c r="P277" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q277">
         <v>3</v>
@@ -55081,7 +55114,7 @@
         <v>268</v>
       </c>
       <c r="P281" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q281">
         <v>8</v>
@@ -55222,6 +55255,1725 @@
         <v>10</v>
       </c>
       <c r="BK281">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="282" spans="1:63">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>2604263</v>
+      </c>
+      <c r="C282" t="s">
+        <v>63</v>
+      </c>
+      <c r="D282" t="s">
+        <v>64</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45009.625</v>
+      </c>
+      <c r="F282">
+        <v>29</v>
+      </c>
+      <c r="G282" t="s">
+        <v>77</v>
+      </c>
+      <c r="H282" t="s">
+        <v>75</v>
+      </c>
+      <c r="I282">
+        <v>1</v>
+      </c>
+      <c r="J282">
+        <v>1</v>
+      </c>
+      <c r="K282">
+        <v>2</v>
+      </c>
+      <c r="L282">
+        <v>2</v>
+      </c>
+      <c r="M282">
+        <v>2</v>
+      </c>
+      <c r="N282">
+        <v>4</v>
+      </c>
+      <c r="O282" t="s">
+        <v>269</v>
+      </c>
+      <c r="P282" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q282">
+        <v>7</v>
+      </c>
+      <c r="R282">
+        <v>6</v>
+      </c>
+      <c r="S282">
+        <v>13</v>
+      </c>
+      <c r="T282">
+        <v>2.7</v>
+      </c>
+      <c r="U282">
+        <v>2.15</v>
+      </c>
+      <c r="V282">
+        <v>3.6</v>
+      </c>
+      <c r="W282">
+        <v>1.36</v>
+      </c>
+      <c r="X282">
+        <v>3</v>
+      </c>
+      <c r="Y282">
+        <v>2.62</v>
+      </c>
+      <c r="Z282">
+        <v>1.44</v>
+      </c>
+      <c r="AA282">
+        <v>6</v>
+      </c>
+      <c r="AB282">
+        <v>1.11</v>
+      </c>
+      <c r="AC282">
+        <v>2.25</v>
+      </c>
+      <c r="AD282">
+        <v>3.2</v>
+      </c>
+      <c r="AE282">
+        <v>2.75</v>
+      </c>
+      <c r="AF282">
+        <v>1.05</v>
+      </c>
+      <c r="AG282">
+        <v>9</v>
+      </c>
+      <c r="AH282">
+        <v>1.29</v>
+      </c>
+      <c r="AI282">
+        <v>3.5</v>
+      </c>
+      <c r="AJ282">
+        <v>1.8</v>
+      </c>
+      <c r="AK282">
+        <v>1.91</v>
+      </c>
+      <c r="AL282">
+        <v>1.67</v>
+      </c>
+      <c r="AM282">
+        <v>2.1</v>
+      </c>
+      <c r="AN282">
+        <v>1.28</v>
+      </c>
+      <c r="AO282">
+        <v>1.25</v>
+      </c>
+      <c r="AP282">
+        <v>1.68</v>
+      </c>
+      <c r="AQ282">
+        <v>1.14</v>
+      </c>
+      <c r="AR282">
+        <v>1.36</v>
+      </c>
+      <c r="AS282">
+        <v>1.13</v>
+      </c>
+      <c r="AT282">
+        <v>1.33</v>
+      </c>
+      <c r="AU282">
+        <v>1.7</v>
+      </c>
+      <c r="AV282">
+        <v>1.36</v>
+      </c>
+      <c r="AW282">
+        <v>3.06</v>
+      </c>
+      <c r="AX282">
+        <v>1.52</v>
+      </c>
+      <c r="AY282">
+        <v>8.1</v>
+      </c>
+      <c r="AZ282">
+        <v>3.08</v>
+      </c>
+      <c r="BA282">
+        <v>1.17</v>
+      </c>
+      <c r="BB282">
+        <v>1.26</v>
+      </c>
+      <c r="BC282">
+        <v>1.55</v>
+      </c>
+      <c r="BD282">
+        <v>1.85</v>
+      </c>
+      <c r="BE282">
+        <v>2.25</v>
+      </c>
+      <c r="BF282">
+        <v>7</v>
+      </c>
+      <c r="BG282">
+        <v>6</v>
+      </c>
+      <c r="BH282">
+        <v>8</v>
+      </c>
+      <c r="BI282">
+        <v>5</v>
+      </c>
+      <c r="BJ282">
+        <v>15</v>
+      </c>
+      <c r="BK282">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="283" spans="1:63">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>2604258</v>
+      </c>
+      <c r="C283" t="s">
+        <v>63</v>
+      </c>
+      <c r="D283" t="s">
+        <v>64</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45010.41666666666</v>
+      </c>
+      <c r="F283">
+        <v>29</v>
+      </c>
+      <c r="G283" t="s">
+        <v>66</v>
+      </c>
+      <c r="H283" t="s">
+        <v>79</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>2</v>
+      </c>
+      <c r="K283">
+        <v>2</v>
+      </c>
+      <c r="L283">
+        <v>1</v>
+      </c>
+      <c r="M283">
+        <v>3</v>
+      </c>
+      <c r="N283">
+        <v>4</v>
+      </c>
+      <c r="O283" t="s">
+        <v>86</v>
+      </c>
+      <c r="P283" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q283">
+        <v>3</v>
+      </c>
+      <c r="R283">
+        <v>4</v>
+      </c>
+      <c r="S283">
+        <v>7</v>
+      </c>
+      <c r="T283">
+        <v>3.5</v>
+      </c>
+      <c r="U283">
+        <v>2.15</v>
+      </c>
+      <c r="V283">
+        <v>2.75</v>
+      </c>
+      <c r="W283">
+        <v>1.35</v>
+      </c>
+      <c r="X283">
+        <v>2.95</v>
+      </c>
+      <c r="Y283">
+        <v>2.6</v>
+      </c>
+      <c r="Z283">
+        <v>1.44</v>
+      </c>
+      <c r="AA283">
+        <v>6</v>
+      </c>
+      <c r="AB283">
+        <v>1.1</v>
+      </c>
+      <c r="AC283">
+        <v>3.05</v>
+      </c>
+      <c r="AD283">
+        <v>3.3</v>
+      </c>
+      <c r="AE283">
+        <v>2.15</v>
+      </c>
+      <c r="AF283">
+        <v>1.03</v>
+      </c>
+      <c r="AG283">
+        <v>13.5</v>
+      </c>
+      <c r="AH283">
+        <v>1.25</v>
+      </c>
+      <c r="AI283">
+        <v>3.6</v>
+      </c>
+      <c r="AJ283">
+        <v>1.7</v>
+      </c>
+      <c r="AK283">
+        <v>1.95</v>
+      </c>
+      <c r="AL283">
+        <v>1.62</v>
+      </c>
+      <c r="AM283">
+        <v>2.2</v>
+      </c>
+      <c r="AN283">
+        <v>1.7</v>
+      </c>
+      <c r="AO283">
+        <v>1.32</v>
+      </c>
+      <c r="AP283">
+        <v>1.28</v>
+      </c>
+      <c r="AQ283">
+        <v>0.93</v>
+      </c>
+      <c r="AR283">
+        <v>1.36</v>
+      </c>
+      <c r="AS283">
+        <v>0.87</v>
+      </c>
+      <c r="AT283">
+        <v>1.47</v>
+      </c>
+      <c r="AU283">
+        <v>1.57</v>
+      </c>
+      <c r="AV283">
+        <v>1.44</v>
+      </c>
+      <c r="AW283">
+        <v>3.01</v>
+      </c>
+      <c r="AX283">
+        <v>2.35</v>
+      </c>
+      <c r="AY283">
+        <v>7.3</v>
+      </c>
+      <c r="AZ283">
+        <v>1.84</v>
+      </c>
+      <c r="BA283">
+        <v>1.44</v>
+      </c>
+      <c r="BB283">
+        <v>1.73</v>
+      </c>
+      <c r="BC283">
+        <v>2.2</v>
+      </c>
+      <c r="BD283">
+        <v>3.1</v>
+      </c>
+      <c r="BE283">
+        <v>3.74</v>
+      </c>
+      <c r="BF283">
+        <v>4</v>
+      </c>
+      <c r="BG283">
+        <v>6</v>
+      </c>
+      <c r="BH283">
+        <v>6</v>
+      </c>
+      <c r="BI283">
+        <v>5</v>
+      </c>
+      <c r="BJ283">
+        <v>10</v>
+      </c>
+      <c r="BK283">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="284" spans="1:63">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>2604266</v>
+      </c>
+      <c r="C284" t="s">
+        <v>63</v>
+      </c>
+      <c r="D284" t="s">
+        <v>64</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45010.41666666666</v>
+      </c>
+      <c r="F284">
+        <v>29</v>
+      </c>
+      <c r="G284" t="s">
+        <v>84</v>
+      </c>
+      <c r="H284" t="s">
+        <v>81</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>1</v>
+      </c>
+      <c r="K284">
+        <v>1</v>
+      </c>
+      <c r="L284">
+        <v>1</v>
+      </c>
+      <c r="M284">
+        <v>2</v>
+      </c>
+      <c r="N284">
+        <v>3</v>
+      </c>
+      <c r="O284" t="s">
+        <v>270</v>
+      </c>
+      <c r="P284" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q284">
+        <v>7</v>
+      </c>
+      <c r="R284">
+        <v>7</v>
+      </c>
+      <c r="S284">
+        <v>14</v>
+      </c>
+      <c r="T284">
+        <v>4.15</v>
+      </c>
+      <c r="U284">
+        <v>2.29</v>
+      </c>
+      <c r="V284">
+        <v>2.34</v>
+      </c>
+      <c r="W284">
+        <v>1.3</v>
+      </c>
+      <c r="X284">
+        <v>3.34</v>
+      </c>
+      <c r="Y284">
+        <v>2.32</v>
+      </c>
+      <c r="Z284">
+        <v>1.57</v>
+      </c>
+      <c r="AA284">
+        <v>5.3</v>
+      </c>
+      <c r="AB284">
+        <v>1.14</v>
+      </c>
+      <c r="AC284">
+        <v>3.5</v>
+      </c>
+      <c r="AD284">
+        <v>3.55</v>
+      </c>
+      <c r="AE284">
+        <v>1.95</v>
+      </c>
+      <c r="AF284">
+        <v>1.03</v>
+      </c>
+      <c r="AG284">
+        <v>16.25</v>
+      </c>
+      <c r="AH284">
+        <v>1.16</v>
+      </c>
+      <c r="AI284">
+        <v>4.5</v>
+      </c>
+      <c r="AJ284">
+        <v>1.57</v>
+      </c>
+      <c r="AK284">
+        <v>2.15</v>
+      </c>
+      <c r="AL284">
+        <v>1.55</v>
+      </c>
+      <c r="AM284">
+        <v>2.35</v>
+      </c>
+      <c r="AN284">
+        <v>1.87</v>
+      </c>
+      <c r="AO284">
+        <v>1.24</v>
+      </c>
+      <c r="AP284">
+        <v>1.24</v>
+      </c>
+      <c r="AQ284">
+        <v>1.71</v>
+      </c>
+      <c r="AR284">
+        <v>2.08</v>
+      </c>
+      <c r="AS284">
+        <v>1.6</v>
+      </c>
+      <c r="AT284">
+        <v>2.14</v>
+      </c>
+      <c r="AU284">
+        <v>1.72</v>
+      </c>
+      <c r="AV284">
+        <v>1.7</v>
+      </c>
+      <c r="AW284">
+        <v>3.42</v>
+      </c>
+      <c r="AX284">
+        <v>2.75</v>
+      </c>
+      <c r="AY284">
+        <v>7.8</v>
+      </c>
+      <c r="AZ284">
+        <v>1.63</v>
+      </c>
+      <c r="BA284">
+        <v>1.24</v>
+      </c>
+      <c r="BB284">
+        <v>1.55</v>
+      </c>
+      <c r="BC284">
+        <v>1.85</v>
+      </c>
+      <c r="BD284">
+        <v>2.3</v>
+      </c>
+      <c r="BE284">
+        <v>3.3</v>
+      </c>
+      <c r="BF284">
+        <v>9</v>
+      </c>
+      <c r="BG284">
+        <v>8</v>
+      </c>
+      <c r="BH284">
+        <v>13</v>
+      </c>
+      <c r="BI284">
+        <v>9</v>
+      </c>
+      <c r="BJ284">
+        <v>22</v>
+      </c>
+      <c r="BK284">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="285" spans="1:63">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>2604260</v>
+      </c>
+      <c r="C285" t="s">
+        <v>63</v>
+      </c>
+      <c r="D285" t="s">
+        <v>64</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45010.41666666666</v>
+      </c>
+      <c r="F285">
+        <v>29</v>
+      </c>
+      <c r="G285" t="s">
+        <v>68</v>
+      </c>
+      <c r="H285" t="s">
+        <v>65</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>1</v>
+      </c>
+      <c r="K285">
+        <v>1</v>
+      </c>
+      <c r="L285">
+        <v>0</v>
+      </c>
+      <c r="M285">
+        <v>2</v>
+      </c>
+      <c r="N285">
+        <v>2</v>
+      </c>
+      <c r="O285" t="s">
+        <v>96</v>
+      </c>
+      <c r="P285" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q285">
+        <v>4</v>
+      </c>
+      <c r="R285">
+        <v>3</v>
+      </c>
+      <c r="S285">
+        <v>7</v>
+      </c>
+      <c r="T285">
+        <v>2.84</v>
+      </c>
+      <c r="U285">
+        <v>2.41</v>
+      </c>
+      <c r="V285">
+        <v>3.54</v>
+      </c>
+      <c r="W285">
+        <v>1.33</v>
+      </c>
+      <c r="X285">
+        <v>3</v>
+      </c>
+      <c r="Y285">
+        <v>2.52</v>
+      </c>
+      <c r="Z285">
+        <v>1.54</v>
+      </c>
+      <c r="AA285">
+        <v>5.7</v>
+      </c>
+      <c r="AB285">
+        <v>1.12</v>
+      </c>
+      <c r="AC285">
+        <v>2.3</v>
+      </c>
+      <c r="AD285">
+        <v>3.3</v>
+      </c>
+      <c r="AE285">
+        <v>2.85</v>
+      </c>
+      <c r="AF285">
+        <v>1.02</v>
+      </c>
+      <c r="AG285">
+        <v>12</v>
+      </c>
+      <c r="AH285">
+        <v>1.22</v>
+      </c>
+      <c r="AI285">
+        <v>3.8</v>
+      </c>
+      <c r="AJ285">
+        <v>1.61</v>
+      </c>
+      <c r="AK285">
+        <v>2.05</v>
+      </c>
+      <c r="AL285">
+        <v>1.57</v>
+      </c>
+      <c r="AM285">
+        <v>2.25</v>
+      </c>
+      <c r="AN285">
+        <v>1.37</v>
+      </c>
+      <c r="AO285">
+        <v>1.26</v>
+      </c>
+      <c r="AP285">
+        <v>1.62</v>
+      </c>
+      <c r="AQ285">
+        <v>2.64</v>
+      </c>
+      <c r="AR285">
+        <v>1.36</v>
+      </c>
+      <c r="AS285">
+        <v>2.47</v>
+      </c>
+      <c r="AT285">
+        <v>1.47</v>
+      </c>
+      <c r="AU285">
+        <v>1.85</v>
+      </c>
+      <c r="AV285">
+        <v>1.56</v>
+      </c>
+      <c r="AW285">
+        <v>3.41</v>
+      </c>
+      <c r="AX285">
+        <v>1.7</v>
+      </c>
+      <c r="AY285">
+        <v>7.8</v>
+      </c>
+      <c r="AZ285">
+        <v>2.57</v>
+      </c>
+      <c r="BA285">
+        <v>1.18</v>
+      </c>
+      <c r="BB285">
+        <v>1.27</v>
+      </c>
+      <c r="BC285">
+        <v>1.57</v>
+      </c>
+      <c r="BD285">
+        <v>1.91</v>
+      </c>
+      <c r="BE285">
+        <v>2.4</v>
+      </c>
+      <c r="BF285">
+        <v>2</v>
+      </c>
+      <c r="BG285">
+        <v>5</v>
+      </c>
+      <c r="BH285">
+        <v>5</v>
+      </c>
+      <c r="BI285">
+        <v>5</v>
+      </c>
+      <c r="BJ285">
+        <v>7</v>
+      </c>
+      <c r="BK285">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="286" spans="1:63">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>2604261</v>
+      </c>
+      <c r="C286" t="s">
+        <v>63</v>
+      </c>
+      <c r="D286" t="s">
+        <v>64</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45010.41666666666</v>
+      </c>
+      <c r="F286">
+        <v>29</v>
+      </c>
+      <c r="G286" t="s">
+        <v>69</v>
+      </c>
+      <c r="H286" t="s">
+        <v>74</v>
+      </c>
+      <c r="I286">
+        <v>1</v>
+      </c>
+      <c r="J286">
+        <v>2</v>
+      </c>
+      <c r="K286">
+        <v>3</v>
+      </c>
+      <c r="L286">
+        <v>1</v>
+      </c>
+      <c r="M286">
+        <v>3</v>
+      </c>
+      <c r="N286">
+        <v>4</v>
+      </c>
+      <c r="O286" t="s">
+        <v>127</v>
+      </c>
+      <c r="P286" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q286">
+        <v>4</v>
+      </c>
+      <c r="R286">
+        <v>6</v>
+      </c>
+      <c r="S286">
+        <v>10</v>
+      </c>
+      <c r="T286">
+        <v>3.8</v>
+      </c>
+      <c r="U286">
+        <v>2.25</v>
+      </c>
+      <c r="V286">
+        <v>2.5</v>
+      </c>
+      <c r="W286">
+        <v>1.35</v>
+      </c>
+      <c r="X286">
+        <v>2.95</v>
+      </c>
+      <c r="Y286">
+        <v>2.6</v>
+      </c>
+      <c r="Z286">
+        <v>1.44</v>
+      </c>
+      <c r="AA286">
+        <v>6.45</v>
+      </c>
+      <c r="AB286">
+        <v>1.09</v>
+      </c>
+      <c r="AC286">
+        <v>2.95</v>
+      </c>
+      <c r="AD286">
+        <v>3.2</v>
+      </c>
+      <c r="AE286">
+        <v>2.25</v>
+      </c>
+      <c r="AF286">
+        <v>1.04</v>
+      </c>
+      <c r="AG286">
+        <v>13.25</v>
+      </c>
+      <c r="AH286">
+        <v>1.25</v>
+      </c>
+      <c r="AI286">
+        <v>3.6</v>
+      </c>
+      <c r="AJ286">
+        <v>1.7</v>
+      </c>
+      <c r="AK286">
+        <v>1.95</v>
+      </c>
+      <c r="AL286">
+        <v>1.65</v>
+      </c>
+      <c r="AM286">
+        <v>2.1</v>
+      </c>
+      <c r="AN286">
+        <v>1.75</v>
+      </c>
+      <c r="AO286">
+        <v>1.22</v>
+      </c>
+      <c r="AP286">
+        <v>1.3</v>
+      </c>
+      <c r="AQ286">
+        <v>1.46</v>
+      </c>
+      <c r="AR286">
+        <v>1.64</v>
+      </c>
+      <c r="AS286">
+        <v>1.36</v>
+      </c>
+      <c r="AT286">
+        <v>1.73</v>
+      </c>
+      <c r="AU286">
+        <v>1.54</v>
+      </c>
+      <c r="AV286">
+        <v>1.81</v>
+      </c>
+      <c r="AW286">
+        <v>3.35</v>
+      </c>
+      <c r="AX286">
+        <v>2.09</v>
+      </c>
+      <c r="AY286">
+        <v>7.5</v>
+      </c>
+      <c r="AZ286">
+        <v>2.03</v>
+      </c>
+      <c r="BA286">
+        <v>1.2</v>
+      </c>
+      <c r="BB286">
+        <v>1.48</v>
+      </c>
+      <c r="BC286">
+        <v>1.73</v>
+      </c>
+      <c r="BD286">
+        <v>2.1</v>
+      </c>
+      <c r="BE286">
+        <v>2.7</v>
+      </c>
+      <c r="BF286">
+        <v>8</v>
+      </c>
+      <c r="BG286">
+        <v>8</v>
+      </c>
+      <c r="BH286">
+        <v>6</v>
+      </c>
+      <c r="BI286">
+        <v>5</v>
+      </c>
+      <c r="BJ286">
+        <v>14</v>
+      </c>
+      <c r="BK286">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="287" spans="1:63">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>2604262</v>
+      </c>
+      <c r="C287" t="s">
+        <v>63</v>
+      </c>
+      <c r="D287" t="s">
+        <v>64</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45010.41666666666</v>
+      </c>
+      <c r="F287">
+        <v>29</v>
+      </c>
+      <c r="G287" t="s">
+        <v>78</v>
+      </c>
+      <c r="H287" t="s">
+        <v>83</v>
+      </c>
+      <c r="I287">
+        <v>1</v>
+      </c>
+      <c r="J287">
+        <v>1</v>
+      </c>
+      <c r="K287">
+        <v>2</v>
+      </c>
+      <c r="L287">
+        <v>3</v>
+      </c>
+      <c r="M287">
+        <v>2</v>
+      </c>
+      <c r="N287">
+        <v>5</v>
+      </c>
+      <c r="O287" t="s">
+        <v>271</v>
+      </c>
+      <c r="P287" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q287">
+        <v>8</v>
+      </c>
+      <c r="R287">
+        <v>2</v>
+      </c>
+      <c r="S287">
+        <v>10</v>
+      </c>
+      <c r="T287">
+        <v>3.68</v>
+      </c>
+      <c r="U287">
+        <v>2.15</v>
+      </c>
+      <c r="V287">
+        <v>2.95</v>
+      </c>
+      <c r="W287">
+        <v>1.37</v>
+      </c>
+      <c r="X287">
+        <v>2.85</v>
+      </c>
+      <c r="Y287">
+        <v>2.7</v>
+      </c>
+      <c r="Z287">
+        <v>1.44</v>
+      </c>
+      <c r="AA287">
+        <v>6.45</v>
+      </c>
+      <c r="AB287">
+        <v>1.09</v>
+      </c>
+      <c r="AC287">
+        <v>2.9</v>
+      </c>
+      <c r="AD287">
+        <v>3.25</v>
+      </c>
+      <c r="AE287">
+        <v>2.25</v>
+      </c>
+      <c r="AF287">
+        <v>1.05</v>
+      </c>
+      <c r="AG287">
+        <v>9.75</v>
+      </c>
+      <c r="AH287">
+        <v>1.28</v>
+      </c>
+      <c r="AI287">
+        <v>3.5</v>
+      </c>
+      <c r="AJ287">
+        <v>1.75</v>
+      </c>
+      <c r="AK287">
+        <v>1.87</v>
+      </c>
+      <c r="AL287">
+        <v>1.68</v>
+      </c>
+      <c r="AM287">
+        <v>2.1</v>
+      </c>
+      <c r="AN287">
+        <v>1.6</v>
+      </c>
+      <c r="AO287">
+        <v>1.3</v>
+      </c>
+      <c r="AP287">
+        <v>1.37</v>
+      </c>
+      <c r="AQ287">
+        <v>0.86</v>
+      </c>
+      <c r="AR287">
+        <v>1.21</v>
+      </c>
+      <c r="AS287">
+        <v>1</v>
+      </c>
+      <c r="AT287">
+        <v>1.13</v>
+      </c>
+      <c r="AU287">
+        <v>1.61</v>
+      </c>
+      <c r="AV287">
+        <v>1.6</v>
+      </c>
+      <c r="AW287">
+        <v>3.21</v>
+      </c>
+      <c r="AX287">
+        <v>2.31</v>
+      </c>
+      <c r="AY287">
+        <v>7.6</v>
+      </c>
+      <c r="AZ287">
+        <v>1.85</v>
+      </c>
+      <c r="BA287">
+        <v>1.19</v>
+      </c>
+      <c r="BB287">
+        <v>1.43</v>
+      </c>
+      <c r="BC287">
+        <v>1.7</v>
+      </c>
+      <c r="BD287">
+        <v>2.1</v>
+      </c>
+      <c r="BE287">
+        <v>2.63</v>
+      </c>
+      <c r="BF287">
+        <v>7</v>
+      </c>
+      <c r="BG287">
+        <v>4</v>
+      </c>
+      <c r="BH287">
+        <v>8</v>
+      </c>
+      <c r="BI287">
+        <v>4</v>
+      </c>
+      <c r="BJ287">
+        <v>15</v>
+      </c>
+      <c r="BK287">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:63">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>2604264</v>
+      </c>
+      <c r="C288" t="s">
+        <v>63</v>
+      </c>
+      <c r="D288" t="s">
+        <v>64</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45010.41666666666</v>
+      </c>
+      <c r="F288">
+        <v>29</v>
+      </c>
+      <c r="G288" t="s">
+        <v>70</v>
+      </c>
+      <c r="H288" t="s">
+        <v>76</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <v>1</v>
+      </c>
+      <c r="K288">
+        <v>1</v>
+      </c>
+      <c r="L288">
+        <v>1</v>
+      </c>
+      <c r="M288">
+        <v>2</v>
+      </c>
+      <c r="N288">
+        <v>3</v>
+      </c>
+      <c r="O288" t="s">
+        <v>272</v>
+      </c>
+      <c r="P288" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q288">
+        <v>6</v>
+      </c>
+      <c r="R288">
+        <v>2</v>
+      </c>
+      <c r="S288">
+        <v>8</v>
+      </c>
+      <c r="T288">
+        <v>1.68</v>
+      </c>
+      <c r="U288">
+        <v>2.7</v>
+      </c>
+      <c r="V288">
+        <v>7</v>
+      </c>
+      <c r="W288">
+        <v>1.24</v>
+      </c>
+      <c r="X288">
+        <v>3.7</v>
+      </c>
+      <c r="Y288">
+        <v>2.17</v>
+      </c>
+      <c r="Z288">
+        <v>1.63</v>
+      </c>
+      <c r="AA288">
+        <v>4.7</v>
+      </c>
+      <c r="AB288">
+        <v>1.16</v>
+      </c>
+      <c r="AC288">
+        <v>1.3</v>
+      </c>
+      <c r="AD288">
+        <v>5.5</v>
+      </c>
+      <c r="AE288">
+        <v>8.5</v>
+      </c>
+      <c r="AF288">
+        <v>1.01</v>
+      </c>
+      <c r="AG288">
+        <v>23.5</v>
+      </c>
+      <c r="AH288">
+        <v>1.13</v>
+      </c>
+      <c r="AI288">
+        <v>5</v>
+      </c>
+      <c r="AJ288">
+        <v>1.78</v>
+      </c>
+      <c r="AK288">
+        <v>2.03</v>
+      </c>
+      <c r="AL288">
+        <v>1.82</v>
+      </c>
+      <c r="AM288">
+        <v>1.88</v>
+      </c>
+      <c r="AN288">
+        <v>1.07</v>
+      </c>
+      <c r="AO288">
+        <v>1.11</v>
+      </c>
+      <c r="AP288">
+        <v>3.5</v>
+      </c>
+      <c r="AQ288">
+        <v>1.64</v>
+      </c>
+      <c r="AR288">
+        <v>0.57</v>
+      </c>
+      <c r="AS288">
+        <v>1.53</v>
+      </c>
+      <c r="AT288">
+        <v>0.73</v>
+      </c>
+      <c r="AU288">
+        <v>1.82</v>
+      </c>
+      <c r="AV288">
+        <v>1.37</v>
+      </c>
+      <c r="AW288">
+        <v>3.19</v>
+      </c>
+      <c r="AX288">
+        <v>1.16</v>
+      </c>
+      <c r="AY288">
+        <v>11</v>
+      </c>
+      <c r="AZ288">
+        <v>6.65</v>
+      </c>
+      <c r="BA288">
+        <v>1.26</v>
+      </c>
+      <c r="BB288">
+        <v>1.57</v>
+      </c>
+      <c r="BC288">
+        <v>1.91</v>
+      </c>
+      <c r="BD288">
+        <v>2.4</v>
+      </c>
+      <c r="BE288">
+        <v>3.5</v>
+      </c>
+      <c r="BF288">
+        <v>6</v>
+      </c>
+      <c r="BG288">
+        <v>5</v>
+      </c>
+      <c r="BH288">
+        <v>12</v>
+      </c>
+      <c r="BI288">
+        <v>4</v>
+      </c>
+      <c r="BJ288">
+        <v>18</v>
+      </c>
+      <c r="BK288">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="289" spans="1:63">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>2604259</v>
+      </c>
+      <c r="C289" t="s">
+        <v>63</v>
+      </c>
+      <c r="D289" t="s">
+        <v>64</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45011.33333333334</v>
+      </c>
+      <c r="F289">
+        <v>29</v>
+      </c>
+      <c r="G289" t="s">
+        <v>80</v>
+      </c>
+      <c r="H289" t="s">
+        <v>82</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>3</v>
+      </c>
+      <c r="K289">
+        <v>3</v>
+      </c>
+      <c r="L289">
+        <v>1</v>
+      </c>
+      <c r="M289">
+        <v>4</v>
+      </c>
+      <c r="N289">
+        <v>5</v>
+      </c>
+      <c r="O289" t="s">
+        <v>273</v>
+      </c>
+      <c r="P289" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q289">
+        <v>9</v>
+      </c>
+      <c r="R289">
+        <v>3</v>
+      </c>
+      <c r="S289">
+        <v>12</v>
+      </c>
+      <c r="T289">
+        <v>2.3</v>
+      </c>
+      <c r="U289">
+        <v>2.2</v>
+      </c>
+      <c r="V289">
+        <v>4.2</v>
+      </c>
+      <c r="W289">
+        <v>1.34</v>
+      </c>
+      <c r="X289">
+        <v>3</v>
+      </c>
+      <c r="Y289">
+        <v>2.55</v>
+      </c>
+      <c r="Z289">
+        <v>1.44</v>
+      </c>
+      <c r="AA289">
+        <v>6.25</v>
+      </c>
+      <c r="AB289">
+        <v>1.1</v>
+      </c>
+      <c r="AC289">
+        <v>1.78</v>
+      </c>
+      <c r="AD289">
+        <v>3.45</v>
+      </c>
+      <c r="AE289">
+        <v>3.7</v>
+      </c>
+      <c r="AF289">
+        <v>1.04</v>
+      </c>
+      <c r="AG289">
+        <v>10</v>
+      </c>
+      <c r="AH289">
+        <v>1.25</v>
+      </c>
+      <c r="AI289">
+        <v>3.5</v>
+      </c>
+      <c r="AJ289">
+        <v>1.88</v>
+      </c>
+      <c r="AK289">
+        <v>1.92</v>
+      </c>
+      <c r="AL289">
+        <v>1.75</v>
+      </c>
+      <c r="AM289">
+        <v>1.93</v>
+      </c>
+      <c r="AN289">
+        <v>1.22</v>
+      </c>
+      <c r="AO289">
+        <v>1.29</v>
+      </c>
+      <c r="AP289">
+        <v>2</v>
+      </c>
+      <c r="AQ289">
+        <v>1.64</v>
+      </c>
+      <c r="AR289">
+        <v>0.85</v>
+      </c>
+      <c r="AS289">
+        <v>1.53</v>
+      </c>
+      <c r="AT289">
+        <v>1</v>
+      </c>
+      <c r="AU289">
+        <v>1.78</v>
+      </c>
+      <c r="AV289">
+        <v>1.42</v>
+      </c>
+      <c r="AW289">
+        <v>3.2</v>
+      </c>
+      <c r="AX289">
+        <v>1.44</v>
+      </c>
+      <c r="AY289">
+        <v>10.75</v>
+      </c>
+      <c r="AZ289">
+        <v>3.13</v>
+      </c>
+      <c r="BA289">
+        <v>1.2</v>
+      </c>
+      <c r="BB289">
+        <v>1.48</v>
+      </c>
+      <c r="BC289">
+        <v>1.73</v>
+      </c>
+      <c r="BD289">
+        <v>2.1</v>
+      </c>
+      <c r="BE289">
+        <v>2.7</v>
+      </c>
+      <c r="BF289">
+        <v>3</v>
+      </c>
+      <c r="BG289">
+        <v>7</v>
+      </c>
+      <c r="BH289">
+        <v>11</v>
+      </c>
+      <c r="BI289">
+        <v>4</v>
+      </c>
+      <c r="BJ289">
+        <v>14</v>
+      </c>
+      <c r="BK289">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="290" spans="1:63">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>2604265</v>
+      </c>
+      <c r="C290" t="s">
+        <v>63</v>
+      </c>
+      <c r="D290" t="s">
+        <v>64</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45011.375</v>
+      </c>
+      <c r="F290">
+        <v>29</v>
+      </c>
+      <c r="G290" t="s">
+        <v>73</v>
+      </c>
+      <c r="H290" t="s">
+        <v>67</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="K290">
+        <v>0</v>
+      </c>
+      <c r="L290">
+        <v>2</v>
+      </c>
+      <c r="M290">
+        <v>0</v>
+      </c>
+      <c r="N290">
+        <v>2</v>
+      </c>
+      <c r="O290" t="s">
+        <v>274</v>
+      </c>
+      <c r="P290" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q290">
+        <v>8</v>
+      </c>
+      <c r="R290">
+        <v>8</v>
+      </c>
+      <c r="S290">
+        <v>16</v>
+      </c>
+      <c r="T290">
+        <v>3.3</v>
+      </c>
+      <c r="U290">
+        <v>2.05</v>
+      </c>
+      <c r="V290">
+        <v>2.95</v>
+      </c>
+      <c r="W290">
+        <v>1.38</v>
+      </c>
+      <c r="X290">
+        <v>2.8</v>
+      </c>
+      <c r="Y290">
+        <v>2.7</v>
+      </c>
+      <c r="Z290">
+        <v>1.41</v>
+      </c>
+      <c r="AA290">
+        <v>6.75</v>
+      </c>
+      <c r="AB290">
+        <v>1.09</v>
+      </c>
+      <c r="AC290">
+        <v>2.55</v>
+      </c>
+      <c r="AD290">
+        <v>3.2</v>
+      </c>
+      <c r="AE290">
+        <v>2.4</v>
+      </c>
+      <c r="AF290">
+        <v>1.05</v>
+      </c>
+      <c r="AG290">
+        <v>9.25</v>
+      </c>
+      <c r="AH290">
+        <v>1.28</v>
+      </c>
+      <c r="AI290">
+        <v>3.4</v>
+      </c>
+      <c r="AJ290">
+        <v>1.75</v>
+      </c>
+      <c r="AK290">
+        <v>1.95</v>
+      </c>
+      <c r="AL290">
+        <v>1.68</v>
+      </c>
+      <c r="AM290">
+        <v>2</v>
+      </c>
+      <c r="AN290">
+        <v>1.53</v>
+      </c>
+      <c r="AO290">
+        <v>1.31</v>
+      </c>
+      <c r="AP290">
+        <v>1.41</v>
+      </c>
+      <c r="AQ290">
+        <v>1.08</v>
+      </c>
+      <c r="AR290">
+        <v>1.43</v>
+      </c>
+      <c r="AS290">
+        <v>1.21</v>
+      </c>
+      <c r="AT290">
+        <v>1.33</v>
+      </c>
+      <c r="AU290">
+        <v>1.42</v>
+      </c>
+      <c r="AV290">
+        <v>1.66</v>
+      </c>
+      <c r="AW290">
+        <v>3.08</v>
+      </c>
+      <c r="AX290">
+        <v>2.04</v>
+      </c>
+      <c r="AY290">
+        <v>7.6</v>
+      </c>
+      <c r="AZ290">
+        <v>2.07</v>
+      </c>
+      <c r="BA290">
+        <v>0</v>
+      </c>
+      <c r="BB290">
+        <v>1.24</v>
+      </c>
+      <c r="BC290">
+        <v>1.5</v>
+      </c>
+      <c r="BD290">
+        <v>1.8</v>
+      </c>
+      <c r="BE290">
+        <v>2.25</v>
+      </c>
+      <c r="BF290">
+        <v>4</v>
+      </c>
+      <c r="BG290">
+        <v>6</v>
+      </c>
+      <c r="BH290">
+        <v>5</v>
+      </c>
+      <c r="BI290">
+        <v>8</v>
+      </c>
+      <c r="BJ290">
+        <v>9</v>
+      </c>
+      <c r="BK290">
         <v>14</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="402">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -841,6 +841,9 @@
     <t>['89', '90+4']</t>
   </si>
   <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
     <t>['7', '10', '23', '26', '82']</t>
   </si>
   <si>
@@ -926,9 +929,6 @@
   </si>
   <si>
     <t>['7', '31']</t>
-  </si>
-  <si>
-    <t>['90+1']</t>
   </si>
   <si>
     <t>['56', '90+1']</t>
@@ -1581,7 +1581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK290"/>
+  <dimension ref="A1:BK291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2589,7 +2589,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2780,7 +2780,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AT9">
         <v>1.13</v>
@@ -3353,7 +3353,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3735,7 +3735,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3926,7 +3926,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -4117,7 +4117,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -4881,7 +4881,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4971,7 +4971,7 @@
         <v>2.2</v>
       </c>
       <c r="AT18">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -5454,7 +5454,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5645,7 +5645,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5836,7 +5836,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -6114,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AT24">
         <v>0.79</v>
@@ -6409,7 +6409,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6982,7 +6982,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7836,7 +7836,7 @@
         <v>1.07</v>
       </c>
       <c r="AT33">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AU33">
         <v>1.75</v>
@@ -8319,7 +8319,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8892,7 +8892,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -9083,7 +9083,7 @@
         <v>98</v>
       </c>
       <c r="P40" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -9656,7 +9656,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9847,7 +9847,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10125,7 +10125,7 @@
         <v>1.5</v>
       </c>
       <c r="AS45">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AT45">
         <v>1.47</v>
@@ -10993,7 +10993,7 @@
         <v>96</v>
       </c>
       <c r="P50" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11566,7 +11566,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11656,7 +11656,7 @@
         <v>2.07</v>
       </c>
       <c r="AT53">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AU53">
         <v>1.92</v>
@@ -11757,7 +11757,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -12712,7 +12712,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13667,7 +13667,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14327,7 +14327,7 @@
         <v>2.33</v>
       </c>
       <c r="AS67">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AT67">
         <v>1.33</v>
@@ -14431,7 +14431,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -15004,7 +15004,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15386,7 +15386,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15768,7 +15768,7 @@
         <v>96</v>
       </c>
       <c r="P75" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15858,7 +15858,7 @@
         <v>1.21</v>
       </c>
       <c r="AT75">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AU75">
         <v>1.21</v>
@@ -16150,7 +16150,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16341,7 +16341,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16723,7 +16723,7 @@
         <v>96</v>
       </c>
       <c r="P80" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16914,7 +16914,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -17105,7 +17105,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -18529,7 +18529,7 @@
         <v>0.5</v>
       </c>
       <c r="AS89">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AT89">
         <v>1.47</v>
@@ -18914,7 +18914,7 @@
         <v>1.36</v>
       </c>
       <c r="AT91">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AU91">
         <v>1.55</v>
@@ -22161,7 +22161,7 @@
         <v>2.47</v>
       </c>
       <c r="AT108">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AU108">
         <v>1.73</v>
@@ -22540,7 +22540,7 @@
         <v>0.4</v>
       </c>
       <c r="AS110">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AT110">
         <v>0.93</v>
@@ -23495,7 +23495,7 @@
         <v>0.2</v>
       </c>
       <c r="AS115">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AT115">
         <v>0.79</v>
@@ -25217,7 +25217,7 @@
         <v>1.53</v>
       </c>
       <c r="AT124">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AU124">
         <v>1.96</v>
@@ -28079,7 +28079,7 @@
         <v>1.17</v>
       </c>
       <c r="AS139">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AT139">
         <v>1</v>
@@ -30374,7 +30374,7 @@
         <v>1.53</v>
       </c>
       <c r="AT151">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AU151">
         <v>1.8</v>
@@ -31708,7 +31708,7 @@
         <v>1.57</v>
       </c>
       <c r="AS158">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AT158">
         <v>1.21</v>
@@ -32857,7 +32857,7 @@
         <v>1.13</v>
       </c>
       <c r="AT164">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AU164">
         <v>1.6</v>
@@ -34104,7 +34104,7 @@
         <v>105</v>
       </c>
       <c r="P171" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="Q171">
         <v>8</v>
@@ -34573,7 +34573,7 @@
         <v>0.75</v>
       </c>
       <c r="AS173">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AT173">
         <v>1.07</v>
@@ -35632,7 +35632,7 @@
         <v>86</v>
       </c>
       <c r="P179" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="Q179">
         <v>10</v>
@@ -36295,7 +36295,7 @@
         <v>1.5</v>
       </c>
       <c r="AT182">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AU182">
         <v>1.38</v>
@@ -38969,7 +38969,7 @@
         <v>1.6</v>
       </c>
       <c r="AT196">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AU196">
         <v>1.65</v>
@@ -40112,7 +40112,7 @@
         <v>0.5</v>
       </c>
       <c r="AS202">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AT202">
         <v>0.73</v>
@@ -42598,7 +42598,7 @@
         <v>1.07</v>
       </c>
       <c r="AT215">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AU215">
         <v>1.41</v>
@@ -44123,7 +44123,7 @@
         <v>1.45</v>
       </c>
       <c r="AS223">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AT223">
         <v>1.33</v>
@@ -47373,7 +47373,7 @@
         <v>1.36</v>
       </c>
       <c r="AT240">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AU240">
         <v>1.64</v>
@@ -47752,7 +47752,7 @@
         <v>1</v>
       </c>
       <c r="AS242">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AT242">
         <v>1</v>
@@ -51193,7 +51193,7 @@
         <v>1.93</v>
       </c>
       <c r="AT260">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AU260">
         <v>2.02</v>
@@ -52527,7 +52527,7 @@
         <v>1.77</v>
       </c>
       <c r="AS267">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AT267">
         <v>1.73</v>
@@ -56975,6 +56975,197 @@
       </c>
       <c r="BK290">
         <v>14</v>
+      </c>
+    </row>
+    <row r="291" spans="1:63">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>2604267</v>
+      </c>
+      <c r="C291" t="s">
+        <v>63</v>
+      </c>
+      <c r="D291" t="s">
+        <v>64</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45012.58333333334</v>
+      </c>
+      <c r="F291">
+        <v>29</v>
+      </c>
+      <c r="G291" t="s">
+        <v>72</v>
+      </c>
+      <c r="H291" t="s">
+        <v>71</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>1</v>
+      </c>
+      <c r="K291">
+        <v>1</v>
+      </c>
+      <c r="L291">
+        <v>1</v>
+      </c>
+      <c r="M291">
+        <v>1</v>
+      </c>
+      <c r="N291">
+        <v>2</v>
+      </c>
+      <c r="O291" t="s">
+        <v>275</v>
+      </c>
+      <c r="P291" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q291">
+        <v>6</v>
+      </c>
+      <c r="R291">
+        <v>2</v>
+      </c>
+      <c r="S291">
+        <v>8</v>
+      </c>
+      <c r="T291">
+        <v>3.25</v>
+      </c>
+      <c r="U291">
+        <v>2.2</v>
+      </c>
+      <c r="V291">
+        <v>3.2</v>
+      </c>
+      <c r="W291">
+        <v>1.36</v>
+      </c>
+      <c r="X291">
+        <v>3</v>
+      </c>
+      <c r="Y291">
+        <v>2.75</v>
+      </c>
+      <c r="Z291">
+        <v>1.4</v>
+      </c>
+      <c r="AA291">
+        <v>8</v>
+      </c>
+      <c r="AB291">
+        <v>1.08</v>
+      </c>
+      <c r="AC291">
+        <v>2.55</v>
+      </c>
+      <c r="AD291">
+        <v>5.91</v>
+      </c>
+      <c r="AE291">
+        <v>1.82</v>
+      </c>
+      <c r="AF291">
+        <v>1.05</v>
+      </c>
+      <c r="AG291">
+        <v>9.25</v>
+      </c>
+      <c r="AH291">
+        <v>1.27</v>
+      </c>
+      <c r="AI291">
+        <v>3.4</v>
+      </c>
+      <c r="AJ291">
+        <v>1.75</v>
+      </c>
+      <c r="AK291">
+        <v>1.95</v>
+      </c>
+      <c r="AL291">
+        <v>1.67</v>
+      </c>
+      <c r="AM291">
+        <v>2.1</v>
+      </c>
+      <c r="AN291">
+        <v>1.46</v>
+      </c>
+      <c r="AO291">
+        <v>1.31</v>
+      </c>
+      <c r="AP291">
+        <v>1.47</v>
+      </c>
+      <c r="AQ291">
+        <v>2.36</v>
+      </c>
+      <c r="AR291">
+        <v>1.86</v>
+      </c>
+      <c r="AS291">
+        <v>2.27</v>
+      </c>
+      <c r="AT291">
+        <v>1.8</v>
+      </c>
+      <c r="AU291">
+        <v>1.92</v>
+      </c>
+      <c r="AV291">
+        <v>1.61</v>
+      </c>
+      <c r="AW291">
+        <v>3.53</v>
+      </c>
+      <c r="AX291">
+        <v>1.75</v>
+      </c>
+      <c r="AY291">
+        <v>7.7</v>
+      </c>
+      <c r="AZ291">
+        <v>2.47</v>
+      </c>
+      <c r="BA291">
+        <v>1.18</v>
+      </c>
+      <c r="BB291">
+        <v>1.43</v>
+      </c>
+      <c r="BC291">
+        <v>1.67</v>
+      </c>
+      <c r="BD291">
+        <v>2.05</v>
+      </c>
+      <c r="BE291">
+        <v>2.6</v>
+      </c>
+      <c r="BF291">
+        <v>3</v>
+      </c>
+      <c r="BG291">
+        <v>4</v>
+      </c>
+      <c r="BH291">
+        <v>3</v>
+      </c>
+      <c r="BI291">
+        <v>6</v>
+      </c>
+      <c r="BJ291">
+        <v>6</v>
+      </c>
+      <c r="BK291">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK291"/>
+  <dimension ref="A1:BK300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT2" t="n">
         <v>1.33</v>
@@ -1106,7 +1106,7 @@
         <v>0.87</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT4" t="n">
         <v>0.73</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT6" t="n">
         <v>2.14</v>
@@ -1918,7 +1918,7 @@
         <v>1.53</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.21</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
         <v>1</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.13</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT16" t="n">
         <v>1.73</v>
@@ -3948,7 +3948,7 @@
         <v>1.53</v>
       </c>
       <c r="AT17" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT19" t="n">
         <v>1.33</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT20" t="n">
         <v>1.47</v>
@@ -4760,7 +4760,7 @@
         <v>1.6</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>2.27</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU24" t="n">
         <v>1.07</v>
@@ -5572,7 +5572,7 @@
         <v>1.53</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU25" t="n">
         <v>2.24</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT26" t="n">
         <v>1.47</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT27" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT29" t="n">
         <v>1.33</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT30" t="n">
         <v>0.73</v>
@@ -6790,7 +6790,7 @@
         <v>1.53</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU31" t="n">
         <v>2.32</v>
@@ -6993,7 +6993,7 @@
         <v>1.13</v>
       </c>
       <c r="AT32" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU32" t="n">
         <v>1.92</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT33" t="n">
         <v>1.8</v>
@@ -7399,7 +7399,7 @@
         <v>2.2</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU34" t="n">
         <v>1.97</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT35" t="n">
         <v>0.93</v>
@@ -7802,10 +7802,10 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU36" t="n">
         <v>1.04</v>
@@ -8008,7 +8008,7 @@
         <v>1.6</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU37" t="n">
         <v>1.73</v>
@@ -8208,7 +8208,7 @@
         <v>1</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT38" t="n">
         <v>1.47</v>
@@ -8414,7 +8414,7 @@
         <v>1</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU39" t="n">
         <v>1.41</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT40" t="n">
         <v>1.73</v>
@@ -8820,7 +8820,7 @@
         <v>1.14</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU41" t="n">
         <v>1.34</v>
@@ -9023,7 +9023,7 @@
         <v>1.53</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU42" t="n">
         <v>2.1</v>
@@ -9426,7 +9426,7 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT44" t="n">
         <v>1.33</v>
@@ -9832,7 +9832,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT46" t="n">
         <v>1.47</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT48" t="n">
         <v>1.13</v>
@@ -10444,7 +10444,7 @@
         <v>0.87</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU49" t="n">
         <v>1.55</v>
@@ -11053,7 +11053,7 @@
         <v>1.13</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU52" t="n">
         <v>1.75</v>
@@ -11253,7 +11253,7 @@
         <v>2</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT53" t="n">
         <v>1.8</v>
@@ -11456,7 +11456,7 @@
         <v>1.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT54" t="n">
         <v>1.73</v>
@@ -11662,7 +11662,7 @@
         <v>2.2</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU55" t="n">
         <v>2.13</v>
@@ -11862,10 +11862,10 @@
         <v>3</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU56" t="n">
         <v>1.26</v>
@@ -12068,7 +12068,7 @@
         <v>1.6</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU57" t="n">
         <v>1.42</v>
@@ -12268,7 +12268,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT58" t="n">
         <v>0.93</v>
@@ -12471,10 +12471,10 @@
         <v>1.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU59" t="n">
         <v>0.99</v>
@@ -12674,10 +12674,10 @@
         <v>1.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU60" t="n">
         <v>1.69</v>
@@ -12880,7 +12880,7 @@
         <v>1.14</v>
       </c>
       <c r="AT61" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU61" t="n">
         <v>1.63</v>
@@ -13080,7 +13080,7 @@
         <v>0.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT62" t="n">
         <v>1.13</v>
@@ -13895,7 +13895,7 @@
         <v>1.13</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU66" t="n">
         <v>1.48</v>
@@ -14907,7 +14907,7 @@
         <v>2</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT71" t="n">
         <v>1.73</v>
@@ -15110,7 +15110,7 @@
         <v>0.67</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT72" t="n">
         <v>0.93</v>
@@ -15313,10 +15313,10 @@
         <v>0.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT73" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU73" t="n">
         <v>1.09</v>
@@ -15516,10 +15516,10 @@
         <v>2</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU74" t="n">
         <v>2.15</v>
@@ -15719,7 +15719,7 @@
         <v>1.67</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT75" t="n">
         <v>1.8</v>
@@ -15922,10 +15922,10 @@
         <v>0.33</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU76" t="n">
         <v>1.58</v>
@@ -16128,7 +16128,7 @@
         <v>2.2</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU77" t="n">
         <v>2.1</v>
@@ -16328,10 +16328,10 @@
         <v>0</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU78" t="n">
         <v>1.22</v>
@@ -16534,7 +16534,7 @@
         <v>1.14</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU79" t="n">
         <v>1.76</v>
@@ -16734,10 +16734,10 @@
         <v>0</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU80" t="n">
         <v>1.61</v>
@@ -16940,7 +16940,7 @@
         <v>1.6</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU81" t="n">
         <v>1.51</v>
@@ -18967,7 +18967,7 @@
         <v>2</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT91" t="n">
         <v>1.8</v>
@@ -19170,10 +19170,10 @@
         <v>0.75</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU92" t="n">
         <v>1.56</v>
@@ -19373,10 +19373,10 @@
         <v>1.75</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU93" t="n">
         <v>1.31</v>
@@ -19576,10 +19576,10 @@
         <v>2.25</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU94" t="n">
         <v>1.23</v>
@@ -19779,10 +19779,10 @@
         <v>1.5</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU95" t="n">
         <v>1.8</v>
@@ -19985,7 +19985,7 @@
         <v>2.2</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU96" t="n">
         <v>1.97</v>
@@ -20185,10 +20185,10 @@
         <v>0.25</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU97" t="n">
         <v>1.78</v>
@@ -20391,7 +20391,7 @@
         <v>1.14</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU98" t="n">
         <v>1.69</v>
@@ -20591,10 +20591,10 @@
         <v>1</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT99" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU99" t="n">
         <v>1.21</v>
@@ -20794,7 +20794,7 @@
         <v>0.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT100" t="n">
         <v>0.93</v>
@@ -20997,10 +20997,10 @@
         <v>0.75</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU101" t="n">
         <v>1.49</v>
@@ -23230,10 +23230,10 @@
         <v>0.2</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU112" t="n">
         <v>1.55</v>
@@ -23433,10 +23433,10 @@
         <v>0.6</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU113" t="n">
         <v>1.51</v>
@@ -23636,10 +23636,10 @@
         <v>1.6</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU114" t="n">
         <v>1.95</v>
@@ -23842,7 +23842,7 @@
         <v>2.27</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU115" t="n">
         <v>1.96</v>
@@ -24042,7 +24042,7 @@
         <v>2.6</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT116" t="n">
         <v>2.14</v>
@@ -24245,10 +24245,10 @@
         <v>2</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU117" t="n">
         <v>1.51</v>
@@ -24448,10 +24448,10 @@
         <v>0.8</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU118" t="n">
         <v>1.77</v>
@@ -24651,10 +24651,10 @@
         <v>0.6</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU119" t="n">
         <v>1.3</v>
@@ -24854,7 +24854,7 @@
         <v>1</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT120" t="n">
         <v>1.33</v>
@@ -25057,10 +25057,10 @@
         <v>1.4</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT121" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU121" t="n">
         <v>2.28</v>
@@ -25263,7 +25263,7 @@
         <v>1.21</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU122" t="n">
         <v>1.53</v>
@@ -27290,7 +27290,7 @@
         <v>0.86</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT132" t="n">
         <v>1.33</v>
@@ -27493,10 +27493,10 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU133" t="n">
         <v>1.46</v>
@@ -27696,10 +27696,10 @@
         <v>0.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU134" t="n">
         <v>1.69</v>
@@ -27899,10 +27899,10 @@
         <v>0.67</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU135" t="n">
         <v>1.5</v>
@@ -28102,10 +28102,10 @@
         <v>1.83</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU136" t="n">
         <v>1.35</v>
@@ -28305,7 +28305,7 @@
         <v>2.67</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT137" t="n">
         <v>2.14</v>
@@ -28511,7 +28511,7 @@
         <v>2.47</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU138" t="n">
         <v>1.69</v>
@@ -28714,7 +28714,7 @@
         <v>2.27</v>
       </c>
       <c r="AT139" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU139" t="n">
         <v>1.92</v>
@@ -28914,7 +28914,7 @@
         <v>1</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT140" t="n">
         <v>1.47</v>
@@ -29117,10 +29117,10 @@
         <v>0.33</v>
       </c>
       <c r="AS141" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU141" t="n">
         <v>2</v>
@@ -29929,7 +29929,7 @@
         <v>0.71</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT145" t="n">
         <v>1.13</v>
@@ -30135,7 +30135,7 @@
         <v>1.13</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU146" t="n">
         <v>1.59</v>
@@ -30338,7 +30338,7 @@
         <v>1.53</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU147" t="n">
         <v>1.84</v>
@@ -31350,10 +31350,10 @@
         <v>1.57</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU152" t="n">
         <v>2.19</v>
@@ -31553,7 +31553,7 @@
         <v>2.43</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT153" t="n">
         <v>2.14</v>
@@ -31756,7 +31756,7 @@
         <v>1.13</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT154" t="n">
         <v>1.33</v>
@@ -31959,10 +31959,10 @@
         <v>0.29</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU155" t="n">
         <v>1.45</v>
@@ -32162,7 +32162,7 @@
         <v>1.25</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT156" t="n">
         <v>1.47</v>
@@ -32365,10 +32365,10 @@
         <v>1</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT157" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU157" t="n">
         <v>1.72</v>
@@ -32571,7 +32571,7 @@
         <v>2.27</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU158" t="n">
         <v>2.04</v>
@@ -32774,7 +32774,7 @@
         <v>2.47</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU159" t="n">
         <v>1.66</v>
@@ -32974,10 +32974,10 @@
         <v>0.86</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU160" t="n">
         <v>2.02</v>
@@ -33177,10 +33177,10 @@
         <v>0.57</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU161" t="n">
         <v>1.53</v>
@@ -33380,7 +33380,7 @@
         <v>0.63</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT162" t="n">
         <v>1.13</v>
@@ -33586,7 +33586,7 @@
         <v>1.53</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU163" t="n">
         <v>1.78</v>
@@ -34601,7 +34601,7 @@
         <v>2.2</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU168" t="n">
         <v>2.12</v>
@@ -34804,7 +34804,7 @@
         <v>0.87</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU169" t="n">
         <v>1.63</v>
@@ -35004,7 +35004,7 @@
         <v>0.63</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT170" t="n">
         <v>0.73</v>
@@ -35413,7 +35413,7 @@
         <v>1.21</v>
       </c>
       <c r="AT172" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU172" t="n">
         <v>1.44</v>
@@ -35616,7 +35616,7 @@
         <v>2.27</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU173" t="n">
         <v>2.04</v>
@@ -35816,7 +35816,7 @@
         <v>1.33</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT174" t="n">
         <v>1.33</v>
@@ -36019,10 +36019,10 @@
         <v>0.25</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU175" t="n">
         <v>1.51</v>
@@ -36225,7 +36225,7 @@
         <v>2.47</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU176" t="n">
         <v>1.75</v>
@@ -36425,7 +36425,7 @@
         <v>1.44</v>
       </c>
       <c r="AS177" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT177" t="n">
         <v>1.47</v>
@@ -36628,7 +36628,7 @@
         <v>2.5</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT178" t="n">
         <v>2.14</v>
@@ -36834,7 +36834,7 @@
         <v>1.53</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU179" t="n">
         <v>1.76</v>
@@ -37034,7 +37034,7 @@
         <v>1</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT180" t="n">
         <v>1</v>
@@ -37237,7 +37237,7 @@
         <v>0.89</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT181" t="n">
         <v>1.13</v>
@@ -37440,7 +37440,7 @@
         <v>1.89</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT182" t="n">
         <v>1.8</v>
@@ -37646,7 +37646,7 @@
         <v>1</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU183" t="n">
         <v>1.63</v>
@@ -38252,7 +38252,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT186" t="n">
         <v>0.73</v>
@@ -38458,7 +38458,7 @@
         <v>1.53</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU187" t="n">
         <v>1.85</v>
@@ -38661,7 +38661,7 @@
         <v>0.87</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU188" t="n">
         <v>1.58</v>
@@ -39067,7 +39067,7 @@
         <v>1.14</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU190" t="n">
         <v>1.64</v>
@@ -39267,7 +39267,7 @@
         <v>0.67</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT191" t="n">
         <v>1.47</v>
@@ -39879,7 +39879,7 @@
         <v>1</v>
       </c>
       <c r="AT194" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU194" t="n">
         <v>1.64</v>
@@ -40082,7 +40082,7 @@
         <v>1.13</v>
       </c>
       <c r="AT195" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU195" t="n">
         <v>1.63</v>
@@ -40485,7 +40485,7 @@
         <v>1.7</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT197" t="n">
         <v>1.33</v>
@@ -40688,10 +40688,10 @@
         <v>1.56</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU198" t="n">
         <v>1.7</v>
@@ -40891,10 +40891,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT199" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU199" t="n">
         <v>1.35</v>
@@ -41094,7 +41094,7 @@
         <v>1.7</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT200" t="n">
         <v>1.73</v>
@@ -41300,7 +41300,7 @@
         <v>1.53</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU201" t="n">
         <v>1.86</v>
@@ -41706,7 +41706,7 @@
         <v>1.21</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU203" t="n">
         <v>1.44</v>
@@ -41909,7 +41909,7 @@
         <v>1.53</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU204" t="n">
         <v>1.76</v>
@@ -42109,7 +42109,7 @@
         <v>2.22</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT205" t="n">
         <v>2.14</v>
@@ -42312,7 +42312,7 @@
         <v>1.1</v>
       </c>
       <c r="AS206" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT206" t="n">
         <v>1.13</v>
@@ -42515,7 +42515,7 @@
         <v>0.89</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT207" t="n">
         <v>1</v>
@@ -42718,7 +42718,7 @@
         <v>1.3</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT208" t="n">
         <v>1.47</v>
@@ -42924,7 +42924,7 @@
         <v>0.87</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU209" t="n">
         <v>1.56</v>
@@ -43124,7 +43124,7 @@
         <v>1.5</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT210" t="n">
         <v>1.33</v>
@@ -43330,7 +43330,7 @@
         <v>2.47</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU211" t="n">
         <v>1.73</v>
@@ -43530,10 +43530,10 @@
         <v>0.8</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU212" t="n">
         <v>1.63</v>
@@ -43736,7 +43736,7 @@
         <v>1.13</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU213" t="n">
         <v>1.71</v>
@@ -43939,7 +43939,7 @@
         <v>1</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU214" t="n">
         <v>1.67</v>
@@ -44139,7 +44139,7 @@
         <v>1.82</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT215" t="n">
         <v>1.8</v>
@@ -44345,7 +44345,7 @@
         <v>1.6</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU216" t="n">
         <v>1.65</v>
@@ -44548,7 +44548,7 @@
         <v>1.14</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU217" t="n">
         <v>1.58</v>
@@ -44751,7 +44751,7 @@
         <v>2.2</v>
       </c>
       <c r="AT218" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU218" t="n">
         <v>2.01</v>
@@ -44951,7 +44951,7 @@
         <v>1.09</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT219" t="n">
         <v>1.47</v>
@@ -45154,7 +45154,7 @@
         <v>1.82</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT220" t="n">
         <v>1.73</v>
@@ -45357,7 +45357,7 @@
         <v>1.18</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT221" t="n">
         <v>0.93</v>
@@ -45560,7 +45560,7 @@
         <v>1</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT222" t="n">
         <v>1.13</v>
@@ -45966,7 +45966,7 @@
         <v>0.45</v>
       </c>
       <c r="AS224" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT224" t="n">
         <v>0.73</v>
@@ -46169,7 +46169,7 @@
         <v>1.55</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT225" t="n">
         <v>1.33</v>
@@ -46375,7 +46375,7 @@
         <v>2.47</v>
       </c>
       <c r="AT226" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU226" t="n">
         <v>1.8</v>
@@ -46984,7 +46984,7 @@
         <v>1.53</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU229" t="n">
         <v>1.9</v>
@@ -47184,7 +47184,7 @@
         <v>1.1</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT230" t="n">
         <v>1</v>
@@ -47390,7 +47390,7 @@
         <v>0.87</v>
       </c>
       <c r="AT231" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU231" t="n">
         <v>1.54</v>
@@ -47593,7 +47593,7 @@
         <v>1.13</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU232" t="n">
         <v>1.7</v>
@@ -47796,7 +47796,7 @@
         <v>1.6</v>
       </c>
       <c r="AT233" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU233" t="n">
         <v>1.66</v>
@@ -47996,10 +47996,10 @@
         <v>0.75</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT234" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU234" t="n">
         <v>1.38</v>
@@ -48199,10 +48199,10 @@
         <v>0.73</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU235" t="n">
         <v>1.39</v>
@@ -48402,7 +48402,7 @@
         <v>1.08</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT236" t="n">
         <v>0.93</v>
@@ -48608,7 +48608,7 @@
         <v>1.14</v>
       </c>
       <c r="AT237" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU237" t="n">
         <v>1.56</v>
@@ -48808,7 +48808,7 @@
         <v>1.92</v>
       </c>
       <c r="AS238" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT238" t="n">
         <v>1.73</v>
@@ -49014,7 +49014,7 @@
         <v>2.2</v>
       </c>
       <c r="AT239" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU239" t="n">
         <v>1.95</v>
@@ -49214,7 +49214,7 @@
         <v>1.92</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT240" t="n">
         <v>1.8</v>
@@ -49417,10 +49417,10 @@
         <v>1.64</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT241" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU241" t="n">
         <v>1.39</v>
@@ -49823,7 +49823,7 @@
         <v>1.25</v>
       </c>
       <c r="AS243" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT243" t="n">
         <v>1.47</v>
@@ -50029,7 +50029,7 @@
         <v>1.21</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU244" t="n">
         <v>1.45</v>
@@ -50435,7 +50435,7 @@
         <v>1</v>
       </c>
       <c r="AT246" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU246" t="n">
         <v>1.66</v>
@@ -50838,7 +50838,7 @@
         <v>1.67</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT248" t="n">
         <v>1.33</v>
@@ -51041,7 +51041,7 @@
         <v>0.67</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT249" t="n">
         <v>0.73</v>
@@ -51653,7 +51653,7 @@
         <v>1.6</v>
       </c>
       <c r="AT252" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU252" t="n">
         <v>1.69</v>
@@ -51853,10 +51853,10 @@
         <v>0.67</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT253" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU253" t="n">
         <v>1.46</v>
@@ -52056,10 +52056,10 @@
         <v>0.92</v>
       </c>
       <c r="AS254" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT254" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU254" t="n">
         <v>1.88</v>
@@ -52259,7 +52259,7 @@
         <v>1.08</v>
       </c>
       <c r="AS255" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT255" t="n">
         <v>0.93</v>
@@ -52465,7 +52465,7 @@
         <v>1.14</v>
       </c>
       <c r="AT256" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU256" t="n">
         <v>1.6</v>
@@ -52668,7 +52668,7 @@
         <v>2.2</v>
       </c>
       <c r="AT257" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU257" t="n">
         <v>1.95</v>
@@ -52868,10 +52868,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT258" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU258" t="n">
         <v>1.35</v>
@@ -53071,10 +53071,10 @@
         <v>1.75</v>
       </c>
       <c r="AS259" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT259" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU259" t="n">
         <v>1.7</v>
@@ -53274,7 +53274,7 @@
         <v>1.77</v>
       </c>
       <c r="AS260" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT260" t="n">
         <v>1.8</v>
@@ -53477,10 +53477,10 @@
         <v>1.75</v>
       </c>
       <c r="AS261" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT261" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU261" t="n">
         <v>1.41</v>
@@ -54089,7 +54089,7 @@
         <v>1</v>
       </c>
       <c r="AT264" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU264" t="n">
         <v>1.64</v>
@@ -54492,7 +54492,7 @@
         <v>1.38</v>
       </c>
       <c r="AS266" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT266" t="n">
         <v>1.47</v>
@@ -54898,7 +54898,7 @@
         <v>0.62</v>
       </c>
       <c r="AS268" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT268" t="n">
         <v>0.73</v>
@@ -55710,10 +55710,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS272" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT272" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU272" t="n">
         <v>1.35</v>
@@ -55913,10 +55913,10 @@
         <v>1.85</v>
       </c>
       <c r="AS273" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT273" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU273" t="n">
         <v>1.85</v>
@@ -56116,10 +56116,10 @@
         <v>1.08</v>
       </c>
       <c r="AS274" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT274" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU274" t="n">
         <v>1.63</v>
@@ -56322,7 +56322,7 @@
         <v>1.14</v>
       </c>
       <c r="AT275" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU275" t="n">
         <v>1.62</v>
@@ -56522,7 +56522,7 @@
         <v>1</v>
       </c>
       <c r="AS276" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT276" t="n">
         <v>0.93</v>
@@ -56725,10 +56725,10 @@
         <v>0.85</v>
       </c>
       <c r="AS277" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT277" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU277" t="n">
         <v>1.45</v>
@@ -56928,10 +56928,10 @@
         <v>0.85</v>
       </c>
       <c r="AS278" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT278" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU278" t="n">
         <v>2</v>
@@ -57134,7 +57134,7 @@
         <v>2.2</v>
       </c>
       <c r="AT279" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU279" t="n">
         <v>2</v>
@@ -57334,10 +57334,10 @@
         <v>0.71</v>
       </c>
       <c r="AS280" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT280" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU280" t="n">
         <v>1.5</v>
@@ -57537,10 +57537,10 @@
         <v>1.85</v>
       </c>
       <c r="AS281" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT281" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU281" t="n">
         <v>1.67</v>
@@ -58552,7 +58552,7 @@
         <v>1.64</v>
       </c>
       <c r="AS286" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT286" t="n">
         <v>1.73</v>
@@ -59622,6 +59622,1833 @@
       </c>
       <c r="BK291" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B292" t="n">
+        <v>2604277</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E292" s="2" t="n">
+        <v>45016.58333333334</v>
+      </c>
+      <c r="F292" t="n">
+        <v>30</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>Bayreuth</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Meppen</t>
+        </is>
+      </c>
+      <c r="I292" t="n">
+        <v>1</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="n">
+        <v>3</v>
+      </c>
+      <c r="M292" t="n">
+        <v>0</v>
+      </c>
+      <c r="N292" t="n">
+        <v>3</v>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>['20', '48', '88']</t>
+        </is>
+      </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q292" t="n">
+        <v>6</v>
+      </c>
+      <c r="R292" t="n">
+        <v>11</v>
+      </c>
+      <c r="S292" t="n">
+        <v>17</v>
+      </c>
+      <c r="T292" t="n">
+        <v>3</v>
+      </c>
+      <c r="U292" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V292" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W292" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X292" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y292" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z292" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA292" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB292" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC292" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AD292" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE292" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF292" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG292" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH292" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI292" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ292" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK292" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL292" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM292" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN292" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO292" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP292" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AQ292" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR292" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AS292" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT292" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU292" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV292" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW292" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX292" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AY292" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ292" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA292" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB292" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC292" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BD292" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE292" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF292" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG292" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH292" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI292" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ292" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK292" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B293" t="n">
+        <v>2604274</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E293" s="2" t="n">
+        <v>45017.375</v>
+      </c>
+      <c r="F293" t="n">
+        <v>30</v>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund II</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Hallescher FC</t>
+        </is>
+      </c>
+      <c r="I293" t="n">
+        <v>0</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0</v>
+      </c>
+      <c r="L293" t="n">
+        <v>0</v>
+      </c>
+      <c r="M293" t="n">
+        <v>0</v>
+      </c>
+      <c r="N293" t="n">
+        <v>0</v>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q293" t="n">
+        <v>5</v>
+      </c>
+      <c r="R293" t="n">
+        <v>8</v>
+      </c>
+      <c r="S293" t="n">
+        <v>13</v>
+      </c>
+      <c r="T293" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U293" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V293" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W293" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X293" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y293" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z293" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA293" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB293" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC293" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD293" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE293" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF293" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG293" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH293" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI293" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ293" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK293" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL293" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM293" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN293" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO293" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP293" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ293" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR293" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AS293" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT293" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU293" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV293" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW293" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX293" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AY293" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ293" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA293" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB293" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC293" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD293" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE293" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF293" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG293" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH293" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI293" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ293" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK293" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B294" t="n">
+        <v>2604268</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E294" s="2" t="n">
+        <v>45017.375</v>
+      </c>
+      <c r="F294" t="n">
+        <v>30</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>Wehen Wiesbaden</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Zwickau</t>
+        </is>
+      </c>
+      <c r="I294" t="n">
+        <v>0</v>
+      </c>
+      <c r="J294" t="n">
+        <v>2</v>
+      </c>
+      <c r="K294" t="n">
+        <v>2</v>
+      </c>
+      <c r="L294" t="n">
+        <v>4</v>
+      </c>
+      <c r="M294" t="n">
+        <v>3</v>
+      </c>
+      <c r="N294" t="n">
+        <v>7</v>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>['47', '53', '73', '89']</t>
+        </is>
+      </c>
+      <c r="P294" t="inlineStr">
+        <is>
+          <t>['25', '33', '59']</t>
+        </is>
+      </c>
+      <c r="Q294" t="n">
+        <v>7</v>
+      </c>
+      <c r="R294" t="n">
+        <v>5</v>
+      </c>
+      <c r="S294" t="n">
+        <v>12</v>
+      </c>
+      <c r="T294" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U294" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V294" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W294" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X294" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y294" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z294" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA294" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB294" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC294" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD294" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE294" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF294" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG294" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH294" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI294" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ294" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK294" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL294" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM294" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN294" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO294" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP294" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ294" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AR294" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS294" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT294" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU294" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV294" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW294" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AX294" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY294" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ294" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BA294" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB294" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BC294" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BD294" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BE294" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BF294" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG294" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH294" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI294" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ294" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK294" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B295" t="n">
+        <v>2604270</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E295" s="2" t="n">
+        <v>45017.375</v>
+      </c>
+      <c r="F295" t="n">
+        <v>30</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>Erzgebirge Aue</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>VfB Oldenburg</t>
+        </is>
+      </c>
+      <c r="I295" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0</v>
+      </c>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="n">
+        <v>0</v>
+      </c>
+      <c r="N295" t="n">
+        <v>1</v>
+      </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P295" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q295" t="n">
+        <v>12</v>
+      </c>
+      <c r="R295" t="n">
+        <v>5</v>
+      </c>
+      <c r="S295" t="n">
+        <v>17</v>
+      </c>
+      <c r="T295" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U295" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V295" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W295" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X295" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y295" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z295" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA295" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB295" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC295" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD295" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE295" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF295" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG295" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="AH295" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI295" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AJ295" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK295" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL295" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM295" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN295" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO295" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP295" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ295" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR295" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS295" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT295" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AU295" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV295" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW295" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX295" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY295" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ295" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BA295" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB295" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC295" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD295" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE295" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF295" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG295" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH295" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI295" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ295" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK295" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B296" t="n">
+        <v>2604273</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E296" s="2" t="n">
+        <v>45017.375</v>
+      </c>
+      <c r="F296" t="n">
+        <v>30</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>Rot-Weiss Essen</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Freiburg II</t>
+        </is>
+      </c>
+      <c r="I296" t="n">
+        <v>1</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="n">
+        <v>2</v>
+      </c>
+      <c r="M296" t="n">
+        <v>0</v>
+      </c>
+      <c r="N296" t="n">
+        <v>2</v>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>['43', '49']</t>
+        </is>
+      </c>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q296" t="n">
+        <v>2</v>
+      </c>
+      <c r="R296" t="n">
+        <v>4</v>
+      </c>
+      <c r="S296" t="n">
+        <v>6</v>
+      </c>
+      <c r="T296" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U296" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V296" t="n">
+        <v>3</v>
+      </c>
+      <c r="W296" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X296" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y296" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z296" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA296" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB296" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC296" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD296" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE296" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF296" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG296" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AH296" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI296" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ296" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK296" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL296" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM296" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN296" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO296" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP296" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ296" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR296" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AS296" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT296" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU296" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV296" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW296" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX296" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AY296" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ296" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BA296" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB296" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC296" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD296" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BE296" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF296" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG296" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH296" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI296" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ296" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK296" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B297" t="n">
+        <v>2604275</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E297" s="2" t="n">
+        <v>45017.375</v>
+      </c>
+      <c r="F297" t="n">
+        <v>30</v>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>Viktoria Köln</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Verl</t>
+        </is>
+      </c>
+      <c r="I297" t="n">
+        <v>0</v>
+      </c>
+      <c r="J297" t="n">
+        <v>1</v>
+      </c>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="n">
+        <v>2</v>
+      </c>
+      <c r="M297" t="n">
+        <v>1</v>
+      </c>
+      <c r="N297" t="n">
+        <v>3</v>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>['67', '85']</t>
+        </is>
+      </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q297" t="n">
+        <v>5</v>
+      </c>
+      <c r="R297" t="n">
+        <v>6</v>
+      </c>
+      <c r="S297" t="n">
+        <v>11</v>
+      </c>
+      <c r="T297" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U297" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V297" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W297" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X297" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y297" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z297" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA297" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB297" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC297" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD297" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE297" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF297" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG297" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH297" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI297" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ297" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK297" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL297" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM297" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN297" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO297" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP297" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ297" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR297" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS297" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT297" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU297" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV297" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW297" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX297" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY297" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ297" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA297" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB297" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC297" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD297" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE297" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF297" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG297" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH297" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI297" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ297" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK297" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B298" t="n">
+        <v>2604269</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E298" s="2" t="n">
+        <v>45018.33333333334</v>
+      </c>
+      <c r="F298" t="n">
+        <v>30</v>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>Osnabrück</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Dynamo Dresden</t>
+        </is>
+      </c>
+      <c r="I298" t="n">
+        <v>0</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0</v>
+      </c>
+      <c r="L298" t="n">
+        <v>0</v>
+      </c>
+      <c r="M298" t="n">
+        <v>1</v>
+      </c>
+      <c r="N298" t="n">
+        <v>1</v>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P298" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q298" t="n">
+        <v>9</v>
+      </c>
+      <c r="R298" t="n">
+        <v>5</v>
+      </c>
+      <c r="S298" t="n">
+        <v>14</v>
+      </c>
+      <c r="T298" t="n">
+        <v>3</v>
+      </c>
+      <c r="U298" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V298" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W298" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X298" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y298" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z298" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA298" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB298" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC298" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD298" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE298" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF298" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG298" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH298" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI298" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ298" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK298" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL298" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM298" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN298" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO298" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP298" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ298" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AR298" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AS298" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AT298" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU298" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV298" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW298" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX298" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AY298" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ298" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BA298" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB298" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC298" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD298" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE298" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF298" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG298" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH298" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI298" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ298" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK298" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B299" t="n">
+        <v>2604276</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E299" s="2" t="n">
+        <v>45018.375</v>
+      </c>
+      <c r="F299" t="n">
+        <v>30</v>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>Saarbrucken</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Waldhof Mannheim</t>
+        </is>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" t="n">
+        <v>1</v>
+      </c>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="n">
+        <v>2</v>
+      </c>
+      <c r="M299" t="n">
+        <v>1</v>
+      </c>
+      <c r="N299" t="n">
+        <v>3</v>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>['49', '53']</t>
+        </is>
+      </c>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="Q299" t="n">
+        <v>5</v>
+      </c>
+      <c r="R299" t="n">
+        <v>6</v>
+      </c>
+      <c r="S299" t="n">
+        <v>11</v>
+      </c>
+      <c r="T299" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U299" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V299" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W299" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X299" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y299" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z299" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA299" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB299" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC299" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD299" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE299" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF299" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG299" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH299" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI299" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ299" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK299" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL299" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM299" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN299" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO299" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP299" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ299" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR299" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AS299" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT299" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU299" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV299" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW299" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AX299" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY299" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ299" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BA299" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB299" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC299" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD299" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE299" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF299" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG299" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH299" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI299" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ299" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK299" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B300" t="n">
+        <v>2604272</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E300" s="2" t="n">
+        <v>45019.58333333334</v>
+      </c>
+      <c r="F300" t="n">
+        <v>30</v>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>Ingolstadt</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>1860 München</t>
+        </is>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" t="n">
+        <v>2</v>
+      </c>
+      <c r="K300" t="n">
+        <v>2</v>
+      </c>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="n">
+        <v>3</v>
+      </c>
+      <c r="N300" t="n">
+        <v>4</v>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="P300" t="inlineStr">
+        <is>
+          <t>['16', '34', '49']</t>
+        </is>
+      </c>
+      <c r="Q300" t="n">
+        <v>5</v>
+      </c>
+      <c r="R300" t="n">
+        <v>4</v>
+      </c>
+      <c r="S300" t="n">
+        <v>9</v>
+      </c>
+      <c r="T300" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U300" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V300" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W300" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X300" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y300" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z300" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA300" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB300" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC300" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AD300" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE300" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF300" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG300" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH300" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI300" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ300" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK300" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL300" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM300" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN300" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO300" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP300" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ300" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR300" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS300" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT300" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU300" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV300" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW300" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX300" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AY300" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ300" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BA300" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB300" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC300" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD300" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE300" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF300" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG300" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH300" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI300" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ300" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK300" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK300"/>
+  <dimension ref="A1:BK306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT3" t="n">
         <v>0.6</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT5" t="n">
         <v>1.47</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT7" t="n">
         <v>1.33</v>
@@ -2324,7 +2324,7 @@
         <v>2.27</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.33</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT14" t="n">
         <v>2</v>
@@ -3745,7 +3745,7 @@
         <v>1.6</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT17" t="n">
         <v>0.93</v>
@@ -4557,7 +4557,7 @@
         <v>1.47</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT22" t="n">
         <v>2.14</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT25" t="n">
         <v>0.6</v>
@@ -5978,7 +5978,7 @@
         <v>1.67</v>
       </c>
       <c r="AT27" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU27" t="n">
         <v>1.77</v>
@@ -6178,10 +6178,10 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU28" t="n">
         <v>1.92</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT31" t="n">
         <v>1</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT32" t="n">
         <v>0.93</v>
@@ -7602,7 +7602,7 @@
         <v>1.06</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU35" t="n">
         <v>1.05</v>
@@ -8211,7 +8211,7 @@
         <v>1.33</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU38" t="n">
         <v>1.37</v>
@@ -8617,7 +8617,7 @@
         <v>1.47</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AU40" t="n">
         <v>1.56</v>
@@ -8817,10 +8817,10 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU41" t="n">
         <v>1.34</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT42" t="n">
         <v>0.8</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT43" t="n">
         <v>2.14</v>
@@ -9835,7 +9835,7 @@
         <v>2</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU46" t="n">
         <v>2.05</v>
@@ -10035,10 +10035,10 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT47" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU47" t="n">
         <v>1.65</v>
@@ -10241,7 +10241,7 @@
         <v>1.67</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU48" t="n">
         <v>2.06</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT49" t="n">
         <v>1</v>
@@ -11050,7 +11050,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT52" t="n">
         <v>0.6</v>
@@ -11459,7 +11459,7 @@
         <v>1</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AU54" t="n">
         <v>1.67</v>
@@ -12271,7 +12271,7 @@
         <v>1.33</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU58" t="n">
         <v>1.22</v>
@@ -12474,7 +12474,7 @@
         <v>1.06</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU59" t="n">
         <v>0.99</v>
@@ -12877,7 +12877,7 @@
         <v>0</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT61" t="n">
         <v>0.93</v>
@@ -13083,7 +13083,7 @@
         <v>1.47</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU62" t="n">
         <v>1.51</v>
@@ -13283,7 +13283,7 @@
         <v>2</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT63" t="n">
         <v>1.33</v>
@@ -13486,10 +13486,10 @@
         <v>0.67</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU64" t="n">
         <v>1.5</v>
@@ -13689,10 +13689,10 @@
         <v>0.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT65" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU65" t="n">
         <v>2.45</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT66" t="n">
         <v>1</v>
@@ -14298,7 +14298,7 @@
         <v>0</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT68" t="n">
         <v>0.73</v>
@@ -14910,7 +14910,7 @@
         <v>1.67</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AU71" t="n">
         <v>1.95</v>
@@ -15113,7 +15113,7 @@
         <v>1.93</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU72" t="n">
         <v>1.91</v>
@@ -15519,7 +15519,7 @@
         <v>2</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU74" t="n">
         <v>2.15</v>
@@ -16531,7 +16531,7 @@
         <v>2</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT79" t="n">
         <v>2</v>
@@ -17140,10 +17140,10 @@
         <v>0.5</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU82" t="n">
         <v>1.9</v>
@@ -17343,7 +17343,7 @@
         <v>0</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT83" t="n">
         <v>0.73</v>
@@ -17546,10 +17546,10 @@
         <v>1.75</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AU84" t="n">
         <v>1.8</v>
@@ -17952,7 +17952,7 @@
         <v>2.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT86" t="n">
         <v>2.14</v>
@@ -18155,7 +18155,7 @@
         <v>1.75</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT87" t="n">
         <v>1.33</v>
@@ -18361,7 +18361,7 @@
         <v>1.21</v>
       </c>
       <c r="AT88" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU88" t="n">
         <v>1.9</v>
@@ -18564,7 +18564,7 @@
         <v>2.27</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU89" t="n">
         <v>2.25</v>
@@ -19782,7 +19782,7 @@
         <v>1.67</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU95" t="n">
         <v>1.8</v>
@@ -20388,7 +20388,7 @@
         <v>0.25</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT98" t="n">
         <v>0.8</v>
@@ -20797,7 +20797,7 @@
         <v>2</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU100" t="n">
         <v>2.2</v>
@@ -21406,7 +21406,7 @@
         <v>1.21</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AU103" t="n">
         <v>1.66</v>
@@ -22012,7 +22012,7 @@
         <v>1.6</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT106" t="n">
         <v>1.33</v>
@@ -22215,10 +22215,10 @@
         <v>0.4</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU107" t="n">
         <v>1.65</v>
@@ -22418,7 +22418,7 @@
         <v>1.6</v>
       </c>
       <c r="AS108" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT108" t="n">
         <v>1.8</v>
@@ -22621,10 +22621,10 @@
         <v>0.6</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU109" t="n">
         <v>2.07</v>
@@ -22827,7 +22827,7 @@
         <v>2.27</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU110" t="n">
         <v>2.11</v>
@@ -23027,10 +23027,10 @@
         <v>0.8</v>
       </c>
       <c r="AS111" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT111" t="n">
         <v>1.13</v>
-      </c>
-      <c r="AT111" t="n">
-        <v>1</v>
       </c>
       <c r="AU111" t="n">
         <v>1.54</v>
@@ -25263,7 +25263,7 @@
         <v>1.21</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU122" t="n">
         <v>1.53</v>
@@ -25463,10 +25463,10 @@
         <v>0.83</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU123" t="n">
         <v>1.65</v>
@@ -25666,7 +25666,7 @@
         <v>1.33</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT124" t="n">
         <v>1.8</v>
@@ -25872,7 +25872,7 @@
         <v>1</v>
       </c>
       <c r="AT125" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU125" t="n">
         <v>1.53</v>
@@ -26072,10 +26072,10 @@
         <v>1.67</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AU126" t="n">
         <v>1.78</v>
@@ -26275,7 +26275,7 @@
         <v>1</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT127" t="n">
         <v>1.47</v>
@@ -26481,7 +26481,7 @@
         <v>2.2</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU128" t="n">
         <v>1.89</v>
@@ -26681,7 +26681,7 @@
         <v>1.83</v>
       </c>
       <c r="AS129" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT129" t="n">
         <v>1.33</v>
@@ -26887,7 +26887,7 @@
         <v>1.6</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU130" t="n">
         <v>1.6</v>
@@ -27087,7 +27087,7 @@
         <v>0.67</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT131" t="n">
         <v>0.73</v>
@@ -28508,7 +28508,7 @@
         <v>1.83</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT138" t="n">
         <v>2</v>
@@ -29323,7 +29323,7 @@
         <v>1</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AU142" t="n">
         <v>1.54</v>
@@ -29523,7 +29523,7 @@
         <v>0.57</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT143" t="n">
         <v>0.73</v>
@@ -29729,7 +29729,7 @@
         <v>2.2</v>
       </c>
       <c r="AT144" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU144" t="n">
         <v>2.01</v>
@@ -29932,7 +29932,7 @@
         <v>1.6</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU145" t="n">
         <v>1.23</v>
@@ -30132,7 +30132,7 @@
         <v>0.17</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT146" t="n">
         <v>0.73</v>
@@ -30335,10 +30335,10 @@
         <v>1.67</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU147" t="n">
         <v>1.84</v>
@@ -30741,10 +30741,10 @@
         <v>1.14</v>
       </c>
       <c r="AS149" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU149" t="n">
         <v>1.62</v>
@@ -30947,7 +30947,7 @@
         <v>1.21</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU150" t="n">
         <v>1.45</v>
@@ -31147,7 +31147,7 @@
         <v>1.57</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT151" t="n">
         <v>1.8</v>
@@ -32771,7 +32771,7 @@
         <v>0.71</v>
       </c>
       <c r="AS159" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT159" t="n">
         <v>0.63</v>
@@ -33383,7 +33383,7 @@
         <v>1.06</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU162" t="n">
         <v>1.4</v>
@@ -33583,7 +33583,7 @@
         <v>0.63</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT163" t="n">
         <v>0.63</v>
@@ -33786,7 +33786,7 @@
         <v>1.75</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT164" t="n">
         <v>1.8</v>
@@ -33992,7 +33992,7 @@
         <v>1</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU165" t="n">
         <v>1.64</v>
@@ -34195,7 +34195,7 @@
         <v>1.6</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AU166" t="n">
         <v>1.63</v>
@@ -34395,7 +34395,7 @@
         <v>1.75</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT167" t="n">
         <v>1.33</v>
@@ -34601,7 +34601,7 @@
         <v>2.2</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU168" t="n">
         <v>2.12</v>
@@ -34801,7 +34801,7 @@
         <v>0.14</v>
       </c>
       <c r="AS169" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT169" t="n">
         <v>0.73</v>
@@ -35207,10 +35207,10 @@
         <v>1.38</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU171" t="n">
         <v>1.86</v>
@@ -36222,7 +36222,7 @@
         <v>1.38</v>
       </c>
       <c r="AS176" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT176" t="n">
         <v>1.33</v>
@@ -36831,7 +36831,7 @@
         <v>0.63</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT179" t="n">
         <v>0.6</v>
@@ -37037,7 +37037,7 @@
         <v>1.33</v>
       </c>
       <c r="AT180" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU180" t="n">
         <v>1.3</v>
@@ -37240,7 +37240,7 @@
         <v>1</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU181" t="n">
         <v>1.56</v>
@@ -37646,7 +37646,7 @@
         <v>1</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU183" t="n">
         <v>1.63</v>
@@ -38052,7 +38052,7 @@
         <v>1.6</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU185" t="n">
         <v>1.6</v>
@@ -38455,7 +38455,7 @@
         <v>0.67</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT187" t="n">
         <v>0.63</v>
@@ -38658,7 +38658,7 @@
         <v>1.38</v>
       </c>
       <c r="AS188" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT188" t="n">
         <v>2</v>
@@ -38861,10 +38861,10 @@
         <v>1.56</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AU189" t="n">
         <v>1.54</v>
@@ -39064,7 +39064,7 @@
         <v>0.25</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT190" t="n">
         <v>0.73</v>
@@ -39270,7 +39270,7 @@
         <v>1.06</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU191" t="n">
         <v>1.46</v>
@@ -39473,7 +39473,7 @@
         <v>2.2</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU192" t="n">
         <v>2.04</v>
@@ -39673,10 +39673,10 @@
         <v>0.9</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU193" t="n">
         <v>1.57</v>
@@ -40079,7 +40079,7 @@
         <v>0.6</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT195" t="n">
         <v>0.63</v>
@@ -40691,7 +40691,7 @@
         <v>1.47</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU198" t="n">
         <v>1.7</v>
@@ -41097,7 +41097,7 @@
         <v>1.06</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AU200" t="n">
         <v>1.47</v>
@@ -41297,7 +41297,7 @@
         <v>1.56</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT201" t="n">
         <v>2</v>
@@ -41906,7 +41906,7 @@
         <v>0.33</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT204" t="n">
         <v>0.8</v>
@@ -42315,7 +42315,7 @@
         <v>1.93</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU206" t="n">
         <v>1.9</v>
@@ -42518,7 +42518,7 @@
         <v>1</v>
       </c>
       <c r="AT207" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU207" t="n">
         <v>1.6</v>
@@ -42921,7 +42921,7 @@
         <v>1.22</v>
       </c>
       <c r="AS209" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT209" t="n">
         <v>1.33</v>
@@ -43327,7 +43327,7 @@
         <v>0.78</v>
       </c>
       <c r="AS211" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT211" t="n">
         <v>1</v>
@@ -43733,10 +43733,10 @@
         <v>1.5</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU213" t="n">
         <v>1.71</v>
@@ -44545,7 +44545,7 @@
         <v>0.82</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT217" t="n">
         <v>0.63</v>
@@ -44954,7 +44954,7 @@
         <v>1</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU219" t="n">
         <v>1.66</v>
@@ -45157,7 +45157,7 @@
         <v>1.33</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AU220" t="n">
         <v>1.3</v>
@@ -45360,7 +45360,7 @@
         <v>1.6</v>
       </c>
       <c r="AT221" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU221" t="n">
         <v>1.35</v>
@@ -45563,7 +45563,7 @@
         <v>2</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU222" t="n">
         <v>2.04</v>
@@ -46372,7 +46372,7 @@
         <v>0.7</v>
       </c>
       <c r="AS226" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT226" t="n">
         <v>0.6</v>
@@ -46778,7 +46778,7 @@
         <v>1.27</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT228" t="n">
         <v>1.47</v>
@@ -46981,7 +46981,7 @@
         <v>0.8</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT229" t="n">
         <v>1</v>
@@ -47187,7 +47187,7 @@
         <v>1.47</v>
       </c>
       <c r="AT230" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU230" t="n">
         <v>1.51</v>
@@ -47387,7 +47387,7 @@
         <v>0.3</v>
       </c>
       <c r="AS231" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT231" t="n">
         <v>0.8</v>
@@ -47590,7 +47590,7 @@
         <v>1.09</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT232" t="n">
         <v>1.33</v>
@@ -48405,7 +48405,7 @@
         <v>1</v>
       </c>
       <c r="AT236" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU236" t="n">
         <v>1.7</v>
@@ -48605,7 +48605,7 @@
         <v>0.64</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT237" t="n">
         <v>0.6</v>
@@ -48811,7 +48811,7 @@
         <v>1.93</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AU238" t="n">
         <v>1.87</v>
@@ -49420,7 +49420,7 @@
         <v>1.6</v>
       </c>
       <c r="AT241" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU241" t="n">
         <v>1.39</v>
@@ -49623,7 +49623,7 @@
         <v>2.27</v>
       </c>
       <c r="AT242" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU242" t="n">
         <v>1.93</v>
@@ -49826,7 +49826,7 @@
         <v>1.67</v>
       </c>
       <c r="AT243" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU243" t="n">
         <v>1.85</v>
@@ -50229,10 +50229,10 @@
         <v>1.17</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT245" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU245" t="n">
         <v>1.78</v>
@@ -50635,7 +50635,7 @@
         <v>1.25</v>
       </c>
       <c r="AS247" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT247" t="n">
         <v>1.47</v>
@@ -51244,7 +51244,7 @@
         <v>1.33</v>
       </c>
       <c r="AS250" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT250" t="n">
         <v>1.33</v>
@@ -51447,7 +51447,7 @@
         <v>2.36</v>
       </c>
       <c r="AS251" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT251" t="n">
         <v>2.14</v>
@@ -52262,7 +52262,7 @@
         <v>1.47</v>
       </c>
       <c r="AT255" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU255" t="n">
         <v>1.62</v>
@@ -52462,7 +52462,7 @@
         <v>1.08</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT256" t="n">
         <v>1.33</v>
@@ -53074,7 +53074,7 @@
         <v>1</v>
       </c>
       <c r="AT259" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU259" t="n">
         <v>1.7</v>
@@ -53680,7 +53680,7 @@
         <v>1.38</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT262" t="n">
         <v>1.47</v>
@@ -53883,7 +53883,7 @@
         <v>2.17</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT263" t="n">
         <v>2.14</v>
@@ -54292,7 +54292,7 @@
         <v>1.21</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU265" t="n">
         <v>1.39</v>
@@ -54495,7 +54495,7 @@
         <v>1.47</v>
       </c>
       <c r="AT266" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU266" t="n">
         <v>1.52</v>
@@ -54698,7 +54698,7 @@
         <v>2.27</v>
       </c>
       <c r="AT267" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AU267" t="n">
         <v>1.95</v>
@@ -55101,10 +55101,10 @@
         <v>0.92</v>
       </c>
       <c r="AS269" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT269" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU269" t="n">
         <v>1.56</v>
@@ -55304,7 +55304,7 @@
         <v>1.54</v>
       </c>
       <c r="AS270" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT270" t="n">
         <v>1.33</v>
@@ -55507,7 +55507,7 @@
         <v>1.46</v>
       </c>
       <c r="AS271" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT271" t="n">
         <v>1.33</v>
@@ -55916,7 +55916,7 @@
         <v>1.93</v>
       </c>
       <c r="AT273" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU273" t="n">
         <v>1.85</v>
@@ -56319,7 +56319,7 @@
         <v>1.08</v>
       </c>
       <c r="AS275" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT275" t="n">
         <v>1</v>
@@ -56525,7 +56525,7 @@
         <v>1.67</v>
       </c>
       <c r="AT276" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU276" t="n">
         <v>1.93</v>
@@ -57740,7 +57740,7 @@
         <v>1.36</v>
       </c>
       <c r="AS282" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT282" t="n">
         <v>1.33</v>
@@ -57943,7 +57943,7 @@
         <v>1.36</v>
       </c>
       <c r="AS283" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT283" t="n">
         <v>1.47</v>
@@ -58349,10 +58349,10 @@
         <v>1.36</v>
       </c>
       <c r="AS285" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT285" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU285" t="n">
         <v>1.85</v>
@@ -58555,7 +58555,7 @@
         <v>1.47</v>
       </c>
       <c r="AT286" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AU286" t="n">
         <v>1.54</v>
@@ -58758,7 +58758,7 @@
         <v>1</v>
       </c>
       <c r="AT287" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU287" t="n">
         <v>1.61</v>
@@ -58958,7 +58958,7 @@
         <v>0.57</v>
       </c>
       <c r="AS288" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT288" t="n">
         <v>0.73</v>
@@ -59161,10 +59161,10 @@
         <v>0.85</v>
       </c>
       <c r="AS289" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT289" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU289" t="n">
         <v>1.78</v>
@@ -60585,7 +60585,7 @@
         <v>1.47</v>
       </c>
       <c r="AT296" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU296" t="n">
         <v>1.56</v>
@@ -61449,6 +61449,1224 @@
       </c>
       <c r="BK300" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B301" t="n">
+        <v>2604281</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E301" s="2" t="n">
+        <v>45024.375</v>
+      </c>
+      <c r="F301" t="n">
+        <v>31</v>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>Waldhof Mannheim</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Freiburg II</t>
+        </is>
+      </c>
+      <c r="I301" t="n">
+        <v>0</v>
+      </c>
+      <c r="J301" t="n">
+        <v>1</v>
+      </c>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="n">
+        <v>2</v>
+      </c>
+      <c r="M301" t="n">
+        <v>1</v>
+      </c>
+      <c r="N301" t="n">
+        <v>3</v>
+      </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>['85', '90+4']</t>
+        </is>
+      </c>
+      <c r="P301" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q301" t="n">
+        <v>8</v>
+      </c>
+      <c r="R301" t="n">
+        <v>9</v>
+      </c>
+      <c r="S301" t="n">
+        <v>17</v>
+      </c>
+      <c r="T301" t="n">
+        <v>3</v>
+      </c>
+      <c r="U301" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V301" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W301" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X301" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y301" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z301" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA301" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AB301" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC301" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD301" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE301" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF301" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG301" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AH301" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI301" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ301" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK301" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL301" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM301" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN301" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO301" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP301" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ301" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AR301" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS301" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT301" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU301" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV301" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW301" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX301" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AY301" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ301" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BA301" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB301" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC301" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD301" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE301" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF301" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG301" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH301" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI301" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ301" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK301" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B302" t="n">
+        <v>2604280</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E302" s="2" t="n">
+        <v>45024.375</v>
+      </c>
+      <c r="F302" t="n">
+        <v>31</v>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>1860 München</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>Osnabrück</t>
+        </is>
+      </c>
+      <c r="I302" t="n">
+        <v>1</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="n">
+        <v>3</v>
+      </c>
+      <c r="M302" t="n">
+        <v>0</v>
+      </c>
+      <c r="N302" t="n">
+        <v>3</v>
+      </c>
+      <c r="O302" t="inlineStr">
+        <is>
+          <t>['39', '69', '89']</t>
+        </is>
+      </c>
+      <c r="P302" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q302" t="n">
+        <v>2</v>
+      </c>
+      <c r="R302" t="n">
+        <v>4</v>
+      </c>
+      <c r="S302" t="n">
+        <v>6</v>
+      </c>
+      <c r="T302" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U302" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V302" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W302" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X302" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y302" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Z302" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA302" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB302" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC302" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD302" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE302" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF302" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG302" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="AH302" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI302" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="AJ302" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK302" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL302" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM302" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN302" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO302" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP302" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ302" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AR302" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS302" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT302" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU302" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV302" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW302" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX302" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AY302" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ302" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BA302" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB302" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BC302" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BD302" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE302" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BF302" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG302" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH302" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI302" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ302" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK302" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B303" t="n">
+        <v>2604278</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E303" s="2" t="n">
+        <v>45024.375</v>
+      </c>
+      <c r="F303" t="n">
+        <v>31</v>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>VfB Oldenburg</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>Wehen Wiesbaden</t>
+        </is>
+      </c>
+      <c r="I303" t="n">
+        <v>0</v>
+      </c>
+      <c r="J303" t="n">
+        <v>2</v>
+      </c>
+      <c r="K303" t="n">
+        <v>2</v>
+      </c>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="n">
+        <v>2</v>
+      </c>
+      <c r="N303" t="n">
+        <v>3</v>
+      </c>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="P303" t="inlineStr">
+        <is>
+          <t>['39', '45+1']</t>
+        </is>
+      </c>
+      <c r="Q303" t="n">
+        <v>2</v>
+      </c>
+      <c r="R303" t="n">
+        <v>8</v>
+      </c>
+      <c r="S303" t="n">
+        <v>10</v>
+      </c>
+      <c r="T303" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U303" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V303" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="W303" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X303" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y303" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Z303" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA303" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB303" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC303" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AD303" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE303" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AF303" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG303" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="AH303" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI303" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="AJ303" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK303" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL303" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM303" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AN303" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AO303" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP303" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ303" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AR303" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS303" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AT303" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AU303" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV303" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AW303" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AX303" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AY303" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ303" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BA303" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB303" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC303" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD303" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE303" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF303" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG303" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH303" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI303" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ303" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK303" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B304" t="n">
+        <v>2604284</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E304" s="2" t="n">
+        <v>45024.375</v>
+      </c>
+      <c r="F304" t="n">
+        <v>31</v>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>Hallescher FC</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>Erzgebirge Aue</t>
+        </is>
+      </c>
+      <c r="I304" t="n">
+        <v>1</v>
+      </c>
+      <c r="J304" t="n">
+        <v>2</v>
+      </c>
+      <c r="K304" t="n">
+        <v>3</v>
+      </c>
+      <c r="L304" t="n">
+        <v>5</v>
+      </c>
+      <c r="M304" t="n">
+        <v>2</v>
+      </c>
+      <c r="N304" t="n">
+        <v>7</v>
+      </c>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>['4', '74', '81', '90+2', '90+4']</t>
+        </is>
+      </c>
+      <c r="P304" t="inlineStr">
+        <is>
+          <t>['6', '23']</t>
+        </is>
+      </c>
+      <c r="Q304" t="n">
+        <v>5</v>
+      </c>
+      <c r="R304" t="n">
+        <v>8</v>
+      </c>
+      <c r="S304" t="n">
+        <v>13</v>
+      </c>
+      <c r="T304" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U304" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="V304" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="W304" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X304" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y304" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z304" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA304" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB304" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC304" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD304" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE304" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF304" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG304" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH304" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI304" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ304" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK304" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL304" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM304" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN304" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO304" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP304" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ304" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR304" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS304" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT304" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AU304" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV304" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW304" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX304" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY304" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ304" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BA304" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB304" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC304" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD304" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE304" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF304" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG304" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH304" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI304" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ304" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK304" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B305" t="n">
+        <v>2604285</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E305" s="2" t="n">
+        <v>45024.375</v>
+      </c>
+      <c r="F305" t="n">
+        <v>31</v>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>Dynamo Dresden</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>Rot-Weiss Essen</t>
+        </is>
+      </c>
+      <c r="I305" t="n">
+        <v>1</v>
+      </c>
+      <c r="J305" t="n">
+        <v>1</v>
+      </c>
+      <c r="K305" t="n">
+        <v>2</v>
+      </c>
+      <c r="L305" t="n">
+        <v>2</v>
+      </c>
+      <c r="M305" t="n">
+        <v>1</v>
+      </c>
+      <c r="N305" t="n">
+        <v>3</v>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>['13', '66']</t>
+        </is>
+      </c>
+      <c r="P305" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q305" t="n">
+        <v>6</v>
+      </c>
+      <c r="R305" t="n">
+        <v>1</v>
+      </c>
+      <c r="S305" t="n">
+        <v>7</v>
+      </c>
+      <c r="T305" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U305" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V305" t="n">
+        <v>5</v>
+      </c>
+      <c r="W305" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X305" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y305" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z305" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA305" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB305" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC305" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD305" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE305" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF305" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG305" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH305" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI305" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ305" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK305" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL305" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM305" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN305" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO305" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP305" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ305" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AR305" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS305" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT305" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU305" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV305" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW305" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX305" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY305" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ305" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BA305" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB305" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC305" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD305" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE305" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF305" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG305" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH305" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI305" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ305" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK305" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B306" t="n">
+        <v>2604279</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E306" s="2" t="n">
+        <v>45024.375</v>
+      </c>
+      <c r="F306" t="n">
+        <v>31</v>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>MSV Duisburg</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund II</t>
+        </is>
+      </c>
+      <c r="I306" t="n">
+        <v>0</v>
+      </c>
+      <c r="J306" t="n">
+        <v>1</v>
+      </c>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="n">
+        <v>0</v>
+      </c>
+      <c r="M306" t="n">
+        <v>5</v>
+      </c>
+      <c r="N306" t="n">
+        <v>5</v>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P306" t="inlineStr">
+        <is>
+          <t>['25', '57', '67', '70', '75']</t>
+        </is>
+      </c>
+      <c r="Q306" t="n">
+        <v>7</v>
+      </c>
+      <c r="R306" t="n">
+        <v>5</v>
+      </c>
+      <c r="S306" t="n">
+        <v>12</v>
+      </c>
+      <c r="T306" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U306" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V306" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W306" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X306" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y306" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z306" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA306" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB306" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC306" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD306" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE306" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF306" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG306" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH306" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI306" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AJ306" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK306" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL306" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM306" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN306" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO306" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP306" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ306" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR306" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS306" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT306" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU306" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV306" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW306" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX306" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY306" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ306" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BA306" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB306" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC306" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD306" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE306" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF306" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG306" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH306" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI306" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ306" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK306" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK309"/>
+  <dimension ref="A1:BK310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>2.5</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT18" t="n">
         <v>1.75</v>
@@ -5775,7 +5775,7 @@
         <v>1.47</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU26" t="n">
         <v>1.37</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT34" t="n">
         <v>0.63</v>
@@ -9632,7 +9632,7 @@
         <v>2.27</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU45" t="n">
         <v>2.15</v>
@@ -11659,7 +11659,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT55" t="n">
         <v>0.73</v>
@@ -14707,7 +14707,7 @@
         <v>1.2</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU70" t="n">
         <v>1.87</v>
@@ -16125,7 +16125,7 @@
         <v>2.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT77" t="n">
         <v>1.33</v>
@@ -17752,7 +17752,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU85" t="n">
         <v>1.59</v>
@@ -19982,7 +19982,7 @@
         <v>0</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT96" t="n">
         <v>1</v>
@@ -21203,7 +21203,7 @@
         <v>1.69</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU102" t="n">
         <v>1.61</v>
@@ -21606,7 +21606,7 @@
         <v>1.2</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT104" t="n">
         <v>1.33</v>
@@ -26278,7 +26278,7 @@
         <v>1.07</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU127" t="n">
         <v>1.68</v>
@@ -26478,7 +26478,7 @@
         <v>0.5</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT128" t="n">
         <v>1.38</v>
@@ -28917,7 +28917,7 @@
         <v>1</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU140" t="n">
         <v>1.51</v>
@@ -29726,7 +29726,7 @@
         <v>1.14</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT144" t="n">
         <v>1.13</v>
@@ -32165,7 +32165,7 @@
         <v>1.06</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU156" t="n">
         <v>1.49</v>
@@ -34598,7 +34598,7 @@
         <v>1.57</v>
       </c>
       <c r="AS168" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT168" t="n">
         <v>1.56</v>
@@ -36428,7 +36428,7 @@
         <v>1.93</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU177" t="n">
         <v>1.89</v>
@@ -37846,7 +37846,7 @@
         <v>1.89</v>
       </c>
       <c r="AS184" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT184" t="n">
         <v>1.44</v>
@@ -39470,7 +39470,7 @@
         <v>1.3</v>
       </c>
       <c r="AS192" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT192" t="n">
         <v>0.88</v>
@@ -42721,7 +42721,7 @@
         <v>2</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU208" t="n">
         <v>2.12</v>
@@ -44748,7 +44748,7 @@
         <v>1.1</v>
       </c>
       <c r="AS218" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT218" t="n">
         <v>0.93</v>
@@ -46781,7 +46781,7 @@
         <v>1.63</v>
       </c>
       <c r="AT228" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU228" t="n">
         <v>1.76</v>
@@ -49011,7 +49011,7 @@
         <v>1.82</v>
       </c>
       <c r="AS239" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT239" t="n">
         <v>2</v>
@@ -50638,7 +50638,7 @@
         <v>1.63</v>
       </c>
       <c r="AT247" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU247" t="n">
         <v>1.87</v>
@@ -52665,7 +52665,7 @@
         <v>0.67</v>
       </c>
       <c r="AS257" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT257" t="n">
         <v>0.6</v>
@@ -53683,7 +53683,7 @@
         <v>1.25</v>
       </c>
       <c r="AT262" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU262" t="n">
         <v>1.67</v>
@@ -57131,7 +57131,7 @@
         <v>0.77</v>
       </c>
       <c r="AS279" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT279" t="n">
         <v>0.8</v>
@@ -57946,7 +57946,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AT283" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU283" t="n">
         <v>1.57</v>
@@ -63276,6 +63276,209 @@
       </c>
       <c r="BK309" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B310" t="n">
+        <v>2604282</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E310" s="2" t="n">
+        <v>45026.58333333334</v>
+      </c>
+      <c r="F310" t="n">
+        <v>31</v>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>Elversberg</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>Viktoria Köln</t>
+        </is>
+      </c>
+      <c r="I310" t="n">
+        <v>2</v>
+      </c>
+      <c r="J310" t="n">
+        <v>1</v>
+      </c>
+      <c r="K310" t="n">
+        <v>3</v>
+      </c>
+      <c r="L310" t="n">
+        <v>3</v>
+      </c>
+      <c r="M310" t="n">
+        <v>2</v>
+      </c>
+      <c r="N310" t="n">
+        <v>5</v>
+      </c>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>['12', '45', '55']</t>
+        </is>
+      </c>
+      <c r="P310" t="inlineStr">
+        <is>
+          <t>['2', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q310" t="n">
+        <v>6</v>
+      </c>
+      <c r="R310" t="n">
+        <v>6</v>
+      </c>
+      <c r="S310" t="n">
+        <v>12</v>
+      </c>
+      <c r="T310" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U310" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V310" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W310" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X310" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y310" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z310" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA310" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB310" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC310" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD310" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AE310" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF310" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG310" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH310" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI310" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AJ310" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK310" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL310" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM310" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN310" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO310" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP310" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ310" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR310" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS310" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT310" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU310" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AV310" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW310" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AX310" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY310" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ310" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BA310" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB310" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC310" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD310" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE310" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF310" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG310" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH310" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI310" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ310" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK310" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK310"/>
+  <dimension ref="A1:BK311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT8" t="n">
         <v>1</v>
@@ -3339,7 +3339,7 @@
         <v>1.25</v>
       </c>
       <c r="AT14" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT27" t="n">
         <v>1.13</v>
@@ -7805,7 +7805,7 @@
         <v>1.6</v>
       </c>
       <c r="AT36" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU36" t="n">
         <v>1.04</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT48" t="n">
         <v>1.06</v>
@@ -12677,7 +12677,7 @@
         <v>1.47</v>
       </c>
       <c r="AT60" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU60" t="n">
         <v>1.69</v>
@@ -14907,7 +14907,7 @@
         <v>2</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT71" t="n">
         <v>1.81</v>
@@ -16534,7 +16534,7 @@
         <v>1.07</v>
       </c>
       <c r="AT79" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU79" t="n">
         <v>1.76</v>
@@ -19579,7 +19579,7 @@
         <v>1.33</v>
       </c>
       <c r="AT94" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU94" t="n">
         <v>1.23</v>
@@ -19779,7 +19779,7 @@
         <v>1.5</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT95" t="n">
         <v>1.56</v>
@@ -24248,7 +24248,7 @@
         <v>1.47</v>
       </c>
       <c r="AT117" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU117" t="n">
         <v>1.51</v>
@@ -24448,7 +24448,7 @@
         <v>0.8</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT118" t="n">
         <v>0.63</v>
@@ -27696,7 +27696,7 @@
         <v>0.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT134" t="n">
         <v>0.6</v>
@@ -28511,7 +28511,7 @@
         <v>2.5</v>
       </c>
       <c r="AT138" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU138" t="n">
         <v>1.69</v>
@@ -31353,7 +31353,7 @@
         <v>2</v>
       </c>
       <c r="AT152" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU152" t="n">
         <v>2.19</v>
@@ -32365,7 +32365,7 @@
         <v>1</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT157" t="n">
         <v>0.93</v>
@@ -35816,7 +35816,7 @@
         <v>1.33</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT174" t="n">
         <v>1.33</v>
@@ -38661,7 +38661,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AT188" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU188" t="n">
         <v>1.58</v>
@@ -41300,7 +41300,7 @@
         <v>1.63</v>
       </c>
       <c r="AT201" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU201" t="n">
         <v>1.86</v>
@@ -42109,7 +42109,7 @@
         <v>2.22</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT205" t="n">
         <v>2.14</v>
@@ -44345,7 +44345,7 @@
         <v>1.69</v>
       </c>
       <c r="AT216" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU216" t="n">
         <v>1.65</v>
@@ -46169,7 +46169,7 @@
         <v>1.55</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT225" t="n">
         <v>1.44</v>
@@ -49014,7 +49014,7 @@
         <v>2.25</v>
       </c>
       <c r="AT239" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU239" t="n">
         <v>1.95</v>
@@ -49823,7 +49823,7 @@
         <v>1.25</v>
       </c>
       <c r="AS243" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT243" t="n">
         <v>1.38</v>
@@ -53480,7 +53480,7 @@
         <v>1.06</v>
       </c>
       <c r="AT261" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU261" t="n">
         <v>1.41</v>
@@ -54898,7 +54898,7 @@
         <v>0.62</v>
       </c>
       <c r="AS268" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT268" t="n">
         <v>0.6899999999999999</v>
@@ -56522,7 +56522,7 @@
         <v>1</v>
       </c>
       <c r="AS276" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT276" t="n">
         <v>0.88</v>
@@ -57540,7 +57540,7 @@
         <v>1</v>
       </c>
       <c r="AT281" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU281" t="n">
         <v>1.67</v>
@@ -60991,7 +60991,7 @@
         <v>1.93</v>
       </c>
       <c r="AT298" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU298" t="n">
         <v>1.83</v>
@@ -61191,7 +61191,7 @@
         <v>0.79</v>
       </c>
       <c r="AS299" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT299" t="n">
         <v>0.73</v>
@@ -63479,6 +63479,209 @@
       </c>
       <c r="BK310" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B311" t="n">
+        <v>2604296</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E311" s="2" t="n">
+        <v>45030.58333333334</v>
+      </c>
+      <c r="F311" t="n">
+        <v>32</v>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>Saarbrucken</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Dynamo Dresden</t>
+        </is>
+      </c>
+      <c r="I311" t="n">
+        <v>2</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0</v>
+      </c>
+      <c r="K311" t="n">
+        <v>2</v>
+      </c>
+      <c r="L311" t="n">
+        <v>2</v>
+      </c>
+      <c r="M311" t="n">
+        <v>0</v>
+      </c>
+      <c r="N311" t="n">
+        <v>2</v>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>['28', '45']</t>
+        </is>
+      </c>
+      <c r="P311" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q311" t="n">
+        <v>7</v>
+      </c>
+      <c r="R311" t="n">
+        <v>6</v>
+      </c>
+      <c r="S311" t="n">
+        <v>13</v>
+      </c>
+      <c r="T311" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U311" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V311" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W311" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X311" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y311" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z311" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA311" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB311" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC311" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AD311" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AE311" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AF311" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG311" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="AH311" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI311" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="AJ311" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK311" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL311" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AM311" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AN311" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO311" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP311" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ311" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR311" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS311" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT311" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AU311" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV311" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW311" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX311" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY311" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ311" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA311" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB311" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC311" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD311" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE311" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF311" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG311" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH311" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI311" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ311" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK311" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 3. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK319"/>
+  <dimension ref="A1:BK320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT16" t="n">
         <v>1.81</v>
@@ -5166,7 +5166,7 @@
         <v>1.2</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU23" t="n">
         <v>1.75</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT36" t="n">
         <v>1.88</v>
@@ -10647,7 +10647,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU50" t="n">
         <v>1.78</v>
@@ -11862,7 +11862,7 @@
         <v>3</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT56" t="n">
         <v>1.25</v>
@@ -13286,7 +13286,7 @@
         <v>1.63</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU63" t="n">
         <v>1.93</v>
@@ -16328,7 +16328,7 @@
         <v>0</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT78" t="n">
         <v>0.9399999999999999</v>
@@ -18767,7 +18767,7 @@
         <v>1.69</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU90" t="n">
         <v>1.66</v>
@@ -20591,7 +20591,7 @@
         <v>1</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT99" t="n">
         <v>1.06</v>
@@ -21609,7 +21609,7 @@
         <v>2.25</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU104" t="n">
         <v>1.9</v>
@@ -24042,7 +24042,7 @@
         <v>2.6</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT116" t="n">
         <v>2</v>
@@ -24857,7 +24857,7 @@
         <v>1.18</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU120" t="n">
         <v>1.34</v>
@@ -27293,7 +27293,7 @@
         <v>2.06</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU132" t="n">
         <v>2.35</v>
@@ -29929,7 +29929,7 @@
         <v>0.71</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT145" t="n">
         <v>1.06</v>
@@ -31759,7 +31759,7 @@
         <v>1.38</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU154" t="n">
         <v>1.71</v>
@@ -35004,7 +35004,7 @@
         <v>0.63</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT170" t="n">
         <v>0.6899999999999999</v>
@@ -35819,7 +35819,7 @@
         <v>1.75</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU174" t="n">
         <v>1.78</v>
@@ -37440,7 +37440,7 @@
         <v>1.89</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT182" t="n">
         <v>1.75</v>
@@ -40891,7 +40891,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT199" t="n">
         <v>0.88</v>
@@ -43127,7 +43127,7 @@
         <v>1.38</v>
       </c>
       <c r="AT210" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU210" t="n">
         <v>1.49</v>
@@ -45357,7 +45357,7 @@
         <v>1.18</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT221" t="n">
         <v>0.88</v>
@@ -45766,7 +45766,7 @@
         <v>2.31</v>
       </c>
       <c r="AT223" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU223" t="n">
         <v>2</v>
@@ -49417,7 +49417,7 @@
         <v>1.64</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT241" t="n">
         <v>1.56</v>
@@ -51247,7 +51247,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AT250" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU250" t="n">
         <v>1.58</v>
@@ -52868,7 +52868,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT258" t="n">
         <v>0.59</v>
@@ -55510,7 +55510,7 @@
         <v>1.63</v>
       </c>
       <c r="AT271" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU271" t="n">
         <v>1.81</v>
@@ -55710,7 +55710,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS272" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT272" t="n">
         <v>0.5600000000000001</v>
@@ -57743,7 +57743,7 @@
         <v>1.25</v>
       </c>
       <c r="AT282" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU282" t="n">
         <v>1.7</v>
@@ -60785,7 +60785,7 @@
         <v>1.07</v>
       </c>
       <c r="AS297" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT297" t="n">
         <v>1.13</v>
@@ -65306,6 +65306,209 @@
       </c>
       <c r="BK319" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B320" t="n">
+        <v>2604295</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E320" s="2" t="n">
+        <v>45033.58333333334</v>
+      </c>
+      <c r="F320" t="n">
+        <v>32</v>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>Viktoria Köln</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>MSV Duisburg</t>
+        </is>
+      </c>
+      <c r="I320" t="n">
+        <v>2</v>
+      </c>
+      <c r="J320" t="n">
+        <v>2</v>
+      </c>
+      <c r="K320" t="n">
+        <v>4</v>
+      </c>
+      <c r="L320" t="n">
+        <v>2</v>
+      </c>
+      <c r="M320" t="n">
+        <v>2</v>
+      </c>
+      <c r="N320" t="n">
+        <v>4</v>
+      </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>['30', '33']</t>
+        </is>
+      </c>
+      <c r="P320" t="inlineStr">
+        <is>
+          <t>['4', '17']</t>
+        </is>
+      </c>
+      <c r="Q320" t="n">
+        <v>3</v>
+      </c>
+      <c r="R320" t="n">
+        <v>6</v>
+      </c>
+      <c r="S320" t="n">
+        <v>9</v>
+      </c>
+      <c r="T320" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U320" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V320" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W320" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X320" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y320" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z320" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA320" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB320" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC320" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AD320" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AE320" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AF320" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG320" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH320" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI320" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AJ320" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK320" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL320" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM320" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN320" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO320" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP320" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ320" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR320" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS320" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT320" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU320" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV320" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW320" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX320" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY320" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ320" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA320" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB320" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC320" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD320" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE320" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF320" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG320" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH320" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI320" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ320" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK320" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
